--- a/tabela.xlsx
+++ b/tabela.xlsx
@@ -397,3304 +397,3739 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G145"/>
+  <dimension ref="A1:H145"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
+        <v>29-07-2024</v>
+      </c>
+      <c r="B1" t="str">
         <v/>
       </c>
-      <c r="B1" t="str">
+      <c r="C1" t="str">
         <v>FIXING I</v>
       </c>
-      <c r="C1" t="str">
+      <c r="D1" t="str">
         <v>FIXING II</v>
       </c>
-      <c r="D1" t="str">
+      <c r="E1" t="str">
         <v>Notowania ciągłe</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
+        <v>29-07-2024</v>
+      </c>
+      <c r="B2" t="str">
         <v>Czas</v>
       </c>
-      <c r="B2" t="str">
+      <c r="C2" t="str">
         <v>Kurs (PLN/MWh)</v>
       </c>
-      <c r="C2" t="str">
+      <c r="D2" t="str">
         <v>Wolumen (MWh)</v>
       </c>
-      <c r="D2" t="str">
+      <c r="E2" t="str">
         <v>Kurs (PLN/MWh)</v>
       </c>
-      <c r="E2" t="str">
+      <c r="F2" t="str">
         <v>Wolumen (MWh)</v>
       </c>
-      <c r="F2" t="str">
+      <c r="G2" t="str">
         <v>Kurs (PLN/MWh)</v>
       </c>
-      <c r="G2" t="str">
+      <c r="H2" t="str">
         <v>Wolumen (MWh)</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
+        <v>29-07-2024</v>
+      </c>
+      <c r="B3" t="str">
         <v>0-1</v>
       </c>
-      <c r="B3" t="str">
+      <c r="C3" t="str">
         <v>433,00</v>
       </c>
-      <c r="C3" t="str">
+      <c r="D3" t="str">
         <v>2883,3</v>
       </c>
-      <c r="D3" t="str">
+      <c r="E3" t="str">
         <v>433,56</v>
       </c>
-      <c r="E3" t="str">
+      <c r="F3" t="str">
         <v>1128</v>
       </c>
-      <c r="F3" t="str">
+      <c r="G3" t="str">
         <v>423,00</v>
       </c>
-      <c r="G3" t="str">
+      <c r="H3" t="str">
         <v>20</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
+        <v>29-07-2024</v>
+      </c>
+      <c r="B4" t="str">
         <v>1-2</v>
       </c>
-      <c r="B4" t="str">
+      <c r="C4" t="str">
         <v>380,00</v>
       </c>
-      <c r="C4" t="str">
+      <c r="D4" t="str">
         <v>2776,3</v>
       </c>
-      <c r="D4" t="str">
+      <c r="E4" t="str">
         <v>375,23</v>
       </c>
-      <c r="E4" t="str">
+      <c r="F4" t="str">
         <v>648,9</v>
       </c>
-      <c r="F4" t="str">
-        <v>-</v>
-      </c>
       <c r="G4" t="str">
+        <v>-</v>
+      </c>
+      <c r="H4" t="str">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
+        <v>29-07-2024</v>
+      </c>
+      <c r="B5" t="str">
         <v>2-3</v>
       </c>
-      <c r="B5" t="str">
+      <c r="C5" t="str">
         <v>389,50</v>
       </c>
-      <c r="C5" t="str">
+      <c r="D5" t="str">
         <v>2590,4</v>
       </c>
-      <c r="D5" t="str">
+      <c r="E5" t="str">
         <v>380,90</v>
       </c>
-      <c r="E5" t="str">
+      <c r="F5" t="str">
         <v>835,2</v>
       </c>
-      <c r="F5" t="str">
-        <v>-</v>
-      </c>
       <c r="G5" t="str">
+        <v>-</v>
+      </c>
+      <c r="H5" t="str">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
+        <v>29-07-2024</v>
+      </c>
+      <c r="B6" t="str">
         <v>3-4</v>
       </c>
-      <c r="B6" t="str">
+      <c r="C6" t="str">
         <v>376,00</v>
       </c>
-      <c r="C6" t="str">
+      <c r="D6" t="str">
         <v>2722,2</v>
       </c>
-      <c r="D6" t="str">
+      <c r="E6" t="str">
         <v>375,37</v>
       </c>
-      <c r="E6" t="str">
+      <c r="F6" t="str">
         <v>1042,4</v>
       </c>
-      <c r="F6" t="str">
-        <v>-</v>
-      </c>
       <c r="G6" t="str">
+        <v>-</v>
+      </c>
+      <c r="H6" t="str">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
+        <v>29-07-2024</v>
+      </c>
+      <c r="B7" t="str">
         <v>4-5</v>
       </c>
-      <c r="B7" t="str">
+      <c r="C7" t="str">
         <v>381,08</v>
       </c>
-      <c r="C7" t="str">
+      <c r="D7" t="str">
         <v>2797,7</v>
       </c>
-      <c r="D7" t="str">
+      <c r="E7" t="str">
         <v>375,20</v>
       </c>
-      <c r="E7" t="str">
+      <c r="F7" t="str">
         <v>752,8</v>
       </c>
-      <c r="F7" t="str">
-        <v>-</v>
-      </c>
       <c r="G7" t="str">
+        <v>-</v>
+      </c>
+      <c r="H7" t="str">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
+        <v>29-07-2024</v>
+      </c>
+      <c r="B8" t="str">
         <v>5-6</v>
       </c>
-      <c r="B8" t="str">
+      <c r="C8" t="str">
         <v>393,55</v>
       </c>
-      <c r="C8" t="str">
+      <c r="D8" t="str">
         <v>3007,5</v>
       </c>
-      <c r="D8" t="str">
+      <c r="E8" t="str">
         <v>431,02</v>
       </c>
-      <c r="E8" t="str">
+      <c r="F8" t="str">
         <v>737,5</v>
       </c>
-      <c r="F8" t="str">
-        <v>-</v>
-      </c>
       <c r="G8" t="str">
+        <v>-</v>
+      </c>
+      <c r="H8" t="str">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
+        <v>29-07-2024</v>
+      </c>
+      <c r="B9" t="str">
         <v>6-7</v>
       </c>
-      <c r="B9" t="str">
+      <c r="C9" t="str">
         <v>509,11</v>
       </c>
-      <c r="C9" t="str">
+      <c r="D9" t="str">
         <v>3317,4</v>
       </c>
-      <c r="D9" t="str">
+      <c r="E9" t="str">
         <v>490,78</v>
       </c>
-      <c r="E9" t="str">
+      <c r="F9" t="str">
         <v>1461,1</v>
       </c>
-      <c r="F9" t="str">
-        <v>-</v>
-      </c>
       <c r="G9" t="str">
+        <v>-</v>
+      </c>
+      <c r="H9" t="str">
         <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
+        <v>29-07-2024</v>
+      </c>
+      <c r="B10" t="str">
         <v>7-8</v>
       </c>
-      <c r="B10" t="str">
+      <c r="C10" t="str">
         <v>506,40</v>
       </c>
-      <c r="C10" t="str">
+      <c r="D10" t="str">
         <v>2930</v>
       </c>
-      <c r="D10" t="str">
+      <c r="E10" t="str">
         <v>486,05</v>
       </c>
-      <c r="E10" t="str">
+      <c r="F10" t="str">
         <v>1117,8</v>
       </c>
-      <c r="F10" t="str">
-        <v>-</v>
-      </c>
       <c r="G10" t="str">
+        <v>-</v>
+      </c>
+      <c r="H10" t="str">
         <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
+        <v>29-07-2024</v>
+      </c>
+      <c r="B11" t="str">
         <v>8-9</v>
       </c>
-      <c r="B11" t="str">
+      <c r="C11" t="str">
         <v>416,30</v>
       </c>
-      <c r="C11" t="str">
+      <c r="D11" t="str">
         <v>3061,2</v>
       </c>
-      <c r="D11" t="str">
+      <c r="E11" t="str">
         <v>423,86</v>
       </c>
-      <c r="E11" t="str">
+      <c r="F11" t="str">
         <v>743,1</v>
       </c>
-      <c r="F11" t="str">
-        <v>-</v>
-      </c>
       <c r="G11" t="str">
+        <v>-</v>
+      </c>
+      <c r="H11" t="str">
         <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
+        <v>29-07-2024</v>
+      </c>
+      <c r="B12" t="str">
         <v>9-10</v>
       </c>
-      <c r="B12" t="str">
+      <c r="C12" t="str">
         <v>283,99</v>
       </c>
-      <c r="C12" t="str">
+      <c r="D12" t="str">
         <v>3908,2</v>
       </c>
-      <c r="D12" t="str">
+      <c r="E12" t="str">
         <v>283,87</v>
       </c>
-      <c r="E12" t="str">
+      <c r="F12" t="str">
         <v>1557,5</v>
       </c>
-      <c r="F12" t="str">
-        <v>-</v>
-      </c>
       <c r="G12" t="str">
+        <v>-</v>
+      </c>
+      <c r="H12" t="str">
         <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
+        <v>29-07-2024</v>
+      </c>
+      <c r="B13" t="str">
         <v>10-11</v>
       </c>
-      <c r="B13" t="str">
+      <c r="C13" t="str">
         <v>180,11</v>
       </c>
-      <c r="C13" t="str">
+      <c r="D13" t="str">
         <v>5009</v>
       </c>
-      <c r="D13" t="str">
+      <c r="E13" t="str">
         <v>161,01</v>
       </c>
-      <c r="E13" t="str">
+      <c r="F13" t="str">
         <v>2102,5</v>
       </c>
-      <c r="F13" t="str">
-        <v>-</v>
-      </c>
       <c r="G13" t="str">
+        <v>-</v>
+      </c>
+      <c r="H13" t="str">
         <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
+        <v>29-07-2024</v>
+      </c>
+      <c r="B14" t="str">
         <v>11-12</v>
       </c>
-      <c r="B14" t="str">
+      <c r="C14" t="str">
         <v>90,11</v>
       </c>
-      <c r="C14" t="str">
+      <c r="D14" t="str">
         <v>5265,3</v>
       </c>
-      <c r="D14" t="str">
+      <c r="E14" t="str">
         <v>33,64</v>
       </c>
-      <c r="E14" t="str">
+      <c r="F14" t="str">
         <v>2002,2</v>
       </c>
-      <c r="F14" t="str">
-        <v>-</v>
-      </c>
       <c r="G14" t="str">
+        <v>-</v>
+      </c>
+      <c r="H14" t="str">
         <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
+        <v>29-07-2024</v>
+      </c>
+      <c r="B15" t="str">
         <v>12-13</v>
       </c>
-      <c r="B15" t="str">
+      <c r="C15" t="str">
         <v>30,00</v>
       </c>
-      <c r="C15" t="str">
+      <c r="D15" t="str">
         <v>5106,9</v>
       </c>
-      <c r="D15" t="str">
+      <c r="E15" t="str">
         <v>4,68</v>
       </c>
-      <c r="E15" t="str">
+      <c r="F15" t="str">
         <v>2081</v>
       </c>
-      <c r="F15" t="str">
+      <c r="G15" t="str">
         <v>30,00</v>
       </c>
-      <c r="G15" t="str">
+      <c r="H15" t="str">
         <v>1,6</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
+        <v>29-07-2024</v>
+      </c>
+      <c r="B16" t="str">
         <v>13-14</v>
       </c>
-      <c r="B16" t="str">
+      <c r="C16" t="str">
         <v>10,11</v>
       </c>
-      <c r="C16" t="str">
+      <c r="D16" t="str">
         <v>4834,2</v>
       </c>
-      <c r="D16" t="str">
+      <c r="E16" t="str">
         <v>0,04</v>
       </c>
-      <c r="E16" t="str">
+      <c r="F16" t="str">
         <v>1963,5</v>
       </c>
-      <c r="F16" t="str">
+      <c r="G16" t="str">
         <v>10,11</v>
       </c>
-      <c r="G16" t="str">
+      <c r="H16" t="str">
         <v>3,6</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
+        <v>29-07-2024</v>
+      </c>
+      <c r="B17" t="str">
         <v>14-15</v>
       </c>
-      <c r="B17" t="str">
+      <c r="C17" t="str">
         <v>21,40</v>
       </c>
-      <c r="C17" t="str">
+      <c r="D17" t="str">
         <v>4585,7</v>
       </c>
-      <c r="D17" t="str">
+      <c r="E17" t="str">
         <v>7,46</v>
       </c>
-      <c r="E17" t="str">
+      <c r="F17" t="str">
         <v>1710,2</v>
       </c>
-      <c r="F17" t="str">
+      <c r="G17" t="str">
         <v>21,40</v>
       </c>
-      <c r="G17" t="str">
+      <c r="H17" t="str">
         <v>4,8</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
+        <v>29-07-2024</v>
+      </c>
+      <c r="B18" t="str">
         <v>15-16</v>
       </c>
-      <c r="B18" t="str">
+      <c r="C18" t="str">
         <v>165,00</v>
       </c>
-      <c r="C18" t="str">
+      <c r="D18" t="str">
         <v>3905,8</v>
       </c>
-      <c r="D18" t="str">
+      <c r="E18" t="str">
         <v>60,19</v>
       </c>
-      <c r="E18" t="str">
+      <c r="F18" t="str">
         <v>919,4</v>
       </c>
-      <c r="F18" t="str">
+      <c r="G18" t="str">
         <v>165,00</v>
       </c>
-      <c r="G18" t="str">
+      <c r="H18" t="str">
         <v>20</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
+        <v>29-07-2024</v>
+      </c>
+      <c r="B19" t="str">
         <v>16-17</v>
       </c>
-      <c r="B19" t="str">
+      <c r="C19" t="str">
         <v>315,99</v>
       </c>
-      <c r="C19" t="str">
+      <c r="D19" t="str">
         <v>3216,1</v>
       </c>
-      <c r="D19" t="str">
+      <c r="E19" t="str">
         <v>333,67</v>
       </c>
-      <c r="E19" t="str">
+      <c r="F19" t="str">
         <v>729</v>
       </c>
-      <c r="F19" t="str">
+      <c r="G19" t="str">
         <v>316,00</v>
       </c>
-      <c r="G19" t="str">
+      <c r="H19" t="str">
         <v>11</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
+        <v>29-07-2024</v>
+      </c>
+      <c r="B20" t="str">
         <v>17-18</v>
       </c>
-      <c r="B20" t="str">
+      <c r="C20" t="str">
         <v>380,60</v>
       </c>
-      <c r="C20" t="str">
+      <c r="D20" t="str">
         <v>3471,4</v>
       </c>
-      <c r="D20" t="str">
+      <c r="E20" t="str">
         <v>352,40</v>
       </c>
-      <c r="E20" t="str">
+      <c r="F20" t="str">
         <v>1193,6</v>
       </c>
-      <c r="F20" t="str">
-        <v>-</v>
-      </c>
       <c r="G20" t="str">
+        <v>-</v>
+      </c>
+      <c r="H20" t="str">
         <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
+        <v>29-07-2024</v>
+      </c>
+      <c r="B21" t="str">
         <v>18-19</v>
       </c>
-      <c r="B21" t="str">
+      <c r="C21" t="str">
         <v>481,00</v>
       </c>
-      <c r="C21" t="str">
+      <c r="D21" t="str">
         <v>3695,3</v>
       </c>
-      <c r="D21" t="str">
+      <c r="E21" t="str">
         <v>435,64</v>
       </c>
-      <c r="E21" t="str">
+      <c r="F21" t="str">
         <v>2383,8</v>
       </c>
-      <c r="F21" t="str">
-        <v>-</v>
-      </c>
       <c r="G21" t="str">
+        <v>-</v>
+      </c>
+      <c r="H21" t="str">
         <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
+        <v>29-07-2024</v>
+      </c>
+      <c r="B22" t="str">
         <v>19-20</v>
       </c>
-      <c r="B22" t="str">
+      <c r="C22" t="str">
         <v>682,00</v>
       </c>
-      <c r="C22" t="str">
+      <c r="D22" t="str">
         <v>4475</v>
       </c>
-      <c r="D22" t="str">
+      <c r="E22" t="str">
         <v>656,89</v>
       </c>
-      <c r="E22" t="str">
+      <c r="F22" t="str">
         <v>2695,9</v>
       </c>
-      <c r="F22" t="str">
+      <c r="G22" t="str">
         <v>672,75</v>
       </c>
-      <c r="G22" t="str">
+      <c r="H22" t="str">
         <v>91</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
+        <v>29-07-2024</v>
+      </c>
+      <c r="B23" t="str">
         <v>20-21</v>
       </c>
-      <c r="B23" t="str">
+      <c r="C23" t="str">
         <v>853,40</v>
       </c>
-      <c r="C23" t="str">
+      <c r="D23" t="str">
         <v>4636,4</v>
       </c>
-      <c r="D23" t="str">
+      <c r="E23" t="str">
         <v>901,75</v>
       </c>
-      <c r="E23" t="str">
+      <c r="F23" t="str">
         <v>2699,1</v>
       </c>
-      <c r="F23" t="str">
+      <c r="G23" t="str">
         <v>851,31</v>
       </c>
-      <c r="G23" t="str">
+      <c r="H23" t="str">
         <v>180,2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
+        <v>29-07-2024</v>
+      </c>
+      <c r="B24" t="str">
         <v>21-22</v>
       </c>
-      <c r="B24" t="str">
+      <c r="C24" t="str">
         <v>720,00</v>
       </c>
-      <c r="C24" t="str">
+      <c r="D24" t="str">
         <v>4560,7</v>
       </c>
-      <c r="D24" t="str">
+      <c r="E24" t="str">
         <v>650,61</v>
       </c>
-      <c r="E24" t="str">
+      <c r="F24" t="str">
         <v>2968,2</v>
       </c>
-      <c r="F24" t="str">
+      <c r="G24" t="str">
         <v>711,18</v>
       </c>
-      <c r="G24" t="str">
+      <c r="H24" t="str">
         <v>80,5</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
+        <v>29-07-2024</v>
+      </c>
+      <c r="B25" t="str">
         <v>22-23</v>
       </c>
-      <c r="B25" t="str">
+      <c r="C25" t="str">
         <v>549,00</v>
       </c>
-      <c r="C25" t="str">
+      <c r="D25" t="str">
         <v>4383,7</v>
       </c>
-      <c r="D25" t="str">
+      <c r="E25" t="str">
         <v>509,95</v>
       </c>
-      <c r="E25" t="str">
+      <c r="F25" t="str">
         <v>3388,4</v>
       </c>
-      <c r="F25" t="str">
+      <c r="G25" t="str">
         <v>540,00</v>
       </c>
-      <c r="G25" t="str">
+      <c r="H25" t="str">
         <v>30</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
+        <v>29-07-2024</v>
+      </c>
+      <c r="B26" t="str">
         <v>23-24</v>
       </c>
-      <c r="B26" t="str">
+      <c r="C26" t="str">
         <v>458,00</v>
       </c>
-      <c r="C26" t="str">
+      <c r="D26" t="str">
         <v>3816,3</v>
       </c>
-      <c r="D26" t="str">
+      <c r="E26" t="str">
         <v>424,99</v>
       </c>
-      <c r="E26" t="str">
+      <c r="F26" t="str">
         <v>2886</v>
       </c>
-      <c r="F26" t="str">
+      <c r="G26" t="str">
         <v>455,00</v>
       </c>
-      <c r="G26" t="str">
+      <c r="H26" t="str">
         <v>30</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
+        <v>29-07-2024</v>
+      </c>
+      <c r="B27" t="str">
         <v>Min.</v>
       </c>
-      <c r="B27" t="str">
+      <c r="C27" t="str">
         <v>10,11</v>
       </c>
-      <c r="C27" t="str">
-        <v>-</v>
-      </c>
       <c r="D27" t="str">
+        <v>-</v>
+      </c>
+      <c r="E27" t="str">
         <v>0,04</v>
       </c>
-      <c r="E27" t="str">
-        <v>-</v>
-      </c>
       <c r="F27" t="str">
+        <v>-</v>
+      </c>
+      <c r="G27" t="str">
         <v>10,11</v>
       </c>
-      <c r="G27" t="str">
+      <c r="H27" t="str">
         <v>-</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
+        <v>29-07-2024</v>
+      </c>
+      <c r="B28" t="str">
         <v>Maks.</v>
       </c>
-      <c r="B28" t="str">
+      <c r="C28" t="str">
         <v>853,40</v>
       </c>
-      <c r="C28" t="str">
-        <v>-</v>
-      </c>
       <c r="D28" t="str">
+        <v>-</v>
+      </c>
+      <c r="E28" t="str">
         <v>901,75</v>
       </c>
-      <c r="E28" t="str">
-        <v>-</v>
-      </c>
       <c r="F28" t="str">
+        <v>-</v>
+      </c>
+      <c r="G28" t="str">
         <v>851,31</v>
       </c>
-      <c r="G28" t="str">
+      <c r="H28" t="str">
         <v>-</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
+        <v>29-07-2024</v>
+      </c>
+      <c r="B29" t="str">
         <v>Suma</v>
       </c>
-      <c r="B29" t="str">
+      <c r="C29" t="str">
         <v/>
       </c>
-      <c r="C29" t="str">
+      <c r="D29" t="str">
         <v>90 956</v>
       </c>
-      <c r="D29" t="str">
+      <c r="E29" t="str">
         <v/>
       </c>
-      <c r="E29" t="str">
+      <c r="F29" t="str">
         <v>39 747,1</v>
       </c>
-      <c r="F29" t="str">
+      <c r="G29" t="str">
         <v/>
       </c>
-      <c r="G29" t="str">
+      <c r="H29" t="str">
         <v>472,7</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
+        <v>30-07-2024</v>
+      </c>
+      <c r="B30" t="str">
         <v/>
       </c>
-      <c r="B30" t="str">
+      <c r="C30" t="str">
         <v>FIXING I</v>
       </c>
-      <c r="C30" t="str">
+      <c r="D30" t="str">
         <v>FIXING II</v>
       </c>
-      <c r="D30" t="str">
+      <c r="E30" t="str">
         <v>Notowania ciągłe</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
+        <v>30-07-2024</v>
+      </c>
+      <c r="B31" t="str">
         <v>Czas</v>
       </c>
-      <c r="B31" t="str">
+      <c r="C31" t="str">
         <v>Kurs (PLN/MWh)</v>
       </c>
-      <c r="C31" t="str">
+      <c r="D31" t="str">
         <v>Wolumen (MWh)</v>
       </c>
-      <c r="D31" t="str">
+      <c r="E31" t="str">
         <v>Kurs (PLN/MWh)</v>
       </c>
-      <c r="E31" t="str">
+      <c r="F31" t="str">
         <v>Wolumen (MWh)</v>
       </c>
-      <c r="F31" t="str">
+      <c r="G31" t="str">
         <v>Kurs (PLN/MWh)</v>
       </c>
-      <c r="G31" t="str">
+      <c r="H31" t="str">
         <v>Wolumen (MWh)</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
+        <v>30-07-2024</v>
+      </c>
+      <c r="B32" t="str">
         <v>0-1</v>
       </c>
-      <c r="B32" t="str">
+      <c r="C32" t="str">
         <v>473,14</v>
       </c>
-      <c r="C32" t="str">
+      <c r="D32" t="str">
         <v>3590,6</v>
       </c>
-      <c r="D32" t="str">
+      <c r="E32" t="str">
         <v>423,66</v>
       </c>
-      <c r="E32" t="str">
+      <c r="F32" t="str">
         <v>3017,3</v>
       </c>
-      <c r="F32" t="str">
+      <c r="G32" t="str">
         <v>463,00</v>
       </c>
-      <c r="G32" t="str">
+      <c r="H32" t="str">
         <v>40</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
+        <v>30-07-2024</v>
+      </c>
+      <c r="B33" t="str">
         <v>1-2</v>
       </c>
-      <c r="B33" t="str">
+      <c r="C33" t="str">
         <v>418,00</v>
       </c>
-      <c r="C33" t="str">
+      <c r="D33" t="str">
         <v>3467,1</v>
       </c>
-      <c r="D33" t="str">
+      <c r="E33" t="str">
         <v>372,85</v>
       </c>
-      <c r="E33" t="str">
+      <c r="F33" t="str">
         <v>2630</v>
       </c>
-      <c r="F33" t="str">
-        <v>-</v>
-      </c>
       <c r="G33" t="str">
+        <v>-</v>
+      </c>
+      <c r="H33" t="str">
         <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
+        <v>30-07-2024</v>
+      </c>
+      <c r="B34" t="str">
         <v>2-3</v>
       </c>
-      <c r="B34" t="str">
+      <c r="C34" t="str">
         <v>406,26</v>
       </c>
-      <c r="C34" t="str">
+      <c r="D34" t="str">
         <v>3180,1</v>
       </c>
-      <c r="D34" t="str">
+      <c r="E34" t="str">
         <v>363,45</v>
       </c>
-      <c r="E34" t="str">
+      <c r="F34" t="str">
         <v>2418,6</v>
       </c>
-      <c r="F34" t="str">
-        <v>-</v>
-      </c>
       <c r="G34" t="str">
+        <v>-</v>
+      </c>
+      <c r="H34" t="str">
         <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
+        <v>30-07-2024</v>
+      </c>
+      <c r="B35" t="str">
         <v>3-4</v>
       </c>
-      <c r="B35" t="str">
+      <c r="C35" t="str">
         <v>407,00</v>
       </c>
-      <c r="C35" t="str">
+      <c r="D35" t="str">
         <v>3286,2</v>
       </c>
-      <c r="D35" t="str">
+      <c r="E35" t="str">
         <v>357,63</v>
       </c>
-      <c r="E35" t="str">
+      <c r="F35" t="str">
         <v>2539,7</v>
       </c>
-      <c r="F35" t="str">
-        <v>-</v>
-      </c>
       <c r="G35" t="str">
+        <v>-</v>
+      </c>
+      <c r="H35" t="str">
         <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
+        <v>30-07-2024</v>
+      </c>
+      <c r="B36" t="str">
         <v>4-5</v>
       </c>
-      <c r="B36" t="str">
+      <c r="C36" t="str">
         <v>408,00</v>
       </c>
-      <c r="C36" t="str">
+      <c r="D36" t="str">
         <v>3260,6</v>
       </c>
-      <c r="D36" t="str">
+      <c r="E36" t="str">
         <v>389,06</v>
       </c>
-      <c r="E36" t="str">
+      <c r="F36" t="str">
         <v>2243,2</v>
       </c>
-      <c r="F36" t="str">
-        <v>-</v>
-      </c>
       <c r="G36" t="str">
+        <v>-</v>
+      </c>
+      <c r="H36" t="str">
         <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
+        <v>30-07-2024</v>
+      </c>
+      <c r="B37" t="str">
         <v>5-6</v>
       </c>
-      <c r="B37" t="str">
+      <c r="C37" t="str">
         <v>443,55</v>
       </c>
-      <c r="C37" t="str">
+      <c r="D37" t="str">
         <v>3268,3</v>
       </c>
-      <c r="D37" t="str">
+      <c r="E37" t="str">
         <v>435,91</v>
       </c>
-      <c r="E37" t="str">
+      <c r="F37" t="str">
         <v>1779,2</v>
       </c>
-      <c r="F37" t="str">
+      <c r="G37" t="str">
         <v>443,55</v>
       </c>
-      <c r="G37" t="str">
+      <c r="H37" t="str">
         <v>25</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
+        <v>30-07-2024</v>
+      </c>
+      <c r="B38" t="str">
         <v>6-7</v>
       </c>
-      <c r="B38" t="str">
+      <c r="C38" t="str">
         <v>550,00</v>
       </c>
-      <c r="C38" t="str">
+      <c r="D38" t="str">
         <v>3763,2</v>
       </c>
-      <c r="D38" t="str">
+      <c r="E38" t="str">
         <v>494,05</v>
       </c>
-      <c r="E38" t="str">
+      <c r="F38" t="str">
         <v>2334,5</v>
       </c>
-      <c r="F38" t="str">
+      <c r="G38" t="str">
         <v>544,95</v>
       </c>
-      <c r="G38" t="str">
+      <c r="H38" t="str">
         <v>10</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
+        <v>30-07-2024</v>
+      </c>
+      <c r="B39" t="str">
         <v>7-8</v>
       </c>
-      <c r="B39" t="str">
+      <c r="C39" t="str">
         <v>530,00</v>
       </c>
-      <c r="C39" t="str">
+      <c r="D39" t="str">
         <v>2890,9</v>
       </c>
-      <c r="D39" t="str">
+      <c r="E39" t="str">
         <v>469,38</v>
       </c>
-      <c r="E39" t="str">
+      <c r="F39" t="str">
         <v>1447</v>
       </c>
-      <c r="F39" t="str">
-        <v>-</v>
-      </c>
       <c r="G39" t="str">
+        <v>-</v>
+      </c>
+      <c r="H39" t="str">
         <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
+        <v>30-07-2024</v>
+      </c>
+      <c r="B40" t="str">
         <v>8-9</v>
       </c>
-      <c r="B40" t="str">
+      <c r="C40" t="str">
         <v>420,00</v>
       </c>
-      <c r="C40" t="str">
+      <c r="D40" t="str">
         <v>3040,8</v>
       </c>
-      <c r="D40" t="str">
+      <c r="E40" t="str">
         <v>408,39</v>
       </c>
-      <c r="E40" t="str">
+      <c r="F40" t="str">
         <v>1000,8</v>
       </c>
-      <c r="F40" t="str">
-        <v>-</v>
-      </c>
       <c r="G40" t="str">
+        <v>-</v>
+      </c>
+      <c r="H40" t="str">
         <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
+        <v>30-07-2024</v>
+      </c>
+      <c r="B41" t="str">
         <v>9-10</v>
       </c>
-      <c r="B41" t="str">
+      <c r="C41" t="str">
         <v>303,99</v>
       </c>
-      <c r="C41" t="str">
+      <c r="D41" t="str">
         <v>3372,1</v>
       </c>
-      <c r="D41" t="str">
+      <c r="E41" t="str">
         <v>339,12</v>
       </c>
-      <c r="E41" t="str">
+      <c r="F41" t="str">
         <v>1091,7</v>
       </c>
-      <c r="F41" t="str">
+      <c r="G41" t="str">
         <v>294,00</v>
       </c>
-      <c r="G41" t="str">
+      <c r="H41" t="str">
         <v>10</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
+        <v>30-07-2024</v>
+      </c>
+      <c r="B42" t="str">
         <v>10-11</v>
       </c>
-      <c r="B42" t="str">
+      <c r="C42" t="str">
         <v>198,12</v>
       </c>
-      <c r="C42" t="str">
+      <c r="D42" t="str">
         <v>4010,7</v>
       </c>
-      <c r="D42" t="str">
+      <c r="E42" t="str">
         <v>239,76</v>
       </c>
-      <c r="E42" t="str">
+      <c r="F42" t="str">
         <v>1662,9</v>
       </c>
-      <c r="F42" t="str">
-        <v>-</v>
-      </c>
       <c r="G42" t="str">
+        <v>-</v>
+      </c>
+      <c r="H42" t="str">
         <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
+        <v>30-07-2024</v>
+      </c>
+      <c r="B43" t="str">
         <v>11-12</v>
       </c>
-      <c r="B43" t="str">
+      <c r="C43" t="str">
         <v>105,95</v>
       </c>
-      <c r="C43" t="str">
+      <c r="D43" t="str">
         <v>4484,2</v>
       </c>
-      <c r="D43" t="str">
+      <c r="E43" t="str">
         <v>143,53</v>
       </c>
-      <c r="E43" t="str">
+      <c r="F43" t="str">
         <v>1981,6</v>
       </c>
-      <c r="F43" t="str">
-        <v>-</v>
-      </c>
       <c r="G43" t="str">
+        <v>-</v>
+      </c>
+      <c r="H43" t="str">
         <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
+        <v>30-07-2024</v>
+      </c>
+      <c r="B44" t="str">
         <v>12-13</v>
       </c>
-      <c r="B44" t="str">
+      <c r="C44" t="str">
         <v>70,00</v>
       </c>
-      <c r="C44" t="str">
+      <c r="D44" t="str">
         <v>4324,5</v>
       </c>
-      <c r="D44" t="str">
+      <c r="E44" t="str">
         <v>107,68</v>
       </c>
-      <c r="E44" t="str">
+      <c r="F44" t="str">
         <v>1695,8</v>
       </c>
-      <c r="F44" t="str">
-        <v>-</v>
-      </c>
       <c r="G44" t="str">
+        <v>-</v>
+      </c>
+      <c r="H44" t="str">
         <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
+        <v>30-07-2024</v>
+      </c>
+      <c r="B45" t="str">
         <v>13-14</v>
       </c>
-      <c r="B45" t="str">
+      <c r="C45" t="str">
         <v>70,00</v>
       </c>
-      <c r="C45" t="str">
+      <c r="D45" t="str">
         <v>4096,6</v>
       </c>
-      <c r="D45" t="str">
+      <c r="E45" t="str">
         <v>71,81</v>
       </c>
-      <c r="E45" t="str">
+      <c r="F45" t="str">
         <v>1335,4</v>
       </c>
-      <c r="F45" t="str">
-        <v>-</v>
-      </c>
       <c r="G45" t="str">
+        <v>-</v>
+      </c>
+      <c r="H45" t="str">
         <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
+        <v>30-07-2024</v>
+      </c>
+      <c r="B46" t="str">
         <v>14-15</v>
       </c>
-      <c r="B46" t="str">
+      <c r="C46" t="str">
         <v>100,00</v>
       </c>
-      <c r="C46" t="str">
+      <c r="D46" t="str">
         <v>3791</v>
       </c>
-      <c r="D46" t="str">
+      <c r="E46" t="str">
         <v>98,70</v>
       </c>
-      <c r="E46" t="str">
+      <c r="F46" t="str">
         <v>1106,5</v>
       </c>
-      <c r="F46" t="str">
-        <v>-</v>
-      </c>
       <c r="G46" t="str">
+        <v>-</v>
+      </c>
+      <c r="H46" t="str">
         <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
+        <v>30-07-2024</v>
+      </c>
+      <c r="B47" t="str">
         <v>15-16</v>
       </c>
-      <c r="B47" t="str">
+      <c r="C47" t="str">
         <v>239,99</v>
       </c>
-      <c r="C47" t="str">
+      <c r="D47" t="str">
         <v>3223,9</v>
       </c>
-      <c r="D47" t="str">
+      <c r="E47" t="str">
         <v>175,36</v>
       </c>
-      <c r="E47" t="str">
+      <c r="F47" t="str">
         <v>961,4</v>
       </c>
-      <c r="F47" t="str">
-        <v>-</v>
-      </c>
       <c r="G47" t="str">
+        <v>-</v>
+      </c>
+      <c r="H47" t="str">
         <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
+        <v>30-07-2024</v>
+      </c>
+      <c r="B48" t="str">
         <v>16-17</v>
       </c>
-      <c r="B48" t="str">
+      <c r="C48" t="str">
         <v>370,60</v>
       </c>
-      <c r="C48" t="str">
+      <c r="D48" t="str">
         <v>2768,7</v>
       </c>
-      <c r="D48" t="str">
+      <c r="E48" t="str">
         <v>307,32</v>
       </c>
-      <c r="E48" t="str">
+      <c r="F48" t="str">
         <v>705,9</v>
       </c>
-      <c r="F48" t="str">
+      <c r="G48" t="str">
         <v>370,60</v>
       </c>
-      <c r="G48" t="str">
+      <c r="H48" t="str">
         <v>17,8</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
+        <v>30-07-2024</v>
+      </c>
+      <c r="B49" t="str">
         <v>17-18</v>
       </c>
-      <c r="B49" t="str">
+      <c r="C49" t="str">
         <v>379,00</v>
       </c>
-      <c r="C49" t="str">
+      <c r="D49" t="str">
         <v>3235</v>
       </c>
-      <c r="D49" t="str">
+      <c r="E49" t="str">
         <v>343,68</v>
       </c>
-      <c r="E49" t="str">
+      <c r="F49" t="str">
         <v>1541,7</v>
       </c>
-      <c r="F49" t="str">
-        <v>-</v>
-      </c>
       <c r="G49" t="str">
+        <v>-</v>
+      </c>
+      <c r="H49" t="str">
         <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
+        <v>30-07-2024</v>
+      </c>
+      <c r="B50" t="str">
         <v>18-19</v>
       </c>
-      <c r="B50" t="str">
+      <c r="C50" t="str">
         <v>499,40</v>
       </c>
-      <c r="C50" t="str">
+      <c r="D50" t="str">
         <v>3681,1</v>
       </c>
-      <c r="D50" t="str">
+      <c r="E50" t="str">
         <v>405,64</v>
       </c>
-      <c r="E50" t="str">
+      <c r="F50" t="str">
         <v>2278,4</v>
       </c>
-      <c r="F50" t="str">
+      <c r="G50" t="str">
         <v>487,00</v>
       </c>
-      <c r="G50" t="str">
+      <c r="H50" t="str">
         <v>10</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
+        <v>30-07-2024</v>
+      </c>
+      <c r="B51" t="str">
         <v>19-20</v>
       </c>
-      <c r="B51" t="str">
+      <c r="C51" t="str">
         <v>632,00</v>
       </c>
-      <c r="C51" t="str">
+      <c r="D51" t="str">
         <v>4227,4</v>
       </c>
-      <c r="D51" t="str">
+      <c r="E51" t="str">
         <v>513,65</v>
       </c>
-      <c r="E51" t="str">
+      <c r="F51" t="str">
         <v>2357,2</v>
       </c>
-      <c r="F51" t="str">
+      <c r="G51" t="str">
         <v>633,33</v>
       </c>
-      <c r="G51" t="str">
+      <c r="H51" t="str">
         <v>45</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
+        <v>30-07-2024</v>
+      </c>
+      <c r="B52" t="str">
         <v>20-21</v>
       </c>
-      <c r="B52" t="str">
+      <c r="C52" t="str">
         <v>825,00</v>
       </c>
-      <c r="C52" t="str">
+      <c r="D52" t="str">
         <v>4789,1</v>
       </c>
-      <c r="D52" t="str">
+      <c r="E52" t="str">
         <v>690,49</v>
       </c>
-      <c r="E52" t="str">
+      <c r="F52" t="str">
         <v>2294,2</v>
       </c>
-      <c r="F52" t="str">
+      <c r="G52" t="str">
         <v>815,00</v>
       </c>
-      <c r="G52" t="str">
+      <c r="H52" t="str">
         <v>20</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
+        <v>30-07-2024</v>
+      </c>
+      <c r="B53" t="str">
         <v>21-22</v>
       </c>
-      <c r="B53" t="str">
+      <c r="C53" t="str">
         <v>634,00</v>
       </c>
-      <c r="C53" t="str">
+      <c r="D53" t="str">
         <v>4367,9</v>
       </c>
-      <c r="D53" t="str">
+      <c r="E53" t="str">
         <v>550,36</v>
       </c>
-      <c r="E53" t="str">
+      <c r="F53" t="str">
         <v>2593,6</v>
       </c>
-      <c r="F53" t="str">
+      <c r="G53" t="str">
         <v>623,45</v>
       </c>
-      <c r="G53" t="str">
+      <c r="H53" t="str">
         <v>22</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
+        <v>30-07-2024</v>
+      </c>
+      <c r="B54" t="str">
         <v>22-23</v>
       </c>
-      <c r="B54" t="str">
+      <c r="C54" t="str">
         <v>520,00</v>
       </c>
-      <c r="C54" t="str">
+      <c r="D54" t="str">
         <v>4665,8</v>
       </c>
-      <c r="D54" t="str">
+      <c r="E54" t="str">
         <v>520,57</v>
       </c>
-      <c r="E54" t="str">
+      <c r="F54" t="str">
         <v>3148</v>
       </c>
-      <c r="F54" t="str">
+      <c r="G54" t="str">
         <v>510,00</v>
       </c>
-      <c r="G54" t="str">
+      <c r="H54" t="str">
         <v>20</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
+        <v>30-07-2024</v>
+      </c>
+      <c r="B55" t="str">
         <v>23-24</v>
       </c>
-      <c r="B55" t="str">
+      <c r="C55" t="str">
         <v>443,80</v>
       </c>
-      <c r="C55" t="str">
+      <c r="D55" t="str">
         <v>3914,9</v>
       </c>
-      <c r="D55" t="str">
+      <c r="E55" t="str">
         <v>421,22</v>
       </c>
-      <c r="E55" t="str">
+      <c r="F55" t="str">
         <v>2836,2</v>
       </c>
-      <c r="F55" t="str">
+      <c r="G55" t="str">
         <v>433,00</v>
       </c>
-      <c r="G55" t="str">
+      <c r="H55" t="str">
         <v>20</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
+        <v>30-07-2024</v>
+      </c>
+      <c r="B56" t="str">
         <v>Min.</v>
       </c>
-      <c r="B56" t="str">
+      <c r="C56" t="str">
         <v>70,00</v>
       </c>
-      <c r="C56" t="str">
-        <v>-</v>
-      </c>
       <c r="D56" t="str">
+        <v>-</v>
+      </c>
+      <c r="E56" t="str">
         <v>71,81</v>
       </c>
-      <c r="E56" t="str">
-        <v>-</v>
-      </c>
       <c r="F56" t="str">
+        <v>-</v>
+      </c>
+      <c r="G56" t="str">
         <v>294,00</v>
       </c>
-      <c r="G56" t="str">
+      <c r="H56" t="str">
         <v>-</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
+        <v>30-07-2024</v>
+      </c>
+      <c r="B57" t="str">
         <v>Maks.</v>
       </c>
-      <c r="B57" t="str">
+      <c r="C57" t="str">
         <v>825,00</v>
       </c>
-      <c r="C57" t="str">
-        <v>-</v>
-      </c>
       <c r="D57" t="str">
+        <v>-</v>
+      </c>
+      <c r="E57" t="str">
         <v>690,49</v>
       </c>
-      <c r="E57" t="str">
-        <v>-</v>
-      </c>
       <c r="F57" t="str">
+        <v>-</v>
+      </c>
+      <c r="G57" t="str">
         <v>815,00</v>
       </c>
-      <c r="G57" t="str">
+      <c r="H57" t="str">
         <v>-</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
+        <v>30-07-2024</v>
+      </c>
+      <c r="B58" t="str">
         <v>Suma</v>
       </c>
-      <c r="B58" t="str">
+      <c r="C58" t="str">
         <v/>
       </c>
-      <c r="C58" t="str">
+      <c r="D58" t="str">
         <v>88 700,7</v>
       </c>
-      <c r="D58" t="str">
+      <c r="E58" t="str">
         <v/>
       </c>
-      <c r="E58" t="str">
+      <c r="F58" t="str">
         <v>47 000,8</v>
       </c>
-      <c r="F58" t="str">
+      <c r="G58" t="str">
         <v/>
       </c>
-      <c r="G58" t="str">
+      <c r="H58" t="str">
         <v>239,8</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
+        <v>31-07-2024</v>
+      </c>
+      <c r="B59" t="str">
         <v/>
       </c>
-      <c r="B59" t="str">
+      <c r="C59" t="str">
         <v>FIXING I</v>
       </c>
-      <c r="C59" t="str">
+      <c r="D59" t="str">
         <v>FIXING II</v>
       </c>
-      <c r="D59" t="str">
+      <c r="E59" t="str">
         <v>Notowania ciągłe</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
+        <v>31-07-2024</v>
+      </c>
+      <c r="B60" t="str">
         <v>Czas</v>
       </c>
-      <c r="B60" t="str">
+      <c r="C60" t="str">
         <v>Kurs (PLN/MWh)</v>
       </c>
-      <c r="C60" t="str">
+      <c r="D60" t="str">
         <v>Wolumen (MWh)</v>
       </c>
-      <c r="D60" t="str">
+      <c r="E60" t="str">
         <v>Kurs (PLN/MWh)</v>
       </c>
-      <c r="E60" t="str">
+      <c r="F60" t="str">
         <v>Wolumen (MWh)</v>
       </c>
-      <c r="F60" t="str">
+      <c r="G60" t="str">
         <v>Kurs (PLN/MWh)</v>
       </c>
-      <c r="G60" t="str">
+      <c r="H60" t="str">
         <v>Wolumen (MWh)</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
+        <v>31-07-2024</v>
+      </c>
+      <c r="B61" t="str">
         <v>0-1</v>
       </c>
-      <c r="B61" t="str">
+      <c r="C61" t="str">
         <v>450,00</v>
       </c>
-      <c r="C61" t="str">
+      <c r="D61" t="str">
         <v>3361,3</v>
       </c>
-      <c r="D61" t="str">
+      <c r="E61" t="str">
         <v>432,45</v>
       </c>
-      <c r="E61" t="str">
+      <c r="F61" t="str">
         <v>2720</v>
       </c>
-      <c r="F61" t="str">
+      <c r="G61" t="str">
         <v>440,00</v>
       </c>
-      <c r="G61" t="str">
+      <c r="H61" t="str">
         <v>20</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
+        <v>31-07-2024</v>
+      </c>
+      <c r="B62" t="str">
         <v>1-2</v>
       </c>
-      <c r="B62" t="str">
+      <c r="C62" t="str">
         <v>400,00</v>
       </c>
-      <c r="C62" t="str">
+      <c r="D62" t="str">
         <v>3116,8</v>
       </c>
-      <c r="D62" t="str">
+      <c r="E62" t="str">
         <v>374,52</v>
       </c>
-      <c r="E62" t="str">
+      <c r="F62" t="str">
         <v>2417,4</v>
       </c>
-      <c r="F62" t="str">
-        <v>-</v>
-      </c>
       <c r="G62" t="str">
+        <v>-</v>
+      </c>
+      <c r="H62" t="str">
         <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
+        <v>31-07-2024</v>
+      </c>
+      <c r="B63" t="str">
         <v>2-3</v>
       </c>
-      <c r="B63" t="str">
+      <c r="C63" t="str">
         <v>390,00</v>
       </c>
-      <c r="C63" t="str">
+      <c r="D63" t="str">
         <v>2958,7</v>
       </c>
-      <c r="D63" t="str">
+      <c r="E63" t="str">
         <v>363,35</v>
       </c>
-      <c r="E63" t="str">
+      <c r="F63" t="str">
         <v>2386,8</v>
       </c>
-      <c r="F63" t="str">
-        <v>-</v>
-      </c>
       <c r="G63" t="str">
+        <v>-</v>
+      </c>
+      <c r="H63" t="str">
         <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
+        <v>31-07-2024</v>
+      </c>
+      <c r="B64" t="str">
         <v>3-4</v>
       </c>
-      <c r="B64" t="str">
+      <c r="C64" t="str">
         <v>390,00</v>
       </c>
-      <c r="C64" t="str">
+      <c r="D64" t="str">
         <v>3007,3</v>
       </c>
-      <c r="D64" t="str">
+      <c r="E64" t="str">
         <v>363,35</v>
       </c>
-      <c r="E64" t="str">
+      <c r="F64" t="str">
         <v>2439,9</v>
       </c>
-      <c r="F64" t="str">
-        <v>-</v>
-      </c>
       <c r="G64" t="str">
+        <v>-</v>
+      </c>
+      <c r="H64" t="str">
         <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
+        <v>31-07-2024</v>
+      </c>
+      <c r="B65" t="str">
         <v>4-5</v>
       </c>
-      <c r="B65" t="str">
+      <c r="C65" t="str">
         <v>397,20</v>
       </c>
-      <c r="C65" t="str">
+      <c r="D65" t="str">
         <v>3066,5</v>
       </c>
-      <c r="D65" t="str">
+      <c r="E65" t="str">
         <v>359,51</v>
       </c>
-      <c r="E65" t="str">
+      <c r="F65" t="str">
         <v>2467,6</v>
       </c>
-      <c r="F65" t="str">
-        <v>-</v>
-      </c>
       <c r="G65" t="str">
+        <v>-</v>
+      </c>
+      <c r="H65" t="str">
         <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
+        <v>31-07-2024</v>
+      </c>
+      <c r="B66" t="str">
         <v>5-6</v>
       </c>
-      <c r="B66" t="str">
+      <c r="C66" t="str">
         <v>437,00</v>
       </c>
-      <c r="C66" t="str">
+      <c r="D66" t="str">
         <v>3229,3</v>
       </c>
-      <c r="D66" t="str">
+      <c r="E66" t="str">
         <v>437,43</v>
       </c>
-      <c r="E66" t="str">
+      <c r="F66" t="str">
         <v>2022,4</v>
       </c>
-      <c r="F66" t="str">
+      <c r="G66" t="str">
         <v>437,00</v>
       </c>
-      <c r="G66" t="str">
+      <c r="H66" t="str">
         <v>37,1</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
+        <v>31-07-2024</v>
+      </c>
+      <c r="B67" t="str">
         <v>6-7</v>
       </c>
-      <c r="B67" t="str">
+      <c r="C67" t="str">
         <v>530,00</v>
       </c>
-      <c r="C67" t="str">
+      <c r="D67" t="str">
         <v>3597,5</v>
       </c>
-      <c r="D67" t="str">
+      <c r="E67" t="str">
         <v>545,18</v>
       </c>
-      <c r="E67" t="str">
+      <c r="F67" t="str">
         <v>2178,7</v>
       </c>
-      <c r="F67" t="str">
-        <v>-</v>
-      </c>
       <c r="G67" t="str">
+        <v>-</v>
+      </c>
+      <c r="H67" t="str">
         <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
+        <v>31-07-2024</v>
+      </c>
+      <c r="B68" t="str">
         <v>7-8</v>
       </c>
-      <c r="B68" t="str">
+      <c r="C68" t="str">
         <v>520,00</v>
       </c>
-      <c r="C68" t="str">
+      <c r="D68" t="str">
         <v>3013,4</v>
       </c>
-      <c r="D68" t="str">
+      <c r="E68" t="str">
         <v>489,67</v>
       </c>
-      <c r="E68" t="str">
+      <c r="F68" t="str">
         <v>1606,9</v>
       </c>
-      <c r="F68" t="str">
-        <v>-</v>
-      </c>
       <c r="G68" t="str">
+        <v>-</v>
+      </c>
+      <c r="H68" t="str">
         <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
+        <v>31-07-2024</v>
+      </c>
+      <c r="B69" t="str">
         <v>8-9</v>
       </c>
-      <c r="B69" t="str">
+      <c r="C69" t="str">
         <v>432,41</v>
       </c>
-      <c r="C69" t="str">
+      <c r="D69" t="str">
         <v>2918,7</v>
       </c>
-      <c r="D69" t="str">
+      <c r="E69" t="str">
         <v>456,00</v>
       </c>
-      <c r="E69" t="str">
+      <c r="F69" t="str">
         <v>1068,5</v>
       </c>
-      <c r="F69" t="str">
-        <v>-</v>
-      </c>
       <c r="G69" t="str">
+        <v>-</v>
+      </c>
+      <c r="H69" t="str">
         <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
+        <v>31-07-2024</v>
+      </c>
+      <c r="B70" t="str">
         <v>9-10</v>
       </c>
-      <c r="B70" t="str">
+      <c r="C70" t="str">
         <v>355,57</v>
       </c>
-      <c r="C70" t="str">
+      <c r="D70" t="str">
         <v>3202,7</v>
       </c>
-      <c r="D70" t="str">
+      <c r="E70" t="str">
         <v>387,79</v>
       </c>
-      <c r="E70" t="str">
+      <c r="F70" t="str">
         <v>1457,7</v>
       </c>
-      <c r="F70" t="str">
+      <c r="G70" t="str">
         <v>345,00</v>
       </c>
-      <c r="G70" t="str">
+      <c r="H70" t="str">
         <v>10</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
+        <v>31-07-2024</v>
+      </c>
+      <c r="B71" t="str">
         <v>10-11</v>
       </c>
-      <c r="B71" t="str">
+      <c r="C71" t="str">
         <v>288,00</v>
       </c>
-      <c r="C71" t="str">
+      <c r="D71" t="str">
         <v>4244,9</v>
       </c>
-      <c r="D71" t="str">
+      <c r="E71" t="str">
         <v>331,19</v>
       </c>
-      <c r="E71" t="str">
+      <c r="F71" t="str">
         <v>1567,9</v>
       </c>
-      <c r="F71" t="str">
-        <v>-</v>
-      </c>
       <c r="G71" t="str">
+        <v>-</v>
+      </c>
+      <c r="H71" t="str">
         <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
+        <v>31-07-2024</v>
+      </c>
+      <c r="B72" t="str">
         <v>11-12</v>
       </c>
-      <c r="B72" t="str">
+      <c r="C72" t="str">
         <v>263,40</v>
       </c>
-      <c r="C72" t="str">
+      <c r="D72" t="str">
         <v>4633,8</v>
       </c>
-      <c r="D72" t="str">
+      <c r="E72" t="str">
         <v>291,14</v>
       </c>
-      <c r="E72" t="str">
+      <c r="F72" t="str">
         <v>1274,8</v>
       </c>
-      <c r="F72" t="str">
-        <v>-</v>
-      </c>
       <c r="G72" t="str">
+        <v>-</v>
+      </c>
+      <c r="H72" t="str">
         <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
+        <v>31-07-2024</v>
+      </c>
+      <c r="B73" t="str">
         <v>12-13</v>
       </c>
-      <c r="B73" t="str">
+      <c r="C73" t="str">
         <v>235,90</v>
       </c>
-      <c r="C73" t="str">
+      <c r="D73" t="str">
         <v>4504,3</v>
       </c>
-      <c r="D73" t="str">
+      <c r="E73" t="str">
         <v>275,59</v>
       </c>
-      <c r="E73" t="str">
+      <c r="F73" t="str">
         <v>1174,6</v>
       </c>
-      <c r="F73" t="str">
+      <c r="G73" t="str">
         <v>225,00</v>
       </c>
-      <c r="G73" t="str">
+      <c r="H73" t="str">
         <v>20</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
+        <v>31-07-2024</v>
+      </c>
+      <c r="B74" t="str">
         <v>13-14</v>
       </c>
-      <c r="B74" t="str">
+      <c r="C74" t="str">
         <v>241,99</v>
       </c>
-      <c r="C74" t="str">
+      <c r="D74" t="str">
         <v>4004,6</v>
       </c>
-      <c r="D74" t="str">
+      <c r="E74" t="str">
         <v>247,03</v>
       </c>
-      <c r="E74" t="str">
+      <c r="F74" t="str">
         <v>1094,2</v>
       </c>
-      <c r="F74" t="str">
+      <c r="G74" t="str">
         <v>231,31</v>
       </c>
-      <c r="G74" t="str">
+      <c r="H74" t="str">
         <v>21,1</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
+        <v>31-07-2024</v>
+      </c>
+      <c r="B75" t="str">
         <v>14-15</v>
       </c>
-      <c r="B75" t="str">
+      <c r="C75" t="str">
         <v>233,99</v>
       </c>
-      <c r="C75" t="str">
+      <c r="D75" t="str">
         <v>4052,4</v>
       </c>
-      <c r="D75" t="str">
+      <c r="E75" t="str">
         <v>226,96</v>
       </c>
-      <c r="E75" t="str">
+      <c r="F75" t="str">
         <v>1001</v>
       </c>
-      <c r="F75" t="str">
-        <v>-</v>
-      </c>
       <c r="G75" t="str">
+        <v>-</v>
+      </c>
+      <c r="H75" t="str">
         <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
+        <v>31-07-2024</v>
+      </c>
+      <c r="B76" t="str">
         <v>15-16</v>
       </c>
-      <c r="B76" t="str">
+      <c r="C76" t="str">
         <v>295,67</v>
       </c>
-      <c r="C76" t="str">
+      <c r="D76" t="str">
         <v>3632,1</v>
       </c>
-      <c r="D76" t="str">
+      <c r="E76" t="str">
         <v>295,90</v>
       </c>
-      <c r="E76" t="str">
+      <c r="F76" t="str">
         <v>752,4</v>
       </c>
-      <c r="F76" t="str">
-        <v>-</v>
-      </c>
       <c r="G76" t="str">
+        <v>-</v>
+      </c>
+      <c r="H76" t="str">
         <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
+        <v>31-07-2024</v>
+      </c>
+      <c r="B77" t="str">
         <v>16-17</v>
       </c>
-      <c r="B77" t="str">
+      <c r="C77" t="str">
         <v>385,69</v>
       </c>
-      <c r="C77" t="str">
+      <c r="D77" t="str">
         <v>3191,6</v>
       </c>
-      <c r="D77" t="str">
+      <c r="E77" t="str">
         <v>379,13</v>
       </c>
-      <c r="E77" t="str">
+      <c r="F77" t="str">
         <v>487,8</v>
       </c>
-      <c r="F77" t="str">
-        <v>-</v>
-      </c>
       <c r="G77" t="str">
+        <v>-</v>
+      </c>
+      <c r="H77" t="str">
         <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
+        <v>31-07-2024</v>
+      </c>
+      <c r="B78" t="str">
         <v>17-18</v>
       </c>
-      <c r="B78" t="str">
+      <c r="C78" t="str">
         <v>444,97</v>
       </c>
-      <c r="C78" t="str">
+      <c r="D78" t="str">
         <v>3216,2</v>
       </c>
-      <c r="D78" t="str">
+      <c r="E78" t="str">
         <v>380,34</v>
       </c>
-      <c r="E78" t="str">
+      <c r="F78" t="str">
         <v>1392,1</v>
       </c>
-      <c r="F78" t="str">
-        <v>-</v>
-      </c>
       <c r="G78" t="str">
+        <v>-</v>
+      </c>
+      <c r="H78" t="str">
         <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
+        <v>31-07-2024</v>
+      </c>
+      <c r="B79" t="str">
         <v>18-19</v>
       </c>
-      <c r="B79" t="str">
+      <c r="C79" t="str">
         <v>503,60</v>
       </c>
-      <c r="C79" t="str">
+      <c r="D79" t="str">
         <v>3604,7</v>
       </c>
-      <c r="D79" t="str">
+      <c r="E79" t="str">
         <v>460,55</v>
       </c>
-      <c r="E79" t="str">
+      <c r="F79" t="str">
         <v>2153,5</v>
       </c>
-      <c r="F79" t="str">
+      <c r="G79" t="str">
         <v>500,00</v>
       </c>
-      <c r="G79" t="str">
+      <c r="H79" t="str">
         <v>30</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
+        <v>31-07-2024</v>
+      </c>
+      <c r="B80" t="str">
         <v>19-20</v>
       </c>
-      <c r="B80" t="str">
+      <c r="C80" t="str">
         <v>612,00</v>
       </c>
-      <c r="C80" t="str">
+      <c r="D80" t="str">
         <v>4266,8</v>
       </c>
-      <c r="D80" t="str">
+      <c r="E80" t="str">
         <v>641,44</v>
       </c>
-      <c r="E80" t="str">
+      <c r="F80" t="str">
         <v>1768,4</v>
       </c>
-      <c r="F80" t="str">
+      <c r="G80" t="str">
         <v>608,80</v>
       </c>
-      <c r="G80" t="str">
+      <c r="H80" t="str">
         <v>50</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
+        <v>31-07-2024</v>
+      </c>
+      <c r="B81" t="str">
         <v>20-21</v>
       </c>
-      <c r="B81" t="str">
+      <c r="C81" t="str">
         <v>738,99</v>
       </c>
-      <c r="C81" t="str">
+      <c r="D81" t="str">
         <v>4324,7</v>
       </c>
-      <c r="D81" t="str">
+      <c r="E81" t="str">
         <v>754,06</v>
       </c>
-      <c r="E81" t="str">
+      <c r="F81" t="str">
         <v>2056,9</v>
       </c>
-      <c r="F81" t="str">
+      <c r="G81" t="str">
         <v>698,24</v>
       </c>
-      <c r="G81" t="str">
+      <c r="H81" t="str">
         <v>121</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
+        <v>31-07-2024</v>
+      </c>
+      <c r="B82" t="str">
         <v>21-22</v>
       </c>
-      <c r="B82" t="str">
+      <c r="C82" t="str">
         <v>585,00</v>
       </c>
-      <c r="C82" t="str">
+      <c r="D82" t="str">
         <v>4070</v>
       </c>
-      <c r="D82" t="str">
+      <c r="E82" t="str">
         <v>521,01</v>
       </c>
-      <c r="E82" t="str">
+      <c r="F82" t="str">
         <v>2050,3</v>
       </c>
-      <c r="F82" t="str">
+      <c r="G82" t="str">
         <v>590,00</v>
       </c>
-      <c r="G82" t="str">
+      <c r="H82" t="str">
         <v>20</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
+        <v>31-07-2024</v>
+      </c>
+      <c r="B83" t="str">
         <v>22-23</v>
       </c>
-      <c r="B83" t="str">
+      <c r="C83" t="str">
         <v>537,00</v>
       </c>
-      <c r="C83" t="str">
+      <c r="D83" t="str">
         <v>4529,6</v>
       </c>
-      <c r="D83" t="str">
+      <c r="E83" t="str">
         <v>537,60</v>
       </c>
-      <c r="E83" t="str">
+      <c r="F83" t="str">
         <v>2540</v>
       </c>
-      <c r="F83" t="str">
+      <c r="G83" t="str">
         <v>527,00</v>
       </c>
-      <c r="G83" t="str">
+      <c r="H83" t="str">
         <v>10</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
+        <v>31-07-2024</v>
+      </c>
+      <c r="B84" t="str">
         <v>23-24</v>
       </c>
-      <c r="B84" t="str">
+      <c r="C84" t="str">
         <v>450,00</v>
       </c>
-      <c r="C84" t="str">
+      <c r="D84" t="str">
         <v>3734,1</v>
       </c>
-      <c r="D84" t="str">
+      <c r="E84" t="str">
         <v>447,57</v>
       </c>
-      <c r="E84" t="str">
+      <c r="F84" t="str">
         <v>2142</v>
       </c>
-      <c r="F84" t="str">
+      <c r="G84" t="str">
         <v>440,00</v>
       </c>
-      <c r="G84" t="str">
+      <c r="H84" t="str">
         <v>10</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
+        <v>31-07-2024</v>
+      </c>
+      <c r="B85" t="str">
         <v>Min.</v>
       </c>
-      <c r="B85" t="str">
+      <c r="C85" t="str">
         <v>233,99</v>
       </c>
-      <c r="C85" t="str">
-        <v>-</v>
-      </c>
       <c r="D85" t="str">
+        <v>-</v>
+      </c>
+      <c r="E85" t="str">
         <v>226,96</v>
       </c>
-      <c r="E85" t="str">
-        <v>-</v>
-      </c>
       <c r="F85" t="str">
         <v>-</v>
       </c>
       <c r="G85" t="str">
+        <v>-</v>
+      </c>
+      <c r="H85" t="str">
         <v>-</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
+        <v>31-07-2024</v>
+      </c>
+      <c r="B86" t="str">
         <v>Maks.</v>
       </c>
-      <c r="B86" t="str">
+      <c r="C86" t="str">
         <v>738,99</v>
       </c>
-      <c r="C86" t="str">
-        <v>-</v>
-      </c>
       <c r="D86" t="str">
+        <v>-</v>
+      </c>
+      <c r="E86" t="str">
         <v>754,06</v>
       </c>
-      <c r="E86" t="str">
-        <v>-</v>
-      </c>
       <c r="F86" t="str">
         <v>-</v>
       </c>
       <c r="G86" t="str">
+        <v>-</v>
+      </c>
+      <c r="H86" t="str">
         <v>-</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
+        <v>31-07-2024</v>
+      </c>
+      <c r="B87" t="str">
         <v>Suma</v>
       </c>
-      <c r="B87" t="str">
+      <c r="C87" t="str">
         <v/>
       </c>
-      <c r="C87" t="str">
+      <c r="D87" t="str">
         <v>87 482</v>
       </c>
-      <c r="D87" t="str">
+      <c r="E87" t="str">
         <v/>
       </c>
-      <c r="E87" t="str">
+      <c r="F87" t="str">
         <v>42 221,8</v>
       </c>
-      <c r="F87" t="str">
+      <c r="G87" t="str">
         <v/>
       </c>
-      <c r="G87" t="str">
+      <c r="H87" t="str">
         <v>349,2</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
+        <v>01-08-2024</v>
+      </c>
+      <c r="B88" t="str">
         <v/>
       </c>
-      <c r="B88" t="str">
+      <c r="C88" t="str">
         <v>FIXING I</v>
       </c>
-      <c r="C88" t="str">
+      <c r="D88" t="str">
         <v>FIXING II</v>
       </c>
-      <c r="D88" t="str">
+      <c r="E88" t="str">
         <v>Notowania ciągłe</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
+        <v>01-08-2024</v>
+      </c>
+      <c r="B89" t="str">
         <v>Czas</v>
       </c>
-      <c r="B89" t="str">
+      <c r="C89" t="str">
         <v>Kurs (PLN/MWh)</v>
       </c>
-      <c r="C89" t="str">
+      <c r="D89" t="str">
         <v>Wolumen (MWh)</v>
       </c>
-      <c r="D89" t="str">
+      <c r="E89" t="str">
         <v>Kurs (PLN/MWh)</v>
       </c>
-      <c r="E89" t="str">
+      <c r="F89" t="str">
         <v>Wolumen (MWh)</v>
       </c>
-      <c r="F89" t="str">
+      <c r="G89" t="str">
         <v>Kurs (PLN/MWh)</v>
       </c>
-      <c r="G89" t="str">
+      <c r="H89" t="str">
         <v>Wolumen (MWh)</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
+        <v>01-08-2024</v>
+      </c>
+      <c r="B90" t="str">
         <v>0-1</v>
       </c>
-      <c r="B90" t="str">
+      <c r="C90" t="str">
         <v>465,00</v>
       </c>
-      <c r="C90" t="str">
+      <c r="D90" t="str">
         <v>3086,1</v>
       </c>
-      <c r="D90" t="str">
+      <c r="E90" t="str">
         <v>429,92</v>
       </c>
-      <c r="E90" t="str">
+      <c r="F90" t="str">
         <v>2058,9</v>
       </c>
-      <c r="F90" t="str">
+      <c r="G90" t="str">
         <v>455,00</v>
       </c>
-      <c r="G90" t="str">
+      <c r="H90" t="str">
         <v>20</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
+        <v>01-08-2024</v>
+      </c>
+      <c r="B91" t="str">
         <v>1-2</v>
       </c>
-      <c r="B91" t="str">
+      <c r="C91" t="str">
         <v>400,00</v>
       </c>
-      <c r="C91" t="str">
+      <c r="D91" t="str">
         <v>2943,5</v>
       </c>
-      <c r="D91" t="str">
+      <c r="E91" t="str">
         <v>385,88</v>
       </c>
-      <c r="E91" t="str">
+      <c r="F91" t="str">
         <v>1456,5</v>
       </c>
-      <c r="F91" t="str">
-        <v>-</v>
-      </c>
       <c r="G91" t="str">
+        <v>-</v>
+      </c>
+      <c r="H91" t="str">
         <v>0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
+        <v>01-08-2024</v>
+      </c>
+      <c r="B92" t="str">
         <v>2-3</v>
       </c>
-      <c r="B92" t="str">
+      <c r="C92" t="str">
         <v>392,00</v>
       </c>
-      <c r="C92" t="str">
+      <c r="D92" t="str">
         <v>2758,5</v>
       </c>
-      <c r="D92" t="str">
+      <c r="E92" t="str">
         <v>385,69</v>
       </c>
-      <c r="E92" t="str">
+      <c r="F92" t="str">
         <v>1497,3</v>
       </c>
-      <c r="F92" t="str">
-        <v>-</v>
-      </c>
       <c r="G92" t="str">
+        <v>-</v>
+      </c>
+      <c r="H92" t="str">
         <v>0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
+        <v>01-08-2024</v>
+      </c>
+      <c r="B93" t="str">
         <v>3-4</v>
       </c>
-      <c r="B93" t="str">
+      <c r="C93" t="str">
         <v>388,00</v>
       </c>
-      <c r="C93" t="str">
+      <c r="D93" t="str">
         <v>2813,8</v>
       </c>
-      <c r="D93" t="str">
+      <c r="E93" t="str">
         <v>387,52</v>
       </c>
-      <c r="E93" t="str">
+      <c r="F93" t="str">
         <v>1859,4</v>
       </c>
-      <c r="F93" t="str">
-        <v>-</v>
-      </c>
       <c r="G93" t="str">
+        <v>-</v>
+      </c>
+      <c r="H93" t="str">
         <v>0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
+        <v>01-08-2024</v>
+      </c>
+      <c r="B94" t="str">
         <v>4-5</v>
       </c>
-      <c r="B94" t="str">
+      <c r="C94" t="str">
         <v>390,00</v>
       </c>
-      <c r="C94" t="str">
+      <c r="D94" t="str">
         <v>3016,1</v>
       </c>
-      <c r="D94" t="str">
+      <c r="E94" t="str">
         <v>385,69</v>
       </c>
-      <c r="E94" t="str">
+      <c r="F94" t="str">
         <v>1854,9</v>
       </c>
-      <c r="F94" t="str">
-        <v>-</v>
-      </c>
       <c r="G94" t="str">
+        <v>-</v>
+      </c>
+      <c r="H94" t="str">
         <v>0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
+        <v>01-08-2024</v>
+      </c>
+      <c r="B95" t="str">
         <v>5-6</v>
       </c>
-      <c r="B95" t="str">
+      <c r="C95" t="str">
         <v>431,28</v>
       </c>
-      <c r="C95" t="str">
+      <c r="D95" t="str">
         <v>3273,4</v>
       </c>
-      <c r="D95" t="str">
+      <c r="E95" t="str">
         <v>387,92</v>
       </c>
-      <c r="E95" t="str">
+      <c r="F95" t="str">
         <v>1578,2</v>
       </c>
-      <c r="F95" t="str">
-        <v>-</v>
-      </c>
       <c r="G95" t="str">
+        <v>-</v>
+      </c>
+      <c r="H95" t="str">
         <v>0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
+        <v>01-08-2024</v>
+      </c>
+      <c r="B96" t="str">
         <v>6-7</v>
       </c>
-      <c r="B96" t="str">
+      <c r="C96" t="str">
         <v>542,00</v>
       </c>
-      <c r="C96" t="str">
+      <c r="D96" t="str">
         <v>3581,2</v>
       </c>
-      <c r="D96" t="str">
+      <c r="E96" t="str">
         <v>476,66</v>
       </c>
-      <c r="E96" t="str">
+      <c r="F96" t="str">
         <v>1899,5</v>
       </c>
-      <c r="F96" t="str">
-        <v>-</v>
-      </c>
       <c r="G96" t="str">
+        <v>-</v>
+      </c>
+      <c r="H96" t="str">
         <v>0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
+        <v>01-08-2024</v>
+      </c>
+      <c r="B97" t="str">
         <v>7-8</v>
       </c>
-      <c r="B97" t="str">
+      <c r="C97" t="str">
         <v>540,00</v>
       </c>
-      <c r="C97" t="str">
+      <c r="D97" t="str">
         <v>3027,6</v>
       </c>
-      <c r="D97" t="str">
+      <c r="E97" t="str">
         <v>520,50</v>
       </c>
-      <c r="E97" t="str">
+      <c r="F97" t="str">
         <v>1580,2</v>
       </c>
-      <c r="F97" t="str">
-        <v>-</v>
-      </c>
       <c r="G97" t="str">
+        <v>-</v>
+      </c>
+      <c r="H97" t="str">
         <v>0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
+        <v>01-08-2024</v>
+      </c>
+      <c r="B98" t="str">
         <v>8-9</v>
       </c>
-      <c r="B98" t="str">
+      <c r="C98" t="str">
         <v>488,50</v>
       </c>
-      <c r="C98" t="str">
+      <c r="D98" t="str">
         <v>2854,3</v>
       </c>
-      <c r="D98" t="str">
+      <c r="E98" t="str">
         <v>486,19</v>
       </c>
-      <c r="E98" t="str">
+      <c r="F98" t="str">
         <v>879,8</v>
       </c>
-      <c r="F98" t="str">
+      <c r="G98" t="str">
         <v>488,45</v>
       </c>
-      <c r="G98" t="str">
+      <c r="H98" t="str">
         <v>41</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
+        <v>01-08-2024</v>
+      </c>
+      <c r="B99" t="str">
         <v>9-10</v>
       </c>
-      <c r="B99" t="str">
+      <c r="C99" t="str">
         <v>450,00</v>
       </c>
-      <c r="C99" t="str">
+      <c r="D99" t="str">
         <v>2832,4</v>
       </c>
-      <c r="D99" t="str">
+      <c r="E99" t="str">
         <v>448,80</v>
       </c>
-      <c r="E99" t="str">
+      <c r="F99" t="str">
         <v>876,3</v>
       </c>
-      <c r="F99" t="str">
+      <c r="G99" t="str">
         <v>450,00</v>
       </c>
-      <c r="G99" t="str">
+      <c r="H99" t="str">
         <v>15</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
+        <v>01-08-2024</v>
+      </c>
+      <c r="B100" t="str">
         <v>10-11</v>
       </c>
-      <c r="B100" t="str">
+      <c r="C100" t="str">
         <v>404,00</v>
       </c>
-      <c r="C100" t="str">
+      <c r="D100" t="str">
         <v>3020,4</v>
       </c>
-      <c r="D100" t="str">
+      <c r="E100" t="str">
         <v>385,42</v>
       </c>
-      <c r="E100" t="str">
+      <c r="F100" t="str">
         <v>913,9</v>
       </c>
-      <c r="F100" t="str">
+      <c r="G100" t="str">
         <v>404,00</v>
       </c>
-      <c r="G100" t="str">
+      <c r="H100" t="str">
         <v>15</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
+        <v>01-08-2024</v>
+      </c>
+      <c r="B101" t="str">
         <v>11-12</v>
       </c>
-      <c r="B101" t="str">
+      <c r="C101" t="str">
         <v>390,34</v>
       </c>
-      <c r="C101" t="str">
+      <c r="D101" t="str">
         <v>3327,3</v>
       </c>
-      <c r="D101" t="str">
+      <c r="E101" t="str">
         <v>344,07</v>
       </c>
-      <c r="E101" t="str">
+      <c r="F101" t="str">
         <v>975,7</v>
       </c>
-      <c r="F101" t="str">
+      <c r="G101" t="str">
         <v>390,34</v>
       </c>
-      <c r="G101" t="str">
+      <c r="H101" t="str">
         <v>9</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
+        <v>01-08-2024</v>
+      </c>
+      <c r="B102" t="str">
         <v>12-13</v>
       </c>
-      <c r="B102" t="str">
+      <c r="C102" t="str">
         <v>387,59</v>
       </c>
-      <c r="C102" t="str">
+      <c r="D102" t="str">
         <v>3357,9</v>
       </c>
-      <c r="D102" t="str">
+      <c r="E102" t="str">
         <v>354,72</v>
       </c>
-      <c r="E102" t="str">
+      <c r="F102" t="str">
         <v>836,5</v>
       </c>
-      <c r="F102" t="str">
+      <c r="G102" t="str">
         <v>387,59</v>
       </c>
-      <c r="G102" t="str">
+      <c r="H102" t="str">
         <v>6</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
+        <v>01-08-2024</v>
+      </c>
+      <c r="B103" t="str">
         <v>13-14</v>
       </c>
-      <c r="B103" t="str">
+      <c r="C103" t="str">
         <v>394,00</v>
       </c>
-      <c r="C103" t="str">
+      <c r="D103" t="str">
         <v>3262,1</v>
       </c>
-      <c r="D103" t="str">
+      <c r="E103" t="str">
         <v>368,09</v>
       </c>
-      <c r="E103" t="str">
+      <c r="F103" t="str">
         <v>783,7</v>
       </c>
-      <c r="F103" t="str">
-        <v>-</v>
-      </c>
       <c r="G103" t="str">
+        <v>-</v>
+      </c>
+      <c r="H103" t="str">
         <v>0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
+        <v>01-08-2024</v>
+      </c>
+      <c r="B104" t="str">
         <v>14-15</v>
       </c>
-      <c r="B104" t="str">
+      <c r="C104" t="str">
         <v>406,00</v>
       </c>
-      <c r="C104" t="str">
+      <c r="D104" t="str">
         <v>3301,9</v>
       </c>
-      <c r="D104" t="str">
+      <c r="E104" t="str">
         <v>405,43</v>
       </c>
-      <c r="E104" t="str">
+      <c r="F104" t="str">
         <v>618</v>
       </c>
-      <c r="F104" t="str">
+      <c r="G104" t="str">
         <v>406,00</v>
       </c>
-      <c r="G104" t="str">
+      <c r="H104" t="str">
         <v>12,1</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
+        <v>01-08-2024</v>
+      </c>
+      <c r="B105" t="str">
         <v>15-16</v>
       </c>
-      <c r="B105" t="str">
+      <c r="C105" t="str">
         <v>482,86</v>
       </c>
-      <c r="C105" t="str">
+      <c r="D105" t="str">
         <v>3687</v>
       </c>
-      <c r="D105" t="str">
+      <c r="E105" t="str">
         <v>484,29</v>
       </c>
-      <c r="E105" t="str">
+      <c r="F105" t="str">
         <v>682,7</v>
       </c>
-      <c r="F105" t="str">
+      <c r="G105" t="str">
         <v>482,86</v>
       </c>
-      <c r="G105" t="str">
+      <c r="H105" t="str">
         <v>19,7</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
+        <v>01-08-2024</v>
+      </c>
+      <c r="B106" t="str">
         <v>16-17</v>
       </c>
-      <c r="B106" t="str">
+      <c r="C106" t="str">
         <v>482,86</v>
       </c>
-      <c r="C106" t="str">
+      <c r="D106" t="str">
         <v>4076,7</v>
       </c>
-      <c r="D106" t="str">
+      <c r="E106" t="str">
         <v>496,07</v>
       </c>
-      <c r="E106" t="str">
+      <c r="F106" t="str">
         <v>1381,1</v>
       </c>
-      <c r="F106" t="str">
-        <v>-</v>
-      </c>
       <c r="G106" t="str">
+        <v>-</v>
+      </c>
+      <c r="H106" t="str">
         <v>0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
+        <v>01-08-2024</v>
+      </c>
+      <c r="B107" t="str">
         <v>17-18</v>
       </c>
-      <c r="B107" t="str">
+      <c r="C107" t="str">
         <v>469,00</v>
       </c>
-      <c r="C107" t="str">
+      <c r="D107" t="str">
         <v>4080,3</v>
       </c>
-      <c r="D107" t="str">
+      <c r="E107" t="str">
         <v>490,81</v>
       </c>
-      <c r="E107" t="str">
+      <c r="F107" t="str">
         <v>2231,3</v>
       </c>
-      <c r="F107" t="str">
+      <c r="G107" t="str">
         <v>469,00</v>
       </c>
-      <c r="G107" t="str">
+      <c r="H107" t="str">
         <v>43</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
+        <v>01-08-2024</v>
+      </c>
+      <c r="B108" t="str">
         <v>18-19</v>
       </c>
-      <c r="B108" t="str">
+      <c r="C108" t="str">
         <v>549,00</v>
       </c>
-      <c r="C108" t="str">
+      <c r="D108" t="str">
         <v>3853,5</v>
       </c>
-      <c r="D108" t="str">
+      <c r="E108" t="str">
         <v>550,60</v>
       </c>
-      <c r="E108" t="str">
+      <c r="F108" t="str">
         <v>2442,6</v>
       </c>
-      <c r="F108" t="str">
+      <c r="G108" t="str">
         <v>545,00</v>
       </c>
-      <c r="G108" t="str">
+      <c r="H108" t="str">
         <v>30</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
+        <v>01-08-2024</v>
+      </c>
+      <c r="B109" t="str">
         <v>19-20</v>
       </c>
-      <c r="B109" t="str">
+      <c r="C109" t="str">
         <v>600,00</v>
       </c>
-      <c r="C109" t="str">
+      <c r="D109" t="str">
         <v>4099,8</v>
       </c>
-      <c r="D109" t="str">
+      <c r="E109" t="str">
         <v>565,57</v>
       </c>
-      <c r="E109" t="str">
+      <c r="F109" t="str">
         <v>2106,3</v>
       </c>
-      <c r="F109" t="str">
+      <c r="G109" t="str">
         <v>590,00</v>
       </c>
-      <c r="G109" t="str">
+      <c r="H109" t="str">
         <v>5</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
+        <v>01-08-2024</v>
+      </c>
+      <c r="B110" t="str">
         <v>20-21</v>
       </c>
-      <c r="B110" t="str">
+      <c r="C110" t="str">
         <v>670,00</v>
       </c>
-      <c r="C110" t="str">
+      <c r="D110" t="str">
         <v>3956,3</v>
       </c>
-      <c r="D110" t="str">
+      <c r="E110" t="str">
         <v>674,30</v>
       </c>
-      <c r="E110" t="str">
+      <c r="F110" t="str">
         <v>1721,6</v>
       </c>
-      <c r="F110" t="str">
+      <c r="G110" t="str">
         <v>670,51</v>
       </c>
-      <c r="G110" t="str">
+      <c r="H110" t="str">
         <v>5</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
+        <v>01-08-2024</v>
+      </c>
+      <c r="B111" t="str">
         <v>21-22</v>
       </c>
-      <c r="B111" t="str">
+      <c r="C111" t="str">
         <v>553,90</v>
       </c>
-      <c r="C111" t="str">
+      <c r="D111" t="str">
         <v>3775,1</v>
       </c>
-      <c r="D111" t="str">
+      <c r="E111" t="str">
         <v>553,22</v>
       </c>
-      <c r="E111" t="str">
+      <c r="F111" t="str">
         <v>1724,7</v>
       </c>
-      <c r="F111" t="str">
+      <c r="G111" t="str">
         <v>567,57</v>
       </c>
-      <c r="G111" t="str">
+      <c r="H111" t="str">
         <v>33</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
+        <v>01-08-2024</v>
+      </c>
+      <c r="B112" t="str">
         <v>22-23</v>
       </c>
-      <c r="B112" t="str">
+      <c r="C112" t="str">
         <v>513,70</v>
       </c>
-      <c r="C112" t="str">
+      <c r="D112" t="str">
         <v>4049,7</v>
       </c>
-      <c r="D112" t="str">
+      <c r="E112" t="str">
         <v>495,48</v>
       </c>
-      <c r="E112" t="str">
+      <c r="F112" t="str">
         <v>2430,9</v>
       </c>
-      <c r="F112" t="str">
-        <v>-</v>
-      </c>
       <c r="G112" t="str">
+        <v>-</v>
+      </c>
+      <c r="H112" t="str">
         <v>0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
+        <v>01-08-2024</v>
+      </c>
+      <c r="B113" t="str">
         <v>23-24</v>
       </c>
-      <c r="B113" t="str">
+      <c r="C113" t="str">
         <v>449,00</v>
       </c>
-      <c r="C113" t="str">
+      <c r="D113" t="str">
         <v>3402,8</v>
       </c>
-      <c r="D113" t="str">
+      <c r="E113" t="str">
         <v>435,23</v>
       </c>
-      <c r="E113" t="str">
+      <c r="F113" t="str">
         <v>1887</v>
       </c>
-      <c r="F113" t="str">
-        <v>-</v>
-      </c>
       <c r="G113" t="str">
+        <v>-</v>
+      </c>
+      <c r="H113" t="str">
         <v>0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
+        <v>01-08-2024</v>
+      </c>
+      <c r="B114" t="str">
         <v>Min.</v>
       </c>
-      <c r="B114" t="str">
+      <c r="C114" t="str">
         <v>387,59</v>
       </c>
-      <c r="C114" t="str">
-        <v>-</v>
-      </c>
       <c r="D114" t="str">
+        <v>-</v>
+      </c>
+      <c r="E114" t="str">
         <v>344,07</v>
       </c>
-      <c r="E114" t="str">
-        <v>-</v>
-      </c>
       <c r="F114" t="str">
+        <v>-</v>
+      </c>
+      <c r="G114" t="str">
         <v>387,59</v>
       </c>
-      <c r="G114" t="str">
+      <c r="H114" t="str">
         <v>-</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
+        <v>01-08-2024</v>
+      </c>
+      <c r="B115" t="str">
         <v>Maks.</v>
       </c>
-      <c r="B115" t="str">
+      <c r="C115" t="str">
         <v>670,00</v>
       </c>
-      <c r="C115" t="str">
-        <v>-</v>
-      </c>
       <c r="D115" t="str">
+        <v>-</v>
+      </c>
+      <c r="E115" t="str">
         <v>674,30</v>
       </c>
-      <c r="E115" t="str">
-        <v>-</v>
-      </c>
       <c r="F115" t="str">
+        <v>-</v>
+      </c>
+      <c r="G115" t="str">
         <v>670,51</v>
       </c>
-      <c r="G115" t="str">
+      <c r="H115" t="str">
         <v>-</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
+        <v>01-08-2024</v>
+      </c>
+      <c r="B116" t="str">
         <v>Suma</v>
       </c>
-      <c r="B116" t="str">
+      <c r="C116" t="str">
         <v/>
       </c>
-      <c r="C116" t="str">
+      <c r="D116" t="str">
         <v>81 437,7</v>
       </c>
-      <c r="D116" t="str">
+      <c r="E116" t="str">
         <v/>
       </c>
-      <c r="E116" t="str">
+      <c r="F116" t="str">
         <v>36 277</v>
       </c>
-      <c r="F116" t="str">
+      <c r="G116" t="str">
         <v/>
       </c>
-      <c r="G116" t="str">
+      <c r="H116" t="str">
         <v>253,8</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
+        <v>02-08-2024</v>
+      </c>
+      <c r="B117" t="str">
         <v/>
       </c>
-      <c r="B117" t="str">
+      <c r="C117" t="str">
         <v>FIXING I</v>
       </c>
-      <c r="C117" t="str">
+      <c r="D117" t="str">
         <v>FIXING II</v>
       </c>
-      <c r="D117" t="str">
+      <c r="E117" t="str">
         <v>Notowania ciągłe</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
+        <v>02-08-2024</v>
+      </c>
+      <c r="B118" t="str">
         <v>Czas</v>
       </c>
-      <c r="B118" t="str">
+      <c r="C118" t="str">
         <v>Kurs (PLN/MWh)</v>
       </c>
-      <c r="C118" t="str">
+      <c r="D118" t="str">
         <v>Wolumen (MWh)</v>
       </c>
-      <c r="D118" t="str">
+      <c r="E118" t="str">
         <v>Kurs (PLN/MWh)</v>
       </c>
-      <c r="E118" t="str">
+      <c r="F118" t="str">
         <v>Wolumen (MWh)</v>
       </c>
-      <c r="F118" t="str">
+      <c r="G118" t="str">
         <v>Kurs (PLN/MWh)</v>
       </c>
-      <c r="G118" t="str">
+      <c r="H118" t="str">
         <v>Wolumen (MWh)</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
+        <v>02-08-2024</v>
+      </c>
+      <c r="B119" t="str">
         <v>0-1</v>
       </c>
-      <c r="B119" t="str">
+      <c r="C119" t="str">
         <v>490,00</v>
       </c>
-      <c r="C119" t="str">
+      <c r="D119" t="str">
         <v>3019,5</v>
       </c>
-      <c r="D119" t="str">
+      <c r="E119" t="str">
         <v>490,60</v>
       </c>
-      <c r="E119" t="str">
+      <c r="F119" t="str">
         <v>1973,1</v>
       </c>
-      <c r="F119" t="str">
+      <c r="G119" t="str">
         <v>488,00</v>
       </c>
-      <c r="G119" t="str">
+      <c r="H119" t="str">
         <v>1,5</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
+        <v>02-08-2024</v>
+      </c>
+      <c r="B120" t="str">
         <v>1-2</v>
       </c>
-      <c r="B120" t="str">
+      <c r="C120" t="str">
         <v>450,00</v>
       </c>
-      <c r="C120" t="str">
+      <c r="D120" t="str">
         <v>2661,6</v>
       </c>
-      <c r="D120" t="str">
+      <c r="E120" t="str">
         <v>488,64</v>
       </c>
-      <c r="E120" t="str">
+      <c r="F120" t="str">
         <v>1632,2</v>
       </c>
-      <c r="F120" t="str">
+      <c r="G120" t="str">
         <v>447,00</v>
       </c>
-      <c r="G120" t="str">
+      <c r="H120" t="str">
         <v>10</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
+        <v>02-08-2024</v>
+      </c>
+      <c r="B121" t="str">
         <v>2-3</v>
       </c>
-      <c r="B121" t="str">
+      <c r="C121" t="str">
         <v>424,41</v>
       </c>
-      <c r="C121" t="str">
+      <c r="D121" t="str">
         <v>2467,2</v>
       </c>
-      <c r="D121" t="str">
+      <c r="E121" t="str">
         <v>474,92</v>
       </c>
-      <c r="E121" t="str">
+      <c r="F121" t="str">
         <v>1515,4</v>
       </c>
-      <c r="F121" t="str">
-        <v>-</v>
-      </c>
       <c r="G121" t="str">
+        <v>-</v>
+      </c>
+      <c r="H121" t="str">
         <v>0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
+        <v>02-08-2024</v>
+      </c>
+      <c r="B122" t="str">
         <v>3-4</v>
       </c>
-      <c r="B122" t="str">
+      <c r="C122" t="str">
         <v>436,90</v>
       </c>
-      <c r="C122" t="str">
+      <c r="D122" t="str">
         <v>2551,9</v>
       </c>
-      <c r="D122" t="str">
+      <c r="E122" t="str">
         <v>481,66</v>
       </c>
-      <c r="E122" t="str">
+      <c r="F122" t="str">
         <v>1360,2</v>
       </c>
-      <c r="F122" t="str">
-        <v>-</v>
-      </c>
       <c r="G122" t="str">
+        <v>-</v>
+      </c>
+      <c r="H122" t="str">
         <v>0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
+        <v>02-08-2024</v>
+      </c>
+      <c r="B123" t="str">
         <v>4-5</v>
       </c>
-      <c r="B123" t="str">
+      <c r="C123" t="str">
         <v>428,00</v>
       </c>
-      <c r="C123" t="str">
+      <c r="D123" t="str">
         <v>2586,7</v>
       </c>
-      <c r="D123" t="str">
+      <c r="E123" t="str">
         <v>481,47</v>
       </c>
-      <c r="E123" t="str">
+      <c r="F123" t="str">
         <v>1293,1</v>
       </c>
-      <c r="F123" t="str">
-        <v>-</v>
-      </c>
       <c r="G123" t="str">
+        <v>-</v>
+      </c>
+      <c r="H123" t="str">
         <v>0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
+        <v>02-08-2024</v>
+      </c>
+      <c r="B124" t="str">
         <v>5-6</v>
       </c>
-      <c r="B124" t="str">
+      <c r="C124" t="str">
         <v>447,91</v>
       </c>
-      <c r="C124" t="str">
+      <c r="D124" t="str">
         <v>2458,7</v>
       </c>
-      <c r="D124" t="str">
+      <c r="E124" t="str">
         <v>487,59</v>
       </c>
-      <c r="E124" t="str">
+      <c r="F124" t="str">
         <v>1202,2</v>
       </c>
-      <c r="F124" t="str">
+      <c r="G124" t="str">
         <v>445,92</v>
       </c>
-      <c r="G124" t="str">
+      <c r="H124" t="str">
         <v>34,3</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
+        <v>02-08-2024</v>
+      </c>
+      <c r="B125" t="str">
         <v>6-7</v>
       </c>
-      <c r="B125" t="str">
+      <c r="C125" t="str">
         <v>480,00</v>
       </c>
-      <c r="C125" t="str">
+      <c r="D125" t="str">
         <v>2458,6</v>
       </c>
-      <c r="D125" t="str">
+      <c r="E125" t="str">
         <v>485,88</v>
       </c>
-      <c r="E125" t="str">
+      <c r="F125" t="str">
         <v>1354,6</v>
       </c>
-      <c r="F125" t="str">
+      <c r="G125" t="str">
         <v>480,00</v>
       </c>
-      <c r="G125" t="str">
+      <c r="H125" t="str">
         <v>25,5</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
+        <v>02-08-2024</v>
+      </c>
+      <c r="B126" t="str">
         <v>7-8</v>
       </c>
-      <c r="B126" t="str">
+      <c r="C126" t="str">
         <v>488,68</v>
       </c>
-      <c r="C126" t="str">
+      <c r="D126" t="str">
         <v>2647,6</v>
       </c>
-      <c r="D126" t="str">
+      <c r="E126" t="str">
         <v>505,00</v>
       </c>
-      <c r="E126" t="str">
+      <c r="F126" t="str">
         <v>1317,3</v>
       </c>
-      <c r="F126" t="str">
+      <c r="G126" t="str">
         <v>488,68</v>
       </c>
-      <c r="G126" t="str">
+      <c r="H126" t="str">
         <v>14,7</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
+        <v>02-08-2024</v>
+      </c>
+      <c r="B127" t="str">
         <v>8-9</v>
       </c>
-      <c r="B127" t="str">
+      <c r="C127" t="str">
         <v>524,27</v>
       </c>
-      <c r="C127" t="str">
+      <c r="D127" t="str">
         <v>2835,2</v>
       </c>
-      <c r="D127" t="str">
+      <c r="E127" t="str">
         <v>533,73</v>
       </c>
-      <c r="E127" t="str">
+      <c r="F127" t="str">
         <v>894</v>
       </c>
-      <c r="F127" t="str">
+      <c r="G127" t="str">
         <v>524,27</v>
       </c>
-      <c r="G127" t="str">
+      <c r="H127" t="str">
         <v>2,4</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
+        <v>02-08-2024</v>
+      </c>
+      <c r="B128" t="str">
         <v>9-10</v>
       </c>
-      <c r="B128" t="str">
+      <c r="C128" t="str">
         <v>406,00</v>
       </c>
-      <c r="C128" t="str">
+      <c r="D128" t="str">
         <v>3062,2</v>
       </c>
-      <c r="D128" t="str">
+      <c r="E128" t="str">
         <v>430,75</v>
       </c>
-      <c r="E128" t="str">
+      <c r="F128" t="str">
         <v>998,9</v>
       </c>
-      <c r="F128" t="str">
-        <v>-</v>
-      </c>
       <c r="G128" t="str">
+        <v>-</v>
+      </c>
+      <c r="H128" t="str">
         <v>0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
+        <v>02-08-2024</v>
+      </c>
+      <c r="B129" t="str">
         <v>10-11</v>
       </c>
-      <c r="B129" t="str">
+      <c r="C129" t="str">
         <v>388,80</v>
       </c>
-      <c r="C129" t="str">
+      <c r="D129" t="str">
         <v>3177,7</v>
       </c>
-      <c r="D129" t="str">
+      <c r="E129" t="str">
         <v>390,11</v>
       </c>
-      <c r="E129" t="str">
+      <c r="F129" t="str">
         <v>829,8</v>
       </c>
-      <c r="F129" t="str">
-        <v>-</v>
-      </c>
       <c r="G129" t="str">
+        <v>-</v>
+      </c>
+      <c r="H129" t="str">
         <v>0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
+        <v>02-08-2024</v>
+      </c>
+      <c r="B130" t="str">
         <v>11-12</v>
       </c>
-      <c r="B130" t="str">
+      <c r="C130" t="str">
         <v>377,76</v>
       </c>
-      <c r="C130" t="str">
+      <c r="D130" t="str">
         <v>3483,6</v>
       </c>
-      <c r="D130" t="str">
+      <c r="E130" t="str">
         <v>388,26</v>
       </c>
-      <c r="E130" t="str">
+      <c r="F130" t="str">
         <v>747</v>
       </c>
-      <c r="F130" t="str">
+      <c r="G130" t="str">
         <v>375,00</v>
       </c>
-      <c r="G130" t="str">
+      <c r="H130" t="str">
         <v>11</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
+        <v>02-08-2024</v>
+      </c>
+      <c r="B131" t="str">
         <v>12-13</v>
       </c>
-      <c r="B131" t="str">
+      <c r="C131" t="str">
         <v>361,40</v>
       </c>
-      <c r="C131" t="str">
+      <c r="D131" t="str">
         <v>3870,2</v>
       </c>
-      <c r="D131" t="str">
+      <c r="E131" t="str">
         <v>379,29</v>
       </c>
-      <c r="E131" t="str">
+      <c r="F131" t="str">
         <v>844,5</v>
       </c>
-      <c r="F131" t="str">
-        <v>-</v>
-      </c>
       <c r="G131" t="str">
+        <v>-</v>
+      </c>
+      <c r="H131" t="str">
         <v>0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
+        <v>02-08-2024</v>
+      </c>
+      <c r="B132" t="str">
         <v>13-14</v>
       </c>
-      <c r="B132" t="str">
+      <c r="C132" t="str">
         <v>326,70</v>
       </c>
-      <c r="C132" t="str">
+      <c r="D132" t="str">
         <v>3254,2</v>
       </c>
-      <c r="D132" t="str">
+      <c r="E132" t="str">
         <v>301,05</v>
       </c>
-      <c r="E132" t="str">
+      <c r="F132" t="str">
         <v>991,1</v>
       </c>
-      <c r="F132" t="str">
-        <v>-</v>
-      </c>
       <c r="G132" t="str">
+        <v>-</v>
+      </c>
+      <c r="H132" t="str">
         <v>0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
+        <v>02-08-2024</v>
+      </c>
+      <c r="B133" t="str">
         <v>14-15</v>
       </c>
-      <c r="B133" t="str">
+      <c r="C133" t="str">
         <v>300,00</v>
       </c>
-      <c r="C133" t="str">
+      <c r="D133" t="str">
         <v>3199,1</v>
       </c>
-      <c r="D133" t="str">
+      <c r="E133" t="str">
         <v>290,79</v>
       </c>
-      <c r="E133" t="str">
+      <c r="F133" t="str">
         <v>895,5</v>
       </c>
-      <c r="F133" t="str">
+      <c r="G133" t="str">
         <v>297,00</v>
       </c>
-      <c r="G133" t="str">
+      <c r="H133" t="str">
         <v>30</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
+        <v>02-08-2024</v>
+      </c>
+      <c r="B134" t="str">
         <v>15-16</v>
       </c>
-      <c r="B134" t="str">
+      <c r="C134" t="str">
         <v>340,00</v>
       </c>
-      <c r="C134" t="str">
+      <c r="D134" t="str">
         <v>2942,2</v>
       </c>
-      <c r="D134" t="str">
+      <c r="E134" t="str">
         <v>323,78</v>
       </c>
-      <c r="E134" t="str">
+      <c r="F134" t="str">
         <v>761,8</v>
       </c>
-      <c r="F134" t="str">
+      <c r="G134" t="str">
         <v>337,00</v>
       </c>
-      <c r="G134" t="str">
+      <c r="H134" t="str">
         <v>20,9</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
+        <v>02-08-2024</v>
+      </c>
+      <c r="B135" t="str">
         <v>16-17</v>
       </c>
-      <c r="B135" t="str">
+      <c r="C135" t="str">
         <v>399,99</v>
       </c>
-      <c r="C135" t="str">
+      <c r="D135" t="str">
         <v>3062,5</v>
       </c>
-      <c r="D135" t="str">
+      <c r="E135" t="str">
         <v>399,33</v>
       </c>
-      <c r="E135" t="str">
+      <c r="F135" t="str">
         <v>869,2</v>
       </c>
-      <c r="F135" t="str">
-        <v>-</v>
-      </c>
       <c r="G135" t="str">
+        <v>-</v>
+      </c>
+      <c r="H135" t="str">
         <v>0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
+        <v>02-08-2024</v>
+      </c>
+      <c r="B136" t="str">
         <v>17-18</v>
       </c>
-      <c r="B136" t="str">
+      <c r="C136" t="str">
         <v>492,90</v>
       </c>
-      <c r="C136" t="str">
+      <c r="D136" t="str">
         <v>3179,4</v>
       </c>
-      <c r="D136" t="str">
+      <c r="E136" t="str">
         <v>493,64</v>
       </c>
-      <c r="E136" t="str">
+      <c r="F136" t="str">
         <v>866,5</v>
       </c>
-      <c r="F136" t="str">
+      <c r="G136" t="str">
         <v>483,00</v>
       </c>
-      <c r="G136" t="str">
+      <c r="H136" t="str">
         <v>15</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
+        <v>02-08-2024</v>
+      </c>
+      <c r="B137" t="str">
         <v>18-19</v>
       </c>
-      <c r="B137" t="str">
+      <c r="C137" t="str">
         <v>490,00</v>
       </c>
-      <c r="C137" t="str">
+      <c r="D137" t="str">
         <v>3529,5</v>
       </c>
-      <c r="D137" t="str">
+      <c r="E137" t="str">
         <v>490,55</v>
       </c>
-      <c r="E137" t="str">
+      <c r="F137" t="str">
         <v>2271,5</v>
       </c>
-      <c r="F137" t="str">
-        <v>-</v>
-      </c>
       <c r="G137" t="str">
+        <v>-</v>
+      </c>
+      <c r="H137" t="str">
         <v>0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
+        <v>02-08-2024</v>
+      </c>
+      <c r="B138" t="str">
         <v>19-20</v>
       </c>
-      <c r="B138" t="str">
+      <c r="C138" t="str">
         <v>560,00</v>
       </c>
-      <c r="C138" t="str">
+      <c r="D138" t="str">
         <v>3985,3</v>
       </c>
-      <c r="D138" t="str">
+      <c r="E138" t="str">
         <v>489,60</v>
       </c>
-      <c r="E138" t="str">
+      <c r="F138" t="str">
         <v>2538,9</v>
       </c>
-      <c r="F138" t="str">
+      <c r="G138" t="str">
         <v>559,60</v>
       </c>
-      <c r="G138" t="str">
+      <c r="H138" t="str">
         <v>55</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
+        <v>02-08-2024</v>
+      </c>
+      <c r="B139" t="str">
         <v>20-21</v>
       </c>
-      <c r="B139" t="str">
+      <c r="C139" t="str">
         <v>600,00</v>
       </c>
-      <c r="C139" t="str">
+      <c r="D139" t="str">
         <v>4232</v>
       </c>
-      <c r="D139" t="str">
+      <c r="E139" t="str">
         <v>548,54</v>
       </c>
-      <c r="E139" t="str">
+      <c r="F139" t="str">
         <v>2451,3</v>
       </c>
-      <c r="F139" t="str">
+      <c r="G139" t="str">
         <v>589,14</v>
       </c>
-      <c r="G139" t="str">
+      <c r="H139" t="str">
         <v>35</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
+        <v>02-08-2024</v>
+      </c>
+      <c r="B140" t="str">
         <v>21-22</v>
       </c>
-      <c r="B140" t="str">
+      <c r="C140" t="str">
         <v>586,61</v>
       </c>
-      <c r="C140" t="str">
+      <c r="D140" t="str">
         <v>4061,9</v>
       </c>
-      <c r="D140" t="str">
+      <c r="E140" t="str">
         <v>520,53</v>
       </c>
-      <c r="E140" t="str">
+      <c r="F140" t="str">
         <v>2508,4</v>
       </c>
-      <c r="F140" t="str">
+      <c r="G140" t="str">
         <v>568,67</v>
       </c>
-      <c r="G140" t="str">
+      <c r="H140" t="str">
         <v>15</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
+        <v>02-08-2024</v>
+      </c>
+      <c r="B141" t="str">
         <v>22-23</v>
       </c>
-      <c r="B141" t="str">
+      <c r="C141" t="str">
         <v>514,80</v>
       </c>
-      <c r="C141" t="str">
+      <c r="D141" t="str">
         <v>3420,9</v>
       </c>
-      <c r="D141" t="str">
+      <c r="E141" t="str">
         <v>481,00</v>
       </c>
-      <c r="E141" t="str">
+      <c r="F141" t="str">
         <v>2467,5</v>
       </c>
-      <c r="F141" t="str">
-        <v>-</v>
-      </c>
       <c r="G141" t="str">
+        <v>-</v>
+      </c>
+      <c r="H141" t="str">
         <v>0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
+        <v>02-08-2024</v>
+      </c>
+      <c r="B142" t="str">
         <v>23-24</v>
       </c>
-      <c r="B142" t="str">
+      <c r="C142" t="str">
         <v>441,87</v>
       </c>
-      <c r="C142" t="str">
+      <c r="D142" t="str">
         <v>2781,6</v>
       </c>
-      <c r="D142" t="str">
+      <c r="E142" t="str">
         <v>420,40</v>
       </c>
-      <c r="E142" t="str">
+      <c r="F142" t="str">
         <v>2133,2</v>
       </c>
-      <c r="F142" t="str">
-        <v>-</v>
-      </c>
       <c r="G142" t="str">
+        <v>-</v>
+      </c>
+      <c r="H142" t="str">
         <v>0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
+        <v>02-08-2024</v>
+      </c>
+      <c r="B143" t="str">
         <v>Min.</v>
       </c>
-      <c r="B143" t="str">
+      <c r="C143" t="str">
         <v>300,00</v>
       </c>
-      <c r="C143" t="str">
-        <v>-</v>
-      </c>
       <c r="D143" t="str">
+        <v>-</v>
+      </c>
+      <c r="E143" t="str">
         <v>290,79</v>
       </c>
-      <c r="E143" t="str">
-        <v>-</v>
-      </c>
       <c r="F143" t="str">
+        <v>-</v>
+      </c>
+      <c r="G143" t="str">
         <v>297,00</v>
       </c>
-      <c r="G143" t="str">
+      <c r="H143" t="str">
         <v>-</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
+        <v>02-08-2024</v>
+      </c>
+      <c r="B144" t="str">
         <v>Maks.</v>
       </c>
-      <c r="B144" t="str">
+      <c r="C144" t="str">
         <v>600,00</v>
       </c>
-      <c r="C144" t="str">
-        <v>-</v>
-      </c>
       <c r="D144" t="str">
+        <v>-</v>
+      </c>
+      <c r="E144" t="str">
         <v>548,54</v>
       </c>
-      <c r="E144" t="str">
-        <v>-</v>
-      </c>
       <c r="F144" t="str">
+        <v>-</v>
+      </c>
+      <c r="G144" t="str">
         <v>589,14</v>
       </c>
-      <c r="G144" t="str">
+      <c r="H144" t="str">
         <v>-</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
+        <v>02-08-2024</v>
+      </c>
+      <c r="B145" t="str">
         <v>Suma</v>
       </c>
-      <c r="B145" t="str">
+      <c r="C145" t="str">
         <v/>
       </c>
-      <c r="C145" t="str">
+      <c r="D145" t="str">
         <v>74 929,3</v>
       </c>
-      <c r="D145" t="str">
+      <c r="E145" t="str">
         <v/>
       </c>
-      <c r="E145" t="str">
+      <c r="F145" t="str">
         <v>34 717,2</v>
       </c>
-      <c r="F145" t="str">
+      <c r="G145" t="str">
         <v/>
       </c>
-      <c r="G145" t="str">
+      <c r="H145" t="str">
         <v>270,3</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G145"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H145"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/tabela.xlsx
+++ b/tabela.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H145"/>
+  <dimension ref="A1:H120"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -407,16 +407,25 @@
         <v>29-07-2024</v>
       </c>
       <c r="B1" t="str">
-        <v/>
+        <v>0-1</v>
       </c>
       <c r="C1" t="str">
-        <v>FIXING I</v>
+        <v>433,00</v>
       </c>
       <c r="D1" t="str">
-        <v>FIXING II</v>
+        <v>2883,3</v>
       </c>
       <c r="E1" t="str">
-        <v>Notowania ciągłe</v>
+        <v>433,56</v>
+      </c>
+      <c r="F1" t="str">
+        <v>1128</v>
+      </c>
+      <c r="G1" t="str">
+        <v>423,00</v>
+      </c>
+      <c r="H1" t="str">
+        <v>20</v>
       </c>
     </row>
     <row r="2">
@@ -424,25 +433,25 @@
         <v>29-07-2024</v>
       </c>
       <c r="B2" t="str">
-        <v>Czas</v>
+        <v>1-2</v>
       </c>
       <c r="C2" t="str">
-        <v>Kurs (PLN/MWh)</v>
+        <v>380,00</v>
       </c>
       <c r="D2" t="str">
-        <v>Wolumen (MWh)</v>
+        <v>2776,3</v>
       </c>
       <c r="E2" t="str">
-        <v>Kurs (PLN/MWh)</v>
+        <v>375,23</v>
       </c>
       <c r="F2" t="str">
-        <v>Wolumen (MWh)</v>
+        <v>648,9</v>
       </c>
       <c r="G2" t="str">
-        <v>Kurs (PLN/MWh)</v>
+        <v>-</v>
       </c>
       <c r="H2" t="str">
-        <v>Wolumen (MWh)</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -450,25 +459,25 @@
         <v>29-07-2024</v>
       </c>
       <c r="B3" t="str">
-        <v>0-1</v>
+        <v>2-3</v>
       </c>
       <c r="C3" t="str">
-        <v>433,00</v>
+        <v>389,50</v>
       </c>
       <c r="D3" t="str">
-        <v>2883,3</v>
+        <v>2590,4</v>
       </c>
       <c r="E3" t="str">
-        <v>433,56</v>
+        <v>380,90</v>
       </c>
       <c r="F3" t="str">
-        <v>1128</v>
+        <v>835,2</v>
       </c>
       <c r="G3" t="str">
-        <v>423,00</v>
+        <v>-</v>
       </c>
       <c r="H3" t="str">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -476,19 +485,19 @@
         <v>29-07-2024</v>
       </c>
       <c r="B4" t="str">
-        <v>1-2</v>
+        <v>3-4</v>
       </c>
       <c r="C4" t="str">
-        <v>380,00</v>
+        <v>376,00</v>
       </c>
       <c r="D4" t="str">
-        <v>2776,3</v>
+        <v>2722,2</v>
       </c>
       <c r="E4" t="str">
-        <v>375,23</v>
+        <v>375,37</v>
       </c>
       <c r="F4" t="str">
-        <v>648,9</v>
+        <v>1042,4</v>
       </c>
       <c r="G4" t="str">
         <v>-</v>
@@ -502,19 +511,19 @@
         <v>29-07-2024</v>
       </c>
       <c r="B5" t="str">
-        <v>2-3</v>
+        <v>4-5</v>
       </c>
       <c r="C5" t="str">
-        <v>389,50</v>
+        <v>381,08</v>
       </c>
       <c r="D5" t="str">
-        <v>2590,4</v>
+        <v>2797,7</v>
       </c>
       <c r="E5" t="str">
-        <v>380,90</v>
+        <v>375,20</v>
       </c>
       <c r="F5" t="str">
-        <v>835,2</v>
+        <v>752,8</v>
       </c>
       <c r="G5" t="str">
         <v>-</v>
@@ -528,19 +537,19 @@
         <v>29-07-2024</v>
       </c>
       <c r="B6" t="str">
-        <v>3-4</v>
+        <v>5-6</v>
       </c>
       <c r="C6" t="str">
-        <v>376,00</v>
+        <v>393,55</v>
       </c>
       <c r="D6" t="str">
-        <v>2722,2</v>
+        <v>3007,5</v>
       </c>
       <c r="E6" t="str">
-        <v>375,37</v>
+        <v>431,02</v>
       </c>
       <c r="F6" t="str">
-        <v>1042,4</v>
+        <v>737,5</v>
       </c>
       <c r="G6" t="str">
         <v>-</v>
@@ -554,19 +563,19 @@
         <v>29-07-2024</v>
       </c>
       <c r="B7" t="str">
-        <v>4-5</v>
+        <v>6-7</v>
       </c>
       <c r="C7" t="str">
-        <v>381,08</v>
+        <v>509,11</v>
       </c>
       <c r="D7" t="str">
-        <v>2797,7</v>
+        <v>3317,4</v>
       </c>
       <c r="E7" t="str">
-        <v>375,20</v>
+        <v>490,78</v>
       </c>
       <c r="F7" t="str">
-        <v>752,8</v>
+        <v>1461,1</v>
       </c>
       <c r="G7" t="str">
         <v>-</v>
@@ -580,19 +589,19 @@
         <v>29-07-2024</v>
       </c>
       <c r="B8" t="str">
-        <v>5-6</v>
+        <v>7-8</v>
       </c>
       <c r="C8" t="str">
-        <v>393,55</v>
+        <v>506,40</v>
       </c>
       <c r="D8" t="str">
-        <v>3007,5</v>
+        <v>2930</v>
       </c>
       <c r="E8" t="str">
-        <v>431,02</v>
+        <v>486,05</v>
       </c>
       <c r="F8" t="str">
-        <v>737,5</v>
+        <v>1117,8</v>
       </c>
       <c r="G8" t="str">
         <v>-</v>
@@ -606,19 +615,19 @@
         <v>29-07-2024</v>
       </c>
       <c r="B9" t="str">
-        <v>6-7</v>
+        <v>8-9</v>
       </c>
       <c r="C9" t="str">
-        <v>509,11</v>
+        <v>416,30</v>
       </c>
       <c r="D9" t="str">
-        <v>3317,4</v>
+        <v>3061,2</v>
       </c>
       <c r="E9" t="str">
-        <v>490,78</v>
+        <v>423,86</v>
       </c>
       <c r="F9" t="str">
-        <v>1461,1</v>
+        <v>743,1</v>
       </c>
       <c r="G9" t="str">
         <v>-</v>
@@ -632,19 +641,19 @@
         <v>29-07-2024</v>
       </c>
       <c r="B10" t="str">
-        <v>7-8</v>
+        <v>9-10</v>
       </c>
       <c r="C10" t="str">
-        <v>506,40</v>
+        <v>283,99</v>
       </c>
       <c r="D10" t="str">
-        <v>2930</v>
+        <v>3908,2</v>
       </c>
       <c r="E10" t="str">
-        <v>486,05</v>
+        <v>283,87</v>
       </c>
       <c r="F10" t="str">
-        <v>1117,8</v>
+        <v>1557,5</v>
       </c>
       <c r="G10" t="str">
         <v>-</v>
@@ -658,19 +667,19 @@
         <v>29-07-2024</v>
       </c>
       <c r="B11" t="str">
-        <v>8-9</v>
+        <v>10-11</v>
       </c>
       <c r="C11" t="str">
-        <v>416,30</v>
+        <v>180,11</v>
       </c>
       <c r="D11" t="str">
-        <v>3061,2</v>
+        <v>5009</v>
       </c>
       <c r="E11" t="str">
-        <v>423,86</v>
+        <v>161,01</v>
       </c>
       <c r="F11" t="str">
-        <v>743,1</v>
+        <v>2102,5</v>
       </c>
       <c r="G11" t="str">
         <v>-</v>
@@ -684,19 +693,19 @@
         <v>29-07-2024</v>
       </c>
       <c r="B12" t="str">
-        <v>9-10</v>
+        <v>11-12</v>
       </c>
       <c r="C12" t="str">
-        <v>283,99</v>
+        <v>90,11</v>
       </c>
       <c r="D12" t="str">
-        <v>3908,2</v>
+        <v>5265,3</v>
       </c>
       <c r="E12" t="str">
-        <v>283,87</v>
+        <v>33,64</v>
       </c>
       <c r="F12" t="str">
-        <v>1557,5</v>
+        <v>2002,2</v>
       </c>
       <c r="G12" t="str">
         <v>-</v>
@@ -710,25 +719,25 @@
         <v>29-07-2024</v>
       </c>
       <c r="B13" t="str">
-        <v>10-11</v>
+        <v>12-13</v>
       </c>
       <c r="C13" t="str">
-        <v>180,11</v>
+        <v>30,00</v>
       </c>
       <c r="D13" t="str">
-        <v>5009</v>
+        <v>5106,9</v>
       </c>
       <c r="E13" t="str">
-        <v>161,01</v>
+        <v>4,68</v>
       </c>
       <c r="F13" t="str">
-        <v>2102,5</v>
+        <v>2081</v>
       </c>
       <c r="G13" t="str">
-        <v>-</v>
+        <v>30,00</v>
       </c>
       <c r="H13" t="str">
-        <v>0</v>
+        <v>1,6</v>
       </c>
     </row>
     <row r="14">
@@ -736,25 +745,25 @@
         <v>29-07-2024</v>
       </c>
       <c r="B14" t="str">
-        <v>11-12</v>
+        <v>13-14</v>
       </c>
       <c r="C14" t="str">
-        <v>90,11</v>
+        <v>10,11</v>
       </c>
       <c r="D14" t="str">
-        <v>5265,3</v>
+        <v>4834,2</v>
       </c>
       <c r="E14" t="str">
-        <v>33,64</v>
+        <v>0,04</v>
       </c>
       <c r="F14" t="str">
-        <v>2002,2</v>
+        <v>1963,5</v>
       </c>
       <c r="G14" t="str">
-        <v>-</v>
+        <v>10,11</v>
       </c>
       <c r="H14" t="str">
-        <v>0</v>
+        <v>3,6</v>
       </c>
     </row>
     <row r="15">
@@ -762,25 +771,25 @@
         <v>29-07-2024</v>
       </c>
       <c r="B15" t="str">
-        <v>12-13</v>
+        <v>14-15</v>
       </c>
       <c r="C15" t="str">
-        <v>30,00</v>
+        <v>21,40</v>
       </c>
       <c r="D15" t="str">
-        <v>5106,9</v>
+        <v>4585,7</v>
       </c>
       <c r="E15" t="str">
-        <v>4,68</v>
+        <v>7,46</v>
       </c>
       <c r="F15" t="str">
-        <v>2081</v>
+        <v>1710,2</v>
       </c>
       <c r="G15" t="str">
-        <v>30,00</v>
+        <v>21,40</v>
       </c>
       <c r="H15" t="str">
-        <v>1,6</v>
+        <v>4,8</v>
       </c>
     </row>
     <row r="16">
@@ -788,25 +797,25 @@
         <v>29-07-2024</v>
       </c>
       <c r="B16" t="str">
-        <v>13-14</v>
+        <v>15-16</v>
       </c>
       <c r="C16" t="str">
-        <v>10,11</v>
+        <v>165,00</v>
       </c>
       <c r="D16" t="str">
-        <v>4834,2</v>
+        <v>3905,8</v>
       </c>
       <c r="E16" t="str">
-        <v>0,04</v>
+        <v>60,19</v>
       </c>
       <c r="F16" t="str">
-        <v>1963,5</v>
+        <v>919,4</v>
       </c>
       <c r="G16" t="str">
-        <v>10,11</v>
+        <v>165,00</v>
       </c>
       <c r="H16" t="str">
-        <v>3,6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17">
@@ -814,25 +823,25 @@
         <v>29-07-2024</v>
       </c>
       <c r="B17" t="str">
-        <v>14-15</v>
+        <v>16-17</v>
       </c>
       <c r="C17" t="str">
-        <v>21,40</v>
+        <v>315,99</v>
       </c>
       <c r="D17" t="str">
-        <v>4585,7</v>
+        <v>3216,1</v>
       </c>
       <c r="E17" t="str">
-        <v>7,46</v>
+        <v>333,67</v>
       </c>
       <c r="F17" t="str">
-        <v>1710,2</v>
+        <v>729</v>
       </c>
       <c r="G17" t="str">
-        <v>21,40</v>
+        <v>316,00</v>
       </c>
       <c r="H17" t="str">
-        <v>4,8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18">
@@ -840,25 +849,25 @@
         <v>29-07-2024</v>
       </c>
       <c r="B18" t="str">
-        <v>15-16</v>
+        <v>17-18</v>
       </c>
       <c r="C18" t="str">
-        <v>165,00</v>
+        <v>380,60</v>
       </c>
       <c r="D18" t="str">
-        <v>3905,8</v>
+        <v>3471,4</v>
       </c>
       <c r="E18" t="str">
-        <v>60,19</v>
+        <v>352,40</v>
       </c>
       <c r="F18" t="str">
-        <v>919,4</v>
+        <v>1193,6</v>
       </c>
       <c r="G18" t="str">
-        <v>165,00</v>
+        <v>-</v>
       </c>
       <c r="H18" t="str">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -866,25 +875,25 @@
         <v>29-07-2024</v>
       </c>
       <c r="B19" t="str">
-        <v>16-17</v>
+        <v>18-19</v>
       </c>
       <c r="C19" t="str">
-        <v>315,99</v>
+        <v>481,00</v>
       </c>
       <c r="D19" t="str">
-        <v>3216,1</v>
+        <v>3695,3</v>
       </c>
       <c r="E19" t="str">
-        <v>333,67</v>
+        <v>435,64</v>
       </c>
       <c r="F19" t="str">
-        <v>729</v>
+        <v>2383,8</v>
       </c>
       <c r="G19" t="str">
-        <v>316,00</v>
+        <v>-</v>
       </c>
       <c r="H19" t="str">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -892,25 +901,25 @@
         <v>29-07-2024</v>
       </c>
       <c r="B20" t="str">
-        <v>17-18</v>
+        <v>19-20</v>
       </c>
       <c r="C20" t="str">
-        <v>380,60</v>
+        <v>682,00</v>
       </c>
       <c r="D20" t="str">
-        <v>3471,4</v>
+        <v>4475</v>
       </c>
       <c r="E20" t="str">
-        <v>352,40</v>
+        <v>656,89</v>
       </c>
       <c r="F20" t="str">
-        <v>1193,6</v>
+        <v>2695,9</v>
       </c>
       <c r="G20" t="str">
-        <v>-</v>
+        <v>672,75</v>
       </c>
       <c r="H20" t="str">
-        <v>0</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21">
@@ -918,25 +927,25 @@
         <v>29-07-2024</v>
       </c>
       <c r="B21" t="str">
-        <v>18-19</v>
+        <v>20-21</v>
       </c>
       <c r="C21" t="str">
-        <v>481,00</v>
+        <v>853,40</v>
       </c>
       <c r="D21" t="str">
-        <v>3695,3</v>
+        <v>4636,4</v>
       </c>
       <c r="E21" t="str">
-        <v>435,64</v>
+        <v>901,75</v>
       </c>
       <c r="F21" t="str">
-        <v>2383,8</v>
+        <v>2699,1</v>
       </c>
       <c r="G21" t="str">
-        <v>-</v>
+        <v>851,31</v>
       </c>
       <c r="H21" t="str">
-        <v>0</v>
+        <v>180,2</v>
       </c>
     </row>
     <row r="22">
@@ -944,25 +953,25 @@
         <v>29-07-2024</v>
       </c>
       <c r="B22" t="str">
-        <v>19-20</v>
+        <v>21-22</v>
       </c>
       <c r="C22" t="str">
-        <v>682,00</v>
+        <v>720,00</v>
       </c>
       <c r="D22" t="str">
-        <v>4475</v>
+        <v>4560,7</v>
       </c>
       <c r="E22" t="str">
-        <v>656,89</v>
+        <v>650,61</v>
       </c>
       <c r="F22" t="str">
-        <v>2695,9</v>
+        <v>2968,2</v>
       </c>
       <c r="G22" t="str">
-        <v>672,75</v>
+        <v>711,18</v>
       </c>
       <c r="H22" t="str">
-        <v>91</v>
+        <v>80,5</v>
       </c>
     </row>
     <row r="23">
@@ -970,25 +979,25 @@
         <v>29-07-2024</v>
       </c>
       <c r="B23" t="str">
-        <v>20-21</v>
+        <v>22-23</v>
       </c>
       <c r="C23" t="str">
-        <v>853,40</v>
+        <v>549,00</v>
       </c>
       <c r="D23" t="str">
-        <v>4636,4</v>
+        <v>4383,7</v>
       </c>
       <c r="E23" t="str">
-        <v>901,75</v>
+        <v>509,95</v>
       </c>
       <c r="F23" t="str">
-        <v>2699,1</v>
+        <v>3388,4</v>
       </c>
       <c r="G23" t="str">
-        <v>851,31</v>
+        <v>540,00</v>
       </c>
       <c r="H23" t="str">
-        <v>180,2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24">
@@ -996,155 +1005,155 @@
         <v>29-07-2024</v>
       </c>
       <c r="B24" t="str">
-        <v>21-22</v>
+        <v>23-24</v>
       </c>
       <c r="C24" t="str">
-        <v>720,00</v>
+        <v>458,00</v>
       </c>
       <c r="D24" t="str">
-        <v>4560,7</v>
+        <v>3816,3</v>
       </c>
       <c r="E24" t="str">
-        <v>650,61</v>
+        <v>424,99</v>
       </c>
       <c r="F24" t="str">
-        <v>2968,2</v>
+        <v>2886</v>
       </c>
       <c r="G24" t="str">
-        <v>711,18</v>
+        <v>455,00</v>
       </c>
       <c r="H24" t="str">
-        <v>80,5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>29-07-2024</v>
+        <v>30-07-2024</v>
       </c>
       <c r="B25" t="str">
-        <v>22-23</v>
+        <v>0-1</v>
       </c>
       <c r="C25" t="str">
-        <v>549,00</v>
+        <v>473,14</v>
       </c>
       <c r="D25" t="str">
-        <v>4383,7</v>
+        <v>3590,6</v>
       </c>
       <c r="E25" t="str">
-        <v>509,95</v>
+        <v>423,66</v>
       </c>
       <c r="F25" t="str">
-        <v>3388,4</v>
+        <v>3017,3</v>
       </c>
       <c r="G25" t="str">
-        <v>540,00</v>
+        <v>463,00</v>
       </c>
       <c r="H25" t="str">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>29-07-2024</v>
+        <v>30-07-2024</v>
       </c>
       <c r="B26" t="str">
-        <v>23-24</v>
+        <v>1-2</v>
       </c>
       <c r="C26" t="str">
-        <v>458,00</v>
+        <v>418,00</v>
       </c>
       <c r="D26" t="str">
-        <v>3816,3</v>
+        <v>3467,1</v>
       </c>
       <c r="E26" t="str">
-        <v>424,99</v>
+        <v>372,85</v>
       </c>
       <c r="F26" t="str">
-        <v>2886</v>
+        <v>2630</v>
       </c>
       <c r="G26" t="str">
-        <v>455,00</v>
+        <v>-</v>
       </c>
       <c r="H26" t="str">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>29-07-2024</v>
+        <v>30-07-2024</v>
       </c>
       <c r="B27" t="str">
-        <v>Min.</v>
+        <v>2-3</v>
       </c>
       <c r="C27" t="str">
-        <v>10,11</v>
+        <v>406,26</v>
       </c>
       <c r="D27" t="str">
-        <v>-</v>
+        <v>3180,1</v>
       </c>
       <c r="E27" t="str">
-        <v>0,04</v>
+        <v>363,45</v>
       </c>
       <c r="F27" t="str">
-        <v>-</v>
+        <v>2418,6</v>
       </c>
       <c r="G27" t="str">
-        <v>10,11</v>
+        <v>-</v>
       </c>
       <c r="H27" t="str">
-        <v>-</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>29-07-2024</v>
+        <v>30-07-2024</v>
       </c>
       <c r="B28" t="str">
-        <v>Maks.</v>
+        <v>3-4</v>
       </c>
       <c r="C28" t="str">
-        <v>853,40</v>
+        <v>407,00</v>
       </c>
       <c r="D28" t="str">
-        <v>-</v>
+        <v>3286,2</v>
       </c>
       <c r="E28" t="str">
-        <v>901,75</v>
+        <v>357,63</v>
       </c>
       <c r="F28" t="str">
-        <v>-</v>
+        <v>2539,7</v>
       </c>
       <c r="G28" t="str">
-        <v>851,31</v>
+        <v>-</v>
       </c>
       <c r="H28" t="str">
-        <v>-</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>29-07-2024</v>
+        <v>30-07-2024</v>
       </c>
       <c r="B29" t="str">
-        <v>Suma</v>
+        <v>4-5</v>
       </c>
       <c r="C29" t="str">
-        <v/>
+        <v>408,00</v>
       </c>
       <c r="D29" t="str">
-        <v>90 956</v>
+        <v>3260,6</v>
       </c>
       <c r="E29" t="str">
-        <v/>
+        <v>389,06</v>
       </c>
       <c r="F29" t="str">
-        <v>39 747,1</v>
+        <v>2243,2</v>
       </c>
       <c r="G29" t="str">
-        <v/>
+        <v>-</v>
       </c>
       <c r="H29" t="str">
-        <v>472,7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1152,16 +1161,25 @@
         <v>30-07-2024</v>
       </c>
       <c r="B30" t="str">
-        <v/>
+        <v>5-6</v>
       </c>
       <c r="C30" t="str">
-        <v>FIXING I</v>
+        <v>443,55</v>
       </c>
       <c r="D30" t="str">
-        <v>FIXING II</v>
+        <v>3268,3</v>
       </c>
       <c r="E30" t="str">
-        <v>Notowania ciągłe</v>
+        <v>435,91</v>
+      </c>
+      <c r="F30" t="str">
+        <v>1779,2</v>
+      </c>
+      <c r="G30" t="str">
+        <v>443,55</v>
+      </c>
+      <c r="H30" t="str">
+        <v>25</v>
       </c>
     </row>
     <row r="31">
@@ -1169,25 +1187,25 @@
         <v>30-07-2024</v>
       </c>
       <c r="B31" t="str">
-        <v>Czas</v>
+        <v>6-7</v>
       </c>
       <c r="C31" t="str">
-        <v>Kurs (PLN/MWh)</v>
+        <v>550,00</v>
       </c>
       <c r="D31" t="str">
-        <v>Wolumen (MWh)</v>
+        <v>3763,2</v>
       </c>
       <c r="E31" t="str">
-        <v>Kurs (PLN/MWh)</v>
+        <v>494,05</v>
       </c>
       <c r="F31" t="str">
-        <v>Wolumen (MWh)</v>
+        <v>2334,5</v>
       </c>
       <c r="G31" t="str">
-        <v>Kurs (PLN/MWh)</v>
+        <v>544,95</v>
       </c>
       <c r="H31" t="str">
-        <v>Wolumen (MWh)</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32">
@@ -1195,25 +1213,25 @@
         <v>30-07-2024</v>
       </c>
       <c r="B32" t="str">
-        <v>0-1</v>
+        <v>7-8</v>
       </c>
       <c r="C32" t="str">
-        <v>473,14</v>
+        <v>530,00</v>
       </c>
       <c r="D32" t="str">
-        <v>3590,6</v>
+        <v>2890,9</v>
       </c>
       <c r="E32" t="str">
-        <v>423,66</v>
+        <v>469,38</v>
       </c>
       <c r="F32" t="str">
-        <v>3017,3</v>
+        <v>1447</v>
       </c>
       <c r="G32" t="str">
-        <v>463,00</v>
+        <v>-</v>
       </c>
       <c r="H32" t="str">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1221,19 +1239,19 @@
         <v>30-07-2024</v>
       </c>
       <c r="B33" t="str">
-        <v>1-2</v>
+        <v>8-9</v>
       </c>
       <c r="C33" t="str">
-        <v>418,00</v>
+        <v>420,00</v>
       </c>
       <c r="D33" t="str">
-        <v>3467,1</v>
+        <v>3040,8</v>
       </c>
       <c r="E33" t="str">
-        <v>372,85</v>
+        <v>408,39</v>
       </c>
       <c r="F33" t="str">
-        <v>2630</v>
+        <v>1000,8</v>
       </c>
       <c r="G33" t="str">
         <v>-</v>
@@ -1247,25 +1265,25 @@
         <v>30-07-2024</v>
       </c>
       <c r="B34" t="str">
-        <v>2-3</v>
+        <v>9-10</v>
       </c>
       <c r="C34" t="str">
-        <v>406,26</v>
+        <v>303,99</v>
       </c>
       <c r="D34" t="str">
-        <v>3180,1</v>
+        <v>3372,1</v>
       </c>
       <c r="E34" t="str">
-        <v>363,45</v>
+        <v>339,12</v>
       </c>
       <c r="F34" t="str">
-        <v>2418,6</v>
+        <v>1091,7</v>
       </c>
       <c r="G34" t="str">
-        <v>-</v>
+        <v>294,00</v>
       </c>
       <c r="H34" t="str">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35">
@@ -1273,19 +1291,19 @@
         <v>30-07-2024</v>
       </c>
       <c r="B35" t="str">
-        <v>3-4</v>
+        <v>10-11</v>
       </c>
       <c r="C35" t="str">
-        <v>407,00</v>
+        <v>198,12</v>
       </c>
       <c r="D35" t="str">
-        <v>3286,2</v>
+        <v>4010,7</v>
       </c>
       <c r="E35" t="str">
-        <v>357,63</v>
+        <v>239,76</v>
       </c>
       <c r="F35" t="str">
-        <v>2539,7</v>
+        <v>1662,9</v>
       </c>
       <c r="G35" t="str">
         <v>-</v>
@@ -1299,19 +1317,19 @@
         <v>30-07-2024</v>
       </c>
       <c r="B36" t="str">
-        <v>4-5</v>
+        <v>11-12</v>
       </c>
       <c r="C36" t="str">
-        <v>408,00</v>
+        <v>105,95</v>
       </c>
       <c r="D36" t="str">
-        <v>3260,6</v>
+        <v>4484,2</v>
       </c>
       <c r="E36" t="str">
-        <v>389,06</v>
+        <v>143,53</v>
       </c>
       <c r="F36" t="str">
-        <v>2243,2</v>
+        <v>1981,6</v>
       </c>
       <c r="G36" t="str">
         <v>-</v>
@@ -1325,25 +1343,25 @@
         <v>30-07-2024</v>
       </c>
       <c r="B37" t="str">
-        <v>5-6</v>
+        <v>12-13</v>
       </c>
       <c r="C37" t="str">
-        <v>443,55</v>
+        <v>70,00</v>
       </c>
       <c r="D37" t="str">
-        <v>3268,3</v>
+        <v>4324,5</v>
       </c>
       <c r="E37" t="str">
-        <v>435,91</v>
+        <v>107,68</v>
       </c>
       <c r="F37" t="str">
-        <v>1779,2</v>
+        <v>1695,8</v>
       </c>
       <c r="G37" t="str">
-        <v>443,55</v>
+        <v>-</v>
       </c>
       <c r="H37" t="str">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1351,25 +1369,25 @@
         <v>30-07-2024</v>
       </c>
       <c r="B38" t="str">
-        <v>6-7</v>
+        <v>13-14</v>
       </c>
       <c r="C38" t="str">
-        <v>550,00</v>
+        <v>70,00</v>
       </c>
       <c r="D38" t="str">
-        <v>3763,2</v>
+        <v>4096,6</v>
       </c>
       <c r="E38" t="str">
-        <v>494,05</v>
+        <v>71,81</v>
       </c>
       <c r="F38" t="str">
-        <v>2334,5</v>
+        <v>1335,4</v>
       </c>
       <c r="G38" t="str">
-        <v>544,95</v>
+        <v>-</v>
       </c>
       <c r="H38" t="str">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1377,19 +1395,19 @@
         <v>30-07-2024</v>
       </c>
       <c r="B39" t="str">
-        <v>7-8</v>
+        <v>14-15</v>
       </c>
       <c r="C39" t="str">
-        <v>530,00</v>
+        <v>100,00</v>
       </c>
       <c r="D39" t="str">
-        <v>2890,9</v>
+        <v>3791</v>
       </c>
       <c r="E39" t="str">
-        <v>469,38</v>
+        <v>98,70</v>
       </c>
       <c r="F39" t="str">
-        <v>1447</v>
+        <v>1106,5</v>
       </c>
       <c r="G39" t="str">
         <v>-</v>
@@ -1403,19 +1421,19 @@
         <v>30-07-2024</v>
       </c>
       <c r="B40" t="str">
-        <v>8-9</v>
+        <v>15-16</v>
       </c>
       <c r="C40" t="str">
-        <v>420,00</v>
+        <v>239,99</v>
       </c>
       <c r="D40" t="str">
-        <v>3040,8</v>
+        <v>3223,9</v>
       </c>
       <c r="E40" t="str">
-        <v>408,39</v>
+        <v>175,36</v>
       </c>
       <c r="F40" t="str">
-        <v>1000,8</v>
+        <v>961,4</v>
       </c>
       <c r="G40" t="str">
         <v>-</v>
@@ -1429,25 +1447,25 @@
         <v>30-07-2024</v>
       </c>
       <c r="B41" t="str">
-        <v>9-10</v>
+        <v>16-17</v>
       </c>
       <c r="C41" t="str">
-        <v>303,99</v>
+        <v>370,60</v>
       </c>
       <c r="D41" t="str">
-        <v>3372,1</v>
+        <v>2768,7</v>
       </c>
       <c r="E41" t="str">
-        <v>339,12</v>
+        <v>307,32</v>
       </c>
       <c r="F41" t="str">
-        <v>1091,7</v>
+        <v>705,9</v>
       </c>
       <c r="G41" t="str">
-        <v>294,00</v>
+        <v>370,60</v>
       </c>
       <c r="H41" t="str">
-        <v>10</v>
+        <v>17,8</v>
       </c>
     </row>
     <row r="42">
@@ -1455,19 +1473,19 @@
         <v>30-07-2024</v>
       </c>
       <c r="B42" t="str">
-        <v>10-11</v>
+        <v>17-18</v>
       </c>
       <c r="C42" t="str">
-        <v>198,12</v>
+        <v>379,00</v>
       </c>
       <c r="D42" t="str">
-        <v>4010,7</v>
+        <v>3235</v>
       </c>
       <c r="E42" t="str">
-        <v>239,76</v>
+        <v>343,68</v>
       </c>
       <c r="F42" t="str">
-        <v>1662,9</v>
+        <v>1541,7</v>
       </c>
       <c r="G42" t="str">
         <v>-</v>
@@ -1481,25 +1499,25 @@
         <v>30-07-2024</v>
       </c>
       <c r="B43" t="str">
-        <v>11-12</v>
+        <v>18-19</v>
       </c>
       <c r="C43" t="str">
-        <v>105,95</v>
+        <v>499,40</v>
       </c>
       <c r="D43" t="str">
-        <v>4484,2</v>
+        <v>3681,1</v>
       </c>
       <c r="E43" t="str">
-        <v>143,53</v>
+        <v>405,64</v>
       </c>
       <c r="F43" t="str">
-        <v>1981,6</v>
+        <v>2278,4</v>
       </c>
       <c r="G43" t="str">
-        <v>-</v>
+        <v>487,00</v>
       </c>
       <c r="H43" t="str">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44">
@@ -1507,25 +1525,25 @@
         <v>30-07-2024</v>
       </c>
       <c r="B44" t="str">
-        <v>12-13</v>
+        <v>19-20</v>
       </c>
       <c r="C44" t="str">
-        <v>70,00</v>
+        <v>632,00</v>
       </c>
       <c r="D44" t="str">
-        <v>4324,5</v>
+        <v>4227,4</v>
       </c>
       <c r="E44" t="str">
-        <v>107,68</v>
+        <v>513,65</v>
       </c>
       <c r="F44" t="str">
-        <v>1695,8</v>
+        <v>2357,2</v>
       </c>
       <c r="G44" t="str">
-        <v>-</v>
+        <v>633,33</v>
       </c>
       <c r="H44" t="str">
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45">
@@ -1533,25 +1551,25 @@
         <v>30-07-2024</v>
       </c>
       <c r="B45" t="str">
-        <v>13-14</v>
+        <v>20-21</v>
       </c>
       <c r="C45" t="str">
-        <v>70,00</v>
+        <v>825,00</v>
       </c>
       <c r="D45" t="str">
-        <v>4096,6</v>
+        <v>4789,1</v>
       </c>
       <c r="E45" t="str">
-        <v>71,81</v>
+        <v>690,49</v>
       </c>
       <c r="F45" t="str">
-        <v>1335,4</v>
+        <v>2294,2</v>
       </c>
       <c r="G45" t="str">
-        <v>-</v>
+        <v>815,00</v>
       </c>
       <c r="H45" t="str">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46">
@@ -1559,25 +1577,25 @@
         <v>30-07-2024</v>
       </c>
       <c r="B46" t="str">
-        <v>14-15</v>
+        <v>21-22</v>
       </c>
       <c r="C46" t="str">
-        <v>100,00</v>
+        <v>634,00</v>
       </c>
       <c r="D46" t="str">
-        <v>3791</v>
+        <v>4367,9</v>
       </c>
       <c r="E46" t="str">
-        <v>98,70</v>
+        <v>550,36</v>
       </c>
       <c r="F46" t="str">
-        <v>1106,5</v>
+        <v>2593,6</v>
       </c>
       <c r="G46" t="str">
-        <v>-</v>
+        <v>623,45</v>
       </c>
       <c r="H46" t="str">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47">
@@ -1585,25 +1603,25 @@
         <v>30-07-2024</v>
       </c>
       <c r="B47" t="str">
-        <v>15-16</v>
+        <v>22-23</v>
       </c>
       <c r="C47" t="str">
-        <v>239,99</v>
+        <v>520,00</v>
       </c>
       <c r="D47" t="str">
-        <v>3223,9</v>
+        <v>4665,8</v>
       </c>
       <c r="E47" t="str">
-        <v>175,36</v>
+        <v>520,57</v>
       </c>
       <c r="F47" t="str">
-        <v>961,4</v>
+        <v>3148</v>
       </c>
       <c r="G47" t="str">
-        <v>-</v>
+        <v>510,00</v>
       </c>
       <c r="H47" t="str">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48">
@@ -1611,285 +1629,285 @@
         <v>30-07-2024</v>
       </c>
       <c r="B48" t="str">
-        <v>16-17</v>
+        <v>23-24</v>
       </c>
       <c r="C48" t="str">
-        <v>370,60</v>
+        <v>443,80</v>
       </c>
       <c r="D48" t="str">
-        <v>2768,7</v>
+        <v>3914,9</v>
       </c>
       <c r="E48" t="str">
-        <v>307,32</v>
+        <v>421,22</v>
       </c>
       <c r="F48" t="str">
-        <v>705,9</v>
+        <v>2836,2</v>
       </c>
       <c r="G48" t="str">
-        <v>370,60</v>
+        <v>433,00</v>
       </c>
       <c r="H48" t="str">
-        <v>17,8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>30-07-2024</v>
+        <v>31-07-2024</v>
       </c>
       <c r="B49" t="str">
-        <v>17-18</v>
+        <v>0-1</v>
       </c>
       <c r="C49" t="str">
-        <v>379,00</v>
+        <v>450,00</v>
       </c>
       <c r="D49" t="str">
-        <v>3235</v>
+        <v>3361,3</v>
       </c>
       <c r="E49" t="str">
-        <v>343,68</v>
+        <v>432,45</v>
       </c>
       <c r="F49" t="str">
-        <v>1541,7</v>
+        <v>2720</v>
       </c>
       <c r="G49" t="str">
-        <v>-</v>
+        <v>440,00</v>
       </c>
       <c r="H49" t="str">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>30-07-2024</v>
+        <v>31-07-2024</v>
       </c>
       <c r="B50" t="str">
-        <v>18-19</v>
+        <v>1-2</v>
       </c>
       <c r="C50" t="str">
-        <v>499,40</v>
+        <v>400,00</v>
       </c>
       <c r="D50" t="str">
-        <v>3681,1</v>
+        <v>3116,8</v>
       </c>
       <c r="E50" t="str">
-        <v>405,64</v>
+        <v>374,52</v>
       </c>
       <c r="F50" t="str">
-        <v>2278,4</v>
+        <v>2417,4</v>
       </c>
       <c r="G50" t="str">
-        <v>487,00</v>
+        <v>-</v>
       </c>
       <c r="H50" t="str">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>30-07-2024</v>
+        <v>31-07-2024</v>
       </c>
       <c r="B51" t="str">
-        <v>19-20</v>
+        <v>2-3</v>
       </c>
       <c r="C51" t="str">
-        <v>632,00</v>
+        <v>390,00</v>
       </c>
       <c r="D51" t="str">
-        <v>4227,4</v>
+        <v>2958,7</v>
       </c>
       <c r="E51" t="str">
-        <v>513,65</v>
+        <v>363,35</v>
       </c>
       <c r="F51" t="str">
-        <v>2357,2</v>
+        <v>2386,8</v>
       </c>
       <c r="G51" t="str">
-        <v>633,33</v>
+        <v>-</v>
       </c>
       <c r="H51" t="str">
-        <v>45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>30-07-2024</v>
+        <v>31-07-2024</v>
       </c>
       <c r="B52" t="str">
-        <v>20-21</v>
+        <v>3-4</v>
       </c>
       <c r="C52" t="str">
-        <v>825,00</v>
+        <v>390,00</v>
       </c>
       <c r="D52" t="str">
-        <v>4789,1</v>
+        <v>3007,3</v>
       </c>
       <c r="E52" t="str">
-        <v>690,49</v>
+        <v>363,35</v>
       </c>
       <c r="F52" t="str">
-        <v>2294,2</v>
+        <v>2439,9</v>
       </c>
       <c r="G52" t="str">
-        <v>815,00</v>
+        <v>-</v>
       </c>
       <c r="H52" t="str">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>30-07-2024</v>
+        <v>31-07-2024</v>
       </c>
       <c r="B53" t="str">
-        <v>21-22</v>
+        <v>4-5</v>
       </c>
       <c r="C53" t="str">
-        <v>634,00</v>
+        <v>397,20</v>
       </c>
       <c r="D53" t="str">
-        <v>4367,9</v>
+        <v>3066,5</v>
       </c>
       <c r="E53" t="str">
-        <v>550,36</v>
+        <v>359,51</v>
       </c>
       <c r="F53" t="str">
-        <v>2593,6</v>
+        <v>2467,6</v>
       </c>
       <c r="G53" t="str">
-        <v>623,45</v>
+        <v>-</v>
       </c>
       <c r="H53" t="str">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>30-07-2024</v>
+        <v>31-07-2024</v>
       </c>
       <c r="B54" t="str">
-        <v>22-23</v>
+        <v>5-6</v>
       </c>
       <c r="C54" t="str">
-        <v>520,00</v>
+        <v>437,00</v>
       </c>
       <c r="D54" t="str">
-        <v>4665,8</v>
+        <v>3229,3</v>
       </c>
       <c r="E54" t="str">
-        <v>520,57</v>
+        <v>437,43</v>
       </c>
       <c r="F54" t="str">
-        <v>3148</v>
+        <v>2022,4</v>
       </c>
       <c r="G54" t="str">
-        <v>510,00</v>
+        <v>437,00</v>
       </c>
       <c r="H54" t="str">
-        <v>20</v>
+        <v>37,1</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>30-07-2024</v>
+        <v>31-07-2024</v>
       </c>
       <c r="B55" t="str">
-        <v>23-24</v>
+        <v>6-7</v>
       </c>
       <c r="C55" t="str">
-        <v>443,80</v>
+        <v>530,00</v>
       </c>
       <c r="D55" t="str">
-        <v>3914,9</v>
+        <v>3597,5</v>
       </c>
       <c r="E55" t="str">
-        <v>421,22</v>
+        <v>545,18</v>
       </c>
       <c r="F55" t="str">
-        <v>2836,2</v>
+        <v>2178,7</v>
       </c>
       <c r="G55" t="str">
-        <v>433,00</v>
+        <v>-</v>
       </c>
       <c r="H55" t="str">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>30-07-2024</v>
+        <v>31-07-2024</v>
       </c>
       <c r="B56" t="str">
-        <v>Min.</v>
+        <v>7-8</v>
       </c>
       <c r="C56" t="str">
-        <v>70,00</v>
+        <v>520,00</v>
       </c>
       <c r="D56" t="str">
-        <v>-</v>
+        <v>3013,4</v>
       </c>
       <c r="E56" t="str">
-        <v>71,81</v>
+        <v>489,67</v>
       </c>
       <c r="F56" t="str">
-        <v>-</v>
+        <v>1606,9</v>
       </c>
       <c r="G56" t="str">
-        <v>294,00</v>
+        <v>-</v>
       </c>
       <c r="H56" t="str">
-        <v>-</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>30-07-2024</v>
+        <v>31-07-2024</v>
       </c>
       <c r="B57" t="str">
-        <v>Maks.</v>
+        <v>8-9</v>
       </c>
       <c r="C57" t="str">
-        <v>825,00</v>
+        <v>432,41</v>
       </c>
       <c r="D57" t="str">
-        <v>-</v>
+        <v>2918,7</v>
       </c>
       <c r="E57" t="str">
-        <v>690,49</v>
+        <v>456,00</v>
       </c>
       <c r="F57" t="str">
-        <v>-</v>
+        <v>1068,5</v>
       </c>
       <c r="G57" t="str">
-        <v>815,00</v>
+        <v>-</v>
       </c>
       <c r="H57" t="str">
-        <v>-</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>30-07-2024</v>
+        <v>31-07-2024</v>
       </c>
       <c r="B58" t="str">
-        <v>Suma</v>
+        <v>9-10</v>
       </c>
       <c r="C58" t="str">
-        <v/>
+        <v>355,57</v>
       </c>
       <c r="D58" t="str">
-        <v>88 700,7</v>
+        <v>3202,7</v>
       </c>
       <c r="E58" t="str">
-        <v/>
+        <v>387,79</v>
       </c>
       <c r="F58" t="str">
-        <v>47 000,8</v>
+        <v>1457,7</v>
       </c>
       <c r="G58" t="str">
-        <v/>
+        <v>345,00</v>
       </c>
       <c r="H58" t="str">
-        <v>239,8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59">
@@ -1897,16 +1915,25 @@
         <v>31-07-2024</v>
       </c>
       <c r="B59" t="str">
-        <v/>
+        <v>10-11</v>
       </c>
       <c r="C59" t="str">
-        <v>FIXING I</v>
+        <v>288,00</v>
       </c>
       <c r="D59" t="str">
-        <v>FIXING II</v>
+        <v>4244,9</v>
       </c>
       <c r="E59" t="str">
-        <v>Notowania ciągłe</v>
+        <v>331,19</v>
+      </c>
+      <c r="F59" t="str">
+        <v>1567,9</v>
+      </c>
+      <c r="G59" t="str">
+        <v>-</v>
+      </c>
+      <c r="H59" t="str">
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -1914,25 +1941,25 @@
         <v>31-07-2024</v>
       </c>
       <c r="B60" t="str">
-        <v>Czas</v>
+        <v>11-12</v>
       </c>
       <c r="C60" t="str">
-        <v>Kurs (PLN/MWh)</v>
+        <v>263,40</v>
       </c>
       <c r="D60" t="str">
-        <v>Wolumen (MWh)</v>
+        <v>4633,8</v>
       </c>
       <c r="E60" t="str">
-        <v>Kurs (PLN/MWh)</v>
+        <v>291,14</v>
       </c>
       <c r="F60" t="str">
-        <v>Wolumen (MWh)</v>
+        <v>1274,8</v>
       </c>
       <c r="G60" t="str">
-        <v>Kurs (PLN/MWh)</v>
+        <v>-</v>
       </c>
       <c r="H60" t="str">
-        <v>Wolumen (MWh)</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -1940,22 +1967,22 @@
         <v>31-07-2024</v>
       </c>
       <c r="B61" t="str">
-        <v>0-1</v>
+        <v>12-13</v>
       </c>
       <c r="C61" t="str">
-        <v>450,00</v>
+        <v>235,90</v>
       </c>
       <c r="D61" t="str">
-        <v>3361,3</v>
+        <v>4504,3</v>
       </c>
       <c r="E61" t="str">
-        <v>432,45</v>
+        <v>275,59</v>
       </c>
       <c r="F61" t="str">
-        <v>2720</v>
+        <v>1174,6</v>
       </c>
       <c r="G61" t="str">
-        <v>440,00</v>
+        <v>225,00</v>
       </c>
       <c r="H61" t="str">
         <v>20</v>
@@ -1966,25 +1993,25 @@
         <v>31-07-2024</v>
       </c>
       <c r="B62" t="str">
-        <v>1-2</v>
+        <v>13-14</v>
       </c>
       <c r="C62" t="str">
-        <v>400,00</v>
+        <v>241,99</v>
       </c>
       <c r="D62" t="str">
-        <v>3116,8</v>
+        <v>4004,6</v>
       </c>
       <c r="E62" t="str">
-        <v>374,52</v>
+        <v>247,03</v>
       </c>
       <c r="F62" t="str">
-        <v>2417,4</v>
+        <v>1094,2</v>
       </c>
       <c r="G62" t="str">
-        <v>-</v>
+        <v>231,31</v>
       </c>
       <c r="H62" t="str">
-        <v>0</v>
+        <v>21,1</v>
       </c>
     </row>
     <row r="63">
@@ -1992,19 +2019,19 @@
         <v>31-07-2024</v>
       </c>
       <c r="B63" t="str">
-        <v>2-3</v>
+        <v>14-15</v>
       </c>
       <c r="C63" t="str">
-        <v>390,00</v>
+        <v>233,99</v>
       </c>
       <c r="D63" t="str">
-        <v>2958,7</v>
+        <v>4052,4</v>
       </c>
       <c r="E63" t="str">
-        <v>363,35</v>
+        <v>226,96</v>
       </c>
       <c r="F63" t="str">
-        <v>2386,8</v>
+        <v>1001</v>
       </c>
       <c r="G63" t="str">
         <v>-</v>
@@ -2018,19 +2045,19 @@
         <v>31-07-2024</v>
       </c>
       <c r="B64" t="str">
-        <v>3-4</v>
+        <v>15-16</v>
       </c>
       <c r="C64" t="str">
-        <v>390,00</v>
+        <v>295,67</v>
       </c>
       <c r="D64" t="str">
-        <v>3007,3</v>
+        <v>3632,1</v>
       </c>
       <c r="E64" t="str">
-        <v>363,35</v>
+        <v>295,90</v>
       </c>
       <c r="F64" t="str">
-        <v>2439,9</v>
+        <v>752,4</v>
       </c>
       <c r="G64" t="str">
         <v>-</v>
@@ -2044,19 +2071,19 @@
         <v>31-07-2024</v>
       </c>
       <c r="B65" t="str">
-        <v>4-5</v>
+        <v>16-17</v>
       </c>
       <c r="C65" t="str">
-        <v>397,20</v>
+        <v>385,69</v>
       </c>
       <c r="D65" t="str">
-        <v>3066,5</v>
+        <v>3191,6</v>
       </c>
       <c r="E65" t="str">
-        <v>359,51</v>
+        <v>379,13</v>
       </c>
       <c r="F65" t="str">
-        <v>2467,6</v>
+        <v>487,8</v>
       </c>
       <c r="G65" t="str">
         <v>-</v>
@@ -2070,25 +2097,25 @@
         <v>31-07-2024</v>
       </c>
       <c r="B66" t="str">
-        <v>5-6</v>
+        <v>17-18</v>
       </c>
       <c r="C66" t="str">
-        <v>437,00</v>
+        <v>444,97</v>
       </c>
       <c r="D66" t="str">
-        <v>3229,3</v>
+        <v>3216,2</v>
       </c>
       <c r="E66" t="str">
-        <v>437,43</v>
+        <v>380,34</v>
       </c>
       <c r="F66" t="str">
-        <v>2022,4</v>
+        <v>1392,1</v>
       </c>
       <c r="G66" t="str">
-        <v>437,00</v>
+        <v>-</v>
       </c>
       <c r="H66" t="str">
-        <v>37,1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2096,25 +2123,25 @@
         <v>31-07-2024</v>
       </c>
       <c r="B67" t="str">
-        <v>6-7</v>
+        <v>18-19</v>
       </c>
       <c r="C67" t="str">
-        <v>530,00</v>
+        <v>503,60</v>
       </c>
       <c r="D67" t="str">
-        <v>3597,5</v>
+        <v>3604,7</v>
       </c>
       <c r="E67" t="str">
-        <v>545,18</v>
+        <v>460,55</v>
       </c>
       <c r="F67" t="str">
-        <v>2178,7</v>
+        <v>2153,5</v>
       </c>
       <c r="G67" t="str">
-        <v>-</v>
+        <v>500,00</v>
       </c>
       <c r="H67" t="str">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="68">
@@ -2122,25 +2149,25 @@
         <v>31-07-2024</v>
       </c>
       <c r="B68" t="str">
-        <v>7-8</v>
+        <v>19-20</v>
       </c>
       <c r="C68" t="str">
-        <v>520,00</v>
+        <v>612,00</v>
       </c>
       <c r="D68" t="str">
-        <v>3013,4</v>
+        <v>4266,8</v>
       </c>
       <c r="E68" t="str">
-        <v>489,67</v>
+        <v>641,44</v>
       </c>
       <c r="F68" t="str">
-        <v>1606,9</v>
+        <v>1768,4</v>
       </c>
       <c r="G68" t="str">
-        <v>-</v>
+        <v>608,80</v>
       </c>
       <c r="H68" t="str">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="69">
@@ -2148,25 +2175,25 @@
         <v>31-07-2024</v>
       </c>
       <c r="B69" t="str">
-        <v>8-9</v>
+        <v>20-21</v>
       </c>
       <c r="C69" t="str">
-        <v>432,41</v>
+        <v>738,99</v>
       </c>
       <c r="D69" t="str">
-        <v>2918,7</v>
+        <v>4324,7</v>
       </c>
       <c r="E69" t="str">
-        <v>456,00</v>
+        <v>754,06</v>
       </c>
       <c r="F69" t="str">
-        <v>1068,5</v>
+        <v>2056,9</v>
       </c>
       <c r="G69" t="str">
-        <v>-</v>
+        <v>698,24</v>
       </c>
       <c r="H69" t="str">
-        <v>0</v>
+        <v>121</v>
       </c>
     </row>
     <row r="70">
@@ -2174,25 +2201,25 @@
         <v>31-07-2024</v>
       </c>
       <c r="B70" t="str">
-        <v>9-10</v>
+        <v>21-22</v>
       </c>
       <c r="C70" t="str">
-        <v>355,57</v>
+        <v>585,00</v>
       </c>
       <c r="D70" t="str">
-        <v>3202,7</v>
+        <v>4070</v>
       </c>
       <c r="E70" t="str">
-        <v>387,79</v>
+        <v>521,01</v>
       </c>
       <c r="F70" t="str">
-        <v>1457,7</v>
+        <v>2050,3</v>
       </c>
       <c r="G70" t="str">
-        <v>345,00</v>
+        <v>590,00</v>
       </c>
       <c r="H70" t="str">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71">
@@ -2200,25 +2227,25 @@
         <v>31-07-2024</v>
       </c>
       <c r="B71" t="str">
-        <v>10-11</v>
+        <v>22-23</v>
       </c>
       <c r="C71" t="str">
-        <v>288,00</v>
+        <v>537,00</v>
       </c>
       <c r="D71" t="str">
-        <v>4244,9</v>
+        <v>4529,6</v>
       </c>
       <c r="E71" t="str">
-        <v>331,19</v>
+        <v>537,60</v>
       </c>
       <c r="F71" t="str">
-        <v>1567,9</v>
+        <v>2540</v>
       </c>
       <c r="G71" t="str">
-        <v>-</v>
+        <v>527,00</v>
       </c>
       <c r="H71" t="str">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="72">
@@ -2226,48 +2253,48 @@
         <v>31-07-2024</v>
       </c>
       <c r="B72" t="str">
-        <v>11-12</v>
+        <v>23-24</v>
       </c>
       <c r="C72" t="str">
-        <v>263,40</v>
+        <v>450,00</v>
       </c>
       <c r="D72" t="str">
-        <v>4633,8</v>
+        <v>3734,1</v>
       </c>
       <c r="E72" t="str">
-        <v>291,14</v>
+        <v>447,57</v>
       </c>
       <c r="F72" t="str">
-        <v>1274,8</v>
+        <v>2142</v>
       </c>
       <c r="G72" t="str">
-        <v>-</v>
+        <v>440,00</v>
       </c>
       <c r="H72" t="str">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>31-07-2024</v>
+        <v>01-08-2024</v>
       </c>
       <c r="B73" t="str">
-        <v>12-13</v>
+        <v>0-1</v>
       </c>
       <c r="C73" t="str">
-        <v>235,90</v>
+        <v>465,00</v>
       </c>
       <c r="D73" t="str">
-        <v>4504,3</v>
+        <v>3086,1</v>
       </c>
       <c r="E73" t="str">
-        <v>275,59</v>
+        <v>429,92</v>
       </c>
       <c r="F73" t="str">
-        <v>1174,6</v>
+        <v>2058,9</v>
       </c>
       <c r="G73" t="str">
-        <v>225,00</v>
+        <v>455,00</v>
       </c>
       <c r="H73" t="str">
         <v>20</v>
@@ -2275,48 +2302,48 @@
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>31-07-2024</v>
+        <v>01-08-2024</v>
       </c>
       <c r="B74" t="str">
-        <v>13-14</v>
+        <v>1-2</v>
       </c>
       <c r="C74" t="str">
-        <v>241,99</v>
+        <v>400,00</v>
       </c>
       <c r="D74" t="str">
-        <v>4004,6</v>
+        <v>2943,5</v>
       </c>
       <c r="E74" t="str">
-        <v>247,03</v>
+        <v>385,88</v>
       </c>
       <c r="F74" t="str">
-        <v>1094,2</v>
+        <v>1456,5</v>
       </c>
       <c r="G74" t="str">
-        <v>231,31</v>
+        <v>-</v>
       </c>
       <c r="H74" t="str">
-        <v>21,1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>31-07-2024</v>
+        <v>01-08-2024</v>
       </c>
       <c r="B75" t="str">
-        <v>14-15</v>
+        <v>2-3</v>
       </c>
       <c r="C75" t="str">
-        <v>233,99</v>
+        <v>392,00</v>
       </c>
       <c r="D75" t="str">
-        <v>4052,4</v>
+        <v>2758,5</v>
       </c>
       <c r="E75" t="str">
-        <v>226,96</v>
+        <v>385,69</v>
       </c>
       <c r="F75" t="str">
-        <v>1001</v>
+        <v>1497,3</v>
       </c>
       <c r="G75" t="str">
         <v>-</v>
@@ -2327,22 +2354,22 @@
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>31-07-2024</v>
+        <v>01-08-2024</v>
       </c>
       <c r="B76" t="str">
-        <v>15-16</v>
+        <v>3-4</v>
       </c>
       <c r="C76" t="str">
-        <v>295,67</v>
+        <v>388,00</v>
       </c>
       <c r="D76" t="str">
-        <v>3632,1</v>
+        <v>2813,8</v>
       </c>
       <c r="E76" t="str">
-        <v>295,90</v>
+        <v>387,52</v>
       </c>
       <c r="F76" t="str">
-        <v>752,4</v>
+        <v>1859,4</v>
       </c>
       <c r="G76" t="str">
         <v>-</v>
@@ -2353,22 +2380,22 @@
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>31-07-2024</v>
+        <v>01-08-2024</v>
       </c>
       <c r="B77" t="str">
-        <v>16-17</v>
+        <v>4-5</v>
       </c>
       <c r="C77" t="str">
+        <v>390,00</v>
+      </c>
+      <c r="D77" t="str">
+        <v>3016,1</v>
+      </c>
+      <c r="E77" t="str">
         <v>385,69</v>
       </c>
-      <c r="D77" t="str">
-        <v>3191,6</v>
-      </c>
-      <c r="E77" t="str">
-        <v>379,13</v>
-      </c>
       <c r="F77" t="str">
-        <v>487,8</v>
+        <v>1854,9</v>
       </c>
       <c r="G77" t="str">
         <v>-</v>
@@ -2379,22 +2406,22 @@
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>31-07-2024</v>
+        <v>01-08-2024</v>
       </c>
       <c r="B78" t="str">
-        <v>17-18</v>
+        <v>5-6</v>
       </c>
       <c r="C78" t="str">
-        <v>444,97</v>
+        <v>431,28</v>
       </c>
       <c r="D78" t="str">
-        <v>3216,2</v>
+        <v>3273,4</v>
       </c>
       <c r="E78" t="str">
-        <v>380,34</v>
+        <v>387,92</v>
       </c>
       <c r="F78" t="str">
-        <v>1392,1</v>
+        <v>1578,2</v>
       </c>
       <c r="G78" t="str">
         <v>-</v>
@@ -2405,236 +2432,236 @@
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>31-07-2024</v>
+        <v>01-08-2024</v>
       </c>
       <c r="B79" t="str">
-        <v>18-19</v>
+        <v>6-7</v>
       </c>
       <c r="C79" t="str">
-        <v>503,60</v>
+        <v>542,00</v>
       </c>
       <c r="D79" t="str">
-        <v>3604,7</v>
+        <v>3581,2</v>
       </c>
       <c r="E79" t="str">
-        <v>460,55</v>
+        <v>476,66</v>
       </c>
       <c r="F79" t="str">
-        <v>2153,5</v>
+        <v>1899,5</v>
       </c>
       <c r="G79" t="str">
-        <v>500,00</v>
+        <v>-</v>
       </c>
       <c r="H79" t="str">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>31-07-2024</v>
+        <v>01-08-2024</v>
       </c>
       <c r="B80" t="str">
-        <v>19-20</v>
+        <v>7-8</v>
       </c>
       <c r="C80" t="str">
-        <v>612,00</v>
+        <v>540,00</v>
       </c>
       <c r="D80" t="str">
-        <v>4266,8</v>
+        <v>3027,6</v>
       </c>
       <c r="E80" t="str">
-        <v>641,44</v>
+        <v>520,50</v>
       </c>
       <c r="F80" t="str">
-        <v>1768,4</v>
+        <v>1580,2</v>
       </c>
       <c r="G80" t="str">
-        <v>608,80</v>
+        <v>-</v>
       </c>
       <c r="H80" t="str">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>31-07-2024</v>
+        <v>01-08-2024</v>
       </c>
       <c r="B81" t="str">
-        <v>20-21</v>
+        <v>8-9</v>
       </c>
       <c r="C81" t="str">
-        <v>738,99</v>
+        <v>488,50</v>
       </c>
       <c r="D81" t="str">
-        <v>4324,7</v>
+        <v>2854,3</v>
       </c>
       <c r="E81" t="str">
-        <v>754,06</v>
+        <v>486,19</v>
       </c>
       <c r="F81" t="str">
-        <v>2056,9</v>
+        <v>879,8</v>
       </c>
       <c r="G81" t="str">
-        <v>698,24</v>
+        <v>488,45</v>
       </c>
       <c r="H81" t="str">
-        <v>121</v>
+        <v>41</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>31-07-2024</v>
+        <v>01-08-2024</v>
       </c>
       <c r="B82" t="str">
-        <v>21-22</v>
+        <v>9-10</v>
       </c>
       <c r="C82" t="str">
-        <v>585,00</v>
+        <v>450,00</v>
       </c>
       <c r="D82" t="str">
-        <v>4070</v>
+        <v>2832,4</v>
       </c>
       <c r="E82" t="str">
-        <v>521,01</v>
+        <v>448,80</v>
       </c>
       <c r="F82" t="str">
-        <v>2050,3</v>
+        <v>876,3</v>
       </c>
       <c r="G82" t="str">
-        <v>590,00</v>
+        <v>450,00</v>
       </c>
       <c r="H82" t="str">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>31-07-2024</v>
+        <v>01-08-2024</v>
       </c>
       <c r="B83" t="str">
-        <v>22-23</v>
+        <v>10-11</v>
       </c>
       <c r="C83" t="str">
-        <v>537,00</v>
+        <v>404,00</v>
       </c>
       <c r="D83" t="str">
-        <v>4529,6</v>
+        <v>3020,4</v>
       </c>
       <c r="E83" t="str">
-        <v>537,60</v>
+        <v>385,42</v>
       </c>
       <c r="F83" t="str">
-        <v>2540</v>
+        <v>913,9</v>
       </c>
       <c r="G83" t="str">
-        <v>527,00</v>
+        <v>404,00</v>
       </c>
       <c r="H83" t="str">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>31-07-2024</v>
+        <v>01-08-2024</v>
       </c>
       <c r="B84" t="str">
-        <v>23-24</v>
+        <v>11-12</v>
       </c>
       <c r="C84" t="str">
-        <v>450,00</v>
+        <v>390,34</v>
       </c>
       <c r="D84" t="str">
-        <v>3734,1</v>
+        <v>3327,3</v>
       </c>
       <c r="E84" t="str">
-        <v>447,57</v>
+        <v>344,07</v>
       </c>
       <c r="F84" t="str">
-        <v>2142</v>
+        <v>975,7</v>
       </c>
       <c r="G84" t="str">
-        <v>440,00</v>
+        <v>390,34</v>
       </c>
       <c r="H84" t="str">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>31-07-2024</v>
+        <v>01-08-2024</v>
       </c>
       <c r="B85" t="str">
-        <v>Min.</v>
+        <v>12-13</v>
       </c>
       <c r="C85" t="str">
-        <v>233,99</v>
+        <v>387,59</v>
       </c>
       <c r="D85" t="str">
-        <v>-</v>
+        <v>3357,9</v>
       </c>
       <c r="E85" t="str">
-        <v>226,96</v>
+        <v>354,72</v>
       </c>
       <c r="F85" t="str">
-        <v>-</v>
+        <v>836,5</v>
       </c>
       <c r="G85" t="str">
-        <v>-</v>
+        <v>387,59</v>
       </c>
       <c r="H85" t="str">
-        <v>-</v>
+        <v>6</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>31-07-2024</v>
+        <v>01-08-2024</v>
       </c>
       <c r="B86" t="str">
-        <v>Maks.</v>
+        <v>13-14</v>
       </c>
       <c r="C86" t="str">
-        <v>738,99</v>
+        <v>394,00</v>
       </c>
       <c r="D86" t="str">
-        <v>-</v>
+        <v>3262,1</v>
       </c>
       <c r="E86" t="str">
-        <v>754,06</v>
+        <v>368,09</v>
       </c>
       <c r="F86" t="str">
-        <v>-</v>
+        <v>783,7</v>
       </c>
       <c r="G86" t="str">
         <v>-</v>
       </c>
       <c r="H86" t="str">
-        <v>-</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>31-07-2024</v>
+        <v>01-08-2024</v>
       </c>
       <c r="B87" t="str">
-        <v>Suma</v>
+        <v>14-15</v>
       </c>
       <c r="C87" t="str">
-        <v/>
+        <v>406,00</v>
       </c>
       <c r="D87" t="str">
-        <v>87 482</v>
+        <v>3301,9</v>
       </c>
       <c r="E87" t="str">
-        <v/>
+        <v>405,43</v>
       </c>
       <c r="F87" t="str">
-        <v>42 221,8</v>
+        <v>618</v>
       </c>
       <c r="G87" t="str">
-        <v/>
+        <v>406,00</v>
       </c>
       <c r="H87" t="str">
-        <v>349,2</v>
+        <v>12,1</v>
       </c>
     </row>
     <row r="88">
@@ -2642,16 +2669,25 @@
         <v>01-08-2024</v>
       </c>
       <c r="B88" t="str">
-        <v/>
+        <v>15-16</v>
       </c>
       <c r="C88" t="str">
-        <v>FIXING I</v>
+        <v>482,86</v>
       </c>
       <c r="D88" t="str">
-        <v>FIXING II</v>
+        <v>3687</v>
       </c>
       <c r="E88" t="str">
-        <v>Notowania ciągłe</v>
+        <v>484,29</v>
+      </c>
+      <c r="F88" t="str">
+        <v>682,7</v>
+      </c>
+      <c r="G88" t="str">
+        <v>482,86</v>
+      </c>
+      <c r="H88" t="str">
+        <v>19,7</v>
       </c>
     </row>
     <row r="89">
@@ -2659,25 +2695,25 @@
         <v>01-08-2024</v>
       </c>
       <c r="B89" t="str">
-        <v>Czas</v>
+        <v>16-17</v>
       </c>
       <c r="C89" t="str">
-        <v>Kurs (PLN/MWh)</v>
+        <v>482,86</v>
       </c>
       <c r="D89" t="str">
-        <v>Wolumen (MWh)</v>
+        <v>4076,7</v>
       </c>
       <c r="E89" t="str">
-        <v>Kurs (PLN/MWh)</v>
+        <v>496,07</v>
       </c>
       <c r="F89" t="str">
-        <v>Wolumen (MWh)</v>
+        <v>1381,1</v>
       </c>
       <c r="G89" t="str">
-        <v>Kurs (PLN/MWh)</v>
+        <v>-</v>
       </c>
       <c r="H89" t="str">
-        <v>Wolumen (MWh)</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -2685,25 +2721,25 @@
         <v>01-08-2024</v>
       </c>
       <c r="B90" t="str">
-        <v>0-1</v>
+        <v>17-18</v>
       </c>
       <c r="C90" t="str">
-        <v>465,00</v>
+        <v>469,00</v>
       </c>
       <c r="D90" t="str">
-        <v>3086,1</v>
+        <v>4080,3</v>
       </c>
       <c r="E90" t="str">
-        <v>429,92</v>
+        <v>490,81</v>
       </c>
       <c r="F90" t="str">
-        <v>2058,9</v>
+        <v>2231,3</v>
       </c>
       <c r="G90" t="str">
-        <v>455,00</v>
+        <v>469,00</v>
       </c>
       <c r="H90" t="str">
-        <v>20</v>
+        <v>43</v>
       </c>
     </row>
     <row r="91">
@@ -2711,25 +2747,25 @@
         <v>01-08-2024</v>
       </c>
       <c r="B91" t="str">
-        <v>1-2</v>
+        <v>18-19</v>
       </c>
       <c r="C91" t="str">
-        <v>400,00</v>
+        <v>549,00</v>
       </c>
       <c r="D91" t="str">
-        <v>2943,5</v>
+        <v>3853,5</v>
       </c>
       <c r="E91" t="str">
-        <v>385,88</v>
+        <v>550,60</v>
       </c>
       <c r="F91" t="str">
-        <v>1456,5</v>
+        <v>2442,6</v>
       </c>
       <c r="G91" t="str">
-        <v>-</v>
+        <v>545,00</v>
       </c>
       <c r="H91" t="str">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="92">
@@ -2737,25 +2773,25 @@
         <v>01-08-2024</v>
       </c>
       <c r="B92" t="str">
-        <v>2-3</v>
+        <v>19-20</v>
       </c>
       <c r="C92" t="str">
-        <v>392,00</v>
+        <v>600,00</v>
       </c>
       <c r="D92" t="str">
-        <v>2758,5</v>
+        <v>4099,8</v>
       </c>
       <c r="E92" t="str">
-        <v>385,69</v>
+        <v>565,57</v>
       </c>
       <c r="F92" t="str">
-        <v>1497,3</v>
+        <v>2106,3</v>
       </c>
       <c r="G92" t="str">
-        <v>-</v>
+        <v>590,00</v>
       </c>
       <c r="H92" t="str">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="93">
@@ -2763,25 +2799,25 @@
         <v>01-08-2024</v>
       </c>
       <c r="B93" t="str">
-        <v>3-4</v>
+        <v>20-21</v>
       </c>
       <c r="C93" t="str">
-        <v>388,00</v>
+        <v>670,00</v>
       </c>
       <c r="D93" t="str">
-        <v>2813,8</v>
+        <v>3956,3</v>
       </c>
       <c r="E93" t="str">
-        <v>387,52</v>
+        <v>674,30</v>
       </c>
       <c r="F93" t="str">
-        <v>1859,4</v>
+        <v>1721,6</v>
       </c>
       <c r="G93" t="str">
-        <v>-</v>
+        <v>670,51</v>
       </c>
       <c r="H93" t="str">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="94">
@@ -2789,25 +2825,25 @@
         <v>01-08-2024</v>
       </c>
       <c r="B94" t="str">
-        <v>4-5</v>
+        <v>21-22</v>
       </c>
       <c r="C94" t="str">
-        <v>390,00</v>
+        <v>553,90</v>
       </c>
       <c r="D94" t="str">
-        <v>3016,1</v>
+        <v>3775,1</v>
       </c>
       <c r="E94" t="str">
-        <v>385,69</v>
+        <v>553,22</v>
       </c>
       <c r="F94" t="str">
-        <v>1854,9</v>
+        <v>1724,7</v>
       </c>
       <c r="G94" t="str">
-        <v>-</v>
+        <v>567,57</v>
       </c>
       <c r="H94" t="str">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="95">
@@ -2815,19 +2851,19 @@
         <v>01-08-2024</v>
       </c>
       <c r="B95" t="str">
-        <v>5-6</v>
+        <v>22-23</v>
       </c>
       <c r="C95" t="str">
-        <v>431,28</v>
+        <v>513,70</v>
       </c>
       <c r="D95" t="str">
-        <v>3273,4</v>
+        <v>4049,7</v>
       </c>
       <c r="E95" t="str">
-        <v>387,92</v>
+        <v>495,48</v>
       </c>
       <c r="F95" t="str">
-        <v>1578,2</v>
+        <v>2430,9</v>
       </c>
       <c r="G95" t="str">
         <v>-</v>
@@ -2841,19 +2877,19 @@
         <v>01-08-2024</v>
       </c>
       <c r="B96" t="str">
-        <v>6-7</v>
+        <v>23-24</v>
       </c>
       <c r="C96" t="str">
-        <v>542,00</v>
+        <v>449,00</v>
       </c>
       <c r="D96" t="str">
-        <v>3581,2</v>
+        <v>3402,8</v>
       </c>
       <c r="E96" t="str">
-        <v>476,66</v>
+        <v>435,23</v>
       </c>
       <c r="F96" t="str">
-        <v>1899,5</v>
+        <v>1887</v>
       </c>
       <c r="G96" t="str">
         <v>-</v>
@@ -2864,256 +2900,256 @@
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>01-08-2024</v>
+        <v>02-08-2024</v>
       </c>
       <c r="B97" t="str">
-        <v>7-8</v>
+        <v>0-1</v>
       </c>
       <c r="C97" t="str">
-        <v>540,00</v>
+        <v>490,00</v>
       </c>
       <c r="D97" t="str">
-        <v>3027,6</v>
+        <v>3019,5</v>
       </c>
       <c r="E97" t="str">
-        <v>520,50</v>
+        <v>490,60</v>
       </c>
       <c r="F97" t="str">
-        <v>1580,2</v>
+        <v>1973,1</v>
       </c>
       <c r="G97" t="str">
-        <v>-</v>
+        <v>488,00</v>
       </c>
       <c r="H97" t="str">
-        <v>0</v>
+        <v>1,5</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>01-08-2024</v>
+        <v>02-08-2024</v>
       </c>
       <c r="B98" t="str">
-        <v>8-9</v>
+        <v>1-2</v>
       </c>
       <c r="C98" t="str">
-        <v>488,50</v>
+        <v>450,00</v>
       </c>
       <c r="D98" t="str">
-        <v>2854,3</v>
+        <v>2661,6</v>
       </c>
       <c r="E98" t="str">
-        <v>486,19</v>
+        <v>488,64</v>
       </c>
       <c r="F98" t="str">
-        <v>879,8</v>
+        <v>1632,2</v>
       </c>
       <c r="G98" t="str">
-        <v>488,45</v>
+        <v>447,00</v>
       </c>
       <c r="H98" t="str">
-        <v>41</v>
+        <v>10</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>01-08-2024</v>
+        <v>02-08-2024</v>
       </c>
       <c r="B99" t="str">
-        <v>9-10</v>
+        <v>2-3</v>
       </c>
       <c r="C99" t="str">
-        <v>450,00</v>
+        <v>424,41</v>
       </c>
       <c r="D99" t="str">
-        <v>2832,4</v>
+        <v>2467,2</v>
       </c>
       <c r="E99" t="str">
-        <v>448,80</v>
+        <v>474,92</v>
       </c>
       <c r="F99" t="str">
-        <v>876,3</v>
+        <v>1515,4</v>
       </c>
       <c r="G99" t="str">
-        <v>450,00</v>
+        <v>-</v>
       </c>
       <c r="H99" t="str">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>01-08-2024</v>
+        <v>02-08-2024</v>
       </c>
       <c r="B100" t="str">
-        <v>10-11</v>
+        <v>3-4</v>
       </c>
       <c r="C100" t="str">
-        <v>404,00</v>
+        <v>436,90</v>
       </c>
       <c r="D100" t="str">
-        <v>3020,4</v>
+        <v>2551,9</v>
       </c>
       <c r="E100" t="str">
-        <v>385,42</v>
+        <v>481,66</v>
       </c>
       <c r="F100" t="str">
-        <v>913,9</v>
+        <v>1360,2</v>
       </c>
       <c r="G100" t="str">
-        <v>404,00</v>
+        <v>-</v>
       </c>
       <c r="H100" t="str">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>01-08-2024</v>
+        <v>02-08-2024</v>
       </c>
       <c r="B101" t="str">
-        <v>11-12</v>
+        <v>4-5</v>
       </c>
       <c r="C101" t="str">
-        <v>390,34</v>
+        <v>428,00</v>
       </c>
       <c r="D101" t="str">
-        <v>3327,3</v>
+        <v>2586,7</v>
       </c>
       <c r="E101" t="str">
-        <v>344,07</v>
+        <v>481,47</v>
       </c>
       <c r="F101" t="str">
-        <v>975,7</v>
+        <v>1293,1</v>
       </c>
       <c r="G101" t="str">
-        <v>390,34</v>
+        <v>-</v>
       </c>
       <c r="H101" t="str">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>01-08-2024</v>
+        <v>02-08-2024</v>
       </c>
       <c r="B102" t="str">
-        <v>12-13</v>
+        <v>5-6</v>
       </c>
       <c r="C102" t="str">
-        <v>387,59</v>
+        <v>447,91</v>
       </c>
       <c r="D102" t="str">
-        <v>3357,9</v>
+        <v>2458,7</v>
       </c>
       <c r="E102" t="str">
-        <v>354,72</v>
+        <v>487,59</v>
       </c>
       <c r="F102" t="str">
-        <v>836,5</v>
+        <v>1202,2</v>
       </c>
       <c r="G102" t="str">
-        <v>387,59</v>
+        <v>445,92</v>
       </c>
       <c r="H102" t="str">
-        <v>6</v>
+        <v>34,3</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>01-08-2024</v>
+        <v>02-08-2024</v>
       </c>
       <c r="B103" t="str">
-        <v>13-14</v>
+        <v>6-7</v>
       </c>
       <c r="C103" t="str">
-        <v>394,00</v>
+        <v>480,00</v>
       </c>
       <c r="D103" t="str">
-        <v>3262,1</v>
+        <v>2458,6</v>
       </c>
       <c r="E103" t="str">
-        <v>368,09</v>
+        <v>485,88</v>
       </c>
       <c r="F103" t="str">
-        <v>783,7</v>
+        <v>1354,6</v>
       </c>
       <c r="G103" t="str">
-        <v>-</v>
+        <v>480,00</v>
       </c>
       <c r="H103" t="str">
-        <v>0</v>
+        <v>25,5</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>01-08-2024</v>
+        <v>02-08-2024</v>
       </c>
       <c r="B104" t="str">
-        <v>14-15</v>
+        <v>7-8</v>
       </c>
       <c r="C104" t="str">
-        <v>406,00</v>
+        <v>488,68</v>
       </c>
       <c r="D104" t="str">
-        <v>3301,9</v>
+        <v>2647,6</v>
       </c>
       <c r="E104" t="str">
-        <v>405,43</v>
+        <v>505,00</v>
       </c>
       <c r="F104" t="str">
-        <v>618</v>
+        <v>1317,3</v>
       </c>
       <c r="G104" t="str">
-        <v>406,00</v>
+        <v>488,68</v>
       </c>
       <c r="H104" t="str">
-        <v>12,1</v>
+        <v>14,7</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>01-08-2024</v>
+        <v>02-08-2024</v>
       </c>
       <c r="B105" t="str">
-        <v>15-16</v>
+        <v>8-9</v>
       </c>
       <c r="C105" t="str">
-        <v>482,86</v>
+        <v>524,27</v>
       </c>
       <c r="D105" t="str">
-        <v>3687</v>
+        <v>2835,2</v>
       </c>
       <c r="E105" t="str">
-        <v>484,29</v>
+        <v>533,73</v>
       </c>
       <c r="F105" t="str">
-        <v>682,7</v>
+        <v>894</v>
       </c>
       <c r="G105" t="str">
-        <v>482,86</v>
+        <v>524,27</v>
       </c>
       <c r="H105" t="str">
-        <v>19,7</v>
+        <v>2,4</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>01-08-2024</v>
+        <v>02-08-2024</v>
       </c>
       <c r="B106" t="str">
-        <v>16-17</v>
+        <v>9-10</v>
       </c>
       <c r="C106" t="str">
-        <v>482,86</v>
+        <v>406,00</v>
       </c>
       <c r="D106" t="str">
-        <v>4076,7</v>
+        <v>3062,2</v>
       </c>
       <c r="E106" t="str">
-        <v>496,07</v>
+        <v>430,75</v>
       </c>
       <c r="F106" t="str">
-        <v>1381,1</v>
+        <v>998,9</v>
       </c>
       <c r="G106" t="str">
         <v>-</v>
@@ -3124,178 +3160,178 @@
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>01-08-2024</v>
+        <v>02-08-2024</v>
       </c>
       <c r="B107" t="str">
-        <v>17-18</v>
+        <v>10-11</v>
       </c>
       <c r="C107" t="str">
-        <v>469,00</v>
+        <v>388,80</v>
       </c>
       <c r="D107" t="str">
-        <v>4080,3</v>
+        <v>3177,7</v>
       </c>
       <c r="E107" t="str">
-        <v>490,81</v>
+        <v>390,11</v>
       </c>
       <c r="F107" t="str">
-        <v>2231,3</v>
+        <v>829,8</v>
       </c>
       <c r="G107" t="str">
-        <v>469,00</v>
+        <v>-</v>
       </c>
       <c r="H107" t="str">
-        <v>43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>01-08-2024</v>
+        <v>02-08-2024</v>
       </c>
       <c r="B108" t="str">
-        <v>18-19</v>
+        <v>11-12</v>
       </c>
       <c r="C108" t="str">
-        <v>549,00</v>
+        <v>377,76</v>
       </c>
       <c r="D108" t="str">
-        <v>3853,5</v>
+        <v>3483,6</v>
       </c>
       <c r="E108" t="str">
-        <v>550,60</v>
+        <v>388,26</v>
       </c>
       <c r="F108" t="str">
-        <v>2442,6</v>
+        <v>747</v>
       </c>
       <c r="G108" t="str">
-        <v>545,00</v>
+        <v>375,00</v>
       </c>
       <c r="H108" t="str">
-        <v>30</v>
+        <v>11</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>01-08-2024</v>
+        <v>02-08-2024</v>
       </c>
       <c r="B109" t="str">
-        <v>19-20</v>
+        <v>12-13</v>
       </c>
       <c r="C109" t="str">
-        <v>600,00</v>
+        <v>361,40</v>
       </c>
       <c r="D109" t="str">
-        <v>4099,8</v>
+        <v>3870,2</v>
       </c>
       <c r="E109" t="str">
-        <v>565,57</v>
+        <v>379,29</v>
       </c>
       <c r="F109" t="str">
-        <v>2106,3</v>
+        <v>844,5</v>
       </c>
       <c r="G109" t="str">
-        <v>590,00</v>
+        <v>-</v>
       </c>
       <c r="H109" t="str">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>01-08-2024</v>
+        <v>02-08-2024</v>
       </c>
       <c r="B110" t="str">
-        <v>20-21</v>
+        <v>13-14</v>
       </c>
       <c r="C110" t="str">
-        <v>670,00</v>
+        <v>326,70</v>
       </c>
       <c r="D110" t="str">
-        <v>3956,3</v>
+        <v>3254,2</v>
       </c>
       <c r="E110" t="str">
-        <v>674,30</v>
+        <v>301,05</v>
       </c>
       <c r="F110" t="str">
-        <v>1721,6</v>
+        <v>991,1</v>
       </c>
       <c r="G110" t="str">
-        <v>670,51</v>
+        <v>-</v>
       </c>
       <c r="H110" t="str">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>01-08-2024</v>
+        <v>02-08-2024</v>
       </c>
       <c r="B111" t="str">
-        <v>21-22</v>
+        <v>14-15</v>
       </c>
       <c r="C111" t="str">
-        <v>553,90</v>
+        <v>300,00</v>
       </c>
       <c r="D111" t="str">
-        <v>3775,1</v>
+        <v>3199,1</v>
       </c>
       <c r="E111" t="str">
-        <v>553,22</v>
+        <v>290,79</v>
       </c>
       <c r="F111" t="str">
-        <v>1724,7</v>
+        <v>895,5</v>
       </c>
       <c r="G111" t="str">
-        <v>567,57</v>
+        <v>297,00</v>
       </c>
       <c r="H111" t="str">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>01-08-2024</v>
+        <v>02-08-2024</v>
       </c>
       <c r="B112" t="str">
-        <v>22-23</v>
+        <v>15-16</v>
       </c>
       <c r="C112" t="str">
-        <v>513,70</v>
+        <v>340,00</v>
       </c>
       <c r="D112" t="str">
-        <v>4049,7</v>
+        <v>2942,2</v>
       </c>
       <c r="E112" t="str">
-        <v>495,48</v>
+        <v>323,78</v>
       </c>
       <c r="F112" t="str">
-        <v>2430,9</v>
+        <v>761,8</v>
       </c>
       <c r="G112" t="str">
-        <v>-</v>
+        <v>337,00</v>
       </c>
       <c r="H112" t="str">
-        <v>0</v>
+        <v>20,9</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>01-08-2024</v>
+        <v>02-08-2024</v>
       </c>
       <c r="B113" t="str">
-        <v>23-24</v>
+        <v>16-17</v>
       </c>
       <c r="C113" t="str">
-        <v>449,00</v>
+        <v>399,99</v>
       </c>
       <c r="D113" t="str">
-        <v>3402,8</v>
+        <v>3062,5</v>
       </c>
       <c r="E113" t="str">
-        <v>435,23</v>
+        <v>399,33</v>
       </c>
       <c r="F113" t="str">
-        <v>1887</v>
+        <v>869,2</v>
       </c>
       <c r="G113" t="str">
         <v>-</v>
@@ -3306,80 +3342,80 @@
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>01-08-2024</v>
+        <v>02-08-2024</v>
       </c>
       <c r="B114" t="str">
-        <v>Min.</v>
+        <v>17-18</v>
       </c>
       <c r="C114" t="str">
-        <v>387,59</v>
+        <v>492,90</v>
       </c>
       <c r="D114" t="str">
-        <v>-</v>
+        <v>3179,4</v>
       </c>
       <c r="E114" t="str">
-        <v>344,07</v>
+        <v>493,64</v>
       </c>
       <c r="F114" t="str">
-        <v>-</v>
+        <v>866,5</v>
       </c>
       <c r="G114" t="str">
-        <v>387,59</v>
+        <v>483,00</v>
       </c>
       <c r="H114" t="str">
-        <v>-</v>
+        <v>15</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>01-08-2024</v>
+        <v>02-08-2024</v>
       </c>
       <c r="B115" t="str">
-        <v>Maks.</v>
+        <v>18-19</v>
       </c>
       <c r="C115" t="str">
-        <v>670,00</v>
+        <v>490,00</v>
       </c>
       <c r="D115" t="str">
-        <v>-</v>
+        <v>3529,5</v>
       </c>
       <c r="E115" t="str">
-        <v>674,30</v>
+        <v>490,55</v>
       </c>
       <c r="F115" t="str">
-        <v>-</v>
+        <v>2271,5</v>
       </c>
       <c r="G115" t="str">
-        <v>670,51</v>
+        <v>-</v>
       </c>
       <c r="H115" t="str">
-        <v>-</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>01-08-2024</v>
+        <v>02-08-2024</v>
       </c>
       <c r="B116" t="str">
-        <v>Suma</v>
+        <v>19-20</v>
       </c>
       <c r="C116" t="str">
-        <v/>
+        <v>560,00</v>
       </c>
       <c r="D116" t="str">
-        <v>81 437,7</v>
+        <v>3985,3</v>
       </c>
       <c r="E116" t="str">
-        <v/>
+        <v>489,60</v>
       </c>
       <c r="F116" t="str">
-        <v>36 277</v>
+        <v>2538,9</v>
       </c>
       <c r="G116" t="str">
-        <v/>
+        <v>559,60</v>
       </c>
       <c r="H116" t="str">
-        <v>253,8</v>
+        <v>55</v>
       </c>
     </row>
     <row r="117">
@@ -3387,16 +3423,25 @@
         <v>02-08-2024</v>
       </c>
       <c r="B117" t="str">
-        <v/>
+        <v>20-21</v>
       </c>
       <c r="C117" t="str">
-        <v>FIXING I</v>
+        <v>600,00</v>
       </c>
       <c r="D117" t="str">
-        <v>FIXING II</v>
+        <v>4232</v>
       </c>
       <c r="E117" t="str">
-        <v>Notowania ciągłe</v>
+        <v>548,54</v>
+      </c>
+      <c r="F117" t="str">
+        <v>2451,3</v>
+      </c>
+      <c r="G117" t="str">
+        <v>589,14</v>
+      </c>
+      <c r="H117" t="str">
+        <v>35</v>
       </c>
     </row>
     <row r="118">
@@ -3404,25 +3449,25 @@
         <v>02-08-2024</v>
       </c>
       <c r="B118" t="str">
-        <v>Czas</v>
+        <v>21-22</v>
       </c>
       <c r="C118" t="str">
-        <v>Kurs (PLN/MWh)</v>
+        <v>586,61</v>
       </c>
       <c r="D118" t="str">
-        <v>Wolumen (MWh)</v>
+        <v>4061,9</v>
       </c>
       <c r="E118" t="str">
-        <v>Kurs (PLN/MWh)</v>
+        <v>520,53</v>
       </c>
       <c r="F118" t="str">
-        <v>Wolumen (MWh)</v>
+        <v>2508,4</v>
       </c>
       <c r="G118" t="str">
-        <v>Kurs (PLN/MWh)</v>
+        <v>568,67</v>
       </c>
       <c r="H118" t="str">
-        <v>Wolumen (MWh)</v>
+        <v>15</v>
       </c>
     </row>
     <row r="119">
@@ -3430,25 +3475,25 @@
         <v>02-08-2024</v>
       </c>
       <c r="B119" t="str">
-        <v>0-1</v>
+        <v>22-23</v>
       </c>
       <c r="C119" t="str">
-        <v>490,00</v>
+        <v>514,80</v>
       </c>
       <c r="D119" t="str">
-        <v>3019,5</v>
+        <v>3420,9</v>
       </c>
       <c r="E119" t="str">
-        <v>490,60</v>
+        <v>481,00</v>
       </c>
       <c r="F119" t="str">
-        <v>1973,1</v>
+        <v>2467,5</v>
       </c>
       <c r="G119" t="str">
-        <v>488,00</v>
+        <v>-</v>
       </c>
       <c r="H119" t="str">
-        <v>1,5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
@@ -3456,680 +3501,30 @@
         <v>02-08-2024</v>
       </c>
       <c r="B120" t="str">
-        <v>1-2</v>
+        <v>23-24</v>
       </c>
       <c r="C120" t="str">
-        <v>450,00</v>
+        <v>441,87</v>
       </c>
       <c r="D120" t="str">
-        <v>2661,6</v>
+        <v>2781,6</v>
       </c>
       <c r="E120" t="str">
-        <v>488,64</v>
+        <v>420,40</v>
       </c>
       <c r="F120" t="str">
-        <v>1632,2</v>
+        <v>2133,2</v>
       </c>
       <c r="G120" t="str">
-        <v>447,00</v>
+        <v>-</v>
       </c>
       <c r="H120" t="str">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="str">
-        <v>02-08-2024</v>
-      </c>
-      <c r="B121" t="str">
-        <v>2-3</v>
-      </c>
-      <c r="C121" t="str">
-        <v>424,41</v>
-      </c>
-      <c r="D121" t="str">
-        <v>2467,2</v>
-      </c>
-      <c r="E121" t="str">
-        <v>474,92</v>
-      </c>
-      <c r="F121" t="str">
-        <v>1515,4</v>
-      </c>
-      <c r="G121" t="str">
-        <v>-</v>
-      </c>
-      <c r="H121" t="str">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="str">
-        <v>02-08-2024</v>
-      </c>
-      <c r="B122" t="str">
-        <v>3-4</v>
-      </c>
-      <c r="C122" t="str">
-        <v>436,90</v>
-      </c>
-      <c r="D122" t="str">
-        <v>2551,9</v>
-      </c>
-      <c r="E122" t="str">
-        <v>481,66</v>
-      </c>
-      <c r="F122" t="str">
-        <v>1360,2</v>
-      </c>
-      <c r="G122" t="str">
-        <v>-</v>
-      </c>
-      <c r="H122" t="str">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="str">
-        <v>02-08-2024</v>
-      </c>
-      <c r="B123" t="str">
-        <v>4-5</v>
-      </c>
-      <c r="C123" t="str">
-        <v>428,00</v>
-      </c>
-      <c r="D123" t="str">
-        <v>2586,7</v>
-      </c>
-      <c r="E123" t="str">
-        <v>481,47</v>
-      </c>
-      <c r="F123" t="str">
-        <v>1293,1</v>
-      </c>
-      <c r="G123" t="str">
-        <v>-</v>
-      </c>
-      <c r="H123" t="str">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="str">
-        <v>02-08-2024</v>
-      </c>
-      <c r="B124" t="str">
-        <v>5-6</v>
-      </c>
-      <c r="C124" t="str">
-        <v>447,91</v>
-      </c>
-      <c r="D124" t="str">
-        <v>2458,7</v>
-      </c>
-      <c r="E124" t="str">
-        <v>487,59</v>
-      </c>
-      <c r="F124" t="str">
-        <v>1202,2</v>
-      </c>
-      <c r="G124" t="str">
-        <v>445,92</v>
-      </c>
-      <c r="H124" t="str">
-        <v>34,3</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="str">
-        <v>02-08-2024</v>
-      </c>
-      <c r="B125" t="str">
-        <v>6-7</v>
-      </c>
-      <c r="C125" t="str">
-        <v>480,00</v>
-      </c>
-      <c r="D125" t="str">
-        <v>2458,6</v>
-      </c>
-      <c r="E125" t="str">
-        <v>485,88</v>
-      </c>
-      <c r="F125" t="str">
-        <v>1354,6</v>
-      </c>
-      <c r="G125" t="str">
-        <v>480,00</v>
-      </c>
-      <c r="H125" t="str">
-        <v>25,5</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="str">
-        <v>02-08-2024</v>
-      </c>
-      <c r="B126" t="str">
-        <v>7-8</v>
-      </c>
-      <c r="C126" t="str">
-        <v>488,68</v>
-      </c>
-      <c r="D126" t="str">
-        <v>2647,6</v>
-      </c>
-      <c r="E126" t="str">
-        <v>505,00</v>
-      </c>
-      <c r="F126" t="str">
-        <v>1317,3</v>
-      </c>
-      <c r="G126" t="str">
-        <v>488,68</v>
-      </c>
-      <c r="H126" t="str">
-        <v>14,7</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="str">
-        <v>02-08-2024</v>
-      </c>
-      <c r="B127" t="str">
-        <v>8-9</v>
-      </c>
-      <c r="C127" t="str">
-        <v>524,27</v>
-      </c>
-      <c r="D127" t="str">
-        <v>2835,2</v>
-      </c>
-      <c r="E127" t="str">
-        <v>533,73</v>
-      </c>
-      <c r="F127" t="str">
-        <v>894</v>
-      </c>
-      <c r="G127" t="str">
-        <v>524,27</v>
-      </c>
-      <c r="H127" t="str">
-        <v>2,4</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="str">
-        <v>02-08-2024</v>
-      </c>
-      <c r="B128" t="str">
-        <v>9-10</v>
-      </c>
-      <c r="C128" t="str">
-        <v>406,00</v>
-      </c>
-      <c r="D128" t="str">
-        <v>3062,2</v>
-      </c>
-      <c r="E128" t="str">
-        <v>430,75</v>
-      </c>
-      <c r="F128" t="str">
-        <v>998,9</v>
-      </c>
-      <c r="G128" t="str">
-        <v>-</v>
-      </c>
-      <c r="H128" t="str">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="str">
-        <v>02-08-2024</v>
-      </c>
-      <c r="B129" t="str">
-        <v>10-11</v>
-      </c>
-      <c r="C129" t="str">
-        <v>388,80</v>
-      </c>
-      <c r="D129" t="str">
-        <v>3177,7</v>
-      </c>
-      <c r="E129" t="str">
-        <v>390,11</v>
-      </c>
-      <c r="F129" t="str">
-        <v>829,8</v>
-      </c>
-      <c r="G129" t="str">
-        <v>-</v>
-      </c>
-      <c r="H129" t="str">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="str">
-        <v>02-08-2024</v>
-      </c>
-      <c r="B130" t="str">
-        <v>11-12</v>
-      </c>
-      <c r="C130" t="str">
-        <v>377,76</v>
-      </c>
-      <c r="D130" t="str">
-        <v>3483,6</v>
-      </c>
-      <c r="E130" t="str">
-        <v>388,26</v>
-      </c>
-      <c r="F130" t="str">
-        <v>747</v>
-      </c>
-      <c r="G130" t="str">
-        <v>375,00</v>
-      </c>
-      <c r="H130" t="str">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="str">
-        <v>02-08-2024</v>
-      </c>
-      <c r="B131" t="str">
-        <v>12-13</v>
-      </c>
-      <c r="C131" t="str">
-        <v>361,40</v>
-      </c>
-      <c r="D131" t="str">
-        <v>3870,2</v>
-      </c>
-      <c r="E131" t="str">
-        <v>379,29</v>
-      </c>
-      <c r="F131" t="str">
-        <v>844,5</v>
-      </c>
-      <c r="G131" t="str">
-        <v>-</v>
-      </c>
-      <c r="H131" t="str">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="str">
-        <v>02-08-2024</v>
-      </c>
-      <c r="B132" t="str">
-        <v>13-14</v>
-      </c>
-      <c r="C132" t="str">
-        <v>326,70</v>
-      </c>
-      <c r="D132" t="str">
-        <v>3254,2</v>
-      </c>
-      <c r="E132" t="str">
-        <v>301,05</v>
-      </c>
-      <c r="F132" t="str">
-        <v>991,1</v>
-      </c>
-      <c r="G132" t="str">
-        <v>-</v>
-      </c>
-      <c r="H132" t="str">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="str">
-        <v>02-08-2024</v>
-      </c>
-      <c r="B133" t="str">
-        <v>14-15</v>
-      </c>
-      <c r="C133" t="str">
-        <v>300,00</v>
-      </c>
-      <c r="D133" t="str">
-        <v>3199,1</v>
-      </c>
-      <c r="E133" t="str">
-        <v>290,79</v>
-      </c>
-      <c r="F133" t="str">
-        <v>895,5</v>
-      </c>
-      <c r="G133" t="str">
-        <v>297,00</v>
-      </c>
-      <c r="H133" t="str">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="str">
-        <v>02-08-2024</v>
-      </c>
-      <c r="B134" t="str">
-        <v>15-16</v>
-      </c>
-      <c r="C134" t="str">
-        <v>340,00</v>
-      </c>
-      <c r="D134" t="str">
-        <v>2942,2</v>
-      </c>
-      <c r="E134" t="str">
-        <v>323,78</v>
-      </c>
-      <c r="F134" t="str">
-        <v>761,8</v>
-      </c>
-      <c r="G134" t="str">
-        <v>337,00</v>
-      </c>
-      <c r="H134" t="str">
-        <v>20,9</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="str">
-        <v>02-08-2024</v>
-      </c>
-      <c r="B135" t="str">
-        <v>16-17</v>
-      </c>
-      <c r="C135" t="str">
-        <v>399,99</v>
-      </c>
-      <c r="D135" t="str">
-        <v>3062,5</v>
-      </c>
-      <c r="E135" t="str">
-        <v>399,33</v>
-      </c>
-      <c r="F135" t="str">
-        <v>869,2</v>
-      </c>
-      <c r="G135" t="str">
-        <v>-</v>
-      </c>
-      <c r="H135" t="str">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="str">
-        <v>02-08-2024</v>
-      </c>
-      <c r="B136" t="str">
-        <v>17-18</v>
-      </c>
-      <c r="C136" t="str">
-        <v>492,90</v>
-      </c>
-      <c r="D136" t="str">
-        <v>3179,4</v>
-      </c>
-      <c r="E136" t="str">
-        <v>493,64</v>
-      </c>
-      <c r="F136" t="str">
-        <v>866,5</v>
-      </c>
-      <c r="G136" t="str">
-        <v>483,00</v>
-      </c>
-      <c r="H136" t="str">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="str">
-        <v>02-08-2024</v>
-      </c>
-      <c r="B137" t="str">
-        <v>18-19</v>
-      </c>
-      <c r="C137" t="str">
-        <v>490,00</v>
-      </c>
-      <c r="D137" t="str">
-        <v>3529,5</v>
-      </c>
-      <c r="E137" t="str">
-        <v>490,55</v>
-      </c>
-      <c r="F137" t="str">
-        <v>2271,5</v>
-      </c>
-      <c r="G137" t="str">
-        <v>-</v>
-      </c>
-      <c r="H137" t="str">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="str">
-        <v>02-08-2024</v>
-      </c>
-      <c r="B138" t="str">
-        <v>19-20</v>
-      </c>
-      <c r="C138" t="str">
-        <v>560,00</v>
-      </c>
-      <c r="D138" t="str">
-        <v>3985,3</v>
-      </c>
-      <c r="E138" t="str">
-        <v>489,60</v>
-      </c>
-      <c r="F138" t="str">
-        <v>2538,9</v>
-      </c>
-      <c r="G138" t="str">
-        <v>559,60</v>
-      </c>
-      <c r="H138" t="str">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="str">
-        <v>02-08-2024</v>
-      </c>
-      <c r="B139" t="str">
-        <v>20-21</v>
-      </c>
-      <c r="C139" t="str">
-        <v>600,00</v>
-      </c>
-      <c r="D139" t="str">
-        <v>4232</v>
-      </c>
-      <c r="E139" t="str">
-        <v>548,54</v>
-      </c>
-      <c r="F139" t="str">
-        <v>2451,3</v>
-      </c>
-      <c r="G139" t="str">
-        <v>589,14</v>
-      </c>
-      <c r="H139" t="str">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="str">
-        <v>02-08-2024</v>
-      </c>
-      <c r="B140" t="str">
-        <v>21-22</v>
-      </c>
-      <c r="C140" t="str">
-        <v>586,61</v>
-      </c>
-      <c r="D140" t="str">
-        <v>4061,9</v>
-      </c>
-      <c r="E140" t="str">
-        <v>520,53</v>
-      </c>
-      <c r="F140" t="str">
-        <v>2508,4</v>
-      </c>
-      <c r="G140" t="str">
-        <v>568,67</v>
-      </c>
-      <c r="H140" t="str">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="str">
-        <v>02-08-2024</v>
-      </c>
-      <c r="B141" t="str">
-        <v>22-23</v>
-      </c>
-      <c r="C141" t="str">
-        <v>514,80</v>
-      </c>
-      <c r="D141" t="str">
-        <v>3420,9</v>
-      </c>
-      <c r="E141" t="str">
-        <v>481,00</v>
-      </c>
-      <c r="F141" t="str">
-        <v>2467,5</v>
-      </c>
-      <c r="G141" t="str">
-        <v>-</v>
-      </c>
-      <c r="H141" t="str">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="str">
-        <v>02-08-2024</v>
-      </c>
-      <c r="B142" t="str">
-        <v>23-24</v>
-      </c>
-      <c r="C142" t="str">
-        <v>441,87</v>
-      </c>
-      <c r="D142" t="str">
-        <v>2781,6</v>
-      </c>
-      <c r="E142" t="str">
-        <v>420,40</v>
-      </c>
-      <c r="F142" t="str">
-        <v>2133,2</v>
-      </c>
-      <c r="G142" t="str">
-        <v>-</v>
-      </c>
-      <c r="H142" t="str">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="str">
-        <v>02-08-2024</v>
-      </c>
-      <c r="B143" t="str">
-        <v>Min.</v>
-      </c>
-      <c r="C143" t="str">
-        <v>300,00</v>
-      </c>
-      <c r="D143" t="str">
-        <v>-</v>
-      </c>
-      <c r="E143" t="str">
-        <v>290,79</v>
-      </c>
-      <c r="F143" t="str">
-        <v>-</v>
-      </c>
-      <c r="G143" t="str">
-        <v>297,00</v>
-      </c>
-      <c r="H143" t="str">
-        <v>-</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="str">
-        <v>02-08-2024</v>
-      </c>
-      <c r="B144" t="str">
-        <v>Maks.</v>
-      </c>
-      <c r="C144" t="str">
-        <v>600,00</v>
-      </c>
-      <c r="D144" t="str">
-        <v>-</v>
-      </c>
-      <c r="E144" t="str">
-        <v>548,54</v>
-      </c>
-      <c r="F144" t="str">
-        <v>-</v>
-      </c>
-      <c r="G144" t="str">
-        <v>589,14</v>
-      </c>
-      <c r="H144" t="str">
-        <v>-</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="str">
-        <v>02-08-2024</v>
-      </c>
-      <c r="B145" t="str">
-        <v>Suma</v>
-      </c>
-      <c r="C145" t="str">
-        <v/>
-      </c>
-      <c r="D145" t="str">
-        <v>74 929,3</v>
-      </c>
-      <c r="E145" t="str">
-        <v/>
-      </c>
-      <c r="F145" t="str">
-        <v>34 717,2</v>
-      </c>
-      <c r="G145" t="str">
-        <v/>
-      </c>
-      <c r="H145" t="str">
-        <v>270,3</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H145"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H120"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/tabela.xlsx
+++ b/tabela.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H120"/>
+  <dimension ref="A1:H122"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -407,25 +407,16 @@
         <v>29-07-2024</v>
       </c>
       <c r="B1" t="str">
-        <v>0-1</v>
+        <v/>
       </c>
       <c r="C1" t="str">
-        <v>433,00</v>
+        <v>FIXING I</v>
       </c>
       <c r="D1" t="str">
-        <v>2883,3</v>
+        <v>FIXING II</v>
       </c>
       <c r="E1" t="str">
-        <v>433,56</v>
-      </c>
-      <c r="F1" t="str">
-        <v>1128</v>
-      </c>
-      <c r="G1" t="str">
-        <v>423,00</v>
-      </c>
-      <c r="H1" t="str">
-        <v>20</v>
+        <v>Notowania ciągłe</v>
       </c>
     </row>
     <row r="2">
@@ -433,25 +424,25 @@
         <v>29-07-2024</v>
       </c>
       <c r="B2" t="str">
-        <v>1-2</v>
+        <v>Czas</v>
       </c>
       <c r="C2" t="str">
-        <v>380,00</v>
+        <v>Kurs (PLN/MWh)</v>
       </c>
       <c r="D2" t="str">
-        <v>2776,3</v>
+        <v>Wolumen (MWh)</v>
       </c>
       <c r="E2" t="str">
-        <v>375,23</v>
+        <v>Kurs (PLN/MWh)</v>
       </c>
       <c r="F2" t="str">
-        <v>648,9</v>
+        <v>Wolumen (MWh)</v>
       </c>
       <c r="G2" t="str">
-        <v>-</v>
+        <v>Kurs (PLN/MWh)</v>
       </c>
       <c r="H2" t="str">
-        <v>0</v>
+        <v>Wolumen (MWh)</v>
       </c>
     </row>
     <row r="3">
@@ -459,25 +450,25 @@
         <v>29-07-2024</v>
       </c>
       <c r="B3" t="str">
-        <v>2-3</v>
+        <v>0-1</v>
       </c>
       <c r="C3" t="str">
-        <v>389,50</v>
+        <v>433,00</v>
       </c>
       <c r="D3" t="str">
-        <v>2590,4</v>
+        <v>2883,3</v>
       </c>
       <c r="E3" t="str">
-        <v>380,90</v>
+        <v>433,56</v>
       </c>
       <c r="F3" t="str">
-        <v>835,2</v>
+        <v>1128</v>
       </c>
       <c r="G3" t="str">
-        <v>-</v>
+        <v>423,00</v>
       </c>
       <c r="H3" t="str">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
@@ -485,19 +476,19 @@
         <v>29-07-2024</v>
       </c>
       <c r="B4" t="str">
-        <v>3-4</v>
+        <v>1-2</v>
       </c>
       <c r="C4" t="str">
-        <v>376,00</v>
+        <v>380,00</v>
       </c>
       <c r="D4" t="str">
-        <v>2722,2</v>
+        <v>2776,3</v>
       </c>
       <c r="E4" t="str">
-        <v>375,37</v>
+        <v>375,23</v>
       </c>
       <c r="F4" t="str">
-        <v>1042,4</v>
+        <v>648,9</v>
       </c>
       <c r="G4" t="str">
         <v>-</v>
@@ -511,19 +502,19 @@
         <v>29-07-2024</v>
       </c>
       <c r="B5" t="str">
-        <v>4-5</v>
+        <v>2-3</v>
       </c>
       <c r="C5" t="str">
-        <v>381,08</v>
+        <v>389,50</v>
       </c>
       <c r="D5" t="str">
-        <v>2797,7</v>
+        <v>2590,4</v>
       </c>
       <c r="E5" t="str">
-        <v>375,20</v>
+        <v>380,90</v>
       </c>
       <c r="F5" t="str">
-        <v>752,8</v>
+        <v>835,2</v>
       </c>
       <c r="G5" t="str">
         <v>-</v>
@@ -537,19 +528,19 @@
         <v>29-07-2024</v>
       </c>
       <c r="B6" t="str">
-        <v>5-6</v>
+        <v>3-4</v>
       </c>
       <c r="C6" t="str">
-        <v>393,55</v>
+        <v>376,00</v>
       </c>
       <c r="D6" t="str">
-        <v>3007,5</v>
+        <v>2722,2</v>
       </c>
       <c r="E6" t="str">
-        <v>431,02</v>
+        <v>375,37</v>
       </c>
       <c r="F6" t="str">
-        <v>737,5</v>
+        <v>1042,4</v>
       </c>
       <c r="G6" t="str">
         <v>-</v>
@@ -563,19 +554,19 @@
         <v>29-07-2024</v>
       </c>
       <c r="B7" t="str">
-        <v>6-7</v>
+        <v>4-5</v>
       </c>
       <c r="C7" t="str">
-        <v>509,11</v>
+        <v>381,08</v>
       </c>
       <c r="D7" t="str">
-        <v>3317,4</v>
+        <v>2797,7</v>
       </c>
       <c r="E7" t="str">
-        <v>490,78</v>
+        <v>375,20</v>
       </c>
       <c r="F7" t="str">
-        <v>1461,1</v>
+        <v>752,8</v>
       </c>
       <c r="G7" t="str">
         <v>-</v>
@@ -589,19 +580,19 @@
         <v>29-07-2024</v>
       </c>
       <c r="B8" t="str">
-        <v>7-8</v>
+        <v>5-6</v>
       </c>
       <c r="C8" t="str">
-        <v>506,40</v>
+        <v>393,55</v>
       </c>
       <c r="D8" t="str">
-        <v>2930</v>
+        <v>3007,5</v>
       </c>
       <c r="E8" t="str">
-        <v>486,05</v>
+        <v>431,02</v>
       </c>
       <c r="F8" t="str">
-        <v>1117,8</v>
+        <v>737,5</v>
       </c>
       <c r="G8" t="str">
         <v>-</v>
@@ -615,19 +606,19 @@
         <v>29-07-2024</v>
       </c>
       <c r="B9" t="str">
-        <v>8-9</v>
+        <v>6-7</v>
       </c>
       <c r="C9" t="str">
-        <v>416,30</v>
+        <v>509,11</v>
       </c>
       <c r="D9" t="str">
-        <v>3061,2</v>
+        <v>3317,4</v>
       </c>
       <c r="E9" t="str">
-        <v>423,86</v>
+        <v>490,78</v>
       </c>
       <c r="F9" t="str">
-        <v>743,1</v>
+        <v>1461,1</v>
       </c>
       <c r="G9" t="str">
         <v>-</v>
@@ -641,19 +632,19 @@
         <v>29-07-2024</v>
       </c>
       <c r="B10" t="str">
-        <v>9-10</v>
+        <v>7-8</v>
       </c>
       <c r="C10" t="str">
-        <v>283,99</v>
+        <v>506,40</v>
       </c>
       <c r="D10" t="str">
-        <v>3908,2</v>
+        <v>2930</v>
       </c>
       <c r="E10" t="str">
-        <v>283,87</v>
+        <v>486,05</v>
       </c>
       <c r="F10" t="str">
-        <v>1557,5</v>
+        <v>1117,8</v>
       </c>
       <c r="G10" t="str">
         <v>-</v>
@@ -667,19 +658,19 @@
         <v>29-07-2024</v>
       </c>
       <c r="B11" t="str">
-        <v>10-11</v>
+        <v>8-9</v>
       </c>
       <c r="C11" t="str">
-        <v>180,11</v>
+        <v>416,30</v>
       </c>
       <c r="D11" t="str">
-        <v>5009</v>
+        <v>3061,2</v>
       </c>
       <c r="E11" t="str">
-        <v>161,01</v>
+        <v>423,86</v>
       </c>
       <c r="F11" t="str">
-        <v>2102,5</v>
+        <v>743,1</v>
       </c>
       <c r="G11" t="str">
         <v>-</v>
@@ -693,19 +684,19 @@
         <v>29-07-2024</v>
       </c>
       <c r="B12" t="str">
-        <v>11-12</v>
+        <v>9-10</v>
       </c>
       <c r="C12" t="str">
-        <v>90,11</v>
+        <v>283,99</v>
       </c>
       <c r="D12" t="str">
-        <v>5265,3</v>
+        <v>3908,2</v>
       </c>
       <c r="E12" t="str">
-        <v>33,64</v>
+        <v>283,87</v>
       </c>
       <c r="F12" t="str">
-        <v>2002,2</v>
+        <v>1557,5</v>
       </c>
       <c r="G12" t="str">
         <v>-</v>
@@ -719,25 +710,25 @@
         <v>29-07-2024</v>
       </c>
       <c r="B13" t="str">
-        <v>12-13</v>
+        <v>10-11</v>
       </c>
       <c r="C13" t="str">
-        <v>30,00</v>
+        <v>180,11</v>
       </c>
       <c r="D13" t="str">
-        <v>5106,9</v>
+        <v>5009</v>
       </c>
       <c r="E13" t="str">
-        <v>4,68</v>
+        <v>161,01</v>
       </c>
       <c r="F13" t="str">
-        <v>2081</v>
+        <v>2102,5</v>
       </c>
       <c r="G13" t="str">
-        <v>30,00</v>
+        <v>-</v>
       </c>
       <c r="H13" t="str">
-        <v>1,6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -745,25 +736,25 @@
         <v>29-07-2024</v>
       </c>
       <c r="B14" t="str">
-        <v>13-14</v>
+        <v>11-12</v>
       </c>
       <c r="C14" t="str">
-        <v>10,11</v>
+        <v>90,11</v>
       </c>
       <c r="D14" t="str">
-        <v>4834,2</v>
+        <v>5265,3</v>
       </c>
       <c r="E14" t="str">
-        <v>0,04</v>
+        <v>33,64</v>
       </c>
       <c r="F14" t="str">
-        <v>1963,5</v>
+        <v>2002,2</v>
       </c>
       <c r="G14" t="str">
-        <v>10,11</v>
+        <v>-</v>
       </c>
       <c r="H14" t="str">
-        <v>3,6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -771,25 +762,25 @@
         <v>29-07-2024</v>
       </c>
       <c r="B15" t="str">
-        <v>14-15</v>
+        <v>12-13</v>
       </c>
       <c r="C15" t="str">
-        <v>21,40</v>
+        <v>30,00</v>
       </c>
       <c r="D15" t="str">
-        <v>4585,7</v>
+        <v>5106,9</v>
       </c>
       <c r="E15" t="str">
-        <v>7,46</v>
+        <v>4,68</v>
       </c>
       <c r="F15" t="str">
-        <v>1710,2</v>
+        <v>2081</v>
       </c>
       <c r="G15" t="str">
-        <v>21,40</v>
+        <v>30,00</v>
       </c>
       <c r="H15" t="str">
-        <v>4,8</v>
+        <v>1,6</v>
       </c>
     </row>
     <row r="16">
@@ -797,25 +788,25 @@
         <v>29-07-2024</v>
       </c>
       <c r="B16" t="str">
-        <v>15-16</v>
+        <v>13-14</v>
       </c>
       <c r="C16" t="str">
-        <v>165,00</v>
+        <v>10,11</v>
       </c>
       <c r="D16" t="str">
-        <v>3905,8</v>
+        <v>4834,2</v>
       </c>
       <c r="E16" t="str">
-        <v>60,19</v>
+        <v>0,04</v>
       </c>
       <c r="F16" t="str">
-        <v>919,4</v>
+        <v>1963,5</v>
       </c>
       <c r="G16" t="str">
-        <v>165,00</v>
+        <v>10,11</v>
       </c>
       <c r="H16" t="str">
-        <v>20</v>
+        <v>3,6</v>
       </c>
     </row>
     <row r="17">
@@ -823,25 +814,25 @@
         <v>29-07-2024</v>
       </c>
       <c r="B17" t="str">
-        <v>16-17</v>
+        <v>14-15</v>
       </c>
       <c r="C17" t="str">
-        <v>315,99</v>
+        <v>21,40</v>
       </c>
       <c r="D17" t="str">
-        <v>3216,1</v>
+        <v>4585,7</v>
       </c>
       <c r="E17" t="str">
-        <v>333,67</v>
+        <v>7,46</v>
       </c>
       <c r="F17" t="str">
-        <v>729</v>
+        <v>1710,2</v>
       </c>
       <c r="G17" t="str">
-        <v>316,00</v>
+        <v>21,40</v>
       </c>
       <c r="H17" t="str">
-        <v>11</v>
+        <v>4,8</v>
       </c>
     </row>
     <row r="18">
@@ -849,25 +840,25 @@
         <v>29-07-2024</v>
       </c>
       <c r="B18" t="str">
-        <v>17-18</v>
+        <v>15-16</v>
       </c>
       <c r="C18" t="str">
-        <v>380,60</v>
+        <v>165,00</v>
       </c>
       <c r="D18" t="str">
-        <v>3471,4</v>
+        <v>3905,8</v>
       </c>
       <c r="E18" t="str">
-        <v>352,40</v>
+        <v>60,19</v>
       </c>
       <c r="F18" t="str">
-        <v>1193,6</v>
+        <v>919,4</v>
       </c>
       <c r="G18" t="str">
-        <v>-</v>
+        <v>165,00</v>
       </c>
       <c r="H18" t="str">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19">
@@ -875,25 +866,25 @@
         <v>29-07-2024</v>
       </c>
       <c r="B19" t="str">
-        <v>18-19</v>
+        <v>16-17</v>
       </c>
       <c r="C19" t="str">
-        <v>481,00</v>
+        <v>315,99</v>
       </c>
       <c r="D19" t="str">
-        <v>3695,3</v>
+        <v>3216,1</v>
       </c>
       <c r="E19" t="str">
-        <v>435,64</v>
+        <v>333,67</v>
       </c>
       <c r="F19" t="str">
-        <v>2383,8</v>
+        <v>729</v>
       </c>
       <c r="G19" t="str">
-        <v>-</v>
+        <v>316,00</v>
       </c>
       <c r="H19" t="str">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20">
@@ -901,25 +892,25 @@
         <v>29-07-2024</v>
       </c>
       <c r="B20" t="str">
-        <v>19-20</v>
+        <v>17-18</v>
       </c>
       <c r="C20" t="str">
-        <v>682,00</v>
+        <v>380,60</v>
       </c>
       <c r="D20" t="str">
-        <v>4475</v>
+        <v>3471,4</v>
       </c>
       <c r="E20" t="str">
-        <v>656,89</v>
+        <v>352,40</v>
       </c>
       <c r="F20" t="str">
-        <v>2695,9</v>
+        <v>1193,6</v>
       </c>
       <c r="G20" t="str">
-        <v>672,75</v>
+        <v>-</v>
       </c>
       <c r="H20" t="str">
-        <v>91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -927,25 +918,25 @@
         <v>29-07-2024</v>
       </c>
       <c r="B21" t="str">
-        <v>20-21</v>
+        <v>18-19</v>
       </c>
       <c r="C21" t="str">
-        <v>853,40</v>
+        <v>481,00</v>
       </c>
       <c r="D21" t="str">
-        <v>4636,4</v>
+        <v>3695,3</v>
       </c>
       <c r="E21" t="str">
-        <v>901,75</v>
+        <v>435,64</v>
       </c>
       <c r="F21" t="str">
-        <v>2699,1</v>
+        <v>2383,8</v>
       </c>
       <c r="G21" t="str">
-        <v>851,31</v>
+        <v>-</v>
       </c>
       <c r="H21" t="str">
-        <v>180,2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -953,25 +944,25 @@
         <v>29-07-2024</v>
       </c>
       <c r="B22" t="str">
-        <v>21-22</v>
+        <v>19-20</v>
       </c>
       <c r="C22" t="str">
-        <v>720,00</v>
+        <v>682,00</v>
       </c>
       <c r="D22" t="str">
-        <v>4560,7</v>
+        <v>4475</v>
       </c>
       <c r="E22" t="str">
-        <v>650,61</v>
+        <v>656,89</v>
       </c>
       <c r="F22" t="str">
-        <v>2968,2</v>
+        <v>2695,9</v>
       </c>
       <c r="G22" t="str">
-        <v>711,18</v>
+        <v>672,75</v>
       </c>
       <c r="H22" t="str">
-        <v>80,5</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23">
@@ -979,25 +970,25 @@
         <v>29-07-2024</v>
       </c>
       <c r="B23" t="str">
-        <v>22-23</v>
+        <v>20-21</v>
       </c>
       <c r="C23" t="str">
-        <v>549,00</v>
+        <v>853,40</v>
       </c>
       <c r="D23" t="str">
-        <v>4383,7</v>
+        <v>4636,4</v>
       </c>
       <c r="E23" t="str">
-        <v>509,95</v>
+        <v>901,75</v>
       </c>
       <c r="F23" t="str">
-        <v>3388,4</v>
+        <v>2699,1</v>
       </c>
       <c r="G23" t="str">
-        <v>540,00</v>
+        <v>851,31</v>
       </c>
       <c r="H23" t="str">
-        <v>30</v>
+        <v>180,2</v>
       </c>
     </row>
     <row r="24">
@@ -1005,77 +996,77 @@
         <v>29-07-2024</v>
       </c>
       <c r="B24" t="str">
-        <v>23-24</v>
+        <v>21-22</v>
       </c>
       <c r="C24" t="str">
-        <v>458,00</v>
+        <v>720,00</v>
       </c>
       <c r="D24" t="str">
-        <v>3816,3</v>
+        <v>4560,7</v>
       </c>
       <c r="E24" t="str">
-        <v>424,99</v>
+        <v>650,61</v>
       </c>
       <c r="F24" t="str">
-        <v>2886</v>
+        <v>2968,2</v>
       </c>
       <c r="G24" t="str">
-        <v>455,00</v>
+        <v>711,18</v>
       </c>
       <c r="H24" t="str">
-        <v>30</v>
+        <v>80,5</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>30-07-2024</v>
+        <v>29-07-2024</v>
       </c>
       <c r="B25" t="str">
-        <v>0-1</v>
+        <v>22-23</v>
       </c>
       <c r="C25" t="str">
-        <v>473,14</v>
+        <v>549,00</v>
       </c>
       <c r="D25" t="str">
-        <v>3590,6</v>
+        <v>4383,7</v>
       </c>
       <c r="E25" t="str">
-        <v>423,66</v>
+        <v>509,95</v>
       </c>
       <c r="F25" t="str">
-        <v>3017,3</v>
+        <v>3388,4</v>
       </c>
       <c r="G25" t="str">
-        <v>463,00</v>
+        <v>540,00</v>
       </c>
       <c r="H25" t="str">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>30-07-2024</v>
+        <v>29-07-2024</v>
       </c>
       <c r="B26" t="str">
-        <v>1-2</v>
+        <v>23-24</v>
       </c>
       <c r="C26" t="str">
-        <v>418,00</v>
+        <v>458,00</v>
       </c>
       <c r="D26" t="str">
-        <v>3467,1</v>
+        <v>3816,3</v>
       </c>
       <c r="E26" t="str">
-        <v>372,85</v>
+        <v>424,99</v>
       </c>
       <c r="F26" t="str">
-        <v>2630</v>
+        <v>2886</v>
       </c>
       <c r="G26" t="str">
-        <v>-</v>
+        <v>455,00</v>
       </c>
       <c r="H26" t="str">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27">
@@ -1083,25 +1074,25 @@
         <v>30-07-2024</v>
       </c>
       <c r="B27" t="str">
-        <v>2-3</v>
+        <v>0-1</v>
       </c>
       <c r="C27" t="str">
-        <v>406,26</v>
+        <v>473,14</v>
       </c>
       <c r="D27" t="str">
-        <v>3180,1</v>
+        <v>3590,6</v>
       </c>
       <c r="E27" t="str">
-        <v>363,45</v>
+        <v>423,66</v>
       </c>
       <c r="F27" t="str">
-        <v>2418,6</v>
+        <v>3017,3</v>
       </c>
       <c r="G27" t="str">
-        <v>-</v>
+        <v>463,00</v>
       </c>
       <c r="H27" t="str">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28">
@@ -1109,19 +1100,19 @@
         <v>30-07-2024</v>
       </c>
       <c r="B28" t="str">
-        <v>3-4</v>
+        <v>1-2</v>
       </c>
       <c r="C28" t="str">
-        <v>407,00</v>
+        <v>418,00</v>
       </c>
       <c r="D28" t="str">
-        <v>3286,2</v>
+        <v>3467,1</v>
       </c>
       <c r="E28" t="str">
-        <v>357,63</v>
+        <v>372,85</v>
       </c>
       <c r="F28" t="str">
-        <v>2539,7</v>
+        <v>2630</v>
       </c>
       <c r="G28" t="str">
         <v>-</v>
@@ -1135,19 +1126,19 @@
         <v>30-07-2024</v>
       </c>
       <c r="B29" t="str">
-        <v>4-5</v>
+        <v>2-3</v>
       </c>
       <c r="C29" t="str">
-        <v>408,00</v>
+        <v>406,26</v>
       </c>
       <c r="D29" t="str">
-        <v>3260,6</v>
+        <v>3180,1</v>
       </c>
       <c r="E29" t="str">
-        <v>389,06</v>
+        <v>363,45</v>
       </c>
       <c r="F29" t="str">
-        <v>2243,2</v>
+        <v>2418,6</v>
       </c>
       <c r="G29" t="str">
         <v>-</v>
@@ -1161,25 +1152,25 @@
         <v>30-07-2024</v>
       </c>
       <c r="B30" t="str">
-        <v>5-6</v>
+        <v>3-4</v>
       </c>
       <c r="C30" t="str">
-        <v>443,55</v>
+        <v>407,00</v>
       </c>
       <c r="D30" t="str">
-        <v>3268,3</v>
+        <v>3286,2</v>
       </c>
       <c r="E30" t="str">
-        <v>435,91</v>
+        <v>357,63</v>
       </c>
       <c r="F30" t="str">
-        <v>1779,2</v>
+        <v>2539,7</v>
       </c>
       <c r="G30" t="str">
-        <v>443,55</v>
+        <v>-</v>
       </c>
       <c r="H30" t="str">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1187,25 +1178,25 @@
         <v>30-07-2024</v>
       </c>
       <c r="B31" t="str">
-        <v>6-7</v>
+        <v>4-5</v>
       </c>
       <c r="C31" t="str">
-        <v>550,00</v>
+        <v>408,00</v>
       </c>
       <c r="D31" t="str">
-        <v>3763,2</v>
+        <v>3260,6</v>
       </c>
       <c r="E31" t="str">
-        <v>494,05</v>
+        <v>389,06</v>
       </c>
       <c r="F31" t="str">
-        <v>2334,5</v>
+        <v>2243,2</v>
       </c>
       <c r="G31" t="str">
-        <v>544,95</v>
+        <v>-</v>
       </c>
       <c r="H31" t="str">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1213,25 +1204,25 @@
         <v>30-07-2024</v>
       </c>
       <c r="B32" t="str">
-        <v>7-8</v>
+        <v>5-6</v>
       </c>
       <c r="C32" t="str">
-        <v>530,00</v>
+        <v>443,55</v>
       </c>
       <c r="D32" t="str">
-        <v>2890,9</v>
+        <v>3268,3</v>
       </c>
       <c r="E32" t="str">
-        <v>469,38</v>
+        <v>435,91</v>
       </c>
       <c r="F32" t="str">
-        <v>1447</v>
+        <v>1779,2</v>
       </c>
       <c r="G32" t="str">
-        <v>-</v>
+        <v>443,55</v>
       </c>
       <c r="H32" t="str">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33">
@@ -1239,25 +1230,25 @@
         <v>30-07-2024</v>
       </c>
       <c r="B33" t="str">
-        <v>8-9</v>
+        <v>6-7</v>
       </c>
       <c r="C33" t="str">
-        <v>420,00</v>
+        <v>550,00</v>
       </c>
       <c r="D33" t="str">
-        <v>3040,8</v>
+        <v>3763,2</v>
       </c>
       <c r="E33" t="str">
-        <v>408,39</v>
+        <v>494,05</v>
       </c>
       <c r="F33" t="str">
-        <v>1000,8</v>
+        <v>2334,5</v>
       </c>
       <c r="G33" t="str">
-        <v>-</v>
+        <v>544,95</v>
       </c>
       <c r="H33" t="str">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34">
@@ -1265,25 +1256,25 @@
         <v>30-07-2024</v>
       </c>
       <c r="B34" t="str">
-        <v>9-10</v>
+        <v>7-8</v>
       </c>
       <c r="C34" t="str">
-        <v>303,99</v>
+        <v>530,00</v>
       </c>
       <c r="D34" t="str">
-        <v>3372,1</v>
+        <v>2890,9</v>
       </c>
       <c r="E34" t="str">
-        <v>339,12</v>
+        <v>469,38</v>
       </c>
       <c r="F34" t="str">
-        <v>1091,7</v>
+        <v>1447</v>
       </c>
       <c r="G34" t="str">
-        <v>294,00</v>
+        <v>-</v>
       </c>
       <c r="H34" t="str">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1291,19 +1282,19 @@
         <v>30-07-2024</v>
       </c>
       <c r="B35" t="str">
-        <v>10-11</v>
+        <v>8-9</v>
       </c>
       <c r="C35" t="str">
-        <v>198,12</v>
+        <v>420,00</v>
       </c>
       <c r="D35" t="str">
-        <v>4010,7</v>
+        <v>3040,8</v>
       </c>
       <c r="E35" t="str">
-        <v>239,76</v>
+        <v>408,39</v>
       </c>
       <c r="F35" t="str">
-        <v>1662,9</v>
+        <v>1000,8</v>
       </c>
       <c r="G35" t="str">
         <v>-</v>
@@ -1317,25 +1308,25 @@
         <v>30-07-2024</v>
       </c>
       <c r="B36" t="str">
-        <v>11-12</v>
+        <v>9-10</v>
       </c>
       <c r="C36" t="str">
-        <v>105,95</v>
+        <v>303,99</v>
       </c>
       <c r="D36" t="str">
-        <v>4484,2</v>
+        <v>3372,1</v>
       </c>
       <c r="E36" t="str">
-        <v>143,53</v>
+        <v>339,12</v>
       </c>
       <c r="F36" t="str">
-        <v>1981,6</v>
+        <v>1091,7</v>
       </c>
       <c r="G36" t="str">
-        <v>-</v>
+        <v>294,00</v>
       </c>
       <c r="H36" t="str">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37">
@@ -1343,19 +1334,19 @@
         <v>30-07-2024</v>
       </c>
       <c r="B37" t="str">
-        <v>12-13</v>
+        <v>10-11</v>
       </c>
       <c r="C37" t="str">
-        <v>70,00</v>
+        <v>198,12</v>
       </c>
       <c r="D37" t="str">
-        <v>4324,5</v>
+        <v>4010,7</v>
       </c>
       <c r="E37" t="str">
-        <v>107,68</v>
+        <v>239,76</v>
       </c>
       <c r="F37" t="str">
-        <v>1695,8</v>
+        <v>1662,9</v>
       </c>
       <c r="G37" t="str">
         <v>-</v>
@@ -1369,19 +1360,19 @@
         <v>30-07-2024</v>
       </c>
       <c r="B38" t="str">
-        <v>13-14</v>
+        <v>11-12</v>
       </c>
       <c r="C38" t="str">
-        <v>70,00</v>
+        <v>105,95</v>
       </c>
       <c r="D38" t="str">
-        <v>4096,6</v>
+        <v>4484,2</v>
       </c>
       <c r="E38" t="str">
-        <v>71,81</v>
+        <v>143,53</v>
       </c>
       <c r="F38" t="str">
-        <v>1335,4</v>
+        <v>1981,6</v>
       </c>
       <c r="G38" t="str">
         <v>-</v>
@@ -1395,19 +1386,19 @@
         <v>30-07-2024</v>
       </c>
       <c r="B39" t="str">
-        <v>14-15</v>
+        <v>12-13</v>
       </c>
       <c r="C39" t="str">
-        <v>100,00</v>
+        <v>70,00</v>
       </c>
       <c r="D39" t="str">
-        <v>3791</v>
+        <v>4324,5</v>
       </c>
       <c r="E39" t="str">
-        <v>98,70</v>
+        <v>107,68</v>
       </c>
       <c r="F39" t="str">
-        <v>1106,5</v>
+        <v>1695,8</v>
       </c>
       <c r="G39" t="str">
         <v>-</v>
@@ -1421,19 +1412,19 @@
         <v>30-07-2024</v>
       </c>
       <c r="B40" t="str">
-        <v>15-16</v>
+        <v>13-14</v>
       </c>
       <c r="C40" t="str">
-        <v>239,99</v>
+        <v>70,00</v>
       </c>
       <c r="D40" t="str">
-        <v>3223,9</v>
+        <v>4096,6</v>
       </c>
       <c r="E40" t="str">
-        <v>175,36</v>
+        <v>71,81</v>
       </c>
       <c r="F40" t="str">
-        <v>961,4</v>
+        <v>1335,4</v>
       </c>
       <c r="G40" t="str">
         <v>-</v>
@@ -1447,25 +1438,25 @@
         <v>30-07-2024</v>
       </c>
       <c r="B41" t="str">
-        <v>16-17</v>
+        <v>14-15</v>
       </c>
       <c r="C41" t="str">
-        <v>370,60</v>
+        <v>100,00</v>
       </c>
       <c r="D41" t="str">
-        <v>2768,7</v>
+        <v>3791</v>
       </c>
       <c r="E41" t="str">
-        <v>307,32</v>
+        <v>98,70</v>
       </c>
       <c r="F41" t="str">
-        <v>705,9</v>
+        <v>1106,5</v>
       </c>
       <c r="G41" t="str">
-        <v>370,60</v>
+        <v>-</v>
       </c>
       <c r="H41" t="str">
-        <v>17,8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1473,19 +1464,19 @@
         <v>30-07-2024</v>
       </c>
       <c r="B42" t="str">
-        <v>17-18</v>
+        <v>15-16</v>
       </c>
       <c r="C42" t="str">
-        <v>379,00</v>
+        <v>239,99</v>
       </c>
       <c r="D42" t="str">
-        <v>3235</v>
+        <v>3223,9</v>
       </c>
       <c r="E42" t="str">
-        <v>343,68</v>
+        <v>175,36</v>
       </c>
       <c r="F42" t="str">
-        <v>1541,7</v>
+        <v>961,4</v>
       </c>
       <c r="G42" t="str">
         <v>-</v>
@@ -1499,25 +1490,25 @@
         <v>30-07-2024</v>
       </c>
       <c r="B43" t="str">
-        <v>18-19</v>
+        <v>16-17</v>
       </c>
       <c r="C43" t="str">
-        <v>499,40</v>
+        <v>370,60</v>
       </c>
       <c r="D43" t="str">
-        <v>3681,1</v>
+        <v>2768,7</v>
       </c>
       <c r="E43" t="str">
-        <v>405,64</v>
+        <v>307,32</v>
       </c>
       <c r="F43" t="str">
-        <v>2278,4</v>
+        <v>705,9</v>
       </c>
       <c r="G43" t="str">
-        <v>487,00</v>
+        <v>370,60</v>
       </c>
       <c r="H43" t="str">
-        <v>10</v>
+        <v>17,8</v>
       </c>
     </row>
     <row r="44">
@@ -1525,25 +1516,25 @@
         <v>30-07-2024</v>
       </c>
       <c r="B44" t="str">
-        <v>19-20</v>
+        <v>17-18</v>
       </c>
       <c r="C44" t="str">
-        <v>632,00</v>
+        <v>379,00</v>
       </c>
       <c r="D44" t="str">
-        <v>4227,4</v>
+        <v>3235</v>
       </c>
       <c r="E44" t="str">
-        <v>513,65</v>
+        <v>343,68</v>
       </c>
       <c r="F44" t="str">
-        <v>2357,2</v>
+        <v>1541,7</v>
       </c>
       <c r="G44" t="str">
-        <v>633,33</v>
+        <v>-</v>
       </c>
       <c r="H44" t="str">
-        <v>45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1551,25 +1542,25 @@
         <v>30-07-2024</v>
       </c>
       <c r="B45" t="str">
-        <v>20-21</v>
+        <v>18-19</v>
       </c>
       <c r="C45" t="str">
-        <v>825,00</v>
+        <v>499,40</v>
       </c>
       <c r="D45" t="str">
-        <v>4789,1</v>
+        <v>3681,1</v>
       </c>
       <c r="E45" t="str">
-        <v>690,49</v>
+        <v>405,64</v>
       </c>
       <c r="F45" t="str">
-        <v>2294,2</v>
+        <v>2278,4</v>
       </c>
       <c r="G45" t="str">
-        <v>815,00</v>
+        <v>487,00</v>
       </c>
       <c r="H45" t="str">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46">
@@ -1577,25 +1568,25 @@
         <v>30-07-2024</v>
       </c>
       <c r="B46" t="str">
-        <v>21-22</v>
+        <v>19-20</v>
       </c>
       <c r="C46" t="str">
-        <v>634,00</v>
+        <v>632,00</v>
       </c>
       <c r="D46" t="str">
-        <v>4367,9</v>
+        <v>4227,4</v>
       </c>
       <c r="E46" t="str">
-        <v>550,36</v>
+        <v>513,65</v>
       </c>
       <c r="F46" t="str">
-        <v>2593,6</v>
+        <v>2357,2</v>
       </c>
       <c r="G46" t="str">
-        <v>623,45</v>
+        <v>633,33</v>
       </c>
       <c r="H46" t="str">
-        <v>22</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47">
@@ -1603,22 +1594,22 @@
         <v>30-07-2024</v>
       </c>
       <c r="B47" t="str">
-        <v>22-23</v>
+        <v>20-21</v>
       </c>
       <c r="C47" t="str">
-        <v>520,00</v>
+        <v>825,00</v>
       </c>
       <c r="D47" t="str">
-        <v>4665,8</v>
+        <v>4789,1</v>
       </c>
       <c r="E47" t="str">
-        <v>520,57</v>
+        <v>690,49</v>
       </c>
       <c r="F47" t="str">
-        <v>3148</v>
+        <v>2294,2</v>
       </c>
       <c r="G47" t="str">
-        <v>510,00</v>
+        <v>815,00</v>
       </c>
       <c r="H47" t="str">
         <v>20</v>
@@ -1629,48 +1620,48 @@
         <v>30-07-2024</v>
       </c>
       <c r="B48" t="str">
-        <v>23-24</v>
+        <v>21-22</v>
       </c>
       <c r="C48" t="str">
-        <v>443,80</v>
+        <v>634,00</v>
       </c>
       <c r="D48" t="str">
-        <v>3914,9</v>
+        <v>4367,9</v>
       </c>
       <c r="E48" t="str">
-        <v>421,22</v>
+        <v>550,36</v>
       </c>
       <c r="F48" t="str">
-        <v>2836,2</v>
+        <v>2593,6</v>
       </c>
       <c r="G48" t="str">
-        <v>433,00</v>
+        <v>623,45</v>
       </c>
       <c r="H48" t="str">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>31-07-2024</v>
+        <v>30-07-2024</v>
       </c>
       <c r="B49" t="str">
-        <v>0-1</v>
+        <v>22-23</v>
       </c>
       <c r="C49" t="str">
-        <v>450,00</v>
+        <v>520,00</v>
       </c>
       <c r="D49" t="str">
-        <v>3361,3</v>
+        <v>4665,8</v>
       </c>
       <c r="E49" t="str">
-        <v>432,45</v>
+        <v>520,57</v>
       </c>
       <c r="F49" t="str">
-        <v>2720</v>
+        <v>3148</v>
       </c>
       <c r="G49" t="str">
-        <v>440,00</v>
+        <v>510,00</v>
       </c>
       <c r="H49" t="str">
         <v>20</v>
@@ -1678,28 +1669,28 @@
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>31-07-2024</v>
+        <v>30-07-2024</v>
       </c>
       <c r="B50" t="str">
-        <v>1-2</v>
+        <v>23-24</v>
       </c>
       <c r="C50" t="str">
-        <v>400,00</v>
+        <v>443,80</v>
       </c>
       <c r="D50" t="str">
-        <v>3116,8</v>
+        <v>3914,9</v>
       </c>
       <c r="E50" t="str">
-        <v>374,52</v>
+        <v>421,22</v>
       </c>
       <c r="F50" t="str">
-        <v>2417,4</v>
+        <v>2836,2</v>
       </c>
       <c r="G50" t="str">
-        <v>-</v>
+        <v>433,00</v>
       </c>
       <c r="H50" t="str">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51">
@@ -1707,25 +1698,25 @@
         <v>31-07-2024</v>
       </c>
       <c r="B51" t="str">
-        <v>2-3</v>
+        <v>0-1</v>
       </c>
       <c r="C51" t="str">
-        <v>390,00</v>
+        <v>450,00</v>
       </c>
       <c r="D51" t="str">
-        <v>2958,7</v>
+        <v>3361,3</v>
       </c>
       <c r="E51" t="str">
-        <v>363,35</v>
+        <v>432,45</v>
       </c>
       <c r="F51" t="str">
-        <v>2386,8</v>
+        <v>2720</v>
       </c>
       <c r="G51" t="str">
-        <v>-</v>
+        <v>440,00</v>
       </c>
       <c r="H51" t="str">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52">
@@ -1733,19 +1724,19 @@
         <v>31-07-2024</v>
       </c>
       <c r="B52" t="str">
-        <v>3-4</v>
+        <v>1-2</v>
       </c>
       <c r="C52" t="str">
-        <v>390,00</v>
+        <v>400,00</v>
       </c>
       <c r="D52" t="str">
-        <v>3007,3</v>
+        <v>3116,8</v>
       </c>
       <c r="E52" t="str">
-        <v>363,35</v>
+        <v>374,52</v>
       </c>
       <c r="F52" t="str">
-        <v>2439,9</v>
+        <v>2417,4</v>
       </c>
       <c r="G52" t="str">
         <v>-</v>
@@ -1759,19 +1750,19 @@
         <v>31-07-2024</v>
       </c>
       <c r="B53" t="str">
-        <v>4-5</v>
+        <v>2-3</v>
       </c>
       <c r="C53" t="str">
-        <v>397,20</v>
+        <v>390,00</v>
       </c>
       <c r="D53" t="str">
-        <v>3066,5</v>
+        <v>2958,7</v>
       </c>
       <c r="E53" t="str">
-        <v>359,51</v>
+        <v>363,35</v>
       </c>
       <c r="F53" t="str">
-        <v>2467,6</v>
+        <v>2386,8</v>
       </c>
       <c r="G53" t="str">
         <v>-</v>
@@ -1785,25 +1776,25 @@
         <v>31-07-2024</v>
       </c>
       <c r="B54" t="str">
-        <v>5-6</v>
+        <v>3-4</v>
       </c>
       <c r="C54" t="str">
-        <v>437,00</v>
+        <v>390,00</v>
       </c>
       <c r="D54" t="str">
-        <v>3229,3</v>
+        <v>3007,3</v>
       </c>
       <c r="E54" t="str">
-        <v>437,43</v>
+        <v>363,35</v>
       </c>
       <c r="F54" t="str">
-        <v>2022,4</v>
+        <v>2439,9</v>
       </c>
       <c r="G54" t="str">
-        <v>437,00</v>
+        <v>-</v>
       </c>
       <c r="H54" t="str">
-        <v>37,1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -1811,19 +1802,19 @@
         <v>31-07-2024</v>
       </c>
       <c r="B55" t="str">
-        <v>6-7</v>
+        <v>4-5</v>
       </c>
       <c r="C55" t="str">
-        <v>530,00</v>
+        <v>397,20</v>
       </c>
       <c r="D55" t="str">
-        <v>3597,5</v>
+        <v>3066,5</v>
       </c>
       <c r="E55" t="str">
-        <v>545,18</v>
+        <v>359,51</v>
       </c>
       <c r="F55" t="str">
-        <v>2178,7</v>
+        <v>2467,6</v>
       </c>
       <c r="G55" t="str">
         <v>-</v>
@@ -1837,25 +1828,25 @@
         <v>31-07-2024</v>
       </c>
       <c r="B56" t="str">
-        <v>7-8</v>
+        <v>5-6</v>
       </c>
       <c r="C56" t="str">
-        <v>520,00</v>
+        <v>437,00</v>
       </c>
       <c r="D56" t="str">
-        <v>3013,4</v>
+        <v>3229,3</v>
       </c>
       <c r="E56" t="str">
-        <v>489,67</v>
+        <v>437,43</v>
       </c>
       <c r="F56" t="str">
-        <v>1606,9</v>
+        <v>2022,4</v>
       </c>
       <c r="G56" t="str">
-        <v>-</v>
+        <v>437,00</v>
       </c>
       <c r="H56" t="str">
-        <v>0</v>
+        <v>37,1</v>
       </c>
     </row>
     <row r="57">
@@ -1863,19 +1854,19 @@
         <v>31-07-2024</v>
       </c>
       <c r="B57" t="str">
-        <v>8-9</v>
+        <v>6-7</v>
       </c>
       <c r="C57" t="str">
-        <v>432,41</v>
+        <v>530,00</v>
       </c>
       <c r="D57" t="str">
-        <v>2918,7</v>
+        <v>3597,5</v>
       </c>
       <c r="E57" t="str">
-        <v>456,00</v>
+        <v>545,18</v>
       </c>
       <c r="F57" t="str">
-        <v>1068,5</v>
+        <v>2178,7</v>
       </c>
       <c r="G57" t="str">
         <v>-</v>
@@ -1889,25 +1880,25 @@
         <v>31-07-2024</v>
       </c>
       <c r="B58" t="str">
-        <v>9-10</v>
+        <v>7-8</v>
       </c>
       <c r="C58" t="str">
-        <v>355,57</v>
+        <v>520,00</v>
       </c>
       <c r="D58" t="str">
-        <v>3202,7</v>
+        <v>3013,4</v>
       </c>
       <c r="E58" t="str">
-        <v>387,79</v>
+        <v>489,67</v>
       </c>
       <c r="F58" t="str">
-        <v>1457,7</v>
+        <v>1606,9</v>
       </c>
       <c r="G58" t="str">
-        <v>345,00</v>
+        <v>-</v>
       </c>
       <c r="H58" t="str">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -1915,19 +1906,19 @@
         <v>31-07-2024</v>
       </c>
       <c r="B59" t="str">
-        <v>10-11</v>
+        <v>8-9</v>
       </c>
       <c r="C59" t="str">
-        <v>288,00</v>
+        <v>432,41</v>
       </c>
       <c r="D59" t="str">
-        <v>4244,9</v>
+        <v>2918,7</v>
       </c>
       <c r="E59" t="str">
-        <v>331,19</v>
+        <v>456,00</v>
       </c>
       <c r="F59" t="str">
-        <v>1567,9</v>
+        <v>1068,5</v>
       </c>
       <c r="G59" t="str">
         <v>-</v>
@@ -1941,25 +1932,25 @@
         <v>31-07-2024</v>
       </c>
       <c r="B60" t="str">
-        <v>11-12</v>
+        <v>9-10</v>
       </c>
       <c r="C60" t="str">
-        <v>263,40</v>
+        <v>355,57</v>
       </c>
       <c r="D60" t="str">
-        <v>4633,8</v>
+        <v>3202,7</v>
       </c>
       <c r="E60" t="str">
-        <v>291,14</v>
+        <v>387,79</v>
       </c>
       <c r="F60" t="str">
-        <v>1274,8</v>
+        <v>1457,7</v>
       </c>
       <c r="G60" t="str">
-        <v>-</v>
+        <v>345,00</v>
       </c>
       <c r="H60" t="str">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61">
@@ -1967,25 +1958,25 @@
         <v>31-07-2024</v>
       </c>
       <c r="B61" t="str">
-        <v>12-13</v>
+        <v>10-11</v>
       </c>
       <c r="C61" t="str">
-        <v>235,90</v>
+        <v>288,00</v>
       </c>
       <c r="D61" t="str">
-        <v>4504,3</v>
+        <v>4244,9</v>
       </c>
       <c r="E61" t="str">
-        <v>275,59</v>
+        <v>331,19</v>
       </c>
       <c r="F61" t="str">
-        <v>1174,6</v>
+        <v>1567,9</v>
       </c>
       <c r="G61" t="str">
-        <v>225,00</v>
+        <v>-</v>
       </c>
       <c r="H61" t="str">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -1993,25 +1984,25 @@
         <v>31-07-2024</v>
       </c>
       <c r="B62" t="str">
-        <v>13-14</v>
+        <v>11-12</v>
       </c>
       <c r="C62" t="str">
-        <v>241,99</v>
+        <v>263,40</v>
       </c>
       <c r="D62" t="str">
-        <v>4004,6</v>
+        <v>4633,8</v>
       </c>
       <c r="E62" t="str">
-        <v>247,03</v>
+        <v>291,14</v>
       </c>
       <c r="F62" t="str">
-        <v>1094,2</v>
+        <v>1274,8</v>
       </c>
       <c r="G62" t="str">
-        <v>231,31</v>
+        <v>-</v>
       </c>
       <c r="H62" t="str">
-        <v>21,1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -2019,25 +2010,25 @@
         <v>31-07-2024</v>
       </c>
       <c r="B63" t="str">
-        <v>14-15</v>
+        <v>12-13</v>
       </c>
       <c r="C63" t="str">
-        <v>233,99</v>
+        <v>235,90</v>
       </c>
       <c r="D63" t="str">
-        <v>4052,4</v>
+        <v>4504,3</v>
       </c>
       <c r="E63" t="str">
-        <v>226,96</v>
+        <v>275,59</v>
       </c>
       <c r="F63" t="str">
-        <v>1001</v>
+        <v>1174,6</v>
       </c>
       <c r="G63" t="str">
-        <v>-</v>
+        <v>225,00</v>
       </c>
       <c r="H63" t="str">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64">
@@ -2045,25 +2036,25 @@
         <v>31-07-2024</v>
       </c>
       <c r="B64" t="str">
-        <v>15-16</v>
+        <v>13-14</v>
       </c>
       <c r="C64" t="str">
-        <v>295,67</v>
+        <v>241,99</v>
       </c>
       <c r="D64" t="str">
-        <v>3632,1</v>
+        <v>4004,6</v>
       </c>
       <c r="E64" t="str">
-        <v>295,90</v>
+        <v>247,03</v>
       </c>
       <c r="F64" t="str">
-        <v>752,4</v>
+        <v>1094,2</v>
       </c>
       <c r="G64" t="str">
-        <v>-</v>
+        <v>231,31</v>
       </c>
       <c r="H64" t="str">
-        <v>0</v>
+        <v>21,1</v>
       </c>
     </row>
     <row r="65">
@@ -2071,19 +2062,19 @@
         <v>31-07-2024</v>
       </c>
       <c r="B65" t="str">
-        <v>16-17</v>
+        <v>14-15</v>
       </c>
       <c r="C65" t="str">
-        <v>385,69</v>
+        <v>233,99</v>
       </c>
       <c r="D65" t="str">
-        <v>3191,6</v>
+        <v>4052,4</v>
       </c>
       <c r="E65" t="str">
-        <v>379,13</v>
+        <v>226,96</v>
       </c>
       <c r="F65" t="str">
-        <v>487,8</v>
+        <v>1001</v>
       </c>
       <c r="G65" t="str">
         <v>-</v>
@@ -2097,19 +2088,19 @@
         <v>31-07-2024</v>
       </c>
       <c r="B66" t="str">
-        <v>17-18</v>
+        <v>15-16</v>
       </c>
       <c r="C66" t="str">
-        <v>444,97</v>
+        <v>295,67</v>
       </c>
       <c r="D66" t="str">
-        <v>3216,2</v>
+        <v>3632,1</v>
       </c>
       <c r="E66" t="str">
-        <v>380,34</v>
+        <v>295,90</v>
       </c>
       <c r="F66" t="str">
-        <v>1392,1</v>
+        <v>752,4</v>
       </c>
       <c r="G66" t="str">
         <v>-</v>
@@ -2123,25 +2114,25 @@
         <v>31-07-2024</v>
       </c>
       <c r="B67" t="str">
-        <v>18-19</v>
+        <v>16-17</v>
       </c>
       <c r="C67" t="str">
-        <v>503,60</v>
+        <v>385,69</v>
       </c>
       <c r="D67" t="str">
-        <v>3604,7</v>
+        <v>3191,6</v>
       </c>
       <c r="E67" t="str">
-        <v>460,55</v>
+        <v>379,13</v>
       </c>
       <c r="F67" t="str">
-        <v>2153,5</v>
+        <v>487,8</v>
       </c>
       <c r="G67" t="str">
-        <v>500,00</v>
+        <v>-</v>
       </c>
       <c r="H67" t="str">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2149,25 +2140,25 @@
         <v>31-07-2024</v>
       </c>
       <c r="B68" t="str">
-        <v>19-20</v>
+        <v>17-18</v>
       </c>
       <c r="C68" t="str">
-        <v>612,00</v>
+        <v>444,97</v>
       </c>
       <c r="D68" t="str">
-        <v>4266,8</v>
+        <v>3216,2</v>
       </c>
       <c r="E68" t="str">
-        <v>641,44</v>
+        <v>380,34</v>
       </c>
       <c r="F68" t="str">
-        <v>1768,4</v>
+        <v>1392,1</v>
       </c>
       <c r="G68" t="str">
-        <v>608,80</v>
+        <v>-</v>
       </c>
       <c r="H68" t="str">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2175,25 +2166,25 @@
         <v>31-07-2024</v>
       </c>
       <c r="B69" t="str">
-        <v>20-21</v>
+        <v>18-19</v>
       </c>
       <c r="C69" t="str">
-        <v>738,99</v>
+        <v>503,60</v>
       </c>
       <c r="D69" t="str">
-        <v>4324,7</v>
+        <v>3604,7</v>
       </c>
       <c r="E69" t="str">
-        <v>754,06</v>
+        <v>460,55</v>
       </c>
       <c r="F69" t="str">
-        <v>2056,9</v>
+        <v>2153,5</v>
       </c>
       <c r="G69" t="str">
-        <v>698,24</v>
+        <v>500,00</v>
       </c>
       <c r="H69" t="str">
-        <v>121</v>
+        <v>30</v>
       </c>
     </row>
     <row r="70">
@@ -2201,25 +2192,25 @@
         <v>31-07-2024</v>
       </c>
       <c r="B70" t="str">
-        <v>21-22</v>
+        <v>19-20</v>
       </c>
       <c r="C70" t="str">
-        <v>585,00</v>
+        <v>612,00</v>
       </c>
       <c r="D70" t="str">
-        <v>4070</v>
+        <v>4266,8</v>
       </c>
       <c r="E70" t="str">
-        <v>521,01</v>
+        <v>641,44</v>
       </c>
       <c r="F70" t="str">
-        <v>2050,3</v>
+        <v>1768,4</v>
       </c>
       <c r="G70" t="str">
-        <v>590,00</v>
+        <v>608,80</v>
       </c>
       <c r="H70" t="str">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="71">
@@ -2227,25 +2218,25 @@
         <v>31-07-2024</v>
       </c>
       <c r="B71" t="str">
-        <v>22-23</v>
+        <v>20-21</v>
       </c>
       <c r="C71" t="str">
-        <v>537,00</v>
+        <v>738,99</v>
       </c>
       <c r="D71" t="str">
-        <v>4529,6</v>
+        <v>4324,7</v>
       </c>
       <c r="E71" t="str">
-        <v>537,60</v>
+        <v>754,06</v>
       </c>
       <c r="F71" t="str">
-        <v>2540</v>
+        <v>2056,9</v>
       </c>
       <c r="G71" t="str">
-        <v>527,00</v>
+        <v>698,24</v>
       </c>
       <c r="H71" t="str">
-        <v>10</v>
+        <v>121</v>
       </c>
     </row>
     <row r="72">
@@ -2253,77 +2244,77 @@
         <v>31-07-2024</v>
       </c>
       <c r="B72" t="str">
-        <v>23-24</v>
+        <v>21-22</v>
       </c>
       <c r="C72" t="str">
-        <v>450,00</v>
+        <v>585,00</v>
       </c>
       <c r="D72" t="str">
-        <v>3734,1</v>
+        <v>4070</v>
       </c>
       <c r="E72" t="str">
-        <v>447,57</v>
+        <v>521,01</v>
       </c>
       <c r="F72" t="str">
-        <v>2142</v>
+        <v>2050,3</v>
       </c>
       <c r="G72" t="str">
-        <v>440,00</v>
+        <v>590,00</v>
       </c>
       <c r="H72" t="str">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>01-08-2024</v>
+        <v>31-07-2024</v>
       </c>
       <c r="B73" t="str">
-        <v>0-1</v>
+        <v>22-23</v>
       </c>
       <c r="C73" t="str">
-        <v>465,00</v>
+        <v>537,00</v>
       </c>
       <c r="D73" t="str">
-        <v>3086,1</v>
+        <v>4529,6</v>
       </c>
       <c r="E73" t="str">
-        <v>429,92</v>
+        <v>537,60</v>
       </c>
       <c r="F73" t="str">
-        <v>2058,9</v>
+        <v>2540</v>
       </c>
       <c r="G73" t="str">
-        <v>455,00</v>
+        <v>527,00</v>
       </c>
       <c r="H73" t="str">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>01-08-2024</v>
+        <v>31-07-2024</v>
       </c>
       <c r="B74" t="str">
-        <v>1-2</v>
+        <v>23-24</v>
       </c>
       <c r="C74" t="str">
-        <v>400,00</v>
+        <v>450,00</v>
       </c>
       <c r="D74" t="str">
-        <v>2943,5</v>
+        <v>3734,1</v>
       </c>
       <c r="E74" t="str">
-        <v>385,88</v>
+        <v>447,57</v>
       </c>
       <c r="F74" t="str">
-        <v>1456,5</v>
+        <v>2142</v>
       </c>
       <c r="G74" t="str">
-        <v>-</v>
+        <v>440,00</v>
       </c>
       <c r="H74" t="str">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="75">
@@ -2331,25 +2322,25 @@
         <v>01-08-2024</v>
       </c>
       <c r="B75" t="str">
-        <v>2-3</v>
+        <v>0-1</v>
       </c>
       <c r="C75" t="str">
-        <v>392,00</v>
+        <v>465,00</v>
       </c>
       <c r="D75" t="str">
-        <v>2758,5</v>
+        <v>3086,1</v>
       </c>
       <c r="E75" t="str">
-        <v>385,69</v>
+        <v>429,92</v>
       </c>
       <c r="F75" t="str">
-        <v>1497,3</v>
+        <v>2058,9</v>
       </c>
       <c r="G75" t="str">
-        <v>-</v>
+        <v>455,00</v>
       </c>
       <c r="H75" t="str">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76">
@@ -2357,19 +2348,19 @@
         <v>01-08-2024</v>
       </c>
       <c r="B76" t="str">
-        <v>3-4</v>
+        <v>1-2</v>
       </c>
       <c r="C76" t="str">
-        <v>388,00</v>
+        <v>400,00</v>
       </c>
       <c r="D76" t="str">
-        <v>2813,8</v>
+        <v>2943,5</v>
       </c>
       <c r="E76" t="str">
-        <v>387,52</v>
+        <v>385,88</v>
       </c>
       <c r="F76" t="str">
-        <v>1859,4</v>
+        <v>1456,5</v>
       </c>
       <c r="G76" t="str">
         <v>-</v>
@@ -2383,19 +2374,19 @@
         <v>01-08-2024</v>
       </c>
       <c r="B77" t="str">
-        <v>4-5</v>
+        <v>2-3</v>
       </c>
       <c r="C77" t="str">
-        <v>390,00</v>
+        <v>392,00</v>
       </c>
       <c r="D77" t="str">
-        <v>3016,1</v>
+        <v>2758,5</v>
       </c>
       <c r="E77" t="str">
         <v>385,69</v>
       </c>
       <c r="F77" t="str">
-        <v>1854,9</v>
+        <v>1497,3</v>
       </c>
       <c r="G77" t="str">
         <v>-</v>
@@ -2409,19 +2400,19 @@
         <v>01-08-2024</v>
       </c>
       <c r="B78" t="str">
-        <v>5-6</v>
+        <v>3-4</v>
       </c>
       <c r="C78" t="str">
-        <v>431,28</v>
+        <v>388,00</v>
       </c>
       <c r="D78" t="str">
-        <v>3273,4</v>
+        <v>2813,8</v>
       </c>
       <c r="E78" t="str">
-        <v>387,92</v>
+        <v>387,52</v>
       </c>
       <c r="F78" t="str">
-        <v>1578,2</v>
+        <v>1859,4</v>
       </c>
       <c r="G78" t="str">
         <v>-</v>
@@ -2435,19 +2426,19 @@
         <v>01-08-2024</v>
       </c>
       <c r="B79" t="str">
-        <v>6-7</v>
+        <v>4-5</v>
       </c>
       <c r="C79" t="str">
-        <v>542,00</v>
+        <v>390,00</v>
       </c>
       <c r="D79" t="str">
-        <v>3581,2</v>
+        <v>3016,1</v>
       </c>
       <c r="E79" t="str">
-        <v>476,66</v>
+        <v>385,69</v>
       </c>
       <c r="F79" t="str">
-        <v>1899,5</v>
+        <v>1854,9</v>
       </c>
       <c r="G79" t="str">
         <v>-</v>
@@ -2461,19 +2452,19 @@
         <v>01-08-2024</v>
       </c>
       <c r="B80" t="str">
-        <v>7-8</v>
+        <v>5-6</v>
       </c>
       <c r="C80" t="str">
-        <v>540,00</v>
+        <v>431,28</v>
       </c>
       <c r="D80" t="str">
-        <v>3027,6</v>
+        <v>3273,4</v>
       </c>
       <c r="E80" t="str">
-        <v>520,50</v>
+        <v>387,92</v>
       </c>
       <c r="F80" t="str">
-        <v>1580,2</v>
+        <v>1578,2</v>
       </c>
       <c r="G80" t="str">
         <v>-</v>
@@ -2487,25 +2478,25 @@
         <v>01-08-2024</v>
       </c>
       <c r="B81" t="str">
-        <v>8-9</v>
+        <v>6-7</v>
       </c>
       <c r="C81" t="str">
-        <v>488,50</v>
+        <v>542,00</v>
       </c>
       <c r="D81" t="str">
-        <v>2854,3</v>
+        <v>3581,2</v>
       </c>
       <c r="E81" t="str">
-        <v>486,19</v>
+        <v>476,66</v>
       </c>
       <c r="F81" t="str">
-        <v>879,8</v>
+        <v>1899,5</v>
       </c>
       <c r="G81" t="str">
-        <v>488,45</v>
+        <v>-</v>
       </c>
       <c r="H81" t="str">
-        <v>41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -2513,25 +2504,25 @@
         <v>01-08-2024</v>
       </c>
       <c r="B82" t="str">
-        <v>9-10</v>
+        <v>7-8</v>
       </c>
       <c r="C82" t="str">
-        <v>450,00</v>
+        <v>540,00</v>
       </c>
       <c r="D82" t="str">
-        <v>2832,4</v>
+        <v>3027,6</v>
       </c>
       <c r="E82" t="str">
-        <v>448,80</v>
+        <v>520,50</v>
       </c>
       <c r="F82" t="str">
-        <v>876,3</v>
+        <v>1580,2</v>
       </c>
       <c r="G82" t="str">
-        <v>450,00</v>
+        <v>-</v>
       </c>
       <c r="H82" t="str">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -2539,25 +2530,25 @@
         <v>01-08-2024</v>
       </c>
       <c r="B83" t="str">
-        <v>10-11</v>
+        <v>8-9</v>
       </c>
       <c r="C83" t="str">
-        <v>404,00</v>
+        <v>488,50</v>
       </c>
       <c r="D83" t="str">
-        <v>3020,4</v>
+        <v>2854,3</v>
       </c>
       <c r="E83" t="str">
-        <v>385,42</v>
+        <v>486,19</v>
       </c>
       <c r="F83" t="str">
-        <v>913,9</v>
+        <v>879,8</v>
       </c>
       <c r="G83" t="str">
-        <v>404,00</v>
+        <v>488,45</v>
       </c>
       <c r="H83" t="str">
-        <v>15</v>
+        <v>41</v>
       </c>
     </row>
     <row r="84">
@@ -2565,25 +2556,25 @@
         <v>01-08-2024</v>
       </c>
       <c r="B84" t="str">
-        <v>11-12</v>
+        <v>9-10</v>
       </c>
       <c r="C84" t="str">
-        <v>390,34</v>
+        <v>450,00</v>
       </c>
       <c r="D84" t="str">
-        <v>3327,3</v>
+        <v>2832,4</v>
       </c>
       <c r="E84" t="str">
-        <v>344,07</v>
+        <v>448,80</v>
       </c>
       <c r="F84" t="str">
-        <v>975,7</v>
+        <v>876,3</v>
       </c>
       <c r="G84" t="str">
-        <v>390,34</v>
+        <v>450,00</v>
       </c>
       <c r="H84" t="str">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="85">
@@ -2591,25 +2582,25 @@
         <v>01-08-2024</v>
       </c>
       <c r="B85" t="str">
-        <v>12-13</v>
+        <v>10-11</v>
       </c>
       <c r="C85" t="str">
-        <v>387,59</v>
+        <v>404,00</v>
       </c>
       <c r="D85" t="str">
-        <v>3357,9</v>
+        <v>3020,4</v>
       </c>
       <c r="E85" t="str">
-        <v>354,72</v>
+        <v>385,42</v>
       </c>
       <c r="F85" t="str">
-        <v>836,5</v>
+        <v>913,9</v>
       </c>
       <c r="G85" t="str">
-        <v>387,59</v>
+        <v>404,00</v>
       </c>
       <c r="H85" t="str">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="86">
@@ -2617,25 +2608,25 @@
         <v>01-08-2024</v>
       </c>
       <c r="B86" t="str">
-        <v>13-14</v>
+        <v>11-12</v>
       </c>
       <c r="C86" t="str">
-        <v>394,00</v>
+        <v>390,34</v>
       </c>
       <c r="D86" t="str">
-        <v>3262,1</v>
+        <v>3327,3</v>
       </c>
       <c r="E86" t="str">
-        <v>368,09</v>
+        <v>344,07</v>
       </c>
       <c r="F86" t="str">
-        <v>783,7</v>
+        <v>975,7</v>
       </c>
       <c r="G86" t="str">
-        <v>-</v>
+        <v>390,34</v>
       </c>
       <c r="H86" t="str">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="87">
@@ -2643,25 +2634,25 @@
         <v>01-08-2024</v>
       </c>
       <c r="B87" t="str">
-        <v>14-15</v>
+        <v>12-13</v>
       </c>
       <c r="C87" t="str">
-        <v>406,00</v>
+        <v>387,59</v>
       </c>
       <c r="D87" t="str">
-        <v>3301,9</v>
+        <v>3357,9</v>
       </c>
       <c r="E87" t="str">
-        <v>405,43</v>
+        <v>354,72</v>
       </c>
       <c r="F87" t="str">
-        <v>618</v>
+        <v>836,5</v>
       </c>
       <c r="G87" t="str">
-        <v>406,00</v>
+        <v>387,59</v>
       </c>
       <c r="H87" t="str">
-        <v>12,1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="88">
@@ -2669,25 +2660,25 @@
         <v>01-08-2024</v>
       </c>
       <c r="B88" t="str">
-        <v>15-16</v>
+        <v>13-14</v>
       </c>
       <c r="C88" t="str">
-        <v>482,86</v>
+        <v>394,00</v>
       </c>
       <c r="D88" t="str">
-        <v>3687</v>
+        <v>3262,1</v>
       </c>
       <c r="E88" t="str">
-        <v>484,29</v>
+        <v>368,09</v>
       </c>
       <c r="F88" t="str">
-        <v>682,7</v>
+        <v>783,7</v>
       </c>
       <c r="G88" t="str">
-        <v>482,86</v>
+        <v>-</v>
       </c>
       <c r="H88" t="str">
-        <v>19,7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2695,25 +2686,25 @@
         <v>01-08-2024</v>
       </c>
       <c r="B89" t="str">
-        <v>16-17</v>
+        <v>14-15</v>
       </c>
       <c r="C89" t="str">
-        <v>482,86</v>
+        <v>406,00</v>
       </c>
       <c r="D89" t="str">
-        <v>4076,7</v>
+        <v>3301,9</v>
       </c>
       <c r="E89" t="str">
-        <v>496,07</v>
+        <v>405,43</v>
       </c>
       <c r="F89" t="str">
-        <v>1381,1</v>
+        <v>618</v>
       </c>
       <c r="G89" t="str">
-        <v>-</v>
+        <v>406,00</v>
       </c>
       <c r="H89" t="str">
-        <v>0</v>
+        <v>12,1</v>
       </c>
     </row>
     <row r="90">
@@ -2721,25 +2712,25 @@
         <v>01-08-2024</v>
       </c>
       <c r="B90" t="str">
-        <v>17-18</v>
+        <v>15-16</v>
       </c>
       <c r="C90" t="str">
-        <v>469,00</v>
+        <v>482,86</v>
       </c>
       <c r="D90" t="str">
-        <v>4080,3</v>
+        <v>3687</v>
       </c>
       <c r="E90" t="str">
-        <v>490,81</v>
+        <v>484,29</v>
       </c>
       <c r="F90" t="str">
-        <v>2231,3</v>
+        <v>682,7</v>
       </c>
       <c r="G90" t="str">
-        <v>469,00</v>
+        <v>482,86</v>
       </c>
       <c r="H90" t="str">
-        <v>43</v>
+        <v>19,7</v>
       </c>
     </row>
     <row r="91">
@@ -2747,25 +2738,25 @@
         <v>01-08-2024</v>
       </c>
       <c r="B91" t="str">
-        <v>18-19</v>
+        <v>16-17</v>
       </c>
       <c r="C91" t="str">
-        <v>549,00</v>
+        <v>482,86</v>
       </c>
       <c r="D91" t="str">
-        <v>3853,5</v>
+        <v>4076,7</v>
       </c>
       <c r="E91" t="str">
-        <v>550,60</v>
+        <v>496,07</v>
       </c>
       <c r="F91" t="str">
-        <v>2442,6</v>
+        <v>1381,1</v>
       </c>
       <c r="G91" t="str">
-        <v>545,00</v>
+        <v>-</v>
       </c>
       <c r="H91" t="str">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -2773,25 +2764,25 @@
         <v>01-08-2024</v>
       </c>
       <c r="B92" t="str">
-        <v>19-20</v>
+        <v>17-18</v>
       </c>
       <c r="C92" t="str">
-        <v>600,00</v>
+        <v>469,00</v>
       </c>
       <c r="D92" t="str">
-        <v>4099,8</v>
+        <v>4080,3</v>
       </c>
       <c r="E92" t="str">
-        <v>565,57</v>
+        <v>490,81</v>
       </c>
       <c r="F92" t="str">
-        <v>2106,3</v>
+        <v>2231,3</v>
       </c>
       <c r="G92" t="str">
-        <v>590,00</v>
+        <v>469,00</v>
       </c>
       <c r="H92" t="str">
-        <v>5</v>
+        <v>43</v>
       </c>
     </row>
     <row r="93">
@@ -2799,25 +2790,25 @@
         <v>01-08-2024</v>
       </c>
       <c r="B93" t="str">
-        <v>20-21</v>
+        <v>18-19</v>
       </c>
       <c r="C93" t="str">
-        <v>670,00</v>
+        <v>549,00</v>
       </c>
       <c r="D93" t="str">
-        <v>3956,3</v>
+        <v>3853,5</v>
       </c>
       <c r="E93" t="str">
-        <v>674,30</v>
+        <v>550,60</v>
       </c>
       <c r="F93" t="str">
-        <v>1721,6</v>
+        <v>2442,6</v>
       </c>
       <c r="G93" t="str">
-        <v>670,51</v>
+        <v>545,00</v>
       </c>
       <c r="H93" t="str">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="94">
@@ -2825,25 +2816,25 @@
         <v>01-08-2024</v>
       </c>
       <c r="B94" t="str">
-        <v>21-22</v>
+        <v>19-20</v>
       </c>
       <c r="C94" t="str">
-        <v>553,90</v>
+        <v>600,00</v>
       </c>
       <c r="D94" t="str">
-        <v>3775,1</v>
+        <v>4099,8</v>
       </c>
       <c r="E94" t="str">
-        <v>553,22</v>
+        <v>565,57</v>
       </c>
       <c r="F94" t="str">
-        <v>1724,7</v>
+        <v>2106,3</v>
       </c>
       <c r="G94" t="str">
-        <v>567,57</v>
+        <v>590,00</v>
       </c>
       <c r="H94" t="str">
-        <v>33</v>
+        <v>5</v>
       </c>
     </row>
     <row r="95">
@@ -2851,25 +2842,25 @@
         <v>01-08-2024</v>
       </c>
       <c r="B95" t="str">
-        <v>22-23</v>
+        <v>20-21</v>
       </c>
       <c r="C95" t="str">
-        <v>513,70</v>
+        <v>670,00</v>
       </c>
       <c r="D95" t="str">
-        <v>4049,7</v>
+        <v>3956,3</v>
       </c>
       <c r="E95" t="str">
-        <v>495,48</v>
+        <v>674,30</v>
       </c>
       <c r="F95" t="str">
-        <v>2430,9</v>
+        <v>1721,6</v>
       </c>
       <c r="G95" t="str">
-        <v>-</v>
+        <v>670,51</v>
       </c>
       <c r="H95" t="str">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="96">
@@ -2877,77 +2868,77 @@
         <v>01-08-2024</v>
       </c>
       <c r="B96" t="str">
-        <v>23-24</v>
+        <v>21-22</v>
       </c>
       <c r="C96" t="str">
-        <v>449,00</v>
+        <v>553,90</v>
       </c>
       <c r="D96" t="str">
-        <v>3402,8</v>
+        <v>3775,1</v>
       </c>
       <c r="E96" t="str">
-        <v>435,23</v>
+        <v>553,22</v>
       </c>
       <c r="F96" t="str">
-        <v>1887</v>
+        <v>1724,7</v>
       </c>
       <c r="G96" t="str">
-        <v>-</v>
+        <v>567,57</v>
       </c>
       <c r="H96" t="str">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>02-08-2024</v>
+        <v>01-08-2024</v>
       </c>
       <c r="B97" t="str">
-        <v>0-1</v>
+        <v>22-23</v>
       </c>
       <c r="C97" t="str">
-        <v>490,00</v>
+        <v>513,70</v>
       </c>
       <c r="D97" t="str">
-        <v>3019,5</v>
+        <v>4049,7</v>
       </c>
       <c r="E97" t="str">
-        <v>490,60</v>
+        <v>495,48</v>
       </c>
       <c r="F97" t="str">
-        <v>1973,1</v>
+        <v>2430,9</v>
       </c>
       <c r="G97" t="str">
-        <v>488,00</v>
+        <v>-</v>
       </c>
       <c r="H97" t="str">
-        <v>1,5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>02-08-2024</v>
+        <v>01-08-2024</v>
       </c>
       <c r="B98" t="str">
-        <v>1-2</v>
+        <v>23-24</v>
       </c>
       <c r="C98" t="str">
-        <v>450,00</v>
+        <v>449,00</v>
       </c>
       <c r="D98" t="str">
-        <v>2661,6</v>
+        <v>3402,8</v>
       </c>
       <c r="E98" t="str">
-        <v>488,64</v>
+        <v>435,23</v>
       </c>
       <c r="F98" t="str">
-        <v>1632,2</v>
+        <v>1887</v>
       </c>
       <c r="G98" t="str">
-        <v>447,00</v>
+        <v>-</v>
       </c>
       <c r="H98" t="str">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -2955,25 +2946,25 @@
         <v>02-08-2024</v>
       </c>
       <c r="B99" t="str">
-        <v>2-3</v>
+        <v>0-1</v>
       </c>
       <c r="C99" t="str">
-        <v>424,41</v>
+        <v>490,00</v>
       </c>
       <c r="D99" t="str">
-        <v>2467,2</v>
+        <v>3019,5</v>
       </c>
       <c r="E99" t="str">
-        <v>474,92</v>
+        <v>490,60</v>
       </c>
       <c r="F99" t="str">
-        <v>1515,4</v>
+        <v>1973,1</v>
       </c>
       <c r="G99" t="str">
-        <v>-</v>
+        <v>488,00</v>
       </c>
       <c r="H99" t="str">
-        <v>0</v>
+        <v>1,5</v>
       </c>
     </row>
     <row r="100">
@@ -2981,25 +2972,25 @@
         <v>02-08-2024</v>
       </c>
       <c r="B100" t="str">
-        <v>3-4</v>
+        <v>1-2</v>
       </c>
       <c r="C100" t="str">
-        <v>436,90</v>
+        <v>450,00</v>
       </c>
       <c r="D100" t="str">
-        <v>2551,9</v>
+        <v>2661,6</v>
       </c>
       <c r="E100" t="str">
-        <v>481,66</v>
+        <v>488,64</v>
       </c>
       <c r="F100" t="str">
-        <v>1360,2</v>
+        <v>1632,2</v>
       </c>
       <c r="G100" t="str">
-        <v>-</v>
+        <v>447,00</v>
       </c>
       <c r="H100" t="str">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="101">
@@ -3007,19 +2998,19 @@
         <v>02-08-2024</v>
       </c>
       <c r="B101" t="str">
-        <v>4-5</v>
+        <v>2-3</v>
       </c>
       <c r="C101" t="str">
-        <v>428,00</v>
+        <v>424,41</v>
       </c>
       <c r="D101" t="str">
-        <v>2586,7</v>
+        <v>2467,2</v>
       </c>
       <c r="E101" t="str">
-        <v>481,47</v>
+        <v>474,92</v>
       </c>
       <c r="F101" t="str">
-        <v>1293,1</v>
+        <v>1515,4</v>
       </c>
       <c r="G101" t="str">
         <v>-</v>
@@ -3033,25 +3024,25 @@
         <v>02-08-2024</v>
       </c>
       <c r="B102" t="str">
-        <v>5-6</v>
+        <v>3-4</v>
       </c>
       <c r="C102" t="str">
-        <v>447,91</v>
+        <v>436,90</v>
       </c>
       <c r="D102" t="str">
-        <v>2458,7</v>
+        <v>2551,9</v>
       </c>
       <c r="E102" t="str">
-        <v>487,59</v>
+        <v>481,66</v>
       </c>
       <c r="F102" t="str">
-        <v>1202,2</v>
+        <v>1360,2</v>
       </c>
       <c r="G102" t="str">
-        <v>445,92</v>
+        <v>-</v>
       </c>
       <c r="H102" t="str">
-        <v>34,3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
@@ -3059,25 +3050,25 @@
         <v>02-08-2024</v>
       </c>
       <c r="B103" t="str">
-        <v>6-7</v>
+        <v>4-5</v>
       </c>
       <c r="C103" t="str">
-        <v>480,00</v>
+        <v>428,00</v>
       </c>
       <c r="D103" t="str">
-        <v>2458,6</v>
+        <v>2586,7</v>
       </c>
       <c r="E103" t="str">
-        <v>485,88</v>
+        <v>481,47</v>
       </c>
       <c r="F103" t="str">
-        <v>1354,6</v>
+        <v>1293,1</v>
       </c>
       <c r="G103" t="str">
-        <v>480,00</v>
+        <v>-</v>
       </c>
       <c r="H103" t="str">
-        <v>25,5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
@@ -3085,25 +3076,25 @@
         <v>02-08-2024</v>
       </c>
       <c r="B104" t="str">
-        <v>7-8</v>
+        <v>5-6</v>
       </c>
       <c r="C104" t="str">
-        <v>488,68</v>
+        <v>447,91</v>
       </c>
       <c r="D104" t="str">
-        <v>2647,6</v>
+        <v>2458,7</v>
       </c>
       <c r="E104" t="str">
-        <v>505,00</v>
+        <v>487,59</v>
       </c>
       <c r="F104" t="str">
-        <v>1317,3</v>
+        <v>1202,2</v>
       </c>
       <c r="G104" t="str">
-        <v>488,68</v>
+        <v>445,92</v>
       </c>
       <c r="H104" t="str">
-        <v>14,7</v>
+        <v>34,3</v>
       </c>
     </row>
     <row r="105">
@@ -3111,25 +3102,25 @@
         <v>02-08-2024</v>
       </c>
       <c r="B105" t="str">
-        <v>8-9</v>
+        <v>6-7</v>
       </c>
       <c r="C105" t="str">
-        <v>524,27</v>
+        <v>480,00</v>
       </c>
       <c r="D105" t="str">
-        <v>2835,2</v>
+        <v>2458,6</v>
       </c>
       <c r="E105" t="str">
-        <v>533,73</v>
+        <v>485,88</v>
       </c>
       <c r="F105" t="str">
-        <v>894</v>
+        <v>1354,6</v>
       </c>
       <c r="G105" t="str">
-        <v>524,27</v>
+        <v>480,00</v>
       </c>
       <c r="H105" t="str">
-        <v>2,4</v>
+        <v>25,5</v>
       </c>
     </row>
     <row r="106">
@@ -3137,25 +3128,25 @@
         <v>02-08-2024</v>
       </c>
       <c r="B106" t="str">
-        <v>9-10</v>
+        <v>7-8</v>
       </c>
       <c r="C106" t="str">
-        <v>406,00</v>
+        <v>488,68</v>
       </c>
       <c r="D106" t="str">
-        <v>3062,2</v>
+        <v>2647,6</v>
       </c>
       <c r="E106" t="str">
-        <v>430,75</v>
+        <v>505,00</v>
       </c>
       <c r="F106" t="str">
-        <v>998,9</v>
+        <v>1317,3</v>
       </c>
       <c r="G106" t="str">
-        <v>-</v>
+        <v>488,68</v>
       </c>
       <c r="H106" t="str">
-        <v>0</v>
+        <v>14,7</v>
       </c>
     </row>
     <row r="107">
@@ -3163,25 +3154,25 @@
         <v>02-08-2024</v>
       </c>
       <c r="B107" t="str">
-        <v>10-11</v>
+        <v>8-9</v>
       </c>
       <c r="C107" t="str">
-        <v>388,80</v>
+        <v>524,27</v>
       </c>
       <c r="D107" t="str">
-        <v>3177,7</v>
+        <v>2835,2</v>
       </c>
       <c r="E107" t="str">
-        <v>390,11</v>
+        <v>533,73</v>
       </c>
       <c r="F107" t="str">
-        <v>829,8</v>
+        <v>894</v>
       </c>
       <c r="G107" t="str">
-        <v>-</v>
+        <v>524,27</v>
       </c>
       <c r="H107" t="str">
-        <v>0</v>
+        <v>2,4</v>
       </c>
     </row>
     <row r="108">
@@ -3189,25 +3180,25 @@
         <v>02-08-2024</v>
       </c>
       <c r="B108" t="str">
-        <v>11-12</v>
+        <v>9-10</v>
       </c>
       <c r="C108" t="str">
-        <v>377,76</v>
+        <v>406,00</v>
       </c>
       <c r="D108" t="str">
-        <v>3483,6</v>
+        <v>3062,2</v>
       </c>
       <c r="E108" t="str">
-        <v>388,26</v>
+        <v>430,75</v>
       </c>
       <c r="F108" t="str">
-        <v>747</v>
+        <v>998,9</v>
       </c>
       <c r="G108" t="str">
-        <v>375,00</v>
+        <v>-</v>
       </c>
       <c r="H108" t="str">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
@@ -3215,19 +3206,19 @@
         <v>02-08-2024</v>
       </c>
       <c r="B109" t="str">
-        <v>12-13</v>
+        <v>10-11</v>
       </c>
       <c r="C109" t="str">
-        <v>361,40</v>
+        <v>388,80</v>
       </c>
       <c r="D109" t="str">
-        <v>3870,2</v>
+        <v>3177,7</v>
       </c>
       <c r="E109" t="str">
-        <v>379,29</v>
+        <v>390,11</v>
       </c>
       <c r="F109" t="str">
-        <v>844,5</v>
+        <v>829,8</v>
       </c>
       <c r="G109" t="str">
         <v>-</v>
@@ -3241,25 +3232,25 @@
         <v>02-08-2024</v>
       </c>
       <c r="B110" t="str">
-        <v>13-14</v>
+        <v>11-12</v>
       </c>
       <c r="C110" t="str">
-        <v>326,70</v>
+        <v>377,76</v>
       </c>
       <c r="D110" t="str">
-        <v>3254,2</v>
+        <v>3483,6</v>
       </c>
       <c r="E110" t="str">
-        <v>301,05</v>
+        <v>388,26</v>
       </c>
       <c r="F110" t="str">
-        <v>991,1</v>
+        <v>747</v>
       </c>
       <c r="G110" t="str">
-        <v>-</v>
+        <v>375,00</v>
       </c>
       <c r="H110" t="str">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="111">
@@ -3267,25 +3258,25 @@
         <v>02-08-2024</v>
       </c>
       <c r="B111" t="str">
-        <v>14-15</v>
+        <v>12-13</v>
       </c>
       <c r="C111" t="str">
-        <v>300,00</v>
+        <v>361,40</v>
       </c>
       <c r="D111" t="str">
-        <v>3199,1</v>
+        <v>3870,2</v>
       </c>
       <c r="E111" t="str">
-        <v>290,79</v>
+        <v>379,29</v>
       </c>
       <c r="F111" t="str">
-        <v>895,5</v>
+        <v>844,5</v>
       </c>
       <c r="G111" t="str">
-        <v>297,00</v>
+        <v>-</v>
       </c>
       <c r="H111" t="str">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
@@ -3293,25 +3284,25 @@
         <v>02-08-2024</v>
       </c>
       <c r="B112" t="str">
-        <v>15-16</v>
+        <v>13-14</v>
       </c>
       <c r="C112" t="str">
-        <v>340,00</v>
+        <v>326,70</v>
       </c>
       <c r="D112" t="str">
-        <v>2942,2</v>
+        <v>3254,2</v>
       </c>
       <c r="E112" t="str">
-        <v>323,78</v>
+        <v>301,05</v>
       </c>
       <c r="F112" t="str">
-        <v>761,8</v>
+        <v>991,1</v>
       </c>
       <c r="G112" t="str">
-        <v>337,00</v>
+        <v>-</v>
       </c>
       <c r="H112" t="str">
-        <v>20,9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
@@ -3319,25 +3310,25 @@
         <v>02-08-2024</v>
       </c>
       <c r="B113" t="str">
-        <v>16-17</v>
+        <v>14-15</v>
       </c>
       <c r="C113" t="str">
-        <v>399,99</v>
+        <v>300,00</v>
       </c>
       <c r="D113" t="str">
-        <v>3062,5</v>
+        <v>3199,1</v>
       </c>
       <c r="E113" t="str">
-        <v>399,33</v>
+        <v>290,79</v>
       </c>
       <c r="F113" t="str">
-        <v>869,2</v>
+        <v>895,5</v>
       </c>
       <c r="G113" t="str">
-        <v>-</v>
+        <v>297,00</v>
       </c>
       <c r="H113" t="str">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="114">
@@ -3345,25 +3336,25 @@
         <v>02-08-2024</v>
       </c>
       <c r="B114" t="str">
-        <v>17-18</v>
+        <v>15-16</v>
       </c>
       <c r="C114" t="str">
-        <v>492,90</v>
+        <v>340,00</v>
       </c>
       <c r="D114" t="str">
-        <v>3179,4</v>
+        <v>2942,2</v>
       </c>
       <c r="E114" t="str">
-        <v>493,64</v>
+        <v>323,78</v>
       </c>
       <c r="F114" t="str">
-        <v>866,5</v>
+        <v>761,8</v>
       </c>
       <c r="G114" t="str">
-        <v>483,00</v>
+        <v>337,00</v>
       </c>
       <c r="H114" t="str">
-        <v>15</v>
+        <v>20,9</v>
       </c>
     </row>
     <row r="115">
@@ -3371,19 +3362,19 @@
         <v>02-08-2024</v>
       </c>
       <c r="B115" t="str">
-        <v>18-19</v>
+        <v>16-17</v>
       </c>
       <c r="C115" t="str">
-        <v>490,00</v>
+        <v>399,99</v>
       </c>
       <c r="D115" t="str">
-        <v>3529,5</v>
+        <v>3062,5</v>
       </c>
       <c r="E115" t="str">
-        <v>490,55</v>
+        <v>399,33</v>
       </c>
       <c r="F115" t="str">
-        <v>2271,5</v>
+        <v>869,2</v>
       </c>
       <c r="G115" t="str">
         <v>-</v>
@@ -3397,25 +3388,25 @@
         <v>02-08-2024</v>
       </c>
       <c r="B116" t="str">
-        <v>19-20</v>
+        <v>17-18</v>
       </c>
       <c r="C116" t="str">
-        <v>560,00</v>
+        <v>492,90</v>
       </c>
       <c r="D116" t="str">
-        <v>3985,3</v>
+        <v>3179,4</v>
       </c>
       <c r="E116" t="str">
-        <v>489,60</v>
+        <v>493,64</v>
       </c>
       <c r="F116" t="str">
-        <v>2538,9</v>
+        <v>866,5</v>
       </c>
       <c r="G116" t="str">
-        <v>559,60</v>
+        <v>483,00</v>
       </c>
       <c r="H116" t="str">
-        <v>55</v>
+        <v>15</v>
       </c>
     </row>
     <row r="117">
@@ -3423,25 +3414,25 @@
         <v>02-08-2024</v>
       </c>
       <c r="B117" t="str">
-        <v>20-21</v>
+        <v>18-19</v>
       </c>
       <c r="C117" t="str">
-        <v>600,00</v>
+        <v>490,00</v>
       </c>
       <c r="D117" t="str">
-        <v>4232</v>
+        <v>3529,5</v>
       </c>
       <c r="E117" t="str">
-        <v>548,54</v>
+        <v>490,55</v>
       </c>
       <c r="F117" t="str">
-        <v>2451,3</v>
+        <v>2271,5</v>
       </c>
       <c r="G117" t="str">
-        <v>589,14</v>
+        <v>-</v>
       </c>
       <c r="H117" t="str">
-        <v>35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
@@ -3449,25 +3440,25 @@
         <v>02-08-2024</v>
       </c>
       <c r="B118" t="str">
-        <v>21-22</v>
+        <v>19-20</v>
       </c>
       <c r="C118" t="str">
-        <v>586,61</v>
+        <v>560,00</v>
       </c>
       <c r="D118" t="str">
-        <v>4061,9</v>
+        <v>3985,3</v>
       </c>
       <c r="E118" t="str">
-        <v>520,53</v>
+        <v>489,60</v>
       </c>
       <c r="F118" t="str">
-        <v>2508,4</v>
+        <v>2538,9</v>
       </c>
       <c r="G118" t="str">
-        <v>568,67</v>
+        <v>559,60</v>
       </c>
       <c r="H118" t="str">
-        <v>15</v>
+        <v>55</v>
       </c>
     </row>
     <row r="119">
@@ -3475,25 +3466,25 @@
         <v>02-08-2024</v>
       </c>
       <c r="B119" t="str">
-        <v>22-23</v>
+        <v>20-21</v>
       </c>
       <c r="C119" t="str">
-        <v>514,80</v>
+        <v>600,00</v>
       </c>
       <c r="D119" t="str">
-        <v>3420,9</v>
+        <v>4232</v>
       </c>
       <c r="E119" t="str">
-        <v>481,00</v>
+        <v>548,54</v>
       </c>
       <c r="F119" t="str">
-        <v>2467,5</v>
+        <v>2451,3</v>
       </c>
       <c r="G119" t="str">
-        <v>-</v>
+        <v>589,14</v>
       </c>
       <c r="H119" t="str">
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="120">
@@ -3501,30 +3492,82 @@
         <v>02-08-2024</v>
       </c>
       <c r="B120" t="str">
+        <v>21-22</v>
+      </c>
+      <c r="C120" t="str">
+        <v>586,61</v>
+      </c>
+      <c r="D120" t="str">
+        <v>4061,9</v>
+      </c>
+      <c r="E120" t="str">
+        <v>520,53</v>
+      </c>
+      <c r="F120" t="str">
+        <v>2508,4</v>
+      </c>
+      <c r="G120" t="str">
+        <v>568,67</v>
+      </c>
+      <c r="H120" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <v>02-08-2024</v>
+      </c>
+      <c r="B121" t="str">
+        <v>22-23</v>
+      </c>
+      <c r="C121" t="str">
+        <v>514,80</v>
+      </c>
+      <c r="D121" t="str">
+        <v>3420,9</v>
+      </c>
+      <c r="E121" t="str">
+        <v>481,00</v>
+      </c>
+      <c r="F121" t="str">
+        <v>2467,5</v>
+      </c>
+      <c r="G121" t="str">
+        <v>-</v>
+      </c>
+      <c r="H121" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="str">
+        <v>02-08-2024</v>
+      </c>
+      <c r="B122" t="str">
         <v>23-24</v>
       </c>
-      <c r="C120" t="str">
+      <c r="C122" t="str">
         <v>441,87</v>
       </c>
-      <c r="D120" t="str">
+      <c r="D122" t="str">
         <v>2781,6</v>
       </c>
-      <c r="E120" t="str">
+      <c r="E122" t="str">
         <v>420,40</v>
       </c>
-      <c r="F120" t="str">
+      <c r="F122" t="str">
         <v>2133,2</v>
       </c>
-      <c r="G120" t="str">
-        <v>-</v>
-      </c>
-      <c r="H120" t="str">
+      <c r="G122" t="str">
+        <v>-</v>
+      </c>
+      <c r="H122" t="str">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H120"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H122"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/tabela.xlsx
+++ b/tabela.xlsx
@@ -406,7 +406,9 @@
     <col min="2" max="2" width="5.83203125" customWidth="1"/>
     <col min="3" max="3" width="14.83203125" customWidth="1"/>
     <col min="4" max="4" width="13.83203125" customWidth="1"/>
-    <col min="5" max="5" width="16.83203125" customWidth="1"/>
+    <col min="5" max="5" width="14.83203125" customWidth="1"/>
+    <col min="6" max="6" width="13.83203125" customWidth="1"/>
+    <col min="7" max="7" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -420,9 +422,15 @@
         <v>FIXING I</v>
       </c>
       <c r="D1" t="str">
+        <v/>
+      </c>
+      <c r="E1" t="str">
         <v>FIXING II</v>
       </c>
-      <c r="E1" t="str">
+      <c r="F1" t="str">
+        <v/>
+      </c>
+      <c r="G1" t="str">
         <v>Notowania ciągłe</v>
       </c>
     </row>

--- a/tabela.xlsx
+++ b/tabela.xlsx
@@ -409,6 +409,7 @@
     <col min="5" max="5" width="14.83203125" customWidth="1"/>
     <col min="6" max="6" width="13.83203125" customWidth="1"/>
     <col min="7" max="7" width="16.83203125" customWidth="1"/>
+    <col min="8" max="8" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -432,6 +433,9 @@
       </c>
       <c r="G1" t="str">
         <v>Notowania ciągłe</v>
+      </c>
+      <c r="H1" t="str">
+        <v/>
       </c>
     </row>
     <row r="2">

--- a/tabela.xlsx
+++ b/tabela.xlsx
@@ -402,19 +402,19 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <cols>
-    <col min="1" max="1" width="10.83203125" customWidth="1"/>
-    <col min="2" max="2" width="5.83203125" customWidth="1"/>
-    <col min="3" max="3" width="14.83203125" customWidth="1"/>
-    <col min="4" max="4" width="13.83203125" customWidth="1"/>
-    <col min="5" max="5" width="14.83203125" customWidth="1"/>
-    <col min="6" max="6" width="13.83203125" customWidth="1"/>
+    <col min="1" max="1" width="12.83203125" customWidth="1"/>
+    <col min="2" max="2" width="7.83203125" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" customWidth="1"/>
+    <col min="4" max="4" width="16.83203125" customWidth="1"/>
+    <col min="5" max="5" width="16.83203125" customWidth="1"/>
+    <col min="6" max="6" width="16.83203125" customWidth="1"/>
     <col min="7" max="7" width="16.83203125" customWidth="1"/>
-    <col min="8" max="8" width="13.83203125" customWidth="1"/>
+    <col min="8" max="8" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>01-08-2024</v>
+        <v/>
       </c>
       <c r="B1" t="str">
         <v/>
@@ -440,7 +440,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>01-08-2024</v>
+        <v/>
       </c>
       <c r="B2" t="str">
         <v>Czas</v>

--- a/tabela.xlsx
+++ b/tabela.xlsx
@@ -397,13 +397,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M26"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <cols>
     <col min="1" max="1" width="12.83203125" customWidth="1"/>
-    <col min="2" max="2" width="7.83203125" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" customWidth="1"/>
     <col min="3" max="3" width="16.83203125" customWidth="1"/>
     <col min="4" max="4" width="16.83203125" customWidth="1"/>
     <col min="5" max="5" width="16.83203125" customWidth="1"/>
@@ -414,1013 +414,622 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>28-07-2024</v>
+        <v/>
       </c>
       <c r="B1" t="str">
+        <v>Kurs (PLN/MWh)</v>
+      </c>
+      <c r="C1" t="str">
         <v/>
       </c>
-      <c r="C1" t="str">
-        <v>FIXING I</v>
-      </c>
       <c r="D1" t="str">
-        <v>29-07-2024</v>
+        <v/>
       </c>
       <c r="E1" t="str">
-        <v>433,00</v>
+        <v/>
       </c>
       <c r="F1" t="str">
-        <v>30-07-2024</v>
-      </c>
-      <c r="G1" t="str">
-        <v>473,14</v>
-      </c>
-      <c r="H1" t="str">
-        <v>31-07-2024</v>
-      </c>
-      <c r="I1" t="str">
-        <v>450,00</v>
-      </c>
-      <c r="J1" t="str">
-        <v>01-08-2024</v>
-      </c>
-      <c r="K1" t="str">
-        <v>465,00</v>
-      </c>
-      <c r="L1" t="str">
-        <v>02-08-2024</v>
-      </c>
-      <c r="M1" t="str">
-        <v>490,00</v>
+        <v/>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>28-07-2024</v>
+        <v/>
       </c>
       <c r="B2" t="str">
-        <v>Czas</v>
+        <v>FIXING I</v>
       </c>
       <c r="C2" t="str">
-        <v>Kurs (PLN/MWh)</v>
+        <v/>
       </c>
       <c r="D2" t="str">
-        <v>29-07-2024</v>
+        <v/>
       </c>
       <c r="E2" t="str">
-        <v>380,00</v>
+        <v/>
       </c>
       <c r="F2" t="str">
-        <v>30-07-2024</v>
-      </c>
-      <c r="G2" t="str">
-        <v>418,00</v>
-      </c>
-      <c r="H2" t="str">
-        <v>31-07-2024</v>
-      </c>
-      <c r="I2" t="str">
-        <v>400,00</v>
-      </c>
-      <c r="J2" t="str">
-        <v>01-08-2024</v>
-      </c>
-      <c r="K2" t="str">
-        <v>400,00</v>
-      </c>
-      <c r="L2" t="str">
-        <v>02-08-2024</v>
-      </c>
-      <c r="M2" t="str">
-        <v>450,00</v>
+        <v/>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
+        <v/>
+      </c>
+      <c r="B3" t="str">
         <v>28-07-2024</v>
       </c>
-      <c r="B3" t="str">
-        <v>0-1</v>
-      </c>
       <c r="C3" t="str">
-        <v>317,99</v>
+        <v>29-07-2024</v>
       </c>
       <c r="D3" t="str">
-        <v>29-07-2024</v>
+        <v>30-07-2024</v>
       </c>
       <c r="E3" t="str">
-        <v>389,50</v>
+        <v>31-07-2024</v>
       </c>
       <c r="F3" t="str">
-        <v>30-07-2024</v>
+        <v>01-08-2024</v>
       </c>
       <c r="G3" t="str">
-        <v>406,26</v>
-      </c>
-      <c r="H3" t="str">
-        <v>31-07-2024</v>
-      </c>
-      <c r="I3" t="str">
-        <v>390,00</v>
-      </c>
-      <c r="J3" t="str">
-        <v>01-08-2024</v>
-      </c>
-      <c r="K3" t="str">
-        <v>392,00</v>
-      </c>
-      <c r="L3" t="str">
         <v>02-08-2024</v>
-      </c>
-      <c r="M3" t="str">
-        <v>424,41</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>28-07-2024</v>
+        <v>0-1</v>
       </c>
       <c r="B4" t="str">
-        <v>1-2</v>
+        <v>317,99</v>
       </c>
       <c r="C4" t="str">
-        <v>280,00</v>
+        <v>433,00</v>
       </c>
       <c r="D4" t="str">
-        <v>29-07-2024</v>
+        <v>473,14</v>
       </c>
       <c r="E4" t="str">
-        <v>376,00</v>
+        <v>450,00</v>
       </c>
       <c r="F4" t="str">
-        <v>30-07-2024</v>
+        <v>465,00</v>
       </c>
       <c r="G4" t="str">
-        <v>407,00</v>
-      </c>
-      <c r="H4" t="str">
-        <v>31-07-2024</v>
-      </c>
-      <c r="I4" t="str">
-        <v>390,00</v>
-      </c>
-      <c r="J4" t="str">
-        <v>01-08-2024</v>
-      </c>
-      <c r="K4" t="str">
-        <v>388,00</v>
-      </c>
-      <c r="L4" t="str">
-        <v>02-08-2024</v>
-      </c>
-      <c r="M4" t="str">
-        <v>436,90</v>
+        <v>490,00</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>28-07-2024</v>
+        <v>1-2</v>
       </c>
       <c r="B5" t="str">
-        <v>2-3</v>
+        <v>280,00</v>
       </c>
       <c r="C5" t="str">
-        <v>251,00</v>
+        <v>380,00</v>
       </c>
       <c r="D5" t="str">
-        <v>29-07-2024</v>
+        <v>418,00</v>
       </c>
       <c r="E5" t="str">
-        <v>381,08</v>
+        <v>400,00</v>
       </c>
       <c r="F5" t="str">
-        <v>30-07-2024</v>
+        <v>400,00</v>
       </c>
       <c r="G5" t="str">
-        <v>408,00</v>
-      </c>
-      <c r="H5" t="str">
-        <v>31-07-2024</v>
-      </c>
-      <c r="I5" t="str">
-        <v>397,20</v>
-      </c>
-      <c r="J5" t="str">
-        <v>01-08-2024</v>
-      </c>
-      <c r="K5" t="str">
-        <v>390,00</v>
-      </c>
-      <c r="L5" t="str">
-        <v>02-08-2024</v>
-      </c>
-      <c r="M5" t="str">
-        <v>428,00</v>
+        <v>450,00</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>28-07-2024</v>
+        <v>2-3</v>
       </c>
       <c r="B6" t="str">
-        <v>3-4</v>
+        <v>251,00</v>
       </c>
       <c r="C6" t="str">
-        <v>250,00</v>
+        <v>389,50</v>
       </c>
       <c r="D6" t="str">
-        <v>29-07-2024</v>
+        <v>406,26</v>
       </c>
       <c r="E6" t="str">
-        <v>393,55</v>
+        <v>390,00</v>
       </c>
       <c r="F6" t="str">
-        <v>30-07-2024</v>
+        <v>392,00</v>
       </c>
       <c r="G6" t="str">
-        <v>443,55</v>
-      </c>
-      <c r="H6" t="str">
-        <v>31-07-2024</v>
-      </c>
-      <c r="I6" t="str">
-        <v>437,00</v>
-      </c>
-      <c r="J6" t="str">
-        <v>01-08-2024</v>
-      </c>
-      <c r="K6" t="str">
-        <v>431,28</v>
-      </c>
-      <c r="L6" t="str">
-        <v>02-08-2024</v>
-      </c>
-      <c r="M6" t="str">
-        <v>447,91</v>
+        <v>424,41</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>28-07-2024</v>
+        <v>3-4</v>
       </c>
       <c r="B7" t="str">
-        <v>4-5</v>
+        <v>250,00</v>
       </c>
       <c r="C7" t="str">
-        <v>272,00</v>
+        <v>376,00</v>
       </c>
       <c r="D7" t="str">
-        <v>29-07-2024</v>
+        <v>407,00</v>
       </c>
       <c r="E7" t="str">
-        <v>509,11</v>
+        <v>390,00</v>
       </c>
       <c r="F7" t="str">
-        <v>30-07-2024</v>
+        <v>388,00</v>
       </c>
       <c r="G7" t="str">
-        <v>550,00</v>
-      </c>
-      <c r="H7" t="str">
-        <v>31-07-2024</v>
-      </c>
-      <c r="I7" t="str">
-        <v>530,00</v>
-      </c>
-      <c r="J7" t="str">
-        <v>01-08-2024</v>
-      </c>
-      <c r="K7" t="str">
-        <v>542,00</v>
-      </c>
-      <c r="L7" t="str">
-        <v>02-08-2024</v>
-      </c>
-      <c r="M7" t="str">
-        <v>480,00</v>
+        <v>436,90</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>28-07-2024</v>
+        <v>4-5</v>
       </c>
       <c r="B8" t="str">
-        <v>5-6</v>
+        <v>272,00</v>
       </c>
       <c r="C8" t="str">
-        <v>298,00</v>
+        <v>381,08</v>
       </c>
       <c r="D8" t="str">
-        <v>29-07-2024</v>
+        <v>408,00</v>
       </c>
       <c r="E8" t="str">
-        <v>506,40</v>
+        <v>397,20</v>
       </c>
       <c r="F8" t="str">
-        <v>30-07-2024</v>
+        <v>390,00</v>
       </c>
       <c r="G8" t="str">
-        <v>530,00</v>
-      </c>
-      <c r="H8" t="str">
-        <v>31-07-2024</v>
-      </c>
-      <c r="I8" t="str">
-        <v>520,00</v>
-      </c>
-      <c r="J8" t="str">
-        <v>01-08-2024</v>
-      </c>
-      <c r="K8" t="str">
-        <v>540,00</v>
-      </c>
-      <c r="L8" t="str">
-        <v>02-08-2024</v>
-      </c>
-      <c r="M8" t="str">
-        <v>488,68</v>
+        <v>428,00</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>28-07-2024</v>
+        <v>5-6</v>
       </c>
       <c r="B9" t="str">
-        <v>6-7</v>
+        <v>298,00</v>
       </c>
       <c r="C9" t="str">
-        <v>406,00</v>
+        <v>393,55</v>
       </c>
       <c r="D9" t="str">
-        <v>29-07-2024</v>
+        <v>443,55</v>
       </c>
       <c r="E9" t="str">
-        <v>416,30</v>
+        <v>437,00</v>
       </c>
       <c r="F9" t="str">
-        <v>30-07-2024</v>
+        <v>431,28</v>
       </c>
       <c r="G9" t="str">
-        <v>420,00</v>
-      </c>
-      <c r="H9" t="str">
-        <v>31-07-2024</v>
-      </c>
-      <c r="I9" t="str">
-        <v>432,41</v>
-      </c>
-      <c r="J9" t="str">
-        <v>01-08-2024</v>
-      </c>
-      <c r="K9" t="str">
-        <v>488,50</v>
-      </c>
-      <c r="L9" t="str">
-        <v>02-08-2024</v>
-      </c>
-      <c r="M9" t="str">
-        <v>524,27</v>
+        <v>447,91</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>28-07-2024</v>
+        <v>6-7</v>
       </c>
       <c r="B10" t="str">
-        <v>7-8</v>
+        <v>406,00</v>
       </c>
       <c r="C10" t="str">
-        <v>378,00</v>
+        <v>509,11</v>
       </c>
       <c r="D10" t="str">
-        <v>29-07-2024</v>
+        <v>550,00</v>
       </c>
       <c r="E10" t="str">
-        <v>283,99</v>
+        <v>530,00</v>
       </c>
       <c r="F10" t="str">
-        <v>30-07-2024</v>
+        <v>542,00</v>
       </c>
       <c r="G10" t="str">
-        <v>303,99</v>
-      </c>
-      <c r="H10" t="str">
-        <v>31-07-2024</v>
-      </c>
-      <c r="I10" t="str">
-        <v>355,57</v>
-      </c>
-      <c r="J10" t="str">
-        <v>01-08-2024</v>
-      </c>
-      <c r="K10" t="str">
-        <v>450,00</v>
-      </c>
-      <c r="L10" t="str">
-        <v>02-08-2024</v>
-      </c>
-      <c r="M10" t="str">
-        <v>406,00</v>
+        <v>480,00</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>28-07-2024</v>
+        <v>7-8</v>
       </c>
       <c r="B11" t="str">
-        <v>8-9</v>
+        <v>378,00</v>
       </c>
       <c r="C11" t="str">
-        <v>299,00</v>
+        <v>506,40</v>
       </c>
       <c r="D11" t="str">
-        <v>29-07-2024</v>
+        <v>530,00</v>
       </c>
       <c r="E11" t="str">
-        <v>180,11</v>
+        <v>520,00</v>
       </c>
       <c r="F11" t="str">
-        <v>30-07-2024</v>
+        <v>540,00</v>
       </c>
       <c r="G11" t="str">
-        <v>198,12</v>
-      </c>
-      <c r="H11" t="str">
-        <v>31-07-2024</v>
-      </c>
-      <c r="I11" t="str">
-        <v>288,00</v>
-      </c>
-      <c r="J11" t="str">
-        <v>01-08-2024</v>
-      </c>
-      <c r="K11" t="str">
-        <v>404,00</v>
-      </c>
-      <c r="L11" t="str">
-        <v>02-08-2024</v>
-      </c>
-      <c r="M11" t="str">
-        <v>388,80</v>
+        <v>488,68</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>28-07-2024</v>
+        <v>8-9</v>
       </c>
       <c r="B12" t="str">
-        <v>9-10</v>
+        <v>299,00</v>
       </c>
       <c r="C12" t="str">
-        <v>137,99</v>
+        <v>416,30</v>
       </c>
       <c r="D12" t="str">
-        <v>29-07-2024</v>
+        <v>420,00</v>
       </c>
       <c r="E12" t="str">
-        <v>90,11</v>
+        <v>432,41</v>
       </c>
       <c r="F12" t="str">
-        <v>30-07-2024</v>
+        <v>488,50</v>
       </c>
       <c r="G12" t="str">
-        <v>105,95</v>
-      </c>
-      <c r="H12" t="str">
-        <v>31-07-2024</v>
-      </c>
-      <c r="I12" t="str">
-        <v>263,40</v>
-      </c>
-      <c r="J12" t="str">
-        <v>01-08-2024</v>
-      </c>
-      <c r="K12" t="str">
-        <v>390,34</v>
-      </c>
-      <c r="L12" t="str">
-        <v>02-08-2024</v>
-      </c>
-      <c r="M12" t="str">
-        <v>377,76</v>
+        <v>524,27</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>28-07-2024</v>
+        <v>9-10</v>
       </c>
       <c r="B13" t="str">
-        <v>10-11</v>
+        <v>137,99</v>
       </c>
       <c r="C13" t="str">
-        <v>0,00</v>
+        <v>283,99</v>
       </c>
       <c r="D13" t="str">
-        <v>29-07-2024</v>
+        <v>303,99</v>
       </c>
       <c r="E13" t="str">
-        <v>30,00</v>
+        <v>355,57</v>
       </c>
       <c r="F13" t="str">
-        <v>30-07-2024</v>
+        <v>450,00</v>
       </c>
       <c r="G13" t="str">
-        <v>70,00</v>
-      </c>
-      <c r="H13" t="str">
-        <v>31-07-2024</v>
-      </c>
-      <c r="I13" t="str">
-        <v>235,90</v>
-      </c>
-      <c r="J13" t="str">
-        <v>01-08-2024</v>
-      </c>
-      <c r="K13" t="str">
-        <v>387,59</v>
-      </c>
-      <c r="L13" t="str">
-        <v>02-08-2024</v>
-      </c>
-      <c r="M13" t="str">
-        <v>361,40</v>
+        <v>406,00</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>28-07-2024</v>
+        <v>10-11</v>
       </c>
       <c r="B14" t="str">
-        <v>11-12</v>
+        <v>0,00</v>
       </c>
       <c r="C14" t="str">
-        <v>-31,00</v>
+        <v>180,11</v>
       </c>
       <c r="D14" t="str">
-        <v>29-07-2024</v>
+        <v>198,12</v>
       </c>
       <c r="E14" t="str">
-        <v>10,11</v>
+        <v>288,00</v>
       </c>
       <c r="F14" t="str">
-        <v>30-07-2024</v>
+        <v>404,00</v>
       </c>
       <c r="G14" t="str">
-        <v>70,00</v>
-      </c>
-      <c r="H14" t="str">
-        <v>31-07-2024</v>
-      </c>
-      <c r="I14" t="str">
-        <v>241,99</v>
-      </c>
-      <c r="J14" t="str">
-        <v>01-08-2024</v>
-      </c>
-      <c r="K14" t="str">
-        <v>394,00</v>
-      </c>
-      <c r="L14" t="str">
-        <v>02-08-2024</v>
-      </c>
-      <c r="M14" t="str">
-        <v>326,70</v>
+        <v>388,80</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>28-07-2024</v>
+        <v>11-12</v>
       </c>
       <c r="B15" t="str">
-        <v>12-13</v>
+        <v>-31,00</v>
       </c>
       <c r="C15" t="str">
-        <v>-55,00</v>
+        <v>90,11</v>
       </c>
       <c r="D15" t="str">
-        <v>29-07-2024</v>
+        <v>105,95</v>
       </c>
       <c r="E15" t="str">
-        <v>21,40</v>
+        <v>263,40</v>
       </c>
       <c r="F15" t="str">
-        <v>30-07-2024</v>
+        <v>390,34</v>
       </c>
       <c r="G15" t="str">
-        <v>100,00</v>
-      </c>
-      <c r="H15" t="str">
-        <v>31-07-2024</v>
-      </c>
-      <c r="I15" t="str">
-        <v>233,99</v>
-      </c>
-      <c r="J15" t="str">
-        <v>01-08-2024</v>
-      </c>
-      <c r="K15" t="str">
-        <v>406,00</v>
-      </c>
-      <c r="L15" t="str">
-        <v>02-08-2024</v>
-      </c>
-      <c r="M15" t="str">
-        <v>300,00</v>
+        <v>377,76</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>28-07-2024</v>
+        <v>12-13</v>
       </c>
       <c r="B16" t="str">
-        <v>13-14</v>
+        <v>-55,00</v>
       </c>
       <c r="C16" t="str">
-        <v>-54,01</v>
+        <v>30,00</v>
       </c>
       <c r="D16" t="str">
-        <v>29-07-2024</v>
+        <v>70,00</v>
       </c>
       <c r="E16" t="str">
-        <v>165,00</v>
+        <v>235,90</v>
       </c>
       <c r="F16" t="str">
-        <v>30-07-2024</v>
+        <v>387,59</v>
       </c>
       <c r="G16" t="str">
-        <v>239,99</v>
-      </c>
-      <c r="H16" t="str">
-        <v>31-07-2024</v>
-      </c>
-      <c r="I16" t="str">
-        <v>295,67</v>
-      </c>
-      <c r="J16" t="str">
-        <v>01-08-2024</v>
-      </c>
-      <c r="K16" t="str">
-        <v>482,86</v>
-      </c>
-      <c r="L16" t="str">
-        <v>02-08-2024</v>
-      </c>
-      <c r="M16" t="str">
-        <v>340,00</v>
+        <v>361,40</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>28-07-2024</v>
+        <v>13-14</v>
       </c>
       <c r="B17" t="str">
-        <v>14-15</v>
+        <v>-54,01</v>
       </c>
       <c r="C17" t="str">
-        <v>-30,01</v>
+        <v>10,11</v>
       </c>
       <c r="D17" t="str">
-        <v>29-07-2024</v>
+        <v>70,00</v>
       </c>
       <c r="E17" t="str">
-        <v>315,99</v>
+        <v>241,99</v>
       </c>
       <c r="F17" t="str">
-        <v>30-07-2024</v>
+        <v>394,00</v>
       </c>
       <c r="G17" t="str">
-        <v>370,60</v>
-      </c>
-      <c r="H17" t="str">
-        <v>31-07-2024</v>
-      </c>
-      <c r="I17" t="str">
-        <v>385,69</v>
-      </c>
-      <c r="J17" t="str">
-        <v>01-08-2024</v>
-      </c>
-      <c r="K17" t="str">
-        <v>482,86</v>
-      </c>
-      <c r="L17" t="str">
-        <v>02-08-2024</v>
-      </c>
-      <c r="M17" t="str">
-        <v>399,99</v>
+        <v>326,70</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>28-07-2024</v>
+        <v>14-15</v>
       </c>
       <c r="B18" t="str">
-        <v>15-16</v>
+        <v>-30,01</v>
       </c>
       <c r="C18" t="str">
-        <v>0,01</v>
+        <v>21,40</v>
       </c>
       <c r="D18" t="str">
-        <v>29-07-2024</v>
+        <v>100,00</v>
       </c>
       <c r="E18" t="str">
-        <v>380,60</v>
+        <v>233,99</v>
       </c>
       <c r="F18" t="str">
-        <v>30-07-2024</v>
+        <v>406,00</v>
       </c>
       <c r="G18" t="str">
-        <v>379,00</v>
-      </c>
-      <c r="H18" t="str">
-        <v>31-07-2024</v>
-      </c>
-      <c r="I18" t="str">
-        <v>444,97</v>
-      </c>
-      <c r="J18" t="str">
-        <v>01-08-2024</v>
-      </c>
-      <c r="K18" t="str">
-        <v>469,00</v>
-      </c>
-      <c r="L18" t="str">
-        <v>02-08-2024</v>
-      </c>
-      <c r="M18" t="str">
-        <v>492,90</v>
+        <v>300,00</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>28-07-2024</v>
+        <v>15-16</v>
       </c>
       <c r="B19" t="str">
-        <v>16-17</v>
+        <v>0,01</v>
       </c>
       <c r="C19" t="str">
-        <v>90,00</v>
+        <v>165,00</v>
       </c>
       <c r="D19" t="str">
-        <v>29-07-2024</v>
+        <v>239,99</v>
       </c>
       <c r="E19" t="str">
-        <v>481,00</v>
+        <v>295,67</v>
       </c>
       <c r="F19" t="str">
-        <v>30-07-2024</v>
+        <v>482,86</v>
       </c>
       <c r="G19" t="str">
-        <v>499,40</v>
-      </c>
-      <c r="H19" t="str">
-        <v>31-07-2024</v>
-      </c>
-      <c r="I19" t="str">
-        <v>503,60</v>
-      </c>
-      <c r="J19" t="str">
-        <v>01-08-2024</v>
-      </c>
-      <c r="K19" t="str">
-        <v>549,00</v>
-      </c>
-      <c r="L19" t="str">
-        <v>02-08-2024</v>
-      </c>
-      <c r="M19" t="str">
-        <v>490,00</v>
+        <v>340,00</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>28-07-2024</v>
+        <v>16-17</v>
       </c>
       <c r="B20" t="str">
-        <v>17-18</v>
+        <v>90,00</v>
       </c>
       <c r="C20" t="str">
-        <v>281,99</v>
+        <v>315,99</v>
       </c>
       <c r="D20" t="str">
-        <v>29-07-2024</v>
+        <v>370,60</v>
       </c>
       <c r="E20" t="str">
-        <v>682,00</v>
+        <v>385,69</v>
       </c>
       <c r="F20" t="str">
-        <v>30-07-2024</v>
+        <v>482,86</v>
       </c>
       <c r="G20" t="str">
-        <v>632,00</v>
-      </c>
-      <c r="H20" t="str">
-        <v>31-07-2024</v>
-      </c>
-      <c r="I20" t="str">
-        <v>612,00</v>
-      </c>
-      <c r="J20" t="str">
-        <v>01-08-2024</v>
-      </c>
-      <c r="K20" t="str">
-        <v>600,00</v>
-      </c>
-      <c r="L20" t="str">
-        <v>02-08-2024</v>
-      </c>
-      <c r="M20" t="str">
-        <v>560,00</v>
+        <v>399,99</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>28-07-2024</v>
+        <v>17-18</v>
       </c>
       <c r="B21" t="str">
-        <v>18-19</v>
+        <v>281,99</v>
       </c>
       <c r="C21" t="str">
-        <v>380,00</v>
+        <v>380,60</v>
       </c>
       <c r="D21" t="str">
-        <v>29-07-2024</v>
+        <v>379,00</v>
       </c>
       <c r="E21" t="str">
-        <v>853,40</v>
+        <v>444,97</v>
       </c>
       <c r="F21" t="str">
-        <v>30-07-2024</v>
+        <v>469,00</v>
       </c>
       <c r="G21" t="str">
-        <v>825,00</v>
-      </c>
-      <c r="H21" t="str">
-        <v>31-07-2024</v>
-      </c>
-      <c r="I21" t="str">
-        <v>738,99</v>
-      </c>
-      <c r="J21" t="str">
-        <v>01-08-2024</v>
-      </c>
-      <c r="K21" t="str">
-        <v>670,00</v>
-      </c>
-      <c r="L21" t="str">
-        <v>02-08-2024</v>
-      </c>
-      <c r="M21" t="str">
-        <v>600,00</v>
+        <v>492,90</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>28-07-2024</v>
+        <v>18-19</v>
       </c>
       <c r="B22" t="str">
-        <v>19-20</v>
+        <v>380,00</v>
       </c>
       <c r="C22" t="str">
-        <v>558,00</v>
+        <v>481,00</v>
       </c>
       <c r="D22" t="str">
-        <v>29-07-2024</v>
+        <v>499,40</v>
       </c>
       <c r="E22" t="str">
-        <v>720,00</v>
+        <v>503,60</v>
       </c>
       <c r="F22" t="str">
-        <v>30-07-2024</v>
+        <v>549,00</v>
       </c>
       <c r="G22" t="str">
-        <v>634,00</v>
-      </c>
-      <c r="H22" t="str">
-        <v>31-07-2024</v>
-      </c>
-      <c r="I22" t="str">
-        <v>585,00</v>
-      </c>
-      <c r="J22" t="str">
-        <v>01-08-2024</v>
-      </c>
-      <c r="K22" t="str">
-        <v>553,90</v>
-      </c>
-      <c r="L22" t="str">
-        <v>02-08-2024</v>
-      </c>
-      <c r="M22" t="str">
-        <v>586,61</v>
+        <v>490,00</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>28-07-2024</v>
+        <v>19-20</v>
       </c>
       <c r="B23" t="str">
-        <v>20-21</v>
+        <v>558,00</v>
       </c>
       <c r="C23" t="str">
-        <v>680,00</v>
+        <v>682,00</v>
       </c>
       <c r="D23" t="str">
-        <v>29-07-2024</v>
+        <v>632,00</v>
       </c>
       <c r="E23" t="str">
-        <v>549,00</v>
+        <v>612,00</v>
       </c>
       <c r="F23" t="str">
-        <v>30-07-2024</v>
+        <v>600,00</v>
       </c>
       <c r="G23" t="str">
-        <v>520,00</v>
-      </c>
-      <c r="H23" t="str">
-        <v>31-07-2024</v>
-      </c>
-      <c r="I23" t="str">
-        <v>537,00</v>
-      </c>
-      <c r="J23" t="str">
-        <v>01-08-2024</v>
-      </c>
-      <c r="K23" t="str">
-        <v>513,70</v>
-      </c>
-      <c r="L23" t="str">
-        <v>02-08-2024</v>
-      </c>
-      <c r="M23" t="str">
-        <v>514,80</v>
+        <v>560,00</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>28-07-2024</v>
+        <v>20-21</v>
       </c>
       <c r="B24" t="str">
-        <v>21-22</v>
+        <v>680,00</v>
       </c>
       <c r="C24" t="str">
-        <v>625,00</v>
+        <v>853,40</v>
       </c>
       <c r="D24" t="str">
-        <v>29-07-2024</v>
+        <v>825,00</v>
       </c>
       <c r="E24" t="str">
-        <v>458,00</v>
+        <v>738,99</v>
       </c>
       <c r="F24" t="str">
-        <v>30-07-2024</v>
+        <v>670,00</v>
       </c>
       <c r="G24" t="str">
-        <v>443,80</v>
-      </c>
-      <c r="H24" t="str">
-        <v>31-07-2024</v>
-      </c>
-      <c r="I24" t="str">
-        <v>450,00</v>
-      </c>
-      <c r="J24" t="str">
-        <v>01-08-2024</v>
-      </c>
-      <c r="K24" t="str">
-        <v>449,00</v>
-      </c>
-      <c r="L24" t="str">
-        <v>02-08-2024</v>
-      </c>
-      <c r="M24" t="str">
-        <v>441,87</v>
+        <v>600,00</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>28-07-2024</v>
+        <v>21-22</v>
       </c>
       <c r="B25" t="str">
-        <v>22-23</v>
+        <v>625,00</v>
       </c>
       <c r="C25" t="str">
-        <v>496,00</v>
+        <v>720,00</v>
+      </c>
+      <c r="D25" t="str">
+        <v>634,00</v>
+      </c>
+      <c r="E25" t="str">
+        <v>585,00</v>
+      </c>
+      <c r="F25" t="str">
+        <v>553,90</v>
+      </c>
+      <c r="G25" t="str">
+        <v>586,61</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>28-07-2024</v>
+        <v>22-23</v>
       </c>
       <c r="B26" t="str">
+        <v>496,00</v>
+      </c>
+      <c r="C26" t="str">
+        <v>549,00</v>
+      </c>
+      <c r="D26" t="str">
+        <v>520,00</v>
+      </c>
+      <c r="E26" t="str">
+        <v>537,00</v>
+      </c>
+      <c r="F26" t="str">
+        <v>513,70</v>
+      </c>
+      <c r="G26" t="str">
+        <v>514,80</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
         <v>23-24</v>
       </c>
-      <c r="C26" t="str">
+      <c r="B27" t="str">
         <v>428,90</v>
+      </c>
+      <c r="C27" t="str">
+        <v>458,00</v>
+      </c>
+      <c r="D27" t="str">
+        <v>443,80</v>
+      </c>
+      <c r="E27" t="str">
+        <v>450,00</v>
+      </c>
+      <c r="F27" t="str">
+        <v>449,00</v>
+      </c>
+      <c r="G27" t="str">
+        <v>441,87</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:M26"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G27"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/tabela.xlsx
+++ b/tabela.xlsx
@@ -1,58 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr codeName="ThisWorkbook"/>
+  <workbookPr date1904="false"/>
   <sheets>
     <sheet name="Całość" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <b/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill patternType="none">
+        <bgColor/>
+      </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <bgColor/>
+      </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -61,13 +54,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="1" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -399,637 +395,634 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <cols>
-    <col min="1" max="1" width="12.83203125" customWidth="1"/>
-    <col min="2" max="2" width="16.83203125" customWidth="1"/>
-    <col min="3" max="3" width="16.83203125" customWidth="1"/>
-    <col min="4" max="4" width="16.83203125" customWidth="1"/>
-    <col min="5" max="5" width="16.83203125" customWidth="1"/>
-    <col min="6" max="6" width="16.83203125" customWidth="1"/>
-    <col min="7" max="7" width="16.83203125" customWidth="1"/>
-    <col min="8" max="8" width="16.83203125" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="str">
+      <c r="A1" s="2" t="str">
         <v/>
       </c>
-      <c r="B1" t="str">
+      <c r="B1" s="3" t="str">
         <v>Kurs (PLN/MWh)</v>
       </c>
-      <c r="C1" t="str">
+      <c r="C1" s="2" t="str">
         <v/>
       </c>
-      <c r="D1" t="str">
+      <c r="D1" s="2" t="str">
         <v/>
       </c>
-      <c r="E1" t="str">
+      <c r="E1" s="2" t="str">
         <v/>
       </c>
-      <c r="F1" t="str">
+      <c r="F1" s="2" t="str">
         <v/>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="str">
+      <c r="A2" s="2" t="str">
         <v/>
       </c>
-      <c r="B2" t="str">
+      <c r="B2" s="3" t="str">
         <v>FIXING I</v>
       </c>
-      <c r="C2" t="str">
+      <c r="C2" s="2" t="str">
         <v/>
       </c>
-      <c r="D2" t="str">
+      <c r="D2" s="2" t="str">
         <v/>
       </c>
-      <c r="E2" t="str">
+      <c r="E2" s="2" t="str">
         <v/>
       </c>
-      <c r="F2" t="str">
+      <c r="F2" s="2" t="str">
         <v/>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="str">
+      <c r="A3" s="2" t="str">
         <v/>
       </c>
-      <c r="B3" t="str">
+      <c r="B3" s="2" t="str">
         <v>28-07-2024</v>
       </c>
-      <c r="C3" t="str">
+      <c r="C3" s="2" t="str">
         <v>29-07-2024</v>
       </c>
-      <c r="D3" t="str">
+      <c r="D3" s="2" t="str">
         <v>30-07-2024</v>
       </c>
-      <c r="E3" t="str">
+      <c r="E3" s="2" t="str">
         <v>31-07-2024</v>
       </c>
-      <c r="F3" t="str">
+      <c r="F3" s="2" t="str">
         <v>01-08-2024</v>
       </c>
-      <c r="G3" t="str">
+      <c r="G3" s="2" t="str">
         <v>02-08-2024</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="str">
+      <c r="A4" s="2" t="str">
         <v>0-1</v>
       </c>
-      <c r="B4" t="str">
+      <c r="B4" s="2" t="str">
         <v>317,99</v>
       </c>
-      <c r="C4" t="str">
+      <c r="C4" s="2" t="str">
         <v>433,00</v>
       </c>
-      <c r="D4" t="str">
+      <c r="D4" s="2" t="str">
         <v>473,14</v>
       </c>
-      <c r="E4" t="str">
+      <c r="E4" s="2" t="str">
         <v>450,00</v>
       </c>
-      <c r="F4" t="str">
+      <c r="F4" s="2" t="str">
         <v>465,00</v>
       </c>
-      <c r="G4" t="str">
+      <c r="G4" s="2" t="str">
         <v>490,00</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="str">
+      <c r="A5" s="2" t="str">
         <v>1-2</v>
       </c>
-      <c r="B5" t="str">
+      <c r="B5" s="2" t="str">
         <v>280,00</v>
       </c>
-      <c r="C5" t="str">
+      <c r="C5" s="2" t="str">
         <v>380,00</v>
       </c>
-      <c r="D5" t="str">
+      <c r="D5" s="2" t="str">
         <v>418,00</v>
       </c>
-      <c r="E5" t="str">
+      <c r="E5" s="2" t="str">
         <v>400,00</v>
       </c>
-      <c r="F5" t="str">
+      <c r="F5" s="2" t="str">
         <v>400,00</v>
       </c>
-      <c r="G5" t="str">
+      <c r="G5" s="2" t="str">
         <v>450,00</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="str">
+      <c r="A6" s="2" t="str">
         <v>2-3</v>
       </c>
-      <c r="B6" t="str">
+      <c r="B6" s="2" t="str">
         <v>251,00</v>
       </c>
-      <c r="C6" t="str">
+      <c r="C6" s="2" t="str">
         <v>389,50</v>
       </c>
-      <c r="D6" t="str">
+      <c r="D6" s="2" t="str">
         <v>406,26</v>
       </c>
-      <c r="E6" t="str">
+      <c r="E6" s="2" t="str">
         <v>390,00</v>
       </c>
-      <c r="F6" t="str">
+      <c r="F6" s="2" t="str">
         <v>392,00</v>
       </c>
-      <c r="G6" t="str">
+      <c r="G6" s="2" t="str">
         <v>424,41</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="str">
+      <c r="A7" s="2" t="str">
         <v>3-4</v>
       </c>
-      <c r="B7" t="str">
+      <c r="B7" s="2" t="str">
         <v>250,00</v>
       </c>
-      <c r="C7" t="str">
+      <c r="C7" s="2" t="str">
         <v>376,00</v>
       </c>
-      <c r="D7" t="str">
+      <c r="D7" s="2" t="str">
         <v>407,00</v>
       </c>
-      <c r="E7" t="str">
+      <c r="E7" s="2" t="str">
         <v>390,00</v>
       </c>
-      <c r="F7" t="str">
+      <c r="F7" s="2" t="str">
         <v>388,00</v>
       </c>
-      <c r="G7" t="str">
+      <c r="G7" s="2" t="str">
         <v>436,90</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="str">
+      <c r="A8" s="2" t="str">
         <v>4-5</v>
       </c>
-      <c r="B8" t="str">
+      <c r="B8" s="2" t="str">
         <v>272,00</v>
       </c>
-      <c r="C8" t="str">
+      <c r="C8" s="2" t="str">
         <v>381,08</v>
       </c>
-      <c r="D8" t="str">
+      <c r="D8" s="2" t="str">
         <v>408,00</v>
       </c>
-      <c r="E8" t="str">
+      <c r="E8" s="2" t="str">
         <v>397,20</v>
       </c>
-      <c r="F8" t="str">
+      <c r="F8" s="2" t="str">
         <v>390,00</v>
       </c>
-      <c r="G8" t="str">
+      <c r="G8" s="2" t="str">
         <v>428,00</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="str">
+      <c r="A9" s="2" t="str">
         <v>5-6</v>
       </c>
-      <c r="B9" t="str">
+      <c r="B9" s="2" t="str">
         <v>298,00</v>
       </c>
-      <c r="C9" t="str">
+      <c r="C9" s="2" t="str">
         <v>393,55</v>
       </c>
-      <c r="D9" t="str">
+      <c r="D9" s="2" t="str">
         <v>443,55</v>
       </c>
-      <c r="E9" t="str">
+      <c r="E9" s="2" t="str">
         <v>437,00</v>
       </c>
-      <c r="F9" t="str">
+      <c r="F9" s="2" t="str">
         <v>431,28</v>
       </c>
-      <c r="G9" t="str">
+      <c r="G9" s="2" t="str">
         <v>447,91</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="str">
+      <c r="A10" s="2" t="str">
         <v>6-7</v>
       </c>
-      <c r="B10" t="str">
+      <c r="B10" s="2" t="str">
         <v>406,00</v>
       </c>
-      <c r="C10" t="str">
+      <c r="C10" s="2" t="str">
         <v>509,11</v>
       </c>
-      <c r="D10" t="str">
+      <c r="D10" s="2" t="str">
         <v>550,00</v>
       </c>
-      <c r="E10" t="str">
+      <c r="E10" s="2" t="str">
         <v>530,00</v>
       </c>
-      <c r="F10" t="str">
+      <c r="F10" s="2" t="str">
         <v>542,00</v>
       </c>
-      <c r="G10" t="str">
+      <c r="G10" s="2" t="str">
         <v>480,00</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="str">
+      <c r="A11" s="2" t="str">
         <v>7-8</v>
       </c>
-      <c r="B11" t="str">
+      <c r="B11" s="2" t="str">
         <v>378,00</v>
       </c>
-      <c r="C11" t="str">
+      <c r="C11" s="2" t="str">
         <v>506,40</v>
       </c>
-      <c r="D11" t="str">
+      <c r="D11" s="2" t="str">
         <v>530,00</v>
       </c>
-      <c r="E11" t="str">
+      <c r="E11" s="2" t="str">
         <v>520,00</v>
       </c>
-      <c r="F11" t="str">
+      <c r="F11" s="2" t="str">
         <v>540,00</v>
       </c>
-      <c r="G11" t="str">
+      <c r="G11" s="2" t="str">
         <v>488,68</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="str">
+      <c r="A12" s="2" t="str">
         <v>8-9</v>
       </c>
-      <c r="B12" t="str">
+      <c r="B12" s="2" t="str">
         <v>299,00</v>
       </c>
-      <c r="C12" t="str">
+      <c r="C12" s="2" t="str">
         <v>416,30</v>
       </c>
-      <c r="D12" t="str">
+      <c r="D12" s="2" t="str">
         <v>420,00</v>
       </c>
-      <c r="E12" t="str">
+      <c r="E12" s="2" t="str">
         <v>432,41</v>
       </c>
-      <c r="F12" t="str">
+      <c r="F12" s="2" t="str">
         <v>488,50</v>
       </c>
-      <c r="G12" t="str">
+      <c r="G12" s="2" t="str">
         <v>524,27</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="str">
+      <c r="A13" s="2" t="str">
         <v>9-10</v>
       </c>
-      <c r="B13" t="str">
+      <c r="B13" s="2" t="str">
         <v>137,99</v>
       </c>
-      <c r="C13" t="str">
+      <c r="C13" s="2" t="str">
         <v>283,99</v>
       </c>
-      <c r="D13" t="str">
+      <c r="D13" s="2" t="str">
         <v>303,99</v>
       </c>
-      <c r="E13" t="str">
+      <c r="E13" s="2" t="str">
         <v>355,57</v>
       </c>
-      <c r="F13" t="str">
+      <c r="F13" s="2" t="str">
         <v>450,00</v>
       </c>
-      <c r="G13" t="str">
+      <c r="G13" s="2" t="str">
         <v>406,00</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="str">
+      <c r="A14" s="2" t="str">
         <v>10-11</v>
       </c>
-      <c r="B14" t="str">
+      <c r="B14" s="2" t="str">
         <v>0,00</v>
       </c>
-      <c r="C14" t="str">
+      <c r="C14" s="2" t="str">
         <v>180,11</v>
       </c>
-      <c r="D14" t="str">
+      <c r="D14" s="2" t="str">
         <v>198,12</v>
       </c>
-      <c r="E14" t="str">
+      <c r="E14" s="2" t="str">
         <v>288,00</v>
       </c>
-      <c r="F14" t="str">
+      <c r="F14" s="2" t="str">
         <v>404,00</v>
       </c>
-      <c r="G14" t="str">
+      <c r="G14" s="2" t="str">
         <v>388,80</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="str">
+      <c r="A15" s="2" t="str">
         <v>11-12</v>
       </c>
-      <c r="B15" t="str">
+      <c r="B15" s="2" t="str">
         <v>-31,00</v>
       </c>
-      <c r="C15" t="str">
+      <c r="C15" s="2" t="str">
         <v>90,11</v>
       </c>
-      <c r="D15" t="str">
+      <c r="D15" s="2" t="str">
         <v>105,95</v>
       </c>
-      <c r="E15" t="str">
+      <c r="E15" s="2" t="str">
         <v>263,40</v>
       </c>
-      <c r="F15" t="str">
+      <c r="F15" s="2" t="str">
         <v>390,34</v>
       </c>
-      <c r="G15" t="str">
+      <c r="G15" s="2" t="str">
         <v>377,76</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="str">
+      <c r="A16" s="2" t="str">
         <v>12-13</v>
       </c>
-      <c r="B16" t="str">
+      <c r="B16" s="2" t="str">
         <v>-55,00</v>
       </c>
-      <c r="C16" t="str">
+      <c r="C16" s="2" t="str">
         <v>30,00</v>
       </c>
-      <c r="D16" t="str">
+      <c r="D16" s="2" t="str">
         <v>70,00</v>
       </c>
-      <c r="E16" t="str">
+      <c r="E16" s="2" t="str">
         <v>235,90</v>
       </c>
-      <c r="F16" t="str">
+      <c r="F16" s="2" t="str">
         <v>387,59</v>
       </c>
-      <c r="G16" t="str">
+      <c r="G16" s="2" t="str">
         <v>361,40</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="str">
+      <c r="A17" s="2" t="str">
         <v>13-14</v>
       </c>
-      <c r="B17" t="str">
+      <c r="B17" s="2" t="str">
         <v>-54,01</v>
       </c>
-      <c r="C17" t="str">
+      <c r="C17" s="2" t="str">
         <v>10,11</v>
       </c>
-      <c r="D17" t="str">
+      <c r="D17" s="2" t="str">
         <v>70,00</v>
       </c>
-      <c r="E17" t="str">
+      <c r="E17" s="2" t="str">
         <v>241,99</v>
       </c>
-      <c r="F17" t="str">
+      <c r="F17" s="2" t="str">
         <v>394,00</v>
       </c>
-      <c r="G17" t="str">
+      <c r="G17" s="2" t="str">
         <v>326,70</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="str">
+      <c r="A18" s="2" t="str">
         <v>14-15</v>
       </c>
-      <c r="B18" t="str">
+      <c r="B18" s="2" t="str">
         <v>-30,01</v>
       </c>
-      <c r="C18" t="str">
+      <c r="C18" s="2" t="str">
         <v>21,40</v>
       </c>
-      <c r="D18" t="str">
+      <c r="D18" s="2" t="str">
         <v>100,00</v>
       </c>
-      <c r="E18" t="str">
+      <c r="E18" s="2" t="str">
         <v>233,99</v>
       </c>
-      <c r="F18" t="str">
+      <c r="F18" s="2" t="str">
         <v>406,00</v>
       </c>
-      <c r="G18" t="str">
+      <c r="G18" s="2" t="str">
         <v>300,00</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="str">
+      <c r="A19" s="2" t="str">
         <v>15-16</v>
       </c>
-      <c r="B19" t="str">
+      <c r="B19" s="2" t="str">
         <v>0,01</v>
       </c>
-      <c r="C19" t="str">
+      <c r="C19" s="2" t="str">
         <v>165,00</v>
       </c>
-      <c r="D19" t="str">
+      <c r="D19" s="2" t="str">
         <v>239,99</v>
       </c>
-      <c r="E19" t="str">
+      <c r="E19" s="2" t="str">
         <v>295,67</v>
       </c>
-      <c r="F19" t="str">
+      <c r="F19" s="2" t="str">
         <v>482,86</v>
       </c>
-      <c r="G19" t="str">
+      <c r="G19" s="2" t="str">
         <v>340,00</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="str">
+      <c r="A20" s="2" t="str">
         <v>16-17</v>
       </c>
-      <c r="B20" t="str">
+      <c r="B20" s="2" t="str">
         <v>90,00</v>
       </c>
-      <c r="C20" t="str">
+      <c r="C20" s="2" t="str">
         <v>315,99</v>
       </c>
-      <c r="D20" t="str">
+      <c r="D20" s="2" t="str">
         <v>370,60</v>
       </c>
-      <c r="E20" t="str">
+      <c r="E20" s="2" t="str">
         <v>385,69</v>
       </c>
-      <c r="F20" t="str">
+      <c r="F20" s="2" t="str">
         <v>482,86</v>
       </c>
-      <c r="G20" t="str">
+      <c r="G20" s="2" t="str">
         <v>399,99</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="str">
+      <c r="A21" s="2" t="str">
         <v>17-18</v>
       </c>
-      <c r="B21" t="str">
+      <c r="B21" s="2" t="str">
         <v>281,99</v>
       </c>
-      <c r="C21" t="str">
+      <c r="C21" s="2" t="str">
         <v>380,60</v>
       </c>
-      <c r="D21" t="str">
+      <c r="D21" s="2" t="str">
         <v>379,00</v>
       </c>
-      <c r="E21" t="str">
+      <c r="E21" s="2" t="str">
         <v>444,97</v>
       </c>
-      <c r="F21" t="str">
+      <c r="F21" s="2" t="str">
         <v>469,00</v>
       </c>
-      <c r="G21" t="str">
+      <c r="G21" s="2" t="str">
         <v>492,90</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="str">
+      <c r="A22" s="2" t="str">
         <v>18-19</v>
       </c>
-      <c r="B22" t="str">
+      <c r="B22" s="2" t="str">
         <v>380,00</v>
       </c>
-      <c r="C22" t="str">
+      <c r="C22" s="2" t="str">
         <v>481,00</v>
       </c>
-      <c r="D22" t="str">
+      <c r="D22" s="2" t="str">
         <v>499,40</v>
       </c>
-      <c r="E22" t="str">
+      <c r="E22" s="2" t="str">
         <v>503,60</v>
       </c>
-      <c r="F22" t="str">
+      <c r="F22" s="2" t="str">
         <v>549,00</v>
       </c>
-      <c r="G22" t="str">
+      <c r="G22" s="2" t="str">
         <v>490,00</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="str">
+      <c r="A23" s="2" t="str">
         <v>19-20</v>
       </c>
-      <c r="B23" t="str">
+      <c r="B23" s="2" t="str">
         <v>558,00</v>
       </c>
-      <c r="C23" t="str">
+      <c r="C23" s="2" t="str">
         <v>682,00</v>
       </c>
-      <c r="D23" t="str">
+      <c r="D23" s="2" t="str">
         <v>632,00</v>
       </c>
-      <c r="E23" t="str">
+      <c r="E23" s="2" t="str">
         <v>612,00</v>
       </c>
-      <c r="F23" t="str">
+      <c r="F23" s="2" t="str">
         <v>600,00</v>
       </c>
-      <c r="G23" t="str">
+      <c r="G23" s="2" t="str">
         <v>560,00</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="str">
+      <c r="A24" s="2" t="str">
         <v>20-21</v>
       </c>
-      <c r="B24" t="str">
+      <c r="B24" s="2" t="str">
         <v>680,00</v>
       </c>
-      <c r="C24" t="str">
+      <c r="C24" s="2" t="str">
         <v>853,40</v>
       </c>
-      <c r="D24" t="str">
+      <c r="D24" s="2" t="str">
         <v>825,00</v>
       </c>
-      <c r="E24" t="str">
+      <c r="E24" s="2" t="str">
         <v>738,99</v>
       </c>
-      <c r="F24" t="str">
+      <c r="F24" s="2" t="str">
         <v>670,00</v>
       </c>
-      <c r="G24" t="str">
+      <c r="G24" s="2" t="str">
         <v>600,00</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="str">
+      <c r="A25" s="2" t="str">
         <v>21-22</v>
       </c>
-      <c r="B25" t="str">
+      <c r="B25" s="2" t="str">
         <v>625,00</v>
       </c>
-      <c r="C25" t="str">
+      <c r="C25" s="2" t="str">
         <v>720,00</v>
       </c>
-      <c r="D25" t="str">
+      <c r="D25" s="2" t="str">
         <v>634,00</v>
       </c>
-      <c r="E25" t="str">
+      <c r="E25" s="2" t="str">
         <v>585,00</v>
       </c>
-      <c r="F25" t="str">
+      <c r="F25" s="2" t="str">
         <v>553,90</v>
       </c>
-      <c r="G25" t="str">
+      <c r="G25" s="2" t="str">
         <v>586,61</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="str">
+      <c r="A26" s="2" t="str">
         <v>22-23</v>
       </c>
-      <c r="B26" t="str">
+      <c r="B26" s="2" t="str">
         <v>496,00</v>
       </c>
-      <c r="C26" t="str">
+      <c r="C26" s="2" t="str">
         <v>549,00</v>
       </c>
-      <c r="D26" t="str">
+      <c r="D26" s="2" t="str">
         <v>520,00</v>
       </c>
-      <c r="E26" t="str">
+      <c r="E26" s="2" t="str">
         <v>537,00</v>
       </c>
-      <c r="F26" t="str">
+      <c r="F26" s="2" t="str">
         <v>513,70</v>
       </c>
-      <c r="G26" t="str">
+      <c r="G26" s="2" t="str">
         <v>514,80</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="str">
+      <c r="A27" s="2" t="str">
         <v>23-24</v>
       </c>
-      <c r="B27" t="str">
+      <c r="B27" s="2" t="str">
         <v>428,90</v>
       </c>
-      <c r="C27" t="str">
+      <c r="C27" s="2" t="str">
         <v>458,00</v>
       </c>
-      <c r="D27" t="str">
+      <c r="D27" s="2" t="str">
         <v>443,80</v>
       </c>
-      <c r="E27" t="str">
+      <c r="E27" s="2" t="str">
         <v>450,00</v>
       </c>
-      <c r="F27" t="str">
+      <c r="F27" s="2" t="str">
         <v>449,00</v>
       </c>
-      <c r="G27" t="str">
+      <c r="G27" s="2" t="str">
         <v>441,87</v>
       </c>
     </row>
   </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G27"/>
-  </ignoredErrors>
 </worksheet>
 </file>
--- a/tabela.xlsx
+++ b/tabela.xlsx
@@ -472,7 +472,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="str">
+      <c r="A4" s="3" t="str">
         <v>0-1</v>
       </c>
       <c r="B4" s="2" t="str">
@@ -495,7 +495,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="str">
+      <c r="A5" s="3" t="str">
         <v>1-2</v>
       </c>
       <c r="B5" s="2" t="str">
@@ -518,7 +518,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="str">
+      <c r="A6" s="3" t="str">
         <v>2-3</v>
       </c>
       <c r="B6" s="2" t="str">
@@ -541,7 +541,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="str">
+      <c r="A7" s="3" t="str">
         <v>3-4</v>
       </c>
       <c r="B7" s="2" t="str">
@@ -564,7 +564,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="str">
+      <c r="A8" s="3" t="str">
         <v>4-5</v>
       </c>
       <c r="B8" s="2" t="str">
@@ -587,7 +587,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="str">
+      <c r="A9" s="3" t="str">
         <v>5-6</v>
       </c>
       <c r="B9" s="2" t="str">
@@ -610,7 +610,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="str">
+      <c r="A10" s="3" t="str">
         <v>6-7</v>
       </c>
       <c r="B10" s="2" t="str">
@@ -633,7 +633,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="str">
+      <c r="A11" s="3" t="str">
         <v>7-8</v>
       </c>
       <c r="B11" s="2" t="str">
@@ -656,7 +656,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="str">
+      <c r="A12" s="3" t="str">
         <v>8-9</v>
       </c>
       <c r="B12" s="2" t="str">
@@ -679,7 +679,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="str">
+      <c r="A13" s="3" t="str">
         <v>9-10</v>
       </c>
       <c r="B13" s="2" t="str">
@@ -702,7 +702,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="str">
+      <c r="A14" s="3" t="str">
         <v>10-11</v>
       </c>
       <c r="B14" s="2" t="str">
@@ -725,7 +725,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="str">
+      <c r="A15" s="3" t="str">
         <v>11-12</v>
       </c>
       <c r="B15" s="2" t="str">
@@ -748,7 +748,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="str">
+      <c r="A16" s="3" t="str">
         <v>12-13</v>
       </c>
       <c r="B16" s="2" t="str">
@@ -771,7 +771,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="str">
+      <c r="A17" s="3" t="str">
         <v>13-14</v>
       </c>
       <c r="B17" s="2" t="str">
@@ -794,7 +794,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="str">
+      <c r="A18" s="3" t="str">
         <v>14-15</v>
       </c>
       <c r="B18" s="2" t="str">
@@ -817,7 +817,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="str">
+      <c r="A19" s="3" t="str">
         <v>15-16</v>
       </c>
       <c r="B19" s="2" t="str">
@@ -840,7 +840,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="str">
+      <c r="A20" s="3" t="str">
         <v>16-17</v>
       </c>
       <c r="B20" s="2" t="str">
@@ -863,7 +863,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="str">
+      <c r="A21" s="3" t="str">
         <v>17-18</v>
       </c>
       <c r="B21" s="2" t="str">
@@ -886,7 +886,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="str">
+      <c r="A22" s="3" t="str">
         <v>18-19</v>
       </c>
       <c r="B22" s="2" t="str">
@@ -909,7 +909,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="str">
+      <c r="A23" s="3" t="str">
         <v>19-20</v>
       </c>
       <c r="B23" s="2" t="str">
@@ -932,7 +932,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="str">
+      <c r="A24" s="3" t="str">
         <v>20-21</v>
       </c>
       <c r="B24" s="2" t="str">
@@ -955,7 +955,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="str">
+      <c r="A25" s="3" t="str">
         <v>21-22</v>
       </c>
       <c r="B25" s="2" t="str">
@@ -978,7 +978,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="str">
+      <c r="A26" s="3" t="str">
         <v>22-23</v>
       </c>
       <c r="B26" s="2" t="str">
@@ -1001,7 +1001,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="str">
+      <c r="A27" s="3" t="str">
         <v>23-24</v>
       </c>
       <c r="B27" s="2" t="str">

--- a/tabela.xlsx
+++ b/tabela.xlsx
@@ -57,11 +57,16 @@
   <cellStyleXfs>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="1" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -393,634 +398,5388 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:BM27"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" customWidth="1"/>
+    <col min="17" max="17" width="10.7109375" customWidth="1"/>
+    <col min="18" max="18" width="10.7109375" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" customWidth="1"/>
+    <col min="20" max="20" width="10.7109375" customWidth="1"/>
+    <col min="21" max="21" width="10.7109375" customWidth="1"/>
+    <col min="22" max="22" width="10.7109375" customWidth="1"/>
+    <col min="23" max="23" width="10.7109375" customWidth="1"/>
+    <col min="24" max="24" width="10.7109375" customWidth="1"/>
+    <col min="25" max="25" width="10.7109375" customWidth="1"/>
+    <col min="26" max="26" width="10.7109375" customWidth="1"/>
+    <col min="27" max="27" width="10.7109375" customWidth="1"/>
+    <col min="28" max="28" width="10.7109375" customWidth="1"/>
+    <col min="29" max="29" width="10.7109375" customWidth="1"/>
+    <col min="30" max="30" width="10.7109375" customWidth="1"/>
+    <col min="31" max="31" width="10.7109375" customWidth="1"/>
+    <col min="32" max="32" width="10.7109375" customWidth="1"/>
+    <col min="33" max="33" width="10.7109375" customWidth="1"/>
+    <col min="34" max="34" width="10.7109375" customWidth="1"/>
+    <col min="35" max="35" width="10.7109375" customWidth="1"/>
+    <col min="36" max="36" width="10.7109375" customWidth="1"/>
+    <col min="37" max="37" width="10.7109375" customWidth="1"/>
+    <col min="38" max="38" width="10.7109375" customWidth="1"/>
+    <col min="39" max="39" width="10.7109375" customWidth="1"/>
+    <col min="40" max="40" width="10.7109375" customWidth="1"/>
+    <col min="41" max="41" width="10.7109375" customWidth="1"/>
+    <col min="42" max="42" width="10.7109375" customWidth="1"/>
+    <col min="43" max="43" width="10.7109375" customWidth="1"/>
+    <col min="44" max="44" width="10.7109375" customWidth="1"/>
+    <col min="45" max="45" width="10.7109375" customWidth="1"/>
+    <col min="46" max="46" width="10.7109375" customWidth="1"/>
+    <col min="47" max="47" width="10.7109375" customWidth="1"/>
+    <col min="48" max="48" width="10.7109375" customWidth="1"/>
+    <col min="49" max="49" width="10.7109375" customWidth="1"/>
+    <col min="50" max="50" width="10.7109375" customWidth="1"/>
+    <col min="51" max="51" width="10.7109375" customWidth="1"/>
+    <col min="52" max="52" width="10.7109375" customWidth="1"/>
+    <col min="53" max="53" width="10.7109375" customWidth="1"/>
+    <col min="54" max="54" width="10.7109375" customWidth="1"/>
+    <col min="55" max="55" width="10.7109375" customWidth="1"/>
+    <col min="56" max="56" width="10.7109375" customWidth="1"/>
+    <col min="57" max="57" width="10.7109375" customWidth="1"/>
+    <col min="58" max="58" width="10.7109375" customWidth="1"/>
+    <col min="59" max="59" width="10.7109375" customWidth="1"/>
+    <col min="60" max="60" width="10.7109375" customWidth="1"/>
+    <col min="61" max="61" width="10.7109375" customWidth="1"/>
+    <col min="62" max="62" width="10.7109375" customWidth="1"/>
+    <col min="63" max="63" width="10.7109375" customWidth="1"/>
+    <col min="64" max="64" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="str">
-        <v/>
-      </c>
-      <c r="B1" s="3" t="str">
+      <c r="A1" s="3" t="str">
+        <v/>
+      </c>
+      <c r="B1" s="4" t="str">
         <v>Kurs (PLN/MWh)</v>
       </c>
-      <c r="C1" s="2" t="str">
-        <v/>
-      </c>
-      <c r="D1" s="2" t="str">
-        <v/>
-      </c>
-      <c r="E1" s="2" t="str">
-        <v/>
-      </c>
-      <c r="F1" s="2" t="str">
+      <c r="C1" s="3" t="str">
+        <v/>
+      </c>
+      <c r="D1" s="3" t="str">
+        <v/>
+      </c>
+      <c r="E1" s="3" t="str">
+        <v/>
+      </c>
+      <c r="F1" s="3" t="str">
+        <v/>
+      </c>
+      <c r="G1" s="3" t="str">
+        <v/>
+      </c>
+      <c r="H1" s="3" t="str">
+        <v/>
+      </c>
+      <c r="I1" s="3" t="str">
+        <v/>
+      </c>
+      <c r="J1" s="3" t="str">
+        <v/>
+      </c>
+      <c r="K1" s="3" t="str">
+        <v/>
+      </c>
+      <c r="L1" s="3" t="str">
+        <v/>
+      </c>
+      <c r="M1" s="3" t="str">
+        <v/>
+      </c>
+      <c r="N1" s="3" t="str">
+        <v/>
+      </c>
+      <c r="O1" s="3" t="str">
+        <v/>
+      </c>
+      <c r="P1" s="3" t="str">
+        <v/>
+      </c>
+      <c r="Q1" s="3" t="str">
+        <v/>
+      </c>
+      <c r="R1" s="3" t="str">
+        <v/>
+      </c>
+      <c r="S1" s="3" t="str">
+        <v/>
+      </c>
+      <c r="T1" s="3" t="str">
+        <v/>
+      </c>
+      <c r="U1" s="3" t="str">
+        <v/>
+      </c>
+      <c r="V1" s="3" t="str">
+        <v/>
+      </c>
+      <c r="W1" s="3" t="str">
+        <v/>
+      </c>
+      <c r="X1" s="3" t="str">
+        <v/>
+      </c>
+      <c r="Y1" s="3" t="str">
+        <v/>
+      </c>
+      <c r="Z1" s="3" t="str">
+        <v/>
+      </c>
+      <c r="AA1" s="3" t="str">
+        <v/>
+      </c>
+      <c r="AB1" s="3" t="str">
+        <v/>
+      </c>
+      <c r="AC1" s="3" t="str">
+        <v/>
+      </c>
+      <c r="AD1" s="3" t="str">
+        <v/>
+      </c>
+      <c r="AE1" s="3" t="str">
+        <v/>
+      </c>
+      <c r="AF1" s="3" t="str">
+        <v/>
+      </c>
+      <c r="AG1" s="3" t="str">
+        <v/>
+      </c>
+      <c r="AH1" s="3" t="str">
+        <v/>
+      </c>
+      <c r="AI1" s="3" t="str">
+        <v/>
+      </c>
+      <c r="AJ1" s="3" t="str">
+        <v/>
+      </c>
+      <c r="AK1" s="3" t="str">
+        <v/>
+      </c>
+      <c r="AL1" s="3" t="str">
+        <v/>
+      </c>
+      <c r="AM1" s="3" t="str">
+        <v/>
+      </c>
+      <c r="AN1" s="3" t="str">
+        <v/>
+      </c>
+      <c r="AO1" s="3" t="str">
+        <v/>
+      </c>
+      <c r="AP1" s="3" t="str">
+        <v/>
+      </c>
+      <c r="AQ1" s="3" t="str">
+        <v/>
+      </c>
+      <c r="AR1" s="3" t="str">
+        <v/>
+      </c>
+      <c r="AS1" s="3" t="str">
+        <v/>
+      </c>
+      <c r="AT1" s="3" t="str">
+        <v/>
+      </c>
+      <c r="AU1" s="3" t="str">
+        <v/>
+      </c>
+      <c r="AV1" s="3" t="str">
+        <v/>
+      </c>
+      <c r="AW1" s="3" t="str">
+        <v/>
+      </c>
+      <c r="AX1" s="3" t="str">
+        <v/>
+      </c>
+      <c r="AY1" s="3" t="str">
+        <v/>
+      </c>
+      <c r="AZ1" s="3" t="str">
+        <v/>
+      </c>
+      <c r="BA1" s="3" t="str">
+        <v/>
+      </c>
+      <c r="BB1" s="3" t="str">
+        <v/>
+      </c>
+      <c r="BC1" s="3" t="str">
+        <v/>
+      </c>
+      <c r="BD1" s="3" t="str">
+        <v/>
+      </c>
+      <c r="BE1" s="3" t="str">
+        <v/>
+      </c>
+      <c r="BF1" s="3" t="str">
+        <v/>
+      </c>
+      <c r="BG1" s="3" t="str">
+        <v/>
+      </c>
+      <c r="BH1" s="3" t="str">
+        <v/>
+      </c>
+      <c r="BI1" s="3" t="str">
+        <v/>
+      </c>
+      <c r="BJ1" s="3" t="str">
+        <v/>
+      </c>
+      <c r="BK1" s="3" t="str">
+        <v/>
+      </c>
+      <c r="BL1" s="3" t="str">
         <v/>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="str">
-        <v/>
-      </c>
-      <c r="B2" s="3" t="str">
+      <c r="A2" s="3" t="str">
+        <v/>
+      </c>
+      <c r="B2" s="4" t="str">
         <v>FIXING I</v>
       </c>
-      <c r="C2" s="2" t="str">
-        <v/>
-      </c>
-      <c r="D2" s="2" t="str">
-        <v/>
-      </c>
-      <c r="E2" s="2" t="str">
-        <v/>
-      </c>
-      <c r="F2" s="2" t="str">
+      <c r="C2" s="3" t="str">
+        <v/>
+      </c>
+      <c r="D2" s="3" t="str">
+        <v/>
+      </c>
+      <c r="E2" s="3" t="str">
+        <v/>
+      </c>
+      <c r="F2" s="3" t="str">
+        <v/>
+      </c>
+      <c r="G2" s="3" t="str">
+        <v/>
+      </c>
+      <c r="H2" s="3" t="str">
+        <v/>
+      </c>
+      <c r="I2" s="3" t="str">
+        <v/>
+      </c>
+      <c r="J2" s="3" t="str">
+        <v/>
+      </c>
+      <c r="K2" s="3" t="str">
+        <v/>
+      </c>
+      <c r="L2" s="3" t="str">
+        <v/>
+      </c>
+      <c r="M2" s="3" t="str">
+        <v/>
+      </c>
+      <c r="N2" s="3" t="str">
+        <v/>
+      </c>
+      <c r="O2" s="3" t="str">
+        <v/>
+      </c>
+      <c r="P2" s="3" t="str">
+        <v/>
+      </c>
+      <c r="Q2" s="3" t="str">
+        <v/>
+      </c>
+      <c r="R2" s="3" t="str">
+        <v/>
+      </c>
+      <c r="S2" s="3" t="str">
+        <v/>
+      </c>
+      <c r="T2" s="3" t="str">
+        <v/>
+      </c>
+      <c r="U2" s="3" t="str">
+        <v/>
+      </c>
+      <c r="V2" s="3" t="str">
+        <v/>
+      </c>
+      <c r="W2" s="3" t="str">
+        <v/>
+      </c>
+      <c r="X2" s="3" t="str">
+        <v/>
+      </c>
+      <c r="Y2" s="3" t="str">
+        <v/>
+      </c>
+      <c r="Z2" s="3" t="str">
+        <v/>
+      </c>
+      <c r="AA2" s="3" t="str">
+        <v/>
+      </c>
+      <c r="AB2" s="3" t="str">
+        <v/>
+      </c>
+      <c r="AC2" s="3" t="str">
+        <v/>
+      </c>
+      <c r="AD2" s="3" t="str">
+        <v/>
+      </c>
+      <c r="AE2" s="3" t="str">
+        <v/>
+      </c>
+      <c r="AF2" s="3" t="str">
+        <v/>
+      </c>
+      <c r="AG2" s="3" t="str">
+        <v/>
+      </c>
+      <c r="AH2" s="3" t="str">
+        <v/>
+      </c>
+      <c r="AI2" s="3" t="str">
+        <v/>
+      </c>
+      <c r="AJ2" s="3" t="str">
+        <v/>
+      </c>
+      <c r="AK2" s="3" t="str">
+        <v/>
+      </c>
+      <c r="AL2" s="3" t="str">
+        <v/>
+      </c>
+      <c r="AM2" s="3" t="str">
+        <v/>
+      </c>
+      <c r="AN2" s="3" t="str">
+        <v/>
+      </c>
+      <c r="AO2" s="3" t="str">
+        <v/>
+      </c>
+      <c r="AP2" s="3" t="str">
+        <v/>
+      </c>
+      <c r="AQ2" s="3" t="str">
+        <v/>
+      </c>
+      <c r="AR2" s="3" t="str">
+        <v/>
+      </c>
+      <c r="AS2" s="3" t="str">
+        <v/>
+      </c>
+      <c r="AT2" s="3" t="str">
+        <v/>
+      </c>
+      <c r="AU2" s="3" t="str">
+        <v/>
+      </c>
+      <c r="AV2" s="3" t="str">
+        <v/>
+      </c>
+      <c r="AW2" s="3" t="str">
+        <v/>
+      </c>
+      <c r="AX2" s="3" t="str">
+        <v/>
+      </c>
+      <c r="AY2" s="3" t="str">
+        <v/>
+      </c>
+      <c r="AZ2" s="3" t="str">
+        <v/>
+      </c>
+      <c r="BA2" s="3" t="str">
+        <v/>
+      </c>
+      <c r="BB2" s="3" t="str">
+        <v/>
+      </c>
+      <c r="BC2" s="3" t="str">
+        <v/>
+      </c>
+      <c r="BD2" s="3" t="str">
+        <v/>
+      </c>
+      <c r="BE2" s="3" t="str">
+        <v/>
+      </c>
+      <c r="BF2" s="3" t="str">
+        <v/>
+      </c>
+      <c r="BG2" s="3" t="str">
+        <v/>
+      </c>
+      <c r="BH2" s="3" t="str">
+        <v/>
+      </c>
+      <c r="BI2" s="3" t="str">
+        <v/>
+      </c>
+      <c r="BJ2" s="3" t="str">
+        <v/>
+      </c>
+      <c r="BK2" s="3" t="str">
+        <v/>
+      </c>
+      <c r="BL2" s="3" t="str">
         <v/>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="str">
-        <v/>
-      </c>
-      <c r="B3" s="2" t="str">
+      <c r="A3" s="3" t="str">
+        <v/>
+      </c>
+      <c r="B3" s="4" t="str">
+        <v>26-06-2024</v>
+      </c>
+      <c r="C3" s="4" t="str">
+        <v>27-06-2024</v>
+      </c>
+      <c r="D3" s="4" t="str">
+        <v>28-06-2024</v>
+      </c>
+      <c r="E3" s="4" t="str">
+        <v>29-06-2024</v>
+      </c>
+      <c r="F3" s="4" t="str">
+        <v>30-06-2024</v>
+      </c>
+      <c r="G3" s="4" t="str">
+        <v>01-07-2024</v>
+      </c>
+      <c r="H3" s="4" t="str">
+        <v>02-07-2024</v>
+      </c>
+      <c r="I3" s="4" t="str">
+        <v>03-07-2024</v>
+      </c>
+      <c r="J3" s="4" t="str">
+        <v>04-07-2024</v>
+      </c>
+      <c r="K3" s="4" t="str">
+        <v>05-07-2024</v>
+      </c>
+      <c r="L3" s="4" t="str">
+        <v>06-07-2024</v>
+      </c>
+      <c r="M3" s="4" t="str">
+        <v>07-07-2024</v>
+      </c>
+      <c r="N3" s="4" t="str">
+        <v>08-07-2024</v>
+      </c>
+      <c r="O3" s="4" t="str">
+        <v>09-07-2024</v>
+      </c>
+      <c r="P3" s="4" t="str">
+        <v>10-07-2024</v>
+      </c>
+      <c r="Q3" s="4" t="str">
+        <v>11-07-2024</v>
+      </c>
+      <c r="R3" s="4" t="str">
+        <v>12-07-2024</v>
+      </c>
+      <c r="S3" s="4" t="str">
+        <v>13-07-2024</v>
+      </c>
+      <c r="T3" s="4" t="str">
+        <v>14-07-2024</v>
+      </c>
+      <c r="U3" s="4" t="str">
+        <v>15-07-2024</v>
+      </c>
+      <c r="V3" s="4" t="str">
+        <v>16-07-2024</v>
+      </c>
+      <c r="W3" s="4" t="str">
+        <v>17-07-2024</v>
+      </c>
+      <c r="X3" s="4" t="str">
+        <v>18-07-2024</v>
+      </c>
+      <c r="Y3" s="4" t="str">
+        <v>19-07-2024</v>
+      </c>
+      <c r="Z3" s="4" t="str">
+        <v>20-07-2024</v>
+      </c>
+      <c r="AA3" s="4" t="str">
+        <v>21-07-2024</v>
+      </c>
+      <c r="AB3" s="4" t="str">
+        <v>22-07-2024</v>
+      </c>
+      <c r="AC3" s="4" t="str">
+        <v>23-07-2024</v>
+      </c>
+      <c r="AD3" s="4" t="str">
+        <v>24-07-2024</v>
+      </c>
+      <c r="AE3" s="4" t="str">
+        <v>25-07-2024</v>
+      </c>
+      <c r="AF3" s="4" t="str">
+        <v>26-07-2024</v>
+      </c>
+      <c r="AG3" s="4" t="str">
+        <v>27-07-2024</v>
+      </c>
+      <c r="AH3" s="4" t="str">
         <v>28-07-2024</v>
       </c>
-      <c r="C3" s="2" t="str">
+      <c r="AI3" s="4" t="str">
         <v>29-07-2024</v>
       </c>
-      <c r="D3" s="2" t="str">
+      <c r="AJ3" s="4" t="str">
         <v>30-07-2024</v>
       </c>
-      <c r="E3" s="2" t="str">
+      <c r="AK3" s="4" t="str">
         <v>31-07-2024</v>
       </c>
-      <c r="F3" s="2" t="str">
+      <c r="AL3" s="4" t="str">
         <v>01-08-2024</v>
       </c>
-      <c r="G3" s="2" t="str">
+      <c r="AM3" s="4" t="str">
         <v>02-08-2024</v>
+      </c>
+      <c r="AN3" s="4" t="str">
+        <v>03-08-2024</v>
+      </c>
+      <c r="AO3" s="4" t="str">
+        <v>04-08-2024</v>
+      </c>
+      <c r="AP3" s="4" t="str">
+        <v>05-08-2024</v>
+      </c>
+      <c r="AQ3" s="4" t="str">
+        <v>06-08-2024</v>
+      </c>
+      <c r="AR3" s="4" t="str">
+        <v>07-08-2024</v>
+      </c>
+      <c r="AS3" s="4" t="str">
+        <v>08-08-2024</v>
+      </c>
+      <c r="AT3" s="4" t="str">
+        <v>09-08-2024</v>
+      </c>
+      <c r="AU3" s="4" t="str">
+        <v>10-08-2024</v>
+      </c>
+      <c r="AV3" s="4" t="str">
+        <v>11-08-2024</v>
+      </c>
+      <c r="AW3" s="4" t="str">
+        <v>12-08-2024</v>
+      </c>
+      <c r="AX3" s="4" t="str">
+        <v>13-08-2024</v>
+      </c>
+      <c r="AY3" s="4" t="str">
+        <v>14-08-2024</v>
+      </c>
+      <c r="AZ3" s="4" t="str">
+        <v>15-08-2024</v>
+      </c>
+      <c r="BA3" s="4" t="str">
+        <v>16-08-2024</v>
+      </c>
+      <c r="BB3" s="4" t="str">
+        <v>17-08-2024</v>
+      </c>
+      <c r="BC3" s="4" t="str">
+        <v>18-08-2024</v>
+      </c>
+      <c r="BD3" s="4" t="str">
+        <v>19-08-2024</v>
+      </c>
+      <c r="BE3" s="4" t="str">
+        <v>20-08-2024</v>
+      </c>
+      <c r="BF3" s="4" t="str">
+        <v>21-08-2024</v>
+      </c>
+      <c r="BG3" s="4" t="str">
+        <v>22-08-2024</v>
+      </c>
+      <c r="BH3" s="4" t="str">
+        <v>23-08-2024</v>
+      </c>
+      <c r="BI3" s="4" t="str">
+        <v>24-08-2024</v>
+      </c>
+      <c r="BJ3" s="4" t="str">
+        <v>25-08-2024</v>
+      </c>
+      <c r="BK3" s="4" t="str">
+        <v>26-08-2024</v>
+      </c>
+      <c r="BL3" s="4" t="str">
+        <v>27-08-2024</v>
+      </c>
+      <c r="BM3" s="4" t="str">
+        <v>28-08-2024</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="str">
+      <c r="A4" s="4" t="str">
         <v>0-1</v>
       </c>
-      <c r="B4" s="2" t="str">
+      <c r="B4" s="3" t="str">
+        <v>601,81</v>
+      </c>
+      <c r="C4" s="3" t="str">
+        <v>599,00</v>
+      </c>
+      <c r="D4" s="3" t="str">
+        <v>592,38</v>
+      </c>
+      <c r="E4" s="3" t="str">
+        <v>372,78</v>
+      </c>
+      <c r="F4" s="3" t="str">
+        <v>534,86</v>
+      </c>
+      <c r="G4" s="3" t="str">
+        <v>700,00</v>
+      </c>
+      <c r="H4" s="3" t="str">
+        <v>520,00</v>
+      </c>
+      <c r="I4" s="3" t="str">
+        <v>535,00</v>
+      </c>
+      <c r="J4" s="3" t="str">
+        <v>496,00</v>
+      </c>
+      <c r="K4" s="3" t="str">
+        <v>500,00</v>
+      </c>
+      <c r="L4" s="3" t="str">
+        <v>299,99</v>
+      </c>
+      <c r="M4" s="3" t="str">
+        <v>525,00</v>
+      </c>
+      <c r="N4" s="3" t="str">
+        <v>525,00</v>
+      </c>
+      <c r="O4" s="3" t="str">
+        <v>489,00</v>
+      </c>
+      <c r="P4" s="3" t="str">
+        <v>520,00</v>
+      </c>
+      <c r="Q4" s="3" t="str">
+        <v>613,00</v>
+      </c>
+      <c r="R4" s="3" t="str">
+        <v>510,00</v>
+      </c>
+      <c r="S4" s="3" t="str">
+        <v>524,00</v>
+      </c>
+      <c r="T4" s="3" t="str">
+        <v>480,00</v>
+      </c>
+      <c r="U4" s="3" t="str">
+        <v>536,00</v>
+      </c>
+      <c r="V4" s="3" t="str">
+        <v>515,00</v>
+      </c>
+      <c r="W4" s="3" t="str">
+        <v>510,00</v>
+      </c>
+      <c r="X4" s="3" t="str">
+        <v>500,00</v>
+      </c>
+      <c r="Y4" s="3" t="str">
+        <v>600,00</v>
+      </c>
+      <c r="Z4" s="3" t="str">
+        <v>466,71</v>
+      </c>
+      <c r="AA4" s="3" t="str">
+        <v>465,00</v>
+      </c>
+      <c r="AB4" s="3" t="str">
+        <v>488,00</v>
+      </c>
+      <c r="AC4" s="3" t="str">
+        <v>519,89</v>
+      </c>
+      <c r="AD4" s="3" t="str">
+        <v>459,99</v>
+      </c>
+      <c r="AE4" s="3" t="str">
+        <v>500,00</v>
+      </c>
+      <c r="AF4" s="3" t="str">
+        <v>503,50</v>
+      </c>
+      <c r="AG4" s="3" t="str">
+        <v>495,36</v>
+      </c>
+      <c r="AH4" s="3" t="str">
         <v>317,99</v>
       </c>
-      <c r="C4" s="2" t="str">
+      <c r="AI4" s="3" t="str">
         <v>433,00</v>
       </c>
-      <c r="D4" s="2" t="str">
+      <c r="AJ4" s="3" t="str">
         <v>473,14</v>
       </c>
-      <c r="E4" s="2" t="str">
+      <c r="AK4" s="3" t="str">
         <v>450,00</v>
       </c>
-      <c r="F4" s="2" t="str">
+      <c r="AL4" s="3" t="str">
         <v>465,00</v>
       </c>
-      <c r="G4" s="2" t="str">
+      <c r="AM4" s="3" t="str">
         <v>490,00</v>
+      </c>
+      <c r="AN4" s="3" t="str">
+        <v>442,00</v>
+      </c>
+      <c r="AO4" s="3" t="str">
+        <v>410,00</v>
+      </c>
+      <c r="AP4" s="3" t="str">
+        <v>512,00</v>
+      </c>
+      <c r="AQ4" s="3" t="str">
+        <v>466,80</v>
+      </c>
+      <c r="AR4" s="3" t="str">
+        <v>460,00</v>
+      </c>
+      <c r="AS4" s="3" t="str">
+        <v>440,06</v>
+      </c>
+      <c r="AT4" s="3" t="str">
+        <v>422,00</v>
+      </c>
+      <c r="AU4" s="3" t="str">
+        <v>444,00</v>
+      </c>
+      <c r="AV4" s="3" t="str">
+        <v>436,41</v>
+      </c>
+      <c r="AW4" s="3" t="str">
+        <v>467,00</v>
+      </c>
+      <c r="AX4" s="3" t="str">
+        <v>465,63</v>
+      </c>
+      <c r="AY4" s="3" t="str">
+        <v>453,90</v>
+      </c>
+      <c r="AZ4" s="3" t="str">
+        <v>464,50</v>
+      </c>
+      <c r="BA4" s="3" t="str">
+        <v>568,60</v>
+      </c>
+      <c r="BB4" s="3" t="str">
+        <v>494,00</v>
+      </c>
+      <c r="BC4" s="3" t="str">
+        <v>479,14</v>
+      </c>
+      <c r="BD4" s="3" t="str">
+        <v>461,71</v>
+      </c>
+      <c r="BE4" s="3" t="str">
+        <v>470,00</v>
+      </c>
+      <c r="BF4" s="3" t="str">
+        <v>420,00</v>
+      </c>
+      <c r="BG4" s="3" t="str">
+        <v>456,60</v>
+      </c>
+      <c r="BH4" s="3" t="str">
+        <v>425,60</v>
+      </c>
+      <c r="BI4" s="3" t="str">
+        <v>190,00</v>
+      </c>
+      <c r="BJ4" s="3" t="str">
+        <v>190,00</v>
+      </c>
+      <c r="BK4" s="3" t="str">
+        <v>190,00</v>
+      </c>
+      <c r="BL4" s="3" t="str">
+        <v>190,00</v>
+      </c>
+      <c r="BM4" s="3" t="str">
+        <v>190,00</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="str">
+      <c r="A5" s="4" t="str">
         <v>1-2</v>
       </c>
-      <c r="B5" s="2" t="str">
+      <c r="B5" s="3" t="str">
+        <v>490,64</v>
+      </c>
+      <c r="C5" s="3" t="str">
+        <v>487,30</v>
+      </c>
+      <c r="D5" s="3" t="str">
+        <v>511,57</v>
+      </c>
+      <c r="E5" s="3" t="str">
+        <v>372,78</v>
+      </c>
+      <c r="F5" s="3" t="str">
+        <v>466,30</v>
+      </c>
+      <c r="G5" s="3" t="str">
+        <v>627,10</v>
+      </c>
+      <c r="H5" s="3" t="str">
+        <v>414,00</v>
+      </c>
+      <c r="I5" s="3" t="str">
+        <v>438,00</v>
+      </c>
+      <c r="J5" s="3" t="str">
+        <v>392,00</v>
+      </c>
+      <c r="K5" s="3" t="str">
+        <v>422,78</v>
+      </c>
+      <c r="L5" s="3" t="str">
+        <v>303,99</v>
+      </c>
+      <c r="M5" s="3" t="str">
+        <v>450,00</v>
+      </c>
+      <c r="N5" s="3" t="str">
+        <v>445,90</v>
+      </c>
+      <c r="O5" s="3" t="str">
+        <v>400,00</v>
+      </c>
+      <c r="P5" s="3" t="str">
+        <v>434,00</v>
+      </c>
+      <c r="Q5" s="3" t="str">
+        <v>470,00</v>
+      </c>
+      <c r="R5" s="3" t="str">
+        <v>405,19</v>
+      </c>
+      <c r="S5" s="3" t="str">
+        <v>430,01</v>
+      </c>
+      <c r="T5" s="3" t="str">
+        <v>398,00</v>
+      </c>
+      <c r="U5" s="3" t="str">
+        <v>416,00</v>
+      </c>
+      <c r="V5" s="3" t="str">
+        <v>420,00</v>
+      </c>
+      <c r="W5" s="3" t="str">
+        <v>424,99</v>
+      </c>
+      <c r="X5" s="3" t="str">
+        <v>425,00</v>
+      </c>
+      <c r="Y5" s="3" t="str">
+        <v>475,00</v>
+      </c>
+      <c r="Z5" s="3" t="str">
+        <v>378,00</v>
+      </c>
+      <c r="AA5" s="3" t="str">
+        <v>397,00</v>
+      </c>
+      <c r="AB5" s="3" t="str">
+        <v>400,00</v>
+      </c>
+      <c r="AC5" s="3" t="str">
+        <v>439,16</v>
+      </c>
+      <c r="AD5" s="3" t="str">
+        <v>390,00</v>
+      </c>
+      <c r="AE5" s="3" t="str">
+        <v>423,00</v>
+      </c>
+      <c r="AF5" s="3" t="str">
+        <v>455,20</v>
+      </c>
+      <c r="AG5" s="3" t="str">
+        <v>439,80</v>
+      </c>
+      <c r="AH5" s="3" t="str">
         <v>280,00</v>
       </c>
-      <c r="C5" s="2" t="str">
+      <c r="AI5" s="3" t="str">
         <v>380,00</v>
       </c>
-      <c r="D5" s="2" t="str">
+      <c r="AJ5" s="3" t="str">
         <v>418,00</v>
       </c>
-      <c r="E5" s="2" t="str">
+      <c r="AK5" s="3" t="str">
         <v>400,00</v>
       </c>
-      <c r="F5" s="2" t="str">
+      <c r="AL5" s="3" t="str">
         <v>400,00</v>
       </c>
-      <c r="G5" s="2" t="str">
+      <c r="AM5" s="3" t="str">
         <v>450,00</v>
+      </c>
+      <c r="AN5" s="3" t="str">
+        <v>412,45</v>
+      </c>
+      <c r="AO5" s="3" t="str">
+        <v>394,00</v>
+      </c>
+      <c r="AP5" s="3" t="str">
+        <v>466,44</v>
+      </c>
+      <c r="AQ5" s="3" t="str">
+        <v>420,00</v>
+      </c>
+      <c r="AR5" s="3" t="str">
+        <v>400,00</v>
+      </c>
+      <c r="AS5" s="3" t="str">
+        <v>390,00</v>
+      </c>
+      <c r="AT5" s="3" t="str">
+        <v>408,49</v>
+      </c>
+      <c r="AU5" s="3" t="str">
+        <v>411,20</v>
+      </c>
+      <c r="AV5" s="3" t="str">
+        <v>404,29</v>
+      </c>
+      <c r="AW5" s="3" t="str">
+        <v>423,99</v>
+      </c>
+      <c r="AX5" s="3" t="str">
+        <v>418,00</v>
+      </c>
+      <c r="AY5" s="3" t="str">
+        <v>417,15</v>
+      </c>
+      <c r="AZ5" s="3" t="str">
+        <v>405,70</v>
+      </c>
+      <c r="BA5" s="3" t="str">
+        <v>510,00</v>
+      </c>
+      <c r="BB5" s="3" t="str">
+        <v>450,01</v>
+      </c>
+      <c r="BC5" s="3" t="str">
+        <v>415,40</v>
+      </c>
+      <c r="BD5" s="3" t="str">
+        <v>426,00</v>
+      </c>
+      <c r="BE5" s="3" t="str">
+        <v>424,18</v>
+      </c>
+      <c r="BF5" s="3" t="str">
+        <v>406,00</v>
+      </c>
+      <c r="BG5" s="3" t="str">
+        <v>404,00</v>
+      </c>
+      <c r="BH5" s="3" t="str">
+        <v>405,29</v>
+      </c>
+      <c r="BI5" s="3" t="str">
+        <v>150,92</v>
+      </c>
+      <c r="BJ5" s="3" t="str">
+        <v>150,92</v>
+      </c>
+      <c r="BK5" s="3" t="str">
+        <v>150,92</v>
+      </c>
+      <c r="BL5" s="3" t="str">
+        <v>150,92</v>
+      </c>
+      <c r="BM5" s="3" t="str">
+        <v>150,92</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="str">
+      <c r="A6" s="4" t="str">
         <v>2-3</v>
       </c>
-      <c r="B6" s="2" t="str">
+      <c r="B6" s="3" t="str">
+        <v>471,60</v>
+      </c>
+      <c r="C6" s="3" t="str">
+        <v>467,14</v>
+      </c>
+      <c r="D6" s="3" t="str">
+        <v>484,00</v>
+      </c>
+      <c r="E6" s="3" t="str">
+        <v>360,00</v>
+      </c>
+      <c r="F6" s="3" t="str">
+        <v>464,30</v>
+      </c>
+      <c r="G6" s="3" t="str">
+        <v>600,00</v>
+      </c>
+      <c r="H6" s="3" t="str">
+        <v>412,00</v>
+      </c>
+      <c r="I6" s="3" t="str">
+        <v>407,69</v>
+      </c>
+      <c r="J6" s="3" t="str">
+        <v>390,00</v>
+      </c>
+      <c r="K6" s="3" t="str">
+        <v>390,00</v>
+      </c>
+      <c r="L6" s="3" t="str">
+        <v>318,00</v>
+      </c>
+      <c r="M6" s="3" t="str">
+        <v>427,00</v>
+      </c>
+      <c r="N6" s="3" t="str">
+        <v>414,00</v>
+      </c>
+      <c r="O6" s="3" t="str">
+        <v>380,00</v>
+      </c>
+      <c r="P6" s="3" t="str">
+        <v>425,00</v>
+      </c>
+      <c r="Q6" s="3" t="str">
+        <v>444,00</v>
+      </c>
+      <c r="R6" s="3" t="str">
+        <v>400,00</v>
+      </c>
+      <c r="S6" s="3" t="str">
+        <v>405,20</v>
+      </c>
+      <c r="T6" s="3" t="str">
+        <v>382,00</v>
+      </c>
+      <c r="U6" s="3" t="str">
+        <v>390,00</v>
+      </c>
+      <c r="V6" s="3" t="str">
+        <v>390,00</v>
+      </c>
+      <c r="W6" s="3" t="str">
+        <v>392,00</v>
+      </c>
+      <c r="X6" s="3" t="str">
+        <v>400,00</v>
+      </c>
+      <c r="Y6" s="3" t="str">
+        <v>449,59</v>
+      </c>
+      <c r="Z6" s="3" t="str">
+        <v>372,00</v>
+      </c>
+      <c r="AA6" s="3" t="str">
+        <v>375,60</v>
+      </c>
+      <c r="AB6" s="3" t="str">
+        <v>366,00</v>
+      </c>
+      <c r="AC6" s="3" t="str">
+        <v>407,00</v>
+      </c>
+      <c r="AD6" s="3" t="str">
+        <v>375,00</v>
+      </c>
+      <c r="AE6" s="3" t="str">
+        <v>400,00</v>
+      </c>
+      <c r="AF6" s="3" t="str">
+        <v>430,00</v>
+      </c>
+      <c r="AG6" s="3" t="str">
+        <v>399,00</v>
+      </c>
+      <c r="AH6" s="3" t="str">
         <v>251,00</v>
       </c>
-      <c r="C6" s="2" t="str">
+      <c r="AI6" s="3" t="str">
         <v>389,50</v>
       </c>
-      <c r="D6" s="2" t="str">
+      <c r="AJ6" s="3" t="str">
         <v>406,26</v>
       </c>
-      <c r="E6" s="2" t="str">
+      <c r="AK6" s="3" t="str">
         <v>390,00</v>
       </c>
-      <c r="F6" s="2" t="str">
+      <c r="AL6" s="3" t="str">
         <v>392,00</v>
       </c>
-      <c r="G6" s="2" t="str">
+      <c r="AM6" s="3" t="str">
         <v>424,41</v>
+      </c>
+      <c r="AN6" s="3" t="str">
+        <v>384,00</v>
+      </c>
+      <c r="AO6" s="3" t="str">
+        <v>390,00</v>
+      </c>
+      <c r="AP6" s="3" t="str">
+        <v>430,00</v>
+      </c>
+      <c r="AQ6" s="3" t="str">
+        <v>392,64</v>
+      </c>
+      <c r="AR6" s="3" t="str">
+        <v>390,00</v>
+      </c>
+      <c r="AS6" s="3" t="str">
+        <v>384,00</v>
+      </c>
+      <c r="AT6" s="3" t="str">
+        <v>390,00</v>
+      </c>
+      <c r="AU6" s="3" t="str">
+        <v>386,90</v>
+      </c>
+      <c r="AV6" s="3" t="str">
+        <v>387,00</v>
+      </c>
+      <c r="AW6" s="3" t="str">
+        <v>402,00</v>
+      </c>
+      <c r="AX6" s="3" t="str">
+        <v>405,32</v>
+      </c>
+      <c r="AY6" s="3" t="str">
+        <v>392,00</v>
+      </c>
+      <c r="AZ6" s="3" t="str">
+        <v>400,00</v>
+      </c>
+      <c r="BA6" s="3" t="str">
+        <v>474,00</v>
+      </c>
+      <c r="BB6" s="3" t="str">
+        <v>423,40</v>
+      </c>
+      <c r="BC6" s="3" t="str">
+        <v>408,20</v>
+      </c>
+      <c r="BD6" s="3" t="str">
+        <v>418,00</v>
+      </c>
+      <c r="BE6" s="3" t="str">
+        <v>414,00</v>
+      </c>
+      <c r="BF6" s="3" t="str">
+        <v>398,00</v>
+      </c>
+      <c r="BG6" s="3" t="str">
+        <v>397,57</v>
+      </c>
+      <c r="BH6" s="3" t="str">
+        <v>393,76</v>
+      </c>
+      <c r="BI6" s="3" t="str">
+        <v>95,00</v>
+      </c>
+      <c r="BJ6" s="3" t="str">
+        <v>95,00</v>
+      </c>
+      <c r="BK6" s="3" t="str">
+        <v>95,00</v>
+      </c>
+      <c r="BL6" s="3" t="str">
+        <v>95,00</v>
+      </c>
+      <c r="BM6" s="3" t="str">
+        <v>95,00</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="str">
+      <c r="A7" s="4" t="str">
         <v>3-4</v>
       </c>
-      <c r="B7" s="2" t="str">
+      <c r="B7" s="3" t="str">
+        <v>472,50</v>
+      </c>
+      <c r="C7" s="3" t="str">
+        <v>464,23</v>
+      </c>
+      <c r="D7" s="3" t="str">
+        <v>482,70</v>
+      </c>
+      <c r="E7" s="3" t="str">
+        <v>341,10</v>
+      </c>
+      <c r="F7" s="3" t="str">
+        <v>467,50</v>
+      </c>
+      <c r="G7" s="3" t="str">
+        <v>516,00</v>
+      </c>
+      <c r="H7" s="3" t="str">
+        <v>407,40</v>
+      </c>
+      <c r="I7" s="3" t="str">
+        <v>402,00</v>
+      </c>
+      <c r="J7" s="3" t="str">
+        <v>394,00</v>
+      </c>
+      <c r="K7" s="3" t="str">
+        <v>391,10</v>
+      </c>
+      <c r="L7" s="3" t="str">
+        <v>321,99</v>
+      </c>
+      <c r="M7" s="3" t="str">
+        <v>421,75</v>
+      </c>
+      <c r="N7" s="3" t="str">
+        <v>412,00</v>
+      </c>
+      <c r="O7" s="3" t="str">
+        <v>352,48</v>
+      </c>
+      <c r="P7" s="3" t="str">
+        <v>421,00</v>
+      </c>
+      <c r="Q7" s="3" t="str">
+        <v>426,00</v>
+      </c>
+      <c r="R7" s="3" t="str">
+        <v>390,00</v>
+      </c>
+      <c r="S7" s="3" t="str">
+        <v>396,00</v>
+      </c>
+      <c r="T7" s="3" t="str">
+        <v>380,00</v>
+      </c>
+      <c r="U7" s="3" t="str">
+        <v>390,00</v>
+      </c>
+      <c r="V7" s="3" t="str">
+        <v>380,00</v>
+      </c>
+      <c r="W7" s="3" t="str">
+        <v>390,00</v>
+      </c>
+      <c r="X7" s="3" t="str">
+        <v>392,00</v>
+      </c>
+      <c r="Y7" s="3" t="str">
+        <v>440,00</v>
+      </c>
+      <c r="Z7" s="3" t="str">
+        <v>370,00</v>
+      </c>
+      <c r="AA7" s="3" t="str">
+        <v>376,00</v>
+      </c>
+      <c r="AB7" s="3" t="str">
+        <v>368,00</v>
+      </c>
+      <c r="AC7" s="3" t="str">
+        <v>404,51</v>
+      </c>
+      <c r="AD7" s="3" t="str">
+        <v>372,10</v>
+      </c>
+      <c r="AE7" s="3" t="str">
+        <v>400,00</v>
+      </c>
+      <c r="AF7" s="3" t="str">
+        <v>420,00</v>
+      </c>
+      <c r="AG7" s="3" t="str">
+        <v>400,00</v>
+      </c>
+      <c r="AH7" s="3" t="str">
         <v>250,00</v>
       </c>
-      <c r="C7" s="2" t="str">
+      <c r="AI7" s="3" t="str">
         <v>376,00</v>
       </c>
-      <c r="D7" s="2" t="str">
+      <c r="AJ7" s="3" t="str">
         <v>407,00</v>
       </c>
-      <c r="E7" s="2" t="str">
+      <c r="AK7" s="3" t="str">
         <v>390,00</v>
       </c>
-      <c r="F7" s="2" t="str">
+      <c r="AL7" s="3" t="str">
         <v>388,00</v>
       </c>
-      <c r="G7" s="2" t="str">
+      <c r="AM7" s="3" t="str">
         <v>436,90</v>
+      </c>
+      <c r="AN7" s="3" t="str">
+        <v>375,00</v>
+      </c>
+      <c r="AO7" s="3" t="str">
+        <v>392,00</v>
+      </c>
+      <c r="AP7" s="3" t="str">
+        <v>440,20</v>
+      </c>
+      <c r="AQ7" s="3" t="str">
+        <v>390,00</v>
+      </c>
+      <c r="AR7" s="3" t="str">
+        <v>390,00</v>
+      </c>
+      <c r="AS7" s="3" t="str">
+        <v>384,00</v>
+      </c>
+      <c r="AT7" s="3" t="str">
+        <v>390,00</v>
+      </c>
+      <c r="AU7" s="3" t="str">
+        <v>370,00</v>
+      </c>
+      <c r="AV7" s="3" t="str">
+        <v>388,00</v>
+      </c>
+      <c r="AW7" s="3" t="str">
+        <v>404,90</v>
+      </c>
+      <c r="AX7" s="3" t="str">
+        <v>406,00</v>
+      </c>
+      <c r="AY7" s="3" t="str">
+        <v>380,81</v>
+      </c>
+      <c r="AZ7" s="3" t="str">
+        <v>397,31</v>
+      </c>
+      <c r="BA7" s="3" t="str">
+        <v>465,12</v>
+      </c>
+      <c r="BB7" s="3" t="str">
+        <v>411,88</v>
+      </c>
+      <c r="BC7" s="3" t="str">
+        <v>398,00</v>
+      </c>
+      <c r="BD7" s="3" t="str">
+        <v>412,00</v>
+      </c>
+      <c r="BE7" s="3" t="str">
+        <v>418,00</v>
+      </c>
+      <c r="BF7" s="3" t="str">
+        <v>404,00</v>
+      </c>
+      <c r="BG7" s="3" t="str">
+        <v>398,00</v>
+      </c>
+      <c r="BH7" s="3" t="str">
+        <v>400,00</v>
+      </c>
+      <c r="BI7" s="3" t="str">
+        <v>77,00</v>
+      </c>
+      <c r="BJ7" s="3" t="str">
+        <v>77,00</v>
+      </c>
+      <c r="BK7" s="3" t="str">
+        <v>77,00</v>
+      </c>
+      <c r="BL7" s="3" t="str">
+        <v>77,00</v>
+      </c>
+      <c r="BM7" s="3" t="str">
+        <v>77,00</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="str">
+      <c r="A8" s="4" t="str">
         <v>4-5</v>
       </c>
-      <c r="B8" s="2" t="str">
+      <c r="B8" s="3" t="str">
+        <v>475,60</v>
+      </c>
+      <c r="C8" s="3" t="str">
+        <v>435,60</v>
+      </c>
+      <c r="D8" s="3" t="str">
+        <v>478,00</v>
+      </c>
+      <c r="E8" s="3" t="str">
+        <v>284,12</v>
+      </c>
+      <c r="F8" s="3" t="str">
+        <v>451,70</v>
+      </c>
+      <c r="G8" s="3" t="str">
+        <v>504,00</v>
+      </c>
+      <c r="H8" s="3" t="str">
+        <v>406,00</v>
+      </c>
+      <c r="I8" s="3" t="str">
+        <v>406,00</v>
+      </c>
+      <c r="J8" s="3" t="str">
+        <v>386,00</v>
+      </c>
+      <c r="K8" s="3" t="str">
+        <v>390,00</v>
+      </c>
+      <c r="L8" s="3" t="str">
+        <v>323,99</v>
+      </c>
+      <c r="M8" s="3" t="str">
+        <v>417,19</v>
+      </c>
+      <c r="N8" s="3" t="str">
+        <v>416,80</v>
+      </c>
+      <c r="O8" s="3" t="str">
+        <v>356,52</v>
+      </c>
+      <c r="P8" s="3" t="str">
+        <v>418,00</v>
+      </c>
+      <c r="Q8" s="3" t="str">
+        <v>422,00</v>
+      </c>
+      <c r="R8" s="3" t="str">
+        <v>420,00</v>
+      </c>
+      <c r="S8" s="3" t="str">
+        <v>396,25</v>
+      </c>
+      <c r="T8" s="3" t="str">
+        <v>380,00</v>
+      </c>
+      <c r="U8" s="3" t="str">
+        <v>390,00</v>
+      </c>
+      <c r="V8" s="3" t="str">
+        <v>387,70</v>
+      </c>
+      <c r="W8" s="3" t="str">
+        <v>388,00</v>
+      </c>
+      <c r="X8" s="3" t="str">
+        <v>388,00</v>
+      </c>
+      <c r="Y8" s="3" t="str">
+        <v>428,00</v>
+      </c>
+      <c r="Z8" s="3" t="str">
+        <v>360,00</v>
+      </c>
+      <c r="AA8" s="3" t="str">
+        <v>381,20</v>
+      </c>
+      <c r="AB8" s="3" t="str">
+        <v>368,00</v>
+      </c>
+      <c r="AC8" s="3" t="str">
+        <v>410,00</v>
+      </c>
+      <c r="AD8" s="3" t="str">
+        <v>375,00</v>
+      </c>
+      <c r="AE8" s="3" t="str">
+        <v>405,40</v>
+      </c>
+      <c r="AF8" s="3" t="str">
+        <v>410,02</v>
+      </c>
+      <c r="AG8" s="3" t="str">
+        <v>394,00</v>
+      </c>
+      <c r="AH8" s="3" t="str">
         <v>272,00</v>
       </c>
-      <c r="C8" s="2" t="str">
+      <c r="AI8" s="3" t="str">
         <v>381,08</v>
       </c>
-      <c r="D8" s="2" t="str">
+      <c r="AJ8" s="3" t="str">
         <v>408,00</v>
       </c>
-      <c r="E8" s="2" t="str">
+      <c r="AK8" s="3" t="str">
         <v>397,20</v>
       </c>
-      <c r="F8" s="2" t="str">
+      <c r="AL8" s="3" t="str">
         <v>390,00</v>
       </c>
-      <c r="G8" s="2" t="str">
+      <c r="AM8" s="3" t="str">
         <v>428,00</v>
+      </c>
+      <c r="AN8" s="3" t="str">
+        <v>386,00</v>
+      </c>
+      <c r="AO8" s="3" t="str">
+        <v>392,00</v>
+      </c>
+      <c r="AP8" s="3" t="str">
+        <v>430,00</v>
+      </c>
+      <c r="AQ8" s="3" t="str">
+        <v>400,00</v>
+      </c>
+      <c r="AR8" s="3" t="str">
+        <v>398,00</v>
+      </c>
+      <c r="AS8" s="3" t="str">
+        <v>390,00</v>
+      </c>
+      <c r="AT8" s="3" t="str">
+        <v>390,00</v>
+      </c>
+      <c r="AU8" s="3" t="str">
+        <v>359,99</v>
+      </c>
+      <c r="AV8" s="3" t="str">
+        <v>394,00</v>
+      </c>
+      <c r="AW8" s="3" t="str">
+        <v>420,00</v>
+      </c>
+      <c r="AX8" s="3" t="str">
+        <v>415,78</v>
+      </c>
+      <c r="AY8" s="3" t="str">
+        <v>385,00</v>
+      </c>
+      <c r="AZ8" s="3" t="str">
+        <v>410,00</v>
+      </c>
+      <c r="BA8" s="3" t="str">
+        <v>479,00</v>
+      </c>
+      <c r="BB8" s="3" t="str">
+        <v>417,00</v>
+      </c>
+      <c r="BC8" s="3" t="str">
+        <v>407,00</v>
+      </c>
+      <c r="BD8" s="3" t="str">
+        <v>424,00</v>
+      </c>
+      <c r="BE8" s="3" t="str">
+        <v>422,00</v>
+      </c>
+      <c r="BF8" s="3" t="str">
+        <v>410,00</v>
+      </c>
+      <c r="BG8" s="3" t="str">
+        <v>400,00</v>
+      </c>
+      <c r="BH8" s="3" t="str">
+        <v>420,00</v>
+      </c>
+      <c r="BI8" s="3" t="str">
+        <v>80,00</v>
+      </c>
+      <c r="BJ8" s="3" t="str">
+        <v>80,00</v>
+      </c>
+      <c r="BK8" s="3" t="str">
+        <v>80,00</v>
+      </c>
+      <c r="BL8" s="3" t="str">
+        <v>80,00</v>
+      </c>
+      <c r="BM8" s="3" t="str">
+        <v>80,00</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="str">
+      <c r="A9" s="4" t="str">
         <v>5-6</v>
       </c>
-      <c r="B9" s="2" t="str">
+      <c r="B9" s="3" t="str">
+        <v>490,64</v>
+      </c>
+      <c r="C9" s="3" t="str">
+        <v>487,14</v>
+      </c>
+      <c r="D9" s="3" t="str">
+        <v>478,00</v>
+      </c>
+      <c r="E9" s="3" t="str">
+        <v>245,30</v>
+      </c>
+      <c r="F9" s="3" t="str">
+        <v>469,81</v>
+      </c>
+      <c r="G9" s="3" t="str">
+        <v>516,00</v>
+      </c>
+      <c r="H9" s="3" t="str">
+        <v>420,00</v>
+      </c>
+      <c r="I9" s="3" t="str">
+        <v>424,69</v>
+      </c>
+      <c r="J9" s="3" t="str">
+        <v>394,00</v>
+      </c>
+      <c r="K9" s="3" t="str">
+        <v>406,00</v>
+      </c>
+      <c r="L9" s="3" t="str">
+        <v>320,00</v>
+      </c>
+      <c r="M9" s="3" t="str">
+        <v>452,83</v>
+      </c>
+      <c r="N9" s="3" t="str">
+        <v>428,40</v>
+      </c>
+      <c r="O9" s="3" t="str">
+        <v>367,55</v>
+      </c>
+      <c r="P9" s="3" t="str">
+        <v>441,01</v>
+      </c>
+      <c r="Q9" s="3" t="str">
+        <v>440,00</v>
+      </c>
+      <c r="R9" s="3" t="str">
+        <v>367,55</v>
+      </c>
+      <c r="S9" s="3" t="str">
+        <v>386,00</v>
+      </c>
+      <c r="T9" s="3" t="str">
+        <v>400,00</v>
+      </c>
+      <c r="U9" s="3" t="str">
+        <v>414,00</v>
+      </c>
+      <c r="V9" s="3" t="str">
+        <v>416,00</v>
+      </c>
+      <c r="W9" s="3" t="str">
+        <v>416,00</v>
+      </c>
+      <c r="X9" s="3" t="str">
+        <v>420,00</v>
+      </c>
+      <c r="Y9" s="3" t="str">
+        <v>410,00</v>
+      </c>
+      <c r="Z9" s="3" t="str">
+        <v>349,12</v>
+      </c>
+      <c r="AA9" s="3" t="str">
+        <v>402,10</v>
+      </c>
+      <c r="AB9" s="3" t="str">
+        <v>395,00</v>
+      </c>
+      <c r="AC9" s="3" t="str">
+        <v>424,00</v>
+      </c>
+      <c r="AD9" s="3" t="str">
+        <v>392,00</v>
+      </c>
+      <c r="AE9" s="3" t="str">
+        <v>420,00</v>
+      </c>
+      <c r="AF9" s="3" t="str">
+        <v>404,37</v>
+      </c>
+      <c r="AG9" s="3" t="str">
+        <v>382,00</v>
+      </c>
+      <c r="AH9" s="3" t="str">
         <v>298,00</v>
       </c>
-      <c r="C9" s="2" t="str">
+      <c r="AI9" s="3" t="str">
         <v>393,55</v>
       </c>
-      <c r="D9" s="2" t="str">
+      <c r="AJ9" s="3" t="str">
         <v>443,55</v>
       </c>
-      <c r="E9" s="2" t="str">
+      <c r="AK9" s="3" t="str">
         <v>437,00</v>
       </c>
-      <c r="F9" s="2" t="str">
+      <c r="AL9" s="3" t="str">
         <v>431,28</v>
       </c>
-      <c r="G9" s="2" t="str">
+      <c r="AM9" s="3" t="str">
         <v>447,91</v>
+      </c>
+      <c r="AN9" s="3" t="str">
+        <v>392,00</v>
+      </c>
+      <c r="AO9" s="3" t="str">
+        <v>424,10</v>
+      </c>
+      <c r="AP9" s="3" t="str">
+        <v>468,20</v>
+      </c>
+      <c r="AQ9" s="3" t="str">
+        <v>448,20</v>
+      </c>
+      <c r="AR9" s="3" t="str">
+        <v>430,40</v>
+      </c>
+      <c r="AS9" s="3" t="str">
+        <v>410,00</v>
+      </c>
+      <c r="AT9" s="3" t="str">
+        <v>396,00</v>
+      </c>
+      <c r="AU9" s="3" t="str">
+        <v>340,00</v>
+      </c>
+      <c r="AV9" s="3" t="str">
+        <v>445,00</v>
+      </c>
+      <c r="AW9" s="3" t="str">
+        <v>455,20</v>
+      </c>
+      <c r="AX9" s="3" t="str">
+        <v>454,00</v>
+      </c>
+      <c r="AY9" s="3" t="str">
+        <v>405,01</v>
+      </c>
+      <c r="AZ9" s="3" t="str">
+        <v>418,49</v>
+      </c>
+      <c r="BA9" s="3" t="str">
+        <v>465,00</v>
+      </c>
+      <c r="BB9" s="3" t="str">
+        <v>406,80</v>
+      </c>
+      <c r="BC9" s="3" t="str">
+        <v>440,00</v>
+      </c>
+      <c r="BD9" s="3" t="str">
+        <v>451,59</v>
+      </c>
+      <c r="BE9" s="3" t="str">
+        <v>450,00</v>
+      </c>
+      <c r="BF9" s="3" t="str">
+        <v>446,30</v>
+      </c>
+      <c r="BG9" s="3" t="str">
+        <v>416,00</v>
+      </c>
+      <c r="BH9" s="3" t="str">
+        <v>440,00</v>
+      </c>
+      <c r="BI9" s="3" t="str">
+        <v>77,00</v>
+      </c>
+      <c r="BJ9" s="3" t="str">
+        <v>77,00</v>
+      </c>
+      <c r="BK9" s="3" t="str">
+        <v>77,00</v>
+      </c>
+      <c r="BL9" s="3" t="str">
+        <v>77,00</v>
+      </c>
+      <c r="BM9" s="3" t="str">
+        <v>77,00</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="str">
+      <c r="A10" s="4" t="str">
         <v>6-7</v>
       </c>
-      <c r="B10" s="2" t="str">
+      <c r="B10" s="3" t="str">
+        <v>584,51</v>
+      </c>
+      <c r="C10" s="3" t="str">
+        <v>546,26</v>
+      </c>
+      <c r="D10" s="3" t="str">
+        <v>459,00</v>
+      </c>
+      <c r="E10" s="3" t="str">
+        <v>190,00</v>
+      </c>
+      <c r="F10" s="3" t="str">
+        <v>600,89</v>
+      </c>
+      <c r="G10" s="3" t="str">
+        <v>636,00</v>
+      </c>
+      <c r="H10" s="3" t="str">
+        <v>550,00</v>
+      </c>
+      <c r="I10" s="3" t="str">
+        <v>546,00</v>
+      </c>
+      <c r="J10" s="3" t="str">
+        <v>496,00</v>
+      </c>
+      <c r="K10" s="3" t="str">
+        <v>415,69</v>
+      </c>
+      <c r="L10" s="3" t="str">
+        <v>320,00</v>
+      </c>
+      <c r="M10" s="3" t="str">
+        <v>700,00</v>
+      </c>
+      <c r="N10" s="3" t="str">
+        <v>534,25</v>
+      </c>
+      <c r="O10" s="3" t="str">
+        <v>550,00</v>
+      </c>
+      <c r="P10" s="3" t="str">
+        <v>588,00</v>
+      </c>
+      <c r="Q10" s="3" t="str">
+        <v>560,00</v>
+      </c>
+      <c r="R10" s="3" t="str">
+        <v>375,00</v>
+      </c>
+      <c r="S10" s="3" t="str">
+        <v>378,00</v>
+      </c>
+      <c r="T10" s="3" t="str">
+        <v>590,00</v>
+      </c>
+      <c r="U10" s="3" t="str">
+        <v>510,00</v>
+      </c>
+      <c r="V10" s="3" t="str">
+        <v>570,00</v>
+      </c>
+      <c r="W10" s="3" t="str">
+        <v>570,90</v>
+      </c>
+      <c r="X10" s="3" t="str">
+        <v>546,14</v>
+      </c>
+      <c r="Y10" s="3" t="str">
+        <v>419,00</v>
+      </c>
+      <c r="Z10" s="3" t="str">
+        <v>347,92</v>
+      </c>
+      <c r="AA10" s="3" t="str">
+        <v>599,64</v>
+      </c>
+      <c r="AB10" s="3" t="str">
+        <v>600,00</v>
+      </c>
+      <c r="AC10" s="3" t="str">
+        <v>615,00</v>
+      </c>
+      <c r="AD10" s="3" t="str">
+        <v>573,51</v>
+      </c>
+      <c r="AE10" s="3" t="str">
+        <v>620,00</v>
+      </c>
+      <c r="AF10" s="3" t="str">
+        <v>434,00</v>
+      </c>
+      <c r="AG10" s="3" t="str">
+        <v>412,00</v>
+      </c>
+      <c r="AH10" s="3" t="str">
         <v>406,00</v>
       </c>
-      <c r="C10" s="2" t="str">
+      <c r="AI10" s="3" t="str">
         <v>509,11</v>
       </c>
-      <c r="D10" s="2" t="str">
+      <c r="AJ10" s="3" t="str">
         <v>550,00</v>
       </c>
-      <c r="E10" s="2" t="str">
+      <c r="AK10" s="3" t="str">
         <v>530,00</v>
       </c>
-      <c r="F10" s="2" t="str">
+      <c r="AL10" s="3" t="str">
         <v>542,00</v>
       </c>
-      <c r="G10" s="2" t="str">
+      <c r="AM10" s="3" t="str">
         <v>480,00</v>
+      </c>
+      <c r="AN10" s="3" t="str">
+        <v>396,00</v>
+      </c>
+      <c r="AO10" s="3" t="str">
+        <v>505,60</v>
+      </c>
+      <c r="AP10" s="3" t="str">
+        <v>528,00</v>
+      </c>
+      <c r="AQ10" s="3" t="str">
+        <v>547,00</v>
+      </c>
+      <c r="AR10" s="3" t="str">
+        <v>567,78</v>
+      </c>
+      <c r="AS10" s="3" t="str">
+        <v>520,00</v>
+      </c>
+      <c r="AT10" s="3" t="str">
+        <v>400,00</v>
+      </c>
+      <c r="AU10" s="3" t="str">
+        <v>320,00</v>
+      </c>
+      <c r="AV10" s="3" t="str">
+        <v>590,00</v>
+      </c>
+      <c r="AW10" s="3" t="str">
+        <v>590,00</v>
+      </c>
+      <c r="AX10" s="3" t="str">
+        <v>541,16</v>
+      </c>
+      <c r="AY10" s="3" t="str">
+        <v>409,10</v>
+      </c>
+      <c r="AZ10" s="3" t="str">
+        <v>514,32</v>
+      </c>
+      <c r="BA10" s="3" t="str">
+        <v>496,00</v>
+      </c>
+      <c r="BB10" s="3" t="str">
+        <v>408,76</v>
+      </c>
+      <c r="BC10" s="3" t="str">
+        <v>625,00</v>
+      </c>
+      <c r="BD10" s="3" t="str">
+        <v>613,00</v>
+      </c>
+      <c r="BE10" s="3" t="str">
+        <v>571,10</v>
+      </c>
+      <c r="BF10" s="3" t="str">
+        <v>532,10</v>
+      </c>
+      <c r="BG10" s="3" t="str">
+        <v>490,30</v>
+      </c>
+      <c r="BH10" s="3" t="str">
+        <v>480,00</v>
+      </c>
+      <c r="BI10" s="3" t="str">
+        <v>50,00</v>
+      </c>
+      <c r="BJ10" s="3" t="str">
+        <v>50,00</v>
+      </c>
+      <c r="BK10" s="3" t="str">
+        <v>50,00</v>
+      </c>
+      <c r="BL10" s="3" t="str">
+        <v>50,00</v>
+      </c>
+      <c r="BM10" s="3" t="str">
+        <v>50,00</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="str">
+      <c r="A11" s="4" t="str">
         <v>7-8</v>
       </c>
-      <c r="B11" s="2" t="str">
+      <c r="B11" s="3" t="str">
+        <v>600,00</v>
+      </c>
+      <c r="C11" s="3" t="str">
+        <v>550,00</v>
+      </c>
+      <c r="D11" s="3" t="str">
+        <v>482,70</v>
+      </c>
+      <c r="E11" s="3" t="str">
+        <v>139,37</v>
+      </c>
+      <c r="F11" s="3" t="str">
+        <v>614,04</v>
+      </c>
+      <c r="G11" s="3" t="str">
+        <v>660,00</v>
+      </c>
+      <c r="H11" s="3" t="str">
+        <v>494,10</v>
+      </c>
+      <c r="I11" s="3" t="str">
+        <v>455,00</v>
+      </c>
+      <c r="J11" s="3" t="str">
+        <v>364,06</v>
+      </c>
+      <c r="K11" s="3" t="str">
+        <v>380,00</v>
+      </c>
+      <c r="L11" s="3" t="str">
+        <v>305,99</v>
+      </c>
+      <c r="M11" s="3" t="str">
+        <v>650,48</v>
+      </c>
+      <c r="N11" s="3" t="str">
+        <v>513,20</v>
+      </c>
+      <c r="O11" s="3" t="str">
+        <v>430,64</v>
+      </c>
+      <c r="P11" s="3" t="str">
+        <v>567,30</v>
+      </c>
+      <c r="Q11" s="3" t="str">
+        <v>575,90</v>
+      </c>
+      <c r="R11" s="3" t="str">
+        <v>370,00</v>
+      </c>
+      <c r="S11" s="3" t="str">
+        <v>399,89</v>
+      </c>
+      <c r="T11" s="3" t="str">
+        <v>548,38</v>
+      </c>
+      <c r="U11" s="3" t="str">
+        <v>433,00</v>
+      </c>
+      <c r="V11" s="3" t="str">
+        <v>532,80</v>
+      </c>
+      <c r="W11" s="3" t="str">
+        <v>528,90</v>
+      </c>
+      <c r="X11" s="3" t="str">
+        <v>500,00</v>
+      </c>
+      <c r="Y11" s="3" t="str">
+        <v>412,00</v>
+      </c>
+      <c r="Z11" s="3" t="str">
+        <v>323,99</v>
+      </c>
+      <c r="AA11" s="3" t="str">
+        <v>518,56</v>
+      </c>
+      <c r="AB11" s="3" t="str">
+        <v>550,00</v>
+      </c>
+      <c r="AC11" s="3" t="str">
+        <v>604,51</v>
+      </c>
+      <c r="AD11" s="3" t="str">
+        <v>559,87</v>
+      </c>
+      <c r="AE11" s="3" t="str">
+        <v>560,00</v>
+      </c>
+      <c r="AF11" s="3" t="str">
+        <v>427,00</v>
+      </c>
+      <c r="AG11" s="3" t="str">
+        <v>390,00</v>
+      </c>
+      <c r="AH11" s="3" t="str">
         <v>378,00</v>
       </c>
-      <c r="C11" s="2" t="str">
+      <c r="AI11" s="3" t="str">
         <v>506,40</v>
       </c>
-      <c r="D11" s="2" t="str">
+      <c r="AJ11" s="3" t="str">
         <v>530,00</v>
       </c>
-      <c r="E11" s="2" t="str">
+      <c r="AK11" s="3" t="str">
         <v>520,00</v>
       </c>
-      <c r="F11" s="2" t="str">
+      <c r="AL11" s="3" t="str">
         <v>540,00</v>
       </c>
-      <c r="G11" s="2" t="str">
+      <c r="AM11" s="3" t="str">
         <v>488,68</v>
+      </c>
+      <c r="AN11" s="3" t="str">
+        <v>359,00</v>
+      </c>
+      <c r="AO11" s="3" t="str">
+        <v>506,40</v>
+      </c>
+      <c r="AP11" s="3" t="str">
+        <v>532,00</v>
+      </c>
+      <c r="AQ11" s="3" t="str">
+        <v>549,39</v>
+      </c>
+      <c r="AR11" s="3" t="str">
+        <v>570,00</v>
+      </c>
+      <c r="AS11" s="3" t="str">
+        <v>460,01</v>
+      </c>
+      <c r="AT11" s="3" t="str">
+        <v>380,10</v>
+      </c>
+      <c r="AU11" s="3" t="str">
+        <v>253,91</v>
+      </c>
+      <c r="AV11" s="3" t="str">
+        <v>532,00</v>
+      </c>
+      <c r="AW11" s="3" t="str">
+        <v>550,00</v>
+      </c>
+      <c r="AX11" s="3" t="str">
+        <v>541,16</v>
+      </c>
+      <c r="AY11" s="3" t="str">
+        <v>400,01</v>
+      </c>
+      <c r="AZ11" s="3" t="str">
+        <v>517,80</v>
+      </c>
+      <c r="BA11" s="3" t="str">
+        <v>500,00</v>
+      </c>
+      <c r="BB11" s="3" t="str">
+        <v>404,00</v>
+      </c>
+      <c r="BC11" s="3" t="str">
+        <v>659,00</v>
+      </c>
+      <c r="BD11" s="3" t="str">
+        <v>570,69</v>
+      </c>
+      <c r="BE11" s="3" t="str">
+        <v>599,90</v>
+      </c>
+      <c r="BF11" s="3" t="str">
+        <v>520,01</v>
+      </c>
+      <c r="BG11" s="3" t="str">
+        <v>478,30</v>
+      </c>
+      <c r="BH11" s="3" t="str">
+        <v>448,40</v>
+      </c>
+      <c r="BI11" s="3" t="str">
+        <v>26,34</v>
+      </c>
+      <c r="BJ11" s="3" t="str">
+        <v>26,34</v>
+      </c>
+      <c r="BK11" s="3" t="str">
+        <v>26,34</v>
+      </c>
+      <c r="BL11" s="3" t="str">
+        <v>26,34</v>
+      </c>
+      <c r="BM11" s="3" t="str">
+        <v>26,34</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="str">
+      <c r="A12" s="4" t="str">
         <v>8-9</v>
       </c>
-      <c r="B12" s="2" t="str">
+      <c r="B12" s="3" t="str">
+        <v>554,56</v>
+      </c>
+      <c r="C12" s="3" t="str">
+        <v>640,00</v>
+      </c>
+      <c r="D12" s="3" t="str">
+        <v>450,00</v>
+      </c>
+      <c r="E12" s="3" t="str">
+        <v>50,00</v>
+      </c>
+      <c r="F12" s="3" t="str">
+        <v>639,00</v>
+      </c>
+      <c r="G12" s="3" t="str">
+        <v>598,00</v>
+      </c>
+      <c r="H12" s="3" t="str">
+        <v>500,00</v>
+      </c>
+      <c r="I12" s="3" t="str">
+        <v>390,00</v>
+      </c>
+      <c r="J12" s="3" t="str">
+        <v>320,00</v>
+      </c>
+      <c r="K12" s="3" t="str">
+        <v>339,40</v>
+      </c>
+      <c r="L12" s="3" t="str">
+        <v>240,00</v>
+      </c>
+      <c r="M12" s="3" t="str">
+        <v>639,00</v>
+      </c>
+      <c r="N12" s="3" t="str">
+        <v>430,00</v>
+      </c>
+      <c r="O12" s="3" t="str">
+        <v>365,99</v>
+      </c>
+      <c r="P12" s="3" t="str">
+        <v>549,00</v>
+      </c>
+      <c r="Q12" s="3" t="str">
+        <v>500,00</v>
+      </c>
+      <c r="R12" s="3" t="str">
+        <v>337,99</v>
+      </c>
+      <c r="S12" s="3" t="str">
+        <v>349,89</v>
+      </c>
+      <c r="T12" s="3" t="str">
+        <v>433,70</v>
+      </c>
+      <c r="U12" s="3" t="str">
+        <v>396,00</v>
+      </c>
+      <c r="V12" s="3" t="str">
+        <v>402,00</v>
+      </c>
+      <c r="W12" s="3" t="str">
+        <v>441,10</v>
+      </c>
+      <c r="X12" s="3" t="str">
+        <v>450,00</v>
+      </c>
+      <c r="Y12" s="3" t="str">
+        <v>380,00</v>
+      </c>
+      <c r="Z12" s="3" t="str">
+        <v>239,00</v>
+      </c>
+      <c r="AA12" s="3" t="str">
+        <v>479,00</v>
+      </c>
+      <c r="AB12" s="3" t="str">
+        <v>470,00</v>
+      </c>
+      <c r="AC12" s="3" t="str">
+        <v>535,00</v>
+      </c>
+      <c r="AD12" s="3" t="str">
+        <v>440,50</v>
+      </c>
+      <c r="AE12" s="3" t="str">
+        <v>459,32</v>
+      </c>
+      <c r="AF12" s="3" t="str">
+        <v>463,26</v>
+      </c>
+      <c r="AG12" s="3" t="str">
+        <v>361,04</v>
+      </c>
+      <c r="AH12" s="3" t="str">
         <v>299,00</v>
       </c>
-      <c r="C12" s="2" t="str">
+      <c r="AI12" s="3" t="str">
         <v>416,30</v>
       </c>
-      <c r="D12" s="2" t="str">
+      <c r="AJ12" s="3" t="str">
         <v>420,00</v>
       </c>
-      <c r="E12" s="2" t="str">
+      <c r="AK12" s="3" t="str">
         <v>432,41</v>
       </c>
-      <c r="F12" s="2" t="str">
+      <c r="AL12" s="3" t="str">
         <v>488,50</v>
       </c>
-      <c r="G12" s="2" t="str">
+      <c r="AM12" s="3" t="str">
         <v>524,27</v>
+      </c>
+      <c r="AN12" s="3" t="str">
+        <v>259,99</v>
+      </c>
+      <c r="AO12" s="3" t="str">
+        <v>470,00</v>
+      </c>
+      <c r="AP12" s="3" t="str">
+        <v>488,10</v>
+      </c>
+      <c r="AQ12" s="3" t="str">
+        <v>470,00</v>
+      </c>
+      <c r="AR12" s="3" t="str">
+        <v>512,97</v>
+      </c>
+      <c r="AS12" s="3" t="str">
+        <v>372,64</v>
+      </c>
+      <c r="AT12" s="3" t="str">
+        <v>299,00</v>
+      </c>
+      <c r="AU12" s="3" t="str">
+        <v>100,00</v>
+      </c>
+      <c r="AV12" s="3" t="str">
+        <v>436,00</v>
+      </c>
+      <c r="AW12" s="3" t="str">
+        <v>468,50</v>
+      </c>
+      <c r="AX12" s="3" t="str">
+        <v>465,00</v>
+      </c>
+      <c r="AY12" s="3" t="str">
+        <v>363,73</v>
+      </c>
+      <c r="AZ12" s="3" t="str">
+        <v>440,00</v>
+      </c>
+      <c r="BA12" s="3" t="str">
+        <v>486,00</v>
+      </c>
+      <c r="BB12" s="3" t="str">
+        <v>389,00</v>
+      </c>
+      <c r="BC12" s="3" t="str">
+        <v>594,09</v>
+      </c>
+      <c r="BD12" s="3" t="str">
+        <v>511,70</v>
+      </c>
+      <c r="BE12" s="3" t="str">
+        <v>530,49</v>
+      </c>
+      <c r="BF12" s="3" t="str">
+        <v>461,13</v>
+      </c>
+      <c r="BG12" s="3" t="str">
+        <v>422,80</v>
+      </c>
+      <c r="BH12" s="3" t="str">
+        <v>409,40</v>
+      </c>
+      <c r="BI12" s="3" t="str">
+        <v>0,01</v>
+      </c>
+      <c r="BJ12" s="3" t="str">
+        <v>0,01</v>
+      </c>
+      <c r="BK12" s="3" t="str">
+        <v>0,01</v>
+      </c>
+      <c r="BL12" s="3" t="str">
+        <v>0,01</v>
+      </c>
+      <c r="BM12" s="3" t="str">
+        <v>0,01</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="str">
+      <c r="A13" s="4" t="str">
         <v>9-10</v>
       </c>
-      <c r="B13" s="2" t="str">
+      <c r="B13" s="3" t="str">
+        <v>458,30</v>
+      </c>
+      <c r="C13" s="3" t="str">
+        <v>477,14</v>
+      </c>
+      <c r="D13" s="3" t="str">
+        <v>369,00</v>
+      </c>
+      <c r="E13" s="3" t="str">
+        <v>0,00</v>
+      </c>
+      <c r="F13" s="3" t="str">
+        <v>597,00</v>
+      </c>
+      <c r="G13" s="3" t="str">
+        <v>460,00</v>
+      </c>
+      <c r="H13" s="3" t="str">
+        <v>449,67</v>
+      </c>
+      <c r="I13" s="3" t="str">
+        <v>352,40</v>
+      </c>
+      <c r="J13" s="3" t="str">
+        <v>170,00</v>
+      </c>
+      <c r="K13" s="3" t="str">
+        <v>148,88</v>
+      </c>
+      <c r="L13" s="3" t="str">
+        <v>150,00</v>
+      </c>
+      <c r="M13" s="3" t="str">
+        <v>500,00</v>
+      </c>
+      <c r="N13" s="3" t="str">
+        <v>347,99</v>
+      </c>
+      <c r="O13" s="3" t="str">
+        <v>290,00</v>
+      </c>
+      <c r="P13" s="3" t="str">
+        <v>500,00</v>
+      </c>
+      <c r="Q13" s="3" t="str">
+        <v>400,00</v>
+      </c>
+      <c r="R13" s="3" t="str">
+        <v>150,00</v>
+      </c>
+      <c r="S13" s="3" t="str">
+        <v>290,00</v>
+      </c>
+      <c r="T13" s="3" t="str">
+        <v>335,00</v>
+      </c>
+      <c r="U13" s="3" t="str">
+        <v>347,99</v>
+      </c>
+      <c r="V13" s="3" t="str">
+        <v>325,80</v>
+      </c>
+      <c r="W13" s="3" t="str">
+        <v>333,99</v>
+      </c>
+      <c r="X13" s="3" t="str">
+        <v>342,26</v>
+      </c>
+      <c r="Y13" s="3" t="str">
+        <v>250,00</v>
+      </c>
+      <c r="Z13" s="3" t="str">
+        <v>56,08</v>
+      </c>
+      <c r="AA13" s="3" t="str">
+        <v>370,14</v>
+      </c>
+      <c r="AB13" s="3" t="str">
+        <v>410,00</v>
+      </c>
+      <c r="AC13" s="3" t="str">
+        <v>439,16</v>
+      </c>
+      <c r="AD13" s="3" t="str">
+        <v>410,00</v>
+      </c>
+      <c r="AE13" s="3" t="str">
+        <v>410,00</v>
+      </c>
+      <c r="AF13" s="3" t="str">
+        <v>366,50</v>
+      </c>
+      <c r="AG13" s="3" t="str">
+        <v>269,99</v>
+      </c>
+      <c r="AH13" s="3" t="str">
         <v>137,99</v>
       </c>
-      <c r="C13" s="2" t="str">
+      <c r="AI13" s="3" t="str">
         <v>283,99</v>
       </c>
-      <c r="D13" s="2" t="str">
+      <c r="AJ13" s="3" t="str">
         <v>303,99</v>
       </c>
-      <c r="E13" s="2" t="str">
+      <c r="AK13" s="3" t="str">
         <v>355,57</v>
       </c>
-      <c r="F13" s="2" t="str">
+      <c r="AL13" s="3" t="str">
         <v>450,00</v>
       </c>
-      <c r="G13" s="2" t="str">
+      <c r="AM13" s="3" t="str">
         <v>406,00</v>
+      </c>
+      <c r="AN13" s="3" t="str">
+        <v>101,00</v>
+      </c>
+      <c r="AO13" s="3" t="str">
+        <v>421,00</v>
+      </c>
+      <c r="AP13" s="3" t="str">
+        <v>375,12</v>
+      </c>
+      <c r="AQ13" s="3" t="str">
+        <v>352,67</v>
+      </c>
+      <c r="AR13" s="3" t="str">
+        <v>458,75</v>
+      </c>
+      <c r="AS13" s="3" t="str">
+        <v>329,18</v>
+      </c>
+      <c r="AT13" s="3" t="str">
+        <v>12,10</v>
+      </c>
+      <c r="AU13" s="3" t="str">
+        <v>-50,00</v>
+      </c>
+      <c r="AV13" s="3" t="str">
+        <v>290,00</v>
+      </c>
+      <c r="AW13" s="3" t="str">
+        <v>320,00</v>
+      </c>
+      <c r="AX13" s="3" t="str">
+        <v>339,99</v>
+      </c>
+      <c r="AY13" s="3" t="str">
+        <v>200,00</v>
+      </c>
+      <c r="AZ13" s="3" t="str">
+        <v>350,00</v>
+      </c>
+      <c r="BA13" s="3" t="str">
+        <v>400,00</v>
+      </c>
+      <c r="BB13" s="3" t="str">
+        <v>320,00</v>
+      </c>
+      <c r="BC13" s="3" t="str">
+        <v>521,72</v>
+      </c>
+      <c r="BD13" s="3" t="str">
+        <v>430,11</v>
+      </c>
+      <c r="BE13" s="3" t="str">
+        <v>449,00</v>
+      </c>
+      <c r="BF13" s="3" t="str">
+        <v>360,00</v>
+      </c>
+      <c r="BG13" s="3" t="str">
+        <v>363,00</v>
+      </c>
+      <c r="BH13" s="3" t="str">
+        <v>239,99</v>
+      </c>
+      <c r="BI13" s="3" t="str">
+        <v>-49,99</v>
+      </c>
+      <c r="BJ13" s="3" t="str">
+        <v>-49,99</v>
+      </c>
+      <c r="BK13" s="3" t="str">
+        <v>-49,99</v>
+      </c>
+      <c r="BL13" s="3" t="str">
+        <v>-49,99</v>
+      </c>
+      <c r="BM13" s="3" t="str">
+        <v>-49,99</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="str">
+      <c r="A14" s="4" t="str">
         <v>10-11</v>
       </c>
-      <c r="B14" s="2" t="str">
+      <c r="B14" s="3" t="str">
+        <v>340,00</v>
+      </c>
+      <c r="C14" s="3" t="str">
+        <v>481,20</v>
+      </c>
+      <c r="D14" s="3" t="str">
+        <v>264,67</v>
+      </c>
+      <c r="E14" s="3" t="str">
+        <v>-160,00</v>
+      </c>
+      <c r="F14" s="3" t="str">
+        <v>570,00</v>
+      </c>
+      <c r="G14" s="3" t="str">
+        <v>349,99</v>
+      </c>
+      <c r="H14" s="3" t="str">
+        <v>380,00</v>
+      </c>
+      <c r="I14" s="3" t="str">
+        <v>275,99</v>
+      </c>
+      <c r="J14" s="3" t="str">
+        <v>1,00</v>
+      </c>
+      <c r="K14" s="3" t="str">
+        <v>-10,00</v>
+      </c>
+      <c r="L14" s="3" t="str">
+        <v>150,00</v>
+      </c>
+      <c r="M14" s="3" t="str">
+        <v>466,80</v>
+      </c>
+      <c r="N14" s="3" t="str">
+        <v>250,00</v>
+      </c>
+      <c r="O14" s="3" t="str">
+        <v>187,99</v>
+      </c>
+      <c r="P14" s="3" t="str">
+        <v>450,00</v>
+      </c>
+      <c r="Q14" s="3" t="str">
+        <v>388,60</v>
+      </c>
+      <c r="R14" s="3" t="str">
+        <v>1,00</v>
+      </c>
+      <c r="S14" s="3" t="str">
+        <v>181,99</v>
+      </c>
+      <c r="T14" s="3" t="str">
+        <v>280,80</v>
+      </c>
+      <c r="U14" s="3" t="str">
+        <v>263,99</v>
+      </c>
+      <c r="V14" s="3" t="str">
+        <v>211,99</v>
+      </c>
+      <c r="W14" s="3" t="str">
+        <v>227,70</v>
+      </c>
+      <c r="X14" s="3" t="str">
+        <v>267,99</v>
+      </c>
+      <c r="Y14" s="3" t="str">
+        <v>73,44</v>
+      </c>
+      <c r="Z14" s="3" t="str">
+        <v>-10,00</v>
+      </c>
+      <c r="AA14" s="3" t="str">
+        <v>330,03</v>
+      </c>
+      <c r="AB14" s="3" t="str">
+        <v>332,59</v>
+      </c>
+      <c r="AC14" s="3" t="str">
+        <v>401,00</v>
+      </c>
+      <c r="AD14" s="3" t="str">
+        <v>330,00</v>
+      </c>
+      <c r="AE14" s="3" t="str">
+        <v>346,99</v>
+      </c>
+      <c r="AF14" s="3" t="str">
+        <v>354,99</v>
+      </c>
+      <c r="AG14" s="3" t="str">
+        <v>100,00</v>
+      </c>
+      <c r="AH14" s="3" t="str">
         <v>0,00</v>
       </c>
-      <c r="C14" s="2" t="str">
+      <c r="AI14" s="3" t="str">
         <v>180,11</v>
       </c>
-      <c r="D14" s="2" t="str">
+      <c r="AJ14" s="3" t="str">
         <v>198,12</v>
       </c>
-      <c r="E14" s="2" t="str">
+      <c r="AK14" s="3" t="str">
         <v>288,00</v>
       </c>
-      <c r="F14" s="2" t="str">
+      <c r="AL14" s="3" t="str">
         <v>404,00</v>
       </c>
-      <c r="G14" s="2" t="str">
+      <c r="AM14" s="3" t="str">
         <v>388,80</v>
+      </c>
+      <c r="AN14" s="3" t="str">
+        <v>30,00</v>
+      </c>
+      <c r="AO14" s="3" t="str">
+        <v>380,00</v>
+      </c>
+      <c r="AP14" s="3" t="str">
+        <v>329,99</v>
+      </c>
+      <c r="AQ14" s="3" t="str">
+        <v>261,00</v>
+      </c>
+      <c r="AR14" s="3" t="str">
+        <v>400,00</v>
+      </c>
+      <c r="AS14" s="3" t="str">
+        <v>160,00</v>
+      </c>
+      <c r="AT14" s="3" t="str">
+        <v>-60,00</v>
+      </c>
+      <c r="AU14" s="3" t="str">
+        <v>-135,00</v>
+      </c>
+      <c r="AV14" s="3" t="str">
+        <v>129,50</v>
+      </c>
+      <c r="AW14" s="3" t="str">
+        <v>170,00</v>
+      </c>
+      <c r="AX14" s="3" t="str">
+        <v>100,00</v>
+      </c>
+      <c r="AY14" s="3" t="str">
+        <v>40,00</v>
+      </c>
+      <c r="AZ14" s="3" t="str">
+        <v>250,00</v>
+      </c>
+      <c r="BA14" s="3" t="str">
+        <v>302,18</v>
+      </c>
+      <c r="BB14" s="3" t="str">
+        <v>239,00</v>
+      </c>
+      <c r="BC14" s="3" t="str">
+        <v>414,49</v>
+      </c>
+      <c r="BD14" s="3" t="str">
+        <v>386,49</v>
+      </c>
+      <c r="BE14" s="3" t="str">
+        <v>389,89</v>
+      </c>
+      <c r="BF14" s="3" t="str">
+        <v>301,99</v>
+      </c>
+      <c r="BG14" s="3" t="str">
+        <v>231,49</v>
+      </c>
+      <c r="BH14" s="3" t="str">
+        <v>0,01</v>
+      </c>
+      <c r="BI14" s="3" t="str">
+        <v>-225,00</v>
+      </c>
+      <c r="BJ14" s="3" t="str">
+        <v>-225,00</v>
+      </c>
+      <c r="BK14" s="3" t="str">
+        <v>-225,00</v>
+      </c>
+      <c r="BL14" s="3" t="str">
+        <v>-225,00</v>
+      </c>
+      <c r="BM14" s="3" t="str">
+        <v>-225,00</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="str">
+      <c r="A15" s="4" t="str">
         <v>11-12</v>
       </c>
-      <c r="B15" s="2" t="str">
+      <c r="B15" s="3" t="str">
+        <v>323,37</v>
+      </c>
+      <c r="C15" s="3" t="str">
+        <v>484,52</v>
+      </c>
+      <c r="D15" s="3" t="str">
+        <v>200,00</v>
+      </c>
+      <c r="E15" s="3" t="str">
+        <v>-175,00</v>
+      </c>
+      <c r="F15" s="3" t="str">
+        <v>534,86</v>
+      </c>
+      <c r="G15" s="3" t="str">
+        <v>339,99</v>
+      </c>
+      <c r="H15" s="3" t="str">
+        <v>375,00</v>
+      </c>
+      <c r="I15" s="3" t="str">
+        <v>319,99</v>
+      </c>
+      <c r="J15" s="3" t="str">
+        <v>0,00</v>
+      </c>
+      <c r="K15" s="3" t="str">
+        <v>-80,00</v>
+      </c>
+      <c r="L15" s="3" t="str">
+        <v>150,00</v>
+      </c>
+      <c r="M15" s="3" t="str">
+        <v>460,00</v>
+      </c>
+      <c r="N15" s="3" t="str">
+        <v>299,99</v>
+      </c>
+      <c r="O15" s="3" t="str">
+        <v>150,00</v>
+      </c>
+      <c r="P15" s="3" t="str">
+        <v>450,00</v>
+      </c>
+      <c r="Q15" s="3" t="str">
+        <v>370,00</v>
+      </c>
+      <c r="R15" s="3" t="str">
+        <v>-10,00</v>
+      </c>
+      <c r="S15" s="3" t="str">
+        <v>150,00</v>
+      </c>
+      <c r="T15" s="3" t="str">
+        <v>309,00</v>
+      </c>
+      <c r="U15" s="3" t="str">
+        <v>331,00</v>
+      </c>
+      <c r="V15" s="3" t="str">
+        <v>183,99</v>
+      </c>
+      <c r="W15" s="3" t="str">
+        <v>190,40</v>
+      </c>
+      <c r="X15" s="3" t="str">
+        <v>249,99</v>
+      </c>
+      <c r="Y15" s="3" t="str">
+        <v>23,20</v>
+      </c>
+      <c r="Z15" s="3" t="str">
+        <v>-28,00</v>
+      </c>
+      <c r="AA15" s="3" t="str">
+        <v>324,01</v>
+      </c>
+      <c r="AB15" s="3" t="str">
+        <v>342,90</v>
+      </c>
+      <c r="AC15" s="3" t="str">
+        <v>425,00</v>
+      </c>
+      <c r="AD15" s="3" t="str">
+        <v>325,00</v>
+      </c>
+      <c r="AE15" s="3" t="str">
+        <v>331,99</v>
+      </c>
+      <c r="AF15" s="3" t="str">
+        <v>363,50</v>
+      </c>
+      <c r="AG15" s="3" t="str">
+        <v>0,00</v>
+      </c>
+      <c r="AH15" s="3" t="str">
         <v>-31,00</v>
       </c>
-      <c r="C15" s="2" t="str">
+      <c r="AI15" s="3" t="str">
         <v>90,11</v>
       </c>
-      <c r="D15" s="2" t="str">
+      <c r="AJ15" s="3" t="str">
         <v>105,95</v>
       </c>
-      <c r="E15" s="2" t="str">
+      <c r="AK15" s="3" t="str">
         <v>263,40</v>
       </c>
-      <c r="F15" s="2" t="str">
+      <c r="AL15" s="3" t="str">
         <v>390,34</v>
       </c>
-      <c r="G15" s="2" t="str">
+      <c r="AM15" s="3" t="str">
         <v>377,76</v>
+      </c>
+      <c r="AN15" s="3" t="str">
+        <v>45,99</v>
+      </c>
+      <c r="AO15" s="3" t="str">
+        <v>349,89</v>
+      </c>
+      <c r="AP15" s="3" t="str">
+        <v>307,99</v>
+      </c>
+      <c r="AQ15" s="3" t="str">
+        <v>220,00</v>
+      </c>
+      <c r="AR15" s="3" t="str">
+        <v>394,30</v>
+      </c>
+      <c r="AS15" s="3" t="str">
+        <v>119,00</v>
+      </c>
+      <c r="AT15" s="3" t="str">
+        <v>-130,00</v>
+      </c>
+      <c r="AU15" s="3" t="str">
+        <v>-220,00</v>
+      </c>
+      <c r="AV15" s="3" t="str">
+        <v>58,88</v>
+      </c>
+      <c r="AW15" s="3" t="str">
+        <v>99,00</v>
+      </c>
+      <c r="AX15" s="3" t="str">
+        <v>30,00</v>
+      </c>
+      <c r="AY15" s="3" t="str">
+        <v>1,00</v>
+      </c>
+      <c r="AZ15" s="3" t="str">
+        <v>190,00</v>
+      </c>
+      <c r="BA15" s="3" t="str">
+        <v>266,20</v>
+      </c>
+      <c r="BB15" s="3" t="str">
+        <v>200,30</v>
+      </c>
+      <c r="BC15" s="3" t="str">
+        <v>400,00</v>
+      </c>
+      <c r="BD15" s="3" t="str">
+        <v>381,50</v>
+      </c>
+      <c r="BE15" s="3" t="str">
+        <v>370,00</v>
+      </c>
+      <c r="BF15" s="3" t="str">
+        <v>270,00</v>
+      </c>
+      <c r="BG15" s="3" t="str">
+        <v>165,49</v>
+      </c>
+      <c r="BH15" s="3" t="str">
+        <v>-51,57</v>
+      </c>
+      <c r="BI15" s="3" t="str">
+        <v>-250,00</v>
+      </c>
+      <c r="BJ15" s="3" t="str">
+        <v>-250,00</v>
+      </c>
+      <c r="BK15" s="3" t="str">
+        <v>-250,00</v>
+      </c>
+      <c r="BL15" s="3" t="str">
+        <v>-250,00</v>
+      </c>
+      <c r="BM15" s="3" t="str">
+        <v>-250,00</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="str">
+      <c r="A16" s="4" t="str">
         <v>12-13</v>
       </c>
-      <c r="B16" s="2" t="str">
+      <c r="B16" s="3" t="str">
+        <v>344,87</v>
+      </c>
+      <c r="C16" s="3" t="str">
+        <v>487,14</v>
+      </c>
+      <c r="D16" s="3" t="str">
+        <v>200,00</v>
+      </c>
+      <c r="E16" s="3" t="str">
+        <v>-200,00</v>
+      </c>
+      <c r="F16" s="3" t="str">
+        <v>509,99</v>
+      </c>
+      <c r="G16" s="3" t="str">
+        <v>323,99</v>
+      </c>
+      <c r="H16" s="3" t="str">
+        <v>360,55</v>
+      </c>
+      <c r="I16" s="3" t="str">
+        <v>305,00</v>
+      </c>
+      <c r="J16" s="3" t="str">
+        <v>0,00</v>
+      </c>
+      <c r="K16" s="3" t="str">
+        <v>-175,00</v>
+      </c>
+      <c r="L16" s="3" t="str">
+        <v>120,00</v>
+      </c>
+      <c r="M16" s="3" t="str">
+        <v>460,00</v>
+      </c>
+      <c r="N16" s="3" t="str">
+        <v>250,00</v>
+      </c>
+      <c r="O16" s="3" t="str">
+        <v>140,00</v>
+      </c>
+      <c r="P16" s="3" t="str">
+        <v>476,00</v>
+      </c>
+      <c r="Q16" s="3" t="str">
+        <v>345,71</v>
+      </c>
+      <c r="R16" s="3" t="str">
+        <v>-49,99</v>
+      </c>
+      <c r="S16" s="3" t="str">
+        <v>149,97</v>
+      </c>
+      <c r="T16" s="3" t="str">
+        <v>315,99</v>
+      </c>
+      <c r="U16" s="3" t="str">
+        <v>329,99</v>
+      </c>
+      <c r="V16" s="3" t="str">
+        <v>198,23</v>
+      </c>
+      <c r="W16" s="3" t="str">
+        <v>155,10</v>
+      </c>
+      <c r="X16" s="3" t="str">
+        <v>199,99</v>
+      </c>
+      <c r="Y16" s="3" t="str">
+        <v>29,10</v>
+      </c>
+      <c r="Z16" s="3" t="str">
+        <v>-37,00</v>
+      </c>
+      <c r="AA16" s="3" t="str">
+        <v>315,99</v>
+      </c>
+      <c r="AB16" s="3" t="str">
+        <v>340,70</v>
+      </c>
+      <c r="AC16" s="3" t="str">
+        <v>462,00</v>
+      </c>
+      <c r="AD16" s="3" t="str">
+        <v>317,99</v>
+      </c>
+      <c r="AE16" s="3" t="str">
+        <v>321,99</v>
+      </c>
+      <c r="AF16" s="3" t="str">
+        <v>356,55</v>
+      </c>
+      <c r="AG16" s="3" t="str">
+        <v>-30,01</v>
+      </c>
+      <c r="AH16" s="3" t="str">
         <v>-55,00</v>
       </c>
-      <c r="C16" s="2" t="str">
+      <c r="AI16" s="3" t="str">
         <v>30,00</v>
       </c>
-      <c r="D16" s="2" t="str">
+      <c r="AJ16" s="3" t="str">
         <v>70,00</v>
       </c>
-      <c r="E16" s="2" t="str">
+      <c r="AK16" s="3" t="str">
         <v>235,90</v>
       </c>
-      <c r="F16" s="2" t="str">
+      <c r="AL16" s="3" t="str">
         <v>387,59</v>
       </c>
-      <c r="G16" s="2" t="str">
+      <c r="AM16" s="3" t="str">
         <v>361,40</v>
+      </c>
+      <c r="AN16" s="3" t="str">
+        <v>79,99</v>
+      </c>
+      <c r="AO16" s="3" t="str">
+        <v>330,00</v>
+      </c>
+      <c r="AP16" s="3" t="str">
+        <v>310,00</v>
+      </c>
+      <c r="AQ16" s="3" t="str">
+        <v>150,00</v>
+      </c>
+      <c r="AR16" s="3" t="str">
+        <v>390,00</v>
+      </c>
+      <c r="AS16" s="3" t="str">
+        <v>50,00</v>
+      </c>
+      <c r="AT16" s="3" t="str">
+        <v>-175,00</v>
+      </c>
+      <c r="AU16" s="3" t="str">
+        <v>-350,00</v>
+      </c>
+      <c r="AV16" s="3" t="str">
+        <v>9,36</v>
+      </c>
+      <c r="AW16" s="3" t="str">
+        <v>51,10</v>
+      </c>
+      <c r="AX16" s="3" t="str">
+        <v>20,00</v>
+      </c>
+      <c r="AY16" s="3" t="str">
+        <v>0,01</v>
+      </c>
+      <c r="AZ16" s="3" t="str">
+        <v>137,99</v>
+      </c>
+      <c r="BA16" s="3" t="str">
+        <v>253,99</v>
+      </c>
+      <c r="BB16" s="3" t="str">
+        <v>200,00</v>
+      </c>
+      <c r="BC16" s="3" t="str">
+        <v>408,00</v>
+      </c>
+      <c r="BD16" s="3" t="str">
+        <v>398,00</v>
+      </c>
+      <c r="BE16" s="3" t="str">
+        <v>365,99</v>
+      </c>
+      <c r="BF16" s="3" t="str">
+        <v>259,99</v>
+      </c>
+      <c r="BG16" s="3" t="str">
+        <v>100,00</v>
+      </c>
+      <c r="BH16" s="3" t="str">
+        <v>-92,69</v>
+      </c>
+      <c r="BI16" s="3" t="str">
+        <v>-230,00</v>
+      </c>
+      <c r="BJ16" s="3" t="str">
+        <v>-230,00</v>
+      </c>
+      <c r="BK16" s="3" t="str">
+        <v>-230,00</v>
+      </c>
+      <c r="BL16" s="3" t="str">
+        <v>-230,00</v>
+      </c>
+      <c r="BM16" s="3" t="str">
+        <v>-230,00</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="str">
+      <c r="A17" s="4" t="str">
         <v>13-14</v>
       </c>
-      <c r="B17" s="2" t="str">
+      <c r="B17" s="3" t="str">
+        <v>379,13</v>
+      </c>
+      <c r="C17" s="3" t="str">
+        <v>487,14</v>
+      </c>
+      <c r="D17" s="3" t="str">
+        <v>200,00</v>
+      </c>
+      <c r="E17" s="3" t="str">
+        <v>-200,00</v>
+      </c>
+      <c r="F17" s="3" t="str">
+        <v>510,84</v>
+      </c>
+      <c r="G17" s="3" t="str">
+        <v>319,99</v>
+      </c>
+      <c r="H17" s="3" t="str">
+        <v>367,71</v>
+      </c>
+      <c r="I17" s="3" t="str">
+        <v>306,76</v>
+      </c>
+      <c r="J17" s="3" t="str">
+        <v>0,01</v>
+      </c>
+      <c r="K17" s="3" t="str">
+        <v>-175,00</v>
+      </c>
+      <c r="L17" s="3" t="str">
+        <v>175,00</v>
+      </c>
+      <c r="M17" s="3" t="str">
+        <v>450,00</v>
+      </c>
+      <c r="N17" s="3" t="str">
+        <v>299,99</v>
+      </c>
+      <c r="O17" s="3" t="str">
+        <v>150,00</v>
+      </c>
+      <c r="P17" s="3" t="str">
+        <v>476,00</v>
+      </c>
+      <c r="Q17" s="3" t="str">
+        <v>378,00</v>
+      </c>
+      <c r="R17" s="3" t="str">
+        <v>-80,00</v>
+      </c>
+      <c r="S17" s="3" t="str">
+        <v>110,00</v>
+      </c>
+      <c r="T17" s="3" t="str">
+        <v>333,99</v>
+      </c>
+      <c r="U17" s="3" t="str">
+        <v>380,00</v>
+      </c>
+      <c r="V17" s="3" t="str">
+        <v>273,99</v>
+      </c>
+      <c r="W17" s="3" t="str">
+        <v>165,60</v>
+      </c>
+      <c r="X17" s="3" t="str">
+        <v>200,00</v>
+      </c>
+      <c r="Y17" s="3" t="str">
+        <v>39,30</v>
+      </c>
+      <c r="Z17" s="3" t="str">
+        <v>-30,00</v>
+      </c>
+      <c r="AA17" s="3" t="str">
+        <v>347,00</v>
+      </c>
+      <c r="AB17" s="3" t="str">
+        <v>358,99</v>
+      </c>
+      <c r="AC17" s="3" t="str">
+        <v>475,00</v>
+      </c>
+      <c r="AD17" s="3" t="str">
+        <v>327,99</v>
+      </c>
+      <c r="AE17" s="3" t="str">
+        <v>339,99</v>
+      </c>
+      <c r="AF17" s="3" t="str">
+        <v>386,90</v>
+      </c>
+      <c r="AG17" s="3" t="str">
+        <v>-71,01</v>
+      </c>
+      <c r="AH17" s="3" t="str">
         <v>-54,01</v>
       </c>
-      <c r="C17" s="2" t="str">
+      <c r="AI17" s="3" t="str">
         <v>10,11</v>
       </c>
-      <c r="D17" s="2" t="str">
+      <c r="AJ17" s="3" t="str">
         <v>70,00</v>
       </c>
-      <c r="E17" s="2" t="str">
+      <c r="AK17" s="3" t="str">
         <v>241,99</v>
       </c>
-      <c r="F17" s="2" t="str">
+      <c r="AL17" s="3" t="str">
         <v>394,00</v>
       </c>
-      <c r="G17" s="2" t="str">
+      <c r="AM17" s="3" t="str">
         <v>326,70</v>
+      </c>
+      <c r="AN17" s="3" t="str">
+        <v>199,89</v>
+      </c>
+      <c r="AO17" s="3" t="str">
+        <v>311,99</v>
+      </c>
+      <c r="AP17" s="3" t="str">
+        <v>313,12</v>
+      </c>
+      <c r="AQ17" s="3" t="str">
+        <v>150,00</v>
+      </c>
+      <c r="AR17" s="3" t="str">
+        <v>396,00</v>
+      </c>
+      <c r="AS17" s="3" t="str">
+        <v>50,00</v>
+      </c>
+      <c r="AT17" s="3" t="str">
+        <v>-250,00</v>
+      </c>
+      <c r="AU17" s="3" t="str">
+        <v>-357,00</v>
+      </c>
+      <c r="AV17" s="3" t="str">
+        <v>10,00</v>
+      </c>
+      <c r="AW17" s="3" t="str">
+        <v>54,03</v>
+      </c>
+      <c r="AX17" s="3" t="str">
+        <v>25,00</v>
+      </c>
+      <c r="AY17" s="3" t="str">
+        <v>6,00</v>
+      </c>
+      <c r="AZ17" s="3" t="str">
+        <v>119,99</v>
+      </c>
+      <c r="BA17" s="3" t="str">
+        <v>251,02</v>
+      </c>
+      <c r="BB17" s="3" t="str">
+        <v>189,00</v>
+      </c>
+      <c r="BC17" s="3" t="str">
+        <v>407,32</v>
+      </c>
+      <c r="BD17" s="3" t="str">
+        <v>398,00</v>
+      </c>
+      <c r="BE17" s="3" t="str">
+        <v>399,00</v>
+      </c>
+      <c r="BF17" s="3" t="str">
+        <v>290,00</v>
+      </c>
+      <c r="BG17" s="3" t="str">
+        <v>31,11</v>
+      </c>
+      <c r="BH17" s="3" t="str">
+        <v>-115,00</v>
+      </c>
+      <c r="BI17" s="3" t="str">
+        <v>-223,26</v>
+      </c>
+      <c r="BJ17" s="3" t="str">
+        <v>-223,26</v>
+      </c>
+      <c r="BK17" s="3" t="str">
+        <v>-223,26</v>
+      </c>
+      <c r="BL17" s="3" t="str">
+        <v>-223,26</v>
+      </c>
+      <c r="BM17" s="3" t="str">
+        <v>-223,26</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="str">
+      <c r="A18" s="4" t="str">
         <v>14-15</v>
       </c>
-      <c r="B18" s="2" t="str">
+      <c r="B18" s="3" t="str">
+        <v>396,00</v>
+      </c>
+      <c r="C18" s="3" t="str">
+        <v>516,83</v>
+      </c>
+      <c r="D18" s="3" t="str">
+        <v>250,00</v>
+      </c>
+      <c r="E18" s="3" t="str">
+        <v>-230,00</v>
+      </c>
+      <c r="F18" s="3" t="str">
+        <v>534,88</v>
+      </c>
+      <c r="G18" s="3" t="str">
+        <v>309,99</v>
+      </c>
+      <c r="H18" s="3" t="str">
+        <v>392,00</v>
+      </c>
+      <c r="I18" s="3" t="str">
+        <v>301,99</v>
+      </c>
+      <c r="J18" s="3" t="str">
+        <v>5,00</v>
+      </c>
+      <c r="K18" s="3" t="str">
+        <v>-175,00</v>
+      </c>
+      <c r="L18" s="3" t="str">
+        <v>233,40</v>
+      </c>
+      <c r="M18" s="3" t="str">
+        <v>462,00</v>
+      </c>
+      <c r="N18" s="3" t="str">
+        <v>295,99</v>
+      </c>
+      <c r="O18" s="3" t="str">
+        <v>177,00</v>
+      </c>
+      <c r="P18" s="3" t="str">
+        <v>450,00</v>
+      </c>
+      <c r="Q18" s="3" t="str">
+        <v>378,00</v>
+      </c>
+      <c r="R18" s="3" t="str">
+        <v>-40,00</v>
+      </c>
+      <c r="S18" s="3" t="str">
+        <v>101,10</v>
+      </c>
+      <c r="T18" s="3" t="str">
+        <v>311,99</v>
+      </c>
+      <c r="U18" s="3" t="str">
+        <v>364,63</v>
+      </c>
+      <c r="V18" s="3" t="str">
+        <v>295,99</v>
+      </c>
+      <c r="W18" s="3" t="str">
+        <v>200,00</v>
+      </c>
+      <c r="X18" s="3" t="str">
+        <v>227,99</v>
+      </c>
+      <c r="Y18" s="3" t="str">
+        <v>70,00</v>
+      </c>
+      <c r="Z18" s="3" t="str">
+        <v>-15,00</v>
+      </c>
+      <c r="AA18" s="3" t="str">
+        <v>348,85</v>
+      </c>
+      <c r="AB18" s="3" t="str">
+        <v>364,00</v>
+      </c>
+      <c r="AC18" s="3" t="str">
+        <v>450,00</v>
+      </c>
+      <c r="AD18" s="3" t="str">
+        <v>320,00</v>
+      </c>
+      <c r="AE18" s="3" t="str">
+        <v>348,32</v>
+      </c>
+      <c r="AF18" s="3" t="str">
+        <v>425,00</v>
+      </c>
+      <c r="AG18" s="3" t="str">
+        <v>-190,00</v>
+      </c>
+      <c r="AH18" s="3" t="str">
         <v>-30,01</v>
       </c>
-      <c r="C18" s="2" t="str">
+      <c r="AI18" s="3" t="str">
         <v>21,40</v>
       </c>
-      <c r="D18" s="2" t="str">
+      <c r="AJ18" s="3" t="str">
         <v>100,00</v>
       </c>
-      <c r="E18" s="2" t="str">
+      <c r="AK18" s="3" t="str">
         <v>233,99</v>
       </c>
-      <c r="F18" s="2" t="str">
+      <c r="AL18" s="3" t="str">
         <v>406,00</v>
       </c>
-      <c r="G18" s="2" t="str">
+      <c r="AM18" s="3" t="str">
         <v>300,00</v>
+      </c>
+      <c r="AN18" s="3" t="str">
+        <v>217,99</v>
+      </c>
+      <c r="AO18" s="3" t="str">
+        <v>305,99</v>
+      </c>
+      <c r="AP18" s="3" t="str">
+        <v>321,99</v>
+      </c>
+      <c r="AQ18" s="3" t="str">
+        <v>186,75</v>
+      </c>
+      <c r="AR18" s="3" t="str">
+        <v>388,05</v>
+      </c>
+      <c r="AS18" s="3" t="str">
+        <v>179,99</v>
+      </c>
+      <c r="AT18" s="3" t="str">
+        <v>-278,83</v>
+      </c>
+      <c r="AU18" s="3" t="str">
+        <v>-360,00</v>
+      </c>
+      <c r="AV18" s="3" t="str">
+        <v>16,00</v>
+      </c>
+      <c r="AW18" s="3" t="str">
+        <v>101,99</v>
+      </c>
+      <c r="AX18" s="3" t="str">
+        <v>58,69</v>
+      </c>
+      <c r="AY18" s="3" t="str">
+        <v>13,80</v>
+      </c>
+      <c r="AZ18" s="3" t="str">
+        <v>140,00</v>
+      </c>
+      <c r="BA18" s="3" t="str">
+        <v>265,99</v>
+      </c>
+      <c r="BB18" s="3" t="str">
+        <v>240,00</v>
+      </c>
+      <c r="BC18" s="3" t="str">
+        <v>408,00</v>
+      </c>
+      <c r="BD18" s="3" t="str">
+        <v>408,00</v>
+      </c>
+      <c r="BE18" s="3" t="str">
+        <v>366,39</v>
+      </c>
+      <c r="BF18" s="3" t="str">
+        <v>349,99</v>
+      </c>
+      <c r="BG18" s="3" t="str">
+        <v>30,00</v>
+      </c>
+      <c r="BH18" s="3" t="str">
+        <v>-49,99</v>
+      </c>
+      <c r="BI18" s="3" t="str">
+        <v>-150,10</v>
+      </c>
+      <c r="BJ18" s="3" t="str">
+        <v>-150,10</v>
+      </c>
+      <c r="BK18" s="3" t="str">
+        <v>-150,10</v>
+      </c>
+      <c r="BL18" s="3" t="str">
+        <v>-150,10</v>
+      </c>
+      <c r="BM18" s="3" t="str">
+        <v>-150,10</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="3" t="str">
+      <c r="A19" s="4" t="str">
         <v>15-16</v>
       </c>
-      <c r="B19" s="2" t="str">
+      <c r="B19" s="3" t="str">
+        <v>492,00</v>
+      </c>
+      <c r="C19" s="3" t="str">
+        <v>550,00</v>
+      </c>
+      <c r="D19" s="3" t="str">
+        <v>282,97</v>
+      </c>
+      <c r="E19" s="3" t="str">
+        <v>-120,00</v>
+      </c>
+      <c r="F19" s="3" t="str">
+        <v>534,86</v>
+      </c>
+      <c r="G19" s="3" t="str">
+        <v>327,99</v>
+      </c>
+      <c r="H19" s="3" t="str">
+        <v>469,00</v>
+      </c>
+      <c r="I19" s="3" t="str">
+        <v>267,99</v>
+      </c>
+      <c r="J19" s="3" t="str">
+        <v>200,00</v>
+      </c>
+      <c r="K19" s="3" t="str">
+        <v>-120,00</v>
+      </c>
+      <c r="L19" s="3" t="str">
+        <v>388,00</v>
+      </c>
+      <c r="M19" s="3" t="str">
+        <v>480,60</v>
+      </c>
+      <c r="N19" s="3" t="str">
+        <v>339,50</v>
+      </c>
+      <c r="O19" s="3" t="str">
+        <v>317,99</v>
+      </c>
+      <c r="P19" s="3" t="str">
+        <v>484,00</v>
+      </c>
+      <c r="Q19" s="3" t="str">
+        <v>388,00</v>
+      </c>
+      <c r="R19" s="3" t="str">
+        <v>-19,01</v>
+      </c>
+      <c r="S19" s="3" t="str">
+        <v>150,00</v>
+      </c>
+      <c r="T19" s="3" t="str">
+        <v>345,99</v>
+      </c>
+      <c r="U19" s="3" t="str">
+        <v>418,00</v>
+      </c>
+      <c r="V19" s="3" t="str">
+        <v>331,99</v>
+      </c>
+      <c r="W19" s="3" t="str">
+        <v>281,99</v>
+      </c>
+      <c r="X19" s="3" t="str">
+        <v>317,99</v>
+      </c>
+      <c r="Y19" s="3" t="str">
+        <v>254,67</v>
+      </c>
+      <c r="Z19" s="3" t="str">
         <v>0,01</v>
       </c>
-      <c r="C19" s="2" t="str">
+      <c r="AA19" s="3" t="str">
+        <v>400,00</v>
+      </c>
+      <c r="AB19" s="3" t="str">
+        <v>415,90</v>
+      </c>
+      <c r="AC19" s="3" t="str">
+        <v>415,00</v>
+      </c>
+      <c r="AD19" s="3" t="str">
+        <v>343,99</v>
+      </c>
+      <c r="AE19" s="3" t="str">
+        <v>410,00</v>
+      </c>
+      <c r="AF19" s="3" t="str">
+        <v>444,31</v>
+      </c>
+      <c r="AG19" s="3" t="str">
+        <v>-176,00</v>
+      </c>
+      <c r="AH19" s="3" t="str">
+        <v>0,01</v>
+      </c>
+      <c r="AI19" s="3" t="str">
         <v>165,00</v>
       </c>
-      <c r="D19" s="2" t="str">
+      <c r="AJ19" s="3" t="str">
         <v>239,99</v>
       </c>
-      <c r="E19" s="2" t="str">
+      <c r="AK19" s="3" t="str">
         <v>295,67</v>
       </c>
-      <c r="F19" s="2" t="str">
+      <c r="AL19" s="3" t="str">
         <v>482,86</v>
       </c>
-      <c r="G19" s="2" t="str">
+      <c r="AM19" s="3" t="str">
         <v>340,00</v>
+      </c>
+      <c r="AN19" s="3" t="str">
+        <v>330,27</v>
+      </c>
+      <c r="AO19" s="3" t="str">
+        <v>347,99</v>
+      </c>
+      <c r="AP19" s="3" t="str">
+        <v>359,99</v>
+      </c>
+      <c r="AQ19" s="3" t="str">
+        <v>279,99</v>
+      </c>
+      <c r="AR19" s="3" t="str">
+        <v>390,83</v>
+      </c>
+      <c r="AS19" s="3" t="str">
+        <v>263,99</v>
+      </c>
+      <c r="AT19" s="3" t="str">
+        <v>-201,00</v>
+      </c>
+      <c r="AU19" s="3" t="str">
+        <v>-293,00</v>
+      </c>
+      <c r="AV19" s="3" t="str">
+        <v>55,00</v>
+      </c>
+      <c r="AW19" s="3" t="str">
+        <v>190,41</v>
+      </c>
+      <c r="AX19" s="3" t="str">
+        <v>181,99</v>
+      </c>
+      <c r="AY19" s="3" t="str">
+        <v>63,00</v>
+      </c>
+      <c r="AZ19" s="3" t="str">
+        <v>199,99</v>
+      </c>
+      <c r="BA19" s="3" t="str">
+        <v>311,99</v>
+      </c>
+      <c r="BB19" s="3" t="str">
+        <v>299,99</v>
+      </c>
+      <c r="BC19" s="3" t="str">
+        <v>400,00</v>
+      </c>
+      <c r="BD19" s="3" t="str">
+        <v>406,32</v>
+      </c>
+      <c r="BE19" s="3" t="str">
+        <v>365,99</v>
+      </c>
+      <c r="BF19" s="3" t="str">
+        <v>400,00</v>
+      </c>
+      <c r="BG19" s="3" t="str">
+        <v>150,00</v>
+      </c>
+      <c r="BH19" s="3" t="str">
+        <v>10,00</v>
+      </c>
+      <c r="BI19" s="3" t="str">
+        <v>-49,98</v>
+      </c>
+      <c r="BJ19" s="3" t="str">
+        <v>-49,98</v>
+      </c>
+      <c r="BK19" s="3" t="str">
+        <v>-49,98</v>
+      </c>
+      <c r="BL19" s="3" t="str">
+        <v>-49,98</v>
+      </c>
+      <c r="BM19" s="3" t="str">
+        <v>-49,98</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="3" t="str">
+      <c r="A20" s="4" t="str">
         <v>16-17</v>
       </c>
-      <c r="B20" s="2" t="str">
+      <c r="B20" s="3" t="str">
+        <v>571,00</v>
+      </c>
+      <c r="C20" s="3" t="str">
+        <v>700,00</v>
+      </c>
+      <c r="D20" s="3" t="str">
+        <v>314,60</v>
+      </c>
+      <c r="E20" s="3" t="str">
+        <v>-29,90</v>
+      </c>
+      <c r="F20" s="3" t="str">
+        <v>547,00</v>
+      </c>
+      <c r="G20" s="3" t="str">
+        <v>341,99</v>
+      </c>
+      <c r="H20" s="3" t="str">
+        <v>492,30</v>
+      </c>
+      <c r="I20" s="3" t="str">
+        <v>323,60</v>
+      </c>
+      <c r="J20" s="3" t="str">
+        <v>329,99</v>
+      </c>
+      <c r="K20" s="3" t="str">
+        <v>0,00</v>
+      </c>
+      <c r="L20" s="3" t="str">
+        <v>436,10</v>
+      </c>
+      <c r="M20" s="3" t="str">
+        <v>515,72</v>
+      </c>
+      <c r="N20" s="3" t="str">
+        <v>402,00</v>
+      </c>
+      <c r="O20" s="3" t="str">
+        <v>347,99</v>
+      </c>
+      <c r="P20" s="3" t="str">
+        <v>500,00</v>
+      </c>
+      <c r="Q20" s="3" t="str">
+        <v>396,00</v>
+      </c>
+      <c r="R20" s="3" t="str">
+        <v>9,40</v>
+      </c>
+      <c r="S20" s="3" t="str">
+        <v>290,00</v>
+      </c>
+      <c r="T20" s="3" t="str">
+        <v>442,33</v>
+      </c>
+      <c r="U20" s="3" t="str">
+        <v>500,00</v>
+      </c>
+      <c r="V20" s="3" t="str">
+        <v>374,07</v>
+      </c>
+      <c r="W20" s="3" t="str">
+        <v>359,00</v>
+      </c>
+      <c r="X20" s="3" t="str">
+        <v>325,99</v>
+      </c>
+      <c r="Y20" s="3" t="str">
+        <v>388,00</v>
+      </c>
+      <c r="Z20" s="3" t="str">
+        <v>189,00</v>
+      </c>
+      <c r="AA20" s="3" t="str">
+        <v>449,00</v>
+      </c>
+      <c r="AB20" s="3" t="str">
+        <v>431,20</v>
+      </c>
+      <c r="AC20" s="3" t="str">
+        <v>431,20</v>
+      </c>
+      <c r="AD20" s="3" t="str">
+        <v>384,00</v>
+      </c>
+      <c r="AE20" s="3" t="str">
+        <v>437,42</v>
+      </c>
+      <c r="AF20" s="3" t="str">
+        <v>463,26</v>
+      </c>
+      <c r="AG20" s="3" t="str">
+        <v>-111,00</v>
+      </c>
+      <c r="AH20" s="3" t="str">
         <v>90,00</v>
       </c>
-      <c r="C20" s="2" t="str">
+      <c r="AI20" s="3" t="str">
         <v>315,99</v>
       </c>
-      <c r="D20" s="2" t="str">
+      <c r="AJ20" s="3" t="str">
         <v>370,60</v>
       </c>
-      <c r="E20" s="2" t="str">
+      <c r="AK20" s="3" t="str">
         <v>385,69</v>
       </c>
-      <c r="F20" s="2" t="str">
+      <c r="AL20" s="3" t="str">
         <v>482,86</v>
       </c>
-      <c r="G20" s="2" t="str">
+      <c r="AM20" s="3" t="str">
         <v>399,99</v>
+      </c>
+      <c r="AN20" s="3" t="str">
+        <v>386,00</v>
+      </c>
+      <c r="AO20" s="3" t="str">
+        <v>380,00</v>
+      </c>
+      <c r="AP20" s="3" t="str">
+        <v>412,00</v>
+      </c>
+      <c r="AQ20" s="3" t="str">
+        <v>364,48</v>
+      </c>
+      <c r="AR20" s="3" t="str">
+        <v>420,00</v>
+      </c>
+      <c r="AS20" s="3" t="str">
+        <v>367,99</v>
+      </c>
+      <c r="AT20" s="3" t="str">
+        <v>-55,00</v>
+      </c>
+      <c r="AU20" s="3" t="str">
+        <v>-99,00</v>
+      </c>
+      <c r="AV20" s="3" t="str">
+        <v>289,89</v>
+      </c>
+      <c r="AW20" s="3" t="str">
+        <v>340,00</v>
+      </c>
+      <c r="AX20" s="3" t="str">
+        <v>335,01</v>
+      </c>
+      <c r="AY20" s="3" t="str">
+        <v>249,99</v>
+      </c>
+      <c r="AZ20" s="3" t="str">
+        <v>329,99</v>
+      </c>
+      <c r="BA20" s="3" t="str">
+        <v>420,00</v>
+      </c>
+      <c r="BB20" s="3" t="str">
+        <v>327,00</v>
+      </c>
+      <c r="BC20" s="3" t="str">
+        <v>448,50</v>
+      </c>
+      <c r="BD20" s="3" t="str">
+        <v>510,00</v>
+      </c>
+      <c r="BE20" s="3" t="str">
+        <v>380,00</v>
+      </c>
+      <c r="BF20" s="3" t="str">
+        <v>521,20</v>
+      </c>
+      <c r="BG20" s="3" t="str">
+        <v>300,00</v>
+      </c>
+      <c r="BH20" s="3" t="str">
+        <v>333,15</v>
+      </c>
+      <c r="BI20" s="3" t="str">
+        <v>138,65</v>
+      </c>
+      <c r="BJ20" s="3" t="str">
+        <v>138,65</v>
+      </c>
+      <c r="BK20" s="3" t="str">
+        <v>138,65</v>
+      </c>
+      <c r="BL20" s="3" t="str">
+        <v>138,65</v>
+      </c>
+      <c r="BM20" s="3" t="str">
+        <v>138,65</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="3" t="str">
+      <c r="A21" s="4" t="str">
         <v>17-18</v>
       </c>
-      <c r="B21" s="2" t="str">
+      <c r="B21" s="3" t="str">
+        <v>600,00</v>
+      </c>
+      <c r="C21" s="3" t="str">
+        <v>601,81</v>
+      </c>
+      <c r="D21" s="3" t="str">
+        <v>482,70</v>
+      </c>
+      <c r="E21" s="3" t="str">
+        <v>190,99</v>
+      </c>
+      <c r="F21" s="3" t="str">
+        <v>693,00</v>
+      </c>
+      <c r="G21" s="3" t="str">
+        <v>492,00</v>
+      </c>
+      <c r="H21" s="3" t="str">
+        <v>560,00</v>
+      </c>
+      <c r="I21" s="3" t="str">
+        <v>361,20</v>
+      </c>
+      <c r="J21" s="3" t="str">
+        <v>353,42</v>
+      </c>
+      <c r="K21" s="3" t="str">
+        <v>283,99</v>
+      </c>
+      <c r="L21" s="3" t="str">
+        <v>480,00</v>
+      </c>
+      <c r="M21" s="3" t="str">
+        <v>600,00</v>
+      </c>
+      <c r="N21" s="3" t="str">
+        <v>500,00</v>
+      </c>
+      <c r="O21" s="3" t="str">
+        <v>480,00</v>
+      </c>
+      <c r="P21" s="3" t="str">
+        <v>550,00</v>
+      </c>
+      <c r="Q21" s="3" t="str">
+        <v>474,00</v>
+      </c>
+      <c r="R21" s="3" t="str">
+        <v>283,99</v>
+      </c>
+      <c r="S21" s="3" t="str">
+        <v>500,00</v>
+      </c>
+      <c r="T21" s="3" t="str">
+        <v>592,00</v>
+      </c>
+      <c r="U21" s="3" t="str">
+        <v>675,00</v>
+      </c>
+      <c r="V21" s="3" t="str">
+        <v>580,00</v>
+      </c>
+      <c r="W21" s="3" t="str">
+        <v>458,64</v>
+      </c>
+      <c r="X21" s="3" t="str">
+        <v>463,15</v>
+      </c>
+      <c r="Y21" s="3" t="str">
+        <v>500,00</v>
+      </c>
+      <c r="Z21" s="3" t="str">
+        <v>335,99</v>
+      </c>
+      <c r="AA21" s="3" t="str">
+        <v>591,00</v>
+      </c>
+      <c r="AB21" s="3" t="str">
+        <v>531,70</v>
+      </c>
+      <c r="AC21" s="3" t="str">
+        <v>485,82</v>
+      </c>
+      <c r="AD21" s="3" t="str">
+        <v>406,50</v>
+      </c>
+      <c r="AE21" s="3" t="str">
+        <v>500,10</v>
+      </c>
+      <c r="AF21" s="3" t="str">
+        <v>463,26</v>
+      </c>
+      <c r="AG21" s="3" t="str">
+        <v>-15,00</v>
+      </c>
+      <c r="AH21" s="3" t="str">
         <v>281,99</v>
       </c>
-      <c r="C21" s="2" t="str">
+      <c r="AI21" s="3" t="str">
         <v>380,60</v>
       </c>
-      <c r="D21" s="2" t="str">
+      <c r="AJ21" s="3" t="str">
         <v>379,00</v>
       </c>
-      <c r="E21" s="2" t="str">
+      <c r="AK21" s="3" t="str">
         <v>444,97</v>
       </c>
-      <c r="F21" s="2" t="str">
+      <c r="AL21" s="3" t="str">
         <v>469,00</v>
       </c>
-      <c r="G21" s="2" t="str">
+      <c r="AM21" s="3" t="str">
         <v>492,90</v>
+      </c>
+      <c r="AN21" s="3" t="str">
+        <v>482,00</v>
+      </c>
+      <c r="AO21" s="3" t="str">
+        <v>408,51</v>
+      </c>
+      <c r="AP21" s="3" t="str">
+        <v>482,00</v>
+      </c>
+      <c r="AQ21" s="3" t="str">
+        <v>430,00</v>
+      </c>
+      <c r="AR21" s="3" t="str">
+        <v>480,00</v>
+      </c>
+      <c r="AS21" s="3" t="str">
+        <v>405,00</v>
+      </c>
+      <c r="AT21" s="3" t="str">
+        <v>271,99</v>
+      </c>
+      <c r="AU21" s="3" t="str">
+        <v>25,00</v>
+      </c>
+      <c r="AV21" s="3" t="str">
+        <v>380,00</v>
+      </c>
+      <c r="AW21" s="3" t="str">
+        <v>429,53</v>
+      </c>
+      <c r="AX21" s="3" t="str">
+        <v>420,11</v>
+      </c>
+      <c r="AY21" s="3" t="str">
+        <v>484,00</v>
+      </c>
+      <c r="AZ21" s="3" t="str">
+        <v>450,00</v>
+      </c>
+      <c r="BA21" s="3" t="str">
+        <v>500,00</v>
+      </c>
+      <c r="BB21" s="3" t="str">
+        <v>414,00</v>
+      </c>
+      <c r="BC21" s="3" t="str">
+        <v>540,00</v>
+      </c>
+      <c r="BD21" s="3" t="str">
+        <v>600,11</v>
+      </c>
+      <c r="BE21" s="3" t="str">
+        <v>394,79</v>
+      </c>
+      <c r="BF21" s="3" t="str">
+        <v>548,64</v>
+      </c>
+      <c r="BG21" s="3" t="str">
+        <v>410,00</v>
+      </c>
+      <c r="BH21" s="3" t="str">
+        <v>503,90</v>
+      </c>
+      <c r="BI21" s="3" t="str">
+        <v>400,00</v>
+      </c>
+      <c r="BJ21" s="3" t="str">
+        <v>400,00</v>
+      </c>
+      <c r="BK21" s="3" t="str">
+        <v>400,00</v>
+      </c>
+      <c r="BL21" s="3" t="str">
+        <v>400,00</v>
+      </c>
+      <c r="BM21" s="3" t="str">
+        <v>400,00</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="3" t="str">
+      <c r="A22" s="4" t="str">
         <v>18-19</v>
       </c>
-      <c r="B22" s="2" t="str">
+      <c r="B22" s="3" t="str">
+        <v>815,00</v>
+      </c>
+      <c r="C22" s="3" t="str">
+        <v>770,00</v>
+      </c>
+      <c r="D22" s="3" t="str">
+        <v>568,00</v>
+      </c>
+      <c r="E22" s="3" t="str">
+        <v>334,06</v>
+      </c>
+      <c r="F22" s="3" t="str">
+        <v>940,00</v>
+      </c>
+      <c r="G22" s="3" t="str">
+        <v>839,00</v>
+      </c>
+      <c r="H22" s="3" t="str">
+        <v>750,00</v>
+      </c>
+      <c r="I22" s="3" t="str">
+        <v>550,00</v>
+      </c>
+      <c r="J22" s="3" t="str">
+        <v>537,70</v>
+      </c>
+      <c r="K22" s="3" t="str">
+        <v>430,00</v>
+      </c>
+      <c r="L22" s="3" t="str">
+        <v>562,00</v>
+      </c>
+      <c r="M22" s="3" t="str">
+        <v>908,42</v>
+      </c>
+      <c r="N22" s="3" t="str">
+        <v>730,00</v>
+      </c>
+      <c r="O22" s="3" t="str">
+        <v>620,00</v>
+      </c>
+      <c r="P22" s="3" t="str">
+        <v>940,00</v>
+      </c>
+      <c r="Q22" s="3" t="str">
+        <v>700,00</v>
+      </c>
+      <c r="R22" s="3" t="str">
+        <v>621,57</v>
+      </c>
+      <c r="S22" s="3" t="str">
+        <v>649,00</v>
+      </c>
+      <c r="T22" s="3" t="str">
+        <v>980,00</v>
+      </c>
+      <c r="U22" s="3" t="str">
+        <v>1070,00</v>
+      </c>
+      <c r="V22" s="3" t="str">
+        <v>1075,00</v>
+      </c>
+      <c r="W22" s="3" t="str">
+        <v>1060,00</v>
+      </c>
+      <c r="X22" s="3" t="str">
+        <v>950,00</v>
+      </c>
+      <c r="Y22" s="3" t="str">
+        <v>710,00</v>
+      </c>
+      <c r="Z22" s="3" t="str">
+        <v>533,48</v>
+      </c>
+      <c r="AA22" s="3" t="str">
+        <v>875,00</v>
+      </c>
+      <c r="AB22" s="3" t="str">
+        <v>800,00</v>
+      </c>
+      <c r="AC22" s="3" t="str">
+        <v>649,00</v>
+      </c>
+      <c r="AD22" s="3" t="str">
+        <v>577,00</v>
+      </c>
+      <c r="AE22" s="3" t="str">
+        <v>650,00</v>
+      </c>
+      <c r="AF22" s="3" t="str">
+        <v>550,00</v>
+      </c>
+      <c r="AG22" s="3" t="str">
+        <v>159,30</v>
+      </c>
+      <c r="AH22" s="3" t="str">
         <v>380,00</v>
       </c>
-      <c r="C22" s="2" t="str">
+      <c r="AI22" s="3" t="str">
         <v>481,00</v>
       </c>
-      <c r="D22" s="2" t="str">
+      <c r="AJ22" s="3" t="str">
         <v>499,40</v>
       </c>
-      <c r="E22" s="2" t="str">
+      <c r="AK22" s="3" t="str">
         <v>503,60</v>
       </c>
-      <c r="F22" s="2" t="str">
+      <c r="AL22" s="3" t="str">
         <v>549,00</v>
       </c>
-      <c r="G22" s="2" t="str">
+      <c r="AM22" s="3" t="str">
         <v>490,00</v>
+      </c>
+      <c r="AN22" s="3" t="str">
+        <v>465,00</v>
+      </c>
+      <c r="AO22" s="3" t="str">
+        <v>490,00</v>
+      </c>
+      <c r="AP22" s="3" t="str">
+        <v>526,00</v>
+      </c>
+      <c r="AQ22" s="3" t="str">
+        <v>540,00</v>
+      </c>
+      <c r="AR22" s="3" t="str">
+        <v>589,00</v>
+      </c>
+      <c r="AS22" s="3" t="str">
+        <v>483,71</v>
+      </c>
+      <c r="AT22" s="3" t="str">
+        <v>460,00</v>
+      </c>
+      <c r="AU22" s="3" t="str">
+        <v>382,00</v>
+      </c>
+      <c r="AV22" s="3" t="str">
+        <v>549,08</v>
+      </c>
+      <c r="AW22" s="3" t="str">
+        <v>590,00</v>
+      </c>
+      <c r="AX22" s="3" t="str">
+        <v>556,07</v>
+      </c>
+      <c r="AY22" s="3" t="str">
+        <v>618,00</v>
+      </c>
+      <c r="AZ22" s="3" t="str">
+        <v>600,00</v>
+      </c>
+      <c r="BA22" s="3" t="str">
+        <v>640,00</v>
+      </c>
+      <c r="BB22" s="3" t="str">
+        <v>480,00</v>
+      </c>
+      <c r="BC22" s="3" t="str">
+        <v>659,00</v>
+      </c>
+      <c r="BD22" s="3" t="str">
+        <v>860,00</v>
+      </c>
+      <c r="BE22" s="3" t="str">
+        <v>491,01</v>
+      </c>
+      <c r="BF22" s="3" t="str">
+        <v>708,30</v>
+      </c>
+      <c r="BG22" s="3" t="str">
+        <v>501,11</v>
+      </c>
+      <c r="BH22" s="3" t="str">
+        <v>665,60</v>
+      </c>
+      <c r="BI22" s="3" t="str">
+        <v>841,99</v>
+      </c>
+      <c r="BJ22" s="3" t="str">
+        <v>841,99</v>
+      </c>
+      <c r="BK22" s="3" t="str">
+        <v>841,99</v>
+      </c>
+      <c r="BL22" s="3" t="str">
+        <v>841,99</v>
+      </c>
+      <c r="BM22" s="3" t="str">
+        <v>841,99</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="3" t="str">
+      <c r="A23" s="4" t="str">
         <v>19-20</v>
       </c>
-      <c r="B23" s="2" t="str">
+      <c r="B23" s="3" t="str">
+        <v>1250,00</v>
+      </c>
+      <c r="C23" s="3" t="str">
+        <v>1150,00</v>
+      </c>
+      <c r="D23" s="3" t="str">
+        <v>647,00</v>
+      </c>
+      <c r="E23" s="3" t="str">
+        <v>468,75</v>
+      </c>
+      <c r="F23" s="3" t="str">
+        <v>1300,00</v>
+      </c>
+      <c r="G23" s="3" t="str">
+        <v>988,20</v>
+      </c>
+      <c r="H23" s="3" t="str">
+        <v>988,00</v>
+      </c>
+      <c r="I23" s="3" t="str">
+        <v>652,00</v>
+      </c>
+      <c r="J23" s="3" t="str">
+        <v>634,00</v>
+      </c>
+      <c r="K23" s="3" t="str">
+        <v>460,00</v>
+      </c>
+      <c r="L23" s="3" t="str">
+        <v>670,00</v>
+      </c>
+      <c r="M23" s="3" t="str">
+        <v>1286,18</v>
+      </c>
+      <c r="N23" s="3" t="str">
+        <v>1010,00</v>
+      </c>
+      <c r="O23" s="3" t="str">
+        <v>875,00</v>
+      </c>
+      <c r="P23" s="3" t="str">
+        <v>1306,00</v>
+      </c>
+      <c r="Q23" s="3" t="str">
+        <v>842,00</v>
+      </c>
+      <c r="R23" s="3" t="str">
+        <v>699,89</v>
+      </c>
+      <c r="S23" s="3" t="str">
+        <v>880,00</v>
+      </c>
+      <c r="T23" s="3" t="str">
+        <v>1414,80</v>
+      </c>
+      <c r="U23" s="3" t="str">
+        <v>1600,00</v>
+      </c>
+      <c r="V23" s="3" t="str">
+        <v>1733,00</v>
+      </c>
+      <c r="W23" s="3" t="str">
+        <v>1899,00</v>
+      </c>
+      <c r="X23" s="3" t="str">
+        <v>1700,00</v>
+      </c>
+      <c r="Y23" s="3" t="str">
+        <v>910,00</v>
+      </c>
+      <c r="Z23" s="3" t="str">
+        <v>700,00</v>
+      </c>
+      <c r="AA23" s="3" t="str">
+        <v>1289,80</v>
+      </c>
+      <c r="AB23" s="3" t="str">
+        <v>1100,00</v>
+      </c>
+      <c r="AC23" s="3" t="str">
+        <v>821,70</v>
+      </c>
+      <c r="AD23" s="3" t="str">
+        <v>760,00</v>
+      </c>
+      <c r="AE23" s="3" t="str">
+        <v>800,00</v>
+      </c>
+      <c r="AF23" s="3" t="str">
+        <v>650,00</v>
+      </c>
+      <c r="AG23" s="3" t="str">
+        <v>343,40</v>
+      </c>
+      <c r="AH23" s="3" t="str">
         <v>558,00</v>
       </c>
-      <c r="C23" s="2" t="str">
+      <c r="AI23" s="3" t="str">
         <v>682,00</v>
       </c>
-      <c r="D23" s="2" t="str">
+      <c r="AJ23" s="3" t="str">
         <v>632,00</v>
       </c>
-      <c r="E23" s="2" t="str">
+      <c r="AK23" s="3" t="str">
         <v>612,00</v>
       </c>
-      <c r="F23" s="2" t="str">
+      <c r="AL23" s="3" t="str">
         <v>600,00</v>
       </c>
-      <c r="G23" s="2" t="str">
+      <c r="AM23" s="3" t="str">
         <v>560,00</v>
+      </c>
+      <c r="AN23" s="3" t="str">
+        <v>489,00</v>
+      </c>
+      <c r="AO23" s="3" t="str">
+        <v>599,89</v>
+      </c>
+      <c r="AP23" s="3" t="str">
+        <v>718,87</v>
+      </c>
+      <c r="AQ23" s="3" t="str">
+        <v>700,00</v>
+      </c>
+      <c r="AR23" s="3" t="str">
+        <v>690,00</v>
+      </c>
+      <c r="AS23" s="3" t="str">
+        <v>550,00</v>
+      </c>
+      <c r="AT23" s="3" t="str">
+        <v>509,58</v>
+      </c>
+      <c r="AU23" s="3" t="str">
+        <v>517,01</v>
+      </c>
+      <c r="AV23" s="3" t="str">
+        <v>778,87</v>
+      </c>
+      <c r="AW23" s="3" t="str">
+        <v>866,98</v>
+      </c>
+      <c r="AX23" s="3" t="str">
+        <v>803,80</v>
+      </c>
+      <c r="AY23" s="3" t="str">
+        <v>692,80</v>
+      </c>
+      <c r="AZ23" s="3" t="str">
+        <v>850,00</v>
+      </c>
+      <c r="BA23" s="3" t="str">
+        <v>804,00</v>
+      </c>
+      <c r="BB23" s="3" t="str">
+        <v>550,00</v>
+      </c>
+      <c r="BC23" s="3" t="str">
+        <v>1005,00</v>
+      </c>
+      <c r="BD23" s="3" t="str">
+        <v>1234,49</v>
+      </c>
+      <c r="BE23" s="3" t="str">
+        <v>596,00</v>
+      </c>
+      <c r="BF23" s="3" t="str">
+        <v>930,01</v>
+      </c>
+      <c r="BG23" s="3" t="str">
+        <v>624,00</v>
+      </c>
+      <c r="BH23" s="3" t="str">
+        <v>829,10</v>
+      </c>
+      <c r="BI23" s="3" t="str">
+        <v>842,00</v>
+      </c>
+      <c r="BJ23" s="3" t="str">
+        <v>842,00</v>
+      </c>
+      <c r="BK23" s="3" t="str">
+        <v>842,00</v>
+      </c>
+      <c r="BL23" s="3" t="str">
+        <v>842,00</v>
+      </c>
+      <c r="BM23" s="3" t="str">
+        <v>842,00</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="3" t="str">
+      <c r="A24" s="4" t="str">
         <v>20-21</v>
       </c>
-      <c r="B24" s="2" t="str">
+      <c r="B24" s="3" t="str">
+        <v>1600,00</v>
+      </c>
+      <c r="C24" s="3" t="str">
+        <v>1300,00</v>
+      </c>
+      <c r="D24" s="3" t="str">
+        <v>660,00</v>
+      </c>
+      <c r="E24" s="3" t="str">
+        <v>500,00</v>
+      </c>
+      <c r="F24" s="3" t="str">
+        <v>1430,00</v>
+      </c>
+      <c r="G24" s="3" t="str">
+        <v>1231,70</v>
+      </c>
+      <c r="H24" s="3" t="str">
+        <v>1240,85</v>
+      </c>
+      <c r="I24" s="3" t="str">
+        <v>729,00</v>
+      </c>
+      <c r="J24" s="3" t="str">
+        <v>720,00</v>
+      </c>
+      <c r="K24" s="3" t="str">
+        <v>480,00</v>
+      </c>
+      <c r="L24" s="3" t="str">
+        <v>775,00</v>
+      </c>
+      <c r="M24" s="3" t="str">
+        <v>1447,79</v>
+      </c>
+      <c r="N24" s="3" t="str">
+        <v>1049,00</v>
+      </c>
+      <c r="O24" s="3" t="str">
+        <v>924,51</v>
+      </c>
+      <c r="P24" s="3" t="str">
+        <v>1479,00</v>
+      </c>
+      <c r="Q24" s="3" t="str">
+        <v>870,00</v>
+      </c>
+      <c r="R24" s="3" t="str">
+        <v>840,00</v>
+      </c>
+      <c r="S24" s="3" t="str">
+        <v>910,00</v>
+      </c>
+      <c r="T24" s="3" t="str">
+        <v>1604,79</v>
+      </c>
+      <c r="U24" s="3" t="str">
+        <v>1771,68</v>
+      </c>
+      <c r="V24" s="3" t="str">
+        <v>2039,00</v>
+      </c>
+      <c r="W24" s="3" t="str">
+        <v>2400,00</v>
+      </c>
+      <c r="X24" s="3" t="str">
+        <v>1970,00</v>
+      </c>
+      <c r="Y24" s="3" t="str">
+        <v>1044,35</v>
+      </c>
+      <c r="Z24" s="3" t="str">
+        <v>790,00</v>
+      </c>
+      <c r="AA24" s="3" t="str">
+        <v>1590,00</v>
+      </c>
+      <c r="AB24" s="3" t="str">
+        <v>1317,18</v>
+      </c>
+      <c r="AC24" s="3" t="str">
+        <v>899,00</v>
+      </c>
+      <c r="AD24" s="3" t="str">
+        <v>900,00</v>
+      </c>
+      <c r="AE24" s="3" t="str">
+        <v>940,00</v>
+      </c>
+      <c r="AF24" s="3" t="str">
+        <v>720,00</v>
+      </c>
+      <c r="AG24" s="3" t="str">
+        <v>420,80</v>
+      </c>
+      <c r="AH24" s="3" t="str">
         <v>680,00</v>
       </c>
-      <c r="C24" s="2" t="str">
+      <c r="AI24" s="3" t="str">
         <v>853,40</v>
       </c>
-      <c r="D24" s="2" t="str">
+      <c r="AJ24" s="3" t="str">
         <v>825,00</v>
       </c>
-      <c r="E24" s="2" t="str">
+      <c r="AK24" s="3" t="str">
         <v>738,99</v>
       </c>
-      <c r="F24" s="2" t="str">
+      <c r="AL24" s="3" t="str">
         <v>670,00</v>
       </c>
-      <c r="G24" s="2" t="str">
+      <c r="AM24" s="3" t="str">
         <v>600,00</v>
+      </c>
+      <c r="AN24" s="3" t="str">
+        <v>537,44</v>
+      </c>
+      <c r="AO24" s="3" t="str">
+        <v>750,00</v>
+      </c>
+      <c r="AP24" s="3" t="str">
+        <v>949,00</v>
+      </c>
+      <c r="AQ24" s="3" t="str">
+        <v>800,00</v>
+      </c>
+      <c r="AR24" s="3" t="str">
+        <v>879,00</v>
+      </c>
+      <c r="AS24" s="3" t="str">
+        <v>580,00</v>
+      </c>
+      <c r="AT24" s="3" t="str">
+        <v>551,90</v>
+      </c>
+      <c r="AU24" s="3" t="str">
+        <v>627,79</v>
+      </c>
+      <c r="AV24" s="3" t="str">
+        <v>925,00</v>
+      </c>
+      <c r="AW24" s="3" t="str">
+        <v>909,00</v>
+      </c>
+      <c r="AX24" s="3" t="str">
+        <v>870,51</v>
+      </c>
+      <c r="AY24" s="3" t="str">
+        <v>844,27</v>
+      </c>
+      <c r="AZ24" s="3" t="str">
+        <v>1000,00</v>
+      </c>
+      <c r="BA24" s="3" t="str">
+        <v>950,00</v>
+      </c>
+      <c r="BB24" s="3" t="str">
+        <v>600,00</v>
+      </c>
+      <c r="BC24" s="3" t="str">
+        <v>1238,66</v>
+      </c>
+      <c r="BD24" s="3" t="str">
+        <v>1430,00</v>
+      </c>
+      <c r="BE24" s="3" t="str">
+        <v>697,93</v>
+      </c>
+      <c r="BF24" s="3" t="str">
+        <v>1120,00</v>
+      </c>
+      <c r="BG24" s="3" t="str">
+        <v>680,00</v>
+      </c>
+      <c r="BH24" s="3" t="str">
+        <v>766,70</v>
+      </c>
+      <c r="BI24" s="3" t="str">
+        <v>1179,77</v>
+      </c>
+      <c r="BJ24" s="3" t="str">
+        <v>1179,77</v>
+      </c>
+      <c r="BK24" s="3" t="str">
+        <v>1179,77</v>
+      </c>
+      <c r="BL24" s="3" t="str">
+        <v>1179,77</v>
+      </c>
+      <c r="BM24" s="3" t="str">
+        <v>1179,77</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="3" t="str">
+      <c r="A25" s="4" t="str">
         <v>21-22</v>
       </c>
-      <c r="B25" s="2" t="str">
+      <c r="B25" s="3" t="str">
+        <v>1204,70</v>
+      </c>
+      <c r="C25" s="3" t="str">
+        <v>1089,00</v>
+      </c>
+      <c r="D25" s="3" t="str">
+        <v>600,00</v>
+      </c>
+      <c r="E25" s="3" t="str">
+        <v>522,00</v>
+      </c>
+      <c r="F25" s="3" t="str">
+        <v>1100,00</v>
+      </c>
+      <c r="G25" s="3" t="str">
+        <v>943,30</v>
+      </c>
+      <c r="H25" s="3" t="str">
+        <v>1030,00</v>
+      </c>
+      <c r="I25" s="3" t="str">
+        <v>576,96</v>
+      </c>
+      <c r="J25" s="3" t="str">
+        <v>627,10</v>
+      </c>
+      <c r="K25" s="3" t="str">
+        <v>502,00</v>
+      </c>
+      <c r="L25" s="3" t="str">
+        <v>803,00</v>
+      </c>
+      <c r="M25" s="3" t="str">
+        <v>1293,57</v>
+      </c>
+      <c r="N25" s="3" t="str">
+        <v>812,00</v>
+      </c>
+      <c r="O25" s="3" t="str">
+        <v>800,00</v>
+      </c>
+      <c r="P25" s="3" t="str">
+        <v>1250,00</v>
+      </c>
+      <c r="Q25" s="3" t="str">
+        <v>700,00</v>
+      </c>
+      <c r="R25" s="3" t="str">
+        <v>803,31</v>
+      </c>
+      <c r="S25" s="3" t="str">
+        <v>881,33</v>
+      </c>
+      <c r="T25" s="3" t="str">
+        <v>1422,90</v>
+      </c>
+      <c r="U25" s="3" t="str">
+        <v>1449,00</v>
+      </c>
+      <c r="V25" s="3" t="str">
+        <v>1760,00</v>
+      </c>
+      <c r="W25" s="3" t="str">
+        <v>2134,96</v>
+      </c>
+      <c r="X25" s="3" t="str">
+        <v>1750,00</v>
+      </c>
+      <c r="Y25" s="3" t="str">
+        <v>900,00</v>
+      </c>
+      <c r="Z25" s="3" t="str">
+        <v>694,00</v>
+      </c>
+      <c r="AA25" s="3" t="str">
+        <v>1199,00</v>
+      </c>
+      <c r="AB25" s="3" t="str">
+        <v>1099,00</v>
+      </c>
+      <c r="AC25" s="3" t="str">
+        <v>816,00</v>
+      </c>
+      <c r="AD25" s="3" t="str">
+        <v>777,70</v>
+      </c>
+      <c r="AE25" s="3" t="str">
+        <v>830,00</v>
+      </c>
+      <c r="AF25" s="3" t="str">
+        <v>680,00</v>
+      </c>
+      <c r="AG25" s="3" t="str">
+        <v>445,80</v>
+      </c>
+      <c r="AH25" s="3" t="str">
         <v>625,00</v>
       </c>
-      <c r="C25" s="2" t="str">
+      <c r="AI25" s="3" t="str">
         <v>720,00</v>
       </c>
-      <c r="D25" s="2" t="str">
+      <c r="AJ25" s="3" t="str">
         <v>634,00</v>
       </c>
-      <c r="E25" s="2" t="str">
+      <c r="AK25" s="3" t="str">
         <v>585,00</v>
       </c>
-      <c r="F25" s="2" t="str">
+      <c r="AL25" s="3" t="str">
         <v>553,90</v>
       </c>
-      <c r="G25" s="2" t="str">
+      <c r="AM25" s="3" t="str">
         <v>586,61</v>
+      </c>
+      <c r="AN25" s="3" t="str">
+        <v>512,20</v>
+      </c>
+      <c r="AO25" s="3" t="str">
+        <v>638,80</v>
+      </c>
+      <c r="AP25" s="3" t="str">
+        <v>697,00</v>
+      </c>
+      <c r="AQ25" s="3" t="str">
+        <v>659,00</v>
+      </c>
+      <c r="AR25" s="3" t="str">
+        <v>692,90</v>
+      </c>
+      <c r="AS25" s="3" t="str">
+        <v>484,30</v>
+      </c>
+      <c r="AT25" s="3" t="str">
+        <v>531,70</v>
+      </c>
+      <c r="AU25" s="3" t="str">
+        <v>620,00</v>
+      </c>
+      <c r="AV25" s="3" t="str">
+        <v>685,30</v>
+      </c>
+      <c r="AW25" s="3" t="str">
+        <v>602,75</v>
+      </c>
+      <c r="AX25" s="3" t="str">
+        <v>615,50</v>
+      </c>
+      <c r="AY25" s="3" t="str">
+        <v>700,00</v>
+      </c>
+      <c r="AZ25" s="3" t="str">
+        <v>729,00</v>
+      </c>
+      <c r="BA25" s="3" t="str">
+        <v>722,03</v>
+      </c>
+      <c r="BB25" s="3" t="str">
+        <v>552,44</v>
+      </c>
+      <c r="BC25" s="3" t="str">
+        <v>804,60</v>
+      </c>
+      <c r="BD25" s="3" t="str">
+        <v>829,89</v>
+      </c>
+      <c r="BE25" s="3" t="str">
+        <v>580,31</v>
+      </c>
+      <c r="BF25" s="3" t="str">
+        <v>730,00</v>
+      </c>
+      <c r="BG25" s="3" t="str">
+        <v>509,00</v>
+      </c>
+      <c r="BH25" s="3" t="str">
+        <v>582,60</v>
+      </c>
+      <c r="BI25" s="3" t="str">
+        <v>951,00</v>
+      </c>
+      <c r="BJ25" s="3" t="str">
+        <v>951,00</v>
+      </c>
+      <c r="BK25" s="3" t="str">
+        <v>951,00</v>
+      </c>
+      <c r="BL25" s="3" t="str">
+        <v>951,00</v>
+      </c>
+      <c r="BM25" s="3" t="str">
+        <v>951,00</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="3" t="str">
+      <c r="A26" s="4" t="str">
         <v>22-23</v>
       </c>
-      <c r="B26" s="2" t="str">
+      <c r="B26" s="3" t="str">
+        <v>720,00</v>
+      </c>
+      <c r="C26" s="3" t="str">
+        <v>653,00</v>
+      </c>
+      <c r="D26" s="3" t="str">
+        <v>592,38</v>
+      </c>
+      <c r="E26" s="3" t="str">
+        <v>450,00</v>
+      </c>
+      <c r="F26" s="3" t="str">
+        <v>800,00</v>
+      </c>
+      <c r="G26" s="3" t="str">
+        <v>724,00</v>
+      </c>
+      <c r="H26" s="3" t="str">
+        <v>775,00</v>
+      </c>
+      <c r="I26" s="3" t="str">
+        <v>547,00</v>
+      </c>
+      <c r="J26" s="3" t="str">
+        <v>537,70</v>
+      </c>
+      <c r="K26" s="3" t="str">
+        <v>476,00</v>
+      </c>
+      <c r="L26" s="3" t="str">
+        <v>675,00</v>
+      </c>
+      <c r="M26" s="3" t="str">
+        <v>949,46</v>
+      </c>
+      <c r="N26" s="3" t="str">
+        <v>600,00</v>
+      </c>
+      <c r="O26" s="3" t="str">
+        <v>650,00</v>
+      </c>
+      <c r="P26" s="3" t="str">
+        <v>949,00</v>
+      </c>
+      <c r="Q26" s="3" t="str">
+        <v>550,00</v>
+      </c>
+      <c r="R26" s="3" t="str">
+        <v>700,00</v>
+      </c>
+      <c r="S26" s="3" t="str">
+        <v>710,00</v>
+      </c>
+      <c r="T26" s="3" t="str">
+        <v>900,00</v>
+      </c>
+      <c r="U26" s="3" t="str">
+        <v>884,00</v>
+      </c>
+      <c r="V26" s="3" t="str">
+        <v>1100,00</v>
+      </c>
+      <c r="W26" s="3" t="str">
+        <v>1250,00</v>
+      </c>
+      <c r="X26" s="3" t="str">
+        <v>975,00</v>
+      </c>
+      <c r="Y26" s="3" t="str">
+        <v>690,00</v>
+      </c>
+      <c r="Z26" s="3" t="str">
+        <v>533,48</v>
+      </c>
+      <c r="AA26" s="3" t="str">
+        <v>764,51</v>
+      </c>
+      <c r="AB26" s="3" t="str">
+        <v>740,00</v>
+      </c>
+      <c r="AC26" s="3" t="str">
+        <v>605,00</v>
+      </c>
+      <c r="AD26" s="3" t="str">
+        <v>600,00</v>
+      </c>
+      <c r="AE26" s="3" t="str">
+        <v>600,00</v>
+      </c>
+      <c r="AF26" s="3" t="str">
+        <v>538,50</v>
+      </c>
+      <c r="AG26" s="3" t="str">
+        <v>390,00</v>
+      </c>
+      <c r="AH26" s="3" t="str">
         <v>496,00</v>
       </c>
-      <c r="C26" s="2" t="str">
+      <c r="AI26" s="3" t="str">
         <v>549,00</v>
       </c>
-      <c r="D26" s="2" t="str">
+      <c r="AJ26" s="3" t="str">
         <v>520,00</v>
       </c>
-      <c r="E26" s="2" t="str">
+      <c r="AK26" s="3" t="str">
         <v>537,00</v>
       </c>
-      <c r="F26" s="2" t="str">
+      <c r="AL26" s="3" t="str">
         <v>513,70</v>
       </c>
-      <c r="G26" s="2" t="str">
+      <c r="AM26" s="3" t="str">
         <v>514,80</v>
+      </c>
+      <c r="AN26" s="3" t="str">
+        <v>473,61</v>
+      </c>
+      <c r="AO26" s="3" t="str">
+        <v>545,00</v>
+      </c>
+      <c r="AP26" s="3" t="str">
+        <v>569,00</v>
+      </c>
+      <c r="AQ26" s="3" t="str">
+        <v>532,00</v>
+      </c>
+      <c r="AR26" s="3" t="str">
+        <v>569,31</v>
+      </c>
+      <c r="AS26" s="3" t="str">
+        <v>445,00</v>
+      </c>
+      <c r="AT26" s="3" t="str">
+        <v>493,86</v>
+      </c>
+      <c r="AU26" s="3" t="str">
+        <v>521,07</v>
+      </c>
+      <c r="AV26" s="3" t="str">
+        <v>588,00</v>
+      </c>
+      <c r="AW26" s="3" t="str">
+        <v>540,00</v>
+      </c>
+      <c r="AX26" s="3" t="str">
+        <v>520,01</v>
+      </c>
+      <c r="AY26" s="3" t="str">
+        <v>600,00</v>
+      </c>
+      <c r="AZ26" s="3" t="str">
+        <v>610,00</v>
+      </c>
+      <c r="BA26" s="3" t="str">
+        <v>580,00</v>
+      </c>
+      <c r="BB26" s="3" t="str">
+        <v>500,00</v>
+      </c>
+      <c r="BC26" s="3" t="str">
+        <v>608,00</v>
+      </c>
+      <c r="BD26" s="3" t="str">
+        <v>600,00</v>
+      </c>
+      <c r="BE26" s="3" t="str">
+        <v>467,00</v>
+      </c>
+      <c r="BF26" s="3" t="str">
+        <v>518,00</v>
+      </c>
+      <c r="BG26" s="3" t="str">
+        <v>455,00</v>
+      </c>
+      <c r="BH26" s="3" t="str">
+        <v>459,00</v>
+      </c>
+      <c r="BI26" s="3" t="str">
+        <v>775,00</v>
+      </c>
+      <c r="BJ26" s="3" t="str">
+        <v>775,00</v>
+      </c>
+      <c r="BK26" s="3" t="str">
+        <v>775,00</v>
+      </c>
+      <c r="BL26" s="3" t="str">
+        <v>775,00</v>
+      </c>
+      <c r="BM26" s="3" t="str">
+        <v>775,00</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="3" t="str">
+      <c r="A27" s="4" t="str">
         <v>23-24</v>
       </c>
-      <c r="B27" s="2" t="str">
+      <c r="B27" s="3" t="str">
+        <v>550,00</v>
+      </c>
+      <c r="C27" s="3" t="str">
+        <v>500,00</v>
+      </c>
+      <c r="D27" s="3" t="str">
+        <v>491,94</v>
+      </c>
+      <c r="E27" s="3" t="str">
+        <v>421,10</v>
+      </c>
+      <c r="F27" s="3" t="str">
+        <v>580,00</v>
+      </c>
+      <c r="G27" s="3" t="str">
+        <v>550,00</v>
+      </c>
+      <c r="H27" s="3" t="str">
+        <v>560,00</v>
+      </c>
+      <c r="I27" s="3" t="str">
+        <v>438,00</v>
+      </c>
+      <c r="J27" s="3" t="str">
+        <v>469,00</v>
+      </c>
+      <c r="K27" s="3" t="str">
+        <v>400,00</v>
+      </c>
+      <c r="L27" s="3" t="str">
+        <v>552,90</v>
+      </c>
+      <c r="M27" s="3" t="str">
+        <v>610,00</v>
+      </c>
+      <c r="N27" s="3" t="str">
+        <v>484,00</v>
+      </c>
+      <c r="O27" s="3" t="str">
+        <v>502,00</v>
+      </c>
+      <c r="P27" s="3" t="str">
+        <v>624,51</v>
+      </c>
+      <c r="Q27" s="3" t="str">
+        <v>434,00</v>
+      </c>
+      <c r="R27" s="3" t="str">
+        <v>550,00</v>
+      </c>
+      <c r="S27" s="3" t="str">
+        <v>550,00</v>
+      </c>
+      <c r="T27" s="3" t="str">
+        <v>602,64</v>
+      </c>
+      <c r="U27" s="3" t="str">
+        <v>561,11</v>
+      </c>
+      <c r="V27" s="3" t="str">
+        <v>630,00</v>
+      </c>
+      <c r="W27" s="3" t="str">
+        <v>690,00</v>
+      </c>
+      <c r="X27" s="3" t="str">
+        <v>600,00</v>
+      </c>
+      <c r="Y27" s="3" t="str">
+        <v>499,99</v>
+      </c>
+      <c r="Z27" s="3" t="str">
+        <v>434,37</v>
+      </c>
+      <c r="AA27" s="3" t="str">
+        <v>501,80</v>
+      </c>
+      <c r="AB27" s="3" t="str">
+        <v>540,00</v>
+      </c>
+      <c r="AC27" s="3" t="str">
+        <v>459,36</v>
+      </c>
+      <c r="AD27" s="3" t="str">
+        <v>500,00</v>
+      </c>
+      <c r="AE27" s="3" t="str">
+        <v>490,32</v>
+      </c>
+      <c r="AF27" s="3" t="str">
+        <v>450,00</v>
+      </c>
+      <c r="AG27" s="3" t="str">
+        <v>338,80</v>
+      </c>
+      <c r="AH27" s="3" t="str">
         <v>428,90</v>
       </c>
-      <c r="C27" s="2" t="str">
+      <c r="AI27" s="3" t="str">
         <v>458,00</v>
       </c>
-      <c r="D27" s="2" t="str">
+      <c r="AJ27" s="3" t="str">
         <v>443,80</v>
       </c>
-      <c r="E27" s="2" t="str">
+      <c r="AK27" s="3" t="str">
         <v>450,00</v>
       </c>
-      <c r="F27" s="2" t="str">
+      <c r="AL27" s="3" t="str">
         <v>449,00</v>
       </c>
-      <c r="G27" s="2" t="str">
+      <c r="AM27" s="3" t="str">
         <v>441,87</v>
+      </c>
+      <c r="AN27" s="3" t="str">
+        <v>437,39</v>
+      </c>
+      <c r="AO27" s="3" t="str">
+        <v>463,00</v>
+      </c>
+      <c r="AP27" s="3" t="str">
+        <v>486,50</v>
+      </c>
+      <c r="AQ27" s="3" t="str">
+        <v>447,00</v>
+      </c>
+      <c r="AR27" s="3" t="str">
+        <v>455,00</v>
+      </c>
+      <c r="AS27" s="3" t="str">
+        <v>408,00</v>
+      </c>
+      <c r="AT27" s="3" t="str">
+        <v>427,08</v>
+      </c>
+      <c r="AU27" s="3" t="str">
+        <v>462,50</v>
+      </c>
+      <c r="AV27" s="3" t="str">
+        <v>480,00</v>
+      </c>
+      <c r="AW27" s="3" t="str">
+        <v>450,00</v>
+      </c>
+      <c r="AX27" s="3" t="str">
+        <v>440,00</v>
+      </c>
+      <c r="AY27" s="3" t="str">
+        <v>514,00</v>
+      </c>
+      <c r="AZ27" s="3" t="str">
+        <v>502,00</v>
+      </c>
+      <c r="BA27" s="3" t="str">
+        <v>500,32</v>
+      </c>
+      <c r="BB27" s="3" t="str">
+        <v>440,00</v>
+      </c>
+      <c r="BC27" s="3" t="str">
+        <v>470,00</v>
+      </c>
+      <c r="BD27" s="3" t="str">
+        <v>466,00</v>
+      </c>
+      <c r="BE27" s="3" t="str">
+        <v>416,39</v>
+      </c>
+      <c r="BF27" s="3" t="str">
+        <v>432,00</v>
+      </c>
+      <c r="BG27" s="3" t="str">
+        <v>393,35</v>
+      </c>
+      <c r="BH27" s="3" t="str">
+        <v>353,10</v>
+      </c>
+      <c r="BI27" s="3" t="str">
+        <v>600,00</v>
+      </c>
+      <c r="BJ27" s="3" t="str">
+        <v>600,00</v>
+      </c>
+      <c r="BK27" s="3" t="str">
+        <v>600,00</v>
+      </c>
+      <c r="BL27" s="3" t="str">
+        <v>600,00</v>
+      </c>
+      <c r="BM27" s="3" t="str">
+        <v>600,00</v>
       </c>
     </row>
   </sheetData>

--- a/tabela.xlsx
+++ b/tabela.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:BJ27"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -406,16 +406,248 @@
     <col min="1" max="1" width="5.7109375" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" customWidth="1"/>
+    <col min="17" max="17" width="10.7109375" customWidth="1"/>
+    <col min="18" max="18" width="10.7109375" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" customWidth="1"/>
+    <col min="20" max="20" width="10.7109375" customWidth="1"/>
+    <col min="21" max="21" width="10.7109375" customWidth="1"/>
+    <col min="22" max="22" width="10.7109375" customWidth="1"/>
+    <col min="23" max="23" width="10.7109375" customWidth="1"/>
+    <col min="24" max="24" width="10.7109375" customWidth="1"/>
+    <col min="25" max="25" width="10.7109375" customWidth="1"/>
+    <col min="26" max="26" width="10.7109375" customWidth="1"/>
+    <col min="27" max="27" width="10.7109375" customWidth="1"/>
+    <col min="28" max="28" width="10.7109375" customWidth="1"/>
+    <col min="29" max="29" width="10.7109375" customWidth="1"/>
+    <col min="30" max="30" width="10.7109375" customWidth="1"/>
+    <col min="31" max="31" width="10.7109375" customWidth="1"/>
+    <col min="32" max="32" width="10.7109375" customWidth="1"/>
+    <col min="33" max="33" width="10.7109375" customWidth="1"/>
+    <col min="34" max="34" width="10.7109375" customWidth="1"/>
+    <col min="35" max="35" width="10.7109375" customWidth="1"/>
+    <col min="36" max="36" width="10.7109375" customWidth="1"/>
+    <col min="37" max="37" width="10.7109375" customWidth="1"/>
+    <col min="38" max="38" width="10.7109375" customWidth="1"/>
+    <col min="39" max="39" width="10.7109375" customWidth="1"/>
+    <col min="40" max="40" width="10.7109375" customWidth="1"/>
+    <col min="41" max="41" width="10.7109375" customWidth="1"/>
+    <col min="42" max="42" width="10.7109375" customWidth="1"/>
+    <col min="43" max="43" width="10.7109375" customWidth="1"/>
+    <col min="44" max="44" width="10.7109375" customWidth="1"/>
+    <col min="45" max="45" width="10.7109375" customWidth="1"/>
+    <col min="46" max="46" width="10.7109375" customWidth="1"/>
+    <col min="47" max="47" width="10.7109375" customWidth="1"/>
+    <col min="48" max="48" width="10.7109375" customWidth="1"/>
+    <col min="49" max="49" width="10.7109375" customWidth="1"/>
+    <col min="50" max="50" width="10.7109375" customWidth="1"/>
+    <col min="51" max="51" width="10.7109375" customWidth="1"/>
+    <col min="52" max="52" width="10.7109375" customWidth="1"/>
+    <col min="53" max="53" width="10.7109375" customWidth="1"/>
+    <col min="54" max="54" width="10.7109375" customWidth="1"/>
+    <col min="55" max="55" width="10.7109375" customWidth="1"/>
+    <col min="56" max="56" width="10.7109375" customWidth="1"/>
+    <col min="57" max="57" width="10.7109375" customWidth="1"/>
+    <col min="58" max="58" width="10.7109375" customWidth="1"/>
+    <col min="59" max="59" width="10.7109375" customWidth="1"/>
+    <col min="60" max="60" width="10.7109375" customWidth="1"/>
+    <col min="61" max="61" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="str">
         <v/>
       </c>
-      <c r="B1" s="4" t="str">
+      <c r="B1" s="3" t="str">
         <v>Kurs (PLN/MWh)</v>
       </c>
       <c r="C1" s="3" t="str">
+        <v/>
+      </c>
+      <c r="D1" s="3" t="str">
+        <v/>
+      </c>
+      <c r="E1" s="3" t="str">
+        <v/>
+      </c>
+      <c r="F1" s="3" t="str">
+        <v/>
+      </c>
+      <c r="G1" s="3" t="str">
+        <v/>
+      </c>
+      <c r="H1" s="3" t="str">
+        <v/>
+      </c>
+      <c r="I1" s="3" t="str">
+        <v/>
+      </c>
+      <c r="J1" s="3" t="str">
+        <v/>
+      </c>
+      <c r="K1" s="3" t="str">
+        <v/>
+      </c>
+      <c r="L1" s="3" t="str">
+        <v/>
+      </c>
+      <c r="M1" s="3" t="str">
+        <v/>
+      </c>
+      <c r="N1" s="3" t="str">
+        <v/>
+      </c>
+      <c r="O1" s="3" t="str">
+        <v/>
+      </c>
+      <c r="P1" s="3" t="str">
+        <v/>
+      </c>
+      <c r="Q1" s="3" t="str">
+        <v/>
+      </c>
+      <c r="R1" s="3" t="str">
+        <v/>
+      </c>
+      <c r="S1" s="3" t="str">
+        <v/>
+      </c>
+      <c r="T1" s="3" t="str">
+        <v/>
+      </c>
+      <c r="U1" s="3" t="str">
+        <v/>
+      </c>
+      <c r="V1" s="3" t="str">
+        <v/>
+      </c>
+      <c r="W1" s="3" t="str">
+        <v/>
+      </c>
+      <c r="X1" s="3" t="str">
+        <v/>
+      </c>
+      <c r="Y1" s="3" t="str">
+        <v/>
+      </c>
+      <c r="Z1" s="3" t="str">
+        <v/>
+      </c>
+      <c r="AA1" s="3" t="str">
+        <v/>
+      </c>
+      <c r="AB1" s="3" t="str">
+        <v/>
+      </c>
+      <c r="AC1" s="3" t="str">
+        <v/>
+      </c>
+      <c r="AD1" s="3" t="str">
+        <v/>
+      </c>
+      <c r="AE1" s="3" t="str">
+        <v/>
+      </c>
+      <c r="AF1" s="3" t="str">
+        <v/>
+      </c>
+      <c r="AG1" s="3" t="str">
+        <v/>
+      </c>
+      <c r="AH1" s="3" t="str">
+        <v/>
+      </c>
+      <c r="AI1" s="3" t="str">
+        <v/>
+      </c>
+      <c r="AJ1" s="3" t="str">
+        <v/>
+      </c>
+      <c r="AK1" s="3" t="str">
+        <v/>
+      </c>
+      <c r="AL1" s="3" t="str">
+        <v/>
+      </c>
+      <c r="AM1" s="3" t="str">
+        <v/>
+      </c>
+      <c r="AN1" s="3" t="str">
+        <v/>
+      </c>
+      <c r="AO1" s="3" t="str">
+        <v/>
+      </c>
+      <c r="AP1" s="3" t="str">
+        <v/>
+      </c>
+      <c r="AQ1" s="3" t="str">
+        <v/>
+      </c>
+      <c r="AR1" s="3" t="str">
+        <v/>
+      </c>
+      <c r="AS1" s="3" t="str">
+        <v/>
+      </c>
+      <c r="AT1" s="3" t="str">
+        <v/>
+      </c>
+      <c r="AU1" s="3" t="str">
+        <v/>
+      </c>
+      <c r="AV1" s="3" t="str">
+        <v/>
+      </c>
+      <c r="AW1" s="3" t="str">
+        <v/>
+      </c>
+      <c r="AX1" s="3" t="str">
+        <v/>
+      </c>
+      <c r="AY1" s="3" t="str">
+        <v/>
+      </c>
+      <c r="AZ1" s="3" t="str">
+        <v/>
+      </c>
+      <c r="BA1" s="3" t="str">
+        <v/>
+      </c>
+      <c r="BB1" s="3" t="str">
+        <v/>
+      </c>
+      <c r="BC1" s="3" t="str">
+        <v/>
+      </c>
+      <c r="BD1" s="3" t="str">
+        <v/>
+      </c>
+      <c r="BE1" s="3" t="str">
+        <v/>
+      </c>
+      <c r="BF1" s="3" t="str">
+        <v/>
+      </c>
+      <c r="BG1" s="3" t="str">
+        <v/>
+      </c>
+      <c r="BH1" s="3" t="str">
+        <v/>
+      </c>
+      <c r="BI1" s="3" t="str">
         <v/>
       </c>
     </row>
@@ -423,10 +655,184 @@
       <c r="A2" s="3" t="str">
         <v/>
       </c>
-      <c r="B2" s="4" t="str">
+      <c r="B2" s="3" t="str">
         <v>FIXING I</v>
       </c>
       <c r="C2" s="3" t="str">
+        <v/>
+      </c>
+      <c r="D2" s="3" t="str">
+        <v/>
+      </c>
+      <c r="E2" s="3" t="str">
+        <v/>
+      </c>
+      <c r="F2" s="3" t="str">
+        <v/>
+      </c>
+      <c r="G2" s="3" t="str">
+        <v/>
+      </c>
+      <c r="H2" s="3" t="str">
+        <v/>
+      </c>
+      <c r="I2" s="3" t="str">
+        <v/>
+      </c>
+      <c r="J2" s="3" t="str">
+        <v/>
+      </c>
+      <c r="K2" s="3" t="str">
+        <v/>
+      </c>
+      <c r="L2" s="3" t="str">
+        <v/>
+      </c>
+      <c r="M2" s="3" t="str">
+        <v/>
+      </c>
+      <c r="N2" s="3" t="str">
+        <v/>
+      </c>
+      <c r="O2" s="3" t="str">
+        <v/>
+      </c>
+      <c r="P2" s="3" t="str">
+        <v/>
+      </c>
+      <c r="Q2" s="3" t="str">
+        <v/>
+      </c>
+      <c r="R2" s="3" t="str">
+        <v/>
+      </c>
+      <c r="S2" s="3" t="str">
+        <v/>
+      </c>
+      <c r="T2" s="3" t="str">
+        <v/>
+      </c>
+      <c r="U2" s="3" t="str">
+        <v/>
+      </c>
+      <c r="V2" s="3" t="str">
+        <v/>
+      </c>
+      <c r="W2" s="3" t="str">
+        <v/>
+      </c>
+      <c r="X2" s="3" t="str">
+        <v/>
+      </c>
+      <c r="Y2" s="3" t="str">
+        <v/>
+      </c>
+      <c r="Z2" s="3" t="str">
+        <v/>
+      </c>
+      <c r="AA2" s="3" t="str">
+        <v/>
+      </c>
+      <c r="AB2" s="3" t="str">
+        <v/>
+      </c>
+      <c r="AC2" s="3" t="str">
+        <v/>
+      </c>
+      <c r="AD2" s="3" t="str">
+        <v/>
+      </c>
+      <c r="AE2" s="3" t="str">
+        <v/>
+      </c>
+      <c r="AF2" s="3" t="str">
+        <v/>
+      </c>
+      <c r="AG2" s="3" t="str">
+        <v/>
+      </c>
+      <c r="AH2" s="3" t="str">
+        <v/>
+      </c>
+      <c r="AI2" s="3" t="str">
+        <v/>
+      </c>
+      <c r="AJ2" s="3" t="str">
+        <v/>
+      </c>
+      <c r="AK2" s="3" t="str">
+        <v/>
+      </c>
+      <c r="AL2" s="3" t="str">
+        <v/>
+      </c>
+      <c r="AM2" s="3" t="str">
+        <v/>
+      </c>
+      <c r="AN2" s="3" t="str">
+        <v/>
+      </c>
+      <c r="AO2" s="3" t="str">
+        <v/>
+      </c>
+      <c r="AP2" s="3" t="str">
+        <v/>
+      </c>
+      <c r="AQ2" s="3" t="str">
+        <v/>
+      </c>
+      <c r="AR2" s="3" t="str">
+        <v/>
+      </c>
+      <c r="AS2" s="3" t="str">
+        <v/>
+      </c>
+      <c r="AT2" s="3" t="str">
+        <v/>
+      </c>
+      <c r="AU2" s="3" t="str">
+        <v/>
+      </c>
+      <c r="AV2" s="3" t="str">
+        <v/>
+      </c>
+      <c r="AW2" s="3" t="str">
+        <v/>
+      </c>
+      <c r="AX2" s="3" t="str">
+        <v/>
+      </c>
+      <c r="AY2" s="3" t="str">
+        <v/>
+      </c>
+      <c r="AZ2" s="3" t="str">
+        <v/>
+      </c>
+      <c r="BA2" s="3" t="str">
+        <v/>
+      </c>
+      <c r="BB2" s="3" t="str">
+        <v/>
+      </c>
+      <c r="BC2" s="3" t="str">
+        <v/>
+      </c>
+      <c r="BD2" s="3" t="str">
+        <v/>
+      </c>
+      <c r="BE2" s="3" t="str">
+        <v/>
+      </c>
+      <c r="BF2" s="3" t="str">
+        <v/>
+      </c>
+      <c r="BG2" s="3" t="str">
+        <v/>
+      </c>
+      <c r="BH2" s="3" t="str">
+        <v/>
+      </c>
+      <c r="BI2" s="3" t="str">
         <v/>
       </c>
     </row>
@@ -435,12 +841,186 @@
         <v/>
       </c>
       <c r="B3" s="4" t="str">
+        <v>04-07-2024</v>
+      </c>
+      <c r="C3" s="4" t="str">
+        <v>05-07-2024</v>
+      </c>
+      <c r="D3" s="4" t="str">
+        <v>06-07-2024</v>
+      </c>
+      <c r="E3" s="4" t="str">
+        <v>07-07-2024</v>
+      </c>
+      <c r="F3" s="4" t="str">
+        <v>08-07-2024</v>
+      </c>
+      <c r="G3" s="4" t="str">
+        <v>09-07-2024</v>
+      </c>
+      <c r="H3" s="4" t="str">
+        <v>10-07-2024</v>
+      </c>
+      <c r="I3" s="4" t="str">
+        <v>11-07-2024</v>
+      </c>
+      <c r="J3" s="4" t="str">
+        <v>12-07-2024</v>
+      </c>
+      <c r="K3" s="4" t="str">
+        <v>13-07-2024</v>
+      </c>
+      <c r="L3" s="4" t="str">
+        <v>14-07-2024</v>
+      </c>
+      <c r="M3" s="4" t="str">
+        <v>15-07-2024</v>
+      </c>
+      <c r="N3" s="4" t="str">
+        <v>16-07-2024</v>
+      </c>
+      <c r="O3" s="4" t="str">
+        <v>17-07-2024</v>
+      </c>
+      <c r="P3" s="4" t="str">
+        <v>18-07-2024</v>
+      </c>
+      <c r="Q3" s="4" t="str">
+        <v>19-07-2024</v>
+      </c>
+      <c r="R3" s="4" t="str">
+        <v>20-07-2024</v>
+      </c>
+      <c r="S3" s="4" t="str">
+        <v>21-07-2024</v>
+      </c>
+      <c r="T3" s="4" t="str">
+        <v>22-07-2024</v>
+      </c>
+      <c r="U3" s="4" t="str">
+        <v>23-07-2024</v>
+      </c>
+      <c r="V3" s="4" t="str">
+        <v>24-07-2024</v>
+      </c>
+      <c r="W3" s="4" t="str">
+        <v>25-07-2024</v>
+      </c>
+      <c r="X3" s="4" t="str">
+        <v>26-07-2024</v>
+      </c>
+      <c r="Y3" s="4" t="str">
+        <v>27-07-2024</v>
+      </c>
+      <c r="Z3" s="4" t="str">
+        <v>28-07-2024</v>
+      </c>
+      <c r="AA3" s="4" t="str">
+        <v>29-07-2024</v>
+      </c>
+      <c r="AB3" s="4" t="str">
+        <v>30-07-2024</v>
+      </c>
+      <c r="AC3" s="4" t="str">
+        <v>31-07-2024</v>
+      </c>
+      <c r="AD3" s="4" t="str">
+        <v>01-08-2024</v>
+      </c>
+      <c r="AE3" s="4" t="str">
+        <v>02-08-2024</v>
+      </c>
+      <c r="AF3" s="4" t="str">
+        <v>03-08-2024</v>
+      </c>
+      <c r="AG3" s="4" t="str">
+        <v>04-08-2024</v>
+      </c>
+      <c r="AH3" s="4" t="str">
+        <v>05-08-2024</v>
+      </c>
+      <c r="AI3" s="4" t="str">
+        <v>06-08-2024</v>
+      </c>
+      <c r="AJ3" s="4" t="str">
+        <v>07-08-2024</v>
+      </c>
+      <c r="AK3" s="4" t="str">
+        <v>08-08-2024</v>
+      </c>
+      <c r="AL3" s="4" t="str">
+        <v>09-08-2024</v>
+      </c>
+      <c r="AM3" s="4" t="str">
+        <v>10-08-2024</v>
+      </c>
+      <c r="AN3" s="4" t="str">
+        <v>11-08-2024</v>
+      </c>
+      <c r="AO3" s="4" t="str">
+        <v>12-08-2024</v>
+      </c>
+      <c r="AP3" s="4" t="str">
+        <v>13-08-2024</v>
+      </c>
+      <c r="AQ3" s="4" t="str">
+        <v>14-08-2024</v>
+      </c>
+      <c r="AR3" s="4" t="str">
+        <v>15-08-2024</v>
+      </c>
+      <c r="AS3" s="4" t="str">
+        <v>16-08-2024</v>
+      </c>
+      <c r="AT3" s="4" t="str">
+        <v>17-08-2024</v>
+      </c>
+      <c r="AU3" s="4" t="str">
+        <v>18-08-2024</v>
+      </c>
+      <c r="AV3" s="4" t="str">
+        <v>19-08-2024</v>
+      </c>
+      <c r="AW3" s="4" t="str">
+        <v>20-08-2024</v>
+      </c>
+      <c r="AX3" s="4" t="str">
+        <v>21-08-2024</v>
+      </c>
+      <c r="AY3" s="4" t="str">
+        <v>22-08-2024</v>
+      </c>
+      <c r="AZ3" s="4" t="str">
+        <v>23-08-2024</v>
+      </c>
+      <c r="BA3" s="4" t="str">
+        <v>24-08-2024</v>
+      </c>
+      <c r="BB3" s="4" t="str">
+        <v>25-08-2024</v>
+      </c>
+      <c r="BC3" s="4" t="str">
+        <v>26-08-2024</v>
+      </c>
+      <c r="BD3" s="4" t="str">
+        <v>27-08-2024</v>
+      </c>
+      <c r="BE3" s="4" t="str">
+        <v>28-08-2024</v>
+      </c>
+      <c r="BF3" s="4" t="str">
+        <v>29-08-2024</v>
+      </c>
+      <c r="BG3" s="4" t="str">
+        <v>30-08-2024</v>
+      </c>
+      <c r="BH3" s="4" t="str">
         <v>31-08-2024</v>
       </c>
-      <c r="C3" s="4" t="str">
+      <c r="BI3" s="4" t="str">
         <v>01-09-2024</v>
       </c>
-      <c r="D3" s="4" t="str">
+      <c r="BJ3" s="4" t="str">
         <v>02-09-2024</v>
       </c>
     </row>
@@ -449,12 +1029,186 @@
         <v>0-1</v>
       </c>
       <c r="B4" s="3" t="str">
+        <v>535,00</v>
+      </c>
+      <c r="C4" s="3" t="str">
+        <v>496,00</v>
+      </c>
+      <c r="D4" s="3" t="str">
+        <v>500,00</v>
+      </c>
+      <c r="E4" s="3" t="str">
+        <v>299,99</v>
+      </c>
+      <c r="F4" s="3" t="str">
+        <v>525,00</v>
+      </c>
+      <c r="G4" s="3" t="str">
+        <v>525,00</v>
+      </c>
+      <c r="H4" s="3" t="str">
+        <v>489,00</v>
+      </c>
+      <c r="I4" s="3" t="str">
+        <v>520,00</v>
+      </c>
+      <c r="J4" s="3" t="str">
+        <v>613,00</v>
+      </c>
+      <c r="K4" s="3" t="str">
+        <v>510,00</v>
+      </c>
+      <c r="L4" s="3" t="str">
+        <v>524,00</v>
+      </c>
+      <c r="M4" s="3" t="str">
+        <v>480,00</v>
+      </c>
+      <c r="N4" s="3" t="str">
+        <v>536,00</v>
+      </c>
+      <c r="O4" s="3" t="str">
+        <v>515,00</v>
+      </c>
+      <c r="P4" s="3" t="str">
+        <v>510,00</v>
+      </c>
+      <c r="Q4" s="3" t="str">
+        <v>500,00</v>
+      </c>
+      <c r="R4" s="3" t="str">
+        <v>600,00</v>
+      </c>
+      <c r="S4" s="3" t="str">
+        <v>466,71</v>
+      </c>
+      <c r="T4" s="3" t="str">
+        <v>465,00</v>
+      </c>
+      <c r="U4" s="3" t="str">
+        <v>488,00</v>
+      </c>
+      <c r="V4" s="3" t="str">
+        <v>519,89</v>
+      </c>
+      <c r="W4" s="3" t="str">
+        <v>459,99</v>
+      </c>
+      <c r="X4" s="3" t="str">
+        <v>500,00</v>
+      </c>
+      <c r="Y4" s="3" t="str">
+        <v>503,50</v>
+      </c>
+      <c r="Z4" s="3" t="str">
+        <v>495,36</v>
+      </c>
+      <c r="AA4" s="3" t="str">
+        <v>317,99</v>
+      </c>
+      <c r="AB4" s="3" t="str">
+        <v>433,00</v>
+      </c>
+      <c r="AC4" s="3" t="str">
+        <v>473,14</v>
+      </c>
+      <c r="AD4" s="3" t="str">
+        <v>450,00</v>
+      </c>
+      <c r="AE4" s="3" t="str">
+        <v>465,00</v>
+      </c>
+      <c r="AF4" s="3" t="str">
+        <v>490,00</v>
+      </c>
+      <c r="AG4" s="3" t="str">
+        <v>442,00</v>
+      </c>
+      <c r="AH4" s="3" t="str">
+        <v>410,00</v>
+      </c>
+      <c r="AI4" s="3" t="str">
+        <v>512,00</v>
+      </c>
+      <c r="AJ4" s="3" t="str">
+        <v>466,80</v>
+      </c>
+      <c r="AK4" s="3" t="str">
+        <v>460,00</v>
+      </c>
+      <c r="AL4" s="3" t="str">
+        <v>440,06</v>
+      </c>
+      <c r="AM4" s="3" t="str">
+        <v>422,00</v>
+      </c>
+      <c r="AN4" s="3" t="str">
+        <v>444,00</v>
+      </c>
+      <c r="AO4" s="3" t="str">
+        <v>436,41</v>
+      </c>
+      <c r="AP4" s="3" t="str">
+        <v>467,00</v>
+      </c>
+      <c r="AQ4" s="3" t="str">
+        <v>465,63</v>
+      </c>
+      <c r="AR4" s="3" t="str">
+        <v>453,90</v>
+      </c>
+      <c r="AS4" s="3" t="str">
+        <v>464,50</v>
+      </c>
+      <c r="AT4" s="3" t="str">
+        <v>568,60</v>
+      </c>
+      <c r="AU4" s="3" t="str">
+        <v>494,00</v>
+      </c>
+      <c r="AV4" s="3" t="str">
+        <v>479,14</v>
+      </c>
+      <c r="AW4" s="3" t="str">
+        <v>461,71</v>
+      </c>
+      <c r="AX4" s="3" t="str">
+        <v>470,00</v>
+      </c>
+      <c r="AY4" s="3" t="str">
+        <v>420,00</v>
+      </c>
+      <c r="AZ4" s="3" t="str">
+        <v>456,60</v>
+      </c>
+      <c r="BA4" s="3" t="str">
+        <v>425,60</v>
+      </c>
+      <c r="BB4" s="3" t="str">
+        <v>190,00</v>
+      </c>
+      <c r="BC4" s="3" t="str">
+        <v>436,22</v>
+      </c>
+      <c r="BD4" s="3" t="str">
+        <v>510,00</v>
+      </c>
+      <c r="BE4" s="3" t="str">
+        <v>410,00</v>
+      </c>
+      <c r="BF4" s="3" t="str">
+        <v>413,70</v>
+      </c>
+      <c r="BG4" s="3" t="str">
+        <v>522,00</v>
+      </c>
+      <c r="BH4" s="3" t="str">
         <v>482,00</v>
       </c>
-      <c r="C4" s="3" t="str">
+      <c r="BI4" s="3" t="str">
         <v>450,00</v>
       </c>
-      <c r="D4" s="3" t="str">
+      <c r="BJ4" s="3" t="str">
         <v>450,00</v>
       </c>
     </row>
@@ -463,12 +1217,186 @@
         <v>1-2</v>
       </c>
       <c r="B5" s="3" t="str">
+        <v>438,00</v>
+      </c>
+      <c r="C5" s="3" t="str">
+        <v>392,00</v>
+      </c>
+      <c r="D5" s="3" t="str">
+        <v>422,78</v>
+      </c>
+      <c r="E5" s="3" t="str">
+        <v>303,99</v>
+      </c>
+      <c r="F5" s="3" t="str">
         <v>450,00</v>
       </c>
-      <c r="C5" s="3" t="str">
+      <c r="G5" s="3" t="str">
+        <v>445,90</v>
+      </c>
+      <c r="H5" s="3" t="str">
+        <v>400,00</v>
+      </c>
+      <c r="I5" s="3" t="str">
+        <v>434,00</v>
+      </c>
+      <c r="J5" s="3" t="str">
+        <v>470,00</v>
+      </c>
+      <c r="K5" s="3" t="str">
+        <v>405,19</v>
+      </c>
+      <c r="L5" s="3" t="str">
+        <v>430,01</v>
+      </c>
+      <c r="M5" s="3" t="str">
+        <v>398,00</v>
+      </c>
+      <c r="N5" s="3" t="str">
+        <v>416,00</v>
+      </c>
+      <c r="O5" s="3" t="str">
         <v>420,00</v>
       </c>
-      <c r="D5" s="3" t="str">
+      <c r="P5" s="3" t="str">
+        <v>424,99</v>
+      </c>
+      <c r="Q5" s="3" t="str">
+        <v>425,00</v>
+      </c>
+      <c r="R5" s="3" t="str">
+        <v>475,00</v>
+      </c>
+      <c r="S5" s="3" t="str">
+        <v>378,00</v>
+      </c>
+      <c r="T5" s="3" t="str">
+        <v>397,00</v>
+      </c>
+      <c r="U5" s="3" t="str">
+        <v>400,00</v>
+      </c>
+      <c r="V5" s="3" t="str">
+        <v>439,16</v>
+      </c>
+      <c r="W5" s="3" t="str">
+        <v>390,00</v>
+      </c>
+      <c r="X5" s="3" t="str">
+        <v>423,00</v>
+      </c>
+      <c r="Y5" s="3" t="str">
+        <v>455,20</v>
+      </c>
+      <c r="Z5" s="3" t="str">
+        <v>439,80</v>
+      </c>
+      <c r="AA5" s="3" t="str">
+        <v>280,00</v>
+      </c>
+      <c r="AB5" s="3" t="str">
+        <v>380,00</v>
+      </c>
+      <c r="AC5" s="3" t="str">
+        <v>418,00</v>
+      </c>
+      <c r="AD5" s="3" t="str">
+        <v>400,00</v>
+      </c>
+      <c r="AE5" s="3" t="str">
+        <v>400,00</v>
+      </c>
+      <c r="AF5" s="3" t="str">
+        <v>450,00</v>
+      </c>
+      <c r="AG5" s="3" t="str">
+        <v>412,45</v>
+      </c>
+      <c r="AH5" s="3" t="str">
+        <v>394,00</v>
+      </c>
+      <c r="AI5" s="3" t="str">
+        <v>466,44</v>
+      </c>
+      <c r="AJ5" s="3" t="str">
+        <v>420,00</v>
+      </c>
+      <c r="AK5" s="3" t="str">
+        <v>400,00</v>
+      </c>
+      <c r="AL5" s="3" t="str">
+        <v>390,00</v>
+      </c>
+      <c r="AM5" s="3" t="str">
+        <v>408,49</v>
+      </c>
+      <c r="AN5" s="3" t="str">
+        <v>411,20</v>
+      </c>
+      <c r="AO5" s="3" t="str">
+        <v>404,29</v>
+      </c>
+      <c r="AP5" s="3" t="str">
+        <v>423,99</v>
+      </c>
+      <c r="AQ5" s="3" t="str">
+        <v>418,00</v>
+      </c>
+      <c r="AR5" s="3" t="str">
+        <v>417,15</v>
+      </c>
+      <c r="AS5" s="3" t="str">
+        <v>405,70</v>
+      </c>
+      <c r="AT5" s="3" t="str">
+        <v>510,00</v>
+      </c>
+      <c r="AU5" s="3" t="str">
+        <v>450,01</v>
+      </c>
+      <c r="AV5" s="3" t="str">
+        <v>415,40</v>
+      </c>
+      <c r="AW5" s="3" t="str">
+        <v>426,00</v>
+      </c>
+      <c r="AX5" s="3" t="str">
+        <v>424,18</v>
+      </c>
+      <c r="AY5" s="3" t="str">
+        <v>406,00</v>
+      </c>
+      <c r="AZ5" s="3" t="str">
+        <v>404,00</v>
+      </c>
+      <c r="BA5" s="3" t="str">
+        <v>405,29</v>
+      </c>
+      <c r="BB5" s="3" t="str">
+        <v>150,92</v>
+      </c>
+      <c r="BC5" s="3" t="str">
+        <v>394,96</v>
+      </c>
+      <c r="BD5" s="3" t="str">
+        <v>452,75</v>
+      </c>
+      <c r="BE5" s="3" t="str">
+        <v>388,00</v>
+      </c>
+      <c r="BF5" s="3" t="str">
+        <v>384,73</v>
+      </c>
+      <c r="BG5" s="3" t="str">
+        <v>450,96</v>
+      </c>
+      <c r="BH5" s="3" t="str">
+        <v>450,00</v>
+      </c>
+      <c r="BI5" s="3" t="str">
+        <v>420,00</v>
+      </c>
+      <c r="BJ5" s="3" t="str">
         <v>420,00</v>
       </c>
     </row>
@@ -477,12 +1405,186 @@
         <v>2-3</v>
       </c>
       <c r="B6" s="3" t="str">
+        <v>407,69</v>
+      </c>
+      <c r="C6" s="3" t="str">
+        <v>390,00</v>
+      </c>
+      <c r="D6" s="3" t="str">
+        <v>390,00</v>
+      </c>
+      <c r="E6" s="3" t="str">
+        <v>318,00</v>
+      </c>
+      <c r="F6" s="3" t="str">
+        <v>427,00</v>
+      </c>
+      <c r="G6" s="3" t="str">
+        <v>414,00</v>
+      </c>
+      <c r="H6" s="3" t="str">
+        <v>380,00</v>
+      </c>
+      <c r="I6" s="3" t="str">
+        <v>425,00</v>
+      </c>
+      <c r="J6" s="3" t="str">
+        <v>444,00</v>
+      </c>
+      <c r="K6" s="3" t="str">
+        <v>400,00</v>
+      </c>
+      <c r="L6" s="3" t="str">
+        <v>405,20</v>
+      </c>
+      <c r="M6" s="3" t="str">
+        <v>382,00</v>
+      </c>
+      <c r="N6" s="3" t="str">
+        <v>390,00</v>
+      </c>
+      <c r="O6" s="3" t="str">
+        <v>390,00</v>
+      </c>
+      <c r="P6" s="3" t="str">
+        <v>392,00</v>
+      </c>
+      <c r="Q6" s="3" t="str">
+        <v>400,00</v>
+      </c>
+      <c r="R6" s="3" t="str">
+        <v>449,59</v>
+      </c>
+      <c r="S6" s="3" t="str">
+        <v>372,00</v>
+      </c>
+      <c r="T6" s="3" t="str">
+        <v>375,60</v>
+      </c>
+      <c r="U6" s="3" t="str">
+        <v>366,00</v>
+      </c>
+      <c r="V6" s="3" t="str">
+        <v>407,00</v>
+      </c>
+      <c r="W6" s="3" t="str">
+        <v>375,00</v>
+      </c>
+      <c r="X6" s="3" t="str">
+        <v>400,00</v>
+      </c>
+      <c r="Y6" s="3" t="str">
+        <v>430,00</v>
+      </c>
+      <c r="Z6" s="3" t="str">
+        <v>399,00</v>
+      </c>
+      <c r="AA6" s="3" t="str">
+        <v>251,00</v>
+      </c>
+      <c r="AB6" s="3" t="str">
+        <v>389,50</v>
+      </c>
+      <c r="AC6" s="3" t="str">
+        <v>406,26</v>
+      </c>
+      <c r="AD6" s="3" t="str">
+        <v>390,00</v>
+      </c>
+      <c r="AE6" s="3" t="str">
+        <v>392,00</v>
+      </c>
+      <c r="AF6" s="3" t="str">
+        <v>424,41</v>
+      </c>
+      <c r="AG6" s="3" t="str">
+        <v>384,00</v>
+      </c>
+      <c r="AH6" s="3" t="str">
+        <v>390,00</v>
+      </c>
+      <c r="AI6" s="3" t="str">
+        <v>430,00</v>
+      </c>
+      <c r="AJ6" s="3" t="str">
+        <v>392,64</v>
+      </c>
+      <c r="AK6" s="3" t="str">
+        <v>390,00</v>
+      </c>
+      <c r="AL6" s="3" t="str">
+        <v>384,00</v>
+      </c>
+      <c r="AM6" s="3" t="str">
+        <v>390,00</v>
+      </c>
+      <c r="AN6" s="3" t="str">
+        <v>386,90</v>
+      </c>
+      <c r="AO6" s="3" t="str">
+        <v>387,00</v>
+      </c>
+      <c r="AP6" s="3" t="str">
+        <v>402,00</v>
+      </c>
+      <c r="AQ6" s="3" t="str">
+        <v>405,32</v>
+      </c>
+      <c r="AR6" s="3" t="str">
+        <v>392,00</v>
+      </c>
+      <c r="AS6" s="3" t="str">
+        <v>400,00</v>
+      </c>
+      <c r="AT6" s="3" t="str">
+        <v>474,00</v>
+      </c>
+      <c r="AU6" s="3" t="str">
+        <v>423,40</v>
+      </c>
+      <c r="AV6" s="3" t="str">
+        <v>408,20</v>
+      </c>
+      <c r="AW6" s="3" t="str">
+        <v>418,00</v>
+      </c>
+      <c r="AX6" s="3" t="str">
+        <v>414,00</v>
+      </c>
+      <c r="AY6" s="3" t="str">
+        <v>398,00</v>
+      </c>
+      <c r="AZ6" s="3" t="str">
+        <v>397,57</v>
+      </c>
+      <c r="BA6" s="3" t="str">
+        <v>393,76</v>
+      </c>
+      <c r="BB6" s="3" t="str">
+        <v>95,00</v>
+      </c>
+      <c r="BC6" s="3" t="str">
+        <v>391,75</v>
+      </c>
+      <c r="BD6" s="3" t="str">
+        <v>431,50</v>
+      </c>
+      <c r="BE6" s="3" t="str">
+        <v>376,80</v>
+      </c>
+      <c r="BF6" s="3" t="str">
+        <v>367,53</v>
+      </c>
+      <c r="BG6" s="3" t="str">
+        <v>427,60</v>
+      </c>
+      <c r="BH6" s="3" t="str">
         <v>429,60</v>
       </c>
-      <c r="C6" s="3" t="str">
+      <c r="BI6" s="3" t="str">
         <v>396,00</v>
       </c>
-      <c r="D6" s="3" t="str">
+      <c r="BJ6" s="3" t="str">
         <v>396,00</v>
       </c>
     </row>
@@ -491,12 +1593,186 @@
         <v>3-4</v>
       </c>
       <c r="B7" s="3" t="str">
+        <v>402,00</v>
+      </c>
+      <c r="C7" s="3" t="str">
+        <v>394,00</v>
+      </c>
+      <c r="D7" s="3" t="str">
+        <v>391,10</v>
+      </c>
+      <c r="E7" s="3" t="str">
+        <v>321,99</v>
+      </c>
+      <c r="F7" s="3" t="str">
+        <v>421,75</v>
+      </c>
+      <c r="G7" s="3" t="str">
+        <v>412,00</v>
+      </c>
+      <c r="H7" s="3" t="str">
+        <v>352,48</v>
+      </c>
+      <c r="I7" s="3" t="str">
+        <v>421,00</v>
+      </c>
+      <c r="J7" s="3" t="str">
+        <v>426,00</v>
+      </c>
+      <c r="K7" s="3" t="str">
+        <v>390,00</v>
+      </c>
+      <c r="L7" s="3" t="str">
+        <v>396,00</v>
+      </c>
+      <c r="M7" s="3" t="str">
+        <v>380,00</v>
+      </c>
+      <c r="N7" s="3" t="str">
+        <v>390,00</v>
+      </c>
+      <c r="O7" s="3" t="str">
+        <v>380,00</v>
+      </c>
+      <c r="P7" s="3" t="str">
+        <v>390,00</v>
+      </c>
+      <c r="Q7" s="3" t="str">
+        <v>392,00</v>
+      </c>
+      <c r="R7" s="3" t="str">
+        <v>440,00</v>
+      </c>
+      <c r="S7" s="3" t="str">
+        <v>370,00</v>
+      </c>
+      <c r="T7" s="3" t="str">
+        <v>376,00</v>
+      </c>
+      <c r="U7" s="3" t="str">
+        <v>368,00</v>
+      </c>
+      <c r="V7" s="3" t="str">
+        <v>404,51</v>
+      </c>
+      <c r="W7" s="3" t="str">
+        <v>372,10</v>
+      </c>
+      <c r="X7" s="3" t="str">
+        <v>400,00</v>
+      </c>
+      <c r="Y7" s="3" t="str">
+        <v>420,00</v>
+      </c>
+      <c r="Z7" s="3" t="str">
+        <v>400,00</v>
+      </c>
+      <c r="AA7" s="3" t="str">
+        <v>250,00</v>
+      </c>
+      <c r="AB7" s="3" t="str">
+        <v>376,00</v>
+      </c>
+      <c r="AC7" s="3" t="str">
+        <v>407,00</v>
+      </c>
+      <c r="AD7" s="3" t="str">
+        <v>390,00</v>
+      </c>
+      <c r="AE7" s="3" t="str">
+        <v>388,00</v>
+      </c>
+      <c r="AF7" s="3" t="str">
+        <v>436,90</v>
+      </c>
+      <c r="AG7" s="3" t="str">
+        <v>375,00</v>
+      </c>
+      <c r="AH7" s="3" t="str">
+        <v>392,00</v>
+      </c>
+      <c r="AI7" s="3" t="str">
+        <v>440,20</v>
+      </c>
+      <c r="AJ7" s="3" t="str">
+        <v>390,00</v>
+      </c>
+      <c r="AK7" s="3" t="str">
+        <v>390,00</v>
+      </c>
+      <c r="AL7" s="3" t="str">
+        <v>384,00</v>
+      </c>
+      <c r="AM7" s="3" t="str">
+        <v>390,00</v>
+      </c>
+      <c r="AN7" s="3" t="str">
+        <v>370,00</v>
+      </c>
+      <c r="AO7" s="3" t="str">
+        <v>388,00</v>
+      </c>
+      <c r="AP7" s="3" t="str">
+        <v>404,90</v>
+      </c>
+      <c r="AQ7" s="3" t="str">
+        <v>406,00</v>
+      </c>
+      <c r="AR7" s="3" t="str">
+        <v>380,81</v>
+      </c>
+      <c r="AS7" s="3" t="str">
+        <v>397,31</v>
+      </c>
+      <c r="AT7" s="3" t="str">
+        <v>465,12</v>
+      </c>
+      <c r="AU7" s="3" t="str">
+        <v>411,88</v>
+      </c>
+      <c r="AV7" s="3" t="str">
+        <v>398,00</v>
+      </c>
+      <c r="AW7" s="3" t="str">
+        <v>412,00</v>
+      </c>
+      <c r="AX7" s="3" t="str">
+        <v>418,00</v>
+      </c>
+      <c r="AY7" s="3" t="str">
+        <v>404,00</v>
+      </c>
+      <c r="AZ7" s="3" t="str">
+        <v>398,00</v>
+      </c>
+      <c r="BA7" s="3" t="str">
+        <v>400,00</v>
+      </c>
+      <c r="BB7" s="3" t="str">
+        <v>77,00</v>
+      </c>
+      <c r="BC7" s="3" t="str">
+        <v>390,00</v>
+      </c>
+      <c r="BD7" s="3" t="str">
+        <v>429,80</v>
+      </c>
+      <c r="BE7" s="3" t="str">
+        <v>370,80</v>
+      </c>
+      <c r="BF7" s="3" t="str">
+        <v>376,71</v>
+      </c>
+      <c r="BG7" s="3" t="str">
+        <v>425,00</v>
+      </c>
+      <c r="BH7" s="3" t="str">
         <v>418,90</v>
       </c>
-      <c r="C7" s="3" t="str">
+      <c r="BI7" s="3" t="str">
         <v>392,00</v>
       </c>
-      <c r="D7" s="3" t="str">
+      <c r="BJ7" s="3" t="str">
         <v>392,00</v>
       </c>
     </row>
@@ -505,12 +1781,186 @@
         <v>4-5</v>
       </c>
       <c r="B8" s="3" t="str">
+        <v>406,00</v>
+      </c>
+      <c r="C8" s="3" t="str">
+        <v>386,00</v>
+      </c>
+      <c r="D8" s="3" t="str">
+        <v>390,00</v>
+      </c>
+      <c r="E8" s="3" t="str">
+        <v>323,99</v>
+      </c>
+      <c r="F8" s="3" t="str">
+        <v>417,19</v>
+      </c>
+      <c r="G8" s="3" t="str">
+        <v>416,80</v>
+      </c>
+      <c r="H8" s="3" t="str">
+        <v>356,52</v>
+      </c>
+      <c r="I8" s="3" t="str">
+        <v>418,00</v>
+      </c>
+      <c r="J8" s="3" t="str">
+        <v>422,00</v>
+      </c>
+      <c r="K8" s="3" t="str">
+        <v>420,00</v>
+      </c>
+      <c r="L8" s="3" t="str">
+        <v>396,25</v>
+      </c>
+      <c r="M8" s="3" t="str">
+        <v>380,00</v>
+      </c>
+      <c r="N8" s="3" t="str">
+        <v>390,00</v>
+      </c>
+      <c r="O8" s="3" t="str">
+        <v>387,70</v>
+      </c>
+      <c r="P8" s="3" t="str">
+        <v>388,00</v>
+      </c>
+      <c r="Q8" s="3" t="str">
+        <v>388,00</v>
+      </c>
+      <c r="R8" s="3" t="str">
+        <v>428,00</v>
+      </c>
+      <c r="S8" s="3" t="str">
+        <v>360,00</v>
+      </c>
+      <c r="T8" s="3" t="str">
+        <v>381,20</v>
+      </c>
+      <c r="U8" s="3" t="str">
+        <v>368,00</v>
+      </c>
+      <c r="V8" s="3" t="str">
+        <v>410,00</v>
+      </c>
+      <c r="W8" s="3" t="str">
+        <v>375,00</v>
+      </c>
+      <c r="X8" s="3" t="str">
+        <v>405,40</v>
+      </c>
+      <c r="Y8" s="3" t="str">
+        <v>410,02</v>
+      </c>
+      <c r="Z8" s="3" t="str">
+        <v>394,00</v>
+      </c>
+      <c r="AA8" s="3" t="str">
+        <v>272,00</v>
+      </c>
+      <c r="AB8" s="3" t="str">
+        <v>381,08</v>
+      </c>
+      <c r="AC8" s="3" t="str">
+        <v>408,00</v>
+      </c>
+      <c r="AD8" s="3" t="str">
+        <v>397,20</v>
+      </c>
+      <c r="AE8" s="3" t="str">
+        <v>390,00</v>
+      </c>
+      <c r="AF8" s="3" t="str">
+        <v>428,00</v>
+      </c>
+      <c r="AG8" s="3" t="str">
+        <v>386,00</v>
+      </c>
+      <c r="AH8" s="3" t="str">
+        <v>392,00</v>
+      </c>
+      <c r="AI8" s="3" t="str">
+        <v>430,00</v>
+      </c>
+      <c r="AJ8" s="3" t="str">
+        <v>400,00</v>
+      </c>
+      <c r="AK8" s="3" t="str">
+        <v>398,00</v>
+      </c>
+      <c r="AL8" s="3" t="str">
+        <v>390,00</v>
+      </c>
+      <c r="AM8" s="3" t="str">
+        <v>390,00</v>
+      </c>
+      <c r="AN8" s="3" t="str">
+        <v>359,99</v>
+      </c>
+      <c r="AO8" s="3" t="str">
+        <v>394,00</v>
+      </c>
+      <c r="AP8" s="3" t="str">
+        <v>420,00</v>
+      </c>
+      <c r="AQ8" s="3" t="str">
+        <v>415,78</v>
+      </c>
+      <c r="AR8" s="3" t="str">
+        <v>385,00</v>
+      </c>
+      <c r="AS8" s="3" t="str">
+        <v>410,00</v>
+      </c>
+      <c r="AT8" s="3" t="str">
+        <v>479,00</v>
+      </c>
+      <c r="AU8" s="3" t="str">
+        <v>417,00</v>
+      </c>
+      <c r="AV8" s="3" t="str">
+        <v>407,00</v>
+      </c>
+      <c r="AW8" s="3" t="str">
+        <v>424,00</v>
+      </c>
+      <c r="AX8" s="3" t="str">
+        <v>422,00</v>
+      </c>
+      <c r="AY8" s="3" t="str">
+        <v>410,00</v>
+      </c>
+      <c r="AZ8" s="3" t="str">
+        <v>400,00</v>
+      </c>
+      <c r="BA8" s="3" t="str">
+        <v>420,00</v>
+      </c>
+      <c r="BB8" s="3" t="str">
+        <v>80,00</v>
+      </c>
+      <c r="BC8" s="3" t="str">
+        <v>396,11</v>
+      </c>
+      <c r="BD8" s="3" t="str">
+        <v>450,11</v>
+      </c>
+      <c r="BE8" s="3" t="str">
+        <v>383,30</v>
+      </c>
+      <c r="BF8" s="3" t="str">
+        <v>390,00</v>
+      </c>
+      <c r="BG8" s="3" t="str">
+        <v>440,00</v>
+      </c>
+      <c r="BH8" s="3" t="str">
         <v>413,23</v>
       </c>
-      <c r="C8" s="3" t="str">
+      <c r="BI8" s="3" t="str">
         <v>398,00</v>
       </c>
-      <c r="D8" s="3" t="str">
+      <c r="BJ8" s="3" t="str">
         <v>398,00</v>
       </c>
     </row>
@@ -519,12 +1969,186 @@
         <v>5-6</v>
       </c>
       <c r="B9" s="3" t="str">
+        <v>424,69</v>
+      </c>
+      <c r="C9" s="3" t="str">
+        <v>394,00</v>
+      </c>
+      <c r="D9" s="3" t="str">
+        <v>406,00</v>
+      </c>
+      <c r="E9" s="3" t="str">
+        <v>320,00</v>
+      </c>
+      <c r="F9" s="3" t="str">
+        <v>452,83</v>
+      </c>
+      <c r="G9" s="3" t="str">
+        <v>428,40</v>
+      </c>
+      <c r="H9" s="3" t="str">
+        <v>367,55</v>
+      </c>
+      <c r="I9" s="3" t="str">
+        <v>441,01</v>
+      </c>
+      <c r="J9" s="3" t="str">
+        <v>440,00</v>
+      </c>
+      <c r="K9" s="3" t="str">
+        <v>367,55</v>
+      </c>
+      <c r="L9" s="3" t="str">
+        <v>386,00</v>
+      </c>
+      <c r="M9" s="3" t="str">
+        <v>400,00</v>
+      </c>
+      <c r="N9" s="3" t="str">
+        <v>414,00</v>
+      </c>
+      <c r="O9" s="3" t="str">
+        <v>416,00</v>
+      </c>
+      <c r="P9" s="3" t="str">
+        <v>416,00</v>
+      </c>
+      <c r="Q9" s="3" t="str">
+        <v>420,00</v>
+      </c>
+      <c r="R9" s="3" t="str">
+        <v>410,00</v>
+      </c>
+      <c r="S9" s="3" t="str">
+        <v>349,12</v>
+      </c>
+      <c r="T9" s="3" t="str">
+        <v>402,10</v>
+      </c>
+      <c r="U9" s="3" t="str">
+        <v>395,00</v>
+      </c>
+      <c r="V9" s="3" t="str">
+        <v>424,00</v>
+      </c>
+      <c r="W9" s="3" t="str">
+        <v>392,00</v>
+      </c>
+      <c r="X9" s="3" t="str">
+        <v>420,00</v>
+      </c>
+      <c r="Y9" s="3" t="str">
+        <v>404,37</v>
+      </c>
+      <c r="Z9" s="3" t="str">
+        <v>382,00</v>
+      </c>
+      <c r="AA9" s="3" t="str">
+        <v>298,00</v>
+      </c>
+      <c r="AB9" s="3" t="str">
+        <v>393,55</v>
+      </c>
+      <c r="AC9" s="3" t="str">
+        <v>443,55</v>
+      </c>
+      <c r="AD9" s="3" t="str">
+        <v>437,00</v>
+      </c>
+      <c r="AE9" s="3" t="str">
+        <v>431,28</v>
+      </c>
+      <c r="AF9" s="3" t="str">
+        <v>447,91</v>
+      </c>
+      <c r="AG9" s="3" t="str">
+        <v>392,00</v>
+      </c>
+      <c r="AH9" s="3" t="str">
+        <v>424,10</v>
+      </c>
+      <c r="AI9" s="3" t="str">
+        <v>468,20</v>
+      </c>
+      <c r="AJ9" s="3" t="str">
+        <v>448,20</v>
+      </c>
+      <c r="AK9" s="3" t="str">
+        <v>430,40</v>
+      </c>
+      <c r="AL9" s="3" t="str">
+        <v>410,00</v>
+      </c>
+      <c r="AM9" s="3" t="str">
+        <v>396,00</v>
+      </c>
+      <c r="AN9" s="3" t="str">
+        <v>340,00</v>
+      </c>
+      <c r="AO9" s="3" t="str">
+        <v>445,00</v>
+      </c>
+      <c r="AP9" s="3" t="str">
+        <v>455,20</v>
+      </c>
+      <c r="AQ9" s="3" t="str">
+        <v>454,00</v>
+      </c>
+      <c r="AR9" s="3" t="str">
+        <v>405,01</v>
+      </c>
+      <c r="AS9" s="3" t="str">
+        <v>418,49</v>
+      </c>
+      <c r="AT9" s="3" t="str">
+        <v>465,00</v>
+      </c>
+      <c r="AU9" s="3" t="str">
+        <v>406,80</v>
+      </c>
+      <c r="AV9" s="3" t="str">
+        <v>440,00</v>
+      </c>
+      <c r="AW9" s="3" t="str">
+        <v>451,59</v>
+      </c>
+      <c r="AX9" s="3" t="str">
+        <v>450,00</v>
+      </c>
+      <c r="AY9" s="3" t="str">
+        <v>446,30</v>
+      </c>
+      <c r="AZ9" s="3" t="str">
+        <v>416,00</v>
+      </c>
+      <c r="BA9" s="3" t="str">
+        <v>440,00</v>
+      </c>
+      <c r="BB9" s="3" t="str">
+        <v>77,00</v>
+      </c>
+      <c r="BC9" s="3" t="str">
+        <v>443,06</v>
+      </c>
+      <c r="BD9" s="3" t="str">
+        <v>492,20</v>
+      </c>
+      <c r="BE9" s="3" t="str">
+        <v>402,00</v>
+      </c>
+      <c r="BF9" s="3" t="str">
+        <v>415,96</v>
+      </c>
+      <c r="BG9" s="3" t="str">
+        <v>490,00</v>
+      </c>
+      <c r="BH9" s="3" t="str">
         <v>457,80</v>
       </c>
-      <c r="C9" s="3" t="str">
+      <c r="BI9" s="3" t="str">
         <v>403,70</v>
       </c>
-      <c r="D9" s="3" t="str">
+      <c r="BJ9" s="3" t="str">
         <v>403,70</v>
       </c>
     </row>
@@ -533,12 +2157,186 @@
         <v>6-7</v>
       </c>
       <c r="B10" s="3" t="str">
+        <v>546,00</v>
+      </c>
+      <c r="C10" s="3" t="str">
+        <v>496,00</v>
+      </c>
+      <c r="D10" s="3" t="str">
+        <v>415,69</v>
+      </c>
+      <c r="E10" s="3" t="str">
+        <v>320,00</v>
+      </c>
+      <c r="F10" s="3" t="str">
+        <v>700,00</v>
+      </c>
+      <c r="G10" s="3" t="str">
+        <v>534,25</v>
+      </c>
+      <c r="H10" s="3" t="str">
+        <v>550,00</v>
+      </c>
+      <c r="I10" s="3" t="str">
+        <v>588,00</v>
+      </c>
+      <c r="J10" s="3" t="str">
+        <v>560,00</v>
+      </c>
+      <c r="K10" s="3" t="str">
+        <v>375,00</v>
+      </c>
+      <c r="L10" s="3" t="str">
+        <v>378,00</v>
+      </c>
+      <c r="M10" s="3" t="str">
+        <v>590,00</v>
+      </c>
+      <c r="N10" s="3" t="str">
+        <v>510,00</v>
+      </c>
+      <c r="O10" s="3" t="str">
+        <v>570,00</v>
+      </c>
+      <c r="P10" s="3" t="str">
+        <v>570,90</v>
+      </c>
+      <c r="Q10" s="3" t="str">
+        <v>546,14</v>
+      </c>
+      <c r="R10" s="3" t="str">
+        <v>419,00</v>
+      </c>
+      <c r="S10" s="3" t="str">
+        <v>347,92</v>
+      </c>
+      <c r="T10" s="3" t="str">
+        <v>599,64</v>
+      </c>
+      <c r="U10" s="3" t="str">
+        <v>600,00</v>
+      </c>
+      <c r="V10" s="3" t="str">
+        <v>615,00</v>
+      </c>
+      <c r="W10" s="3" t="str">
+        <v>573,51</v>
+      </c>
+      <c r="X10" s="3" t="str">
+        <v>620,00</v>
+      </c>
+      <c r="Y10" s="3" t="str">
+        <v>434,00</v>
+      </c>
+      <c r="Z10" s="3" t="str">
+        <v>412,00</v>
+      </c>
+      <c r="AA10" s="3" t="str">
+        <v>406,00</v>
+      </c>
+      <c r="AB10" s="3" t="str">
+        <v>509,11</v>
+      </c>
+      <c r="AC10" s="3" t="str">
+        <v>550,00</v>
+      </c>
+      <c r="AD10" s="3" t="str">
+        <v>530,00</v>
+      </c>
+      <c r="AE10" s="3" t="str">
+        <v>542,00</v>
+      </c>
+      <c r="AF10" s="3" t="str">
+        <v>480,00</v>
+      </c>
+      <c r="AG10" s="3" t="str">
+        <v>396,00</v>
+      </c>
+      <c r="AH10" s="3" t="str">
+        <v>505,60</v>
+      </c>
+      <c r="AI10" s="3" t="str">
+        <v>528,00</v>
+      </c>
+      <c r="AJ10" s="3" t="str">
+        <v>547,00</v>
+      </c>
+      <c r="AK10" s="3" t="str">
+        <v>567,78</v>
+      </c>
+      <c r="AL10" s="3" t="str">
+        <v>520,00</v>
+      </c>
+      <c r="AM10" s="3" t="str">
+        <v>400,00</v>
+      </c>
+      <c r="AN10" s="3" t="str">
+        <v>320,00</v>
+      </c>
+      <c r="AO10" s="3" t="str">
+        <v>590,00</v>
+      </c>
+      <c r="AP10" s="3" t="str">
+        <v>590,00</v>
+      </c>
+      <c r="AQ10" s="3" t="str">
+        <v>541,16</v>
+      </c>
+      <c r="AR10" s="3" t="str">
+        <v>409,10</v>
+      </c>
+      <c r="AS10" s="3" t="str">
+        <v>514,32</v>
+      </c>
+      <c r="AT10" s="3" t="str">
+        <v>496,00</v>
+      </c>
+      <c r="AU10" s="3" t="str">
+        <v>408,76</v>
+      </c>
+      <c r="AV10" s="3" t="str">
+        <v>625,00</v>
+      </c>
+      <c r="AW10" s="3" t="str">
+        <v>613,00</v>
+      </c>
+      <c r="AX10" s="3" t="str">
+        <v>571,10</v>
+      </c>
+      <c r="AY10" s="3" t="str">
+        <v>532,10</v>
+      </c>
+      <c r="AZ10" s="3" t="str">
+        <v>490,30</v>
+      </c>
+      <c r="BA10" s="3" t="str">
+        <v>480,00</v>
+      </c>
+      <c r="BB10" s="3" t="str">
+        <v>50,00</v>
+      </c>
+      <c r="BC10" s="3" t="str">
+        <v>594,60</v>
+      </c>
+      <c r="BD10" s="3" t="str">
+        <v>680,00</v>
+      </c>
+      <c r="BE10" s="3" t="str">
+        <v>520,00</v>
+      </c>
+      <c r="BF10" s="3" t="str">
+        <v>550,00</v>
+      </c>
+      <c r="BG10" s="3" t="str">
+        <v>657,31</v>
+      </c>
+      <c r="BH10" s="3" t="str">
         <v>481,43</v>
       </c>
-      <c r="C10" s="3" t="str">
+      <c r="BI10" s="3" t="str">
         <v>400,00</v>
       </c>
-      <c r="D10" s="3" t="str">
+      <c r="BJ10" s="3" t="str">
         <v>400,00</v>
       </c>
     </row>
@@ -547,12 +2345,186 @@
         <v>7-8</v>
       </c>
       <c r="B11" s="3" t="str">
+        <v>455,00</v>
+      </c>
+      <c r="C11" s="3" t="str">
+        <v>364,06</v>
+      </c>
+      <c r="D11" s="3" t="str">
+        <v>380,00</v>
+      </c>
+      <c r="E11" s="3" t="str">
+        <v>305,99</v>
+      </c>
+      <c r="F11" s="3" t="str">
+        <v>650,48</v>
+      </c>
+      <c r="G11" s="3" t="str">
+        <v>513,20</v>
+      </c>
+      <c r="H11" s="3" t="str">
+        <v>430,64</v>
+      </c>
+      <c r="I11" s="3" t="str">
+        <v>567,30</v>
+      </c>
+      <c r="J11" s="3" t="str">
+        <v>575,90</v>
+      </c>
+      <c r="K11" s="3" t="str">
+        <v>370,00</v>
+      </c>
+      <c r="L11" s="3" t="str">
+        <v>399,89</v>
+      </c>
+      <c r="M11" s="3" t="str">
+        <v>548,38</v>
+      </c>
+      <c r="N11" s="3" t="str">
+        <v>433,00</v>
+      </c>
+      <c r="O11" s="3" t="str">
+        <v>532,80</v>
+      </c>
+      <c r="P11" s="3" t="str">
+        <v>528,90</v>
+      </c>
+      <c r="Q11" s="3" t="str">
+        <v>500,00</v>
+      </c>
+      <c r="R11" s="3" t="str">
+        <v>412,00</v>
+      </c>
+      <c r="S11" s="3" t="str">
+        <v>323,99</v>
+      </c>
+      <c r="T11" s="3" t="str">
+        <v>518,56</v>
+      </c>
+      <c r="U11" s="3" t="str">
+        <v>550,00</v>
+      </c>
+      <c r="V11" s="3" t="str">
+        <v>604,51</v>
+      </c>
+      <c r="W11" s="3" t="str">
+        <v>559,87</v>
+      </c>
+      <c r="X11" s="3" t="str">
+        <v>560,00</v>
+      </c>
+      <c r="Y11" s="3" t="str">
+        <v>427,00</v>
+      </c>
+      <c r="Z11" s="3" t="str">
+        <v>390,00</v>
+      </c>
+      <c r="AA11" s="3" t="str">
+        <v>378,00</v>
+      </c>
+      <c r="AB11" s="3" t="str">
+        <v>506,40</v>
+      </c>
+      <c r="AC11" s="3" t="str">
+        <v>530,00</v>
+      </c>
+      <c r="AD11" s="3" t="str">
+        <v>520,00</v>
+      </c>
+      <c r="AE11" s="3" t="str">
+        <v>540,00</v>
+      </c>
+      <c r="AF11" s="3" t="str">
+        <v>488,68</v>
+      </c>
+      <c r="AG11" s="3" t="str">
+        <v>359,00</v>
+      </c>
+      <c r="AH11" s="3" t="str">
+        <v>506,40</v>
+      </c>
+      <c r="AI11" s="3" t="str">
+        <v>532,00</v>
+      </c>
+      <c r="AJ11" s="3" t="str">
+        <v>549,39</v>
+      </c>
+      <c r="AK11" s="3" t="str">
+        <v>570,00</v>
+      </c>
+      <c r="AL11" s="3" t="str">
+        <v>460,01</v>
+      </c>
+      <c r="AM11" s="3" t="str">
+        <v>380,10</v>
+      </c>
+      <c r="AN11" s="3" t="str">
+        <v>253,91</v>
+      </c>
+      <c r="AO11" s="3" t="str">
+        <v>532,00</v>
+      </c>
+      <c r="AP11" s="3" t="str">
+        <v>550,00</v>
+      </c>
+      <c r="AQ11" s="3" t="str">
+        <v>541,16</v>
+      </c>
+      <c r="AR11" s="3" t="str">
+        <v>400,01</v>
+      </c>
+      <c r="AS11" s="3" t="str">
+        <v>517,80</v>
+      </c>
+      <c r="AT11" s="3" t="str">
+        <v>500,00</v>
+      </c>
+      <c r="AU11" s="3" t="str">
+        <v>404,00</v>
+      </c>
+      <c r="AV11" s="3" t="str">
+        <v>659,00</v>
+      </c>
+      <c r="AW11" s="3" t="str">
+        <v>570,69</v>
+      </c>
+      <c r="AX11" s="3" t="str">
+        <v>599,90</v>
+      </c>
+      <c r="AY11" s="3" t="str">
+        <v>520,01</v>
+      </c>
+      <c r="AZ11" s="3" t="str">
+        <v>478,30</v>
+      </c>
+      <c r="BA11" s="3" t="str">
+        <v>448,40</v>
+      </c>
+      <c r="BB11" s="3" t="str">
+        <v>26,34</v>
+      </c>
+      <c r="BC11" s="3" t="str">
+        <v>617,90</v>
+      </c>
+      <c r="BD11" s="3" t="str">
+        <v>710,16</v>
+      </c>
+      <c r="BE11" s="3" t="str">
+        <v>530,00</v>
+      </c>
+      <c r="BF11" s="3" t="str">
+        <v>572,36</v>
+      </c>
+      <c r="BG11" s="3" t="str">
+        <v>700,00</v>
+      </c>
+      <c r="BH11" s="3" t="str">
         <v>492,00</v>
       </c>
-      <c r="C11" s="3" t="str">
+      <c r="BI11" s="3" t="str">
         <v>397,60</v>
       </c>
-      <c r="D11" s="3" t="str">
+      <c r="BJ11" s="3" t="str">
         <v>397,60</v>
       </c>
     </row>
@@ -561,12 +2533,186 @@
         <v>8-9</v>
       </c>
       <c r="B12" s="3" t="str">
+        <v>390,00</v>
+      </c>
+      <c r="C12" s="3" t="str">
+        <v>320,00</v>
+      </c>
+      <c r="D12" s="3" t="str">
+        <v>339,40</v>
+      </c>
+      <c r="E12" s="3" t="str">
+        <v>240,00</v>
+      </c>
+      <c r="F12" s="3" t="str">
+        <v>639,00</v>
+      </c>
+      <c r="G12" s="3" t="str">
+        <v>430,00</v>
+      </c>
+      <c r="H12" s="3" t="str">
+        <v>365,99</v>
+      </c>
+      <c r="I12" s="3" t="str">
+        <v>549,00</v>
+      </c>
+      <c r="J12" s="3" t="str">
+        <v>500,00</v>
+      </c>
+      <c r="K12" s="3" t="str">
+        <v>337,99</v>
+      </c>
+      <c r="L12" s="3" t="str">
+        <v>349,89</v>
+      </c>
+      <c r="M12" s="3" t="str">
+        <v>433,70</v>
+      </c>
+      <c r="N12" s="3" t="str">
+        <v>396,00</v>
+      </c>
+      <c r="O12" s="3" t="str">
+        <v>402,00</v>
+      </c>
+      <c r="P12" s="3" t="str">
+        <v>441,10</v>
+      </c>
+      <c r="Q12" s="3" t="str">
+        <v>450,00</v>
+      </c>
+      <c r="R12" s="3" t="str">
+        <v>380,00</v>
+      </c>
+      <c r="S12" s="3" t="str">
+        <v>239,00</v>
+      </c>
+      <c r="T12" s="3" t="str">
+        <v>479,00</v>
+      </c>
+      <c r="U12" s="3" t="str">
+        <v>470,00</v>
+      </c>
+      <c r="V12" s="3" t="str">
+        <v>535,00</v>
+      </c>
+      <c r="W12" s="3" t="str">
+        <v>440,50</v>
+      </c>
+      <c r="X12" s="3" t="str">
+        <v>459,32</v>
+      </c>
+      <c r="Y12" s="3" t="str">
+        <v>463,26</v>
+      </c>
+      <c r="Z12" s="3" t="str">
+        <v>361,04</v>
+      </c>
+      <c r="AA12" s="3" t="str">
+        <v>299,00</v>
+      </c>
+      <c r="AB12" s="3" t="str">
+        <v>416,30</v>
+      </c>
+      <c r="AC12" s="3" t="str">
+        <v>420,00</v>
+      </c>
+      <c r="AD12" s="3" t="str">
+        <v>432,41</v>
+      </c>
+      <c r="AE12" s="3" t="str">
+        <v>488,50</v>
+      </c>
+      <c r="AF12" s="3" t="str">
+        <v>524,27</v>
+      </c>
+      <c r="AG12" s="3" t="str">
+        <v>259,99</v>
+      </c>
+      <c r="AH12" s="3" t="str">
+        <v>470,00</v>
+      </c>
+      <c r="AI12" s="3" t="str">
+        <v>488,10</v>
+      </c>
+      <c r="AJ12" s="3" t="str">
+        <v>470,00</v>
+      </c>
+      <c r="AK12" s="3" t="str">
+        <v>512,97</v>
+      </c>
+      <c r="AL12" s="3" t="str">
+        <v>372,64</v>
+      </c>
+      <c r="AM12" s="3" t="str">
+        <v>299,00</v>
+      </c>
+      <c r="AN12" s="3" t="str">
+        <v>100,00</v>
+      </c>
+      <c r="AO12" s="3" t="str">
+        <v>436,00</v>
+      </c>
+      <c r="AP12" s="3" t="str">
+        <v>468,50</v>
+      </c>
+      <c r="AQ12" s="3" t="str">
+        <v>465,00</v>
+      </c>
+      <c r="AR12" s="3" t="str">
+        <v>363,73</v>
+      </c>
+      <c r="AS12" s="3" t="str">
+        <v>440,00</v>
+      </c>
+      <c r="AT12" s="3" t="str">
+        <v>486,00</v>
+      </c>
+      <c r="AU12" s="3" t="str">
+        <v>389,00</v>
+      </c>
+      <c r="AV12" s="3" t="str">
+        <v>594,09</v>
+      </c>
+      <c r="AW12" s="3" t="str">
+        <v>511,70</v>
+      </c>
+      <c r="AX12" s="3" t="str">
+        <v>530,49</v>
+      </c>
+      <c r="AY12" s="3" t="str">
+        <v>461,13</v>
+      </c>
+      <c r="AZ12" s="3" t="str">
+        <v>422,80</v>
+      </c>
+      <c r="BA12" s="3" t="str">
+        <v>409,40</v>
+      </c>
+      <c r="BB12" s="3" t="str">
+        <v>0,01</v>
+      </c>
+      <c r="BC12" s="3" t="str">
+        <v>540,00</v>
+      </c>
+      <c r="BD12" s="3" t="str">
+        <v>570,00</v>
+      </c>
+      <c r="BE12" s="3" t="str">
+        <v>479,10</v>
+      </c>
+      <c r="BF12" s="3" t="str">
+        <v>478,89</v>
+      </c>
+      <c r="BG12" s="3" t="str">
+        <v>570,00</v>
+      </c>
+      <c r="BH12" s="3" t="str">
         <v>460,00</v>
       </c>
-      <c r="C12" s="3" t="str">
+      <c r="BI12" s="3" t="str">
         <v>306,90</v>
       </c>
-      <c r="D12" s="3" t="str">
+      <c r="BJ12" s="3" t="str">
         <v>306,90</v>
       </c>
     </row>
@@ -575,12 +2721,186 @@
         <v>9-10</v>
       </c>
       <c r="B13" s="3" t="str">
+        <v>352,40</v>
+      </c>
+      <c r="C13" s="3" t="str">
+        <v>170,00</v>
+      </c>
+      <c r="D13" s="3" t="str">
+        <v>148,88</v>
+      </c>
+      <c r="E13" s="3" t="str">
+        <v>150,00</v>
+      </c>
+      <c r="F13" s="3" t="str">
+        <v>500,00</v>
+      </c>
+      <c r="G13" s="3" t="str">
+        <v>347,99</v>
+      </c>
+      <c r="H13" s="3" t="str">
+        <v>290,00</v>
+      </c>
+      <c r="I13" s="3" t="str">
+        <v>500,00</v>
+      </c>
+      <c r="J13" s="3" t="str">
+        <v>400,00</v>
+      </c>
+      <c r="K13" s="3" t="str">
+        <v>150,00</v>
+      </c>
+      <c r="L13" s="3" t="str">
+        <v>290,00</v>
+      </c>
+      <c r="M13" s="3" t="str">
+        <v>335,00</v>
+      </c>
+      <c r="N13" s="3" t="str">
+        <v>347,99</v>
+      </c>
+      <c r="O13" s="3" t="str">
+        <v>325,80</v>
+      </c>
+      <c r="P13" s="3" t="str">
+        <v>333,99</v>
+      </c>
+      <c r="Q13" s="3" t="str">
+        <v>342,26</v>
+      </c>
+      <c r="R13" s="3" t="str">
+        <v>250,00</v>
+      </c>
+      <c r="S13" s="3" t="str">
+        <v>56,08</v>
+      </c>
+      <c r="T13" s="3" t="str">
+        <v>370,14</v>
+      </c>
+      <c r="U13" s="3" t="str">
+        <v>410,00</v>
+      </c>
+      <c r="V13" s="3" t="str">
+        <v>439,16</v>
+      </c>
+      <c r="W13" s="3" t="str">
+        <v>410,00</v>
+      </c>
+      <c r="X13" s="3" t="str">
+        <v>410,00</v>
+      </c>
+      <c r="Y13" s="3" t="str">
+        <v>366,50</v>
+      </c>
+      <c r="Z13" s="3" t="str">
+        <v>269,99</v>
+      </c>
+      <c r="AA13" s="3" t="str">
+        <v>137,99</v>
+      </c>
+      <c r="AB13" s="3" t="str">
+        <v>283,99</v>
+      </c>
+      <c r="AC13" s="3" t="str">
+        <v>303,99</v>
+      </c>
+      <c r="AD13" s="3" t="str">
+        <v>355,57</v>
+      </c>
+      <c r="AE13" s="3" t="str">
+        <v>450,00</v>
+      </c>
+      <c r="AF13" s="3" t="str">
+        <v>406,00</v>
+      </c>
+      <c r="AG13" s="3" t="str">
+        <v>101,00</v>
+      </c>
+      <c r="AH13" s="3" t="str">
+        <v>421,00</v>
+      </c>
+      <c r="AI13" s="3" t="str">
+        <v>375,12</v>
+      </c>
+      <c r="AJ13" s="3" t="str">
+        <v>352,67</v>
+      </c>
+      <c r="AK13" s="3" t="str">
+        <v>458,75</v>
+      </c>
+      <c r="AL13" s="3" t="str">
+        <v>329,18</v>
+      </c>
+      <c r="AM13" s="3" t="str">
+        <v>12,10</v>
+      </c>
+      <c r="AN13" s="3" t="str">
+        <v>-50,00</v>
+      </c>
+      <c r="AO13" s="3" t="str">
+        <v>290,00</v>
+      </c>
+      <c r="AP13" s="3" t="str">
+        <v>320,00</v>
+      </c>
+      <c r="AQ13" s="3" t="str">
+        <v>339,99</v>
+      </c>
+      <c r="AR13" s="3" t="str">
+        <v>200,00</v>
+      </c>
+      <c r="AS13" s="3" t="str">
+        <v>350,00</v>
+      </c>
+      <c r="AT13" s="3" t="str">
+        <v>400,00</v>
+      </c>
+      <c r="AU13" s="3" t="str">
+        <v>320,00</v>
+      </c>
+      <c r="AV13" s="3" t="str">
+        <v>521,72</v>
+      </c>
+      <c r="AW13" s="3" t="str">
+        <v>430,11</v>
+      </c>
+      <c r="AX13" s="3" t="str">
+        <v>449,00</v>
+      </c>
+      <c r="AY13" s="3" t="str">
+        <v>360,00</v>
+      </c>
+      <c r="AZ13" s="3" t="str">
+        <v>363,00</v>
+      </c>
+      <c r="BA13" s="3" t="str">
+        <v>239,99</v>
+      </c>
+      <c r="BB13" s="3" t="str">
+        <v>-49,99</v>
+      </c>
+      <c r="BC13" s="3" t="str">
+        <v>456,60</v>
+      </c>
+      <c r="BD13" s="3" t="str">
+        <v>410,11</v>
+      </c>
+      <c r="BE13" s="3" t="str">
+        <v>382,60</v>
+      </c>
+      <c r="BF13" s="3" t="str">
+        <v>378,50</v>
+      </c>
+      <c r="BG13" s="3" t="str">
+        <v>455,79</v>
+      </c>
+      <c r="BH13" s="3" t="str">
         <v>353,20</v>
       </c>
-      <c r="C13" s="3" t="str">
+      <c r="BI13" s="3" t="str">
         <v>80,00</v>
       </c>
-      <c r="D13" s="3" t="str">
+      <c r="BJ13" s="3" t="str">
         <v>80,00</v>
       </c>
     </row>
@@ -589,12 +2909,186 @@
         <v>10-11</v>
       </c>
       <c r="B14" s="3" t="str">
+        <v>275,99</v>
+      </c>
+      <c r="C14" s="3" t="str">
+        <v>1,00</v>
+      </c>
+      <c r="D14" s="3" t="str">
+        <v>-10,00</v>
+      </c>
+      <c r="E14" s="3" t="str">
+        <v>150,00</v>
+      </c>
+      <c r="F14" s="3" t="str">
+        <v>466,80</v>
+      </c>
+      <c r="G14" s="3" t="str">
+        <v>250,00</v>
+      </c>
+      <c r="H14" s="3" t="str">
+        <v>187,99</v>
+      </c>
+      <c r="I14" s="3" t="str">
+        <v>450,00</v>
+      </c>
+      <c r="J14" s="3" t="str">
+        <v>388,60</v>
+      </c>
+      <c r="K14" s="3" t="str">
+        <v>1,00</v>
+      </c>
+      <c r="L14" s="3" t="str">
+        <v>181,99</v>
+      </c>
+      <c r="M14" s="3" t="str">
+        <v>280,80</v>
+      </c>
+      <c r="N14" s="3" t="str">
+        <v>263,99</v>
+      </c>
+      <c r="O14" s="3" t="str">
+        <v>211,99</v>
+      </c>
+      <c r="P14" s="3" t="str">
+        <v>227,70</v>
+      </c>
+      <c r="Q14" s="3" t="str">
+        <v>267,99</v>
+      </c>
+      <c r="R14" s="3" t="str">
+        <v>73,44</v>
+      </c>
+      <c r="S14" s="3" t="str">
+        <v>-10,00</v>
+      </c>
+      <c r="T14" s="3" t="str">
+        <v>330,03</v>
+      </c>
+      <c r="U14" s="3" t="str">
+        <v>332,59</v>
+      </c>
+      <c r="V14" s="3" t="str">
+        <v>401,00</v>
+      </c>
+      <c r="W14" s="3" t="str">
+        <v>330,00</v>
+      </c>
+      <c r="X14" s="3" t="str">
+        <v>346,99</v>
+      </c>
+      <c r="Y14" s="3" t="str">
+        <v>354,99</v>
+      </c>
+      <c r="Z14" s="3" t="str">
+        <v>100,00</v>
+      </c>
+      <c r="AA14" s="3" t="str">
+        <v>0,00</v>
+      </c>
+      <c r="AB14" s="3" t="str">
+        <v>180,11</v>
+      </c>
+      <c r="AC14" s="3" t="str">
+        <v>198,12</v>
+      </c>
+      <c r="AD14" s="3" t="str">
+        <v>288,00</v>
+      </c>
+      <c r="AE14" s="3" t="str">
+        <v>404,00</v>
+      </c>
+      <c r="AF14" s="3" t="str">
+        <v>388,80</v>
+      </c>
+      <c r="AG14" s="3" t="str">
+        <v>30,00</v>
+      </c>
+      <c r="AH14" s="3" t="str">
+        <v>380,00</v>
+      </c>
+      <c r="AI14" s="3" t="str">
+        <v>329,99</v>
+      </c>
+      <c r="AJ14" s="3" t="str">
+        <v>261,00</v>
+      </c>
+      <c r="AK14" s="3" t="str">
+        <v>400,00</v>
+      </c>
+      <c r="AL14" s="3" t="str">
+        <v>160,00</v>
+      </c>
+      <c r="AM14" s="3" t="str">
+        <v>-60,00</v>
+      </c>
+      <c r="AN14" s="3" t="str">
+        <v>-135,00</v>
+      </c>
+      <c r="AO14" s="3" t="str">
+        <v>129,50</v>
+      </c>
+      <c r="AP14" s="3" t="str">
+        <v>170,00</v>
+      </c>
+      <c r="AQ14" s="3" t="str">
+        <v>100,00</v>
+      </c>
+      <c r="AR14" s="3" t="str">
+        <v>40,00</v>
+      </c>
+      <c r="AS14" s="3" t="str">
+        <v>250,00</v>
+      </c>
+      <c r="AT14" s="3" t="str">
+        <v>302,18</v>
+      </c>
+      <c r="AU14" s="3" t="str">
+        <v>239,00</v>
+      </c>
+      <c r="AV14" s="3" t="str">
+        <v>414,49</v>
+      </c>
+      <c r="AW14" s="3" t="str">
+        <v>386,49</v>
+      </c>
+      <c r="AX14" s="3" t="str">
+        <v>389,89</v>
+      </c>
+      <c r="AY14" s="3" t="str">
+        <v>301,99</v>
+      </c>
+      <c r="AZ14" s="3" t="str">
+        <v>231,49</v>
+      </c>
+      <c r="BA14" s="3" t="str">
+        <v>0,01</v>
+      </c>
+      <c r="BB14" s="3" t="str">
+        <v>-225,00</v>
+      </c>
+      <c r="BC14" s="3" t="str">
+        <v>390,90</v>
+      </c>
+      <c r="BD14" s="3" t="str">
+        <v>300,00</v>
+      </c>
+      <c r="BE14" s="3" t="str">
+        <v>259,99</v>
+      </c>
+      <c r="BF14" s="3" t="str">
+        <v>230,00</v>
+      </c>
+      <c r="BG14" s="3" t="str">
+        <v>349,23</v>
+      </c>
+      <c r="BH14" s="3" t="str">
         <v>190,00</v>
       </c>
-      <c r="C14" s="3" t="str">
+      <c r="BI14" s="3" t="str">
         <v>0,01</v>
       </c>
-      <c r="D14" s="3" t="str">
+      <c r="BJ14" s="3" t="str">
         <v>0,01</v>
       </c>
     </row>
@@ -603,12 +3097,186 @@
         <v>11-12</v>
       </c>
       <c r="B15" s="3" t="str">
+        <v>319,99</v>
+      </c>
+      <c r="C15" s="3" t="str">
+        <v>0,00</v>
+      </c>
+      <c r="D15" s="3" t="str">
+        <v>-80,00</v>
+      </c>
+      <c r="E15" s="3" t="str">
+        <v>150,00</v>
+      </c>
+      <c r="F15" s="3" t="str">
+        <v>460,00</v>
+      </c>
+      <c r="G15" s="3" t="str">
+        <v>299,99</v>
+      </c>
+      <c r="H15" s="3" t="str">
+        <v>150,00</v>
+      </c>
+      <c r="I15" s="3" t="str">
+        <v>450,00</v>
+      </c>
+      <c r="J15" s="3" t="str">
+        <v>370,00</v>
+      </c>
+      <c r="K15" s="3" t="str">
+        <v>-10,00</v>
+      </c>
+      <c r="L15" s="3" t="str">
+        <v>150,00</v>
+      </c>
+      <c r="M15" s="3" t="str">
+        <v>309,00</v>
+      </c>
+      <c r="N15" s="3" t="str">
+        <v>331,00</v>
+      </c>
+      <c r="O15" s="3" t="str">
+        <v>183,99</v>
+      </c>
+      <c r="P15" s="3" t="str">
+        <v>190,40</v>
+      </c>
+      <c r="Q15" s="3" t="str">
+        <v>249,99</v>
+      </c>
+      <c r="R15" s="3" t="str">
+        <v>23,20</v>
+      </c>
+      <c r="S15" s="3" t="str">
+        <v>-28,00</v>
+      </c>
+      <c r="T15" s="3" t="str">
+        <v>324,01</v>
+      </c>
+      <c r="U15" s="3" t="str">
+        <v>342,90</v>
+      </c>
+      <c r="V15" s="3" t="str">
+        <v>425,00</v>
+      </c>
+      <c r="W15" s="3" t="str">
+        <v>325,00</v>
+      </c>
+      <c r="X15" s="3" t="str">
+        <v>331,99</v>
+      </c>
+      <c r="Y15" s="3" t="str">
+        <v>363,50</v>
+      </c>
+      <c r="Z15" s="3" t="str">
+        <v>0,00</v>
+      </c>
+      <c r="AA15" s="3" t="str">
+        <v>-31,00</v>
+      </c>
+      <c r="AB15" s="3" t="str">
+        <v>90,11</v>
+      </c>
+      <c r="AC15" s="3" t="str">
+        <v>105,95</v>
+      </c>
+      <c r="AD15" s="3" t="str">
+        <v>263,40</v>
+      </c>
+      <c r="AE15" s="3" t="str">
+        <v>390,34</v>
+      </c>
+      <c r="AF15" s="3" t="str">
+        <v>377,76</v>
+      </c>
+      <c r="AG15" s="3" t="str">
+        <v>45,99</v>
+      </c>
+      <c r="AH15" s="3" t="str">
+        <v>349,89</v>
+      </c>
+      <c r="AI15" s="3" t="str">
+        <v>307,99</v>
+      </c>
+      <c r="AJ15" s="3" t="str">
+        <v>220,00</v>
+      </c>
+      <c r="AK15" s="3" t="str">
+        <v>394,30</v>
+      </c>
+      <c r="AL15" s="3" t="str">
+        <v>119,00</v>
+      </c>
+      <c r="AM15" s="3" t="str">
+        <v>-130,00</v>
+      </c>
+      <c r="AN15" s="3" t="str">
+        <v>-220,00</v>
+      </c>
+      <c r="AO15" s="3" t="str">
+        <v>58,88</v>
+      </c>
+      <c r="AP15" s="3" t="str">
+        <v>99,00</v>
+      </c>
+      <c r="AQ15" s="3" t="str">
+        <v>30,00</v>
+      </c>
+      <c r="AR15" s="3" t="str">
+        <v>1,00</v>
+      </c>
+      <c r="AS15" s="3" t="str">
+        <v>190,00</v>
+      </c>
+      <c r="AT15" s="3" t="str">
+        <v>266,20</v>
+      </c>
+      <c r="AU15" s="3" t="str">
+        <v>200,30</v>
+      </c>
+      <c r="AV15" s="3" t="str">
+        <v>400,00</v>
+      </c>
+      <c r="AW15" s="3" t="str">
+        <v>381,50</v>
+      </c>
+      <c r="AX15" s="3" t="str">
+        <v>370,00</v>
+      </c>
+      <c r="AY15" s="3" t="str">
+        <v>270,00</v>
+      </c>
+      <c r="AZ15" s="3" t="str">
+        <v>165,49</v>
+      </c>
+      <c r="BA15" s="3" t="str">
+        <v>-51,57</v>
+      </c>
+      <c r="BB15" s="3" t="str">
+        <v>-250,00</v>
+      </c>
+      <c r="BC15" s="3" t="str">
+        <v>390,00</v>
+      </c>
+      <c r="BD15" s="3" t="str">
+        <v>255,67</v>
+      </c>
+      <c r="BE15" s="3" t="str">
+        <v>150,00</v>
+      </c>
+      <c r="BF15" s="3" t="str">
+        <v>150,00</v>
+      </c>
+      <c r="BG15" s="3" t="str">
+        <v>310,11</v>
+      </c>
+      <c r="BH15" s="3" t="str">
         <v>65,30</v>
       </c>
-      <c r="C15" s="3" t="str">
+      <c r="BI15" s="3" t="str">
         <v>-53,50</v>
       </c>
-      <c r="D15" s="3" t="str">
+      <c r="BJ15" s="3" t="str">
         <v>-53,50</v>
       </c>
     </row>
@@ -617,12 +3285,186 @@
         <v>12-13</v>
       </c>
       <c r="B16" s="3" t="str">
+        <v>305,00</v>
+      </c>
+      <c r="C16" s="3" t="str">
+        <v>0,00</v>
+      </c>
+      <c r="D16" s="3" t="str">
+        <v>-175,00</v>
+      </c>
+      <c r="E16" s="3" t="str">
+        <v>120,00</v>
+      </c>
+      <c r="F16" s="3" t="str">
+        <v>460,00</v>
+      </c>
+      <c r="G16" s="3" t="str">
+        <v>250,00</v>
+      </c>
+      <c r="H16" s="3" t="str">
+        <v>140,00</v>
+      </c>
+      <c r="I16" s="3" t="str">
+        <v>476,00</v>
+      </c>
+      <c r="J16" s="3" t="str">
+        <v>345,71</v>
+      </c>
+      <c r="K16" s="3" t="str">
+        <v>-49,99</v>
+      </c>
+      <c r="L16" s="3" t="str">
+        <v>149,97</v>
+      </c>
+      <c r="M16" s="3" t="str">
+        <v>315,99</v>
+      </c>
+      <c r="N16" s="3" t="str">
+        <v>329,99</v>
+      </c>
+      <c r="O16" s="3" t="str">
+        <v>198,23</v>
+      </c>
+      <c r="P16" s="3" t="str">
+        <v>155,10</v>
+      </c>
+      <c r="Q16" s="3" t="str">
+        <v>199,99</v>
+      </c>
+      <c r="R16" s="3" t="str">
+        <v>29,10</v>
+      </c>
+      <c r="S16" s="3" t="str">
+        <v>-37,00</v>
+      </c>
+      <c r="T16" s="3" t="str">
+        <v>315,99</v>
+      </c>
+      <c r="U16" s="3" t="str">
+        <v>340,70</v>
+      </c>
+      <c r="V16" s="3" t="str">
+        <v>462,00</v>
+      </c>
+      <c r="W16" s="3" t="str">
+        <v>317,99</v>
+      </c>
+      <c r="X16" s="3" t="str">
+        <v>321,99</v>
+      </c>
+      <c r="Y16" s="3" t="str">
+        <v>356,55</v>
+      </c>
+      <c r="Z16" s="3" t="str">
+        <v>-30,01</v>
+      </c>
+      <c r="AA16" s="3" t="str">
+        <v>-55,00</v>
+      </c>
+      <c r="AB16" s="3" t="str">
+        <v>30,00</v>
+      </c>
+      <c r="AC16" s="3" t="str">
+        <v>70,00</v>
+      </c>
+      <c r="AD16" s="3" t="str">
+        <v>235,90</v>
+      </c>
+      <c r="AE16" s="3" t="str">
+        <v>387,59</v>
+      </c>
+      <c r="AF16" s="3" t="str">
+        <v>361,40</v>
+      </c>
+      <c r="AG16" s="3" t="str">
+        <v>79,99</v>
+      </c>
+      <c r="AH16" s="3" t="str">
+        <v>330,00</v>
+      </c>
+      <c r="AI16" s="3" t="str">
+        <v>310,00</v>
+      </c>
+      <c r="AJ16" s="3" t="str">
+        <v>150,00</v>
+      </c>
+      <c r="AK16" s="3" t="str">
+        <v>390,00</v>
+      </c>
+      <c r="AL16" s="3" t="str">
+        <v>50,00</v>
+      </c>
+      <c r="AM16" s="3" t="str">
+        <v>-175,00</v>
+      </c>
+      <c r="AN16" s="3" t="str">
+        <v>-350,00</v>
+      </c>
+      <c r="AO16" s="3" t="str">
         <v>9,36</v>
       </c>
-      <c r="C16" s="3" t="str">
+      <c r="AP16" s="3" t="str">
+        <v>51,10</v>
+      </c>
+      <c r="AQ16" s="3" t="str">
+        <v>20,00</v>
+      </c>
+      <c r="AR16" s="3" t="str">
+        <v>0,01</v>
+      </c>
+      <c r="AS16" s="3" t="str">
+        <v>137,99</v>
+      </c>
+      <c r="AT16" s="3" t="str">
+        <v>253,99</v>
+      </c>
+      <c r="AU16" s="3" t="str">
+        <v>200,00</v>
+      </c>
+      <c r="AV16" s="3" t="str">
+        <v>408,00</v>
+      </c>
+      <c r="AW16" s="3" t="str">
+        <v>398,00</v>
+      </c>
+      <c r="AX16" s="3" t="str">
+        <v>365,99</v>
+      </c>
+      <c r="AY16" s="3" t="str">
+        <v>259,99</v>
+      </c>
+      <c r="AZ16" s="3" t="str">
+        <v>100,00</v>
+      </c>
+      <c r="BA16" s="3" t="str">
+        <v>-92,69</v>
+      </c>
+      <c r="BB16" s="3" t="str">
+        <v>-230,00</v>
+      </c>
+      <c r="BC16" s="3" t="str">
+        <v>392,00</v>
+      </c>
+      <c r="BD16" s="3" t="str">
+        <v>216,40</v>
+      </c>
+      <c r="BE16" s="3" t="str">
+        <v>70,00</v>
+      </c>
+      <c r="BF16" s="3" t="str">
+        <v>85,99</v>
+      </c>
+      <c r="BG16" s="3" t="str">
+        <v>273,99</v>
+      </c>
+      <c r="BH16" s="3" t="str">
+        <v>9,36</v>
+      </c>
+      <c r="BI16" s="3" t="str">
         <v>-96,56</v>
       </c>
-      <c r="D16" s="3" t="str">
+      <c r="BJ16" s="3" t="str">
         <v>-96,56</v>
       </c>
     </row>
@@ -631,12 +3473,186 @@
         <v>13-14</v>
       </c>
       <c r="B17" s="3" t="str">
+        <v>306,76</v>
+      </c>
+      <c r="C17" s="3" t="str">
+        <v>0,01</v>
+      </c>
+      <c r="D17" s="3" t="str">
+        <v>-175,00</v>
+      </c>
+      <c r="E17" s="3" t="str">
+        <v>175,00</v>
+      </c>
+      <c r="F17" s="3" t="str">
+        <v>450,00</v>
+      </c>
+      <c r="G17" s="3" t="str">
+        <v>299,99</v>
+      </c>
+      <c r="H17" s="3" t="str">
+        <v>150,00</v>
+      </c>
+      <c r="I17" s="3" t="str">
+        <v>476,00</v>
+      </c>
+      <c r="J17" s="3" t="str">
+        <v>378,00</v>
+      </c>
+      <c r="K17" s="3" t="str">
+        <v>-80,00</v>
+      </c>
+      <c r="L17" s="3" t="str">
+        <v>110,00</v>
+      </c>
+      <c r="M17" s="3" t="str">
+        <v>333,99</v>
+      </c>
+      <c r="N17" s="3" t="str">
+        <v>380,00</v>
+      </c>
+      <c r="O17" s="3" t="str">
+        <v>273,99</v>
+      </c>
+      <c r="P17" s="3" t="str">
+        <v>165,60</v>
+      </c>
+      <c r="Q17" s="3" t="str">
+        <v>200,00</v>
+      </c>
+      <c r="R17" s="3" t="str">
+        <v>39,30</v>
+      </c>
+      <c r="S17" s="3" t="str">
+        <v>-30,00</v>
+      </c>
+      <c r="T17" s="3" t="str">
+        <v>347,00</v>
+      </c>
+      <c r="U17" s="3" t="str">
+        <v>358,99</v>
+      </c>
+      <c r="V17" s="3" t="str">
+        <v>475,00</v>
+      </c>
+      <c r="W17" s="3" t="str">
+        <v>327,99</v>
+      </c>
+      <c r="X17" s="3" t="str">
+        <v>339,99</v>
+      </c>
+      <c r="Y17" s="3" t="str">
+        <v>386,90</v>
+      </c>
+      <c r="Z17" s="3" t="str">
+        <v>-71,01</v>
+      </c>
+      <c r="AA17" s="3" t="str">
+        <v>-54,01</v>
+      </c>
+      <c r="AB17" s="3" t="str">
+        <v>10,11</v>
+      </c>
+      <c r="AC17" s="3" t="str">
+        <v>70,00</v>
+      </c>
+      <c r="AD17" s="3" t="str">
+        <v>241,99</v>
+      </c>
+      <c r="AE17" s="3" t="str">
+        <v>394,00</v>
+      </c>
+      <c r="AF17" s="3" t="str">
+        <v>326,70</v>
+      </c>
+      <c r="AG17" s="3" t="str">
+        <v>199,89</v>
+      </c>
+      <c r="AH17" s="3" t="str">
+        <v>311,99</v>
+      </c>
+      <c r="AI17" s="3" t="str">
+        <v>313,12</v>
+      </c>
+      <c r="AJ17" s="3" t="str">
+        <v>150,00</v>
+      </c>
+      <c r="AK17" s="3" t="str">
+        <v>396,00</v>
+      </c>
+      <c r="AL17" s="3" t="str">
+        <v>50,00</v>
+      </c>
+      <c r="AM17" s="3" t="str">
+        <v>-250,00</v>
+      </c>
+      <c r="AN17" s="3" t="str">
+        <v>-357,00</v>
+      </c>
+      <c r="AO17" s="3" t="str">
+        <v>10,00</v>
+      </c>
+      <c r="AP17" s="3" t="str">
+        <v>54,03</v>
+      </c>
+      <c r="AQ17" s="3" t="str">
+        <v>25,00</v>
+      </c>
+      <c r="AR17" s="3" t="str">
+        <v>6,00</v>
+      </c>
+      <c r="AS17" s="3" t="str">
+        <v>119,99</v>
+      </c>
+      <c r="AT17" s="3" t="str">
+        <v>251,02</v>
+      </c>
+      <c r="AU17" s="3" t="str">
+        <v>189,00</v>
+      </c>
+      <c r="AV17" s="3" t="str">
+        <v>407,32</v>
+      </c>
+      <c r="AW17" s="3" t="str">
+        <v>398,00</v>
+      </c>
+      <c r="AX17" s="3" t="str">
+        <v>399,00</v>
+      </c>
+      <c r="AY17" s="3" t="str">
+        <v>290,00</v>
+      </c>
+      <c r="AZ17" s="3" t="str">
+        <v>31,11</v>
+      </c>
+      <c r="BA17" s="3" t="str">
+        <v>-115,00</v>
+      </c>
+      <c r="BB17" s="3" t="str">
+        <v>-223,26</v>
+      </c>
+      <c r="BC17" s="3" t="str">
+        <v>388,80</v>
+      </c>
+      <c r="BD17" s="3" t="str">
+        <v>245,50</v>
+      </c>
+      <c r="BE17" s="3" t="str">
+        <v>55,00</v>
+      </c>
+      <c r="BF17" s="3" t="str">
+        <v>50,00</v>
+      </c>
+      <c r="BG17" s="3" t="str">
+        <v>277,99</v>
+      </c>
+      <c r="BH17" s="3" t="str">
         <v>0,00</v>
       </c>
-      <c r="C17" s="3" t="str">
+      <c r="BI17" s="3" t="str">
         <v>-175,49</v>
       </c>
-      <c r="D17" s="3" t="str">
+      <c r="BJ17" s="3" t="str">
         <v>-175,49</v>
       </c>
     </row>
@@ -645,12 +3661,186 @@
         <v>14-15</v>
       </c>
       <c r="B18" s="3" t="str">
+        <v>301,99</v>
+      </c>
+      <c r="C18" s="3" t="str">
+        <v>5,00</v>
+      </c>
+      <c r="D18" s="3" t="str">
+        <v>-175,00</v>
+      </c>
+      <c r="E18" s="3" t="str">
+        <v>233,40</v>
+      </c>
+      <c r="F18" s="3" t="str">
+        <v>462,00</v>
+      </c>
+      <c r="G18" s="3" t="str">
+        <v>295,99</v>
+      </c>
+      <c r="H18" s="3" t="str">
+        <v>177,00</v>
+      </c>
+      <c r="I18" s="3" t="str">
+        <v>450,00</v>
+      </c>
+      <c r="J18" s="3" t="str">
+        <v>378,00</v>
+      </c>
+      <c r="K18" s="3" t="str">
+        <v>-40,00</v>
+      </c>
+      <c r="L18" s="3" t="str">
+        <v>101,10</v>
+      </c>
+      <c r="M18" s="3" t="str">
+        <v>311,99</v>
+      </c>
+      <c r="N18" s="3" t="str">
+        <v>364,63</v>
+      </c>
+      <c r="O18" s="3" t="str">
+        <v>295,99</v>
+      </c>
+      <c r="P18" s="3" t="str">
+        <v>200,00</v>
+      </c>
+      <c r="Q18" s="3" t="str">
+        <v>227,99</v>
+      </c>
+      <c r="R18" s="3" t="str">
+        <v>70,00</v>
+      </c>
+      <c r="S18" s="3" t="str">
+        <v>-15,00</v>
+      </c>
+      <c r="T18" s="3" t="str">
+        <v>348,85</v>
+      </c>
+      <c r="U18" s="3" t="str">
+        <v>364,00</v>
+      </c>
+      <c r="V18" s="3" t="str">
+        <v>450,00</v>
+      </c>
+      <c r="W18" s="3" t="str">
+        <v>320,00</v>
+      </c>
+      <c r="X18" s="3" t="str">
+        <v>348,32</v>
+      </c>
+      <c r="Y18" s="3" t="str">
+        <v>425,00</v>
+      </c>
+      <c r="Z18" s="3" t="str">
+        <v>-190,00</v>
+      </c>
+      <c r="AA18" s="3" t="str">
+        <v>-30,01</v>
+      </c>
+      <c r="AB18" s="3" t="str">
+        <v>21,40</v>
+      </c>
+      <c r="AC18" s="3" t="str">
+        <v>100,00</v>
+      </c>
+      <c r="AD18" s="3" t="str">
+        <v>233,99</v>
+      </c>
+      <c r="AE18" s="3" t="str">
+        <v>406,00</v>
+      </c>
+      <c r="AF18" s="3" t="str">
+        <v>300,00</v>
+      </c>
+      <c r="AG18" s="3" t="str">
+        <v>217,99</v>
+      </c>
+      <c r="AH18" s="3" t="str">
+        <v>305,99</v>
+      </c>
+      <c r="AI18" s="3" t="str">
+        <v>321,99</v>
+      </c>
+      <c r="AJ18" s="3" t="str">
+        <v>186,75</v>
+      </c>
+      <c r="AK18" s="3" t="str">
+        <v>388,05</v>
+      </c>
+      <c r="AL18" s="3" t="str">
+        <v>179,99</v>
+      </c>
+      <c r="AM18" s="3" t="str">
+        <v>-278,83</v>
+      </c>
+      <c r="AN18" s="3" t="str">
+        <v>-360,00</v>
+      </c>
+      <c r="AO18" s="3" t="str">
+        <v>16,00</v>
+      </c>
+      <c r="AP18" s="3" t="str">
+        <v>101,99</v>
+      </c>
+      <c r="AQ18" s="3" t="str">
+        <v>58,69</v>
+      </c>
+      <c r="AR18" s="3" t="str">
+        <v>13,80</v>
+      </c>
+      <c r="AS18" s="3" t="str">
+        <v>140,00</v>
+      </c>
+      <c r="AT18" s="3" t="str">
+        <v>265,99</v>
+      </c>
+      <c r="AU18" s="3" t="str">
+        <v>240,00</v>
+      </c>
+      <c r="AV18" s="3" t="str">
+        <v>408,00</v>
+      </c>
+      <c r="AW18" s="3" t="str">
+        <v>408,00</v>
+      </c>
+      <c r="AX18" s="3" t="str">
+        <v>366,39</v>
+      </c>
+      <c r="AY18" s="3" t="str">
+        <v>349,99</v>
+      </c>
+      <c r="AZ18" s="3" t="str">
+        <v>30,00</v>
+      </c>
+      <c r="BA18" s="3" t="str">
+        <v>-49,99</v>
+      </c>
+      <c r="BB18" s="3" t="str">
+        <v>-150,10</v>
+      </c>
+      <c r="BC18" s="3" t="str">
+        <v>398,00</v>
+      </c>
+      <c r="BD18" s="3" t="str">
+        <v>287,66</v>
+      </c>
+      <c r="BE18" s="3" t="str">
+        <v>90,00</v>
+      </c>
+      <c r="BF18" s="3" t="str">
+        <v>108,88</v>
+      </c>
+      <c r="BG18" s="3" t="str">
+        <v>319,20</v>
+      </c>
+      <c r="BH18" s="3" t="str">
         <v>1,00</v>
       </c>
-      <c r="C18" s="3" t="str">
+      <c r="BI18" s="3" t="str">
         <v>-131,37</v>
       </c>
-      <c r="D18" s="3" t="str">
+      <c r="BJ18" s="3" t="str">
         <v>-131,37</v>
       </c>
     </row>
@@ -659,12 +3849,186 @@
         <v>15-16</v>
       </c>
       <c r="B19" s="3" t="str">
+        <v>267,99</v>
+      </c>
+      <c r="C19" s="3" t="str">
+        <v>200,00</v>
+      </c>
+      <c r="D19" s="3" t="str">
+        <v>-120,00</v>
+      </c>
+      <c r="E19" s="3" t="str">
+        <v>388,00</v>
+      </c>
+      <c r="F19" s="3" t="str">
+        <v>480,60</v>
+      </c>
+      <c r="G19" s="3" t="str">
+        <v>339,50</v>
+      </c>
+      <c r="H19" s="3" t="str">
+        <v>317,99</v>
+      </c>
+      <c r="I19" s="3" t="str">
+        <v>484,00</v>
+      </c>
+      <c r="J19" s="3" t="str">
+        <v>388,00</v>
+      </c>
+      <c r="K19" s="3" t="str">
+        <v>-19,01</v>
+      </c>
+      <c r="L19" s="3" t="str">
+        <v>150,00</v>
+      </c>
+      <c r="M19" s="3" t="str">
+        <v>345,99</v>
+      </c>
+      <c r="N19" s="3" t="str">
+        <v>418,00</v>
+      </c>
+      <c r="O19" s="3" t="str">
+        <v>331,99</v>
+      </c>
+      <c r="P19" s="3" t="str">
+        <v>281,99</v>
+      </c>
+      <c r="Q19" s="3" t="str">
+        <v>317,99</v>
+      </c>
+      <c r="R19" s="3" t="str">
+        <v>254,67</v>
+      </c>
+      <c r="S19" s="3" t="str">
+        <v>0,01</v>
+      </c>
+      <c r="T19" s="3" t="str">
+        <v>400,00</v>
+      </c>
+      <c r="U19" s="3" t="str">
+        <v>415,90</v>
+      </c>
+      <c r="V19" s="3" t="str">
+        <v>415,00</v>
+      </c>
+      <c r="W19" s="3" t="str">
+        <v>343,99</v>
+      </c>
+      <c r="X19" s="3" t="str">
+        <v>410,00</v>
+      </c>
+      <c r="Y19" s="3" t="str">
+        <v>444,31</v>
+      </c>
+      <c r="Z19" s="3" t="str">
+        <v>-176,00</v>
+      </c>
+      <c r="AA19" s="3" t="str">
+        <v>0,01</v>
+      </c>
+      <c r="AB19" s="3" t="str">
+        <v>165,00</v>
+      </c>
+      <c r="AC19" s="3" t="str">
+        <v>239,99</v>
+      </c>
+      <c r="AD19" s="3" t="str">
+        <v>295,67</v>
+      </c>
+      <c r="AE19" s="3" t="str">
+        <v>482,86</v>
+      </c>
+      <c r="AF19" s="3" t="str">
+        <v>340,00</v>
+      </c>
+      <c r="AG19" s="3" t="str">
+        <v>330,27</v>
+      </c>
+      <c r="AH19" s="3" t="str">
+        <v>347,99</v>
+      </c>
+      <c r="AI19" s="3" t="str">
+        <v>359,99</v>
+      </c>
+      <c r="AJ19" s="3" t="str">
+        <v>279,99</v>
+      </c>
+      <c r="AK19" s="3" t="str">
+        <v>390,83</v>
+      </c>
+      <c r="AL19" s="3" t="str">
+        <v>263,99</v>
+      </c>
+      <c r="AM19" s="3" t="str">
+        <v>-201,00</v>
+      </c>
+      <c r="AN19" s="3" t="str">
+        <v>-293,00</v>
+      </c>
+      <c r="AO19" s="3" t="str">
+        <v>55,00</v>
+      </c>
+      <c r="AP19" s="3" t="str">
+        <v>190,41</v>
+      </c>
+      <c r="AQ19" s="3" t="str">
+        <v>181,99</v>
+      </c>
+      <c r="AR19" s="3" t="str">
+        <v>63,00</v>
+      </c>
+      <c r="AS19" s="3" t="str">
+        <v>199,99</v>
+      </c>
+      <c r="AT19" s="3" t="str">
+        <v>311,99</v>
+      </c>
+      <c r="AU19" s="3" t="str">
+        <v>299,99</v>
+      </c>
+      <c r="AV19" s="3" t="str">
+        <v>400,00</v>
+      </c>
+      <c r="AW19" s="3" t="str">
+        <v>406,32</v>
+      </c>
+      <c r="AX19" s="3" t="str">
+        <v>365,99</v>
+      </c>
+      <c r="AY19" s="3" t="str">
+        <v>400,00</v>
+      </c>
+      <c r="AZ19" s="3" t="str">
+        <v>150,00</v>
+      </c>
+      <c r="BA19" s="3" t="str">
+        <v>10,00</v>
+      </c>
+      <c r="BB19" s="3" t="str">
+        <v>-49,98</v>
+      </c>
+      <c r="BC19" s="3" t="str">
+        <v>447,40</v>
+      </c>
+      <c r="BD19" s="3" t="str">
+        <v>343,99</v>
+      </c>
+      <c r="BE19" s="3" t="str">
+        <v>282,89</v>
+      </c>
+      <c r="BF19" s="3" t="str">
+        <v>288,00</v>
+      </c>
+      <c r="BG19" s="3" t="str">
+        <v>398,00</v>
+      </c>
+      <c r="BH19" s="3" t="str">
         <v>211,99</v>
       </c>
-      <c r="C19" s="3" t="str">
+      <c r="BI19" s="3" t="str">
         <v>-0,02</v>
       </c>
-      <c r="D19" s="3" t="str">
+      <c r="BJ19" s="3" t="str">
         <v>-0,02</v>
       </c>
     </row>
@@ -673,12 +4037,186 @@
         <v>16-17</v>
       </c>
       <c r="B20" s="3" t="str">
+        <v>323,60</v>
+      </c>
+      <c r="C20" s="3" t="str">
+        <v>329,99</v>
+      </c>
+      <c r="D20" s="3" t="str">
+        <v>0,00</v>
+      </c>
+      <c r="E20" s="3" t="str">
+        <v>436,10</v>
+      </c>
+      <c r="F20" s="3" t="str">
+        <v>515,72</v>
+      </c>
+      <c r="G20" s="3" t="str">
+        <v>402,00</v>
+      </c>
+      <c r="H20" s="3" t="str">
+        <v>347,99</v>
+      </c>
+      <c r="I20" s="3" t="str">
+        <v>500,00</v>
+      </c>
+      <c r="J20" s="3" t="str">
+        <v>396,00</v>
+      </c>
+      <c r="K20" s="3" t="str">
+        <v>9,40</v>
+      </c>
+      <c r="L20" s="3" t="str">
+        <v>290,00</v>
+      </c>
+      <c r="M20" s="3" t="str">
+        <v>442,33</v>
+      </c>
+      <c r="N20" s="3" t="str">
+        <v>500,00</v>
+      </c>
+      <c r="O20" s="3" t="str">
+        <v>374,07</v>
+      </c>
+      <c r="P20" s="3" t="str">
+        <v>359,00</v>
+      </c>
+      <c r="Q20" s="3" t="str">
+        <v>325,99</v>
+      </c>
+      <c r="R20" s="3" t="str">
+        <v>388,00</v>
+      </c>
+      <c r="S20" s="3" t="str">
+        <v>189,00</v>
+      </c>
+      <c r="T20" s="3" t="str">
+        <v>449,00</v>
+      </c>
+      <c r="U20" s="3" t="str">
+        <v>431,20</v>
+      </c>
+      <c r="V20" s="3" t="str">
+        <v>431,20</v>
+      </c>
+      <c r="W20" s="3" t="str">
+        <v>384,00</v>
+      </c>
+      <c r="X20" s="3" t="str">
+        <v>437,42</v>
+      </c>
+      <c r="Y20" s="3" t="str">
+        <v>463,26</v>
+      </c>
+      <c r="Z20" s="3" t="str">
+        <v>-111,00</v>
+      </c>
+      <c r="AA20" s="3" t="str">
+        <v>90,00</v>
+      </c>
+      <c r="AB20" s="3" t="str">
+        <v>315,99</v>
+      </c>
+      <c r="AC20" s="3" t="str">
+        <v>370,60</v>
+      </c>
+      <c r="AD20" s="3" t="str">
+        <v>385,69</v>
+      </c>
+      <c r="AE20" s="3" t="str">
+        <v>482,86</v>
+      </c>
+      <c r="AF20" s="3" t="str">
+        <v>399,99</v>
+      </c>
+      <c r="AG20" s="3" t="str">
+        <v>386,00</v>
+      </c>
+      <c r="AH20" s="3" t="str">
+        <v>380,00</v>
+      </c>
+      <c r="AI20" s="3" t="str">
+        <v>412,00</v>
+      </c>
+      <c r="AJ20" s="3" t="str">
+        <v>364,48</v>
+      </c>
+      <c r="AK20" s="3" t="str">
+        <v>420,00</v>
+      </c>
+      <c r="AL20" s="3" t="str">
+        <v>367,99</v>
+      </c>
+      <c r="AM20" s="3" t="str">
+        <v>-55,00</v>
+      </c>
+      <c r="AN20" s="3" t="str">
+        <v>-99,00</v>
+      </c>
+      <c r="AO20" s="3" t="str">
+        <v>289,89</v>
+      </c>
+      <c r="AP20" s="3" t="str">
+        <v>340,00</v>
+      </c>
+      <c r="AQ20" s="3" t="str">
+        <v>335,01</v>
+      </c>
+      <c r="AR20" s="3" t="str">
+        <v>249,99</v>
+      </c>
+      <c r="AS20" s="3" t="str">
+        <v>329,99</v>
+      </c>
+      <c r="AT20" s="3" t="str">
+        <v>420,00</v>
+      </c>
+      <c r="AU20" s="3" t="str">
+        <v>327,00</v>
+      </c>
+      <c r="AV20" s="3" t="str">
+        <v>448,50</v>
+      </c>
+      <c r="AW20" s="3" t="str">
+        <v>510,00</v>
+      </c>
+      <c r="AX20" s="3" t="str">
+        <v>380,00</v>
+      </c>
+      <c r="AY20" s="3" t="str">
+        <v>521,20</v>
+      </c>
+      <c r="AZ20" s="3" t="str">
+        <v>300,00</v>
+      </c>
+      <c r="BA20" s="3" t="str">
+        <v>333,15</v>
+      </c>
+      <c r="BB20" s="3" t="str">
+        <v>138,65</v>
+      </c>
+      <c r="BC20" s="3" t="str">
+        <v>526,00</v>
+      </c>
+      <c r="BD20" s="3" t="str">
+        <v>399,69</v>
+      </c>
+      <c r="BE20" s="3" t="str">
+        <v>388,49</v>
+      </c>
+      <c r="BF20" s="3" t="str">
+        <v>400,00</v>
+      </c>
+      <c r="BG20" s="3" t="str">
+        <v>552,99</v>
+      </c>
+      <c r="BH20" s="3" t="str">
         <v>411,00</v>
       </c>
-      <c r="C20" s="3" t="str">
+      <c r="BI20" s="3" t="str">
         <v>297,99</v>
       </c>
-      <c r="D20" s="3" t="str">
+      <c r="BJ20" s="3" t="str">
         <v>297,99</v>
       </c>
     </row>
@@ -687,12 +4225,186 @@
         <v>17-18</v>
       </c>
       <c r="B21" s="3" t="str">
+        <v>361,20</v>
+      </c>
+      <c r="C21" s="3" t="str">
+        <v>353,42</v>
+      </c>
+      <c r="D21" s="3" t="str">
+        <v>283,99</v>
+      </c>
+      <c r="E21" s="3" t="str">
+        <v>480,00</v>
+      </c>
+      <c r="F21" s="3" t="str">
+        <v>600,00</v>
+      </c>
+      <c r="G21" s="3" t="str">
+        <v>500,00</v>
+      </c>
+      <c r="H21" s="3" t="str">
+        <v>480,00</v>
+      </c>
+      <c r="I21" s="3" t="str">
+        <v>550,00</v>
+      </c>
+      <c r="J21" s="3" t="str">
+        <v>474,00</v>
+      </c>
+      <c r="K21" s="3" t="str">
+        <v>283,99</v>
+      </c>
+      <c r="L21" s="3" t="str">
+        <v>500,00</v>
+      </c>
+      <c r="M21" s="3" t="str">
+        <v>592,00</v>
+      </c>
+      <c r="N21" s="3" t="str">
+        <v>675,00</v>
+      </c>
+      <c r="O21" s="3" t="str">
+        <v>580,00</v>
+      </c>
+      <c r="P21" s="3" t="str">
+        <v>458,64</v>
+      </c>
+      <c r="Q21" s="3" t="str">
+        <v>463,15</v>
+      </c>
+      <c r="R21" s="3" t="str">
+        <v>500,00</v>
+      </c>
+      <c r="S21" s="3" t="str">
+        <v>335,99</v>
+      </c>
+      <c r="T21" s="3" t="str">
+        <v>591,00</v>
+      </c>
+      <c r="U21" s="3" t="str">
+        <v>531,70</v>
+      </c>
+      <c r="V21" s="3" t="str">
+        <v>485,82</v>
+      </c>
+      <c r="W21" s="3" t="str">
+        <v>406,50</v>
+      </c>
+      <c r="X21" s="3" t="str">
+        <v>500,10</v>
+      </c>
+      <c r="Y21" s="3" t="str">
+        <v>463,26</v>
+      </c>
+      <c r="Z21" s="3" t="str">
+        <v>-15,00</v>
+      </c>
+      <c r="AA21" s="3" t="str">
+        <v>281,99</v>
+      </c>
+      <c r="AB21" s="3" t="str">
+        <v>380,60</v>
+      </c>
+      <c r="AC21" s="3" t="str">
+        <v>379,00</v>
+      </c>
+      <c r="AD21" s="3" t="str">
+        <v>444,97</v>
+      </c>
+      <c r="AE21" s="3" t="str">
+        <v>469,00</v>
+      </c>
+      <c r="AF21" s="3" t="str">
+        <v>492,90</v>
+      </c>
+      <c r="AG21" s="3" t="str">
+        <v>482,00</v>
+      </c>
+      <c r="AH21" s="3" t="str">
+        <v>408,51</v>
+      </c>
+      <c r="AI21" s="3" t="str">
+        <v>482,00</v>
+      </c>
+      <c r="AJ21" s="3" t="str">
+        <v>430,00</v>
+      </c>
+      <c r="AK21" s="3" t="str">
+        <v>480,00</v>
+      </c>
+      <c r="AL21" s="3" t="str">
+        <v>405,00</v>
+      </c>
+      <c r="AM21" s="3" t="str">
+        <v>271,99</v>
+      </c>
+      <c r="AN21" s="3" t="str">
+        <v>25,00</v>
+      </c>
+      <c r="AO21" s="3" t="str">
+        <v>380,00</v>
+      </c>
+      <c r="AP21" s="3" t="str">
+        <v>429,53</v>
+      </c>
+      <c r="AQ21" s="3" t="str">
+        <v>420,11</v>
+      </c>
+      <c r="AR21" s="3" t="str">
+        <v>484,00</v>
+      </c>
+      <c r="AS21" s="3" t="str">
+        <v>450,00</v>
+      </c>
+      <c r="AT21" s="3" t="str">
+        <v>500,00</v>
+      </c>
+      <c r="AU21" s="3" t="str">
+        <v>414,00</v>
+      </c>
+      <c r="AV21" s="3" t="str">
+        <v>540,00</v>
+      </c>
+      <c r="AW21" s="3" t="str">
+        <v>600,11</v>
+      </c>
+      <c r="AX21" s="3" t="str">
+        <v>394,79</v>
+      </c>
+      <c r="AY21" s="3" t="str">
+        <v>548,64</v>
+      </c>
+      <c r="AZ21" s="3" t="str">
+        <v>410,00</v>
+      </c>
+      <c r="BA21" s="3" t="str">
+        <v>503,90</v>
+      </c>
+      <c r="BB21" s="3" t="str">
+        <v>400,00</v>
+      </c>
+      <c r="BC21" s="3" t="str">
+        <v>645,75</v>
+      </c>
+      <c r="BD21" s="3" t="str">
+        <v>560,00</v>
+      </c>
+      <c r="BE21" s="3" t="str">
+        <v>508,93</v>
+      </c>
+      <c r="BF21" s="3" t="str">
+        <v>627,30</v>
+      </c>
+      <c r="BG21" s="3" t="str">
+        <v>750,00</v>
+      </c>
+      <c r="BH21" s="3" t="str">
         <v>516,60</v>
       </c>
-      <c r="C21" s="3" t="str">
+      <c r="BI21" s="3" t="str">
         <v>465,40</v>
       </c>
-      <c r="D21" s="3" t="str">
+      <c r="BJ21" s="3" t="str">
         <v>465,40</v>
       </c>
     </row>
@@ -701,12 +4413,186 @@
         <v>18-19</v>
       </c>
       <c r="B22" s="3" t="str">
+        <v>550,00</v>
+      </c>
+      <c r="C22" s="3" t="str">
+        <v>537,70</v>
+      </c>
+      <c r="D22" s="3" t="str">
+        <v>430,00</v>
+      </c>
+      <c r="E22" s="3" t="str">
+        <v>562,00</v>
+      </c>
+      <c r="F22" s="3" t="str">
+        <v>908,42</v>
+      </c>
+      <c r="G22" s="3" t="str">
+        <v>730,00</v>
+      </c>
+      <c r="H22" s="3" t="str">
+        <v>620,00</v>
+      </c>
+      <c r="I22" s="3" t="str">
+        <v>940,00</v>
+      </c>
+      <c r="J22" s="3" t="str">
+        <v>700,00</v>
+      </c>
+      <c r="K22" s="3" t="str">
+        <v>621,57</v>
+      </c>
+      <c r="L22" s="3" t="str">
+        <v>649,00</v>
+      </c>
+      <c r="M22" s="3" t="str">
+        <v>980,00</v>
+      </c>
+      <c r="N22" s="3" t="str">
+        <v>1070,00</v>
+      </c>
+      <c r="O22" s="3" t="str">
+        <v>1075,00</v>
+      </c>
+      <c r="P22" s="3" t="str">
+        <v>1060,00</v>
+      </c>
+      <c r="Q22" s="3" t="str">
+        <v>950,00</v>
+      </c>
+      <c r="R22" s="3" t="str">
+        <v>710,00</v>
+      </c>
+      <c r="S22" s="3" t="str">
+        <v>533,48</v>
+      </c>
+      <c r="T22" s="3" t="str">
+        <v>875,00</v>
+      </c>
+      <c r="U22" s="3" t="str">
+        <v>800,00</v>
+      </c>
+      <c r="V22" s="3" t="str">
+        <v>649,00</v>
+      </c>
+      <c r="W22" s="3" t="str">
+        <v>577,00</v>
+      </c>
+      <c r="X22" s="3" t="str">
+        <v>650,00</v>
+      </c>
+      <c r="Y22" s="3" t="str">
+        <v>550,00</v>
+      </c>
+      <c r="Z22" s="3" t="str">
+        <v>159,30</v>
+      </c>
+      <c r="AA22" s="3" t="str">
+        <v>380,00</v>
+      </c>
+      <c r="AB22" s="3" t="str">
+        <v>481,00</v>
+      </c>
+      <c r="AC22" s="3" t="str">
+        <v>499,40</v>
+      </c>
+      <c r="AD22" s="3" t="str">
+        <v>503,60</v>
+      </c>
+      <c r="AE22" s="3" t="str">
+        <v>549,00</v>
+      </c>
+      <c r="AF22" s="3" t="str">
+        <v>490,00</v>
+      </c>
+      <c r="AG22" s="3" t="str">
+        <v>465,00</v>
+      </c>
+      <c r="AH22" s="3" t="str">
+        <v>490,00</v>
+      </c>
+      <c r="AI22" s="3" t="str">
+        <v>526,00</v>
+      </c>
+      <c r="AJ22" s="3" t="str">
+        <v>540,00</v>
+      </c>
+      <c r="AK22" s="3" t="str">
+        <v>589,00</v>
+      </c>
+      <c r="AL22" s="3" t="str">
+        <v>483,71</v>
+      </c>
+      <c r="AM22" s="3" t="str">
+        <v>460,00</v>
+      </c>
+      <c r="AN22" s="3" t="str">
+        <v>382,00</v>
+      </c>
+      <c r="AO22" s="3" t="str">
+        <v>549,08</v>
+      </c>
+      <c r="AP22" s="3" t="str">
+        <v>590,00</v>
+      </c>
+      <c r="AQ22" s="3" t="str">
+        <v>556,07</v>
+      </c>
+      <c r="AR22" s="3" t="str">
+        <v>618,00</v>
+      </c>
+      <c r="AS22" s="3" t="str">
+        <v>600,00</v>
+      </c>
+      <c r="AT22" s="3" t="str">
+        <v>640,00</v>
+      </c>
+      <c r="AU22" s="3" t="str">
+        <v>480,00</v>
+      </c>
+      <c r="AV22" s="3" t="str">
+        <v>659,00</v>
+      </c>
+      <c r="AW22" s="3" t="str">
+        <v>860,00</v>
+      </c>
+      <c r="AX22" s="3" t="str">
+        <v>491,01</v>
+      </c>
+      <c r="AY22" s="3" t="str">
+        <v>708,30</v>
+      </c>
+      <c r="AZ22" s="3" t="str">
+        <v>501,11</v>
+      </c>
+      <c r="BA22" s="3" t="str">
+        <v>665,60</v>
+      </c>
+      <c r="BB22" s="3" t="str">
+        <v>841,99</v>
+      </c>
+      <c r="BC22" s="3" t="str">
+        <v>835,00</v>
+      </c>
+      <c r="BD22" s="3" t="str">
+        <v>771,73</v>
+      </c>
+      <c r="BE22" s="3" t="str">
+        <v>769,99</v>
+      </c>
+      <c r="BF22" s="3" t="str">
+        <v>1050,00</v>
+      </c>
+      <c r="BG22" s="3" t="str">
+        <v>1471,00</v>
+      </c>
+      <c r="BH22" s="3" t="str">
         <v>778,40</v>
       </c>
-      <c r="C22" s="3" t="str">
+      <c r="BI22" s="3" t="str">
         <v>597,00</v>
       </c>
-      <c r="D22" s="3" t="str">
+      <c r="BJ22" s="3" t="str">
         <v>597,00</v>
       </c>
     </row>
@@ -715,12 +4601,186 @@
         <v>19-20</v>
       </c>
       <c r="B23" s="3" t="str">
+        <v>652,00</v>
+      </c>
+      <c r="C23" s="3" t="str">
+        <v>634,00</v>
+      </c>
+      <c r="D23" s="3" t="str">
+        <v>460,00</v>
+      </c>
+      <c r="E23" s="3" t="str">
+        <v>670,00</v>
+      </c>
+      <c r="F23" s="3" t="str">
+        <v>1286,18</v>
+      </c>
+      <c r="G23" s="3" t="str">
+        <v>1010,00</v>
+      </c>
+      <c r="H23" s="3" t="str">
+        <v>875,00</v>
+      </c>
+      <c r="I23" s="3" t="str">
+        <v>1306,00</v>
+      </c>
+      <c r="J23" s="3" t="str">
+        <v>842,00</v>
+      </c>
+      <c r="K23" s="3" t="str">
+        <v>699,89</v>
+      </c>
+      <c r="L23" s="3" t="str">
+        <v>880,00</v>
+      </c>
+      <c r="M23" s="3" t="str">
+        <v>1414,80</v>
+      </c>
+      <c r="N23" s="3" t="str">
+        <v>1600,00</v>
+      </c>
+      <c r="O23" s="3" t="str">
+        <v>1733,00</v>
+      </c>
+      <c r="P23" s="3" t="str">
+        <v>1899,00</v>
+      </c>
+      <c r="Q23" s="3" t="str">
+        <v>1700,00</v>
+      </c>
+      <c r="R23" s="3" t="str">
+        <v>910,00</v>
+      </c>
+      <c r="S23" s="3" t="str">
+        <v>700,00</v>
+      </c>
+      <c r="T23" s="3" t="str">
+        <v>1289,80</v>
+      </c>
+      <c r="U23" s="3" t="str">
+        <v>1100,00</v>
+      </c>
+      <c r="V23" s="3" t="str">
+        <v>821,70</v>
+      </c>
+      <c r="W23" s="3" t="str">
+        <v>760,00</v>
+      </c>
+      <c r="X23" s="3" t="str">
+        <v>800,00</v>
+      </c>
+      <c r="Y23" s="3" t="str">
+        <v>650,00</v>
+      </c>
+      <c r="Z23" s="3" t="str">
+        <v>343,40</v>
+      </c>
+      <c r="AA23" s="3" t="str">
+        <v>558,00</v>
+      </c>
+      <c r="AB23" s="3" t="str">
+        <v>682,00</v>
+      </c>
+      <c r="AC23" s="3" t="str">
+        <v>632,00</v>
+      </c>
+      <c r="AD23" s="3" t="str">
+        <v>612,00</v>
+      </c>
+      <c r="AE23" s="3" t="str">
+        <v>600,00</v>
+      </c>
+      <c r="AF23" s="3" t="str">
+        <v>560,00</v>
+      </c>
+      <c r="AG23" s="3" t="str">
+        <v>489,00</v>
+      </c>
+      <c r="AH23" s="3" t="str">
+        <v>599,89</v>
+      </c>
+      <c r="AI23" s="3" t="str">
+        <v>718,87</v>
+      </c>
+      <c r="AJ23" s="3" t="str">
+        <v>700,00</v>
+      </c>
+      <c r="AK23" s="3" t="str">
+        <v>690,00</v>
+      </c>
+      <c r="AL23" s="3" t="str">
+        <v>550,00</v>
+      </c>
+      <c r="AM23" s="3" t="str">
+        <v>509,58</v>
+      </c>
+      <c r="AN23" s="3" t="str">
+        <v>517,01</v>
+      </c>
+      <c r="AO23" s="3" t="str">
+        <v>778,87</v>
+      </c>
+      <c r="AP23" s="3" t="str">
+        <v>866,98</v>
+      </c>
+      <c r="AQ23" s="3" t="str">
+        <v>803,80</v>
+      </c>
+      <c r="AR23" s="3" t="str">
+        <v>692,80</v>
+      </c>
+      <c r="AS23" s="3" t="str">
+        <v>850,00</v>
+      </c>
+      <c r="AT23" s="3" t="str">
+        <v>804,00</v>
+      </c>
+      <c r="AU23" s="3" t="str">
+        <v>550,00</v>
+      </c>
+      <c r="AV23" s="3" t="str">
+        <v>1005,00</v>
+      </c>
+      <c r="AW23" s="3" t="str">
+        <v>1234,49</v>
+      </c>
+      <c r="AX23" s="3" t="str">
+        <v>596,00</v>
+      </c>
+      <c r="AY23" s="3" t="str">
+        <v>930,01</v>
+      </c>
+      <c r="AZ23" s="3" t="str">
+        <v>624,00</v>
+      </c>
+      <c r="BA23" s="3" t="str">
+        <v>829,10</v>
+      </c>
+      <c r="BB23" s="3" t="str">
+        <v>842,00</v>
+      </c>
+      <c r="BC23" s="3" t="str">
+        <v>1100,00</v>
+      </c>
+      <c r="BD23" s="3" t="str">
+        <v>1150,00</v>
+      </c>
+      <c r="BE23" s="3" t="str">
+        <v>1050,00</v>
+      </c>
+      <c r="BF23" s="3" t="str">
+        <v>1600,00</v>
+      </c>
+      <c r="BG23" s="3" t="str">
+        <v>2071,18</v>
+      </c>
+      <c r="BH23" s="3" t="str">
         <v>995,96</v>
       </c>
-      <c r="C23" s="3" t="str">
+      <c r="BI23" s="3" t="str">
         <v>700,00</v>
       </c>
-      <c r="D23" s="3" t="str">
+      <c r="BJ23" s="3" t="str">
         <v>700,00</v>
       </c>
     </row>
@@ -729,12 +4789,186 @@
         <v>20-21</v>
       </c>
       <c r="B24" s="3" t="str">
+        <v>729,00</v>
+      </c>
+      <c r="C24" s="3" t="str">
+        <v>720,00</v>
+      </c>
+      <c r="D24" s="3" t="str">
+        <v>480,00</v>
+      </c>
+      <c r="E24" s="3" t="str">
+        <v>775,00</v>
+      </c>
+      <c r="F24" s="3" t="str">
+        <v>1447,79</v>
+      </c>
+      <c r="G24" s="3" t="str">
+        <v>1049,00</v>
+      </c>
+      <c r="H24" s="3" t="str">
+        <v>924,51</v>
+      </c>
+      <c r="I24" s="3" t="str">
+        <v>1479,00</v>
+      </c>
+      <c r="J24" s="3" t="str">
+        <v>870,00</v>
+      </c>
+      <c r="K24" s="3" t="str">
+        <v>840,00</v>
+      </c>
+      <c r="L24" s="3" t="str">
+        <v>910,00</v>
+      </c>
+      <c r="M24" s="3" t="str">
+        <v>1604,79</v>
+      </c>
+      <c r="N24" s="3" t="str">
+        <v>1771,68</v>
+      </c>
+      <c r="O24" s="3" t="str">
+        <v>2039,00</v>
+      </c>
+      <c r="P24" s="3" t="str">
+        <v>2400,00</v>
+      </c>
+      <c r="Q24" s="3" t="str">
+        <v>1970,00</v>
+      </c>
+      <c r="R24" s="3" t="str">
+        <v>1044,35</v>
+      </c>
+      <c r="S24" s="3" t="str">
+        <v>790,00</v>
+      </c>
+      <c r="T24" s="3" t="str">
+        <v>1590,00</v>
+      </c>
+      <c r="U24" s="3" t="str">
+        <v>1317,18</v>
+      </c>
+      <c r="V24" s="3" t="str">
+        <v>899,00</v>
+      </c>
+      <c r="W24" s="3" t="str">
+        <v>900,00</v>
+      </c>
+      <c r="X24" s="3" t="str">
+        <v>940,00</v>
+      </c>
+      <c r="Y24" s="3" t="str">
+        <v>720,00</v>
+      </c>
+      <c r="Z24" s="3" t="str">
+        <v>420,80</v>
+      </c>
+      <c r="AA24" s="3" t="str">
+        <v>680,00</v>
+      </c>
+      <c r="AB24" s="3" t="str">
+        <v>853,40</v>
+      </c>
+      <c r="AC24" s="3" t="str">
+        <v>825,00</v>
+      </c>
+      <c r="AD24" s="3" t="str">
+        <v>738,99</v>
+      </c>
+      <c r="AE24" s="3" t="str">
+        <v>670,00</v>
+      </c>
+      <c r="AF24" s="3" t="str">
+        <v>600,00</v>
+      </c>
+      <c r="AG24" s="3" t="str">
+        <v>537,44</v>
+      </c>
+      <c r="AH24" s="3" t="str">
+        <v>750,00</v>
+      </c>
+      <c r="AI24" s="3" t="str">
+        <v>949,00</v>
+      </c>
+      <c r="AJ24" s="3" t="str">
+        <v>800,00</v>
+      </c>
+      <c r="AK24" s="3" t="str">
+        <v>879,00</v>
+      </c>
+      <c r="AL24" s="3" t="str">
+        <v>580,00</v>
+      </c>
+      <c r="AM24" s="3" t="str">
+        <v>551,90</v>
+      </c>
+      <c r="AN24" s="3" t="str">
+        <v>627,79</v>
+      </c>
+      <c r="AO24" s="3" t="str">
+        <v>925,00</v>
+      </c>
+      <c r="AP24" s="3" t="str">
+        <v>909,00</v>
+      </c>
+      <c r="AQ24" s="3" t="str">
+        <v>870,51</v>
+      </c>
+      <c r="AR24" s="3" t="str">
+        <v>844,27</v>
+      </c>
+      <c r="AS24" s="3" t="str">
+        <v>1000,00</v>
+      </c>
+      <c r="AT24" s="3" t="str">
+        <v>950,00</v>
+      </c>
+      <c r="AU24" s="3" t="str">
+        <v>600,00</v>
+      </c>
+      <c r="AV24" s="3" t="str">
+        <v>1238,66</v>
+      </c>
+      <c r="AW24" s="3" t="str">
+        <v>1430,00</v>
+      </c>
+      <c r="AX24" s="3" t="str">
+        <v>697,93</v>
+      </c>
+      <c r="AY24" s="3" t="str">
+        <v>1120,00</v>
+      </c>
+      <c r="AZ24" s="3" t="str">
+        <v>680,00</v>
+      </c>
+      <c r="BA24" s="3" t="str">
+        <v>766,70</v>
+      </c>
+      <c r="BB24" s="3" t="str">
+        <v>1179,77</v>
+      </c>
+      <c r="BC24" s="3" t="str">
+        <v>1300,00</v>
+      </c>
+      <c r="BD24" s="3" t="str">
+        <v>1209,22</v>
+      </c>
+      <c r="BE24" s="3" t="str">
+        <v>1050,00</v>
+      </c>
+      <c r="BF24" s="3" t="str">
+        <v>1511,53</v>
+      </c>
+      <c r="BG24" s="3" t="str">
+        <v>2000,00</v>
+      </c>
+      <c r="BH24" s="3" t="str">
         <v>867,40</v>
       </c>
-      <c r="C24" s="3" t="str">
+      <c r="BI24" s="3" t="str">
         <v>700,00</v>
       </c>
-      <c r="D24" s="3" t="str">
+      <c r="BJ24" s="3" t="str">
         <v>700,00</v>
       </c>
     </row>
@@ -743,12 +4977,186 @@
         <v>21-22</v>
       </c>
       <c r="B25" s="3" t="str">
+        <v>576,96</v>
+      </c>
+      <c r="C25" s="3" t="str">
+        <v>627,10</v>
+      </c>
+      <c r="D25" s="3" t="str">
+        <v>502,00</v>
+      </c>
+      <c r="E25" s="3" t="str">
+        <v>803,00</v>
+      </c>
+      <c r="F25" s="3" t="str">
+        <v>1293,57</v>
+      </c>
+      <c r="G25" s="3" t="str">
+        <v>812,00</v>
+      </c>
+      <c r="H25" s="3" t="str">
+        <v>800,00</v>
+      </c>
+      <c r="I25" s="3" t="str">
+        <v>1250,00</v>
+      </c>
+      <c r="J25" s="3" t="str">
+        <v>700,00</v>
+      </c>
+      <c r="K25" s="3" t="str">
+        <v>803,31</v>
+      </c>
+      <c r="L25" s="3" t="str">
+        <v>881,33</v>
+      </c>
+      <c r="M25" s="3" t="str">
+        <v>1422,90</v>
+      </c>
+      <c r="N25" s="3" t="str">
+        <v>1449,00</v>
+      </c>
+      <c r="O25" s="3" t="str">
+        <v>1760,00</v>
+      </c>
+      <c r="P25" s="3" t="str">
+        <v>2134,96</v>
+      </c>
+      <c r="Q25" s="3" t="str">
+        <v>1750,00</v>
+      </c>
+      <c r="R25" s="3" t="str">
+        <v>900,00</v>
+      </c>
+      <c r="S25" s="3" t="str">
+        <v>694,00</v>
+      </c>
+      <c r="T25" s="3" t="str">
+        <v>1199,00</v>
+      </c>
+      <c r="U25" s="3" t="str">
+        <v>1099,00</v>
+      </c>
+      <c r="V25" s="3" t="str">
+        <v>816,00</v>
+      </c>
+      <c r="W25" s="3" t="str">
+        <v>777,70</v>
+      </c>
+      <c r="X25" s="3" t="str">
+        <v>830,00</v>
+      </c>
+      <c r="Y25" s="3" t="str">
+        <v>680,00</v>
+      </c>
+      <c r="Z25" s="3" t="str">
+        <v>445,80</v>
+      </c>
+      <c r="AA25" s="3" t="str">
+        <v>625,00</v>
+      </c>
+      <c r="AB25" s="3" t="str">
+        <v>720,00</v>
+      </c>
+      <c r="AC25" s="3" t="str">
+        <v>634,00</v>
+      </c>
+      <c r="AD25" s="3" t="str">
+        <v>585,00</v>
+      </c>
+      <c r="AE25" s="3" t="str">
+        <v>553,90</v>
+      </c>
+      <c r="AF25" s="3" t="str">
+        <v>586,61</v>
+      </c>
+      <c r="AG25" s="3" t="str">
+        <v>512,20</v>
+      </c>
+      <c r="AH25" s="3" t="str">
+        <v>638,80</v>
+      </c>
+      <c r="AI25" s="3" t="str">
+        <v>697,00</v>
+      </c>
+      <c r="AJ25" s="3" t="str">
+        <v>659,00</v>
+      </c>
+      <c r="AK25" s="3" t="str">
+        <v>692,90</v>
+      </c>
+      <c r="AL25" s="3" t="str">
+        <v>484,30</v>
+      </c>
+      <c r="AM25" s="3" t="str">
+        <v>531,70</v>
+      </c>
+      <c r="AN25" s="3" t="str">
+        <v>620,00</v>
+      </c>
+      <c r="AO25" s="3" t="str">
+        <v>685,30</v>
+      </c>
+      <c r="AP25" s="3" t="str">
+        <v>602,75</v>
+      </c>
+      <c r="AQ25" s="3" t="str">
+        <v>615,50</v>
+      </c>
+      <c r="AR25" s="3" t="str">
+        <v>700,00</v>
+      </c>
+      <c r="AS25" s="3" t="str">
+        <v>729,00</v>
+      </c>
+      <c r="AT25" s="3" t="str">
+        <v>722,03</v>
+      </c>
+      <c r="AU25" s="3" t="str">
+        <v>552,44</v>
+      </c>
+      <c r="AV25" s="3" t="str">
+        <v>804,60</v>
+      </c>
+      <c r="AW25" s="3" t="str">
+        <v>829,89</v>
+      </c>
+      <c r="AX25" s="3" t="str">
+        <v>580,31</v>
+      </c>
+      <c r="AY25" s="3" t="str">
+        <v>730,00</v>
+      </c>
+      <c r="AZ25" s="3" t="str">
+        <v>509,00</v>
+      </c>
+      <c r="BA25" s="3" t="str">
+        <v>582,60</v>
+      </c>
+      <c r="BB25" s="3" t="str">
+        <v>951,00</v>
+      </c>
+      <c r="BC25" s="3" t="str">
+        <v>741,11</v>
+      </c>
+      <c r="BD25" s="3" t="str">
+        <v>675,00</v>
+      </c>
+      <c r="BE25" s="3" t="str">
+        <v>540,00</v>
+      </c>
+      <c r="BF25" s="3" t="str">
+        <v>749,77</v>
+      </c>
+      <c r="BG25" s="3" t="str">
+        <v>824,89</v>
+      </c>
+      <c r="BH25" s="3" t="str">
         <v>668,50</v>
       </c>
-      <c r="C25" s="3" t="str">
+      <c r="BI25" s="3" t="str">
         <v>542,00</v>
       </c>
-      <c r="D25" s="3" t="str">
+      <c r="BJ25" s="3" t="str">
         <v>542,00</v>
       </c>
     </row>
@@ -757,12 +5165,186 @@
         <v>22-23</v>
       </c>
       <c r="B26" s="3" t="str">
+        <v>547,00</v>
+      </c>
+      <c r="C26" s="3" t="str">
+        <v>537,70</v>
+      </c>
+      <c r="D26" s="3" t="str">
+        <v>476,00</v>
+      </c>
+      <c r="E26" s="3" t="str">
+        <v>675,00</v>
+      </c>
+      <c r="F26" s="3" t="str">
+        <v>949,46</v>
+      </c>
+      <c r="G26" s="3" t="str">
+        <v>600,00</v>
+      </c>
+      <c r="H26" s="3" t="str">
+        <v>650,00</v>
+      </c>
+      <c r="I26" s="3" t="str">
+        <v>949,00</v>
+      </c>
+      <c r="J26" s="3" t="str">
+        <v>550,00</v>
+      </c>
+      <c r="K26" s="3" t="str">
+        <v>700,00</v>
+      </c>
+      <c r="L26" s="3" t="str">
+        <v>710,00</v>
+      </c>
+      <c r="M26" s="3" t="str">
+        <v>900,00</v>
+      </c>
+      <c r="N26" s="3" t="str">
+        <v>884,00</v>
+      </c>
+      <c r="O26" s="3" t="str">
+        <v>1100,00</v>
+      </c>
+      <c r="P26" s="3" t="str">
+        <v>1250,00</v>
+      </c>
+      <c r="Q26" s="3" t="str">
+        <v>975,00</v>
+      </c>
+      <c r="R26" s="3" t="str">
+        <v>690,00</v>
+      </c>
+      <c r="S26" s="3" t="str">
+        <v>533,48</v>
+      </c>
+      <c r="T26" s="3" t="str">
+        <v>764,51</v>
+      </c>
+      <c r="U26" s="3" t="str">
+        <v>740,00</v>
+      </c>
+      <c r="V26" s="3" t="str">
+        <v>605,00</v>
+      </c>
+      <c r="W26" s="3" t="str">
+        <v>600,00</v>
+      </c>
+      <c r="X26" s="3" t="str">
+        <v>600,00</v>
+      </c>
+      <c r="Y26" s="3" t="str">
+        <v>538,50</v>
+      </c>
+      <c r="Z26" s="3" t="str">
+        <v>390,00</v>
+      </c>
+      <c r="AA26" s="3" t="str">
+        <v>496,00</v>
+      </c>
+      <c r="AB26" s="3" t="str">
+        <v>549,00</v>
+      </c>
+      <c r="AC26" s="3" t="str">
+        <v>520,00</v>
+      </c>
+      <c r="AD26" s="3" t="str">
+        <v>537,00</v>
+      </c>
+      <c r="AE26" s="3" t="str">
+        <v>513,70</v>
+      </c>
+      <c r="AF26" s="3" t="str">
+        <v>514,80</v>
+      </c>
+      <c r="AG26" s="3" t="str">
+        <v>473,61</v>
+      </c>
+      <c r="AH26" s="3" t="str">
+        <v>545,00</v>
+      </c>
+      <c r="AI26" s="3" t="str">
+        <v>569,00</v>
+      </c>
+      <c r="AJ26" s="3" t="str">
+        <v>532,00</v>
+      </c>
+      <c r="AK26" s="3" t="str">
+        <v>569,31</v>
+      </c>
+      <c r="AL26" s="3" t="str">
+        <v>445,00</v>
+      </c>
+      <c r="AM26" s="3" t="str">
+        <v>493,86</v>
+      </c>
+      <c r="AN26" s="3" t="str">
+        <v>521,07</v>
+      </c>
+      <c r="AO26" s="3" t="str">
+        <v>588,00</v>
+      </c>
+      <c r="AP26" s="3" t="str">
+        <v>540,00</v>
+      </c>
+      <c r="AQ26" s="3" t="str">
+        <v>520,01</v>
+      </c>
+      <c r="AR26" s="3" t="str">
+        <v>600,00</v>
+      </c>
+      <c r="AS26" s="3" t="str">
+        <v>610,00</v>
+      </c>
+      <c r="AT26" s="3" t="str">
+        <v>580,00</v>
+      </c>
+      <c r="AU26" s="3" t="str">
+        <v>500,00</v>
+      </c>
+      <c r="AV26" s="3" t="str">
+        <v>608,00</v>
+      </c>
+      <c r="AW26" s="3" t="str">
+        <v>600,00</v>
+      </c>
+      <c r="AX26" s="3" t="str">
+        <v>467,00</v>
+      </c>
+      <c r="AY26" s="3" t="str">
+        <v>518,00</v>
+      </c>
+      <c r="AZ26" s="3" t="str">
+        <v>455,00</v>
+      </c>
+      <c r="BA26" s="3" t="str">
+        <v>459,00</v>
+      </c>
+      <c r="BB26" s="3" t="str">
+        <v>775,00</v>
+      </c>
+      <c r="BC26" s="3" t="str">
+        <v>552,38</v>
+      </c>
+      <c r="BD26" s="3" t="str">
+        <v>506,01</v>
+      </c>
+      <c r="BE26" s="3" t="str">
+        <v>461,10</v>
+      </c>
+      <c r="BF26" s="3" t="str">
+        <v>590,00</v>
+      </c>
+      <c r="BG26" s="3" t="str">
+        <v>561,70</v>
+      </c>
+      <c r="BH26" s="3" t="str">
         <v>531,83</v>
       </c>
-      <c r="C26" s="3" t="str">
+      <c r="BI26" s="3" t="str">
         <v>499,98</v>
       </c>
-      <c r="D26" s="3" t="str">
+      <c r="BJ26" s="3" t="str">
         <v>499,98</v>
       </c>
     </row>
@@ -771,12 +5353,186 @@
         <v>23-24</v>
       </c>
       <c r="B27" s="3" t="str">
+        <v>438,00</v>
+      </c>
+      <c r="C27" s="3" t="str">
+        <v>469,00</v>
+      </c>
+      <c r="D27" s="3" t="str">
+        <v>400,00</v>
+      </c>
+      <c r="E27" s="3" t="str">
+        <v>552,90</v>
+      </c>
+      <c r="F27" s="3" t="str">
+        <v>610,00</v>
+      </c>
+      <c r="G27" s="3" t="str">
+        <v>484,00</v>
+      </c>
+      <c r="H27" s="3" t="str">
+        <v>502,00</v>
+      </c>
+      <c r="I27" s="3" t="str">
+        <v>624,51</v>
+      </c>
+      <c r="J27" s="3" t="str">
+        <v>434,00</v>
+      </c>
+      <c r="K27" s="3" t="str">
+        <v>550,00</v>
+      </c>
+      <c r="L27" s="3" t="str">
+        <v>550,00</v>
+      </c>
+      <c r="M27" s="3" t="str">
+        <v>602,64</v>
+      </c>
+      <c r="N27" s="3" t="str">
+        <v>561,11</v>
+      </c>
+      <c r="O27" s="3" t="str">
+        <v>630,00</v>
+      </c>
+      <c r="P27" s="3" t="str">
+        <v>690,00</v>
+      </c>
+      <c r="Q27" s="3" t="str">
+        <v>600,00</v>
+      </c>
+      <c r="R27" s="3" t="str">
+        <v>499,99</v>
+      </c>
+      <c r="S27" s="3" t="str">
+        <v>434,37</v>
+      </c>
+      <c r="T27" s="3" t="str">
+        <v>501,80</v>
+      </c>
+      <c r="U27" s="3" t="str">
+        <v>540,00</v>
+      </c>
+      <c r="V27" s="3" t="str">
+        <v>459,36</v>
+      </c>
+      <c r="W27" s="3" t="str">
+        <v>500,00</v>
+      </c>
+      <c r="X27" s="3" t="str">
+        <v>490,32</v>
+      </c>
+      <c r="Y27" s="3" t="str">
+        <v>450,00</v>
+      </c>
+      <c r="Z27" s="3" t="str">
+        <v>338,80</v>
+      </c>
+      <c r="AA27" s="3" t="str">
+        <v>428,90</v>
+      </c>
+      <c r="AB27" s="3" t="str">
+        <v>458,00</v>
+      </c>
+      <c r="AC27" s="3" t="str">
+        <v>443,80</v>
+      </c>
+      <c r="AD27" s="3" t="str">
+        <v>450,00</v>
+      </c>
+      <c r="AE27" s="3" t="str">
+        <v>449,00</v>
+      </c>
+      <c r="AF27" s="3" t="str">
+        <v>441,87</v>
+      </c>
+      <c r="AG27" s="3" t="str">
+        <v>437,39</v>
+      </c>
+      <c r="AH27" s="3" t="str">
+        <v>463,00</v>
+      </c>
+      <c r="AI27" s="3" t="str">
+        <v>486,50</v>
+      </c>
+      <c r="AJ27" s="3" t="str">
+        <v>447,00</v>
+      </c>
+      <c r="AK27" s="3" t="str">
+        <v>455,00</v>
+      </c>
+      <c r="AL27" s="3" t="str">
+        <v>408,00</v>
+      </c>
+      <c r="AM27" s="3" t="str">
+        <v>427,08</v>
+      </c>
+      <c r="AN27" s="3" t="str">
+        <v>462,50</v>
+      </c>
+      <c r="AO27" s="3" t="str">
+        <v>480,00</v>
+      </c>
+      <c r="AP27" s="3" t="str">
+        <v>450,00</v>
+      </c>
+      <c r="AQ27" s="3" t="str">
+        <v>440,00</v>
+      </c>
+      <c r="AR27" s="3" t="str">
+        <v>514,00</v>
+      </c>
+      <c r="AS27" s="3" t="str">
+        <v>502,00</v>
+      </c>
+      <c r="AT27" s="3" t="str">
+        <v>500,32</v>
+      </c>
+      <c r="AU27" s="3" t="str">
+        <v>440,00</v>
+      </c>
+      <c r="AV27" s="3" t="str">
+        <v>470,00</v>
+      </c>
+      <c r="AW27" s="3" t="str">
+        <v>466,00</v>
+      </c>
+      <c r="AX27" s="3" t="str">
+        <v>416,39</v>
+      </c>
+      <c r="AY27" s="3" t="str">
+        <v>432,00</v>
+      </c>
+      <c r="AZ27" s="3" t="str">
+        <v>393,35</v>
+      </c>
+      <c r="BA27" s="3" t="str">
+        <v>353,10</v>
+      </c>
+      <c r="BB27" s="3" t="str">
+        <v>600,00</v>
+      </c>
+      <c r="BC27" s="3" t="str">
+        <v>468,13</v>
+      </c>
+      <c r="BD27" s="3" t="str">
+        <v>422,00</v>
+      </c>
+      <c r="BE27" s="3" t="str">
+        <v>400,00</v>
+      </c>
+      <c r="BF27" s="3" t="str">
+        <v>488,60</v>
+      </c>
+      <c r="BG27" s="3" t="str">
+        <v>480,00</v>
+      </c>
+      <c r="BH27" s="3" t="str">
         <v>466,55</v>
       </c>
-      <c r="C27" s="3" t="str">
+      <c r="BI27" s="3" t="str">
         <v>444,23</v>
       </c>
-      <c r="D27" s="3" t="str">
+      <c r="BJ27" s="3" t="str">
         <v>444,23</v>
       </c>
     </row>

--- a/tabela.xlsx
+++ b/tabela.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -407,6 +407,7 @@
     <col min="2" max="2" width="10.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -422,6 +423,9 @@
       <c r="D1" s="4" t="str">
         <v/>
       </c>
+      <c r="E1" s="4" t="str">
+        <v/>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="3" t="str">
@@ -436,22 +440,28 @@
       <c r="D2" s="4" t="str">
         <v/>
       </c>
+      <c r="E2" s="4" t="str">
+        <v/>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="str">
         <v/>
       </c>
       <c r="B3" s="3" t="str">
-        <v>04-07-2024</v>
+        <v>28-08-2024</v>
       </c>
       <c r="C3" s="3" t="str">
-        <v>05-07-2024</v>
+        <v>29-08-2024</v>
       </c>
       <c r="D3" s="3" t="str">
-        <v>06-07-2024</v>
+        <v>30-08-2024</v>
       </c>
       <c r="E3" s="3" t="str">
-        <v>07-07-2024</v>
+        <v>31-08-2024</v>
+      </c>
+      <c r="F3" s="3" t="str">
+        <v>01-09-2024</v>
       </c>
     </row>
     <row r="4">
@@ -459,16 +469,19 @@
         <v>0-1</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>535,00</v>
+        <v>410,00</v>
       </c>
       <c r="C4" s="4" t="str">
-        <v>496,00</v>
+        <v>413,70</v>
       </c>
       <c r="D4" s="4" t="str">
-        <v>500,00</v>
+        <v>522,00</v>
       </c>
       <c r="E4" s="4" t="str">
-        <v>299,99</v>
+        <v>482,00</v>
+      </c>
+      <c r="F4" s="4" t="str">
+        <v>450,00</v>
       </c>
     </row>
     <row r="5">
@@ -476,16 +489,19 @@
         <v>1-2</v>
       </c>
       <c r="B5" s="4" t="str">
-        <v>438,00</v>
+        <v>388,00</v>
       </c>
       <c r="C5" s="4" t="str">
-        <v>392,00</v>
+        <v>384,73</v>
       </c>
       <c r="D5" s="4" t="str">
-        <v>422,78</v>
+        <v>450,96</v>
       </c>
       <c r="E5" s="4" t="str">
-        <v>303,99</v>
+        <v>450,00</v>
+      </c>
+      <c r="F5" s="4" t="str">
+        <v>420,00</v>
       </c>
     </row>
     <row r="6">
@@ -493,16 +509,19 @@
         <v>2-3</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v>407,69</v>
+        <v>376,80</v>
       </c>
       <c r="C6" s="4" t="str">
-        <v>390,00</v>
+        <v>367,53</v>
       </c>
       <c r="D6" s="4" t="str">
-        <v>390,00</v>
+        <v>427,60</v>
       </c>
       <c r="E6" s="4" t="str">
-        <v>318,00</v>
+        <v>429,60</v>
+      </c>
+      <c r="F6" s="4" t="str">
+        <v>396,00</v>
       </c>
     </row>
     <row r="7">
@@ -510,16 +529,19 @@
         <v>3-4</v>
       </c>
       <c r="B7" s="4" t="str">
-        <v>402,00</v>
+        <v>370,80</v>
       </c>
       <c r="C7" s="4" t="str">
-        <v>394,00</v>
+        <v>376,71</v>
       </c>
       <c r="D7" s="4" t="str">
-        <v>391,10</v>
+        <v>425,00</v>
       </c>
       <c r="E7" s="4" t="str">
-        <v>321,99</v>
+        <v>418,90</v>
+      </c>
+      <c r="F7" s="4" t="str">
+        <v>392,00</v>
       </c>
     </row>
     <row r="8">
@@ -527,16 +549,19 @@
         <v>4-5</v>
       </c>
       <c r="B8" s="4" t="str">
-        <v>406,00</v>
+        <v>383,30</v>
       </c>
       <c r="C8" s="4" t="str">
-        <v>386,00</v>
+        <v>390,00</v>
       </c>
       <c r="D8" s="4" t="str">
-        <v>390,00</v>
+        <v>440,00</v>
       </c>
       <c r="E8" s="4" t="str">
-        <v>323,99</v>
+        <v>413,23</v>
+      </c>
+      <c r="F8" s="4" t="str">
+        <v>398,00</v>
       </c>
     </row>
     <row r="9">
@@ -544,16 +569,19 @@
         <v>5-6</v>
       </c>
       <c r="B9" s="4" t="str">
-        <v>424,69</v>
+        <v>402,00</v>
       </c>
       <c r="C9" s="4" t="str">
-        <v>394,00</v>
+        <v>415,96</v>
       </c>
       <c r="D9" s="4" t="str">
-        <v>406,00</v>
+        <v>490,00</v>
       </c>
       <c r="E9" s="4" t="str">
-        <v>320,00</v>
+        <v>457,80</v>
+      </c>
+      <c r="F9" s="4" t="str">
+        <v>403,70</v>
       </c>
     </row>
     <row r="10">
@@ -561,16 +589,19 @@
         <v>6-7</v>
       </c>
       <c r="B10" s="4" t="str">
-        <v>546,00</v>
+        <v>520,00</v>
       </c>
       <c r="C10" s="4" t="str">
-        <v>496,00</v>
+        <v>550,00</v>
       </c>
       <c r="D10" s="4" t="str">
-        <v>415,69</v>
+        <v>657,31</v>
       </c>
       <c r="E10" s="4" t="str">
-        <v>320,00</v>
+        <v>481,43</v>
+      </c>
+      <c r="F10" s="4" t="str">
+        <v>400,00</v>
       </c>
     </row>
     <row r="11">
@@ -578,16 +609,19 @@
         <v>7-8</v>
       </c>
       <c r="B11" s="4" t="str">
-        <v>455,00</v>
+        <v>530,00</v>
       </c>
       <c r="C11" s="4" t="str">
-        <v>364,06</v>
+        <v>572,36</v>
       </c>
       <c r="D11" s="4" t="str">
-        <v>380,00</v>
+        <v>700,00</v>
       </c>
       <c r="E11" s="4" t="str">
-        <v>305,99</v>
+        <v>492,00</v>
+      </c>
+      <c r="F11" s="4" t="str">
+        <v>397,60</v>
       </c>
     </row>
     <row r="12">
@@ -595,16 +629,19 @@
         <v>8-9</v>
       </c>
       <c r="B12" s="4" t="str">
-        <v>390,00</v>
+        <v>479,10</v>
       </c>
       <c r="C12" s="4" t="str">
-        <v>320,00</v>
+        <v>478,89</v>
       </c>
       <c r="D12" s="4" t="str">
-        <v>339,40</v>
+        <v>570,00</v>
       </c>
       <c r="E12" s="4" t="str">
-        <v>240,00</v>
+        <v>460,00</v>
+      </c>
+      <c r="F12" s="4" t="str">
+        <v>306,90</v>
       </c>
     </row>
     <row r="13">
@@ -612,16 +649,19 @@
         <v>9-10</v>
       </c>
       <c r="B13" s="4" t="str">
-        <v>352,40</v>
+        <v>382,60</v>
       </c>
       <c r="C13" s="4" t="str">
-        <v>170,00</v>
+        <v>378,50</v>
       </c>
       <c r="D13" s="4" t="str">
-        <v>148,88</v>
+        <v>455,79</v>
       </c>
       <c r="E13" s="4" t="str">
-        <v>150,00</v>
+        <v>353,20</v>
+      </c>
+      <c r="F13" s="4" t="str">
+        <v>80,00</v>
       </c>
     </row>
     <row r="14">
@@ -629,16 +669,19 @@
         <v>10-11</v>
       </c>
       <c r="B14" s="4" t="str">
-        <v>275,99</v>
+        <v>259,99</v>
       </c>
       <c r="C14" s="4" t="str">
-        <v>1,00</v>
+        <v>230,00</v>
       </c>
       <c r="D14" s="4" t="str">
-        <v>-10,00</v>
+        <v>349,23</v>
       </c>
       <c r="E14" s="4" t="str">
-        <v>150,00</v>
+        <v>190,00</v>
+      </c>
+      <c r="F14" s="4" t="str">
+        <v>0,01</v>
       </c>
     </row>
     <row r="15">
@@ -646,16 +689,19 @@
         <v>11-12</v>
       </c>
       <c r="B15" s="4" t="str">
-        <v>319,99</v>
+        <v>150,00</v>
       </c>
       <c r="C15" s="4" t="str">
-        <v>0,00</v>
+        <v>150,00</v>
       </c>
       <c r="D15" s="4" t="str">
-        <v>-80,00</v>
+        <v>310,11</v>
       </c>
       <c r="E15" s="4" t="str">
-        <v>150,00</v>
+        <v>65,30</v>
+      </c>
+      <c r="F15" s="4" t="str">
+        <v>-53,50</v>
       </c>
     </row>
     <row r="16">
@@ -663,16 +709,19 @@
         <v>12-13</v>
       </c>
       <c r="B16" s="4" t="str">
-        <v>305,00</v>
+        <v>70,00</v>
       </c>
       <c r="C16" s="4" t="str">
-        <v>0,00</v>
+        <v>85,99</v>
       </c>
       <c r="D16" s="4" t="str">
-        <v>-175,00</v>
+        <v>273,99</v>
       </c>
       <c r="E16" s="4" t="str">
-        <v>120,00</v>
+        <v>9,36</v>
+      </c>
+      <c r="F16" s="4" t="str">
+        <v>-96,56</v>
       </c>
     </row>
     <row r="17">
@@ -680,16 +729,19 @@
         <v>13-14</v>
       </c>
       <c r="B17" s="4" t="str">
-        <v>306,76</v>
+        <v>55,00</v>
       </c>
       <c r="C17" s="4" t="str">
-        <v>0,01</v>
+        <v>50,00</v>
       </c>
       <c r="D17" s="4" t="str">
-        <v>-175,00</v>
+        <v>277,99</v>
       </c>
       <c r="E17" s="4" t="str">
-        <v>175,00</v>
+        <v>0,00</v>
+      </c>
+      <c r="F17" s="4" t="str">
+        <v>-175,49</v>
       </c>
     </row>
     <row r="18">
@@ -697,16 +749,19 @@
         <v>14-15</v>
       </c>
       <c r="B18" s="4" t="str">
-        <v>301,99</v>
+        <v>90,00</v>
       </c>
       <c r="C18" s="4" t="str">
-        <v>5,00</v>
+        <v>108,88</v>
       </c>
       <c r="D18" s="4" t="str">
-        <v>-175,00</v>
+        <v>319,20</v>
       </c>
       <c r="E18" s="4" t="str">
-        <v>233,40</v>
+        <v>1,00</v>
+      </c>
+      <c r="F18" s="4" t="str">
+        <v>-131,37</v>
       </c>
     </row>
     <row r="19">
@@ -714,16 +769,19 @@
         <v>15-16</v>
       </c>
       <c r="B19" s="4" t="str">
-        <v>267,99</v>
+        <v>282,89</v>
       </c>
       <c r="C19" s="4" t="str">
-        <v>200,00</v>
+        <v>288,00</v>
       </c>
       <c r="D19" s="4" t="str">
-        <v>-120,00</v>
+        <v>398,00</v>
       </c>
       <c r="E19" s="4" t="str">
-        <v>388,00</v>
+        <v>211,99</v>
+      </c>
+      <c r="F19" s="4" t="str">
+        <v>-0,02</v>
       </c>
     </row>
     <row r="20">
@@ -731,16 +789,19 @@
         <v>16-17</v>
       </c>
       <c r="B20" s="4" t="str">
-        <v>323,60</v>
+        <v>388,49</v>
       </c>
       <c r="C20" s="4" t="str">
-        <v>329,99</v>
+        <v>400,00</v>
       </c>
       <c r="D20" s="4" t="str">
-        <v>0,00</v>
+        <v>552,99</v>
       </c>
       <c r="E20" s="4" t="str">
-        <v>436,10</v>
+        <v>411,00</v>
+      </c>
+      <c r="F20" s="4" t="str">
+        <v>297,99</v>
       </c>
     </row>
     <row r="21">
@@ -748,16 +809,19 @@
         <v>17-18</v>
       </c>
       <c r="B21" s="4" t="str">
-        <v>361,20</v>
+        <v>508,93</v>
       </c>
       <c r="C21" s="4" t="str">
-        <v>353,42</v>
+        <v>627,30</v>
       </c>
       <c r="D21" s="4" t="str">
-        <v>283,99</v>
+        <v>750,00</v>
       </c>
       <c r="E21" s="4" t="str">
-        <v>480,00</v>
+        <v>516,60</v>
+      </c>
+      <c r="F21" s="4" t="str">
+        <v>465,40</v>
       </c>
     </row>
     <row r="22">
@@ -765,16 +829,19 @@
         <v>18-19</v>
       </c>
       <c r="B22" s="4" t="str">
-        <v>550,00</v>
+        <v>769,99</v>
       </c>
       <c r="C22" s="4" t="str">
-        <v>537,70</v>
+        <v>1050,00</v>
       </c>
       <c r="D22" s="4" t="str">
-        <v>430,00</v>
+        <v>1471,00</v>
       </c>
       <c r="E22" s="4" t="str">
-        <v>562,00</v>
+        <v>778,40</v>
+      </c>
+      <c r="F22" s="4" t="str">
+        <v>597,00</v>
       </c>
     </row>
     <row r="23">
@@ -782,16 +849,19 @@
         <v>19-20</v>
       </c>
       <c r="B23" s="4" t="str">
-        <v>652,00</v>
+        <v>1050,00</v>
       </c>
       <c r="C23" s="4" t="str">
-        <v>634,00</v>
+        <v>1600,00</v>
       </c>
       <c r="D23" s="4" t="str">
-        <v>460,00</v>
+        <v>2071,18</v>
       </c>
       <c r="E23" s="4" t="str">
-        <v>670,00</v>
+        <v>995,96</v>
+      </c>
+      <c r="F23" s="4" t="str">
+        <v>700,00</v>
       </c>
     </row>
     <row r="24">
@@ -799,16 +869,19 @@
         <v>20-21</v>
       </c>
       <c r="B24" s="4" t="str">
-        <v>729,00</v>
+        <v>1050,00</v>
       </c>
       <c r="C24" s="4" t="str">
-        <v>720,00</v>
+        <v>1511,53</v>
       </c>
       <c r="D24" s="4" t="str">
-        <v>480,00</v>
+        <v>2000,00</v>
       </c>
       <c r="E24" s="4" t="str">
-        <v>775,00</v>
+        <v>867,40</v>
+      </c>
+      <c r="F24" s="4" t="str">
+        <v>700,00</v>
       </c>
     </row>
     <row r="25">
@@ -816,16 +889,19 @@
         <v>21-22</v>
       </c>
       <c r="B25" s="4" t="str">
-        <v>576,96</v>
+        <v>540,00</v>
       </c>
       <c r="C25" s="4" t="str">
-        <v>627,10</v>
+        <v>749,77</v>
       </c>
       <c r="D25" s="4" t="str">
-        <v>502,00</v>
+        <v>824,89</v>
       </c>
       <c r="E25" s="4" t="str">
-        <v>803,00</v>
+        <v>668,50</v>
+      </c>
+      <c r="F25" s="4" t="str">
+        <v>542,00</v>
       </c>
     </row>
     <row r="26">
@@ -833,16 +909,19 @@
         <v>22-23</v>
       </c>
       <c r="B26" s="4" t="str">
-        <v>547,00</v>
+        <v>461,10</v>
       </c>
       <c r="C26" s="4" t="str">
-        <v>537,70</v>
+        <v>590,00</v>
       </c>
       <c r="D26" s="4" t="str">
-        <v>476,00</v>
+        <v>561,70</v>
       </c>
       <c r="E26" s="4" t="str">
-        <v>675,00</v>
+        <v>531,83</v>
+      </c>
+      <c r="F26" s="4" t="str">
+        <v>499,98</v>
       </c>
     </row>
     <row r="27">
@@ -850,16 +929,19 @@
         <v>23-24</v>
       </c>
       <c r="B27" s="4" t="str">
-        <v>438,00</v>
+        <v>400,00</v>
       </c>
       <c r="C27" s="4" t="str">
-        <v>469,00</v>
+        <v>488,60</v>
       </c>
       <c r="D27" s="4" t="str">
-        <v>400,00</v>
+        <v>480,00</v>
       </c>
       <c r="E27" s="4" t="str">
-        <v>552,90</v>
+        <v>466,55</v>
+      </c>
+      <c r="F27" s="4" t="str">
+        <v>444,23</v>
       </c>
     </row>
   </sheetData>

--- a/tabela.xlsx
+++ b/tabela.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:X27"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -408,6 +408,24 @@
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" customWidth="1"/>
+    <col min="17" max="17" width="10.7109375" customWidth="1"/>
+    <col min="18" max="18" width="10.7109375" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" customWidth="1"/>
+    <col min="20" max="20" width="10.7109375" customWidth="1"/>
+    <col min="21" max="21" width="10.7109375" customWidth="1"/>
+    <col min="22" max="22" width="10.7109375" customWidth="1"/>
+    <col min="23" max="23" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -426,6 +444,60 @@
       <c r="E1" s="4" t="str">
         <v/>
       </c>
+      <c r="F1" s="4" t="str">
+        <v/>
+      </c>
+      <c r="G1" s="4" t="str">
+        <v/>
+      </c>
+      <c r="H1" s="4" t="str">
+        <v/>
+      </c>
+      <c r="I1" s="4" t="str">
+        <v/>
+      </c>
+      <c r="J1" s="4" t="str">
+        <v/>
+      </c>
+      <c r="K1" s="4" t="str">
+        <v/>
+      </c>
+      <c r="L1" s="4" t="str">
+        <v/>
+      </c>
+      <c r="M1" s="4" t="str">
+        <v/>
+      </c>
+      <c r="N1" s="4" t="str">
+        <v/>
+      </c>
+      <c r="O1" s="4" t="str">
+        <v/>
+      </c>
+      <c r="P1" s="4" t="str">
+        <v/>
+      </c>
+      <c r="Q1" s="4" t="str">
+        <v/>
+      </c>
+      <c r="R1" s="4" t="str">
+        <v/>
+      </c>
+      <c r="S1" s="4" t="str">
+        <v/>
+      </c>
+      <c r="T1" s="4" t="str">
+        <v/>
+      </c>
+      <c r="U1" s="4" t="str">
+        <v/>
+      </c>
+      <c r="V1" s="4" t="str">
+        <v/>
+      </c>
+      <c r="W1" s="4" t="str">
+        <v/>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="3" t="str">
@@ -443,25 +515,133 @@
       <c r="E2" s="4" t="str">
         <v/>
       </c>
+      <c r="F2" s="4" t="str">
+        <v/>
+      </c>
+      <c r="G2" s="4" t="str">
+        <v/>
+      </c>
+      <c r="H2" s="4" t="str">
+        <v/>
+      </c>
+      <c r="I2" s="4" t="str">
+        <v/>
+      </c>
+      <c r="J2" s="4" t="str">
+        <v/>
+      </c>
+      <c r="K2" s="4" t="str">
+        <v/>
+      </c>
+      <c r="L2" s="4" t="str">
+        <v/>
+      </c>
+      <c r="M2" s="4" t="str">
+        <v/>
+      </c>
+      <c r="N2" s="4" t="str">
+        <v/>
+      </c>
+      <c r="O2" s="4" t="str">
+        <v/>
+      </c>
+      <c r="P2" s="4" t="str">
+        <v/>
+      </c>
+      <c r="Q2" s="4" t="str">
+        <v/>
+      </c>
+      <c r="R2" s="4" t="str">
+        <v/>
+      </c>
+      <c r="S2" s="4" t="str">
+        <v/>
+      </c>
+      <c r="T2" s="4" t="str">
+        <v/>
+      </c>
+      <c r="U2" s="4" t="str">
+        <v/>
+      </c>
+      <c r="V2" s="4" t="str">
+        <v/>
+      </c>
+      <c r="W2" s="4" t="str">
+        <v/>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="str">
         <v/>
       </c>
       <c r="B3" s="3" t="str">
-        <v>28-08-2024</v>
+        <v>04-07-2024</v>
       </c>
       <c r="C3" s="3" t="str">
-        <v>29-08-2024</v>
+        <v>05-07-2024</v>
       </c>
       <c r="D3" s="3" t="str">
-        <v>30-08-2024</v>
+        <v>06-07-2024</v>
       </c>
       <c r="E3" s="3" t="str">
-        <v>31-08-2024</v>
+        <v>07-07-2024</v>
       </c>
       <c r="F3" s="3" t="str">
-        <v>01-09-2024</v>
+        <v>08-07-2024</v>
+      </c>
+      <c r="G3" s="3" t="str">
+        <v>09-07-2024</v>
+      </c>
+      <c r="H3" s="3" t="str">
+        <v>10-07-2024</v>
+      </c>
+      <c r="I3" s="3" t="str">
+        <v>11-07-2024</v>
+      </c>
+      <c r="J3" s="3" t="str">
+        <v>12-07-2024</v>
+      </c>
+      <c r="K3" s="3" t="str">
+        <v>13-07-2024</v>
+      </c>
+      <c r="L3" s="3" t="str">
+        <v>14-07-2024</v>
+      </c>
+      <c r="M3" s="3" t="str">
+        <v>15-07-2024</v>
+      </c>
+      <c r="N3" s="3" t="str">
+        <v>16-07-2024</v>
+      </c>
+      <c r="O3" s="3" t="str">
+        <v>17-07-2024</v>
+      </c>
+      <c r="P3" s="3" t="str">
+        <v>18-07-2024</v>
+      </c>
+      <c r="Q3" s="3" t="str">
+        <v>19-07-2024</v>
+      </c>
+      <c r="R3" s="3" t="str">
+        <v>20-07-2024</v>
+      </c>
+      <c r="S3" s="3" t="str">
+        <v>21-07-2024</v>
+      </c>
+      <c r="T3" s="3" t="str">
+        <v>22-07-2024</v>
+      </c>
+      <c r="U3" s="3" t="str">
+        <v>23-07-2024</v>
+      </c>
+      <c r="V3" s="3" t="str">
+        <v>24-07-2024</v>
+      </c>
+      <c r="W3" s="3" t="str">
+        <v>25-07-2024</v>
+      </c>
+      <c r="X3" s="3" t="str">
+        <v>26-07-2024</v>
       </c>
     </row>
     <row r="4">
@@ -469,19 +649,73 @@
         <v>0-1</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>410,00</v>
+        <v>535,00</v>
       </c>
       <c r="C4" s="4" t="str">
-        <v>413,70</v>
+        <v>496,00</v>
       </c>
       <c r="D4" s="4" t="str">
-        <v>522,00</v>
+        <v>500,00</v>
       </c>
       <c r="E4" s="4" t="str">
-        <v>482,00</v>
+        <v>299,99</v>
       </c>
       <c r="F4" s="4" t="str">
-        <v>450,00</v>
+        <v>525,00</v>
+      </c>
+      <c r="G4" s="4" t="str">
+        <v>525,00</v>
+      </c>
+      <c r="H4" s="4" t="str">
+        <v>489,00</v>
+      </c>
+      <c r="I4" s="4" t="str">
+        <v>520,00</v>
+      </c>
+      <c r="J4" s="4" t="str">
+        <v>613,00</v>
+      </c>
+      <c r="K4" s="4" t="str">
+        <v>510,00</v>
+      </c>
+      <c r="L4" s="4" t="str">
+        <v>524,00</v>
+      </c>
+      <c r="M4" s="4" t="str">
+        <v>480,00</v>
+      </c>
+      <c r="N4" s="4" t="str">
+        <v>536,00</v>
+      </c>
+      <c r="O4" s="4" t="str">
+        <v>515,00</v>
+      </c>
+      <c r="P4" s="4" t="str">
+        <v>510,00</v>
+      </c>
+      <c r="Q4" s="4" t="str">
+        <v>500,00</v>
+      </c>
+      <c r="R4" s="4" t="str">
+        <v>600,00</v>
+      </c>
+      <c r="S4" s="4" t="str">
+        <v>466,71</v>
+      </c>
+      <c r="T4" s="4" t="str">
+        <v>465,00</v>
+      </c>
+      <c r="U4" s="4" t="str">
+        <v>488,00</v>
+      </c>
+      <c r="V4" s="4" t="str">
+        <v>519,89</v>
+      </c>
+      <c r="W4" s="4" t="str">
+        <v>459,99</v>
+      </c>
+      <c r="X4" s="4" t="str">
+        <v>500,00</v>
       </c>
     </row>
     <row r="5">
@@ -489,19 +723,73 @@
         <v>1-2</v>
       </c>
       <c r="B5" s="4" t="str">
-        <v>388,00</v>
+        <v>438,00</v>
       </c>
       <c r="C5" s="4" t="str">
-        <v>384,73</v>
+        <v>392,00</v>
       </c>
       <c r="D5" s="4" t="str">
-        <v>450,96</v>
+        <v>422,78</v>
       </c>
       <c r="E5" s="4" t="str">
+        <v>303,99</v>
+      </c>
+      <c r="F5" s="4" t="str">
         <v>450,00</v>
       </c>
-      <c r="F5" s="4" t="str">
+      <c r="G5" s="4" t="str">
+        <v>445,90</v>
+      </c>
+      <c r="H5" s="4" t="str">
+        <v>400,00</v>
+      </c>
+      <c r="I5" s="4" t="str">
+        <v>434,00</v>
+      </c>
+      <c r="J5" s="4" t="str">
+        <v>470,00</v>
+      </c>
+      <c r="K5" s="4" t="str">
+        <v>405,19</v>
+      </c>
+      <c r="L5" s="4" t="str">
+        <v>430,01</v>
+      </c>
+      <c r="M5" s="4" t="str">
+        <v>398,00</v>
+      </c>
+      <c r="N5" s="4" t="str">
+        <v>416,00</v>
+      </c>
+      <c r="O5" s="4" t="str">
         <v>420,00</v>
+      </c>
+      <c r="P5" s="4" t="str">
+        <v>424,99</v>
+      </c>
+      <c r="Q5" s="4" t="str">
+        <v>425,00</v>
+      </c>
+      <c r="R5" s="4" t="str">
+        <v>475,00</v>
+      </c>
+      <c r="S5" s="4" t="str">
+        <v>378,00</v>
+      </c>
+      <c r="T5" s="4" t="str">
+        <v>397,00</v>
+      </c>
+      <c r="U5" s="4" t="str">
+        <v>400,00</v>
+      </c>
+      <c r="V5" s="4" t="str">
+        <v>439,16</v>
+      </c>
+      <c r="W5" s="4" t="str">
+        <v>390,00</v>
+      </c>
+      <c r="X5" s="4" t="str">
+        <v>423,00</v>
       </c>
     </row>
     <row r="6">
@@ -509,19 +797,73 @@
         <v>2-3</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v>376,80</v>
+        <v>407,69</v>
       </c>
       <c r="C6" s="4" t="str">
-        <v>367,53</v>
+        <v>390,00</v>
       </c>
       <c r="D6" s="4" t="str">
-        <v>427,60</v>
+        <v>390,00</v>
       </c>
       <c r="E6" s="4" t="str">
-        <v>429,60</v>
+        <v>318,00</v>
       </c>
       <c r="F6" s="4" t="str">
-        <v>396,00</v>
+        <v>427,00</v>
+      </c>
+      <c r="G6" s="4" t="str">
+        <v>414,00</v>
+      </c>
+      <c r="H6" s="4" t="str">
+        <v>380,00</v>
+      </c>
+      <c r="I6" s="4" t="str">
+        <v>425,00</v>
+      </c>
+      <c r="J6" s="4" t="str">
+        <v>444,00</v>
+      </c>
+      <c r="K6" s="4" t="str">
+        <v>400,00</v>
+      </c>
+      <c r="L6" s="4" t="str">
+        <v>405,20</v>
+      </c>
+      <c r="M6" s="4" t="str">
+        <v>382,00</v>
+      </c>
+      <c r="N6" s="4" t="str">
+        <v>390,00</v>
+      </c>
+      <c r="O6" s="4" t="str">
+        <v>390,00</v>
+      </c>
+      <c r="P6" s="4" t="str">
+        <v>392,00</v>
+      </c>
+      <c r="Q6" s="4" t="str">
+        <v>400,00</v>
+      </c>
+      <c r="R6" s="4" t="str">
+        <v>449,59</v>
+      </c>
+      <c r="S6" s="4" t="str">
+        <v>372,00</v>
+      </c>
+      <c r="T6" s="4" t="str">
+        <v>375,60</v>
+      </c>
+      <c r="U6" s="4" t="str">
+        <v>366,00</v>
+      </c>
+      <c r="V6" s="4" t="str">
+        <v>407,00</v>
+      </c>
+      <c r="W6" s="4" t="str">
+        <v>375,00</v>
+      </c>
+      <c r="X6" s="4" t="str">
+        <v>400,00</v>
       </c>
     </row>
     <row r="7">
@@ -529,19 +871,73 @@
         <v>3-4</v>
       </c>
       <c r="B7" s="4" t="str">
-        <v>370,80</v>
+        <v>402,00</v>
       </c>
       <c r="C7" s="4" t="str">
-        <v>376,71</v>
+        <v>394,00</v>
       </c>
       <c r="D7" s="4" t="str">
-        <v>425,00</v>
+        <v>391,10</v>
       </c>
       <c r="E7" s="4" t="str">
-        <v>418,90</v>
+        <v>321,99</v>
       </c>
       <c r="F7" s="4" t="str">
+        <v>421,75</v>
+      </c>
+      <c r="G7" s="4" t="str">
+        <v>412,00</v>
+      </c>
+      <c r="H7" s="4" t="str">
+        <v>352,48</v>
+      </c>
+      <c r="I7" s="4" t="str">
+        <v>421,00</v>
+      </c>
+      <c r="J7" s="4" t="str">
+        <v>426,00</v>
+      </c>
+      <c r="K7" s="4" t="str">
+        <v>390,00</v>
+      </c>
+      <c r="L7" s="4" t="str">
+        <v>396,00</v>
+      </c>
+      <c r="M7" s="4" t="str">
+        <v>380,00</v>
+      </c>
+      <c r="N7" s="4" t="str">
+        <v>390,00</v>
+      </c>
+      <c r="O7" s="4" t="str">
+        <v>380,00</v>
+      </c>
+      <c r="P7" s="4" t="str">
+        <v>390,00</v>
+      </c>
+      <c r="Q7" s="4" t="str">
         <v>392,00</v>
+      </c>
+      <c r="R7" s="4" t="str">
+        <v>440,00</v>
+      </c>
+      <c r="S7" s="4" t="str">
+        <v>370,00</v>
+      </c>
+      <c r="T7" s="4" t="str">
+        <v>376,00</v>
+      </c>
+      <c r="U7" s="4" t="str">
+        <v>368,00</v>
+      </c>
+      <c r="V7" s="4" t="str">
+        <v>404,51</v>
+      </c>
+      <c r="W7" s="4" t="str">
+        <v>372,10</v>
+      </c>
+      <c r="X7" s="4" t="str">
+        <v>400,00</v>
       </c>
     </row>
     <row r="8">
@@ -549,19 +945,73 @@
         <v>4-5</v>
       </c>
       <c r="B8" s="4" t="str">
-        <v>383,30</v>
+        <v>406,00</v>
       </c>
       <c r="C8" s="4" t="str">
+        <v>386,00</v>
+      </c>
+      <c r="D8" s="4" t="str">
         <v>390,00</v>
       </c>
-      <c r="D8" s="4" t="str">
-        <v>440,00</v>
-      </c>
       <c r="E8" s="4" t="str">
-        <v>413,23</v>
+        <v>323,99</v>
       </c>
       <c r="F8" s="4" t="str">
-        <v>398,00</v>
+        <v>417,19</v>
+      </c>
+      <c r="G8" s="4" t="str">
+        <v>416,80</v>
+      </c>
+      <c r="H8" s="4" t="str">
+        <v>356,52</v>
+      </c>
+      <c r="I8" s="4" t="str">
+        <v>418,00</v>
+      </c>
+      <c r="J8" s="4" t="str">
+        <v>422,00</v>
+      </c>
+      <c r="K8" s="4" t="str">
+        <v>420,00</v>
+      </c>
+      <c r="L8" s="4" t="str">
+        <v>396,25</v>
+      </c>
+      <c r="M8" s="4" t="str">
+        <v>380,00</v>
+      </c>
+      <c r="N8" s="4" t="str">
+        <v>390,00</v>
+      </c>
+      <c r="O8" s="4" t="str">
+        <v>387,70</v>
+      </c>
+      <c r="P8" s="4" t="str">
+        <v>388,00</v>
+      </c>
+      <c r="Q8" s="4" t="str">
+        <v>388,00</v>
+      </c>
+      <c r="R8" s="4" t="str">
+        <v>428,00</v>
+      </c>
+      <c r="S8" s="4" t="str">
+        <v>360,00</v>
+      </c>
+      <c r="T8" s="4" t="str">
+        <v>381,20</v>
+      </c>
+      <c r="U8" s="4" t="str">
+        <v>368,00</v>
+      </c>
+      <c r="V8" s="4" t="str">
+        <v>410,00</v>
+      </c>
+      <c r="W8" s="4" t="str">
+        <v>375,00</v>
+      </c>
+      <c r="X8" s="4" t="str">
+        <v>405,40</v>
       </c>
     </row>
     <row r="9">
@@ -569,19 +1019,73 @@
         <v>5-6</v>
       </c>
       <c r="B9" s="4" t="str">
-        <v>402,00</v>
+        <v>424,69</v>
       </c>
       <c r="C9" s="4" t="str">
-        <v>415,96</v>
+        <v>394,00</v>
       </c>
       <c r="D9" s="4" t="str">
-        <v>490,00</v>
+        <v>406,00</v>
       </c>
       <c r="E9" s="4" t="str">
-        <v>457,80</v>
+        <v>320,00</v>
       </c>
       <c r="F9" s="4" t="str">
-        <v>403,70</v>
+        <v>452,83</v>
+      </c>
+      <c r="G9" s="4" t="str">
+        <v>428,40</v>
+      </c>
+      <c r="H9" s="4" t="str">
+        <v>367,55</v>
+      </c>
+      <c r="I9" s="4" t="str">
+        <v>441,01</v>
+      </c>
+      <c r="J9" s="4" t="str">
+        <v>440,00</v>
+      </c>
+      <c r="K9" s="4" t="str">
+        <v>367,55</v>
+      </c>
+      <c r="L9" s="4" t="str">
+        <v>386,00</v>
+      </c>
+      <c r="M9" s="4" t="str">
+        <v>400,00</v>
+      </c>
+      <c r="N9" s="4" t="str">
+        <v>414,00</v>
+      </c>
+      <c r="O9" s="4" t="str">
+        <v>416,00</v>
+      </c>
+      <c r="P9" s="4" t="str">
+        <v>416,00</v>
+      </c>
+      <c r="Q9" s="4" t="str">
+        <v>420,00</v>
+      </c>
+      <c r="R9" s="4" t="str">
+        <v>410,00</v>
+      </c>
+      <c r="S9" s="4" t="str">
+        <v>349,12</v>
+      </c>
+      <c r="T9" s="4" t="str">
+        <v>402,10</v>
+      </c>
+      <c r="U9" s="4" t="str">
+        <v>395,00</v>
+      </c>
+      <c r="V9" s="4" t="str">
+        <v>424,00</v>
+      </c>
+      <c r="W9" s="4" t="str">
+        <v>392,00</v>
+      </c>
+      <c r="X9" s="4" t="str">
+        <v>420,00</v>
       </c>
     </row>
     <row r="10">
@@ -589,19 +1093,73 @@
         <v>6-7</v>
       </c>
       <c r="B10" s="4" t="str">
-        <v>520,00</v>
+        <v>546,00</v>
       </c>
       <c r="C10" s="4" t="str">
+        <v>496,00</v>
+      </c>
+      <c r="D10" s="4" t="str">
+        <v>415,69</v>
+      </c>
+      <c r="E10" s="4" t="str">
+        <v>320,00</v>
+      </c>
+      <c r="F10" s="4" t="str">
+        <v>700,00</v>
+      </c>
+      <c r="G10" s="4" t="str">
+        <v>534,25</v>
+      </c>
+      <c r="H10" s="4" t="str">
         <v>550,00</v>
       </c>
-      <c r="D10" s="4" t="str">
-        <v>657,31</v>
-      </c>
-      <c r="E10" s="4" t="str">
-        <v>481,43</v>
-      </c>
-      <c r="F10" s="4" t="str">
-        <v>400,00</v>
+      <c r="I10" s="4" t="str">
+        <v>588,00</v>
+      </c>
+      <c r="J10" s="4" t="str">
+        <v>560,00</v>
+      </c>
+      <c r="K10" s="4" t="str">
+        <v>375,00</v>
+      </c>
+      <c r="L10" s="4" t="str">
+        <v>378,00</v>
+      </c>
+      <c r="M10" s="4" t="str">
+        <v>590,00</v>
+      </c>
+      <c r="N10" s="4" t="str">
+        <v>510,00</v>
+      </c>
+      <c r="O10" s="4" t="str">
+        <v>570,00</v>
+      </c>
+      <c r="P10" s="4" t="str">
+        <v>570,90</v>
+      </c>
+      <c r="Q10" s="4" t="str">
+        <v>546,14</v>
+      </c>
+      <c r="R10" s="4" t="str">
+        <v>419,00</v>
+      </c>
+      <c r="S10" s="4" t="str">
+        <v>347,92</v>
+      </c>
+      <c r="T10" s="4" t="str">
+        <v>599,64</v>
+      </c>
+      <c r="U10" s="4" t="str">
+        <v>600,00</v>
+      </c>
+      <c r="V10" s="4" t="str">
+        <v>615,00</v>
+      </c>
+      <c r="W10" s="4" t="str">
+        <v>573,51</v>
+      </c>
+      <c r="X10" s="4" t="str">
+        <v>620,00</v>
       </c>
     </row>
     <row r="11">
@@ -609,19 +1167,73 @@
         <v>7-8</v>
       </c>
       <c r="B11" s="4" t="str">
-        <v>530,00</v>
+        <v>455,00</v>
       </c>
       <c r="C11" s="4" t="str">
-        <v>572,36</v>
+        <v>364,06</v>
       </c>
       <c r="D11" s="4" t="str">
-        <v>700,00</v>
+        <v>380,00</v>
       </c>
       <c r="E11" s="4" t="str">
-        <v>492,00</v>
+        <v>305,99</v>
       </c>
       <c r="F11" s="4" t="str">
-        <v>397,60</v>
+        <v>650,48</v>
+      </c>
+      <c r="G11" s="4" t="str">
+        <v>513,20</v>
+      </c>
+      <c r="H11" s="4" t="str">
+        <v>430,64</v>
+      </c>
+      <c r="I11" s="4" t="str">
+        <v>567,30</v>
+      </c>
+      <c r="J11" s="4" t="str">
+        <v>575,90</v>
+      </c>
+      <c r="K11" s="4" t="str">
+        <v>370,00</v>
+      </c>
+      <c r="L11" s="4" t="str">
+        <v>399,89</v>
+      </c>
+      <c r="M11" s="4" t="str">
+        <v>548,38</v>
+      </c>
+      <c r="N11" s="4" t="str">
+        <v>433,00</v>
+      </c>
+      <c r="O11" s="4" t="str">
+        <v>532,80</v>
+      </c>
+      <c r="P11" s="4" t="str">
+        <v>528,90</v>
+      </c>
+      <c r="Q11" s="4" t="str">
+        <v>500,00</v>
+      </c>
+      <c r="R11" s="4" t="str">
+        <v>412,00</v>
+      </c>
+      <c r="S11" s="4" t="str">
+        <v>323,99</v>
+      </c>
+      <c r="T11" s="4" t="str">
+        <v>518,56</v>
+      </c>
+      <c r="U11" s="4" t="str">
+        <v>550,00</v>
+      </c>
+      <c r="V11" s="4" t="str">
+        <v>604,51</v>
+      </c>
+      <c r="W11" s="4" t="str">
+        <v>559,87</v>
+      </c>
+      <c r="X11" s="4" t="str">
+        <v>560,00</v>
       </c>
     </row>
     <row r="12">
@@ -629,19 +1241,73 @@
         <v>8-9</v>
       </c>
       <c r="B12" s="4" t="str">
-        <v>479,10</v>
+        <v>390,00</v>
       </c>
       <c r="C12" s="4" t="str">
-        <v>478,89</v>
+        <v>320,00</v>
       </c>
       <c r="D12" s="4" t="str">
-        <v>570,00</v>
+        <v>339,40</v>
       </c>
       <c r="E12" s="4" t="str">
-        <v>460,00</v>
+        <v>240,00</v>
       </c>
       <c r="F12" s="4" t="str">
-        <v>306,90</v>
+        <v>639,00</v>
+      </c>
+      <c r="G12" s="4" t="str">
+        <v>430,00</v>
+      </c>
+      <c r="H12" s="4" t="str">
+        <v>365,99</v>
+      </c>
+      <c r="I12" s="4" t="str">
+        <v>549,00</v>
+      </c>
+      <c r="J12" s="4" t="str">
+        <v>500,00</v>
+      </c>
+      <c r="K12" s="4" t="str">
+        <v>337,99</v>
+      </c>
+      <c r="L12" s="4" t="str">
+        <v>349,89</v>
+      </c>
+      <c r="M12" s="4" t="str">
+        <v>433,70</v>
+      </c>
+      <c r="N12" s="4" t="str">
+        <v>396,00</v>
+      </c>
+      <c r="O12" s="4" t="str">
+        <v>402,00</v>
+      </c>
+      <c r="P12" s="4" t="str">
+        <v>441,10</v>
+      </c>
+      <c r="Q12" s="4" t="str">
+        <v>450,00</v>
+      </c>
+      <c r="R12" s="4" t="str">
+        <v>380,00</v>
+      </c>
+      <c r="S12" s="4" t="str">
+        <v>239,00</v>
+      </c>
+      <c r="T12" s="4" t="str">
+        <v>479,00</v>
+      </c>
+      <c r="U12" s="4" t="str">
+        <v>470,00</v>
+      </c>
+      <c r="V12" s="4" t="str">
+        <v>535,00</v>
+      </c>
+      <c r="W12" s="4" t="str">
+        <v>440,50</v>
+      </c>
+      <c r="X12" s="4" t="str">
+        <v>459,32</v>
       </c>
     </row>
     <row r="13">
@@ -649,19 +1315,73 @@
         <v>9-10</v>
       </c>
       <c r="B13" s="4" t="str">
-        <v>382,60</v>
+        <v>352,40</v>
       </c>
       <c r="C13" s="4" t="str">
-        <v>378,50</v>
+        <v>170,00</v>
       </c>
       <c r="D13" s="4" t="str">
-        <v>455,79</v>
+        <v>148,88</v>
       </c>
       <c r="E13" s="4" t="str">
-        <v>353,20</v>
+        <v>150,00</v>
       </c>
       <c r="F13" s="4" t="str">
-        <v>80,00</v>
+        <v>500,00</v>
+      </c>
+      <c r="G13" s="4" t="str">
+        <v>347,99</v>
+      </c>
+      <c r="H13" s="4" t="str">
+        <v>290,00</v>
+      </c>
+      <c r="I13" s="4" t="str">
+        <v>500,00</v>
+      </c>
+      <c r="J13" s="4" t="str">
+        <v>400,00</v>
+      </c>
+      <c r="K13" s="4" t="str">
+        <v>150,00</v>
+      </c>
+      <c r="L13" s="4" t="str">
+        <v>290,00</v>
+      </c>
+      <c r="M13" s="4" t="str">
+        <v>335,00</v>
+      </c>
+      <c r="N13" s="4" t="str">
+        <v>347,99</v>
+      </c>
+      <c r="O13" s="4" t="str">
+        <v>325,80</v>
+      </c>
+      <c r="P13" s="4" t="str">
+        <v>333,99</v>
+      </c>
+      <c r="Q13" s="4" t="str">
+        <v>342,26</v>
+      </c>
+      <c r="R13" s="4" t="str">
+        <v>250,00</v>
+      </c>
+      <c r="S13" s="4" t="str">
+        <v>56,08</v>
+      </c>
+      <c r="T13" s="4" t="str">
+        <v>370,14</v>
+      </c>
+      <c r="U13" s="4" t="str">
+        <v>410,00</v>
+      </c>
+      <c r="V13" s="4" t="str">
+        <v>439,16</v>
+      </c>
+      <c r="W13" s="4" t="str">
+        <v>410,00</v>
+      </c>
+      <c r="X13" s="4" t="str">
+        <v>410,00</v>
       </c>
     </row>
     <row r="14">
@@ -669,19 +1389,73 @@
         <v>10-11</v>
       </c>
       <c r="B14" s="4" t="str">
-        <v>259,99</v>
+        <v>275,99</v>
       </c>
       <c r="C14" s="4" t="str">
-        <v>230,00</v>
+        <v>1,00</v>
       </c>
       <c r="D14" s="4" t="str">
-        <v>349,23</v>
+        <v>-10,00</v>
       </c>
       <c r="E14" s="4" t="str">
-        <v>190,00</v>
+        <v>150,00</v>
       </c>
       <c r="F14" s="4" t="str">
-        <v>0,01</v>
+        <v>466,80</v>
+      </c>
+      <c r="G14" s="4" t="str">
+        <v>250,00</v>
+      </c>
+      <c r="H14" s="4" t="str">
+        <v>187,99</v>
+      </c>
+      <c r="I14" s="4" t="str">
+        <v>450,00</v>
+      </c>
+      <c r="J14" s="4" t="str">
+        <v>388,60</v>
+      </c>
+      <c r="K14" s="4" t="str">
+        <v>1,00</v>
+      </c>
+      <c r="L14" s="4" t="str">
+        <v>181,99</v>
+      </c>
+      <c r="M14" s="4" t="str">
+        <v>280,80</v>
+      </c>
+      <c r="N14" s="4" t="str">
+        <v>263,99</v>
+      </c>
+      <c r="O14" s="4" t="str">
+        <v>211,99</v>
+      </c>
+      <c r="P14" s="4" t="str">
+        <v>227,70</v>
+      </c>
+      <c r="Q14" s="4" t="str">
+        <v>267,99</v>
+      </c>
+      <c r="R14" s="4" t="str">
+        <v>73,44</v>
+      </c>
+      <c r="S14" s="4" t="str">
+        <v>-10,00</v>
+      </c>
+      <c r="T14" s="4" t="str">
+        <v>330,03</v>
+      </c>
+      <c r="U14" s="4" t="str">
+        <v>332,59</v>
+      </c>
+      <c r="V14" s="4" t="str">
+        <v>401,00</v>
+      </c>
+      <c r="W14" s="4" t="str">
+        <v>330,00</v>
+      </c>
+      <c r="X14" s="4" t="str">
+        <v>346,99</v>
       </c>
     </row>
     <row r="15">
@@ -689,19 +1463,73 @@
         <v>11-12</v>
       </c>
       <c r="B15" s="4" t="str">
+        <v>319,99</v>
+      </c>
+      <c r="C15" s="4" t="str">
+        <v>0,00</v>
+      </c>
+      <c r="D15" s="4" t="str">
+        <v>-80,00</v>
+      </c>
+      <c r="E15" s="4" t="str">
         <v>150,00</v>
       </c>
-      <c r="C15" s="4" t="str">
+      <c r="F15" s="4" t="str">
+        <v>460,00</v>
+      </c>
+      <c r="G15" s="4" t="str">
+        <v>299,99</v>
+      </c>
+      <c r="H15" s="4" t="str">
         <v>150,00</v>
       </c>
-      <c r="D15" s="4" t="str">
-        <v>310,11</v>
-      </c>
-      <c r="E15" s="4" t="str">
-        <v>65,30</v>
-      </c>
-      <c r="F15" s="4" t="str">
-        <v>-53,50</v>
+      <c r="I15" s="4" t="str">
+        <v>450,00</v>
+      </c>
+      <c r="J15" s="4" t="str">
+        <v>370,00</v>
+      </c>
+      <c r="K15" s="4" t="str">
+        <v>-10,00</v>
+      </c>
+      <c r="L15" s="4" t="str">
+        <v>150,00</v>
+      </c>
+      <c r="M15" s="4" t="str">
+        <v>309,00</v>
+      </c>
+      <c r="N15" s="4" t="str">
+        <v>331,00</v>
+      </c>
+      <c r="O15" s="4" t="str">
+        <v>183,99</v>
+      </c>
+      <c r="P15" s="4" t="str">
+        <v>190,40</v>
+      </c>
+      <c r="Q15" s="4" t="str">
+        <v>249,99</v>
+      </c>
+      <c r="R15" s="4" t="str">
+        <v>23,20</v>
+      </c>
+      <c r="S15" s="4" t="str">
+        <v>-28,00</v>
+      </c>
+      <c r="T15" s="4" t="str">
+        <v>324,01</v>
+      </c>
+      <c r="U15" s="4" t="str">
+        <v>342,90</v>
+      </c>
+      <c r="V15" s="4" t="str">
+        <v>425,00</v>
+      </c>
+      <c r="W15" s="4" t="str">
+        <v>325,00</v>
+      </c>
+      <c r="X15" s="4" t="str">
+        <v>331,99</v>
       </c>
     </row>
     <row r="16">
@@ -709,19 +1537,73 @@
         <v>12-13</v>
       </c>
       <c r="B16" s="4" t="str">
-        <v>70,00</v>
+        <v>305,00</v>
       </c>
       <c r="C16" s="4" t="str">
-        <v>85,99</v>
+        <v>0,00</v>
       </c>
       <c r="D16" s="4" t="str">
-        <v>273,99</v>
+        <v>-175,00</v>
       </c>
       <c r="E16" s="4" t="str">
-        <v>9,36</v>
+        <v>120,00</v>
       </c>
       <c r="F16" s="4" t="str">
-        <v>-96,56</v>
+        <v>460,00</v>
+      </c>
+      <c r="G16" s="4" t="str">
+        <v>250,00</v>
+      </c>
+      <c r="H16" s="4" t="str">
+        <v>140,00</v>
+      </c>
+      <c r="I16" s="4" t="str">
+        <v>476,00</v>
+      </c>
+      <c r="J16" s="4" t="str">
+        <v>345,71</v>
+      </c>
+      <c r="K16" s="4" t="str">
+        <v>-49,99</v>
+      </c>
+      <c r="L16" s="4" t="str">
+        <v>149,97</v>
+      </c>
+      <c r="M16" s="4" t="str">
+        <v>315,99</v>
+      </c>
+      <c r="N16" s="4" t="str">
+        <v>329,99</v>
+      </c>
+      <c r="O16" s="4" t="str">
+        <v>198,23</v>
+      </c>
+      <c r="P16" s="4" t="str">
+        <v>155,10</v>
+      </c>
+      <c r="Q16" s="4" t="str">
+        <v>199,99</v>
+      </c>
+      <c r="R16" s="4" t="str">
+        <v>29,10</v>
+      </c>
+      <c r="S16" s="4" t="str">
+        <v>-37,00</v>
+      </c>
+      <c r="T16" s="4" t="str">
+        <v>315,99</v>
+      </c>
+      <c r="U16" s="4" t="str">
+        <v>340,70</v>
+      </c>
+      <c r="V16" s="4" t="str">
+        <v>462,00</v>
+      </c>
+      <c r="W16" s="4" t="str">
+        <v>317,99</v>
+      </c>
+      <c r="X16" s="4" t="str">
+        <v>321,99</v>
       </c>
     </row>
     <row r="17">
@@ -729,19 +1611,73 @@
         <v>13-14</v>
       </c>
       <c r="B17" s="4" t="str">
-        <v>55,00</v>
+        <v>306,76</v>
       </c>
       <c r="C17" s="4" t="str">
-        <v>50,00</v>
+        <v>0,01</v>
       </c>
       <c r="D17" s="4" t="str">
-        <v>277,99</v>
+        <v>-175,00</v>
       </c>
       <c r="E17" s="4" t="str">
-        <v>0,00</v>
+        <v>175,00</v>
       </c>
       <c r="F17" s="4" t="str">
-        <v>-175,49</v>
+        <v>450,00</v>
+      </c>
+      <c r="G17" s="4" t="str">
+        <v>299,99</v>
+      </c>
+      <c r="H17" s="4" t="str">
+        <v>150,00</v>
+      </c>
+      <c r="I17" s="4" t="str">
+        <v>476,00</v>
+      </c>
+      <c r="J17" s="4" t="str">
+        <v>378,00</v>
+      </c>
+      <c r="K17" s="4" t="str">
+        <v>-80,00</v>
+      </c>
+      <c r="L17" s="4" t="str">
+        <v>110,00</v>
+      </c>
+      <c r="M17" s="4" t="str">
+        <v>333,99</v>
+      </c>
+      <c r="N17" s="4" t="str">
+        <v>380,00</v>
+      </c>
+      <c r="O17" s="4" t="str">
+        <v>273,99</v>
+      </c>
+      <c r="P17" s="4" t="str">
+        <v>165,60</v>
+      </c>
+      <c r="Q17" s="4" t="str">
+        <v>200,00</v>
+      </c>
+      <c r="R17" s="4" t="str">
+        <v>39,30</v>
+      </c>
+      <c r="S17" s="4" t="str">
+        <v>-30,00</v>
+      </c>
+      <c r="T17" s="4" t="str">
+        <v>347,00</v>
+      </c>
+      <c r="U17" s="4" t="str">
+        <v>358,99</v>
+      </c>
+      <c r="V17" s="4" t="str">
+        <v>475,00</v>
+      </c>
+      <c r="W17" s="4" t="str">
+        <v>327,99</v>
+      </c>
+      <c r="X17" s="4" t="str">
+        <v>339,99</v>
       </c>
     </row>
     <row r="18">
@@ -749,19 +1685,73 @@
         <v>14-15</v>
       </c>
       <c r="B18" s="4" t="str">
-        <v>90,00</v>
+        <v>301,99</v>
       </c>
       <c r="C18" s="4" t="str">
-        <v>108,88</v>
+        <v>5,00</v>
       </c>
       <c r="D18" s="4" t="str">
-        <v>319,20</v>
+        <v>-175,00</v>
       </c>
       <c r="E18" s="4" t="str">
-        <v>1,00</v>
+        <v>233,40</v>
       </c>
       <c r="F18" s="4" t="str">
-        <v>-131,37</v>
+        <v>462,00</v>
+      </c>
+      <c r="G18" s="4" t="str">
+        <v>295,99</v>
+      </c>
+      <c r="H18" s="4" t="str">
+        <v>177,00</v>
+      </c>
+      <c r="I18" s="4" t="str">
+        <v>450,00</v>
+      </c>
+      <c r="J18" s="4" t="str">
+        <v>378,00</v>
+      </c>
+      <c r="K18" s="4" t="str">
+        <v>-40,00</v>
+      </c>
+      <c r="L18" s="4" t="str">
+        <v>101,10</v>
+      </c>
+      <c r="M18" s="4" t="str">
+        <v>311,99</v>
+      </c>
+      <c r="N18" s="4" t="str">
+        <v>364,63</v>
+      </c>
+      <c r="O18" s="4" t="str">
+        <v>295,99</v>
+      </c>
+      <c r="P18" s="4" t="str">
+        <v>200,00</v>
+      </c>
+      <c r="Q18" s="4" t="str">
+        <v>227,99</v>
+      </c>
+      <c r="R18" s="4" t="str">
+        <v>70,00</v>
+      </c>
+      <c r="S18" s="4" t="str">
+        <v>-15,00</v>
+      </c>
+      <c r="T18" s="4" t="str">
+        <v>348,85</v>
+      </c>
+      <c r="U18" s="4" t="str">
+        <v>364,00</v>
+      </c>
+      <c r="V18" s="4" t="str">
+        <v>450,00</v>
+      </c>
+      <c r="W18" s="4" t="str">
+        <v>320,00</v>
+      </c>
+      <c r="X18" s="4" t="str">
+        <v>348,32</v>
       </c>
     </row>
     <row r="19">
@@ -769,19 +1759,73 @@
         <v>15-16</v>
       </c>
       <c r="B19" s="4" t="str">
-        <v>282,89</v>
+        <v>267,99</v>
       </c>
       <c r="C19" s="4" t="str">
-        <v>288,00</v>
+        <v>200,00</v>
       </c>
       <c r="D19" s="4" t="str">
-        <v>398,00</v>
+        <v>-120,00</v>
       </c>
       <c r="E19" s="4" t="str">
-        <v>211,99</v>
+        <v>388,00</v>
       </c>
       <c r="F19" s="4" t="str">
-        <v>-0,02</v>
+        <v>480,60</v>
+      </c>
+      <c r="G19" s="4" t="str">
+        <v>339,50</v>
+      </c>
+      <c r="H19" s="4" t="str">
+        <v>317,99</v>
+      </c>
+      <c r="I19" s="4" t="str">
+        <v>484,00</v>
+      </c>
+      <c r="J19" s="4" t="str">
+        <v>388,00</v>
+      </c>
+      <c r="K19" s="4" t="str">
+        <v>-19,01</v>
+      </c>
+      <c r="L19" s="4" t="str">
+        <v>150,00</v>
+      </c>
+      <c r="M19" s="4" t="str">
+        <v>345,99</v>
+      </c>
+      <c r="N19" s="4" t="str">
+        <v>418,00</v>
+      </c>
+      <c r="O19" s="4" t="str">
+        <v>331,99</v>
+      </c>
+      <c r="P19" s="4" t="str">
+        <v>281,99</v>
+      </c>
+      <c r="Q19" s="4" t="str">
+        <v>317,99</v>
+      </c>
+      <c r="R19" s="4" t="str">
+        <v>254,67</v>
+      </c>
+      <c r="S19" s="4" t="str">
+        <v>0,01</v>
+      </c>
+      <c r="T19" s="4" t="str">
+        <v>400,00</v>
+      </c>
+      <c r="U19" s="4" t="str">
+        <v>415,90</v>
+      </c>
+      <c r="V19" s="4" t="str">
+        <v>415,00</v>
+      </c>
+      <c r="W19" s="4" t="str">
+        <v>343,99</v>
+      </c>
+      <c r="X19" s="4" t="str">
+        <v>410,00</v>
       </c>
     </row>
     <row r="20">
@@ -789,19 +1833,73 @@
         <v>16-17</v>
       </c>
       <c r="B20" s="4" t="str">
-        <v>388,49</v>
+        <v>323,60</v>
       </c>
       <c r="C20" s="4" t="str">
-        <v>400,00</v>
+        <v>329,99</v>
       </c>
       <c r="D20" s="4" t="str">
-        <v>552,99</v>
+        <v>0,00</v>
       </c>
       <c r="E20" s="4" t="str">
-        <v>411,00</v>
+        <v>436,10</v>
       </c>
       <c r="F20" s="4" t="str">
-        <v>297,99</v>
+        <v>515,72</v>
+      </c>
+      <c r="G20" s="4" t="str">
+        <v>402,00</v>
+      </c>
+      <c r="H20" s="4" t="str">
+        <v>347,99</v>
+      </c>
+      <c r="I20" s="4" t="str">
+        <v>500,00</v>
+      </c>
+      <c r="J20" s="4" t="str">
+        <v>396,00</v>
+      </c>
+      <c r="K20" s="4" t="str">
+        <v>9,40</v>
+      </c>
+      <c r="L20" s="4" t="str">
+        <v>290,00</v>
+      </c>
+      <c r="M20" s="4" t="str">
+        <v>442,33</v>
+      </c>
+      <c r="N20" s="4" t="str">
+        <v>500,00</v>
+      </c>
+      <c r="O20" s="4" t="str">
+        <v>374,07</v>
+      </c>
+      <c r="P20" s="4" t="str">
+        <v>359,00</v>
+      </c>
+      <c r="Q20" s="4" t="str">
+        <v>325,99</v>
+      </c>
+      <c r="R20" s="4" t="str">
+        <v>388,00</v>
+      </c>
+      <c r="S20" s="4" t="str">
+        <v>189,00</v>
+      </c>
+      <c r="T20" s="4" t="str">
+        <v>449,00</v>
+      </c>
+      <c r="U20" s="4" t="str">
+        <v>431,20</v>
+      </c>
+      <c r="V20" s="4" t="str">
+        <v>431,20</v>
+      </c>
+      <c r="W20" s="4" t="str">
+        <v>384,00</v>
+      </c>
+      <c r="X20" s="4" t="str">
+        <v>437,42</v>
       </c>
     </row>
     <row r="21">
@@ -809,19 +1907,73 @@
         <v>17-18</v>
       </c>
       <c r="B21" s="4" t="str">
-        <v>508,93</v>
+        <v>361,20</v>
       </c>
       <c r="C21" s="4" t="str">
-        <v>627,30</v>
+        <v>353,42</v>
       </c>
       <c r="D21" s="4" t="str">
-        <v>750,00</v>
+        <v>283,99</v>
       </c>
       <c r="E21" s="4" t="str">
-        <v>516,60</v>
+        <v>480,00</v>
       </c>
       <c r="F21" s="4" t="str">
-        <v>465,40</v>
+        <v>600,00</v>
+      </c>
+      <c r="G21" s="4" t="str">
+        <v>500,00</v>
+      </c>
+      <c r="H21" s="4" t="str">
+        <v>480,00</v>
+      </c>
+      <c r="I21" s="4" t="str">
+        <v>550,00</v>
+      </c>
+      <c r="J21" s="4" t="str">
+        <v>474,00</v>
+      </c>
+      <c r="K21" s="4" t="str">
+        <v>283,99</v>
+      </c>
+      <c r="L21" s="4" t="str">
+        <v>500,00</v>
+      </c>
+      <c r="M21" s="4" t="str">
+        <v>592,00</v>
+      </c>
+      <c r="N21" s="4" t="str">
+        <v>675,00</v>
+      </c>
+      <c r="O21" s="4" t="str">
+        <v>580,00</v>
+      </c>
+      <c r="P21" s="4" t="str">
+        <v>458,64</v>
+      </c>
+      <c r="Q21" s="4" t="str">
+        <v>463,15</v>
+      </c>
+      <c r="R21" s="4" t="str">
+        <v>500,00</v>
+      </c>
+      <c r="S21" s="4" t="str">
+        <v>335,99</v>
+      </c>
+      <c r="T21" s="4" t="str">
+        <v>591,00</v>
+      </c>
+      <c r="U21" s="4" t="str">
+        <v>531,70</v>
+      </c>
+      <c r="V21" s="4" t="str">
+        <v>485,82</v>
+      </c>
+      <c r="W21" s="4" t="str">
+        <v>406,50</v>
+      </c>
+      <c r="X21" s="4" t="str">
+        <v>500,10</v>
       </c>
     </row>
     <row r="22">
@@ -829,19 +1981,73 @@
         <v>18-19</v>
       </c>
       <c r="B22" s="4" t="str">
-        <v>769,99</v>
+        <v>550,00</v>
       </c>
       <c r="C22" s="4" t="str">
-        <v>1050,00</v>
+        <v>537,70</v>
       </c>
       <c r="D22" s="4" t="str">
-        <v>1471,00</v>
+        <v>430,00</v>
       </c>
       <c r="E22" s="4" t="str">
-        <v>778,40</v>
+        <v>562,00</v>
       </c>
       <c r="F22" s="4" t="str">
-        <v>597,00</v>
+        <v>908,42</v>
+      </c>
+      <c r="G22" s="4" t="str">
+        <v>730,00</v>
+      </c>
+      <c r="H22" s="4" t="str">
+        <v>620,00</v>
+      </c>
+      <c r="I22" s="4" t="str">
+        <v>940,00</v>
+      </c>
+      <c r="J22" s="4" t="str">
+        <v>700,00</v>
+      </c>
+      <c r="K22" s="4" t="str">
+        <v>621,57</v>
+      </c>
+      <c r="L22" s="4" t="str">
+        <v>649,00</v>
+      </c>
+      <c r="M22" s="4" t="str">
+        <v>980,00</v>
+      </c>
+      <c r="N22" s="4" t="str">
+        <v>1070,00</v>
+      </c>
+      <c r="O22" s="4" t="str">
+        <v>1075,00</v>
+      </c>
+      <c r="P22" s="4" t="str">
+        <v>1060,00</v>
+      </c>
+      <c r="Q22" s="4" t="str">
+        <v>950,00</v>
+      </c>
+      <c r="R22" s="4" t="str">
+        <v>710,00</v>
+      </c>
+      <c r="S22" s="4" t="str">
+        <v>533,48</v>
+      </c>
+      <c r="T22" s="4" t="str">
+        <v>875,00</v>
+      </c>
+      <c r="U22" s="4" t="str">
+        <v>800,00</v>
+      </c>
+      <c r="V22" s="4" t="str">
+        <v>649,00</v>
+      </c>
+      <c r="W22" s="4" t="str">
+        <v>577,00</v>
+      </c>
+      <c r="X22" s="4" t="str">
+        <v>650,00</v>
       </c>
     </row>
     <row r="23">
@@ -849,19 +2055,73 @@
         <v>19-20</v>
       </c>
       <c r="B23" s="4" t="str">
-        <v>1050,00</v>
+        <v>652,00</v>
       </c>
       <c r="C23" s="4" t="str">
+        <v>634,00</v>
+      </c>
+      <c r="D23" s="4" t="str">
+        <v>460,00</v>
+      </c>
+      <c r="E23" s="4" t="str">
+        <v>670,00</v>
+      </c>
+      <c r="F23" s="4" t="str">
+        <v>1286,18</v>
+      </c>
+      <c r="G23" s="4" t="str">
+        <v>1010,00</v>
+      </c>
+      <c r="H23" s="4" t="str">
+        <v>875,00</v>
+      </c>
+      <c r="I23" s="4" t="str">
+        <v>1306,00</v>
+      </c>
+      <c r="J23" s="4" t="str">
+        <v>842,00</v>
+      </c>
+      <c r="K23" s="4" t="str">
+        <v>699,89</v>
+      </c>
+      <c r="L23" s="4" t="str">
+        <v>880,00</v>
+      </c>
+      <c r="M23" s="4" t="str">
+        <v>1414,80</v>
+      </c>
+      <c r="N23" s="4" t="str">
         <v>1600,00</v>
       </c>
-      <c r="D23" s="4" t="str">
-        <v>2071,18</v>
-      </c>
-      <c r="E23" s="4" t="str">
-        <v>995,96</v>
-      </c>
-      <c r="F23" s="4" t="str">
+      <c r="O23" s="4" t="str">
+        <v>1733,00</v>
+      </c>
+      <c r="P23" s="4" t="str">
+        <v>1899,00</v>
+      </c>
+      <c r="Q23" s="4" t="str">
+        <v>1700,00</v>
+      </c>
+      <c r="R23" s="4" t="str">
+        <v>910,00</v>
+      </c>
+      <c r="S23" s="4" t="str">
         <v>700,00</v>
+      </c>
+      <c r="T23" s="4" t="str">
+        <v>1289,80</v>
+      </c>
+      <c r="U23" s="4" t="str">
+        <v>1100,00</v>
+      </c>
+      <c r="V23" s="4" t="str">
+        <v>821,70</v>
+      </c>
+      <c r="W23" s="4" t="str">
+        <v>760,00</v>
+      </c>
+      <c r="X23" s="4" t="str">
+        <v>800,00</v>
       </c>
     </row>
     <row r="24">
@@ -869,19 +2129,73 @@
         <v>20-21</v>
       </c>
       <c r="B24" s="4" t="str">
-        <v>1050,00</v>
+        <v>729,00</v>
       </c>
       <c r="C24" s="4" t="str">
-        <v>1511,53</v>
+        <v>720,00</v>
       </c>
       <c r="D24" s="4" t="str">
-        <v>2000,00</v>
+        <v>480,00</v>
       </c>
       <c r="E24" s="4" t="str">
-        <v>867,40</v>
+        <v>775,00</v>
       </c>
       <c r="F24" s="4" t="str">
-        <v>700,00</v>
+        <v>1447,79</v>
+      </c>
+      <c r="G24" s="4" t="str">
+        <v>1049,00</v>
+      </c>
+      <c r="H24" s="4" t="str">
+        <v>924,51</v>
+      </c>
+      <c r="I24" s="4" t="str">
+        <v>1479,00</v>
+      </c>
+      <c r="J24" s="4" t="str">
+        <v>870,00</v>
+      </c>
+      <c r="K24" s="4" t="str">
+        <v>840,00</v>
+      </c>
+      <c r="L24" s="4" t="str">
+        <v>910,00</v>
+      </c>
+      <c r="M24" s="4" t="str">
+        <v>1604,79</v>
+      </c>
+      <c r="N24" s="4" t="str">
+        <v>1771,68</v>
+      </c>
+      <c r="O24" s="4" t="str">
+        <v>2039,00</v>
+      </c>
+      <c r="P24" s="4" t="str">
+        <v>2400,00</v>
+      </c>
+      <c r="Q24" s="4" t="str">
+        <v>1970,00</v>
+      </c>
+      <c r="R24" s="4" t="str">
+        <v>1044,35</v>
+      </c>
+      <c r="S24" s="4" t="str">
+        <v>790,00</v>
+      </c>
+      <c r="T24" s="4" t="str">
+        <v>1590,00</v>
+      </c>
+      <c r="U24" s="4" t="str">
+        <v>1317,18</v>
+      </c>
+      <c r="V24" s="4" t="str">
+        <v>899,00</v>
+      </c>
+      <c r="W24" s="4" t="str">
+        <v>900,00</v>
+      </c>
+      <c r="X24" s="4" t="str">
+        <v>940,00</v>
       </c>
     </row>
     <row r="25">
@@ -889,19 +2203,73 @@
         <v>21-22</v>
       </c>
       <c r="B25" s="4" t="str">
-        <v>540,00</v>
+        <v>576,96</v>
       </c>
       <c r="C25" s="4" t="str">
-        <v>749,77</v>
+        <v>627,10</v>
       </c>
       <c r="D25" s="4" t="str">
-        <v>824,89</v>
+        <v>502,00</v>
       </c>
       <c r="E25" s="4" t="str">
-        <v>668,50</v>
+        <v>803,00</v>
       </c>
       <c r="F25" s="4" t="str">
-        <v>542,00</v>
+        <v>1293,57</v>
+      </c>
+      <c r="G25" s="4" t="str">
+        <v>812,00</v>
+      </c>
+      <c r="H25" s="4" t="str">
+        <v>800,00</v>
+      </c>
+      <c r="I25" s="4" t="str">
+        <v>1250,00</v>
+      </c>
+      <c r="J25" s="4" t="str">
+        <v>700,00</v>
+      </c>
+      <c r="K25" s="4" t="str">
+        <v>803,31</v>
+      </c>
+      <c r="L25" s="4" t="str">
+        <v>881,33</v>
+      </c>
+      <c r="M25" s="4" t="str">
+        <v>1422,90</v>
+      </c>
+      <c r="N25" s="4" t="str">
+        <v>1449,00</v>
+      </c>
+      <c r="O25" s="4" t="str">
+        <v>1760,00</v>
+      </c>
+      <c r="P25" s="4" t="str">
+        <v>2134,96</v>
+      </c>
+      <c r="Q25" s="4" t="str">
+        <v>1750,00</v>
+      </c>
+      <c r="R25" s="4" t="str">
+        <v>900,00</v>
+      </c>
+      <c r="S25" s="4" t="str">
+        <v>694,00</v>
+      </c>
+      <c r="T25" s="4" t="str">
+        <v>1199,00</v>
+      </c>
+      <c r="U25" s="4" t="str">
+        <v>1099,00</v>
+      </c>
+      <c r="V25" s="4" t="str">
+        <v>816,00</v>
+      </c>
+      <c r="W25" s="4" t="str">
+        <v>777,70</v>
+      </c>
+      <c r="X25" s="4" t="str">
+        <v>830,00</v>
       </c>
     </row>
     <row r="26">
@@ -909,19 +2277,73 @@
         <v>22-23</v>
       </c>
       <c r="B26" s="4" t="str">
-        <v>461,10</v>
+        <v>547,00</v>
       </c>
       <c r="C26" s="4" t="str">
-        <v>590,00</v>
+        <v>537,70</v>
       </c>
       <c r="D26" s="4" t="str">
-        <v>561,70</v>
+        <v>476,00</v>
       </c>
       <c r="E26" s="4" t="str">
-        <v>531,83</v>
+        <v>675,00</v>
       </c>
       <c r="F26" s="4" t="str">
-        <v>499,98</v>
+        <v>949,46</v>
+      </c>
+      <c r="G26" s="4" t="str">
+        <v>600,00</v>
+      </c>
+      <c r="H26" s="4" t="str">
+        <v>650,00</v>
+      </c>
+      <c r="I26" s="4" t="str">
+        <v>949,00</v>
+      </c>
+      <c r="J26" s="4" t="str">
+        <v>550,00</v>
+      </c>
+      <c r="K26" s="4" t="str">
+        <v>700,00</v>
+      </c>
+      <c r="L26" s="4" t="str">
+        <v>710,00</v>
+      </c>
+      <c r="M26" s="4" t="str">
+        <v>900,00</v>
+      </c>
+      <c r="N26" s="4" t="str">
+        <v>884,00</v>
+      </c>
+      <c r="O26" s="4" t="str">
+        <v>1100,00</v>
+      </c>
+      <c r="P26" s="4" t="str">
+        <v>1250,00</v>
+      </c>
+      <c r="Q26" s="4" t="str">
+        <v>975,00</v>
+      </c>
+      <c r="R26" s="4" t="str">
+        <v>690,00</v>
+      </c>
+      <c r="S26" s="4" t="str">
+        <v>533,48</v>
+      </c>
+      <c r="T26" s="4" t="str">
+        <v>764,51</v>
+      </c>
+      <c r="U26" s="4" t="str">
+        <v>740,00</v>
+      </c>
+      <c r="V26" s="4" t="str">
+        <v>605,00</v>
+      </c>
+      <c r="W26" s="4" t="str">
+        <v>600,00</v>
+      </c>
+      <c r="X26" s="4" t="str">
+        <v>600,00</v>
       </c>
     </row>
     <row r="27">
@@ -929,19 +2351,73 @@
         <v>23-24</v>
       </c>
       <c r="B27" s="4" t="str">
+        <v>438,00</v>
+      </c>
+      <c r="C27" s="4" t="str">
+        <v>469,00</v>
+      </c>
+      <c r="D27" s="4" t="str">
         <v>400,00</v>
       </c>
-      <c r="C27" s="4" t="str">
-        <v>488,60</v>
-      </c>
-      <c r="D27" s="4" t="str">
-        <v>480,00</v>
-      </c>
       <c r="E27" s="4" t="str">
-        <v>466,55</v>
+        <v>552,90</v>
       </c>
       <c r="F27" s="4" t="str">
-        <v>444,23</v>
+        <v>610,00</v>
+      </c>
+      <c r="G27" s="4" t="str">
+        <v>484,00</v>
+      </c>
+      <c r="H27" s="4" t="str">
+        <v>502,00</v>
+      </c>
+      <c r="I27" s="4" t="str">
+        <v>624,51</v>
+      </c>
+      <c r="J27" s="4" t="str">
+        <v>434,00</v>
+      </c>
+      <c r="K27" s="4" t="str">
+        <v>550,00</v>
+      </c>
+      <c r="L27" s="4" t="str">
+        <v>550,00</v>
+      </c>
+      <c r="M27" s="4" t="str">
+        <v>602,64</v>
+      </c>
+      <c r="N27" s="4" t="str">
+        <v>561,11</v>
+      </c>
+      <c r="O27" s="4" t="str">
+        <v>630,00</v>
+      </c>
+      <c r="P27" s="4" t="str">
+        <v>690,00</v>
+      </c>
+      <c r="Q27" s="4" t="str">
+        <v>600,00</v>
+      </c>
+      <c r="R27" s="4" t="str">
+        <v>499,99</v>
+      </c>
+      <c r="S27" s="4" t="str">
+        <v>434,37</v>
+      </c>
+      <c r="T27" s="4" t="str">
+        <v>501,80</v>
+      </c>
+      <c r="U27" s="4" t="str">
+        <v>540,00</v>
+      </c>
+      <c r="V27" s="4" t="str">
+        <v>459,36</v>
+      </c>
+      <c r="W27" s="4" t="str">
+        <v>500,00</v>
+      </c>
+      <c r="X27" s="4" t="str">
+        <v>490,32</v>
       </c>
     </row>
   </sheetData>

--- a/tabela.xlsx
+++ b/tabela.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -407,6 +407,14 @@
     <col min="2" max="2" width="10.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -422,6 +430,30 @@
       <c r="D1" s="4" t="str">
         <v/>
       </c>
+      <c r="E1" s="4" t="str">
+        <v/>
+      </c>
+      <c r="F1" s="4" t="str">
+        <v/>
+      </c>
+      <c r="G1" s="4" t="str">
+        <v/>
+      </c>
+      <c r="H1" s="4" t="str">
+        <v/>
+      </c>
+      <c r="I1" s="4" t="str">
+        <v/>
+      </c>
+      <c r="J1" s="4" t="str">
+        <v/>
+      </c>
+      <c r="K1" s="4" t="str">
+        <v/>
+      </c>
+      <c r="L1" s="4" t="str">
+        <v/>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="3" t="str">
@@ -436,21 +468,69 @@
       <c r="D2" s="4" t="str">
         <v/>
       </c>
+      <c r="E2" s="4" t="str">
+        <v/>
+      </c>
+      <c r="F2" s="4" t="str">
+        <v/>
+      </c>
+      <c r="G2" s="4" t="str">
+        <v/>
+      </c>
+      <c r="H2" s="4" t="str">
+        <v/>
+      </c>
+      <c r="I2" s="4" t="str">
+        <v/>
+      </c>
+      <c r="J2" s="4" t="str">
+        <v/>
+      </c>
+      <c r="K2" s="4" t="str">
+        <v/>
+      </c>
+      <c r="L2" s="4" t="str">
+        <v/>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="str">
         <v/>
       </c>
       <c r="B3" s="3" t="str">
+        <v>28-07-2024</v>
+      </c>
+      <c r="C3" s="3" t="str">
+        <v>29-07-2024</v>
+      </c>
+      <c r="D3" s="3" t="str">
+        <v>30-07-2024</v>
+      </c>
+      <c r="E3" s="3" t="str">
+        <v>31-07-2024</v>
+      </c>
+      <c r="F3" s="3" t="str">
+        <v>01-08-2024</v>
+      </c>
+      <c r="G3" s="3" t="str">
+        <v>02-08-2024</v>
+      </c>
+      <c r="H3" s="3" t="str">
+        <v>03-08-2024</v>
+      </c>
+      <c r="I3" s="3" t="str">
+        <v>04-08-2024</v>
+      </c>
+      <c r="J3" s="3" t="str">
         <v>05-08-2024</v>
       </c>
-      <c r="C3" s="3" t="str">
+      <c r="K3" s="3" t="str">
         <v>06-08-2024</v>
       </c>
-      <c r="D3" s="3" t="str">
+      <c r="L3" s="3" t="str">
         <v>07-08-2024</v>
       </c>
-      <c r="E3" s="3" t="str">
+      <c r="M3" s="3" t="str">
         <v>08-08-2024</v>
       </c>
     </row>
@@ -459,15 +539,39 @@
         <v>0-1</v>
       </c>
       <c r="B4" s="4" t="str">
+        <v>495,36</v>
+      </c>
+      <c r="C4" s="4" t="str">
+        <v>317,99</v>
+      </c>
+      <c r="D4" s="4" t="str">
+        <v>433,00</v>
+      </c>
+      <c r="E4" s="4" t="str">
+        <v>473,14</v>
+      </c>
+      <c r="F4" s="4" t="str">
+        <v>450,00</v>
+      </c>
+      <c r="G4" s="4" t="str">
+        <v>465,00</v>
+      </c>
+      <c r="H4" s="4" t="str">
+        <v>490,00</v>
+      </c>
+      <c r="I4" s="4" t="str">
+        <v>442,00</v>
+      </c>
+      <c r="J4" s="4" t="str">
         <v>410,00</v>
       </c>
-      <c r="C4" s="4" t="str">
+      <c r="K4" s="4" t="str">
         <v>512,00</v>
       </c>
-      <c r="D4" s="4" t="str">
+      <c r="L4" s="4" t="str">
         <v>466,80</v>
       </c>
-      <c r="E4" s="4" t="str">
+      <c r="M4" s="4" t="str">
         <v>460,00</v>
       </c>
     </row>
@@ -476,15 +580,39 @@
         <v>1-2</v>
       </c>
       <c r="B5" s="4" t="str">
+        <v>439,80</v>
+      </c>
+      <c r="C5" s="4" t="str">
+        <v>280,00</v>
+      </c>
+      <c r="D5" s="4" t="str">
+        <v>380,00</v>
+      </c>
+      <c r="E5" s="4" t="str">
+        <v>418,00</v>
+      </c>
+      <c r="F5" s="4" t="str">
+        <v>400,00</v>
+      </c>
+      <c r="G5" s="4" t="str">
+        <v>400,00</v>
+      </c>
+      <c r="H5" s="4" t="str">
+        <v>450,00</v>
+      </c>
+      <c r="I5" s="4" t="str">
+        <v>412,45</v>
+      </c>
+      <c r="J5" s="4" t="str">
         <v>394,00</v>
       </c>
-      <c r="C5" s="4" t="str">
+      <c r="K5" s="4" t="str">
         <v>466,44</v>
       </c>
-      <c r="D5" s="4" t="str">
+      <c r="L5" s="4" t="str">
         <v>420,00</v>
       </c>
-      <c r="E5" s="4" t="str">
+      <c r="M5" s="4" t="str">
         <v>400,00</v>
       </c>
     </row>
@@ -493,15 +621,39 @@
         <v>2-3</v>
       </c>
       <c r="B6" s="4" t="str">
+        <v>399,00</v>
+      </c>
+      <c r="C6" s="4" t="str">
+        <v>251,00</v>
+      </c>
+      <c r="D6" s="4" t="str">
+        <v>389,50</v>
+      </c>
+      <c r="E6" s="4" t="str">
+        <v>406,26</v>
+      </c>
+      <c r="F6" s="4" t="str">
         <v>390,00</v>
       </c>
-      <c r="C6" s="4" t="str">
+      <c r="G6" s="4" t="str">
+        <v>392,00</v>
+      </c>
+      <c r="H6" s="4" t="str">
+        <v>424,41</v>
+      </c>
+      <c r="I6" s="4" t="str">
+        <v>384,00</v>
+      </c>
+      <c r="J6" s="4" t="str">
+        <v>390,00</v>
+      </c>
+      <c r="K6" s="4" t="str">
         <v>430,00</v>
       </c>
-      <c r="D6" s="4" t="str">
+      <c r="L6" s="4" t="str">
         <v>392,64</v>
       </c>
-      <c r="E6" s="4" t="str">
+      <c r="M6" s="4" t="str">
         <v>390,00</v>
       </c>
     </row>
@@ -510,15 +662,39 @@
         <v>3-4</v>
       </c>
       <c r="B7" s="4" t="str">
+        <v>400,00</v>
+      </c>
+      <c r="C7" s="4" t="str">
+        <v>250,00</v>
+      </c>
+      <c r="D7" s="4" t="str">
+        <v>376,00</v>
+      </c>
+      <c r="E7" s="4" t="str">
+        <v>407,00</v>
+      </c>
+      <c r="F7" s="4" t="str">
+        <v>390,00</v>
+      </c>
+      <c r="G7" s="4" t="str">
+        <v>388,00</v>
+      </c>
+      <c r="H7" s="4" t="str">
+        <v>436,90</v>
+      </c>
+      <c r="I7" s="4" t="str">
+        <v>375,00</v>
+      </c>
+      <c r="J7" s="4" t="str">
         <v>392,00</v>
       </c>
-      <c r="C7" s="4" t="str">
+      <c r="K7" s="4" t="str">
         <v>440,20</v>
       </c>
-      <c r="D7" s="4" t="str">
+      <c r="L7" s="4" t="str">
         <v>390,00</v>
       </c>
-      <c r="E7" s="4" t="str">
+      <c r="M7" s="4" t="str">
         <v>390,00</v>
       </c>
     </row>
@@ -527,15 +703,39 @@
         <v>4-5</v>
       </c>
       <c r="B8" s="4" t="str">
+        <v>394,00</v>
+      </c>
+      <c r="C8" s="4" t="str">
+        <v>272,00</v>
+      </c>
+      <c r="D8" s="4" t="str">
+        <v>381,08</v>
+      </c>
+      <c r="E8" s="4" t="str">
+        <v>408,00</v>
+      </c>
+      <c r="F8" s="4" t="str">
+        <v>397,20</v>
+      </c>
+      <c r="G8" s="4" t="str">
+        <v>390,00</v>
+      </c>
+      <c r="H8" s="4" t="str">
+        <v>428,00</v>
+      </c>
+      <c r="I8" s="4" t="str">
+        <v>386,00</v>
+      </c>
+      <c r="J8" s="4" t="str">
         <v>392,00</v>
       </c>
-      <c r="C8" s="4" t="str">
+      <c r="K8" s="4" t="str">
         <v>430,00</v>
       </c>
-      <c r="D8" s="4" t="str">
+      <c r="L8" s="4" t="str">
         <v>400,00</v>
       </c>
-      <c r="E8" s="4" t="str">
+      <c r="M8" s="4" t="str">
         <v>398,00</v>
       </c>
     </row>
@@ -544,15 +744,39 @@
         <v>5-6</v>
       </c>
       <c r="B9" s="4" t="str">
+        <v>382,00</v>
+      </c>
+      <c r="C9" s="4" t="str">
+        <v>298,00</v>
+      </c>
+      <c r="D9" s="4" t="str">
+        <v>393,55</v>
+      </c>
+      <c r="E9" s="4" t="str">
+        <v>443,55</v>
+      </c>
+      <c r="F9" s="4" t="str">
+        <v>437,00</v>
+      </c>
+      <c r="G9" s="4" t="str">
+        <v>431,28</v>
+      </c>
+      <c r="H9" s="4" t="str">
+        <v>447,91</v>
+      </c>
+      <c r="I9" s="4" t="str">
+        <v>392,00</v>
+      </c>
+      <c r="J9" s="4" t="str">
         <v>424,10</v>
       </c>
-      <c r="C9" s="4" t="str">
+      <c r="K9" s="4" t="str">
         <v>468,20</v>
       </c>
-      <c r="D9" s="4" t="str">
+      <c r="L9" s="4" t="str">
         <v>448,20</v>
       </c>
-      <c r="E9" s="4" t="str">
+      <c r="M9" s="4" t="str">
         <v>430,40</v>
       </c>
     </row>
@@ -561,15 +785,39 @@
         <v>6-7</v>
       </c>
       <c r="B10" s="4" t="str">
+        <v>412,00</v>
+      </c>
+      <c r="C10" s="4" t="str">
+        <v>406,00</v>
+      </c>
+      <c r="D10" s="4" t="str">
+        <v>509,11</v>
+      </c>
+      <c r="E10" s="4" t="str">
+        <v>550,00</v>
+      </c>
+      <c r="F10" s="4" t="str">
+        <v>530,00</v>
+      </c>
+      <c r="G10" s="4" t="str">
+        <v>542,00</v>
+      </c>
+      <c r="H10" s="4" t="str">
+        <v>480,00</v>
+      </c>
+      <c r="I10" s="4" t="str">
+        <v>396,00</v>
+      </c>
+      <c r="J10" s="4" t="str">
         <v>505,60</v>
       </c>
-      <c r="C10" s="4" t="str">
+      <c r="K10" s="4" t="str">
         <v>528,00</v>
       </c>
-      <c r="D10" s="4" t="str">
+      <c r="L10" s="4" t="str">
         <v>547,00</v>
       </c>
-      <c r="E10" s="4" t="str">
+      <c r="M10" s="4" t="str">
         <v>567,78</v>
       </c>
     </row>
@@ -578,15 +826,39 @@
         <v>7-8</v>
       </c>
       <c r="B11" s="4" t="str">
+        <v>390,00</v>
+      </c>
+      <c r="C11" s="4" t="str">
+        <v>378,00</v>
+      </c>
+      <c r="D11" s="4" t="str">
         <v>506,40</v>
       </c>
-      <c r="C11" s="4" t="str">
+      <c r="E11" s="4" t="str">
+        <v>530,00</v>
+      </c>
+      <c r="F11" s="4" t="str">
+        <v>520,00</v>
+      </c>
+      <c r="G11" s="4" t="str">
+        <v>540,00</v>
+      </c>
+      <c r="H11" s="4" t="str">
+        <v>488,68</v>
+      </c>
+      <c r="I11" s="4" t="str">
+        <v>359,00</v>
+      </c>
+      <c r="J11" s="4" t="str">
+        <v>506,40</v>
+      </c>
+      <c r="K11" s="4" t="str">
         <v>532,00</v>
       </c>
-      <c r="D11" s="4" t="str">
+      <c r="L11" s="4" t="str">
         <v>549,39</v>
       </c>
-      <c r="E11" s="4" t="str">
+      <c r="M11" s="4" t="str">
         <v>570,00</v>
       </c>
     </row>
@@ -595,15 +867,39 @@
         <v>8-9</v>
       </c>
       <c r="B12" s="4" t="str">
+        <v>361,04</v>
+      </c>
+      <c r="C12" s="4" t="str">
+        <v>299,00</v>
+      </c>
+      <c r="D12" s="4" t="str">
+        <v>416,30</v>
+      </c>
+      <c r="E12" s="4" t="str">
+        <v>420,00</v>
+      </c>
+      <c r="F12" s="4" t="str">
+        <v>432,41</v>
+      </c>
+      <c r="G12" s="4" t="str">
+        <v>488,50</v>
+      </c>
+      <c r="H12" s="4" t="str">
+        <v>524,27</v>
+      </c>
+      <c r="I12" s="4" t="str">
+        <v>259,99</v>
+      </c>
+      <c r="J12" s="4" t="str">
         <v>470,00</v>
       </c>
-      <c r="C12" s="4" t="str">
+      <c r="K12" s="4" t="str">
         <v>488,10</v>
       </c>
-      <c r="D12" s="4" t="str">
+      <c r="L12" s="4" t="str">
         <v>470,00</v>
       </c>
-      <c r="E12" s="4" t="str">
+      <c r="M12" s="4" t="str">
         <v>512,97</v>
       </c>
     </row>
@@ -612,15 +908,39 @@
         <v>9-10</v>
       </c>
       <c r="B13" s="4" t="str">
+        <v>269,99</v>
+      </c>
+      <c r="C13" s="4" t="str">
+        <v>137,99</v>
+      </c>
+      <c r="D13" s="4" t="str">
+        <v>283,99</v>
+      </c>
+      <c r="E13" s="4" t="str">
+        <v>303,99</v>
+      </c>
+      <c r="F13" s="4" t="str">
+        <v>355,57</v>
+      </c>
+      <c r="G13" s="4" t="str">
+        <v>450,00</v>
+      </c>
+      <c r="H13" s="4" t="str">
+        <v>406,00</v>
+      </c>
+      <c r="I13" s="4" t="str">
+        <v>101,00</v>
+      </c>
+      <c r="J13" s="4" t="str">
         <v>421,00</v>
       </c>
-      <c r="C13" s="4" t="str">
+      <c r="K13" s="4" t="str">
         <v>375,12</v>
       </c>
-      <c r="D13" s="4" t="str">
+      <c r="L13" s="4" t="str">
         <v>352,67</v>
       </c>
-      <c r="E13" s="4" t="str">
+      <c r="M13" s="4" t="str">
         <v>458,75</v>
       </c>
     </row>
@@ -629,15 +949,39 @@
         <v>10-11</v>
       </c>
       <c r="B14" s="4" t="str">
+        <v>100,00</v>
+      </c>
+      <c r="C14" s="4" t="str">
+        <v>0,00</v>
+      </c>
+      <c r="D14" s="4" t="str">
+        <v>180,11</v>
+      </c>
+      <c r="E14" s="4" t="str">
+        <v>198,12</v>
+      </c>
+      <c r="F14" s="4" t="str">
+        <v>288,00</v>
+      </c>
+      <c r="G14" s="4" t="str">
+        <v>404,00</v>
+      </c>
+      <c r="H14" s="4" t="str">
+        <v>388,80</v>
+      </c>
+      <c r="I14" s="4" t="str">
+        <v>30,00</v>
+      </c>
+      <c r="J14" s="4" t="str">
         <v>380,00</v>
       </c>
-      <c r="C14" s="4" t="str">
+      <c r="K14" s="4" t="str">
         <v>329,99</v>
       </c>
-      <c r="D14" s="4" t="str">
+      <c r="L14" s="4" t="str">
         <v>261,00</v>
       </c>
-      <c r="E14" s="4" t="str">
+      <c r="M14" s="4" t="str">
         <v>400,00</v>
       </c>
     </row>
@@ -646,15 +990,39 @@
         <v>11-12</v>
       </c>
       <c r="B15" s="4" t="str">
+        <v>0,00</v>
+      </c>
+      <c r="C15" s="4" t="str">
+        <v>-31,00</v>
+      </c>
+      <c r="D15" s="4" t="str">
+        <v>90,11</v>
+      </c>
+      <c r="E15" s="4" t="str">
+        <v>105,95</v>
+      </c>
+      <c r="F15" s="4" t="str">
+        <v>263,40</v>
+      </c>
+      <c r="G15" s="4" t="str">
+        <v>390,34</v>
+      </c>
+      <c r="H15" s="4" t="str">
+        <v>377,76</v>
+      </c>
+      <c r="I15" s="4" t="str">
+        <v>45,99</v>
+      </c>
+      <c r="J15" s="4" t="str">
         <v>349,89</v>
       </c>
-      <c r="C15" s="4" t="str">
+      <c r="K15" s="4" t="str">
         <v>307,99</v>
       </c>
-      <c r="D15" s="4" t="str">
+      <c r="L15" s="4" t="str">
         <v>220,00</v>
       </c>
-      <c r="E15" s="4" t="str">
+      <c r="M15" s="4" t="str">
         <v>394,30</v>
       </c>
     </row>
@@ -663,15 +1031,39 @@
         <v>12-13</v>
       </c>
       <c r="B16" s="4" t="str">
+        <v>-30,01</v>
+      </c>
+      <c r="C16" s="4" t="str">
+        <v>-55,00</v>
+      </c>
+      <c r="D16" s="4" t="str">
+        <v>30,00</v>
+      </c>
+      <c r="E16" s="4" t="str">
+        <v>70,00</v>
+      </c>
+      <c r="F16" s="4" t="str">
+        <v>235,90</v>
+      </c>
+      <c r="G16" s="4" t="str">
+        <v>387,59</v>
+      </c>
+      <c r="H16" s="4" t="str">
+        <v>361,40</v>
+      </c>
+      <c r="I16" s="4" t="str">
+        <v>79,99</v>
+      </c>
+      <c r="J16" s="4" t="str">
         <v>330,00</v>
       </c>
-      <c r="C16" s="4" t="str">
+      <c r="K16" s="4" t="str">
         <v>310,00</v>
       </c>
-      <c r="D16" s="4" t="str">
+      <c r="L16" s="4" t="str">
         <v>150,00</v>
       </c>
-      <c r="E16" s="4" t="str">
+      <c r="M16" s="4" t="str">
         <v>390,00</v>
       </c>
     </row>
@@ -680,15 +1072,39 @@
         <v>13-14</v>
       </c>
       <c r="B17" s="4" t="str">
+        <v>-71,01</v>
+      </c>
+      <c r="C17" s="4" t="str">
+        <v>-54,01</v>
+      </c>
+      <c r="D17" s="4" t="str">
+        <v>10,11</v>
+      </c>
+      <c r="E17" s="4" t="str">
+        <v>70,00</v>
+      </c>
+      <c r="F17" s="4" t="str">
+        <v>241,99</v>
+      </c>
+      <c r="G17" s="4" t="str">
+        <v>394,00</v>
+      </c>
+      <c r="H17" s="4" t="str">
+        <v>326,70</v>
+      </c>
+      <c r="I17" s="4" t="str">
+        <v>199,89</v>
+      </c>
+      <c r="J17" s="4" t="str">
         <v>311,99</v>
       </c>
-      <c r="C17" s="4" t="str">
+      <c r="K17" s="4" t="str">
         <v>313,12</v>
       </c>
-      <c r="D17" s="4" t="str">
+      <c r="L17" s="4" t="str">
         <v>150,00</v>
       </c>
-      <c r="E17" s="4" t="str">
+      <c r="M17" s="4" t="str">
         <v>396,00</v>
       </c>
     </row>
@@ -697,15 +1113,39 @@
         <v>14-15</v>
       </c>
       <c r="B18" s="4" t="str">
+        <v>-190,00</v>
+      </c>
+      <c r="C18" s="4" t="str">
+        <v>-30,01</v>
+      </c>
+      <c r="D18" s="4" t="str">
+        <v>21,40</v>
+      </c>
+      <c r="E18" s="4" t="str">
+        <v>100,00</v>
+      </c>
+      <c r="F18" s="4" t="str">
+        <v>233,99</v>
+      </c>
+      <c r="G18" s="4" t="str">
+        <v>406,00</v>
+      </c>
+      <c r="H18" s="4" t="str">
+        <v>300,00</v>
+      </c>
+      <c r="I18" s="4" t="str">
+        <v>217,99</v>
+      </c>
+      <c r="J18" s="4" t="str">
         <v>305,99</v>
       </c>
-      <c r="C18" s="4" t="str">
+      <c r="K18" s="4" t="str">
         <v>321,99</v>
       </c>
-      <c r="D18" s="4" t="str">
+      <c r="L18" s="4" t="str">
         <v>186,75</v>
       </c>
-      <c r="E18" s="4" t="str">
+      <c r="M18" s="4" t="str">
         <v>388,05</v>
       </c>
     </row>
@@ -714,15 +1154,39 @@
         <v>15-16</v>
       </c>
       <c r="B19" s="4" t="str">
+        <v>-176,00</v>
+      </c>
+      <c r="C19" s="4" t="str">
+        <v>0,01</v>
+      </c>
+      <c r="D19" s="4" t="str">
+        <v>165,00</v>
+      </c>
+      <c r="E19" s="4" t="str">
+        <v>239,99</v>
+      </c>
+      <c r="F19" s="4" t="str">
+        <v>295,67</v>
+      </c>
+      <c r="G19" s="4" t="str">
+        <v>482,86</v>
+      </c>
+      <c r="H19" s="4" t="str">
+        <v>340,00</v>
+      </c>
+      <c r="I19" s="4" t="str">
+        <v>330,27</v>
+      </c>
+      <c r="J19" s="4" t="str">
         <v>347,99</v>
       </c>
-      <c r="C19" s="4" t="str">
+      <c r="K19" s="4" t="str">
         <v>359,99</v>
       </c>
-      <c r="D19" s="4" t="str">
+      <c r="L19" s="4" t="str">
         <v>279,99</v>
       </c>
-      <c r="E19" s="4" t="str">
+      <c r="M19" s="4" t="str">
         <v>390,83</v>
       </c>
     </row>
@@ -731,15 +1195,39 @@
         <v>16-17</v>
       </c>
       <c r="B20" s="4" t="str">
+        <v>-111,00</v>
+      </c>
+      <c r="C20" s="4" t="str">
+        <v>90,00</v>
+      </c>
+      <c r="D20" s="4" t="str">
+        <v>315,99</v>
+      </c>
+      <c r="E20" s="4" t="str">
+        <v>370,60</v>
+      </c>
+      <c r="F20" s="4" t="str">
+        <v>385,69</v>
+      </c>
+      <c r="G20" s="4" t="str">
+        <v>482,86</v>
+      </c>
+      <c r="H20" s="4" t="str">
+        <v>399,99</v>
+      </c>
+      <c r="I20" s="4" t="str">
+        <v>386,00</v>
+      </c>
+      <c r="J20" s="4" t="str">
         <v>380,00</v>
       </c>
-      <c r="C20" s="4" t="str">
+      <c r="K20" s="4" t="str">
         <v>412,00</v>
       </c>
-      <c r="D20" s="4" t="str">
+      <c r="L20" s="4" t="str">
         <v>364,48</v>
       </c>
-      <c r="E20" s="4" t="str">
+      <c r="M20" s="4" t="str">
         <v>420,00</v>
       </c>
     </row>
@@ -748,15 +1236,39 @@
         <v>17-18</v>
       </c>
       <c r="B21" s="4" t="str">
+        <v>-15,00</v>
+      </c>
+      <c r="C21" s="4" t="str">
+        <v>281,99</v>
+      </c>
+      <c r="D21" s="4" t="str">
+        <v>380,60</v>
+      </c>
+      <c r="E21" s="4" t="str">
+        <v>379,00</v>
+      </c>
+      <c r="F21" s="4" t="str">
+        <v>444,97</v>
+      </c>
+      <c r="G21" s="4" t="str">
+        <v>469,00</v>
+      </c>
+      <c r="H21" s="4" t="str">
+        <v>492,90</v>
+      </c>
+      <c r="I21" s="4" t="str">
+        <v>482,00</v>
+      </c>
+      <c r="J21" s="4" t="str">
         <v>408,51</v>
       </c>
-      <c r="C21" s="4" t="str">
+      <c r="K21" s="4" t="str">
         <v>482,00</v>
       </c>
-      <c r="D21" s="4" t="str">
+      <c r="L21" s="4" t="str">
         <v>430,00</v>
       </c>
-      <c r="E21" s="4" t="str">
+      <c r="M21" s="4" t="str">
         <v>480,00</v>
       </c>
     </row>
@@ -765,15 +1277,39 @@
         <v>18-19</v>
       </c>
       <c r="B22" s="4" t="str">
+        <v>159,30</v>
+      </c>
+      <c r="C22" s="4" t="str">
+        <v>380,00</v>
+      </c>
+      <c r="D22" s="4" t="str">
+        <v>481,00</v>
+      </c>
+      <c r="E22" s="4" t="str">
+        <v>499,40</v>
+      </c>
+      <c r="F22" s="4" t="str">
+        <v>503,60</v>
+      </c>
+      <c r="G22" s="4" t="str">
+        <v>549,00</v>
+      </c>
+      <c r="H22" s="4" t="str">
         <v>490,00</v>
       </c>
-      <c r="C22" s="4" t="str">
+      <c r="I22" s="4" t="str">
+        <v>465,00</v>
+      </c>
+      <c r="J22" s="4" t="str">
+        <v>490,00</v>
+      </c>
+      <c r="K22" s="4" t="str">
         <v>526,00</v>
       </c>
-      <c r="D22" s="4" t="str">
+      <c r="L22" s="4" t="str">
         <v>540,00</v>
       </c>
-      <c r="E22" s="4" t="str">
+      <c r="M22" s="4" t="str">
         <v>589,00</v>
       </c>
     </row>
@@ -782,15 +1318,39 @@
         <v>19-20</v>
       </c>
       <c r="B23" s="4" t="str">
+        <v>343,40</v>
+      </c>
+      <c r="C23" s="4" t="str">
+        <v>558,00</v>
+      </c>
+      <c r="D23" s="4" t="str">
+        <v>682,00</v>
+      </c>
+      <c r="E23" s="4" t="str">
+        <v>632,00</v>
+      </c>
+      <c r="F23" s="4" t="str">
+        <v>612,00</v>
+      </c>
+      <c r="G23" s="4" t="str">
+        <v>600,00</v>
+      </c>
+      <c r="H23" s="4" t="str">
+        <v>560,00</v>
+      </c>
+      <c r="I23" s="4" t="str">
+        <v>489,00</v>
+      </c>
+      <c r="J23" s="4" t="str">
         <v>599,89</v>
       </c>
-      <c r="C23" s="4" t="str">
+      <c r="K23" s="4" t="str">
         <v>718,87</v>
       </c>
-      <c r="D23" s="4" t="str">
+      <c r="L23" s="4" t="str">
         <v>700,00</v>
       </c>
-      <c r="E23" s="4" t="str">
+      <c r="M23" s="4" t="str">
         <v>690,00</v>
       </c>
     </row>
@@ -799,15 +1359,39 @@
         <v>20-21</v>
       </c>
       <c r="B24" s="4" t="str">
+        <v>420,80</v>
+      </c>
+      <c r="C24" s="4" t="str">
+        <v>680,00</v>
+      </c>
+      <c r="D24" s="4" t="str">
+        <v>853,40</v>
+      </c>
+      <c r="E24" s="4" t="str">
+        <v>825,00</v>
+      </c>
+      <c r="F24" s="4" t="str">
+        <v>738,99</v>
+      </c>
+      <c r="G24" s="4" t="str">
+        <v>670,00</v>
+      </c>
+      <c r="H24" s="4" t="str">
+        <v>600,00</v>
+      </c>
+      <c r="I24" s="4" t="str">
+        <v>537,44</v>
+      </c>
+      <c r="J24" s="4" t="str">
         <v>750,00</v>
       </c>
-      <c r="C24" s="4" t="str">
+      <c r="K24" s="4" t="str">
         <v>949,00</v>
       </c>
-      <c r="D24" s="4" t="str">
+      <c r="L24" s="4" t="str">
         <v>800,00</v>
       </c>
-      <c r="E24" s="4" t="str">
+      <c r="M24" s="4" t="str">
         <v>879,00</v>
       </c>
     </row>
@@ -816,15 +1400,39 @@
         <v>21-22</v>
       </c>
       <c r="B25" s="4" t="str">
+        <v>445,80</v>
+      </c>
+      <c r="C25" s="4" t="str">
+        <v>625,00</v>
+      </c>
+      <c r="D25" s="4" t="str">
+        <v>720,00</v>
+      </c>
+      <c r="E25" s="4" t="str">
+        <v>634,00</v>
+      </c>
+      <c r="F25" s="4" t="str">
+        <v>585,00</v>
+      </c>
+      <c r="G25" s="4" t="str">
+        <v>553,90</v>
+      </c>
+      <c r="H25" s="4" t="str">
+        <v>586,61</v>
+      </c>
+      <c r="I25" s="4" t="str">
+        <v>512,20</v>
+      </c>
+      <c r="J25" s="4" t="str">
         <v>638,80</v>
       </c>
-      <c r="C25" s="4" t="str">
+      <c r="K25" s="4" t="str">
         <v>697,00</v>
       </c>
-      <c r="D25" s="4" t="str">
+      <c r="L25" s="4" t="str">
         <v>659,00</v>
       </c>
-      <c r="E25" s="4" t="str">
+      <c r="M25" s="4" t="str">
         <v>692,90</v>
       </c>
     </row>
@@ -833,15 +1441,39 @@
         <v>22-23</v>
       </c>
       <c r="B26" s="4" t="str">
+        <v>390,00</v>
+      </c>
+      <c r="C26" s="4" t="str">
+        <v>496,00</v>
+      </c>
+      <c r="D26" s="4" t="str">
+        <v>549,00</v>
+      </c>
+      <c r="E26" s="4" t="str">
+        <v>520,00</v>
+      </c>
+      <c r="F26" s="4" t="str">
+        <v>537,00</v>
+      </c>
+      <c r="G26" s="4" t="str">
+        <v>513,70</v>
+      </c>
+      <c r="H26" s="4" t="str">
+        <v>514,80</v>
+      </c>
+      <c r="I26" s="4" t="str">
+        <v>473,61</v>
+      </c>
+      <c r="J26" s="4" t="str">
         <v>545,00</v>
       </c>
-      <c r="C26" s="4" t="str">
+      <c r="K26" s="4" t="str">
         <v>569,00</v>
       </c>
-      <c r="D26" s="4" t="str">
+      <c r="L26" s="4" t="str">
         <v>532,00</v>
       </c>
-      <c r="E26" s="4" t="str">
+      <c r="M26" s="4" t="str">
         <v>569,31</v>
       </c>
     </row>
@@ -850,15 +1482,39 @@
         <v>23-24</v>
       </c>
       <c r="B27" s="4" t="str">
+        <v>338,80</v>
+      </c>
+      <c r="C27" s="4" t="str">
+        <v>428,90</v>
+      </c>
+      <c r="D27" s="4" t="str">
+        <v>458,00</v>
+      </c>
+      <c r="E27" s="4" t="str">
+        <v>443,80</v>
+      </c>
+      <c r="F27" s="4" t="str">
+        <v>450,00</v>
+      </c>
+      <c r="G27" s="4" t="str">
+        <v>449,00</v>
+      </c>
+      <c r="H27" s="4" t="str">
+        <v>441,87</v>
+      </c>
+      <c r="I27" s="4" t="str">
+        <v>437,39</v>
+      </c>
+      <c r="J27" s="4" t="str">
         <v>463,00</v>
       </c>
-      <c r="C27" s="4" t="str">
+      <c r="K27" s="4" t="str">
         <v>486,50</v>
       </c>
-      <c r="D27" s="4" t="str">
+      <c r="L27" s="4" t="str">
         <v>447,00</v>
       </c>
-      <c r="E27" s="4" t="str">
+      <c r="M27" s="4" t="str">
         <v>455,00</v>
       </c>
     </row>

--- a/tabela.xlsx
+++ b/tabela.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M27"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -409,12 +409,6 @@
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -436,24 +430,6 @@
       <c r="F1" s="4" t="str">
         <v/>
       </c>
-      <c r="G1" s="4" t="str">
-        <v/>
-      </c>
-      <c r="H1" s="4" t="str">
-        <v/>
-      </c>
-      <c r="I1" s="4" t="str">
-        <v/>
-      </c>
-      <c r="J1" s="4" t="str">
-        <v/>
-      </c>
-      <c r="K1" s="4" t="str">
-        <v/>
-      </c>
-      <c r="L1" s="4" t="str">
-        <v/>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="3" t="str">
@@ -474,64 +450,28 @@
       <c r="F2" s="4" t="str">
         <v/>
       </c>
-      <c r="G2" s="4" t="str">
-        <v/>
-      </c>
-      <c r="H2" s="4" t="str">
-        <v/>
-      </c>
-      <c r="I2" s="4" t="str">
-        <v/>
-      </c>
-      <c r="J2" s="4" t="str">
-        <v/>
-      </c>
-      <c r="K2" s="4" t="str">
-        <v/>
-      </c>
-      <c r="L2" s="4" t="str">
-        <v/>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="str">
         <v/>
       </c>
       <c r="B3" s="3" t="str">
-        <v>28-07-2024</v>
+        <v>21-09-2024</v>
       </c>
       <c r="C3" s="3" t="str">
-        <v>29-07-2024</v>
+        <v>22-09-2024</v>
       </c>
       <c r="D3" s="3" t="str">
-        <v>30-07-2024</v>
+        <v>23-09-2024</v>
       </c>
       <c r="E3" s="3" t="str">
-        <v>31-07-2024</v>
+        <v>24-09-2024</v>
       </c>
       <c r="F3" s="3" t="str">
-        <v>01-08-2024</v>
+        <v>25-09-2024</v>
       </c>
       <c r="G3" s="3" t="str">
-        <v>02-08-2024</v>
-      </c>
-      <c r="H3" s="3" t="str">
-        <v>03-08-2024</v>
-      </c>
-      <c r="I3" s="3" t="str">
-        <v>04-08-2024</v>
-      </c>
-      <c r="J3" s="3" t="str">
-        <v>05-08-2024</v>
-      </c>
-      <c r="K3" s="3" t="str">
-        <v>06-08-2024</v>
-      </c>
-      <c r="L3" s="3" t="str">
-        <v>07-08-2024</v>
-      </c>
-      <c r="M3" s="3" t="str">
-        <v>08-08-2024</v>
+        <v>26-09-2024</v>
       </c>
     </row>
     <row r="4">
@@ -539,40 +479,22 @@
         <v>0-1</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>495,36</v>
+        <v>410,00</v>
       </c>
       <c r="C4" s="4" t="str">
-        <v>317,99</v>
+        <v>420,00</v>
       </c>
       <c r="D4" s="4" t="str">
-        <v>433,00</v>
+        <v>410,00</v>
       </c>
       <c r="E4" s="4" t="str">
-        <v>473,14</v>
+        <v>395,02</v>
       </c>
       <c r="F4" s="4" t="str">
-        <v>450,00</v>
+        <v>245,86</v>
       </c>
       <c r="G4" s="4" t="str">
-        <v>465,00</v>
-      </c>
-      <c r="H4" s="4" t="str">
-        <v>490,00</v>
-      </c>
-      <c r="I4" s="4" t="str">
-        <v>442,00</v>
-      </c>
-      <c r="J4" s="4" t="str">
-        <v>410,00</v>
-      </c>
-      <c r="K4" s="4" t="str">
-        <v>512,00</v>
-      </c>
-      <c r="L4" s="4" t="str">
-        <v>466,80</v>
-      </c>
-      <c r="M4" s="4" t="str">
-        <v>460,00</v>
+        <v>338,95</v>
       </c>
     </row>
     <row r="5">
@@ -580,40 +502,22 @@
         <v>1-2</v>
       </c>
       <c r="B5" s="4" t="str">
-        <v>439,80</v>
+        <v>388,00</v>
       </c>
       <c r="C5" s="4" t="str">
-        <v>280,00</v>
+        <v>391,00</v>
       </c>
       <c r="D5" s="4" t="str">
-        <v>380,00</v>
+        <v>398,20</v>
       </c>
       <c r="E5" s="4" t="str">
-        <v>418,00</v>
+        <v>371,85</v>
       </c>
       <c r="F5" s="4" t="str">
-        <v>400,00</v>
+        <v>203,34</v>
       </c>
       <c r="G5" s="4" t="str">
-        <v>400,00</v>
-      </c>
-      <c r="H5" s="4" t="str">
-        <v>450,00</v>
-      </c>
-      <c r="I5" s="4" t="str">
-        <v>412,45</v>
-      </c>
-      <c r="J5" s="4" t="str">
-        <v>394,00</v>
-      </c>
-      <c r="K5" s="4" t="str">
-        <v>466,44</v>
-      </c>
-      <c r="L5" s="4" t="str">
-        <v>420,00</v>
-      </c>
-      <c r="M5" s="4" t="str">
-        <v>400,00</v>
+        <v>291,48</v>
       </c>
     </row>
     <row r="6">
@@ -621,40 +525,22 @@
         <v>2-3</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v>399,00</v>
+        <v>380,00</v>
       </c>
       <c r="C6" s="4" t="str">
-        <v>251,00</v>
+        <v>370,85</v>
       </c>
       <c r="D6" s="4" t="str">
-        <v>389,50</v>
+        <v>380,00</v>
       </c>
       <c r="E6" s="4" t="str">
-        <v>406,26</v>
+        <v>365,00</v>
       </c>
       <c r="F6" s="4" t="str">
-        <v>390,00</v>
+        <v>176,52</v>
       </c>
       <c r="G6" s="4" t="str">
-        <v>392,00</v>
-      </c>
-      <c r="H6" s="4" t="str">
-        <v>424,41</v>
-      </c>
-      <c r="I6" s="4" t="str">
-        <v>384,00</v>
-      </c>
-      <c r="J6" s="4" t="str">
-        <v>390,00</v>
-      </c>
-      <c r="K6" s="4" t="str">
-        <v>430,00</v>
-      </c>
-      <c r="L6" s="4" t="str">
-        <v>392,64</v>
-      </c>
-      <c r="M6" s="4" t="str">
-        <v>390,00</v>
+        <v>277,99</v>
       </c>
     </row>
     <row r="7">
@@ -662,40 +548,22 @@
         <v>3-4</v>
       </c>
       <c r="B7" s="4" t="str">
-        <v>400,00</v>
+        <v>388,50</v>
       </c>
       <c r="C7" s="4" t="str">
-        <v>250,00</v>
+        <v>372,00</v>
       </c>
       <c r="D7" s="4" t="str">
-        <v>376,00</v>
+        <v>380,00</v>
       </c>
       <c r="E7" s="4" t="str">
-        <v>407,00</v>
+        <v>370,00</v>
       </c>
       <c r="F7" s="4" t="str">
-        <v>390,00</v>
+        <v>175,07</v>
       </c>
       <c r="G7" s="4" t="str">
-        <v>388,00</v>
-      </c>
-      <c r="H7" s="4" t="str">
-        <v>436,90</v>
-      </c>
-      <c r="I7" s="4" t="str">
-        <v>375,00</v>
-      </c>
-      <c r="J7" s="4" t="str">
-        <v>392,00</v>
-      </c>
-      <c r="K7" s="4" t="str">
-        <v>440,20</v>
-      </c>
-      <c r="L7" s="4" t="str">
-        <v>390,00</v>
-      </c>
-      <c r="M7" s="4" t="str">
-        <v>390,00</v>
+        <v>283,99</v>
       </c>
     </row>
     <row r="8">
@@ -703,40 +571,22 @@
         <v>4-5</v>
       </c>
       <c r="B8" s="4" t="str">
-        <v>394,00</v>
+        <v>385,17</v>
       </c>
       <c r="C8" s="4" t="str">
-        <v>272,00</v>
+        <v>375,00</v>
       </c>
       <c r="D8" s="4" t="str">
-        <v>381,08</v>
+        <v>393,00</v>
       </c>
       <c r="E8" s="4" t="str">
-        <v>408,00</v>
+        <v>372,41</v>
       </c>
       <c r="F8" s="4" t="str">
-        <v>397,20</v>
+        <v>246,59</v>
       </c>
       <c r="G8" s="4" t="str">
-        <v>390,00</v>
-      </c>
-      <c r="H8" s="4" t="str">
-        <v>428,00</v>
-      </c>
-      <c r="I8" s="4" t="str">
-        <v>386,00</v>
-      </c>
-      <c r="J8" s="4" t="str">
-        <v>392,00</v>
-      </c>
-      <c r="K8" s="4" t="str">
-        <v>430,00</v>
-      </c>
-      <c r="L8" s="4" t="str">
-        <v>400,00</v>
-      </c>
-      <c r="M8" s="4" t="str">
-        <v>398,00</v>
+        <v>290,00</v>
       </c>
     </row>
     <row r="9">
@@ -744,40 +594,22 @@
         <v>5-6</v>
       </c>
       <c r="B9" s="4" t="str">
-        <v>382,00</v>
+        <v>399,00</v>
       </c>
       <c r="C9" s="4" t="str">
-        <v>298,00</v>
+        <v>389,00</v>
       </c>
       <c r="D9" s="4" t="str">
-        <v>393,55</v>
+        <v>430,00</v>
       </c>
       <c r="E9" s="4" t="str">
-        <v>443,55</v>
+        <v>410,00</v>
       </c>
       <c r="F9" s="4" t="str">
-        <v>437,00</v>
+        <v>324,70</v>
       </c>
       <c r="G9" s="4" t="str">
-        <v>431,28</v>
-      </c>
-      <c r="H9" s="4" t="str">
-        <v>447,91</v>
-      </c>
-      <c r="I9" s="4" t="str">
-        <v>392,00</v>
-      </c>
-      <c r="J9" s="4" t="str">
-        <v>424,10</v>
-      </c>
-      <c r="K9" s="4" t="str">
-        <v>468,20</v>
-      </c>
-      <c r="L9" s="4" t="str">
-        <v>448,20</v>
-      </c>
-      <c r="M9" s="4" t="str">
-        <v>430,40</v>
+        <v>360,00</v>
       </c>
     </row>
     <row r="10">
@@ -785,40 +617,22 @@
         <v>6-7</v>
       </c>
       <c r="B10" s="4" t="str">
-        <v>412,00</v>
+        <v>450,19</v>
       </c>
       <c r="C10" s="4" t="str">
-        <v>406,00</v>
+        <v>390,27</v>
       </c>
       <c r="D10" s="4" t="str">
-        <v>509,11</v>
+        <v>680,00</v>
       </c>
       <c r="E10" s="4" t="str">
         <v>550,00</v>
       </c>
       <c r="F10" s="4" t="str">
-        <v>530,00</v>
+        <v>448,00</v>
       </c>
       <c r="G10" s="4" t="str">
-        <v>542,00</v>
-      </c>
-      <c r="H10" s="4" t="str">
-        <v>480,00</v>
-      </c>
-      <c r="I10" s="4" t="str">
-        <v>396,00</v>
-      </c>
-      <c r="J10" s="4" t="str">
-        <v>505,60</v>
-      </c>
-      <c r="K10" s="4" t="str">
-        <v>528,00</v>
-      </c>
-      <c r="L10" s="4" t="str">
-        <v>547,00</v>
-      </c>
-      <c r="M10" s="4" t="str">
-        <v>567,78</v>
+        <v>433,00</v>
       </c>
     </row>
     <row r="11">
@@ -826,40 +640,22 @@
         <v>7-8</v>
       </c>
       <c r="B11" s="4" t="str">
-        <v>390,00</v>
+        <v>490,00</v>
       </c>
       <c r="C11" s="4" t="str">
-        <v>378,00</v>
+        <v>400,00</v>
       </c>
       <c r="D11" s="4" t="str">
-        <v>506,40</v>
+        <v>769,00</v>
       </c>
       <c r="E11" s="4" t="str">
-        <v>530,00</v>
+        <v>680,00</v>
       </c>
       <c r="F11" s="4" t="str">
-        <v>520,00</v>
+        <v>458,90</v>
       </c>
       <c r="G11" s="4" t="str">
-        <v>540,00</v>
-      </c>
-      <c r="H11" s="4" t="str">
-        <v>488,68</v>
-      </c>
-      <c r="I11" s="4" t="str">
-        <v>359,00</v>
-      </c>
-      <c r="J11" s="4" t="str">
-        <v>506,40</v>
-      </c>
-      <c r="K11" s="4" t="str">
-        <v>532,00</v>
-      </c>
-      <c r="L11" s="4" t="str">
-        <v>549,39</v>
-      </c>
-      <c r="M11" s="4" t="str">
-        <v>570,00</v>
+        <v>435,20</v>
       </c>
     </row>
     <row r="12">
@@ -867,40 +663,22 @@
         <v>8-9</v>
       </c>
       <c r="B12" s="4" t="str">
-        <v>361,04</v>
+        <v>480,00</v>
       </c>
       <c r="C12" s="4" t="str">
-        <v>299,00</v>
+        <v>329,99</v>
       </c>
       <c r="D12" s="4" t="str">
-        <v>416,30</v>
+        <v>600,00</v>
       </c>
       <c r="E12" s="4" t="str">
-        <v>420,00</v>
+        <v>538,00</v>
       </c>
       <c r="F12" s="4" t="str">
-        <v>432,41</v>
+        <v>419,60</v>
       </c>
       <c r="G12" s="4" t="str">
-        <v>488,50</v>
-      </c>
-      <c r="H12" s="4" t="str">
-        <v>524,27</v>
-      </c>
-      <c r="I12" s="4" t="str">
-        <v>259,99</v>
-      </c>
-      <c r="J12" s="4" t="str">
-        <v>470,00</v>
-      </c>
-      <c r="K12" s="4" t="str">
-        <v>488,10</v>
-      </c>
-      <c r="L12" s="4" t="str">
-        <v>470,00</v>
-      </c>
-      <c r="M12" s="4" t="str">
-        <v>512,97</v>
+        <v>377,66</v>
       </c>
     </row>
     <row r="13">
@@ -908,40 +686,22 @@
         <v>9-10</v>
       </c>
       <c r="B13" s="4" t="str">
-        <v>269,99</v>
+        <v>303,80</v>
       </c>
       <c r="C13" s="4" t="str">
-        <v>137,99</v>
+        <v>218,24</v>
       </c>
       <c r="D13" s="4" t="str">
-        <v>283,99</v>
+        <v>467,00</v>
       </c>
       <c r="E13" s="4" t="str">
-        <v>303,99</v>
+        <v>436,60</v>
       </c>
       <c r="F13" s="4" t="str">
-        <v>355,57</v>
+        <v>327,99</v>
       </c>
       <c r="G13" s="4" t="str">
-        <v>450,00</v>
-      </c>
-      <c r="H13" s="4" t="str">
-        <v>406,00</v>
-      </c>
-      <c r="I13" s="4" t="str">
-        <v>101,00</v>
-      </c>
-      <c r="J13" s="4" t="str">
-        <v>421,00</v>
-      </c>
-      <c r="K13" s="4" t="str">
-        <v>375,12</v>
-      </c>
-      <c r="L13" s="4" t="str">
-        <v>352,67</v>
-      </c>
-      <c r="M13" s="4" t="str">
-        <v>458,75</v>
+        <v>315,99</v>
       </c>
     </row>
     <row r="14">
@@ -949,40 +709,22 @@
         <v>10-11</v>
       </c>
       <c r="B14" s="4" t="str">
-        <v>100,00</v>
+        <v>133,00</v>
       </c>
       <c r="C14" s="4" t="str">
-        <v>0,00</v>
+        <v>40,00</v>
       </c>
       <c r="D14" s="4" t="str">
-        <v>180,11</v>
+        <v>384,00</v>
       </c>
       <c r="E14" s="4" t="str">
-        <v>198,12</v>
+        <v>354,83</v>
       </c>
       <c r="F14" s="4" t="str">
-        <v>288,00</v>
+        <v>199,99</v>
       </c>
       <c r="G14" s="4" t="str">
-        <v>404,00</v>
-      </c>
-      <c r="H14" s="4" t="str">
-        <v>388,80</v>
-      </c>
-      <c r="I14" s="4" t="str">
-        <v>30,00</v>
-      </c>
-      <c r="J14" s="4" t="str">
-        <v>380,00</v>
-      </c>
-      <c r="K14" s="4" t="str">
-        <v>329,99</v>
-      </c>
-      <c r="L14" s="4" t="str">
-        <v>261,00</v>
-      </c>
-      <c r="M14" s="4" t="str">
-        <v>400,00</v>
+        <v>262,70</v>
       </c>
     </row>
     <row r="15">
@@ -990,40 +732,22 @@
         <v>11-12</v>
       </c>
       <c r="B15" s="4" t="str">
-        <v>0,00</v>
+        <v>1,00</v>
       </c>
       <c r="C15" s="4" t="str">
-        <v>-31,00</v>
+        <v>-9,59</v>
       </c>
       <c r="D15" s="4" t="str">
-        <v>90,11</v>
+        <v>350,00</v>
       </c>
       <c r="E15" s="4" t="str">
-        <v>105,95</v>
+        <v>276,40</v>
       </c>
       <c r="F15" s="4" t="str">
-        <v>263,40</v>
+        <v>108,74</v>
       </c>
       <c r="G15" s="4" t="str">
-        <v>390,34</v>
-      </c>
-      <c r="H15" s="4" t="str">
-        <v>377,76</v>
-      </c>
-      <c r="I15" s="4" t="str">
-        <v>45,99</v>
-      </c>
-      <c r="J15" s="4" t="str">
-        <v>349,89</v>
-      </c>
-      <c r="K15" s="4" t="str">
-        <v>307,99</v>
-      </c>
-      <c r="L15" s="4" t="str">
-        <v>220,00</v>
-      </c>
-      <c r="M15" s="4" t="str">
-        <v>394,30</v>
+        <v>164,04</v>
       </c>
     </row>
     <row r="16">
@@ -1031,40 +755,22 @@
         <v>12-13</v>
       </c>
       <c r="B16" s="4" t="str">
-        <v>-30,01</v>
+        <v>-3,36</v>
       </c>
       <c r="C16" s="4" t="str">
-        <v>-55,00</v>
+        <v>-66,83</v>
       </c>
       <c r="D16" s="4" t="str">
-        <v>30,00</v>
+        <v>316,20</v>
       </c>
       <c r="E16" s="4" t="str">
-        <v>70,00</v>
+        <v>242,22</v>
       </c>
       <c r="F16" s="4" t="str">
-        <v>235,90</v>
+        <v>90,00</v>
       </c>
       <c r="G16" s="4" t="str">
-        <v>387,59</v>
-      </c>
-      <c r="H16" s="4" t="str">
-        <v>361,40</v>
-      </c>
-      <c r="I16" s="4" t="str">
-        <v>79,99</v>
-      </c>
-      <c r="J16" s="4" t="str">
-        <v>330,00</v>
-      </c>
-      <c r="K16" s="4" t="str">
-        <v>310,00</v>
-      </c>
-      <c r="L16" s="4" t="str">
-        <v>150,00</v>
-      </c>
-      <c r="M16" s="4" t="str">
-        <v>390,00</v>
+        <v>106,30</v>
       </c>
     </row>
     <row r="17">
@@ -1072,40 +778,22 @@
         <v>13-14</v>
       </c>
       <c r="B17" s="4" t="str">
-        <v>-71,01</v>
+        <v>-1,42</v>
       </c>
       <c r="C17" s="4" t="str">
-        <v>-54,01</v>
+        <v>-62,01</v>
       </c>
       <c r="D17" s="4" t="str">
-        <v>10,11</v>
+        <v>309,80</v>
       </c>
       <c r="E17" s="4" t="str">
-        <v>70,00</v>
+        <v>227,99</v>
       </c>
       <c r="F17" s="4" t="str">
-        <v>241,99</v>
+        <v>109,99</v>
       </c>
       <c r="G17" s="4" t="str">
-        <v>394,00</v>
-      </c>
-      <c r="H17" s="4" t="str">
-        <v>326,70</v>
-      </c>
-      <c r="I17" s="4" t="str">
-        <v>199,89</v>
-      </c>
-      <c r="J17" s="4" t="str">
-        <v>311,99</v>
-      </c>
-      <c r="K17" s="4" t="str">
-        <v>313,12</v>
-      </c>
-      <c r="L17" s="4" t="str">
-        <v>150,00</v>
-      </c>
-      <c r="M17" s="4" t="str">
-        <v>396,00</v>
+        <v>82,19</v>
       </c>
     </row>
     <row r="18">
@@ -1113,40 +801,22 @@
         <v>14-15</v>
       </c>
       <c r="B18" s="4" t="str">
-        <v>-190,00</v>
+        <v>1,00</v>
       </c>
       <c r="C18" s="4" t="str">
-        <v>-30,01</v>
+        <v>-3,35</v>
       </c>
       <c r="D18" s="4" t="str">
-        <v>21,40</v>
+        <v>336,51</v>
       </c>
       <c r="E18" s="4" t="str">
-        <v>100,00</v>
+        <v>250,00</v>
       </c>
       <c r="F18" s="4" t="str">
-        <v>233,99</v>
+        <v>184,00</v>
       </c>
       <c r="G18" s="4" t="str">
-        <v>406,00</v>
-      </c>
-      <c r="H18" s="4" t="str">
-        <v>300,00</v>
-      </c>
-      <c r="I18" s="4" t="str">
-        <v>217,99</v>
-      </c>
-      <c r="J18" s="4" t="str">
-        <v>305,99</v>
-      </c>
-      <c r="K18" s="4" t="str">
-        <v>321,99</v>
-      </c>
-      <c r="L18" s="4" t="str">
-        <v>186,75</v>
-      </c>
-      <c r="M18" s="4" t="str">
-        <v>388,05</v>
+        <v>119,00</v>
       </c>
     </row>
     <row r="19">
@@ -1154,40 +824,22 @@
         <v>15-16</v>
       </c>
       <c r="B19" s="4" t="str">
-        <v>-176,00</v>
+        <v>175,00</v>
       </c>
       <c r="C19" s="4" t="str">
-        <v>0,01</v>
+        <v>60,00</v>
       </c>
       <c r="D19" s="4" t="str">
-        <v>165,00</v>
+        <v>383,00</v>
       </c>
       <c r="E19" s="4" t="str">
-        <v>239,99</v>
+        <v>300,00</v>
       </c>
       <c r="F19" s="4" t="str">
-        <v>295,67</v>
+        <v>300,01</v>
       </c>
       <c r="G19" s="4" t="str">
-        <v>482,86</v>
-      </c>
-      <c r="H19" s="4" t="str">
-        <v>340,00</v>
-      </c>
-      <c r="I19" s="4" t="str">
-        <v>330,27</v>
-      </c>
-      <c r="J19" s="4" t="str">
-        <v>347,99</v>
-      </c>
-      <c r="K19" s="4" t="str">
-        <v>359,99</v>
-      </c>
-      <c r="L19" s="4" t="str">
-        <v>279,99</v>
-      </c>
-      <c r="M19" s="4" t="str">
-        <v>390,83</v>
+        <v>201,48</v>
       </c>
     </row>
     <row r="20">
@@ -1195,40 +847,22 @@
         <v>16-17</v>
       </c>
       <c r="B20" s="4" t="str">
-        <v>-111,00</v>
+        <v>480,00</v>
       </c>
       <c r="C20" s="4" t="str">
-        <v>90,00</v>
+        <v>368,72</v>
       </c>
       <c r="D20" s="4" t="str">
-        <v>315,99</v>
+        <v>475,00</v>
       </c>
       <c r="E20" s="4" t="str">
-        <v>370,60</v>
+        <v>399,99</v>
       </c>
       <c r="F20" s="4" t="str">
-        <v>385,69</v>
+        <v>416,00</v>
       </c>
       <c r="G20" s="4" t="str">
-        <v>482,86</v>
-      </c>
-      <c r="H20" s="4" t="str">
-        <v>399,99</v>
-      </c>
-      <c r="I20" s="4" t="str">
-        <v>386,00</v>
-      </c>
-      <c r="J20" s="4" t="str">
-        <v>380,00</v>
-      </c>
-      <c r="K20" s="4" t="str">
-        <v>412,00</v>
-      </c>
-      <c r="L20" s="4" t="str">
-        <v>364,48</v>
-      </c>
-      <c r="M20" s="4" t="str">
-        <v>420,00</v>
+        <v>280,00</v>
       </c>
     </row>
     <row r="21">
@@ -1236,40 +870,22 @@
         <v>17-18</v>
       </c>
       <c r="B21" s="4" t="str">
-        <v>-15,00</v>
+        <v>576,00</v>
       </c>
       <c r="C21" s="4" t="str">
-        <v>281,99</v>
+        <v>510,00</v>
       </c>
       <c r="D21" s="4" t="str">
-        <v>380,60</v>
+        <v>688,87</v>
       </c>
       <c r="E21" s="4" t="str">
-        <v>379,00</v>
+        <v>475,00</v>
       </c>
       <c r="F21" s="4" t="str">
-        <v>444,97</v>
+        <v>489,70</v>
       </c>
       <c r="G21" s="4" t="str">
-        <v>469,00</v>
-      </c>
-      <c r="H21" s="4" t="str">
-        <v>492,90</v>
-      </c>
-      <c r="I21" s="4" t="str">
-        <v>482,00</v>
-      </c>
-      <c r="J21" s="4" t="str">
-        <v>408,51</v>
-      </c>
-      <c r="K21" s="4" t="str">
-        <v>482,00</v>
-      </c>
-      <c r="L21" s="4" t="str">
-        <v>430,00</v>
-      </c>
-      <c r="M21" s="4" t="str">
-        <v>480,00</v>
+        <v>320,00</v>
       </c>
     </row>
     <row r="22">
@@ -1277,40 +893,22 @@
         <v>18-19</v>
       </c>
       <c r="B22" s="4" t="str">
-        <v>159,30</v>
+        <v>794,00</v>
       </c>
       <c r="C22" s="4" t="str">
+        <v>740,00</v>
+      </c>
+      <c r="D22" s="4" t="str">
+        <v>949,00</v>
+      </c>
+      <c r="E22" s="4" t="str">
+        <v>549,31</v>
+      </c>
+      <c r="F22" s="4" t="str">
+        <v>669,95</v>
+      </c>
+      <c r="G22" s="4" t="str">
         <v>380,00</v>
-      </c>
-      <c r="D22" s="4" t="str">
-        <v>481,00</v>
-      </c>
-      <c r="E22" s="4" t="str">
-        <v>499,40</v>
-      </c>
-      <c r="F22" s="4" t="str">
-        <v>503,60</v>
-      </c>
-      <c r="G22" s="4" t="str">
-        <v>549,00</v>
-      </c>
-      <c r="H22" s="4" t="str">
-        <v>490,00</v>
-      </c>
-      <c r="I22" s="4" t="str">
-        <v>465,00</v>
-      </c>
-      <c r="J22" s="4" t="str">
-        <v>490,00</v>
-      </c>
-      <c r="K22" s="4" t="str">
-        <v>526,00</v>
-      </c>
-      <c r="L22" s="4" t="str">
-        <v>540,00</v>
-      </c>
-      <c r="M22" s="4" t="str">
-        <v>589,00</v>
       </c>
     </row>
     <row r="23">
@@ -1318,40 +916,22 @@
         <v>19-20</v>
       </c>
       <c r="B23" s="4" t="str">
-        <v>343,40</v>
+        <v>900,00</v>
       </c>
       <c r="C23" s="4" t="str">
-        <v>558,00</v>
+        <v>900,00</v>
       </c>
       <c r="D23" s="4" t="str">
-        <v>682,00</v>
+        <v>1299,00</v>
       </c>
       <c r="E23" s="4" t="str">
-        <v>632,00</v>
+        <v>639,00</v>
       </c>
       <c r="F23" s="4" t="str">
-        <v>612,00</v>
+        <v>850,00</v>
       </c>
       <c r="G23" s="4" t="str">
-        <v>600,00</v>
-      </c>
-      <c r="H23" s="4" t="str">
-        <v>560,00</v>
-      </c>
-      <c r="I23" s="4" t="str">
-        <v>489,00</v>
-      </c>
-      <c r="J23" s="4" t="str">
-        <v>599,89</v>
-      </c>
-      <c r="K23" s="4" t="str">
-        <v>718,87</v>
-      </c>
-      <c r="L23" s="4" t="str">
-        <v>700,00</v>
-      </c>
-      <c r="M23" s="4" t="str">
-        <v>690,00</v>
+        <v>428,44</v>
       </c>
     </row>
     <row r="24">
@@ -1359,40 +939,22 @@
         <v>20-21</v>
       </c>
       <c r="B24" s="4" t="str">
-        <v>420,80</v>
+        <v>640,00</v>
       </c>
       <c r="C24" s="4" t="str">
-        <v>680,00</v>
+        <v>675,00</v>
       </c>
       <c r="D24" s="4" t="str">
-        <v>853,40</v>
+        <v>695,70</v>
       </c>
       <c r="E24" s="4" t="str">
-        <v>825,00</v>
+        <v>490,30</v>
       </c>
       <c r="F24" s="4" t="str">
-        <v>738,99</v>
+        <v>600,00</v>
       </c>
       <c r="G24" s="4" t="str">
-        <v>670,00</v>
-      </c>
-      <c r="H24" s="4" t="str">
-        <v>600,00</v>
-      </c>
-      <c r="I24" s="4" t="str">
-        <v>537,44</v>
-      </c>
-      <c r="J24" s="4" t="str">
-        <v>750,00</v>
-      </c>
-      <c r="K24" s="4" t="str">
-        <v>949,00</v>
-      </c>
-      <c r="L24" s="4" t="str">
-        <v>800,00</v>
-      </c>
-      <c r="M24" s="4" t="str">
-        <v>879,00</v>
+        <v>389,00</v>
       </c>
     </row>
     <row r="25">
@@ -1400,40 +962,22 @@
         <v>21-22</v>
       </c>
       <c r="B25" s="4" t="str">
-        <v>445,80</v>
+        <v>492,00</v>
       </c>
       <c r="C25" s="4" t="str">
-        <v>625,00</v>
+        <v>530,00</v>
       </c>
       <c r="D25" s="4" t="str">
-        <v>720,00</v>
+        <v>481,42</v>
       </c>
       <c r="E25" s="4" t="str">
-        <v>634,00</v>
+        <v>395,00</v>
       </c>
       <c r="F25" s="4" t="str">
-        <v>585,00</v>
+        <v>450,00</v>
       </c>
       <c r="G25" s="4" t="str">
-        <v>553,90</v>
-      </c>
-      <c r="H25" s="4" t="str">
-        <v>586,61</v>
-      </c>
-      <c r="I25" s="4" t="str">
-        <v>512,20</v>
-      </c>
-      <c r="J25" s="4" t="str">
-        <v>638,80</v>
-      </c>
-      <c r="K25" s="4" t="str">
-        <v>697,00</v>
-      </c>
-      <c r="L25" s="4" t="str">
-        <v>659,00</v>
-      </c>
-      <c r="M25" s="4" t="str">
-        <v>692,90</v>
+        <v>310,00</v>
       </c>
     </row>
     <row r="26">
@@ -1441,40 +985,22 @@
         <v>22-23</v>
       </c>
       <c r="B26" s="4" t="str">
-        <v>390,00</v>
+        <v>439,00</v>
       </c>
       <c r="C26" s="4" t="str">
-        <v>496,00</v>
+        <v>464,20</v>
       </c>
       <c r="D26" s="4" t="str">
-        <v>549,00</v>
+        <v>424,00</v>
       </c>
       <c r="E26" s="4" t="str">
-        <v>520,00</v>
+        <v>379,00</v>
       </c>
       <c r="F26" s="4" t="str">
-        <v>537,00</v>
+        <v>407,00</v>
       </c>
       <c r="G26" s="4" t="str">
-        <v>513,70</v>
-      </c>
-      <c r="H26" s="4" t="str">
-        <v>514,80</v>
-      </c>
-      <c r="I26" s="4" t="str">
-        <v>473,61</v>
-      </c>
-      <c r="J26" s="4" t="str">
-        <v>545,00</v>
-      </c>
-      <c r="K26" s="4" t="str">
-        <v>569,00</v>
-      </c>
-      <c r="L26" s="4" t="str">
-        <v>532,00</v>
-      </c>
-      <c r="M26" s="4" t="str">
-        <v>569,31</v>
+        <v>287,99</v>
       </c>
     </row>
     <row r="27">
@@ -1482,40 +1008,22 @@
         <v>23-24</v>
       </c>
       <c r="B27" s="4" t="str">
-        <v>338,80</v>
+        <v>405,90</v>
       </c>
       <c r="C27" s="4" t="str">
-        <v>428,90</v>
+        <v>420,00</v>
       </c>
       <c r="D27" s="4" t="str">
-        <v>458,00</v>
+        <v>375,54</v>
       </c>
       <c r="E27" s="4" t="str">
-        <v>443,80</v>
+        <v>317,99</v>
       </c>
       <c r="F27" s="4" t="str">
-        <v>450,00</v>
+        <v>372,00</v>
       </c>
       <c r="G27" s="4" t="str">
-        <v>449,00</v>
-      </c>
-      <c r="H27" s="4" t="str">
-        <v>441,87</v>
-      </c>
-      <c r="I27" s="4" t="str">
-        <v>437,39</v>
-      </c>
-      <c r="J27" s="4" t="str">
-        <v>463,00</v>
-      </c>
-      <c r="K27" s="4" t="str">
-        <v>486,50</v>
-      </c>
-      <c r="L27" s="4" t="str">
-        <v>447,00</v>
-      </c>
-      <c r="M27" s="4" t="str">
-        <v>455,00</v>
+        <v>201,11</v>
       </c>
     </row>
   </sheetData>

--- a/tabela.xlsx
+++ b/tabela.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -409,6 +409,8 @@
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -430,6 +432,12 @@
       <c r="F1" s="4" t="str">
         <v/>
       </c>
+      <c r="G1" s="4" t="str">
+        <v/>
+      </c>
+      <c r="H1" s="4" t="str">
+        <v/>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="3" t="str">
@@ -450,28 +458,40 @@
       <c r="F2" s="4" t="str">
         <v/>
       </c>
+      <c r="G2" s="4" t="str">
+        <v/>
+      </c>
+      <c r="H2" s="4" t="str">
+        <v/>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="str">
         <v/>
       </c>
       <c r="B3" s="3" t="str">
-        <v>21-09-2024</v>
+        <v>28-07-2024</v>
       </c>
       <c r="C3" s="3" t="str">
-        <v>22-09-2024</v>
+        <v>29-07-2024</v>
       </c>
       <c r="D3" s="3" t="str">
-        <v>23-09-2024</v>
+        <v>30-07-2024</v>
       </c>
       <c r="E3" s="3" t="str">
-        <v>24-09-2024</v>
+        <v>31-07-2024</v>
       </c>
       <c r="F3" s="3" t="str">
-        <v>25-09-2024</v>
+        <v>01-08-2024</v>
       </c>
       <c r="G3" s="3" t="str">
-        <v>26-09-2024</v>
+        <v>02-08-2024</v>
+      </c>
+      <c r="H3" s="3" t="str">
+        <v>03-08-2024</v>
+      </c>
+      <c r="I3" s="3" t="str">
+        <v>04-08-2024</v>
       </c>
     </row>
     <row r="4">
@@ -479,22 +499,28 @@
         <v>0-1</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>410,00</v>
+        <v>495,36</v>
       </c>
       <c r="C4" s="4" t="str">
-        <v>420,00</v>
+        <v>317,99</v>
       </c>
       <c r="D4" s="4" t="str">
-        <v>410,00</v>
+        <v>433,00</v>
       </c>
       <c r="E4" s="4" t="str">
-        <v>395,02</v>
+        <v>473,14</v>
       </c>
       <c r="F4" s="4" t="str">
-        <v>245,86</v>
+        <v>450,00</v>
       </c>
       <c r="G4" s="4" t="str">
-        <v>338,95</v>
+        <v>465,00</v>
+      </c>
+      <c r="H4" s="4" t="str">
+        <v>490,00</v>
+      </c>
+      <c r="I4" s="4" t="str">
+        <v>442,00</v>
       </c>
     </row>
     <row r="5">
@@ -502,22 +528,28 @@
         <v>1-2</v>
       </c>
       <c r="B5" s="4" t="str">
-        <v>388,00</v>
+        <v>439,80</v>
       </c>
       <c r="C5" s="4" t="str">
-        <v>391,00</v>
+        <v>280,00</v>
       </c>
       <c r="D5" s="4" t="str">
-        <v>398,20</v>
+        <v>380,00</v>
       </c>
       <c r="E5" s="4" t="str">
-        <v>371,85</v>
+        <v>418,00</v>
       </c>
       <c r="F5" s="4" t="str">
-        <v>203,34</v>
+        <v>400,00</v>
       </c>
       <c r="G5" s="4" t="str">
-        <v>291,48</v>
+        <v>400,00</v>
+      </c>
+      <c r="H5" s="4" t="str">
+        <v>450,00</v>
+      </c>
+      <c r="I5" s="4" t="str">
+        <v>412,45</v>
       </c>
     </row>
     <row r="6">
@@ -525,22 +557,28 @@
         <v>2-3</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v>380,00</v>
+        <v>399,00</v>
       </c>
       <c r="C6" s="4" t="str">
-        <v>370,85</v>
+        <v>251,00</v>
       </c>
       <c r="D6" s="4" t="str">
-        <v>380,00</v>
+        <v>389,50</v>
       </c>
       <c r="E6" s="4" t="str">
-        <v>365,00</v>
+        <v>406,26</v>
       </c>
       <c r="F6" s="4" t="str">
-        <v>176,52</v>
+        <v>390,00</v>
       </c>
       <c r="G6" s="4" t="str">
-        <v>277,99</v>
+        <v>392,00</v>
+      </c>
+      <c r="H6" s="4" t="str">
+        <v>424,41</v>
+      </c>
+      <c r="I6" s="4" t="str">
+        <v>384,00</v>
       </c>
     </row>
     <row r="7">
@@ -548,22 +586,28 @@
         <v>3-4</v>
       </c>
       <c r="B7" s="4" t="str">
-        <v>388,50</v>
+        <v>400,00</v>
       </c>
       <c r="C7" s="4" t="str">
-        <v>372,00</v>
+        <v>250,00</v>
       </c>
       <c r="D7" s="4" t="str">
-        <v>380,00</v>
+        <v>376,00</v>
       </c>
       <c r="E7" s="4" t="str">
-        <v>370,00</v>
+        <v>407,00</v>
       </c>
       <c r="F7" s="4" t="str">
-        <v>175,07</v>
+        <v>390,00</v>
       </c>
       <c r="G7" s="4" t="str">
-        <v>283,99</v>
+        <v>388,00</v>
+      </c>
+      <c r="H7" s="4" t="str">
+        <v>436,90</v>
+      </c>
+      <c r="I7" s="4" t="str">
+        <v>375,00</v>
       </c>
     </row>
     <row r="8">
@@ -571,22 +615,28 @@
         <v>4-5</v>
       </c>
       <c r="B8" s="4" t="str">
-        <v>385,17</v>
+        <v>394,00</v>
       </c>
       <c r="C8" s="4" t="str">
-        <v>375,00</v>
+        <v>272,00</v>
       </c>
       <c r="D8" s="4" t="str">
-        <v>393,00</v>
+        <v>381,08</v>
       </c>
       <c r="E8" s="4" t="str">
-        <v>372,41</v>
+        <v>408,00</v>
       </c>
       <c r="F8" s="4" t="str">
-        <v>246,59</v>
+        <v>397,20</v>
       </c>
       <c r="G8" s="4" t="str">
-        <v>290,00</v>
+        <v>390,00</v>
+      </c>
+      <c r="H8" s="4" t="str">
+        <v>428,00</v>
+      </c>
+      <c r="I8" s="4" t="str">
+        <v>386,00</v>
       </c>
     </row>
     <row r="9">
@@ -594,22 +644,28 @@
         <v>5-6</v>
       </c>
       <c r="B9" s="4" t="str">
-        <v>399,00</v>
+        <v>382,00</v>
       </c>
       <c r="C9" s="4" t="str">
-        <v>389,00</v>
+        <v>298,00</v>
       </c>
       <c r="D9" s="4" t="str">
-        <v>430,00</v>
+        <v>393,55</v>
       </c>
       <c r="E9" s="4" t="str">
-        <v>410,00</v>
+        <v>443,55</v>
       </c>
       <c r="F9" s="4" t="str">
-        <v>324,70</v>
+        <v>437,00</v>
       </c>
       <c r="G9" s="4" t="str">
-        <v>360,00</v>
+        <v>431,28</v>
+      </c>
+      <c r="H9" s="4" t="str">
+        <v>447,91</v>
+      </c>
+      <c r="I9" s="4" t="str">
+        <v>392,00</v>
       </c>
     </row>
     <row r="10">
@@ -617,22 +673,28 @@
         <v>6-7</v>
       </c>
       <c r="B10" s="4" t="str">
-        <v>450,19</v>
+        <v>412,00</v>
       </c>
       <c r="C10" s="4" t="str">
-        <v>390,27</v>
+        <v>406,00</v>
       </c>
       <c r="D10" s="4" t="str">
-        <v>680,00</v>
+        <v>509,11</v>
       </c>
       <c r="E10" s="4" t="str">
         <v>550,00</v>
       </c>
       <c r="F10" s="4" t="str">
-        <v>448,00</v>
+        <v>530,00</v>
       </c>
       <c r="G10" s="4" t="str">
-        <v>433,00</v>
+        <v>542,00</v>
+      </c>
+      <c r="H10" s="4" t="str">
+        <v>480,00</v>
+      </c>
+      <c r="I10" s="4" t="str">
+        <v>396,00</v>
       </c>
     </row>
     <row r="11">
@@ -640,22 +702,28 @@
         <v>7-8</v>
       </c>
       <c r="B11" s="4" t="str">
-        <v>490,00</v>
+        <v>390,00</v>
       </c>
       <c r="C11" s="4" t="str">
-        <v>400,00</v>
+        <v>378,00</v>
       </c>
       <c r="D11" s="4" t="str">
-        <v>769,00</v>
+        <v>506,40</v>
       </c>
       <c r="E11" s="4" t="str">
-        <v>680,00</v>
+        <v>530,00</v>
       </c>
       <c r="F11" s="4" t="str">
-        <v>458,90</v>
+        <v>520,00</v>
       </c>
       <c r="G11" s="4" t="str">
-        <v>435,20</v>
+        <v>540,00</v>
+      </c>
+      <c r="H11" s="4" t="str">
+        <v>488,68</v>
+      </c>
+      <c r="I11" s="4" t="str">
+        <v>359,00</v>
       </c>
     </row>
     <row r="12">
@@ -663,22 +731,28 @@
         <v>8-9</v>
       </c>
       <c r="B12" s="4" t="str">
-        <v>480,00</v>
+        <v>361,04</v>
       </c>
       <c r="C12" s="4" t="str">
-        <v>329,99</v>
+        <v>299,00</v>
       </c>
       <c r="D12" s="4" t="str">
-        <v>600,00</v>
+        <v>416,30</v>
       </c>
       <c r="E12" s="4" t="str">
-        <v>538,00</v>
+        <v>420,00</v>
       </c>
       <c r="F12" s="4" t="str">
-        <v>419,60</v>
+        <v>432,41</v>
       </c>
       <c r="G12" s="4" t="str">
-        <v>377,66</v>
+        <v>488,50</v>
+      </c>
+      <c r="H12" s="4" t="str">
+        <v>524,27</v>
+      </c>
+      <c r="I12" s="4" t="str">
+        <v>259,99</v>
       </c>
     </row>
     <row r="13">
@@ -686,22 +760,28 @@
         <v>9-10</v>
       </c>
       <c r="B13" s="4" t="str">
-        <v>303,80</v>
+        <v>269,99</v>
       </c>
       <c r="C13" s="4" t="str">
-        <v>218,24</v>
+        <v>137,99</v>
       </c>
       <c r="D13" s="4" t="str">
-        <v>467,00</v>
+        <v>283,99</v>
       </c>
       <c r="E13" s="4" t="str">
-        <v>436,60</v>
+        <v>303,99</v>
       </c>
       <c r="F13" s="4" t="str">
-        <v>327,99</v>
+        <v>355,57</v>
       </c>
       <c r="G13" s="4" t="str">
-        <v>315,99</v>
+        <v>450,00</v>
+      </c>
+      <c r="H13" s="4" t="str">
+        <v>406,00</v>
+      </c>
+      <c r="I13" s="4" t="str">
+        <v>101,00</v>
       </c>
     </row>
     <row r="14">
@@ -709,22 +789,28 @@
         <v>10-11</v>
       </c>
       <c r="B14" s="4" t="str">
-        <v>133,00</v>
+        <v>100,00</v>
       </c>
       <c r="C14" s="4" t="str">
-        <v>40,00</v>
+        <v>0,00</v>
       </c>
       <c r="D14" s="4" t="str">
-        <v>384,00</v>
+        <v>180,11</v>
       </c>
       <c r="E14" s="4" t="str">
-        <v>354,83</v>
+        <v>198,12</v>
       </c>
       <c r="F14" s="4" t="str">
-        <v>199,99</v>
+        <v>288,00</v>
       </c>
       <c r="G14" s="4" t="str">
-        <v>262,70</v>
+        <v>404,00</v>
+      </c>
+      <c r="H14" s="4" t="str">
+        <v>388,80</v>
+      </c>
+      <c r="I14" s="4" t="str">
+        <v>30,00</v>
       </c>
     </row>
     <row r="15">
@@ -732,22 +818,28 @@
         <v>11-12</v>
       </c>
       <c r="B15" s="4" t="str">
-        <v>1,00</v>
+        <v>0,00</v>
       </c>
       <c r="C15" s="4" t="str">
-        <v>-9,59</v>
+        <v>-31,00</v>
       </c>
       <c r="D15" s="4" t="str">
-        <v>350,00</v>
+        <v>90,11</v>
       </c>
       <c r="E15" s="4" t="str">
-        <v>276,40</v>
+        <v>105,95</v>
       </c>
       <c r="F15" s="4" t="str">
-        <v>108,74</v>
+        <v>263,40</v>
       </c>
       <c r="G15" s="4" t="str">
-        <v>164,04</v>
+        <v>390,34</v>
+      </c>
+      <c r="H15" s="4" t="str">
+        <v>377,76</v>
+      </c>
+      <c r="I15" s="4" t="str">
+        <v>45,99</v>
       </c>
     </row>
     <row r="16">
@@ -755,22 +847,28 @@
         <v>12-13</v>
       </c>
       <c r="B16" s="4" t="str">
-        <v>-3,36</v>
+        <v>-30,01</v>
       </c>
       <c r="C16" s="4" t="str">
-        <v>-66,83</v>
+        <v>-55,00</v>
       </c>
       <c r="D16" s="4" t="str">
-        <v>316,20</v>
+        <v>30,00</v>
       </c>
       <c r="E16" s="4" t="str">
-        <v>242,22</v>
+        <v>70,00</v>
       </c>
       <c r="F16" s="4" t="str">
-        <v>90,00</v>
+        <v>235,90</v>
       </c>
       <c r="G16" s="4" t="str">
-        <v>106,30</v>
+        <v>387,59</v>
+      </c>
+      <c r="H16" s="4" t="str">
+        <v>361,40</v>
+      </c>
+      <c r="I16" s="4" t="str">
+        <v>79,99</v>
       </c>
     </row>
     <row r="17">
@@ -778,22 +876,28 @@
         <v>13-14</v>
       </c>
       <c r="B17" s="4" t="str">
-        <v>-1,42</v>
+        <v>-71,01</v>
       </c>
       <c r="C17" s="4" t="str">
-        <v>-62,01</v>
+        <v>-54,01</v>
       </c>
       <c r="D17" s="4" t="str">
-        <v>309,80</v>
+        <v>10,11</v>
       </c>
       <c r="E17" s="4" t="str">
-        <v>227,99</v>
+        <v>70,00</v>
       </c>
       <c r="F17" s="4" t="str">
-        <v>109,99</v>
+        <v>241,99</v>
       </c>
       <c r="G17" s="4" t="str">
-        <v>82,19</v>
+        <v>394,00</v>
+      </c>
+      <c r="H17" s="4" t="str">
+        <v>326,70</v>
+      </c>
+      <c r="I17" s="4" t="str">
+        <v>199,89</v>
       </c>
     </row>
     <row r="18">
@@ -801,22 +905,28 @@
         <v>14-15</v>
       </c>
       <c r="B18" s="4" t="str">
-        <v>1,00</v>
+        <v>-190,00</v>
       </c>
       <c r="C18" s="4" t="str">
-        <v>-3,35</v>
+        <v>-30,01</v>
       </c>
       <c r="D18" s="4" t="str">
-        <v>336,51</v>
+        <v>21,40</v>
       </c>
       <c r="E18" s="4" t="str">
-        <v>250,00</v>
+        <v>100,00</v>
       </c>
       <c r="F18" s="4" t="str">
-        <v>184,00</v>
+        <v>233,99</v>
       </c>
       <c r="G18" s="4" t="str">
-        <v>119,00</v>
+        <v>406,00</v>
+      </c>
+      <c r="H18" s="4" t="str">
+        <v>300,00</v>
+      </c>
+      <c r="I18" s="4" t="str">
+        <v>217,99</v>
       </c>
     </row>
     <row r="19">
@@ -824,22 +934,28 @@
         <v>15-16</v>
       </c>
       <c r="B19" s="4" t="str">
-        <v>175,00</v>
+        <v>-176,00</v>
       </c>
       <c r="C19" s="4" t="str">
-        <v>60,00</v>
+        <v>0,01</v>
       </c>
       <c r="D19" s="4" t="str">
-        <v>383,00</v>
+        <v>165,00</v>
       </c>
       <c r="E19" s="4" t="str">
-        <v>300,00</v>
+        <v>239,99</v>
       </c>
       <c r="F19" s="4" t="str">
-        <v>300,01</v>
+        <v>295,67</v>
       </c>
       <c r="G19" s="4" t="str">
-        <v>201,48</v>
+        <v>482,86</v>
+      </c>
+      <c r="H19" s="4" t="str">
+        <v>340,00</v>
+      </c>
+      <c r="I19" s="4" t="str">
+        <v>330,27</v>
       </c>
     </row>
     <row r="20">
@@ -847,22 +963,28 @@
         <v>16-17</v>
       </c>
       <c r="B20" s="4" t="str">
-        <v>480,00</v>
+        <v>-111,00</v>
       </c>
       <c r="C20" s="4" t="str">
-        <v>368,72</v>
+        <v>90,00</v>
       </c>
       <c r="D20" s="4" t="str">
-        <v>475,00</v>
+        <v>315,99</v>
       </c>
       <c r="E20" s="4" t="str">
+        <v>370,60</v>
+      </c>
+      <c r="F20" s="4" t="str">
+        <v>385,69</v>
+      </c>
+      <c r="G20" s="4" t="str">
+        <v>482,86</v>
+      </c>
+      <c r="H20" s="4" t="str">
         <v>399,99</v>
       </c>
-      <c r="F20" s="4" t="str">
-        <v>416,00</v>
-      </c>
-      <c r="G20" s="4" t="str">
-        <v>280,00</v>
+      <c r="I20" s="4" t="str">
+        <v>386,00</v>
       </c>
     </row>
     <row r="21">
@@ -870,22 +992,28 @@
         <v>17-18</v>
       </c>
       <c r="B21" s="4" t="str">
-        <v>576,00</v>
+        <v>-15,00</v>
       </c>
       <c r="C21" s="4" t="str">
-        <v>510,00</v>
+        <v>281,99</v>
       </c>
       <c r="D21" s="4" t="str">
-        <v>688,87</v>
+        <v>380,60</v>
       </c>
       <c r="E21" s="4" t="str">
-        <v>475,00</v>
+        <v>379,00</v>
       </c>
       <c r="F21" s="4" t="str">
-        <v>489,70</v>
+        <v>444,97</v>
       </c>
       <c r="G21" s="4" t="str">
-        <v>320,00</v>
+        <v>469,00</v>
+      </c>
+      <c r="H21" s="4" t="str">
+        <v>492,90</v>
+      </c>
+      <c r="I21" s="4" t="str">
+        <v>482,00</v>
       </c>
     </row>
     <row r="22">
@@ -893,22 +1021,28 @@
         <v>18-19</v>
       </c>
       <c r="B22" s="4" t="str">
-        <v>794,00</v>
+        <v>159,30</v>
       </c>
       <c r="C22" s="4" t="str">
-        <v>740,00</v>
+        <v>380,00</v>
       </c>
       <c r="D22" s="4" t="str">
-        <v>949,00</v>
+        <v>481,00</v>
       </c>
       <c r="E22" s="4" t="str">
-        <v>549,31</v>
+        <v>499,40</v>
       </c>
       <c r="F22" s="4" t="str">
-        <v>669,95</v>
+        <v>503,60</v>
       </c>
       <c r="G22" s="4" t="str">
-        <v>380,00</v>
+        <v>549,00</v>
+      </c>
+      <c r="H22" s="4" t="str">
+        <v>490,00</v>
+      </c>
+      <c r="I22" s="4" t="str">
+        <v>465,00</v>
       </c>
     </row>
     <row r="23">
@@ -916,22 +1050,28 @@
         <v>19-20</v>
       </c>
       <c r="B23" s="4" t="str">
-        <v>900,00</v>
+        <v>343,40</v>
       </c>
       <c r="C23" s="4" t="str">
-        <v>900,00</v>
+        <v>558,00</v>
       </c>
       <c r="D23" s="4" t="str">
-        <v>1299,00</v>
+        <v>682,00</v>
       </c>
       <c r="E23" s="4" t="str">
-        <v>639,00</v>
+        <v>632,00</v>
       </c>
       <c r="F23" s="4" t="str">
-        <v>850,00</v>
+        <v>612,00</v>
       </c>
       <c r="G23" s="4" t="str">
-        <v>428,44</v>
+        <v>600,00</v>
+      </c>
+      <c r="H23" s="4" t="str">
+        <v>560,00</v>
+      </c>
+      <c r="I23" s="4" t="str">
+        <v>489,00</v>
       </c>
     </row>
     <row r="24">
@@ -939,22 +1079,28 @@
         <v>20-21</v>
       </c>
       <c r="B24" s="4" t="str">
-        <v>640,00</v>
+        <v>420,80</v>
       </c>
       <c r="C24" s="4" t="str">
-        <v>675,00</v>
+        <v>680,00</v>
       </c>
       <c r="D24" s="4" t="str">
-        <v>695,70</v>
+        <v>853,40</v>
       </c>
       <c r="E24" s="4" t="str">
-        <v>490,30</v>
+        <v>825,00</v>
       </c>
       <c r="F24" s="4" t="str">
+        <v>738,99</v>
+      </c>
+      <c r="G24" s="4" t="str">
+        <v>670,00</v>
+      </c>
+      <c r="H24" s="4" t="str">
         <v>600,00</v>
       </c>
-      <c r="G24" s="4" t="str">
-        <v>389,00</v>
+      <c r="I24" s="4" t="str">
+        <v>537,44</v>
       </c>
     </row>
     <row r="25">
@@ -962,22 +1108,28 @@
         <v>21-22</v>
       </c>
       <c r="B25" s="4" t="str">
-        <v>492,00</v>
+        <v>445,80</v>
       </c>
       <c r="C25" s="4" t="str">
-        <v>530,00</v>
+        <v>625,00</v>
       </c>
       <c r="D25" s="4" t="str">
-        <v>481,42</v>
+        <v>720,00</v>
       </c>
       <c r="E25" s="4" t="str">
-        <v>395,00</v>
+        <v>634,00</v>
       </c>
       <c r="F25" s="4" t="str">
-        <v>450,00</v>
+        <v>585,00</v>
       </c>
       <c r="G25" s="4" t="str">
-        <v>310,00</v>
+        <v>553,90</v>
+      </c>
+      <c r="H25" s="4" t="str">
+        <v>586,61</v>
+      </c>
+      <c r="I25" s="4" t="str">
+        <v>512,20</v>
       </c>
     </row>
     <row r="26">
@@ -985,22 +1137,28 @@
         <v>22-23</v>
       </c>
       <c r="B26" s="4" t="str">
-        <v>439,00</v>
+        <v>390,00</v>
       </c>
       <c r="C26" s="4" t="str">
-        <v>464,20</v>
+        <v>496,00</v>
       </c>
       <c r="D26" s="4" t="str">
-        <v>424,00</v>
+        <v>549,00</v>
       </c>
       <c r="E26" s="4" t="str">
-        <v>379,00</v>
+        <v>520,00</v>
       </c>
       <c r="F26" s="4" t="str">
-        <v>407,00</v>
+        <v>537,00</v>
       </c>
       <c r="G26" s="4" t="str">
-        <v>287,99</v>
+        <v>513,70</v>
+      </c>
+      <c r="H26" s="4" t="str">
+        <v>514,80</v>
+      </c>
+      <c r="I26" s="4" t="str">
+        <v>473,61</v>
       </c>
     </row>
     <row r="27">
@@ -1008,22 +1166,28 @@
         <v>23-24</v>
       </c>
       <c r="B27" s="4" t="str">
-        <v>405,90</v>
+        <v>338,80</v>
       </c>
       <c r="C27" s="4" t="str">
-        <v>420,00</v>
+        <v>428,90</v>
       </c>
       <c r="D27" s="4" t="str">
-        <v>375,54</v>
+        <v>458,00</v>
       </c>
       <c r="E27" s="4" t="str">
-        <v>317,99</v>
+        <v>443,80</v>
       </c>
       <c r="F27" s="4" t="str">
-        <v>372,00</v>
+        <v>450,00</v>
       </c>
       <c r="G27" s="4" t="str">
-        <v>201,11</v>
+        <v>449,00</v>
+      </c>
+      <c r="H27" s="4" t="str">
+        <v>441,87</v>
+      </c>
+      <c r="I27" s="4" t="str">
+        <v>437,39</v>
       </c>
     </row>
   </sheetData>

--- a/tabela.xlsx
+++ b/tabela.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -410,7 +410,6 @@
     <col min="5" max="5" width="10.7109375" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" customWidth="1"/>
     <col min="7" max="7" width="10.7109375" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -435,9 +434,6 @@
       <c r="G1" s="4" t="str">
         <v/>
       </c>
-      <c r="H1" s="4" t="str">
-        <v/>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="3" t="str">
@@ -461,9 +457,6 @@
       <c r="G2" s="4" t="str">
         <v/>
       </c>
-      <c r="H2" s="4" t="str">
-        <v/>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="str">
@@ -489,9 +482,6 @@
       </c>
       <c r="H3" s="3" t="str">
         <v>03-08-2024</v>
-      </c>
-      <c r="I3" s="3" t="str">
-        <v>04-08-2024</v>
       </c>
     </row>
     <row r="4">
@@ -519,9 +509,6 @@
       <c r="H4" s="4" t="str">
         <v>490,00</v>
       </c>
-      <c r="I4" s="4" t="str">
-        <v>442,00</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="str">
@@ -548,9 +535,6 @@
       <c r="H5" s="4" t="str">
         <v>450,00</v>
       </c>
-      <c r="I5" s="4" t="str">
-        <v>412,45</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="str">
@@ -577,9 +561,6 @@
       <c r="H6" s="4" t="str">
         <v>424,41</v>
       </c>
-      <c r="I6" s="4" t="str">
-        <v>384,00</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="str">
@@ -606,9 +587,6 @@
       <c r="H7" s="4" t="str">
         <v>436,90</v>
       </c>
-      <c r="I7" s="4" t="str">
-        <v>375,00</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="str">
@@ -635,9 +613,6 @@
       <c r="H8" s="4" t="str">
         <v>428,00</v>
       </c>
-      <c r="I8" s="4" t="str">
-        <v>386,00</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="str">
@@ -664,9 +639,6 @@
       <c r="H9" s="4" t="str">
         <v>447,91</v>
       </c>
-      <c r="I9" s="4" t="str">
-        <v>392,00</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="str">
@@ -693,9 +665,6 @@
       <c r="H10" s="4" t="str">
         <v>480,00</v>
       </c>
-      <c r="I10" s="4" t="str">
-        <v>396,00</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="str">
@@ -722,9 +691,6 @@
       <c r="H11" s="4" t="str">
         <v>488,68</v>
       </c>
-      <c r="I11" s="4" t="str">
-        <v>359,00</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="str">
@@ -751,9 +717,6 @@
       <c r="H12" s="4" t="str">
         <v>524,27</v>
       </c>
-      <c r="I12" s="4" t="str">
-        <v>259,99</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="str">
@@ -780,9 +743,6 @@
       <c r="H13" s="4" t="str">
         <v>406,00</v>
       </c>
-      <c r="I13" s="4" t="str">
-        <v>101,00</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="str">
@@ -809,9 +769,6 @@
       <c r="H14" s="4" t="str">
         <v>388,80</v>
       </c>
-      <c r="I14" s="4" t="str">
-        <v>30,00</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="str">
@@ -838,9 +795,6 @@
       <c r="H15" s="4" t="str">
         <v>377,76</v>
       </c>
-      <c r="I15" s="4" t="str">
-        <v>45,99</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="str">
@@ -867,9 +821,6 @@
       <c r="H16" s="4" t="str">
         <v>361,40</v>
       </c>
-      <c r="I16" s="4" t="str">
-        <v>79,99</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="str">
@@ -896,9 +847,6 @@
       <c r="H17" s="4" t="str">
         <v>326,70</v>
       </c>
-      <c r="I17" s="4" t="str">
-        <v>199,89</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="str">
@@ -925,9 +873,6 @@
       <c r="H18" s="4" t="str">
         <v>300,00</v>
       </c>
-      <c r="I18" s="4" t="str">
-        <v>217,99</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="str">
@@ -954,9 +899,6 @@
       <c r="H19" s="4" t="str">
         <v>340,00</v>
       </c>
-      <c r="I19" s="4" t="str">
-        <v>330,27</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="str">
@@ -983,9 +925,6 @@
       <c r="H20" s="4" t="str">
         <v>399,99</v>
       </c>
-      <c r="I20" s="4" t="str">
-        <v>386,00</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="str">
@@ -1012,9 +951,6 @@
       <c r="H21" s="4" t="str">
         <v>492,90</v>
       </c>
-      <c r="I21" s="4" t="str">
-        <v>482,00</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="str">
@@ -1041,9 +977,6 @@
       <c r="H22" s="4" t="str">
         <v>490,00</v>
       </c>
-      <c r="I22" s="4" t="str">
-        <v>465,00</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="str">
@@ -1070,9 +1003,6 @@
       <c r="H23" s="4" t="str">
         <v>560,00</v>
       </c>
-      <c r="I23" s="4" t="str">
-        <v>489,00</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="str">
@@ -1099,9 +1029,6 @@
       <c r="H24" s="4" t="str">
         <v>600,00</v>
       </c>
-      <c r="I24" s="4" t="str">
-        <v>537,44</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="3" t="str">
@@ -1128,9 +1055,6 @@
       <c r="H25" s="4" t="str">
         <v>586,61</v>
       </c>
-      <c r="I25" s="4" t="str">
-        <v>512,20</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="3" t="str">
@@ -1157,9 +1081,6 @@
       <c r="H26" s="4" t="str">
         <v>514,80</v>
       </c>
-      <c r="I26" s="4" t="str">
-        <v>473,61</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="3" t="str">
@@ -1186,9 +1107,6 @@
       <c r="H27" s="4" t="str">
         <v>441,87</v>
       </c>
-      <c r="I27" s="4" t="str">
-        <v>437,39</v>
-      </c>
     </row>
   </sheetData>
 </worksheet>

--- a/tabela.xlsx
+++ b/tabela.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:BJ27"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -410,6 +410,60 @@
     <col min="5" max="5" width="10.7109375" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" customWidth="1"/>
     <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" customWidth="1"/>
+    <col min="17" max="17" width="10.7109375" customWidth="1"/>
+    <col min="18" max="18" width="10.7109375" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" customWidth="1"/>
+    <col min="20" max="20" width="10.7109375" customWidth="1"/>
+    <col min="21" max="21" width="10.7109375" customWidth="1"/>
+    <col min="22" max="22" width="10.7109375" customWidth="1"/>
+    <col min="23" max="23" width="10.7109375" customWidth="1"/>
+    <col min="24" max="24" width="10.7109375" customWidth="1"/>
+    <col min="25" max="25" width="10.7109375" customWidth="1"/>
+    <col min="26" max="26" width="10.7109375" customWidth="1"/>
+    <col min="27" max="27" width="10.7109375" customWidth="1"/>
+    <col min="28" max="28" width="10.7109375" customWidth="1"/>
+    <col min="29" max="29" width="10.7109375" customWidth="1"/>
+    <col min="30" max="30" width="10.7109375" customWidth="1"/>
+    <col min="31" max="31" width="10.7109375" customWidth="1"/>
+    <col min="32" max="32" width="10.7109375" customWidth="1"/>
+    <col min="33" max="33" width="10.7109375" customWidth="1"/>
+    <col min="34" max="34" width="10.7109375" customWidth="1"/>
+    <col min="35" max="35" width="10.7109375" customWidth="1"/>
+    <col min="36" max="36" width="10.7109375" customWidth="1"/>
+    <col min="37" max="37" width="10.7109375" customWidth="1"/>
+    <col min="38" max="38" width="10.7109375" customWidth="1"/>
+    <col min="39" max="39" width="10.7109375" customWidth="1"/>
+    <col min="40" max="40" width="10.7109375" customWidth="1"/>
+    <col min="41" max="41" width="10.7109375" customWidth="1"/>
+    <col min="42" max="42" width="10.7109375" customWidth="1"/>
+    <col min="43" max="43" width="10.7109375" customWidth="1"/>
+    <col min="44" max="44" width="10.7109375" customWidth="1"/>
+    <col min="45" max="45" width="10.7109375" customWidth="1"/>
+    <col min="46" max="46" width="10.7109375" customWidth="1"/>
+    <col min="47" max="47" width="10.7109375" customWidth="1"/>
+    <col min="48" max="48" width="10.7109375" customWidth="1"/>
+    <col min="49" max="49" width="10.7109375" customWidth="1"/>
+    <col min="50" max="50" width="10.7109375" customWidth="1"/>
+    <col min="51" max="51" width="10.7109375" customWidth="1"/>
+    <col min="52" max="52" width="10.7109375" customWidth="1"/>
+    <col min="53" max="53" width="10.7109375" customWidth="1"/>
+    <col min="54" max="54" width="10.7109375" customWidth="1"/>
+    <col min="55" max="55" width="10.7109375" customWidth="1"/>
+    <col min="56" max="56" width="10.7109375" customWidth="1"/>
+    <col min="57" max="57" width="10.7109375" customWidth="1"/>
+    <col min="58" max="58" width="10.7109375" customWidth="1"/>
+    <col min="59" max="59" width="10.7109375" customWidth="1"/>
+    <col min="60" max="60" width="10.7109375" customWidth="1"/>
+    <col min="61" max="61" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -434,6 +488,168 @@
       <c r="G1" s="4" t="str">
         <v/>
       </c>
+      <c r="H1" s="4" t="str">
+        <v/>
+      </c>
+      <c r="I1" s="4" t="str">
+        <v/>
+      </c>
+      <c r="J1" s="4" t="str">
+        <v/>
+      </c>
+      <c r="K1" s="4" t="str">
+        <v/>
+      </c>
+      <c r="L1" s="4" t="str">
+        <v/>
+      </c>
+      <c r="M1" s="4" t="str">
+        <v/>
+      </c>
+      <c r="N1" s="4" t="str">
+        <v/>
+      </c>
+      <c r="O1" s="4" t="str">
+        <v/>
+      </c>
+      <c r="P1" s="4" t="str">
+        <v/>
+      </c>
+      <c r="Q1" s="4" t="str">
+        <v/>
+      </c>
+      <c r="R1" s="4" t="str">
+        <v/>
+      </c>
+      <c r="S1" s="4" t="str">
+        <v/>
+      </c>
+      <c r="T1" s="4" t="str">
+        <v/>
+      </c>
+      <c r="U1" s="4" t="str">
+        <v/>
+      </c>
+      <c r="V1" s="4" t="str">
+        <v/>
+      </c>
+      <c r="W1" s="4" t="str">
+        <v/>
+      </c>
+      <c r="X1" s="4" t="str">
+        <v/>
+      </c>
+      <c r="Y1" s="4" t="str">
+        <v/>
+      </c>
+      <c r="Z1" s="4" t="str">
+        <v/>
+      </c>
+      <c r="AA1" s="4" t="str">
+        <v/>
+      </c>
+      <c r="AB1" s="4" t="str">
+        <v/>
+      </c>
+      <c r="AC1" s="4" t="str">
+        <v/>
+      </c>
+      <c r="AD1" s="4" t="str">
+        <v/>
+      </c>
+      <c r="AE1" s="4" t="str">
+        <v/>
+      </c>
+      <c r="AF1" s="4" t="str">
+        <v/>
+      </c>
+      <c r="AG1" s="4" t="str">
+        <v/>
+      </c>
+      <c r="AH1" s="4" t="str">
+        <v/>
+      </c>
+      <c r="AI1" s="4" t="str">
+        <v/>
+      </c>
+      <c r="AJ1" s="4" t="str">
+        <v/>
+      </c>
+      <c r="AK1" s="4" t="str">
+        <v/>
+      </c>
+      <c r="AL1" s="4" t="str">
+        <v/>
+      </c>
+      <c r="AM1" s="4" t="str">
+        <v/>
+      </c>
+      <c r="AN1" s="4" t="str">
+        <v/>
+      </c>
+      <c r="AO1" s="4" t="str">
+        <v/>
+      </c>
+      <c r="AP1" s="4" t="str">
+        <v/>
+      </c>
+      <c r="AQ1" s="4" t="str">
+        <v/>
+      </c>
+      <c r="AR1" s="4" t="str">
+        <v/>
+      </c>
+      <c r="AS1" s="4" t="str">
+        <v/>
+      </c>
+      <c r="AT1" s="4" t="str">
+        <v/>
+      </c>
+      <c r="AU1" s="4" t="str">
+        <v/>
+      </c>
+      <c r="AV1" s="4" t="str">
+        <v/>
+      </c>
+      <c r="AW1" s="4" t="str">
+        <v/>
+      </c>
+      <c r="AX1" s="4" t="str">
+        <v/>
+      </c>
+      <c r="AY1" s="4" t="str">
+        <v/>
+      </c>
+      <c r="AZ1" s="4" t="str">
+        <v/>
+      </c>
+      <c r="BA1" s="4" t="str">
+        <v/>
+      </c>
+      <c r="BB1" s="4" t="str">
+        <v/>
+      </c>
+      <c r="BC1" s="4" t="str">
+        <v/>
+      </c>
+      <c r="BD1" s="4" t="str">
+        <v/>
+      </c>
+      <c r="BE1" s="4" t="str">
+        <v/>
+      </c>
+      <c r="BF1" s="4" t="str">
+        <v/>
+      </c>
+      <c r="BG1" s="4" t="str">
+        <v/>
+      </c>
+      <c r="BH1" s="4" t="str">
+        <v/>
+      </c>
+      <c r="BI1" s="4" t="str">
+        <v/>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="3" t="str">
@@ -457,31 +673,355 @@
       <c r="G2" s="4" t="str">
         <v/>
       </c>
+      <c r="H2" s="4" t="str">
+        <v/>
+      </c>
+      <c r="I2" s="4" t="str">
+        <v/>
+      </c>
+      <c r="J2" s="4" t="str">
+        <v/>
+      </c>
+      <c r="K2" s="4" t="str">
+        <v/>
+      </c>
+      <c r="L2" s="4" t="str">
+        <v/>
+      </c>
+      <c r="M2" s="4" t="str">
+        <v/>
+      </c>
+      <c r="N2" s="4" t="str">
+        <v/>
+      </c>
+      <c r="O2" s="4" t="str">
+        <v/>
+      </c>
+      <c r="P2" s="4" t="str">
+        <v/>
+      </c>
+      <c r="Q2" s="4" t="str">
+        <v/>
+      </c>
+      <c r="R2" s="4" t="str">
+        <v/>
+      </c>
+      <c r="S2" s="4" t="str">
+        <v/>
+      </c>
+      <c r="T2" s="4" t="str">
+        <v/>
+      </c>
+      <c r="U2" s="4" t="str">
+        <v/>
+      </c>
+      <c r="V2" s="4" t="str">
+        <v/>
+      </c>
+      <c r="W2" s="4" t="str">
+        <v/>
+      </c>
+      <c r="X2" s="4" t="str">
+        <v/>
+      </c>
+      <c r="Y2" s="4" t="str">
+        <v/>
+      </c>
+      <c r="Z2" s="4" t="str">
+        <v/>
+      </c>
+      <c r="AA2" s="4" t="str">
+        <v/>
+      </c>
+      <c r="AB2" s="4" t="str">
+        <v/>
+      </c>
+      <c r="AC2" s="4" t="str">
+        <v/>
+      </c>
+      <c r="AD2" s="4" t="str">
+        <v/>
+      </c>
+      <c r="AE2" s="4" t="str">
+        <v/>
+      </c>
+      <c r="AF2" s="4" t="str">
+        <v/>
+      </c>
+      <c r="AG2" s="4" t="str">
+        <v/>
+      </c>
+      <c r="AH2" s="4" t="str">
+        <v/>
+      </c>
+      <c r="AI2" s="4" t="str">
+        <v/>
+      </c>
+      <c r="AJ2" s="4" t="str">
+        <v/>
+      </c>
+      <c r="AK2" s="4" t="str">
+        <v/>
+      </c>
+      <c r="AL2" s="4" t="str">
+        <v/>
+      </c>
+      <c r="AM2" s="4" t="str">
+        <v/>
+      </c>
+      <c r="AN2" s="4" t="str">
+        <v/>
+      </c>
+      <c r="AO2" s="4" t="str">
+        <v/>
+      </c>
+      <c r="AP2" s="4" t="str">
+        <v/>
+      </c>
+      <c r="AQ2" s="4" t="str">
+        <v/>
+      </c>
+      <c r="AR2" s="4" t="str">
+        <v/>
+      </c>
+      <c r="AS2" s="4" t="str">
+        <v/>
+      </c>
+      <c r="AT2" s="4" t="str">
+        <v/>
+      </c>
+      <c r="AU2" s="4" t="str">
+        <v/>
+      </c>
+      <c r="AV2" s="4" t="str">
+        <v/>
+      </c>
+      <c r="AW2" s="4" t="str">
+        <v/>
+      </c>
+      <c r="AX2" s="4" t="str">
+        <v/>
+      </c>
+      <c r="AY2" s="4" t="str">
+        <v/>
+      </c>
+      <c r="AZ2" s="4" t="str">
+        <v/>
+      </c>
+      <c r="BA2" s="4" t="str">
+        <v/>
+      </c>
+      <c r="BB2" s="4" t="str">
+        <v/>
+      </c>
+      <c r="BC2" s="4" t="str">
+        <v/>
+      </c>
+      <c r="BD2" s="4" t="str">
+        <v/>
+      </c>
+      <c r="BE2" s="4" t="str">
+        <v/>
+      </c>
+      <c r="BF2" s="4" t="str">
+        <v/>
+      </c>
+      <c r="BG2" s="4" t="str">
+        <v/>
+      </c>
+      <c r="BH2" s="4" t="str">
+        <v/>
+      </c>
+      <c r="BI2" s="4" t="str">
+        <v/>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="str">
         <v/>
       </c>
       <c r="B3" s="3" t="str">
-        <v>28-07-2024</v>
+        <v>01-08-2024</v>
       </c>
       <c r="C3" s="3" t="str">
-        <v>29-07-2024</v>
+        <v>02-08-2024</v>
       </c>
       <c r="D3" s="3" t="str">
-        <v>30-07-2024</v>
+        <v>03-08-2024</v>
       </c>
       <c r="E3" s="3" t="str">
-        <v>31-07-2024</v>
+        <v>04-08-2024</v>
       </c>
       <c r="F3" s="3" t="str">
-        <v>01-08-2024</v>
+        <v>05-08-2024</v>
       </c>
       <c r="G3" s="3" t="str">
-        <v>02-08-2024</v>
+        <v>06-08-2024</v>
       </c>
       <c r="H3" s="3" t="str">
-        <v>03-08-2024</v>
+        <v>07-08-2024</v>
+      </c>
+      <c r="I3" s="3" t="str">
+        <v>08-08-2024</v>
+      </c>
+      <c r="J3" s="3" t="str">
+        <v>09-08-2024</v>
+      </c>
+      <c r="K3" s="3" t="str">
+        <v>10-08-2024</v>
+      </c>
+      <c r="L3" s="3" t="str">
+        <v>11-08-2024</v>
+      </c>
+      <c r="M3" s="3" t="str">
+        <v>12-08-2024</v>
+      </c>
+      <c r="N3" s="3" t="str">
+        <v>13-08-2024</v>
+      </c>
+      <c r="O3" s="3" t="str">
+        <v>14-08-2024</v>
+      </c>
+      <c r="P3" s="3" t="str">
+        <v>15-08-2024</v>
+      </c>
+      <c r="Q3" s="3" t="str">
+        <v>16-08-2024</v>
+      </c>
+      <c r="R3" s="3" t="str">
+        <v>17-08-2024</v>
+      </c>
+      <c r="S3" s="3" t="str">
+        <v>18-08-2024</v>
+      </c>
+      <c r="T3" s="3" t="str">
+        <v>19-08-2024</v>
+      </c>
+      <c r="U3" s="3" t="str">
+        <v>20-08-2024</v>
+      </c>
+      <c r="V3" s="3" t="str">
+        <v>21-08-2024</v>
+      </c>
+      <c r="W3" s="3" t="str">
+        <v>22-08-2024</v>
+      </c>
+      <c r="X3" s="3" t="str">
+        <v>23-08-2024</v>
+      </c>
+      <c r="Y3" s="3" t="str">
+        <v>24-08-2024</v>
+      </c>
+      <c r="Z3" s="3" t="str">
+        <v>25-08-2024</v>
+      </c>
+      <c r="AA3" s="3" t="str">
+        <v>26-08-2024</v>
+      </c>
+      <c r="AB3" s="3" t="str">
+        <v>27-08-2024</v>
+      </c>
+      <c r="AC3" s="3" t="str">
+        <v>28-08-2024</v>
+      </c>
+      <c r="AD3" s="3" t="str">
+        <v>29-08-2024</v>
+      </c>
+      <c r="AE3" s="3" t="str">
+        <v>30-08-2024</v>
+      </c>
+      <c r="AF3" s="3" t="str">
+        <v>31-08-2024</v>
+      </c>
+      <c r="AG3" s="3" t="str">
+        <v>01-09-2024</v>
+      </c>
+      <c r="AH3" s="3" t="str">
+        <v>02-09-2024</v>
+      </c>
+      <c r="AI3" s="3" t="str">
+        <v>03-09-2024</v>
+      </c>
+      <c r="AJ3" s="3" t="str">
+        <v>04-09-2024</v>
+      </c>
+      <c r="AK3" s="3" t="str">
+        <v>05-09-2024</v>
+      </c>
+      <c r="AL3" s="3" t="str">
+        <v>06-09-2024</v>
+      </c>
+      <c r="AM3" s="3" t="str">
+        <v>07-09-2024</v>
+      </c>
+      <c r="AN3" s="3" t="str">
+        <v>08-09-2024</v>
+      </c>
+      <c r="AO3" s="3" t="str">
+        <v>09-09-2024</v>
+      </c>
+      <c r="AP3" s="3" t="str">
+        <v>10-09-2024</v>
+      </c>
+      <c r="AQ3" s="3" t="str">
+        <v>11-09-2024</v>
+      </c>
+      <c r="AR3" s="3" t="str">
+        <v>12-09-2024</v>
+      </c>
+      <c r="AS3" s="3" t="str">
+        <v>13-09-2024</v>
+      </c>
+      <c r="AT3" s="3" t="str">
+        <v>14-09-2024</v>
+      </c>
+      <c r="AU3" s="3" t="str">
+        <v>15-09-2024</v>
+      </c>
+      <c r="AV3" s="3" t="str">
+        <v>16-09-2024</v>
+      </c>
+      <c r="AW3" s="3" t="str">
+        <v>17-09-2024</v>
+      </c>
+      <c r="AX3" s="3" t="str">
+        <v>18-09-2024</v>
+      </c>
+      <c r="AY3" s="3" t="str">
+        <v>19-09-2024</v>
+      </c>
+      <c r="AZ3" s="3" t="str">
+        <v>20-09-2024</v>
+      </c>
+      <c r="BA3" s="3" t="str">
+        <v>21-09-2024</v>
+      </c>
+      <c r="BB3" s="3" t="str">
+        <v>22-09-2024</v>
+      </c>
+      <c r="BC3" s="3" t="str">
+        <v>23-09-2024</v>
+      </c>
+      <c r="BD3" s="3" t="str">
+        <v>24-09-2024</v>
+      </c>
+      <c r="BE3" s="3" t="str">
+        <v>25-09-2024</v>
+      </c>
+      <c r="BF3" s="3" t="str">
+        <v>26-09-2024</v>
+      </c>
+      <c r="BG3" s="3" t="str">
+        <v>27-09-2024</v>
+      </c>
+      <c r="BH3" s="3" t="str">
+        <v>28-09-2024</v>
+      </c>
+      <c r="BI3" s="3" t="str">
+        <v>29-09-2024</v>
+      </c>
+      <c r="BJ3" s="3" t="str">
+        <v>30-09-2024</v>
       </c>
     </row>
     <row r="4">
@@ -489,25 +1029,187 @@
         <v>0-1</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>495,36</v>
+        <v>450,00</v>
       </c>
       <c r="C4" s="4" t="str">
-        <v>317,99</v>
+        <v>465,00</v>
       </c>
       <c r="D4" s="4" t="str">
-        <v>433,00</v>
+        <v>490,00</v>
       </c>
       <c r="E4" s="4" t="str">
-        <v>473,14</v>
+        <v>442,00</v>
       </c>
       <c r="F4" s="4" t="str">
+        <v>410,00</v>
+      </c>
+      <c r="G4" s="4" t="str">
+        <v>512,00</v>
+      </c>
+      <c r="H4" s="4" t="str">
+        <v>466,80</v>
+      </c>
+      <c r="I4" s="4" t="str">
+        <v>460,00</v>
+      </c>
+      <c r="J4" s="4" t="str">
+        <v>440,06</v>
+      </c>
+      <c r="K4" s="4" t="str">
+        <v>422,00</v>
+      </c>
+      <c r="L4" s="4" t="str">
+        <v>444,00</v>
+      </c>
+      <c r="M4" s="4" t="str">
+        <v>436,41</v>
+      </c>
+      <c r="N4" s="4" t="str">
+        <v>467,00</v>
+      </c>
+      <c r="O4" s="4" t="str">
+        <v>465,63</v>
+      </c>
+      <c r="P4" s="4" t="str">
+        <v>453,90</v>
+      </c>
+      <c r="Q4" s="4" t="str">
+        <v>464,50</v>
+      </c>
+      <c r="R4" s="4" t="str">
+        <v>568,60</v>
+      </c>
+      <c r="S4" s="4" t="str">
+        <v>494,00</v>
+      </c>
+      <c r="T4" s="4" t="str">
+        <v>479,14</v>
+      </c>
+      <c r="U4" s="4" t="str">
+        <v>461,71</v>
+      </c>
+      <c r="V4" s="4" t="str">
+        <v>470,00</v>
+      </c>
+      <c r="W4" s="4" t="str">
+        <v>420,00</v>
+      </c>
+      <c r="X4" s="4" t="str">
+        <v>456,60</v>
+      </c>
+      <c r="Y4" s="4" t="str">
+        <v>425,60</v>
+      </c>
+      <c r="Z4" s="4" t="str">
+        <v>190,00</v>
+      </c>
+      <c r="AA4" s="4" t="str">
+        <v>436,22</v>
+      </c>
+      <c r="AB4" s="4" t="str">
+        <v>510,00</v>
+      </c>
+      <c r="AC4" s="4" t="str">
+        <v>410,00</v>
+      </c>
+      <c r="AD4" s="4" t="str">
+        <v>413,70</v>
+      </c>
+      <c r="AE4" s="4" t="str">
+        <v>522,00</v>
+      </c>
+      <c r="AF4" s="4" t="str">
+        <v>482,00</v>
+      </c>
+      <c r="AG4" s="4" t="str">
         <v>450,00</v>
       </c>
-      <c r="G4" s="4" t="str">
-        <v>465,00</v>
-      </c>
-      <c r="H4" s="4" t="str">
-        <v>490,00</v>
+      <c r="AH4" s="4" t="str">
+        <v>482,80</v>
+      </c>
+      <c r="AI4" s="4" t="str">
+        <v>515,00</v>
+      </c>
+      <c r="AJ4" s="4" t="str">
+        <v>458,93</v>
+      </c>
+      <c r="AK4" s="4" t="str">
+        <v>396,70</v>
+      </c>
+      <c r="AL4" s="4" t="str">
+        <v>350,00</v>
+      </c>
+      <c r="AM4" s="4" t="str">
+        <v>397,20</v>
+      </c>
+      <c r="AN4" s="4" t="str">
+        <v>391,00</v>
+      </c>
+      <c r="AO4" s="4" t="str">
+        <v>338,60</v>
+      </c>
+      <c r="AP4" s="4" t="str">
+        <v>467,90</v>
+      </c>
+      <c r="AQ4" s="4" t="str">
+        <v>428,20</v>
+      </c>
+      <c r="AR4" s="4" t="str">
+        <v>432,98</v>
+      </c>
+      <c r="AS4" s="4" t="str">
+        <v>450,00</v>
+      </c>
+      <c r="AT4" s="4" t="str">
+        <v>272,51</v>
+      </c>
+      <c r="AU4" s="4" t="str">
+        <v>280,00</v>
+      </c>
+      <c r="AV4" s="4" t="str">
+        <v>400,00</v>
+      </c>
+      <c r="AW4" s="4" t="str">
+        <v>386,00</v>
+      </c>
+      <c r="AX4" s="4" t="str">
+        <v>392,52</v>
+      </c>
+      <c r="AY4" s="4" t="str">
+        <v>390,00</v>
+      </c>
+      <c r="AZ4" s="4" t="str">
+        <v>391,84</v>
+      </c>
+      <c r="BA4" s="4" t="str">
+        <v>410,00</v>
+      </c>
+      <c r="BB4" s="4" t="str">
+        <v>420,00</v>
+      </c>
+      <c r="BC4" s="4" t="str">
+        <v>410,00</v>
+      </c>
+      <c r="BD4" s="4" t="str">
+        <v>395,02</v>
+      </c>
+      <c r="BE4" s="4" t="str">
+        <v>245,86</v>
+      </c>
+      <c r="BF4" s="4" t="str">
+        <v>338,95</v>
+      </c>
+      <c r="BG4" s="4" t="str">
+        <v>115,47</v>
+      </c>
+      <c r="BH4" s="4" t="str">
+        <v>35,96</v>
+      </c>
+      <c r="BI4" s="4" t="str">
+        <v>313,99</v>
+      </c>
+      <c r="BJ4" s="4" t="str">
+        <v>313,99</v>
       </c>
     </row>
     <row r="5">
@@ -515,25 +1217,187 @@
         <v>1-2</v>
       </c>
       <c r="B5" s="4" t="str">
-        <v>439,80</v>
+        <v>400,00</v>
       </c>
       <c r="C5" s="4" t="str">
-        <v>280,00</v>
+        <v>400,00</v>
       </c>
       <c r="D5" s="4" t="str">
-        <v>380,00</v>
+        <v>450,00</v>
       </c>
       <c r="E5" s="4" t="str">
+        <v>412,45</v>
+      </c>
+      <c r="F5" s="4" t="str">
+        <v>394,00</v>
+      </c>
+      <c r="G5" s="4" t="str">
+        <v>466,44</v>
+      </c>
+      <c r="H5" s="4" t="str">
+        <v>420,00</v>
+      </c>
+      <c r="I5" s="4" t="str">
+        <v>400,00</v>
+      </c>
+      <c r="J5" s="4" t="str">
+        <v>390,00</v>
+      </c>
+      <c r="K5" s="4" t="str">
+        <v>408,49</v>
+      </c>
+      <c r="L5" s="4" t="str">
+        <v>411,20</v>
+      </c>
+      <c r="M5" s="4" t="str">
+        <v>404,29</v>
+      </c>
+      <c r="N5" s="4" t="str">
+        <v>423,99</v>
+      </c>
+      <c r="O5" s="4" t="str">
         <v>418,00</v>
       </c>
-      <c r="F5" s="4" t="str">
-        <v>400,00</v>
-      </c>
-      <c r="G5" s="4" t="str">
-        <v>400,00</v>
-      </c>
-      <c r="H5" s="4" t="str">
+      <c r="P5" s="4" t="str">
+        <v>417,15</v>
+      </c>
+      <c r="Q5" s="4" t="str">
+        <v>405,70</v>
+      </c>
+      <c r="R5" s="4" t="str">
+        <v>510,00</v>
+      </c>
+      <c r="S5" s="4" t="str">
+        <v>450,01</v>
+      </c>
+      <c r="T5" s="4" t="str">
+        <v>415,40</v>
+      </c>
+      <c r="U5" s="4" t="str">
+        <v>426,00</v>
+      </c>
+      <c r="V5" s="4" t="str">
+        <v>424,18</v>
+      </c>
+      <c r="W5" s="4" t="str">
+        <v>406,00</v>
+      </c>
+      <c r="X5" s="4" t="str">
+        <v>404,00</v>
+      </c>
+      <c r="Y5" s="4" t="str">
+        <v>405,29</v>
+      </c>
+      <c r="Z5" s="4" t="str">
+        <v>150,92</v>
+      </c>
+      <c r="AA5" s="4" t="str">
+        <v>394,96</v>
+      </c>
+      <c r="AB5" s="4" t="str">
+        <v>452,75</v>
+      </c>
+      <c r="AC5" s="4" t="str">
+        <v>388,00</v>
+      </c>
+      <c r="AD5" s="4" t="str">
+        <v>384,73</v>
+      </c>
+      <c r="AE5" s="4" t="str">
+        <v>450,96</v>
+      </c>
+      <c r="AF5" s="4" t="str">
         <v>450,00</v>
+      </c>
+      <c r="AG5" s="4" t="str">
+        <v>420,00</v>
+      </c>
+      <c r="AH5" s="4" t="str">
+        <v>439,99</v>
+      </c>
+      <c r="AI5" s="4" t="str">
+        <v>459,00</v>
+      </c>
+      <c r="AJ5" s="4" t="str">
+        <v>425,00</v>
+      </c>
+      <c r="AK5" s="4" t="str">
+        <v>374,00</v>
+      </c>
+      <c r="AL5" s="4" t="str">
+        <v>336,00</v>
+      </c>
+      <c r="AM5" s="4" t="str">
+        <v>373,80</v>
+      </c>
+      <c r="AN5" s="4" t="str">
+        <v>355,13</v>
+      </c>
+      <c r="AO5" s="4" t="str">
+        <v>313,00</v>
+      </c>
+      <c r="AP5" s="4" t="str">
+        <v>406,00</v>
+      </c>
+      <c r="AQ5" s="4" t="str">
+        <v>390,00</v>
+      </c>
+      <c r="AR5" s="4" t="str">
+        <v>409,00</v>
+      </c>
+      <c r="AS5" s="4" t="str">
+        <v>398,00</v>
+      </c>
+      <c r="AT5" s="4" t="str">
+        <v>247,60</v>
+      </c>
+      <c r="AU5" s="4" t="str">
+        <v>254,90</v>
+      </c>
+      <c r="AV5" s="4" t="str">
+        <v>385,18</v>
+      </c>
+      <c r="AW5" s="4" t="str">
+        <v>368,00</v>
+      </c>
+      <c r="AX5" s="4" t="str">
+        <v>383,00</v>
+      </c>
+      <c r="AY5" s="4" t="str">
+        <v>370,00</v>
+      </c>
+      <c r="AZ5" s="4" t="str">
+        <v>360,00</v>
+      </c>
+      <c r="BA5" s="4" t="str">
+        <v>388,00</v>
+      </c>
+      <c r="BB5" s="4" t="str">
+        <v>391,00</v>
+      </c>
+      <c r="BC5" s="4" t="str">
+        <v>398,20</v>
+      </c>
+      <c r="BD5" s="4" t="str">
+        <v>371,85</v>
+      </c>
+      <c r="BE5" s="4" t="str">
+        <v>203,34</v>
+      </c>
+      <c r="BF5" s="4" t="str">
+        <v>291,48</v>
+      </c>
+      <c r="BG5" s="4" t="str">
+        <v>90,00</v>
+      </c>
+      <c r="BH5" s="4" t="str">
+        <v>10,62</v>
+      </c>
+      <c r="BI5" s="4" t="str">
+        <v>304,10</v>
+      </c>
+      <c r="BJ5" s="4" t="str">
+        <v>304,10</v>
       </c>
     </row>
     <row r="6">
@@ -541,25 +1405,187 @@
         <v>2-3</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v>399,00</v>
+        <v>390,00</v>
       </c>
       <c r="C6" s="4" t="str">
-        <v>251,00</v>
+        <v>392,00</v>
       </c>
       <c r="D6" s="4" t="str">
-        <v>389,50</v>
+        <v>424,41</v>
       </c>
       <c r="E6" s="4" t="str">
-        <v>406,26</v>
+        <v>384,00</v>
       </c>
       <c r="F6" s="4" t="str">
         <v>390,00</v>
       </c>
       <c r="G6" s="4" t="str">
+        <v>430,00</v>
+      </c>
+      <c r="H6" s="4" t="str">
+        <v>392,64</v>
+      </c>
+      <c r="I6" s="4" t="str">
+        <v>390,00</v>
+      </c>
+      <c r="J6" s="4" t="str">
+        <v>384,00</v>
+      </c>
+      <c r="K6" s="4" t="str">
+        <v>390,00</v>
+      </c>
+      <c r="L6" s="4" t="str">
+        <v>386,90</v>
+      </c>
+      <c r="M6" s="4" t="str">
+        <v>387,00</v>
+      </c>
+      <c r="N6" s="4" t="str">
+        <v>402,00</v>
+      </c>
+      <c r="O6" s="4" t="str">
+        <v>405,32</v>
+      </c>
+      <c r="P6" s="4" t="str">
         <v>392,00</v>
       </c>
-      <c r="H6" s="4" t="str">
-        <v>424,41</v>
+      <c r="Q6" s="4" t="str">
+        <v>400,00</v>
+      </c>
+      <c r="R6" s="4" t="str">
+        <v>474,00</v>
+      </c>
+      <c r="S6" s="4" t="str">
+        <v>423,40</v>
+      </c>
+      <c r="T6" s="4" t="str">
+        <v>408,20</v>
+      </c>
+      <c r="U6" s="4" t="str">
+        <v>418,00</v>
+      </c>
+      <c r="V6" s="4" t="str">
+        <v>414,00</v>
+      </c>
+      <c r="W6" s="4" t="str">
+        <v>398,00</v>
+      </c>
+      <c r="X6" s="4" t="str">
+        <v>397,57</v>
+      </c>
+      <c r="Y6" s="4" t="str">
+        <v>393,76</v>
+      </c>
+      <c r="Z6" s="4" t="str">
+        <v>95,00</v>
+      </c>
+      <c r="AA6" s="4" t="str">
+        <v>391,75</v>
+      </c>
+      <c r="AB6" s="4" t="str">
+        <v>431,50</v>
+      </c>
+      <c r="AC6" s="4" t="str">
+        <v>376,80</v>
+      </c>
+      <c r="AD6" s="4" t="str">
+        <v>367,53</v>
+      </c>
+      <c r="AE6" s="4" t="str">
+        <v>427,60</v>
+      </c>
+      <c r="AF6" s="4" t="str">
+        <v>429,60</v>
+      </c>
+      <c r="AG6" s="4" t="str">
+        <v>396,00</v>
+      </c>
+      <c r="AH6" s="4" t="str">
+        <v>408,00</v>
+      </c>
+      <c r="AI6" s="4" t="str">
+        <v>435,61</v>
+      </c>
+      <c r="AJ6" s="4" t="str">
+        <v>404,00</v>
+      </c>
+      <c r="AK6" s="4" t="str">
+        <v>360,00</v>
+      </c>
+      <c r="AL6" s="4" t="str">
+        <v>320,00</v>
+      </c>
+      <c r="AM6" s="4" t="str">
+        <v>366,00</v>
+      </c>
+      <c r="AN6" s="4" t="str">
+        <v>342,96</v>
+      </c>
+      <c r="AO6" s="4" t="str">
+        <v>313,00</v>
+      </c>
+      <c r="AP6" s="4" t="str">
+        <v>408,99</v>
+      </c>
+      <c r="AQ6" s="4" t="str">
+        <v>374,00</v>
+      </c>
+      <c r="AR6" s="4" t="str">
+        <v>392,19</v>
+      </c>
+      <c r="AS6" s="4" t="str">
+        <v>386,00</v>
+      </c>
+      <c r="AT6" s="4" t="str">
+        <v>210,00</v>
+      </c>
+      <c r="AU6" s="4" t="str">
+        <v>243,99</v>
+      </c>
+      <c r="AV6" s="4" t="str">
+        <v>379,01</v>
+      </c>
+      <c r="AW6" s="4" t="str">
+        <v>362,00</v>
+      </c>
+      <c r="AX6" s="4" t="str">
+        <v>373,10</v>
+      </c>
+      <c r="AY6" s="4" t="str">
+        <v>368,00</v>
+      </c>
+      <c r="AZ6" s="4" t="str">
+        <v>368,00</v>
+      </c>
+      <c r="BA6" s="4" t="str">
+        <v>380,00</v>
+      </c>
+      <c r="BB6" s="4" t="str">
+        <v>370,85</v>
+      </c>
+      <c r="BC6" s="4" t="str">
+        <v>380,00</v>
+      </c>
+      <c r="BD6" s="4" t="str">
+        <v>365,00</v>
+      </c>
+      <c r="BE6" s="4" t="str">
+        <v>176,52</v>
+      </c>
+      <c r="BF6" s="4" t="str">
+        <v>277,99</v>
+      </c>
+      <c r="BG6" s="4" t="str">
+        <v>76,00</v>
+      </c>
+      <c r="BH6" s="4" t="str">
+        <v>2,55</v>
+      </c>
+      <c r="BI6" s="4" t="str">
+        <v>285,50</v>
+      </c>
+      <c r="BJ6" s="4" t="str">
+        <v>285,50</v>
       </c>
     </row>
     <row r="7">
@@ -567,25 +1593,187 @@
         <v>3-4</v>
       </c>
       <c r="B7" s="4" t="str">
+        <v>390,00</v>
+      </c>
+      <c r="C7" s="4" t="str">
+        <v>388,00</v>
+      </c>
+      <c r="D7" s="4" t="str">
+        <v>436,90</v>
+      </c>
+      <c r="E7" s="4" t="str">
+        <v>375,00</v>
+      </c>
+      <c r="F7" s="4" t="str">
+        <v>392,00</v>
+      </c>
+      <c r="G7" s="4" t="str">
+        <v>440,20</v>
+      </c>
+      <c r="H7" s="4" t="str">
+        <v>390,00</v>
+      </c>
+      <c r="I7" s="4" t="str">
+        <v>390,00</v>
+      </c>
+      <c r="J7" s="4" t="str">
+        <v>384,00</v>
+      </c>
+      <c r="K7" s="4" t="str">
+        <v>390,00</v>
+      </c>
+      <c r="L7" s="4" t="str">
+        <v>370,00</v>
+      </c>
+      <c r="M7" s="4" t="str">
+        <v>388,00</v>
+      </c>
+      <c r="N7" s="4" t="str">
+        <v>404,90</v>
+      </c>
+      <c r="O7" s="4" t="str">
+        <v>406,00</v>
+      </c>
+      <c r="P7" s="4" t="str">
+        <v>380,81</v>
+      </c>
+      <c r="Q7" s="4" t="str">
+        <v>397,31</v>
+      </c>
+      <c r="R7" s="4" t="str">
+        <v>465,12</v>
+      </c>
+      <c r="S7" s="4" t="str">
+        <v>411,88</v>
+      </c>
+      <c r="T7" s="4" t="str">
+        <v>398,00</v>
+      </c>
+      <c r="U7" s="4" t="str">
+        <v>412,00</v>
+      </c>
+      <c r="V7" s="4" t="str">
+        <v>418,00</v>
+      </c>
+      <c r="W7" s="4" t="str">
+        <v>404,00</v>
+      </c>
+      <c r="X7" s="4" t="str">
+        <v>398,00</v>
+      </c>
+      <c r="Y7" s="4" t="str">
         <v>400,00</v>
       </c>
-      <c r="C7" s="4" t="str">
-        <v>250,00</v>
-      </c>
-      <c r="D7" s="4" t="str">
-        <v>376,00</v>
-      </c>
-      <c r="E7" s="4" t="str">
-        <v>407,00</v>
-      </c>
-      <c r="F7" s="4" t="str">
+      <c r="Z7" s="4" t="str">
+        <v>77,00</v>
+      </c>
+      <c r="AA7" s="4" t="str">
         <v>390,00</v>
       </c>
-      <c r="G7" s="4" t="str">
-        <v>388,00</v>
-      </c>
-      <c r="H7" s="4" t="str">
-        <v>436,90</v>
+      <c r="AB7" s="4" t="str">
+        <v>429,80</v>
+      </c>
+      <c r="AC7" s="4" t="str">
+        <v>370,80</v>
+      </c>
+      <c r="AD7" s="4" t="str">
+        <v>376,71</v>
+      </c>
+      <c r="AE7" s="4" t="str">
+        <v>425,00</v>
+      </c>
+      <c r="AF7" s="4" t="str">
+        <v>418,90</v>
+      </c>
+      <c r="AG7" s="4" t="str">
+        <v>392,00</v>
+      </c>
+      <c r="AH7" s="4" t="str">
+        <v>420,06</v>
+      </c>
+      <c r="AI7" s="4" t="str">
+        <v>420,06</v>
+      </c>
+      <c r="AJ7" s="4" t="str">
+        <v>403,75</v>
+      </c>
+      <c r="AK7" s="4" t="str">
+        <v>352,00</v>
+      </c>
+      <c r="AL7" s="4" t="str">
+        <v>320,00</v>
+      </c>
+      <c r="AM7" s="4" t="str">
+        <v>370,00</v>
+      </c>
+      <c r="AN7" s="4" t="str">
+        <v>334,90</v>
+      </c>
+      <c r="AO7" s="4" t="str">
+        <v>313,00</v>
+      </c>
+      <c r="AP7" s="4" t="str">
+        <v>402,00</v>
+      </c>
+      <c r="AQ7" s="4" t="str">
+        <v>372,00</v>
+      </c>
+      <c r="AR7" s="4" t="str">
+        <v>397,60</v>
+      </c>
+      <c r="AS7" s="4" t="str">
+        <v>380,00</v>
+      </c>
+      <c r="AT7" s="4" t="str">
+        <v>180,70</v>
+      </c>
+      <c r="AU7" s="4" t="str">
+        <v>234,70</v>
+      </c>
+      <c r="AV7" s="4" t="str">
+        <v>363,10</v>
+      </c>
+      <c r="AW7" s="4" t="str">
+        <v>364,00</v>
+      </c>
+      <c r="AX7" s="4" t="str">
+        <v>368,00</v>
+      </c>
+      <c r="AY7" s="4" t="str">
+        <v>361,71</v>
+      </c>
+      <c r="AZ7" s="4" t="str">
+        <v>377,60</v>
+      </c>
+      <c r="BA7" s="4" t="str">
+        <v>388,50</v>
+      </c>
+      <c r="BB7" s="4" t="str">
+        <v>372,00</v>
+      </c>
+      <c r="BC7" s="4" t="str">
+        <v>380,00</v>
+      </c>
+      <c r="BD7" s="4" t="str">
+        <v>370,00</v>
+      </c>
+      <c r="BE7" s="4" t="str">
+        <v>175,07</v>
+      </c>
+      <c r="BF7" s="4" t="str">
+        <v>283,99</v>
+      </c>
+      <c r="BG7" s="4" t="str">
+        <v>101,00</v>
+      </c>
+      <c r="BH7" s="4" t="str">
+        <v>1,64</v>
+      </c>
+      <c r="BI7" s="4" t="str">
+        <v>273,80</v>
+      </c>
+      <c r="BJ7" s="4" t="str">
+        <v>273,80</v>
       </c>
     </row>
     <row r="8">
@@ -593,25 +1781,187 @@
         <v>4-5</v>
       </c>
       <c r="B8" s="4" t="str">
+        <v>397,20</v>
+      </c>
+      <c r="C8" s="4" t="str">
+        <v>390,00</v>
+      </c>
+      <c r="D8" s="4" t="str">
+        <v>428,00</v>
+      </c>
+      <c r="E8" s="4" t="str">
+        <v>386,00</v>
+      </c>
+      <c r="F8" s="4" t="str">
+        <v>392,00</v>
+      </c>
+      <c r="G8" s="4" t="str">
+        <v>430,00</v>
+      </c>
+      <c r="H8" s="4" t="str">
+        <v>400,00</v>
+      </c>
+      <c r="I8" s="4" t="str">
+        <v>398,00</v>
+      </c>
+      <c r="J8" s="4" t="str">
+        <v>390,00</v>
+      </c>
+      <c r="K8" s="4" t="str">
+        <v>390,00</v>
+      </c>
+      <c r="L8" s="4" t="str">
+        <v>359,99</v>
+      </c>
+      <c r="M8" s="4" t="str">
         <v>394,00</v>
       </c>
-      <c r="C8" s="4" t="str">
-        <v>272,00</v>
-      </c>
-      <c r="D8" s="4" t="str">
-        <v>381,08</v>
-      </c>
-      <c r="E8" s="4" t="str">
-        <v>408,00</v>
-      </c>
-      <c r="F8" s="4" t="str">
-        <v>397,20</v>
-      </c>
-      <c r="G8" s="4" t="str">
+      <c r="N8" s="4" t="str">
+        <v>420,00</v>
+      </c>
+      <c r="O8" s="4" t="str">
+        <v>415,78</v>
+      </c>
+      <c r="P8" s="4" t="str">
+        <v>385,00</v>
+      </c>
+      <c r="Q8" s="4" t="str">
+        <v>410,00</v>
+      </c>
+      <c r="R8" s="4" t="str">
+        <v>479,00</v>
+      </c>
+      <c r="S8" s="4" t="str">
+        <v>417,00</v>
+      </c>
+      <c r="T8" s="4" t="str">
+        <v>407,00</v>
+      </c>
+      <c r="U8" s="4" t="str">
+        <v>424,00</v>
+      </c>
+      <c r="V8" s="4" t="str">
+        <v>422,00</v>
+      </c>
+      <c r="W8" s="4" t="str">
+        <v>410,00</v>
+      </c>
+      <c r="X8" s="4" t="str">
+        <v>400,00</v>
+      </c>
+      <c r="Y8" s="4" t="str">
+        <v>420,00</v>
+      </c>
+      <c r="Z8" s="4" t="str">
+        <v>80,00</v>
+      </c>
+      <c r="AA8" s="4" t="str">
+        <v>396,11</v>
+      </c>
+      <c r="AB8" s="4" t="str">
+        <v>450,11</v>
+      </c>
+      <c r="AC8" s="4" t="str">
+        <v>383,30</v>
+      </c>
+      <c r="AD8" s="4" t="str">
         <v>390,00</v>
       </c>
-      <c r="H8" s="4" t="str">
-        <v>428,00</v>
+      <c r="AE8" s="4" t="str">
+        <v>440,00</v>
+      </c>
+      <c r="AF8" s="4" t="str">
+        <v>413,23</v>
+      </c>
+      <c r="AG8" s="4" t="str">
+        <v>398,00</v>
+      </c>
+      <c r="AH8" s="4" t="str">
+        <v>430,64</v>
+      </c>
+      <c r="AI8" s="4" t="str">
+        <v>435,30</v>
+      </c>
+      <c r="AJ8" s="4" t="str">
+        <v>410,91</v>
+      </c>
+      <c r="AK8" s="4" t="str">
+        <v>364,00</v>
+      </c>
+      <c r="AL8" s="4" t="str">
+        <v>350,00</v>
+      </c>
+      <c r="AM8" s="4" t="str">
+        <v>372,00</v>
+      </c>
+      <c r="AN8" s="4" t="str">
+        <v>330,99</v>
+      </c>
+      <c r="AO8" s="4" t="str">
+        <v>313,00</v>
+      </c>
+      <c r="AP8" s="4" t="str">
+        <v>412,30</v>
+      </c>
+      <c r="AQ8" s="4" t="str">
+        <v>374,00</v>
+      </c>
+      <c r="AR8" s="4" t="str">
+        <v>409,00</v>
+      </c>
+      <c r="AS8" s="4" t="str">
+        <v>385,23</v>
+      </c>
+      <c r="AT8" s="4" t="str">
+        <v>176,61</v>
+      </c>
+      <c r="AU8" s="4" t="str">
+        <v>235,80</v>
+      </c>
+      <c r="AV8" s="4" t="str">
+        <v>366,00</v>
+      </c>
+      <c r="AW8" s="4" t="str">
+        <v>378,00</v>
+      </c>
+      <c r="AX8" s="4" t="str">
+        <v>383,40</v>
+      </c>
+      <c r="AY8" s="4" t="str">
+        <v>367,30</v>
+      </c>
+      <c r="AZ8" s="4" t="str">
+        <v>372,60</v>
+      </c>
+      <c r="BA8" s="4" t="str">
+        <v>385,17</v>
+      </c>
+      <c r="BB8" s="4" t="str">
+        <v>375,00</v>
+      </c>
+      <c r="BC8" s="4" t="str">
+        <v>393,00</v>
+      </c>
+      <c r="BD8" s="4" t="str">
+        <v>372,41</v>
+      </c>
+      <c r="BE8" s="4" t="str">
+        <v>246,59</v>
+      </c>
+      <c r="BF8" s="4" t="str">
+        <v>290,00</v>
+      </c>
+      <c r="BG8" s="4" t="str">
+        <v>118,50</v>
+      </c>
+      <c r="BH8" s="4" t="str">
+        <v>1,66</v>
+      </c>
+      <c r="BI8" s="4" t="str">
+        <v>277,60</v>
+      </c>
+      <c r="BJ8" s="4" t="str">
+        <v>277,60</v>
       </c>
     </row>
     <row r="9">
@@ -619,25 +1969,187 @@
         <v>5-6</v>
       </c>
       <c r="B9" s="4" t="str">
+        <v>437,00</v>
+      </c>
+      <c r="C9" s="4" t="str">
+        <v>431,28</v>
+      </c>
+      <c r="D9" s="4" t="str">
+        <v>447,91</v>
+      </c>
+      <c r="E9" s="4" t="str">
+        <v>392,00</v>
+      </c>
+      <c r="F9" s="4" t="str">
+        <v>424,10</v>
+      </c>
+      <c r="G9" s="4" t="str">
+        <v>468,20</v>
+      </c>
+      <c r="H9" s="4" t="str">
+        <v>448,20</v>
+      </c>
+      <c r="I9" s="4" t="str">
+        <v>430,40</v>
+      </c>
+      <c r="J9" s="4" t="str">
+        <v>410,00</v>
+      </c>
+      <c r="K9" s="4" t="str">
+        <v>396,00</v>
+      </c>
+      <c r="L9" s="4" t="str">
+        <v>340,00</v>
+      </c>
+      <c r="M9" s="4" t="str">
+        <v>445,00</v>
+      </c>
+      <c r="N9" s="4" t="str">
+        <v>455,20</v>
+      </c>
+      <c r="O9" s="4" t="str">
+        <v>454,00</v>
+      </c>
+      <c r="P9" s="4" t="str">
+        <v>405,01</v>
+      </c>
+      <c r="Q9" s="4" t="str">
+        <v>418,49</v>
+      </c>
+      <c r="R9" s="4" t="str">
+        <v>465,00</v>
+      </c>
+      <c r="S9" s="4" t="str">
+        <v>406,80</v>
+      </c>
+      <c r="T9" s="4" t="str">
+        <v>440,00</v>
+      </c>
+      <c r="U9" s="4" t="str">
+        <v>451,59</v>
+      </c>
+      <c r="V9" s="4" t="str">
+        <v>450,00</v>
+      </c>
+      <c r="W9" s="4" t="str">
+        <v>446,30</v>
+      </c>
+      <c r="X9" s="4" t="str">
+        <v>416,00</v>
+      </c>
+      <c r="Y9" s="4" t="str">
+        <v>440,00</v>
+      </c>
+      <c r="Z9" s="4" t="str">
+        <v>77,00</v>
+      </c>
+      <c r="AA9" s="4" t="str">
+        <v>443,06</v>
+      </c>
+      <c r="AB9" s="4" t="str">
+        <v>492,20</v>
+      </c>
+      <c r="AC9" s="4" t="str">
+        <v>402,00</v>
+      </c>
+      <c r="AD9" s="4" t="str">
+        <v>415,96</v>
+      </c>
+      <c r="AE9" s="4" t="str">
+        <v>490,00</v>
+      </c>
+      <c r="AF9" s="4" t="str">
+        <v>457,80</v>
+      </c>
+      <c r="AG9" s="4" t="str">
+        <v>403,70</v>
+      </c>
+      <c r="AH9" s="4" t="str">
+        <v>514,00</v>
+      </c>
+      <c r="AI9" s="4" t="str">
+        <v>490,00</v>
+      </c>
+      <c r="AJ9" s="4" t="str">
+        <v>460,11</v>
+      </c>
+      <c r="AK9" s="4" t="str">
+        <v>400,00</v>
+      </c>
+      <c r="AL9" s="4" t="str">
+        <v>396,00</v>
+      </c>
+      <c r="AM9" s="4" t="str">
+        <v>376,00</v>
+      </c>
+      <c r="AN9" s="4" t="str">
+        <v>330,99</v>
+      </c>
+      <c r="AO9" s="4" t="str">
+        <v>368,00</v>
+      </c>
+      <c r="AP9" s="4" t="str">
+        <v>446,30</v>
+      </c>
+      <c r="AQ9" s="4" t="str">
         <v>382,00</v>
       </c>
-      <c r="C9" s="4" t="str">
-        <v>298,00</v>
-      </c>
-      <c r="D9" s="4" t="str">
-        <v>393,55</v>
-      </c>
-      <c r="E9" s="4" t="str">
-        <v>443,55</v>
-      </c>
-      <c r="F9" s="4" t="str">
-        <v>437,00</v>
-      </c>
-      <c r="G9" s="4" t="str">
-        <v>431,28</v>
-      </c>
-      <c r="H9" s="4" t="str">
-        <v>447,91</v>
+      <c r="AR9" s="4" t="str">
+        <v>453,00</v>
+      </c>
+      <c r="AS9" s="4" t="str">
+        <v>420,00</v>
+      </c>
+      <c r="AT9" s="4" t="str">
+        <v>220,00</v>
+      </c>
+      <c r="AU9" s="4" t="str">
+        <v>241,50</v>
+      </c>
+      <c r="AV9" s="4" t="str">
+        <v>371,30</v>
+      </c>
+      <c r="AW9" s="4" t="str">
+        <v>400,00</v>
+      </c>
+      <c r="AX9" s="4" t="str">
+        <v>430,00</v>
+      </c>
+      <c r="AY9" s="4" t="str">
+        <v>394,68</v>
+      </c>
+      <c r="AZ9" s="4" t="str">
+        <v>377,16</v>
+      </c>
+      <c r="BA9" s="4" t="str">
+        <v>399,00</v>
+      </c>
+      <c r="BB9" s="4" t="str">
+        <v>389,00</v>
+      </c>
+      <c r="BC9" s="4" t="str">
+        <v>430,00</v>
+      </c>
+      <c r="BD9" s="4" t="str">
+        <v>410,00</v>
+      </c>
+      <c r="BE9" s="4" t="str">
+        <v>324,70</v>
+      </c>
+      <c r="BF9" s="4" t="str">
+        <v>360,00</v>
+      </c>
+      <c r="BG9" s="4" t="str">
+        <v>227,40</v>
+      </c>
+      <c r="BH9" s="4" t="str">
+        <v>22,68</v>
+      </c>
+      <c r="BI9" s="4" t="str">
+        <v>286,90</v>
+      </c>
+      <c r="BJ9" s="4" t="str">
+        <v>286,90</v>
       </c>
     </row>
     <row r="10">
@@ -645,25 +2157,187 @@
         <v>6-7</v>
       </c>
       <c r="B10" s="4" t="str">
-        <v>412,00</v>
+        <v>530,00</v>
       </c>
       <c r="C10" s="4" t="str">
-        <v>406,00</v>
+        <v>542,00</v>
       </c>
       <c r="D10" s="4" t="str">
-        <v>509,11</v>
+        <v>480,00</v>
       </c>
       <c r="E10" s="4" t="str">
+        <v>396,00</v>
+      </c>
+      <c r="F10" s="4" t="str">
+        <v>505,60</v>
+      </c>
+      <c r="G10" s="4" t="str">
+        <v>528,00</v>
+      </c>
+      <c r="H10" s="4" t="str">
+        <v>547,00</v>
+      </c>
+      <c r="I10" s="4" t="str">
+        <v>567,78</v>
+      </c>
+      <c r="J10" s="4" t="str">
+        <v>520,00</v>
+      </c>
+      <c r="K10" s="4" t="str">
+        <v>400,00</v>
+      </c>
+      <c r="L10" s="4" t="str">
+        <v>320,00</v>
+      </c>
+      <c r="M10" s="4" t="str">
+        <v>590,00</v>
+      </c>
+      <c r="N10" s="4" t="str">
+        <v>590,00</v>
+      </c>
+      <c r="O10" s="4" t="str">
+        <v>541,16</v>
+      </c>
+      <c r="P10" s="4" t="str">
+        <v>409,10</v>
+      </c>
+      <c r="Q10" s="4" t="str">
+        <v>514,32</v>
+      </c>
+      <c r="R10" s="4" t="str">
+        <v>496,00</v>
+      </c>
+      <c r="S10" s="4" t="str">
+        <v>408,76</v>
+      </c>
+      <c r="T10" s="4" t="str">
+        <v>625,00</v>
+      </c>
+      <c r="U10" s="4" t="str">
+        <v>613,00</v>
+      </c>
+      <c r="V10" s="4" t="str">
+        <v>571,10</v>
+      </c>
+      <c r="W10" s="4" t="str">
+        <v>532,10</v>
+      </c>
+      <c r="X10" s="4" t="str">
+        <v>490,30</v>
+      </c>
+      <c r="Y10" s="4" t="str">
+        <v>480,00</v>
+      </c>
+      <c r="Z10" s="4" t="str">
+        <v>50,00</v>
+      </c>
+      <c r="AA10" s="4" t="str">
+        <v>594,60</v>
+      </c>
+      <c r="AB10" s="4" t="str">
+        <v>680,00</v>
+      </c>
+      <c r="AC10" s="4" t="str">
+        <v>520,00</v>
+      </c>
+      <c r="AD10" s="4" t="str">
         <v>550,00</v>
       </c>
-      <c r="F10" s="4" t="str">
-        <v>530,00</v>
-      </c>
-      <c r="G10" s="4" t="str">
-        <v>542,00</v>
-      </c>
-      <c r="H10" s="4" t="str">
-        <v>480,00</v>
+      <c r="AE10" s="4" t="str">
+        <v>657,31</v>
+      </c>
+      <c r="AF10" s="4" t="str">
+        <v>481,43</v>
+      </c>
+      <c r="AG10" s="4" t="str">
+        <v>400,00</v>
+      </c>
+      <c r="AH10" s="4" t="str">
+        <v>670,00</v>
+      </c>
+      <c r="AI10" s="4" t="str">
+        <v>760,00</v>
+      </c>
+      <c r="AJ10" s="4" t="str">
+        <v>644,00</v>
+      </c>
+      <c r="AK10" s="4" t="str">
+        <v>509,99</v>
+      </c>
+      <c r="AL10" s="4" t="str">
+        <v>504,00</v>
+      </c>
+      <c r="AM10" s="4" t="str">
+        <v>396,00</v>
+      </c>
+      <c r="AN10" s="4" t="str">
+        <v>320,00</v>
+      </c>
+      <c r="AO10" s="4" t="str">
+        <v>513,31</v>
+      </c>
+      <c r="AP10" s="4" t="str">
+        <v>591,40</v>
+      </c>
+      <c r="AQ10" s="4" t="str">
+        <v>503,15</v>
+      </c>
+      <c r="AR10" s="4" t="str">
+        <v>700,00</v>
+      </c>
+      <c r="AS10" s="4" t="str">
+        <v>580,00</v>
+      </c>
+      <c r="AT10" s="4" t="str">
+        <v>265,00</v>
+      </c>
+      <c r="AU10" s="4" t="str">
+        <v>251,80</v>
+      </c>
+      <c r="AV10" s="4" t="str">
+        <v>489,59</v>
+      </c>
+      <c r="AW10" s="4" t="str">
+        <v>527,00</v>
+      </c>
+      <c r="AX10" s="4" t="str">
+        <v>600,00</v>
+      </c>
+      <c r="AY10" s="4" t="str">
+        <v>582,00</v>
+      </c>
+      <c r="AZ10" s="4" t="str">
+        <v>510,00</v>
+      </c>
+      <c r="BA10" s="4" t="str">
+        <v>450,19</v>
+      </c>
+      <c r="BB10" s="4" t="str">
+        <v>390,27</v>
+      </c>
+      <c r="BC10" s="4" t="str">
+        <v>680,00</v>
+      </c>
+      <c r="BD10" s="4" t="str">
+        <v>550,00</v>
+      </c>
+      <c r="BE10" s="4" t="str">
+        <v>448,00</v>
+      </c>
+      <c r="BF10" s="4" t="str">
+        <v>433,00</v>
+      </c>
+      <c r="BG10" s="4" t="str">
+        <v>379,38</v>
+      </c>
+      <c r="BH10" s="4" t="str">
+        <v>85,00</v>
+      </c>
+      <c r="BI10" s="4" t="str">
+        <v>320,00</v>
+      </c>
+      <c r="BJ10" s="4" t="str">
+        <v>320,00</v>
       </c>
     </row>
     <row r="11">
@@ -671,25 +2345,187 @@
         <v>7-8</v>
       </c>
       <c r="B11" s="4" t="str">
-        <v>390,00</v>
+        <v>520,00</v>
       </c>
       <c r="C11" s="4" t="str">
-        <v>378,00</v>
+        <v>540,00</v>
       </c>
       <c r="D11" s="4" t="str">
+        <v>488,68</v>
+      </c>
+      <c r="E11" s="4" t="str">
+        <v>359,00</v>
+      </c>
+      <c r="F11" s="4" t="str">
         <v>506,40</v>
       </c>
-      <c r="E11" s="4" t="str">
+      <c r="G11" s="4" t="str">
+        <v>532,00</v>
+      </c>
+      <c r="H11" s="4" t="str">
+        <v>549,39</v>
+      </c>
+      <c r="I11" s="4" t="str">
+        <v>570,00</v>
+      </c>
+      <c r="J11" s="4" t="str">
+        <v>460,01</v>
+      </c>
+      <c r="K11" s="4" t="str">
+        <v>380,10</v>
+      </c>
+      <c r="L11" s="4" t="str">
+        <v>253,91</v>
+      </c>
+      <c r="M11" s="4" t="str">
+        <v>532,00</v>
+      </c>
+      <c r="N11" s="4" t="str">
+        <v>550,00</v>
+      </c>
+      <c r="O11" s="4" t="str">
+        <v>541,16</v>
+      </c>
+      <c r="P11" s="4" t="str">
+        <v>400,01</v>
+      </c>
+      <c r="Q11" s="4" t="str">
+        <v>517,80</v>
+      </c>
+      <c r="R11" s="4" t="str">
+        <v>500,00</v>
+      </c>
+      <c r="S11" s="4" t="str">
+        <v>404,00</v>
+      </c>
+      <c r="T11" s="4" t="str">
+        <v>659,00</v>
+      </c>
+      <c r="U11" s="4" t="str">
+        <v>570,69</v>
+      </c>
+      <c r="V11" s="4" t="str">
+        <v>599,90</v>
+      </c>
+      <c r="W11" s="4" t="str">
+        <v>520,01</v>
+      </c>
+      <c r="X11" s="4" t="str">
+        <v>478,30</v>
+      </c>
+      <c r="Y11" s="4" t="str">
+        <v>448,40</v>
+      </c>
+      <c r="Z11" s="4" t="str">
+        <v>26,34</v>
+      </c>
+      <c r="AA11" s="4" t="str">
+        <v>617,90</v>
+      </c>
+      <c r="AB11" s="4" t="str">
+        <v>710,16</v>
+      </c>
+      <c r="AC11" s="4" t="str">
         <v>530,00</v>
       </c>
-      <c r="F11" s="4" t="str">
-        <v>520,00</v>
-      </c>
-      <c r="G11" s="4" t="str">
-        <v>540,00</v>
-      </c>
-      <c r="H11" s="4" t="str">
-        <v>488,68</v>
+      <c r="AD11" s="4" t="str">
+        <v>572,36</v>
+      </c>
+      <c r="AE11" s="4" t="str">
+        <v>700,00</v>
+      </c>
+      <c r="AF11" s="4" t="str">
+        <v>492,00</v>
+      </c>
+      <c r="AG11" s="4" t="str">
+        <v>397,60</v>
+      </c>
+      <c r="AH11" s="4" t="str">
+        <v>700,00</v>
+      </c>
+      <c r="AI11" s="4" t="str">
+        <v>803,51</v>
+      </c>
+      <c r="AJ11" s="4" t="str">
+        <v>690,00</v>
+      </c>
+      <c r="AK11" s="4" t="str">
+        <v>520,58</v>
+      </c>
+      <c r="AL11" s="4" t="str">
+        <v>515,31</v>
+      </c>
+      <c r="AM11" s="4" t="str">
+        <v>392,80</v>
+      </c>
+      <c r="AN11" s="4" t="str">
+        <v>301,00</v>
+      </c>
+      <c r="AO11" s="4" t="str">
+        <v>546,90</v>
+      </c>
+      <c r="AP11" s="4" t="str">
+        <v>699,00</v>
+      </c>
+      <c r="AQ11" s="4" t="str">
+        <v>570,00</v>
+      </c>
+      <c r="AR11" s="4" t="str">
+        <v>800,00</v>
+      </c>
+      <c r="AS11" s="4" t="str">
+        <v>645,79</v>
+      </c>
+      <c r="AT11" s="4" t="str">
+        <v>321,99</v>
+      </c>
+      <c r="AU11" s="4" t="str">
+        <v>272,20</v>
+      </c>
+      <c r="AV11" s="4" t="str">
+        <v>624,94</v>
+      </c>
+      <c r="AW11" s="4" t="str">
+        <v>596,00</v>
+      </c>
+      <c r="AX11" s="4" t="str">
+        <v>698,03</v>
+      </c>
+      <c r="AY11" s="4" t="str">
+        <v>625,00</v>
+      </c>
+      <c r="AZ11" s="4" t="str">
+        <v>615,00</v>
+      </c>
+      <c r="BA11" s="4" t="str">
+        <v>490,00</v>
+      </c>
+      <c r="BB11" s="4" t="str">
+        <v>400,00</v>
+      </c>
+      <c r="BC11" s="4" t="str">
+        <v>769,00</v>
+      </c>
+      <c r="BD11" s="4" t="str">
+        <v>680,00</v>
+      </c>
+      <c r="BE11" s="4" t="str">
+        <v>458,90</v>
+      </c>
+      <c r="BF11" s="4" t="str">
+        <v>435,20</v>
+      </c>
+      <c r="BG11" s="4" t="str">
+        <v>394,49</v>
+      </c>
+      <c r="BH11" s="4" t="str">
+        <v>180,80</v>
+      </c>
+      <c r="BI11" s="4" t="str">
+        <v>351,64</v>
+      </c>
+      <c r="BJ11" s="4" t="str">
+        <v>351,64</v>
       </c>
     </row>
     <row r="12">
@@ -697,25 +2533,187 @@
         <v>8-9</v>
       </c>
       <c r="B12" s="4" t="str">
-        <v>361,04</v>
+        <v>432,41</v>
       </c>
       <c r="C12" s="4" t="str">
+        <v>488,50</v>
+      </c>
+      <c r="D12" s="4" t="str">
+        <v>524,27</v>
+      </c>
+      <c r="E12" s="4" t="str">
+        <v>259,99</v>
+      </c>
+      <c r="F12" s="4" t="str">
+        <v>470,00</v>
+      </c>
+      <c r="G12" s="4" t="str">
+        <v>488,10</v>
+      </c>
+      <c r="H12" s="4" t="str">
+        <v>470,00</v>
+      </c>
+      <c r="I12" s="4" t="str">
+        <v>512,97</v>
+      </c>
+      <c r="J12" s="4" t="str">
+        <v>372,64</v>
+      </c>
+      <c r="K12" s="4" t="str">
         <v>299,00</v>
       </c>
-      <c r="D12" s="4" t="str">
-        <v>416,30</v>
-      </c>
-      <c r="E12" s="4" t="str">
-        <v>420,00</v>
-      </c>
-      <c r="F12" s="4" t="str">
-        <v>432,41</v>
-      </c>
-      <c r="G12" s="4" t="str">
-        <v>488,50</v>
-      </c>
-      <c r="H12" s="4" t="str">
-        <v>524,27</v>
+      <c r="L12" s="4" t="str">
+        <v>100,00</v>
+      </c>
+      <c r="M12" s="4" t="str">
+        <v>436,00</v>
+      </c>
+      <c r="N12" s="4" t="str">
+        <v>468,50</v>
+      </c>
+      <c r="O12" s="4" t="str">
+        <v>465,00</v>
+      </c>
+      <c r="P12" s="4" t="str">
+        <v>363,73</v>
+      </c>
+      <c r="Q12" s="4" t="str">
+        <v>440,00</v>
+      </c>
+      <c r="R12" s="4" t="str">
+        <v>486,00</v>
+      </c>
+      <c r="S12" s="4" t="str">
+        <v>389,00</v>
+      </c>
+      <c r="T12" s="4" t="str">
+        <v>594,09</v>
+      </c>
+      <c r="U12" s="4" t="str">
+        <v>511,70</v>
+      </c>
+      <c r="V12" s="4" t="str">
+        <v>530,49</v>
+      </c>
+      <c r="W12" s="4" t="str">
+        <v>461,13</v>
+      </c>
+      <c r="X12" s="4" t="str">
+        <v>422,80</v>
+      </c>
+      <c r="Y12" s="4" t="str">
+        <v>409,40</v>
+      </c>
+      <c r="Z12" s="4" t="str">
+        <v>0,01</v>
+      </c>
+      <c r="AA12" s="4" t="str">
+        <v>540,00</v>
+      </c>
+      <c r="AB12" s="4" t="str">
+        <v>570,00</v>
+      </c>
+      <c r="AC12" s="4" t="str">
+        <v>479,10</v>
+      </c>
+      <c r="AD12" s="4" t="str">
+        <v>478,89</v>
+      </c>
+      <c r="AE12" s="4" t="str">
+        <v>570,00</v>
+      </c>
+      <c r="AF12" s="4" t="str">
+        <v>460,00</v>
+      </c>
+      <c r="AG12" s="4" t="str">
+        <v>306,90</v>
+      </c>
+      <c r="AH12" s="4" t="str">
+        <v>600,00</v>
+      </c>
+      <c r="AI12" s="4" t="str">
+        <v>628,27</v>
+      </c>
+      <c r="AJ12" s="4" t="str">
+        <v>608,00</v>
+      </c>
+      <c r="AK12" s="4" t="str">
+        <v>426,80</v>
+      </c>
+      <c r="AL12" s="4" t="str">
+        <v>500,00</v>
+      </c>
+      <c r="AM12" s="4" t="str">
+        <v>372,70</v>
+      </c>
+      <c r="AN12" s="4" t="str">
+        <v>213,00</v>
+      </c>
+      <c r="AO12" s="4" t="str">
+        <v>508,00</v>
+      </c>
+      <c r="AP12" s="4" t="str">
+        <v>647,00</v>
+      </c>
+      <c r="AQ12" s="4" t="str">
+        <v>474,00</v>
+      </c>
+      <c r="AR12" s="4" t="str">
+        <v>727,00</v>
+      </c>
+      <c r="AS12" s="4" t="str">
+        <v>593,29</v>
+      </c>
+      <c r="AT12" s="4" t="str">
+        <v>327,99</v>
+      </c>
+      <c r="AU12" s="4" t="str">
+        <v>254,40</v>
+      </c>
+      <c r="AV12" s="4" t="str">
+        <v>616,54</v>
+      </c>
+      <c r="AW12" s="4" t="str">
+        <v>511,00</v>
+      </c>
+      <c r="AX12" s="4" t="str">
+        <v>600,00</v>
+      </c>
+      <c r="AY12" s="4" t="str">
+        <v>517,90</v>
+      </c>
+      <c r="AZ12" s="4" t="str">
+        <v>485,00</v>
+      </c>
+      <c r="BA12" s="4" t="str">
+        <v>480,00</v>
+      </c>
+      <c r="BB12" s="4" t="str">
+        <v>329,99</v>
+      </c>
+      <c r="BC12" s="4" t="str">
+        <v>600,00</v>
+      </c>
+      <c r="BD12" s="4" t="str">
+        <v>538,00</v>
+      </c>
+      <c r="BE12" s="4" t="str">
+        <v>419,60</v>
+      </c>
+      <c r="BF12" s="4" t="str">
+        <v>377,66</v>
+      </c>
+      <c r="BG12" s="4" t="str">
+        <v>283,99</v>
+      </c>
+      <c r="BH12" s="4" t="str">
+        <v>160,00</v>
+      </c>
+      <c r="BI12" s="4" t="str">
+        <v>287,76</v>
+      </c>
+      <c r="BJ12" s="4" t="str">
+        <v>287,76</v>
       </c>
     </row>
     <row r="13">
@@ -723,25 +2721,187 @@
         <v>9-10</v>
       </c>
       <c r="B13" s="4" t="str">
-        <v>269,99</v>
+        <v>355,57</v>
       </c>
       <c r="C13" s="4" t="str">
-        <v>137,99</v>
+        <v>450,00</v>
       </c>
       <c r="D13" s="4" t="str">
-        <v>283,99</v>
+        <v>406,00</v>
       </c>
       <c r="E13" s="4" t="str">
-        <v>303,99</v>
+        <v>101,00</v>
       </c>
       <c r="F13" s="4" t="str">
-        <v>355,57</v>
+        <v>421,00</v>
       </c>
       <c r="G13" s="4" t="str">
-        <v>450,00</v>
+        <v>375,12</v>
       </c>
       <c r="H13" s="4" t="str">
-        <v>406,00</v>
+        <v>352,67</v>
+      </c>
+      <c r="I13" s="4" t="str">
+        <v>458,75</v>
+      </c>
+      <c r="J13" s="4" t="str">
+        <v>329,18</v>
+      </c>
+      <c r="K13" s="4" t="str">
+        <v>12,10</v>
+      </c>
+      <c r="L13" s="4" t="str">
+        <v>-50,00</v>
+      </c>
+      <c r="M13" s="4" t="str">
+        <v>290,00</v>
+      </c>
+      <c r="N13" s="4" t="str">
+        <v>320,00</v>
+      </c>
+      <c r="O13" s="4" t="str">
+        <v>339,99</v>
+      </c>
+      <c r="P13" s="4" t="str">
+        <v>200,00</v>
+      </c>
+      <c r="Q13" s="4" t="str">
+        <v>350,00</v>
+      </c>
+      <c r="R13" s="4" t="str">
+        <v>400,00</v>
+      </c>
+      <c r="S13" s="4" t="str">
+        <v>320,00</v>
+      </c>
+      <c r="T13" s="4" t="str">
+        <v>521,72</v>
+      </c>
+      <c r="U13" s="4" t="str">
+        <v>430,11</v>
+      </c>
+      <c r="V13" s="4" t="str">
+        <v>449,00</v>
+      </c>
+      <c r="W13" s="4" t="str">
+        <v>360,00</v>
+      </c>
+      <c r="X13" s="4" t="str">
+        <v>363,00</v>
+      </c>
+      <c r="Y13" s="4" t="str">
+        <v>239,99</v>
+      </c>
+      <c r="Z13" s="4" t="str">
+        <v>-49,99</v>
+      </c>
+      <c r="AA13" s="4" t="str">
+        <v>456,60</v>
+      </c>
+      <c r="AB13" s="4" t="str">
+        <v>410,11</v>
+      </c>
+      <c r="AC13" s="4" t="str">
+        <v>382,60</v>
+      </c>
+      <c r="AD13" s="4" t="str">
+        <v>378,50</v>
+      </c>
+      <c r="AE13" s="4" t="str">
+        <v>455,79</v>
+      </c>
+      <c r="AF13" s="4" t="str">
+        <v>353,20</v>
+      </c>
+      <c r="AG13" s="4" t="str">
+        <v>80,00</v>
+      </c>
+      <c r="AH13" s="4" t="str">
+        <v>498,79</v>
+      </c>
+      <c r="AI13" s="4" t="str">
+        <v>501,00</v>
+      </c>
+      <c r="AJ13" s="4" t="str">
+        <v>500,40</v>
+      </c>
+      <c r="AK13" s="4" t="str">
+        <v>353,73</v>
+      </c>
+      <c r="AL13" s="4" t="str">
+        <v>390,00</v>
+      </c>
+      <c r="AM13" s="4" t="str">
+        <v>271,00</v>
+      </c>
+      <c r="AN13" s="4" t="str">
+        <v>79,00</v>
+      </c>
+      <c r="AO13" s="4" t="str">
+        <v>479,60</v>
+      </c>
+      <c r="AP13" s="4" t="str">
+        <v>504,62</v>
+      </c>
+      <c r="AQ13" s="4" t="str">
+        <v>444,00</v>
+      </c>
+      <c r="AR13" s="4" t="str">
+        <v>560,00</v>
+      </c>
+      <c r="AS13" s="4" t="str">
+        <v>501,09</v>
+      </c>
+      <c r="AT13" s="4" t="str">
+        <v>275,52</v>
+      </c>
+      <c r="AU13" s="4" t="str">
+        <v>186,00</v>
+      </c>
+      <c r="AV13" s="4" t="str">
+        <v>567,36</v>
+      </c>
+      <c r="AW13" s="4" t="str">
+        <v>446,40</v>
+      </c>
+      <c r="AX13" s="4" t="str">
+        <v>425,00</v>
+      </c>
+      <c r="AY13" s="4" t="str">
+        <v>410,00</v>
+      </c>
+      <c r="AZ13" s="4" t="str">
+        <v>381,80</v>
+      </c>
+      <c r="BA13" s="4" t="str">
+        <v>303,80</v>
+      </c>
+      <c r="BB13" s="4" t="str">
+        <v>218,24</v>
+      </c>
+      <c r="BC13" s="4" t="str">
+        <v>467,00</v>
+      </c>
+      <c r="BD13" s="4" t="str">
+        <v>436,60</v>
+      </c>
+      <c r="BE13" s="4" t="str">
+        <v>327,99</v>
+      </c>
+      <c r="BF13" s="4" t="str">
+        <v>315,99</v>
+      </c>
+      <c r="BG13" s="4" t="str">
+        <v>154,70</v>
+      </c>
+      <c r="BH13" s="4" t="str">
+        <v>30,00</v>
+      </c>
+      <c r="BI13" s="4" t="str">
+        <v>150,00</v>
+      </c>
+      <c r="BJ13" s="4" t="str">
+        <v>150,00</v>
       </c>
     </row>
     <row r="14">
@@ -749,25 +2909,187 @@
         <v>10-11</v>
       </c>
       <c r="B14" s="4" t="str">
+        <v>288,00</v>
+      </c>
+      <c r="C14" s="4" t="str">
+        <v>404,00</v>
+      </c>
+      <c r="D14" s="4" t="str">
+        <v>388,80</v>
+      </c>
+      <c r="E14" s="4" t="str">
+        <v>30,00</v>
+      </c>
+      <c r="F14" s="4" t="str">
+        <v>380,00</v>
+      </c>
+      <c r="G14" s="4" t="str">
+        <v>329,99</v>
+      </c>
+      <c r="H14" s="4" t="str">
+        <v>261,00</v>
+      </c>
+      <c r="I14" s="4" t="str">
+        <v>400,00</v>
+      </c>
+      <c r="J14" s="4" t="str">
+        <v>160,00</v>
+      </c>
+      <c r="K14" s="4" t="str">
+        <v>-60,00</v>
+      </c>
+      <c r="L14" s="4" t="str">
+        <v>-135,00</v>
+      </c>
+      <c r="M14" s="4" t="str">
+        <v>129,50</v>
+      </c>
+      <c r="N14" s="4" t="str">
+        <v>170,00</v>
+      </c>
+      <c r="O14" s="4" t="str">
         <v>100,00</v>
       </c>
-      <c r="C14" s="4" t="str">
+      <c r="P14" s="4" t="str">
+        <v>40,00</v>
+      </c>
+      <c r="Q14" s="4" t="str">
+        <v>250,00</v>
+      </c>
+      <c r="R14" s="4" t="str">
+        <v>302,18</v>
+      </c>
+      <c r="S14" s="4" t="str">
+        <v>239,00</v>
+      </c>
+      <c r="T14" s="4" t="str">
+        <v>414,49</v>
+      </c>
+      <c r="U14" s="4" t="str">
+        <v>386,49</v>
+      </c>
+      <c r="V14" s="4" t="str">
+        <v>389,89</v>
+      </c>
+      <c r="W14" s="4" t="str">
+        <v>301,99</v>
+      </c>
+      <c r="X14" s="4" t="str">
+        <v>231,49</v>
+      </c>
+      <c r="Y14" s="4" t="str">
+        <v>0,01</v>
+      </c>
+      <c r="Z14" s="4" t="str">
+        <v>-225,00</v>
+      </c>
+      <c r="AA14" s="4" t="str">
+        <v>390,90</v>
+      </c>
+      <c r="AB14" s="4" t="str">
+        <v>300,00</v>
+      </c>
+      <c r="AC14" s="4" t="str">
+        <v>259,99</v>
+      </c>
+      <c r="AD14" s="4" t="str">
+        <v>230,00</v>
+      </c>
+      <c r="AE14" s="4" t="str">
+        <v>349,23</v>
+      </c>
+      <c r="AF14" s="4" t="str">
+        <v>190,00</v>
+      </c>
+      <c r="AG14" s="4" t="str">
+        <v>0,01</v>
+      </c>
+      <c r="AH14" s="4" t="str">
+        <v>399,00</v>
+      </c>
+      <c r="AI14" s="4" t="str">
+        <v>398,00</v>
+      </c>
+      <c r="AJ14" s="4" t="str">
+        <v>413,00</v>
+      </c>
+      <c r="AK14" s="4" t="str">
+        <v>200,00</v>
+      </c>
+      <c r="AL14" s="4" t="str">
+        <v>250,00</v>
+      </c>
+      <c r="AM14" s="4" t="str">
+        <v>125,00</v>
+      </c>
+      <c r="AN14" s="4" t="str">
+        <v>-20,00</v>
+      </c>
+      <c r="AO14" s="4" t="str">
+        <v>425,00</v>
+      </c>
+      <c r="AP14" s="4" t="str">
+        <v>446,00</v>
+      </c>
+      <c r="AQ14" s="4" t="str">
+        <v>307,00</v>
+      </c>
+      <c r="AR14" s="4" t="str">
+        <v>472,00</v>
+      </c>
+      <c r="AS14" s="4" t="str">
+        <v>443,10</v>
+      </c>
+      <c r="AT14" s="4" t="str">
+        <v>172,52</v>
+      </c>
+      <c r="AU14" s="4" t="str">
+        <v>40,00</v>
+      </c>
+      <c r="AV14" s="4" t="str">
+        <v>471,80</v>
+      </c>
+      <c r="AW14" s="4" t="str">
+        <v>365,80</v>
+      </c>
+      <c r="AX14" s="4" t="str">
+        <v>348,90</v>
+      </c>
+      <c r="AY14" s="4" t="str">
+        <v>319,60</v>
+      </c>
+      <c r="AZ14" s="4" t="str">
+        <v>277,00</v>
+      </c>
+      <c r="BA14" s="4" t="str">
+        <v>133,00</v>
+      </c>
+      <c r="BB14" s="4" t="str">
+        <v>40,00</v>
+      </c>
+      <c r="BC14" s="4" t="str">
+        <v>384,00</v>
+      </c>
+      <c r="BD14" s="4" t="str">
+        <v>354,83</v>
+      </c>
+      <c r="BE14" s="4" t="str">
+        <v>199,99</v>
+      </c>
+      <c r="BF14" s="4" t="str">
+        <v>262,70</v>
+      </c>
+      <c r="BG14" s="4" t="str">
         <v>0,00</v>
       </c>
-      <c r="D14" s="4" t="str">
-        <v>180,11</v>
-      </c>
-      <c r="E14" s="4" t="str">
-        <v>198,12</v>
-      </c>
-      <c r="F14" s="4" t="str">
-        <v>288,00</v>
-      </c>
-      <c r="G14" s="4" t="str">
-        <v>404,00</v>
-      </c>
-      <c r="H14" s="4" t="str">
-        <v>388,80</v>
+      <c r="BH14" s="4" t="str">
+        <v>0,00</v>
+      </c>
+      <c r="BI14" s="4" t="str">
+        <v>10,24</v>
+      </c>
+      <c r="BJ14" s="4" t="str">
+        <v>10,24</v>
       </c>
     </row>
     <row r="15">
@@ -775,25 +3097,187 @@
         <v>11-12</v>
       </c>
       <c r="B15" s="4" t="str">
-        <v>0,00</v>
+        <v>263,40</v>
       </c>
       <c r="C15" s="4" t="str">
-        <v>-31,00</v>
+        <v>390,34</v>
       </c>
       <c r="D15" s="4" t="str">
-        <v>90,11</v>
+        <v>377,76</v>
       </c>
       <c r="E15" s="4" t="str">
-        <v>105,95</v>
+        <v>45,99</v>
       </c>
       <c r="F15" s="4" t="str">
-        <v>263,40</v>
+        <v>349,89</v>
       </c>
       <c r="G15" s="4" t="str">
-        <v>390,34</v>
+        <v>307,99</v>
       </c>
       <c r="H15" s="4" t="str">
-        <v>377,76</v>
+        <v>220,00</v>
+      </c>
+      <c r="I15" s="4" t="str">
+        <v>394,30</v>
+      </c>
+      <c r="J15" s="4" t="str">
+        <v>119,00</v>
+      </c>
+      <c r="K15" s="4" t="str">
+        <v>-130,00</v>
+      </c>
+      <c r="L15" s="4" t="str">
+        <v>-220,00</v>
+      </c>
+      <c r="M15" s="4" t="str">
+        <v>58,88</v>
+      </c>
+      <c r="N15" s="4" t="str">
+        <v>99,00</v>
+      </c>
+      <c r="O15" s="4" t="str">
+        <v>30,00</v>
+      </c>
+      <c r="P15" s="4" t="str">
+        <v>1,00</v>
+      </c>
+      <c r="Q15" s="4" t="str">
+        <v>190,00</v>
+      </c>
+      <c r="R15" s="4" t="str">
+        <v>266,20</v>
+      </c>
+      <c r="S15" s="4" t="str">
+        <v>200,30</v>
+      </c>
+      <c r="T15" s="4" t="str">
+        <v>400,00</v>
+      </c>
+      <c r="U15" s="4" t="str">
+        <v>381,50</v>
+      </c>
+      <c r="V15" s="4" t="str">
+        <v>370,00</v>
+      </c>
+      <c r="W15" s="4" t="str">
+        <v>270,00</v>
+      </c>
+      <c r="X15" s="4" t="str">
+        <v>165,49</v>
+      </c>
+      <c r="Y15" s="4" t="str">
+        <v>-51,57</v>
+      </c>
+      <c r="Z15" s="4" t="str">
+        <v>-250,00</v>
+      </c>
+      <c r="AA15" s="4" t="str">
+        <v>390,00</v>
+      </c>
+      <c r="AB15" s="4" t="str">
+        <v>255,67</v>
+      </c>
+      <c r="AC15" s="4" t="str">
+        <v>150,00</v>
+      </c>
+      <c r="AD15" s="4" t="str">
+        <v>150,00</v>
+      </c>
+      <c r="AE15" s="4" t="str">
+        <v>310,11</v>
+      </c>
+      <c r="AF15" s="4" t="str">
+        <v>65,30</v>
+      </c>
+      <c r="AG15" s="4" t="str">
+        <v>-53,50</v>
+      </c>
+      <c r="AH15" s="4" t="str">
+        <v>334,51</v>
+      </c>
+      <c r="AI15" s="4" t="str">
+        <v>321,00</v>
+      </c>
+      <c r="AJ15" s="4" t="str">
+        <v>343,00</v>
+      </c>
+      <c r="AK15" s="4" t="str">
+        <v>50,00</v>
+      </c>
+      <c r="AL15" s="4" t="str">
+        <v>164,00</v>
+      </c>
+      <c r="AM15" s="4" t="str">
+        <v>0,01</v>
+      </c>
+      <c r="AN15" s="4" t="str">
+        <v>-100,00</v>
+      </c>
+      <c r="AO15" s="4" t="str">
+        <v>385,40</v>
+      </c>
+      <c r="AP15" s="4" t="str">
+        <v>427,00</v>
+      </c>
+      <c r="AQ15" s="4" t="str">
+        <v>260,00</v>
+      </c>
+      <c r="AR15" s="4" t="str">
+        <v>447,00</v>
+      </c>
+      <c r="AS15" s="4" t="str">
+        <v>443,10</v>
+      </c>
+      <c r="AT15" s="4" t="str">
+        <v>112,80</v>
+      </c>
+      <c r="AU15" s="4" t="str">
+        <v>0,01</v>
+      </c>
+      <c r="AV15" s="4" t="str">
+        <v>437,80</v>
+      </c>
+      <c r="AW15" s="4" t="str">
+        <v>309,99</v>
+      </c>
+      <c r="AX15" s="4" t="str">
+        <v>234,00</v>
+      </c>
+      <c r="AY15" s="4" t="str">
+        <v>200,00</v>
+      </c>
+      <c r="AZ15" s="4" t="str">
+        <v>155,99</v>
+      </c>
+      <c r="BA15" s="4" t="str">
+        <v>1,00</v>
+      </c>
+      <c r="BB15" s="4" t="str">
+        <v>-9,59</v>
+      </c>
+      <c r="BC15" s="4" t="str">
+        <v>350,00</v>
+      </c>
+      <c r="BD15" s="4" t="str">
+        <v>276,40</v>
+      </c>
+      <c r="BE15" s="4" t="str">
+        <v>108,74</v>
+      </c>
+      <c r="BF15" s="4" t="str">
+        <v>164,04</v>
+      </c>
+      <c r="BG15" s="4" t="str">
+        <v>-21,19</v>
+      </c>
+      <c r="BH15" s="4" t="str">
+        <v>-10,00</v>
+      </c>
+      <c r="BI15" s="4" t="str">
+        <v>-3,35</v>
+      </c>
+      <c r="BJ15" s="4" t="str">
+        <v>-3,35</v>
       </c>
     </row>
     <row r="16">
@@ -801,25 +3285,187 @@
         <v>12-13</v>
       </c>
       <c r="B16" s="4" t="str">
-        <v>-30,01</v>
+        <v>235,90</v>
       </c>
       <c r="C16" s="4" t="str">
-        <v>-55,00</v>
+        <v>387,59</v>
       </c>
       <c r="D16" s="4" t="str">
-        <v>30,00</v>
+        <v>361,40</v>
       </c>
       <c r="E16" s="4" t="str">
+        <v>79,99</v>
+      </c>
+      <c r="F16" s="4" t="str">
+        <v>330,00</v>
+      </c>
+      <c r="G16" s="4" t="str">
+        <v>310,00</v>
+      </c>
+      <c r="H16" s="4" t="str">
+        <v>150,00</v>
+      </c>
+      <c r="I16" s="4" t="str">
+        <v>390,00</v>
+      </c>
+      <c r="J16" s="4" t="str">
+        <v>50,00</v>
+      </c>
+      <c r="K16" s="4" t="str">
+        <v>-175,00</v>
+      </c>
+      <c r="L16" s="4" t="str">
+        <v>-350,00</v>
+      </c>
+      <c r="M16" s="4" t="str">
+        <v>9,36</v>
+      </c>
+      <c r="N16" s="4" t="str">
+        <v>51,10</v>
+      </c>
+      <c r="O16" s="4" t="str">
+        <v>20,00</v>
+      </c>
+      <c r="P16" s="4" t="str">
+        <v>0,01</v>
+      </c>
+      <c r="Q16" s="4" t="str">
+        <v>137,99</v>
+      </c>
+      <c r="R16" s="4" t="str">
+        <v>253,99</v>
+      </c>
+      <c r="S16" s="4" t="str">
+        <v>200,00</v>
+      </c>
+      <c r="T16" s="4" t="str">
+        <v>408,00</v>
+      </c>
+      <c r="U16" s="4" t="str">
+        <v>398,00</v>
+      </c>
+      <c r="V16" s="4" t="str">
+        <v>365,99</v>
+      </c>
+      <c r="W16" s="4" t="str">
+        <v>259,99</v>
+      </c>
+      <c r="X16" s="4" t="str">
+        <v>100,00</v>
+      </c>
+      <c r="Y16" s="4" t="str">
+        <v>-92,69</v>
+      </c>
+      <c r="Z16" s="4" t="str">
+        <v>-230,00</v>
+      </c>
+      <c r="AA16" s="4" t="str">
+        <v>392,00</v>
+      </c>
+      <c r="AB16" s="4" t="str">
+        <v>216,40</v>
+      </c>
+      <c r="AC16" s="4" t="str">
         <v>70,00</v>
       </c>
-      <c r="F16" s="4" t="str">
-        <v>235,90</v>
-      </c>
-      <c r="G16" s="4" t="str">
-        <v>387,59</v>
-      </c>
-      <c r="H16" s="4" t="str">
-        <v>361,40</v>
+      <c r="AD16" s="4" t="str">
+        <v>85,99</v>
+      </c>
+      <c r="AE16" s="4" t="str">
+        <v>273,99</v>
+      </c>
+      <c r="AF16" s="4" t="str">
+        <v>9,36</v>
+      </c>
+      <c r="AG16" s="4" t="str">
+        <v>-96,56</v>
+      </c>
+      <c r="AH16" s="4" t="str">
+        <v>283,79</v>
+      </c>
+      <c r="AI16" s="4" t="str">
+        <v>260,00</v>
+      </c>
+      <c r="AJ16" s="4" t="str">
+        <v>303,99</v>
+      </c>
+      <c r="AK16" s="4" t="str">
+        <v>-2,01</v>
+      </c>
+      <c r="AL16" s="4" t="str">
+        <v>74,99</v>
+      </c>
+      <c r="AM16" s="4" t="str">
+        <v>-10,00</v>
+      </c>
+      <c r="AN16" s="4" t="str">
+        <v>-112,01</v>
+      </c>
+      <c r="AO16" s="4" t="str">
+        <v>356,00</v>
+      </c>
+      <c r="AP16" s="4" t="str">
+        <v>408,80</v>
+      </c>
+      <c r="AQ16" s="4" t="str">
+        <v>223,40</v>
+      </c>
+      <c r="AR16" s="4" t="str">
+        <v>442,00</v>
+      </c>
+      <c r="AS16" s="4" t="str">
+        <v>401,99</v>
+      </c>
+      <c r="AT16" s="4" t="str">
+        <v>75,00</v>
+      </c>
+      <c r="AU16" s="4" t="str">
+        <v>0,00</v>
+      </c>
+      <c r="AV16" s="4" t="str">
+        <v>386,00</v>
+      </c>
+      <c r="AW16" s="4" t="str">
+        <v>249,89</v>
+      </c>
+      <c r="AX16" s="4" t="str">
+        <v>120,00</v>
+      </c>
+      <c r="AY16" s="4" t="str">
+        <v>20,38</v>
+      </c>
+      <c r="AZ16" s="4" t="str">
+        <v>0,01</v>
+      </c>
+      <c r="BA16" s="4" t="str">
+        <v>-3,36</v>
+      </c>
+      <c r="BB16" s="4" t="str">
+        <v>-66,83</v>
+      </c>
+      <c r="BC16" s="4" t="str">
+        <v>316,20</v>
+      </c>
+      <c r="BD16" s="4" t="str">
+        <v>242,22</v>
+      </c>
+      <c r="BE16" s="4" t="str">
+        <v>90,00</v>
+      </c>
+      <c r="BF16" s="4" t="str">
+        <v>106,30</v>
+      </c>
+      <c r="BG16" s="4" t="str">
+        <v>-50,00</v>
+      </c>
+      <c r="BH16" s="4" t="str">
+        <v>-3,39</v>
+      </c>
+      <c r="BI16" s="4" t="str">
+        <v>-5,01</v>
+      </c>
+      <c r="BJ16" s="4" t="str">
+        <v>-5,01</v>
       </c>
     </row>
     <row r="17">
@@ -827,25 +3473,187 @@
         <v>13-14</v>
       </c>
       <c r="B17" s="4" t="str">
-        <v>-71,01</v>
+        <v>241,99</v>
       </c>
       <c r="C17" s="4" t="str">
-        <v>-54,01</v>
+        <v>394,00</v>
       </c>
       <c r="D17" s="4" t="str">
-        <v>10,11</v>
+        <v>326,70</v>
       </c>
       <c r="E17" s="4" t="str">
-        <v>70,00</v>
+        <v>199,89</v>
       </c>
       <c r="F17" s="4" t="str">
-        <v>241,99</v>
+        <v>311,99</v>
       </c>
       <c r="G17" s="4" t="str">
+        <v>313,12</v>
+      </c>
+      <c r="H17" s="4" t="str">
+        <v>150,00</v>
+      </c>
+      <c r="I17" s="4" t="str">
+        <v>396,00</v>
+      </c>
+      <c r="J17" s="4" t="str">
+        <v>50,00</v>
+      </c>
+      <c r="K17" s="4" t="str">
+        <v>-250,00</v>
+      </c>
+      <c r="L17" s="4" t="str">
+        <v>-357,00</v>
+      </c>
+      <c r="M17" s="4" t="str">
+        <v>10,00</v>
+      </c>
+      <c r="N17" s="4" t="str">
+        <v>54,03</v>
+      </c>
+      <c r="O17" s="4" t="str">
+        <v>25,00</v>
+      </c>
+      <c r="P17" s="4" t="str">
+        <v>6,00</v>
+      </c>
+      <c r="Q17" s="4" t="str">
+        <v>119,99</v>
+      </c>
+      <c r="R17" s="4" t="str">
+        <v>251,02</v>
+      </c>
+      <c r="S17" s="4" t="str">
+        <v>189,00</v>
+      </c>
+      <c r="T17" s="4" t="str">
+        <v>407,32</v>
+      </c>
+      <c r="U17" s="4" t="str">
+        <v>398,00</v>
+      </c>
+      <c r="V17" s="4" t="str">
+        <v>399,00</v>
+      </c>
+      <c r="W17" s="4" t="str">
+        <v>290,00</v>
+      </c>
+      <c r="X17" s="4" t="str">
+        <v>31,11</v>
+      </c>
+      <c r="Y17" s="4" t="str">
+        <v>-115,00</v>
+      </c>
+      <c r="Z17" s="4" t="str">
+        <v>-223,26</v>
+      </c>
+      <c r="AA17" s="4" t="str">
+        <v>388,80</v>
+      </c>
+      <c r="AB17" s="4" t="str">
+        <v>245,50</v>
+      </c>
+      <c r="AC17" s="4" t="str">
+        <v>55,00</v>
+      </c>
+      <c r="AD17" s="4" t="str">
+        <v>50,00</v>
+      </c>
+      <c r="AE17" s="4" t="str">
+        <v>277,99</v>
+      </c>
+      <c r="AF17" s="4" t="str">
+        <v>0,00</v>
+      </c>
+      <c r="AG17" s="4" t="str">
+        <v>-175,49</v>
+      </c>
+      <c r="AH17" s="4" t="str">
+        <v>295,99</v>
+      </c>
+      <c r="AI17" s="4" t="str">
+        <v>246,73</v>
+      </c>
+      <c r="AJ17" s="4" t="str">
+        <v>281,99</v>
+      </c>
+      <c r="AK17" s="4" t="str">
+        <v>-9,66</v>
+      </c>
+      <c r="AL17" s="4" t="str">
+        <v>49,99</v>
+      </c>
+      <c r="AM17" s="4" t="str">
+        <v>-22,77</v>
+      </c>
+      <c r="AN17" s="4" t="str">
+        <v>-100,00</v>
+      </c>
+      <c r="AO17" s="4" t="str">
+        <v>371,70</v>
+      </c>
+      <c r="AP17" s="4" t="str">
         <v>394,00</v>
       </c>
-      <c r="H17" s="4" t="str">
-        <v>326,70</v>
+      <c r="AQ17" s="4" t="str">
+        <v>223,90</v>
+      </c>
+      <c r="AR17" s="4" t="str">
+        <v>434,89</v>
+      </c>
+      <c r="AS17" s="4" t="str">
+        <v>441,95</v>
+      </c>
+      <c r="AT17" s="4" t="str">
+        <v>85,30</v>
+      </c>
+      <c r="AU17" s="4" t="str">
+        <v>0,02</v>
+      </c>
+      <c r="AV17" s="4" t="str">
+        <v>366,00</v>
+      </c>
+      <c r="AW17" s="4" t="str">
+        <v>207,99</v>
+      </c>
+      <c r="AX17" s="4" t="str">
+        <v>129,99</v>
+      </c>
+      <c r="AY17" s="4" t="str">
+        <v>4,89</v>
+      </c>
+      <c r="AZ17" s="4" t="str">
+        <v>0,01</v>
+      </c>
+      <c r="BA17" s="4" t="str">
+        <v>-1,42</v>
+      </c>
+      <c r="BB17" s="4" t="str">
+        <v>-62,01</v>
+      </c>
+      <c r="BC17" s="4" t="str">
+        <v>309,80</v>
+      </c>
+      <c r="BD17" s="4" t="str">
+        <v>227,99</v>
+      </c>
+      <c r="BE17" s="4" t="str">
+        <v>109,99</v>
+      </c>
+      <c r="BF17" s="4" t="str">
+        <v>82,19</v>
+      </c>
+      <c r="BG17" s="4" t="str">
+        <v>-40,00</v>
+      </c>
+      <c r="BH17" s="4" t="str">
+        <v>-3,37</v>
+      </c>
+      <c r="BI17" s="4" t="str">
+        <v>-3,35</v>
+      </c>
+      <c r="BJ17" s="4" t="str">
+        <v>-3,35</v>
       </c>
     </row>
     <row r="18">
@@ -853,25 +3661,187 @@
         <v>14-15</v>
       </c>
       <c r="B18" s="4" t="str">
-        <v>-190,00</v>
+        <v>233,99</v>
       </c>
       <c r="C18" s="4" t="str">
-        <v>-30,01</v>
+        <v>406,00</v>
       </c>
       <c r="D18" s="4" t="str">
-        <v>21,40</v>
+        <v>300,00</v>
       </c>
       <c r="E18" s="4" t="str">
-        <v>100,00</v>
+        <v>217,99</v>
       </c>
       <c r="F18" s="4" t="str">
-        <v>233,99</v>
+        <v>305,99</v>
       </c>
       <c r="G18" s="4" t="str">
-        <v>406,00</v>
+        <v>321,99</v>
       </c>
       <c r="H18" s="4" t="str">
-        <v>300,00</v>
+        <v>186,75</v>
+      </c>
+      <c r="I18" s="4" t="str">
+        <v>388,05</v>
+      </c>
+      <c r="J18" s="4" t="str">
+        <v>179,99</v>
+      </c>
+      <c r="K18" s="4" t="str">
+        <v>-278,83</v>
+      </c>
+      <c r="L18" s="4" t="str">
+        <v>-360,00</v>
+      </c>
+      <c r="M18" s="4" t="str">
+        <v>16,00</v>
+      </c>
+      <c r="N18" s="4" t="str">
+        <v>101,99</v>
+      </c>
+      <c r="O18" s="4" t="str">
+        <v>58,69</v>
+      </c>
+      <c r="P18" s="4" t="str">
+        <v>13,80</v>
+      </c>
+      <c r="Q18" s="4" t="str">
+        <v>140,00</v>
+      </c>
+      <c r="R18" s="4" t="str">
+        <v>265,99</v>
+      </c>
+      <c r="S18" s="4" t="str">
+        <v>240,00</v>
+      </c>
+      <c r="T18" s="4" t="str">
+        <v>408,00</v>
+      </c>
+      <c r="U18" s="4" t="str">
+        <v>408,00</v>
+      </c>
+      <c r="V18" s="4" t="str">
+        <v>366,39</v>
+      </c>
+      <c r="W18" s="4" t="str">
+        <v>349,99</v>
+      </c>
+      <c r="X18" s="4" t="str">
+        <v>30,00</v>
+      </c>
+      <c r="Y18" s="4" t="str">
+        <v>-49,99</v>
+      </c>
+      <c r="Z18" s="4" t="str">
+        <v>-150,10</v>
+      </c>
+      <c r="AA18" s="4" t="str">
+        <v>398,00</v>
+      </c>
+      <c r="AB18" s="4" t="str">
+        <v>287,66</v>
+      </c>
+      <c r="AC18" s="4" t="str">
+        <v>90,00</v>
+      </c>
+      <c r="AD18" s="4" t="str">
+        <v>108,88</v>
+      </c>
+      <c r="AE18" s="4" t="str">
+        <v>319,20</v>
+      </c>
+      <c r="AF18" s="4" t="str">
+        <v>1,00</v>
+      </c>
+      <c r="AG18" s="4" t="str">
+        <v>-131,37</v>
+      </c>
+      <c r="AH18" s="4" t="str">
+        <v>347,99</v>
+      </c>
+      <c r="AI18" s="4" t="str">
+        <v>329,93</v>
+      </c>
+      <c r="AJ18" s="4" t="str">
+        <v>338,57</v>
+      </c>
+      <c r="AK18" s="4" t="str">
+        <v>0,01</v>
+      </c>
+      <c r="AL18" s="4" t="str">
+        <v>74,99</v>
+      </c>
+      <c r="AM18" s="4" t="str">
+        <v>-0,90</v>
+      </c>
+      <c r="AN18" s="4" t="str">
+        <v>-82,01</v>
+      </c>
+      <c r="AO18" s="4" t="str">
+        <v>366,92</v>
+      </c>
+      <c r="AP18" s="4" t="str">
+        <v>380,00</v>
+      </c>
+      <c r="AQ18" s="4" t="str">
+        <v>240,11</v>
+      </c>
+      <c r="AR18" s="4" t="str">
+        <v>434,50</v>
+      </c>
+      <c r="AS18" s="4" t="str">
+        <v>434,00</v>
+      </c>
+      <c r="AT18" s="4" t="str">
+        <v>58,99</v>
+      </c>
+      <c r="AU18" s="4" t="str">
+        <v>0,01</v>
+      </c>
+      <c r="AV18" s="4" t="str">
+        <v>370,00</v>
+      </c>
+      <c r="AW18" s="4" t="str">
+        <v>210,00</v>
+      </c>
+      <c r="AX18" s="4" t="str">
+        <v>245,99</v>
+      </c>
+      <c r="AY18" s="4" t="str">
+        <v>5,00</v>
+      </c>
+      <c r="AZ18" s="4" t="str">
+        <v>1,00</v>
+      </c>
+      <c r="BA18" s="4" t="str">
+        <v>1,00</v>
+      </c>
+      <c r="BB18" s="4" t="str">
+        <v>-3,35</v>
+      </c>
+      <c r="BC18" s="4" t="str">
+        <v>336,51</v>
+      </c>
+      <c r="BD18" s="4" t="str">
+        <v>250,00</v>
+      </c>
+      <c r="BE18" s="4" t="str">
+        <v>184,00</v>
+      </c>
+      <c r="BF18" s="4" t="str">
+        <v>119,00</v>
+      </c>
+      <c r="BG18" s="4" t="str">
+        <v>-3,38</v>
+      </c>
+      <c r="BH18" s="4" t="str">
+        <v>0,00</v>
+      </c>
+      <c r="BI18" s="4" t="str">
+        <v>0,00</v>
+      </c>
+      <c r="BJ18" s="4" t="str">
+        <v>0,00</v>
       </c>
     </row>
     <row r="19">
@@ -879,25 +3849,187 @@
         <v>15-16</v>
       </c>
       <c r="B19" s="4" t="str">
-        <v>-176,00</v>
+        <v>295,67</v>
       </c>
       <c r="C19" s="4" t="str">
-        <v>0,01</v>
+        <v>482,86</v>
       </c>
       <c r="D19" s="4" t="str">
-        <v>165,00</v>
+        <v>340,00</v>
       </c>
       <c r="E19" s="4" t="str">
-        <v>239,99</v>
+        <v>330,27</v>
       </c>
       <c r="F19" s="4" t="str">
-        <v>295,67</v>
+        <v>347,99</v>
       </c>
       <c r="G19" s="4" t="str">
-        <v>482,86</v>
+        <v>359,99</v>
       </c>
       <c r="H19" s="4" t="str">
-        <v>340,00</v>
+        <v>279,99</v>
+      </c>
+      <c r="I19" s="4" t="str">
+        <v>390,83</v>
+      </c>
+      <c r="J19" s="4" t="str">
+        <v>263,99</v>
+      </c>
+      <c r="K19" s="4" t="str">
+        <v>-201,00</v>
+      </c>
+      <c r="L19" s="4" t="str">
+        <v>-293,00</v>
+      </c>
+      <c r="M19" s="4" t="str">
+        <v>55,00</v>
+      </c>
+      <c r="N19" s="4" t="str">
+        <v>190,41</v>
+      </c>
+      <c r="O19" s="4" t="str">
+        <v>181,99</v>
+      </c>
+      <c r="P19" s="4" t="str">
+        <v>63,00</v>
+      </c>
+      <c r="Q19" s="4" t="str">
+        <v>199,99</v>
+      </c>
+      <c r="R19" s="4" t="str">
+        <v>311,99</v>
+      </c>
+      <c r="S19" s="4" t="str">
+        <v>299,99</v>
+      </c>
+      <c r="T19" s="4" t="str">
+        <v>400,00</v>
+      </c>
+      <c r="U19" s="4" t="str">
+        <v>406,32</v>
+      </c>
+      <c r="V19" s="4" t="str">
+        <v>365,99</v>
+      </c>
+      <c r="W19" s="4" t="str">
+        <v>400,00</v>
+      </c>
+      <c r="X19" s="4" t="str">
+        <v>150,00</v>
+      </c>
+      <c r="Y19" s="4" t="str">
+        <v>10,00</v>
+      </c>
+      <c r="Z19" s="4" t="str">
+        <v>-49,98</v>
+      </c>
+      <c r="AA19" s="4" t="str">
+        <v>447,40</v>
+      </c>
+      <c r="AB19" s="4" t="str">
+        <v>343,99</v>
+      </c>
+      <c r="AC19" s="4" t="str">
+        <v>282,89</v>
+      </c>
+      <c r="AD19" s="4" t="str">
+        <v>288,00</v>
+      </c>
+      <c r="AE19" s="4" t="str">
+        <v>398,00</v>
+      </c>
+      <c r="AF19" s="4" t="str">
+        <v>211,99</v>
+      </c>
+      <c r="AG19" s="4" t="str">
+        <v>-0,02</v>
+      </c>
+      <c r="AH19" s="4" t="str">
+        <v>360,80</v>
+      </c>
+      <c r="AI19" s="4" t="str">
+        <v>390,00</v>
+      </c>
+      <c r="AJ19" s="4" t="str">
+        <v>390,00</v>
+      </c>
+      <c r="AK19" s="4" t="str">
+        <v>56,85</v>
+      </c>
+      <c r="AL19" s="4" t="str">
+        <v>150,00</v>
+      </c>
+      <c r="AM19" s="4" t="str">
+        <v>70,50</v>
+      </c>
+      <c r="AN19" s="4" t="str">
+        <v>-4,16</v>
+      </c>
+      <c r="AO19" s="4" t="str">
+        <v>391,72</v>
+      </c>
+      <c r="AP19" s="4" t="str">
+        <v>409,00</v>
+      </c>
+      <c r="AQ19" s="4" t="str">
+        <v>315,99</v>
+      </c>
+      <c r="AR19" s="4" t="str">
+        <v>490,00</v>
+      </c>
+      <c r="AS19" s="4" t="str">
+        <v>442,00</v>
+      </c>
+      <c r="AT19" s="4" t="str">
+        <v>116,23</v>
+      </c>
+      <c r="AU19" s="4" t="str">
+        <v>97,30</v>
+      </c>
+      <c r="AV19" s="4" t="str">
+        <v>390,85</v>
+      </c>
+      <c r="AW19" s="4" t="str">
+        <v>366,74</v>
+      </c>
+      <c r="AX19" s="4" t="str">
+        <v>368,43</v>
+      </c>
+      <c r="AY19" s="4" t="str">
+        <v>200,00</v>
+      </c>
+      <c r="AZ19" s="4" t="str">
+        <v>201,99</v>
+      </c>
+      <c r="BA19" s="4" t="str">
+        <v>175,00</v>
+      </c>
+      <c r="BB19" s="4" t="str">
+        <v>60,00</v>
+      </c>
+      <c r="BC19" s="4" t="str">
+        <v>383,00</v>
+      </c>
+      <c r="BD19" s="4" t="str">
+        <v>300,00</v>
+      </c>
+      <c r="BE19" s="4" t="str">
+        <v>300,01</v>
+      </c>
+      <c r="BF19" s="4" t="str">
+        <v>201,48</v>
+      </c>
+      <c r="BG19" s="4" t="str">
+        <v>5,00</v>
+      </c>
+      <c r="BH19" s="4" t="str">
+        <v>9,00</v>
+      </c>
+      <c r="BI19" s="4" t="str">
+        <v>60,00</v>
+      </c>
+      <c r="BJ19" s="4" t="str">
+        <v>60,00</v>
       </c>
     </row>
     <row r="20">
@@ -905,25 +4037,187 @@
         <v>16-17</v>
       </c>
       <c r="B20" s="4" t="str">
-        <v>-111,00</v>
+        <v>385,69</v>
       </c>
       <c r="C20" s="4" t="str">
-        <v>90,00</v>
+        <v>482,86</v>
       </c>
       <c r="D20" s="4" t="str">
-        <v>315,99</v>
+        <v>399,99</v>
       </c>
       <c r="E20" s="4" t="str">
-        <v>370,60</v>
+        <v>386,00</v>
       </c>
       <c r="F20" s="4" t="str">
-        <v>385,69</v>
+        <v>380,00</v>
       </c>
       <c r="G20" s="4" t="str">
-        <v>482,86</v>
+        <v>412,00</v>
       </c>
       <c r="H20" s="4" t="str">
+        <v>364,48</v>
+      </c>
+      <c r="I20" s="4" t="str">
+        <v>420,00</v>
+      </c>
+      <c r="J20" s="4" t="str">
+        <v>367,99</v>
+      </c>
+      <c r="K20" s="4" t="str">
+        <v>-55,00</v>
+      </c>
+      <c r="L20" s="4" t="str">
+        <v>-99,00</v>
+      </c>
+      <c r="M20" s="4" t="str">
+        <v>289,89</v>
+      </c>
+      <c r="N20" s="4" t="str">
+        <v>340,00</v>
+      </c>
+      <c r="O20" s="4" t="str">
+        <v>335,01</v>
+      </c>
+      <c r="P20" s="4" t="str">
+        <v>249,99</v>
+      </c>
+      <c r="Q20" s="4" t="str">
+        <v>329,99</v>
+      </c>
+      <c r="R20" s="4" t="str">
+        <v>420,00</v>
+      </c>
+      <c r="S20" s="4" t="str">
+        <v>327,00</v>
+      </c>
+      <c r="T20" s="4" t="str">
+        <v>448,50</v>
+      </c>
+      <c r="U20" s="4" t="str">
+        <v>510,00</v>
+      </c>
+      <c r="V20" s="4" t="str">
+        <v>380,00</v>
+      </c>
+      <c r="W20" s="4" t="str">
+        <v>521,20</v>
+      </c>
+      <c r="X20" s="4" t="str">
+        <v>300,00</v>
+      </c>
+      <c r="Y20" s="4" t="str">
+        <v>333,15</v>
+      </c>
+      <c r="Z20" s="4" t="str">
+        <v>138,65</v>
+      </c>
+      <c r="AA20" s="4" t="str">
+        <v>526,00</v>
+      </c>
+      <c r="AB20" s="4" t="str">
+        <v>399,69</v>
+      </c>
+      <c r="AC20" s="4" t="str">
+        <v>388,49</v>
+      </c>
+      <c r="AD20" s="4" t="str">
+        <v>400,00</v>
+      </c>
+      <c r="AE20" s="4" t="str">
+        <v>552,99</v>
+      </c>
+      <c r="AF20" s="4" t="str">
+        <v>411,00</v>
+      </c>
+      <c r="AG20" s="4" t="str">
+        <v>297,99</v>
+      </c>
+      <c r="AH20" s="4" t="str">
+        <v>471,00</v>
+      </c>
+      <c r="AI20" s="4" t="str">
+        <v>510,00</v>
+      </c>
+      <c r="AJ20" s="4" t="str">
+        <v>475,56</v>
+      </c>
+      <c r="AK20" s="4" t="str">
+        <v>271,99</v>
+      </c>
+      <c r="AL20" s="4" t="str">
+        <v>341,97</v>
+      </c>
+      <c r="AM20" s="4" t="str">
+        <v>287,99</v>
+      </c>
+      <c r="AN20" s="4" t="str">
+        <v>184,00</v>
+      </c>
+      <c r="AO20" s="4" t="str">
+        <v>429,00</v>
+      </c>
+      <c r="AP20" s="4" t="str">
+        <v>493,40</v>
+      </c>
+      <c r="AQ20" s="4" t="str">
+        <v>446,50</v>
+      </c>
+      <c r="AR20" s="4" t="str">
+        <v>592,45</v>
+      </c>
+      <c r="AS20" s="4" t="str">
+        <v>443,10</v>
+      </c>
+      <c r="AT20" s="4" t="str">
+        <v>195,50</v>
+      </c>
+      <c r="AU20" s="4" t="str">
+        <v>257,66</v>
+      </c>
+      <c r="AV20" s="4" t="str">
+        <v>437,80</v>
+      </c>
+      <c r="AW20" s="4" t="str">
+        <v>471,25</v>
+      </c>
+      <c r="AX20" s="4" t="str">
+        <v>447,34</v>
+      </c>
+      <c r="AY20" s="4" t="str">
+        <v>425,19</v>
+      </c>
+      <c r="AZ20" s="4" t="str">
+        <v>400,00</v>
+      </c>
+      <c r="BA20" s="4" t="str">
+        <v>480,00</v>
+      </c>
+      <c r="BB20" s="4" t="str">
+        <v>368,72</v>
+      </c>
+      <c r="BC20" s="4" t="str">
+        <v>475,00</v>
+      </c>
+      <c r="BD20" s="4" t="str">
         <v>399,99</v>
+      </c>
+      <c r="BE20" s="4" t="str">
+        <v>416,00</v>
+      </c>
+      <c r="BF20" s="4" t="str">
+        <v>280,00</v>
+      </c>
+      <c r="BG20" s="4" t="str">
+        <v>281,00</v>
+      </c>
+      <c r="BH20" s="4" t="str">
+        <v>300,00</v>
+      </c>
+      <c r="BI20" s="4" t="str">
+        <v>376,40</v>
+      </c>
+      <c r="BJ20" s="4" t="str">
+        <v>376,40</v>
       </c>
     </row>
     <row r="21">
@@ -931,25 +4225,187 @@
         <v>17-18</v>
       </c>
       <c r="B21" s="4" t="str">
-        <v>-15,00</v>
+        <v>444,97</v>
       </c>
       <c r="C21" s="4" t="str">
-        <v>281,99</v>
+        <v>469,00</v>
       </c>
       <c r="D21" s="4" t="str">
-        <v>380,60</v>
+        <v>492,90</v>
       </c>
       <c r="E21" s="4" t="str">
-        <v>379,00</v>
+        <v>482,00</v>
       </c>
       <c r="F21" s="4" t="str">
-        <v>444,97</v>
+        <v>408,51</v>
       </c>
       <c r="G21" s="4" t="str">
-        <v>469,00</v>
+        <v>482,00</v>
       </c>
       <c r="H21" s="4" t="str">
-        <v>492,90</v>
+        <v>430,00</v>
+      </c>
+      <c r="I21" s="4" t="str">
+        <v>480,00</v>
+      </c>
+      <c r="J21" s="4" t="str">
+        <v>405,00</v>
+      </c>
+      <c r="K21" s="4" t="str">
+        <v>271,99</v>
+      </c>
+      <c r="L21" s="4" t="str">
+        <v>25,00</v>
+      </c>
+      <c r="M21" s="4" t="str">
+        <v>380,00</v>
+      </c>
+      <c r="N21" s="4" t="str">
+        <v>429,53</v>
+      </c>
+      <c r="O21" s="4" t="str">
+        <v>420,11</v>
+      </c>
+      <c r="P21" s="4" t="str">
+        <v>484,00</v>
+      </c>
+      <c r="Q21" s="4" t="str">
+        <v>450,00</v>
+      </c>
+      <c r="R21" s="4" t="str">
+        <v>500,00</v>
+      </c>
+      <c r="S21" s="4" t="str">
+        <v>414,00</v>
+      </c>
+      <c r="T21" s="4" t="str">
+        <v>540,00</v>
+      </c>
+      <c r="U21" s="4" t="str">
+        <v>600,11</v>
+      </c>
+      <c r="V21" s="4" t="str">
+        <v>394,79</v>
+      </c>
+      <c r="W21" s="4" t="str">
+        <v>548,64</v>
+      </c>
+      <c r="X21" s="4" t="str">
+        <v>410,00</v>
+      </c>
+      <c r="Y21" s="4" t="str">
+        <v>503,90</v>
+      </c>
+      <c r="Z21" s="4" t="str">
+        <v>400,00</v>
+      </c>
+      <c r="AA21" s="4" t="str">
+        <v>645,75</v>
+      </c>
+      <c r="AB21" s="4" t="str">
+        <v>560,00</v>
+      </c>
+      <c r="AC21" s="4" t="str">
+        <v>508,93</v>
+      </c>
+      <c r="AD21" s="4" t="str">
+        <v>627,30</v>
+      </c>
+      <c r="AE21" s="4" t="str">
+        <v>750,00</v>
+      </c>
+      <c r="AF21" s="4" t="str">
+        <v>516,60</v>
+      </c>
+      <c r="AG21" s="4" t="str">
+        <v>465,40</v>
+      </c>
+      <c r="AH21" s="4" t="str">
+        <v>670,00</v>
+      </c>
+      <c r="AI21" s="4" t="str">
+        <v>849,00</v>
+      </c>
+      <c r="AJ21" s="4" t="str">
+        <v>789,00</v>
+      </c>
+      <c r="AK21" s="4" t="str">
+        <v>464,00</v>
+      </c>
+      <c r="AL21" s="4" t="str">
+        <v>500,00</v>
+      </c>
+      <c r="AM21" s="4" t="str">
+        <v>494,00</v>
+      </c>
+      <c r="AN21" s="4" t="str">
+        <v>419,00</v>
+      </c>
+      <c r="AO21" s="4" t="str">
+        <v>513,86</v>
+      </c>
+      <c r="AP21" s="4" t="str">
+        <v>710,00</v>
+      </c>
+      <c r="AQ21" s="4" t="str">
+        <v>588,00</v>
+      </c>
+      <c r="AR21" s="4" t="str">
+        <v>890,00</v>
+      </c>
+      <c r="AS21" s="4" t="str">
+        <v>453,68</v>
+      </c>
+      <c r="AT21" s="4" t="str">
+        <v>325,00</v>
+      </c>
+      <c r="AU21" s="4" t="str">
+        <v>397,56</v>
+      </c>
+      <c r="AV21" s="4" t="str">
+        <v>527,63</v>
+      </c>
+      <c r="AW21" s="4" t="str">
+        <v>690,00</v>
+      </c>
+      <c r="AX21" s="4" t="str">
+        <v>620,00</v>
+      </c>
+      <c r="AY21" s="4" t="str">
+        <v>599,00</v>
+      </c>
+      <c r="AZ21" s="4" t="str">
+        <v>570,00</v>
+      </c>
+      <c r="BA21" s="4" t="str">
+        <v>576,00</v>
+      </c>
+      <c r="BB21" s="4" t="str">
+        <v>510,00</v>
+      </c>
+      <c r="BC21" s="4" t="str">
+        <v>688,87</v>
+      </c>
+      <c r="BD21" s="4" t="str">
+        <v>475,00</v>
+      </c>
+      <c r="BE21" s="4" t="str">
+        <v>489,70</v>
+      </c>
+      <c r="BF21" s="4" t="str">
+        <v>320,00</v>
+      </c>
+      <c r="BG21" s="4" t="str">
+        <v>402,01</v>
+      </c>
+      <c r="BH21" s="4" t="str">
+        <v>454,09</v>
+      </c>
+      <c r="BI21" s="4" t="str">
+        <v>457,00</v>
+      </c>
+      <c r="BJ21" s="4" t="str">
+        <v>457,00</v>
       </c>
     </row>
     <row r="22">
@@ -957,25 +4413,187 @@
         <v>18-19</v>
       </c>
       <c r="B22" s="4" t="str">
-        <v>159,30</v>
+        <v>503,60</v>
       </c>
       <c r="C22" s="4" t="str">
+        <v>549,00</v>
+      </c>
+      <c r="D22" s="4" t="str">
+        <v>490,00</v>
+      </c>
+      <c r="E22" s="4" t="str">
+        <v>465,00</v>
+      </c>
+      <c r="F22" s="4" t="str">
+        <v>490,00</v>
+      </c>
+      <c r="G22" s="4" t="str">
+        <v>526,00</v>
+      </c>
+      <c r="H22" s="4" t="str">
+        <v>540,00</v>
+      </c>
+      <c r="I22" s="4" t="str">
+        <v>589,00</v>
+      </c>
+      <c r="J22" s="4" t="str">
+        <v>483,71</v>
+      </c>
+      <c r="K22" s="4" t="str">
+        <v>460,00</v>
+      </c>
+      <c r="L22" s="4" t="str">
+        <v>382,00</v>
+      </c>
+      <c r="M22" s="4" t="str">
+        <v>549,08</v>
+      </c>
+      <c r="N22" s="4" t="str">
+        <v>590,00</v>
+      </c>
+      <c r="O22" s="4" t="str">
+        <v>556,07</v>
+      </c>
+      <c r="P22" s="4" t="str">
+        <v>618,00</v>
+      </c>
+      <c r="Q22" s="4" t="str">
+        <v>600,00</v>
+      </c>
+      <c r="R22" s="4" t="str">
+        <v>640,00</v>
+      </c>
+      <c r="S22" s="4" t="str">
+        <v>480,00</v>
+      </c>
+      <c r="T22" s="4" t="str">
+        <v>659,00</v>
+      </c>
+      <c r="U22" s="4" t="str">
+        <v>860,00</v>
+      </c>
+      <c r="V22" s="4" t="str">
+        <v>491,01</v>
+      </c>
+      <c r="W22" s="4" t="str">
+        <v>708,30</v>
+      </c>
+      <c r="X22" s="4" t="str">
+        <v>501,11</v>
+      </c>
+      <c r="Y22" s="4" t="str">
+        <v>665,60</v>
+      </c>
+      <c r="Z22" s="4" t="str">
+        <v>841,99</v>
+      </c>
+      <c r="AA22" s="4" t="str">
+        <v>835,00</v>
+      </c>
+      <c r="AB22" s="4" t="str">
+        <v>771,73</v>
+      </c>
+      <c r="AC22" s="4" t="str">
+        <v>769,99</v>
+      </c>
+      <c r="AD22" s="4" t="str">
+        <v>1050,00</v>
+      </c>
+      <c r="AE22" s="4" t="str">
+        <v>1471,00</v>
+      </c>
+      <c r="AF22" s="4" t="str">
+        <v>778,40</v>
+      </c>
+      <c r="AG22" s="4" t="str">
+        <v>597,00</v>
+      </c>
+      <c r="AH22" s="4" t="str">
+        <v>999,00</v>
+      </c>
+      <c r="AI22" s="4" t="str">
+        <v>1620,02</v>
+      </c>
+      <c r="AJ22" s="4" t="str">
+        <v>1334,40</v>
+      </c>
+      <c r="AK22" s="4" t="str">
+        <v>800,00</v>
+      </c>
+      <c r="AL22" s="4" t="str">
+        <v>730,40</v>
+      </c>
+      <c r="AM22" s="4" t="str">
+        <v>620,00</v>
+      </c>
+      <c r="AN22" s="4" t="str">
+        <v>514,00</v>
+      </c>
+      <c r="AO22" s="4" t="str">
+        <v>570,00</v>
+      </c>
+      <c r="AP22" s="4" t="str">
+        <v>900,00</v>
+      </c>
+      <c r="AQ22" s="4" t="str">
+        <v>786,58</v>
+      </c>
+      <c r="AR22" s="4" t="str">
+        <v>1110,00</v>
+      </c>
+      <c r="AS22" s="4" t="str">
+        <v>480,00</v>
+      </c>
+      <c r="AT22" s="4" t="str">
+        <v>360,10</v>
+      </c>
+      <c r="AU22" s="4" t="str">
+        <v>462,20</v>
+      </c>
+      <c r="AV22" s="4" t="str">
+        <v>613,60</v>
+      </c>
+      <c r="AW22" s="4" t="str">
+        <v>900,00</v>
+      </c>
+      <c r="AX22" s="4" t="str">
+        <v>700,00</v>
+      </c>
+      <c r="AY22" s="4" t="str">
+        <v>654,68</v>
+      </c>
+      <c r="AZ22" s="4" t="str">
+        <v>640,00</v>
+      </c>
+      <c r="BA22" s="4" t="str">
+        <v>794,00</v>
+      </c>
+      <c r="BB22" s="4" t="str">
+        <v>740,00</v>
+      </c>
+      <c r="BC22" s="4" t="str">
+        <v>949,00</v>
+      </c>
+      <c r="BD22" s="4" t="str">
+        <v>549,31</v>
+      </c>
+      <c r="BE22" s="4" t="str">
+        <v>669,95</v>
+      </c>
+      <c r="BF22" s="4" t="str">
         <v>380,00</v>
       </c>
-      <c r="D22" s="4" t="str">
-        <v>481,00</v>
-      </c>
-      <c r="E22" s="4" t="str">
-        <v>499,40</v>
-      </c>
-      <c r="F22" s="4" t="str">
-        <v>503,60</v>
-      </c>
-      <c r="G22" s="4" t="str">
-        <v>549,00</v>
-      </c>
-      <c r="H22" s="4" t="str">
-        <v>490,00</v>
+      <c r="BG22" s="4" t="str">
+        <v>380,00</v>
+      </c>
+      <c r="BH22" s="4" t="str">
+        <v>471,53</v>
+      </c>
+      <c r="BI22" s="4" t="str">
+        <v>617,00</v>
+      </c>
+      <c r="BJ22" s="4" t="str">
+        <v>617,00</v>
       </c>
     </row>
     <row r="23">
@@ -983,25 +4601,187 @@
         <v>19-20</v>
       </c>
       <c r="B23" s="4" t="str">
-        <v>343,40</v>
+        <v>612,00</v>
       </c>
       <c r="C23" s="4" t="str">
+        <v>600,00</v>
+      </c>
+      <c r="D23" s="4" t="str">
+        <v>560,00</v>
+      </c>
+      <c r="E23" s="4" t="str">
+        <v>489,00</v>
+      </c>
+      <c r="F23" s="4" t="str">
+        <v>599,89</v>
+      </c>
+      <c r="G23" s="4" t="str">
+        <v>718,87</v>
+      </c>
+      <c r="H23" s="4" t="str">
+        <v>700,00</v>
+      </c>
+      <c r="I23" s="4" t="str">
+        <v>690,00</v>
+      </c>
+      <c r="J23" s="4" t="str">
+        <v>550,00</v>
+      </c>
+      <c r="K23" s="4" t="str">
+        <v>509,58</v>
+      </c>
+      <c r="L23" s="4" t="str">
+        <v>517,01</v>
+      </c>
+      <c r="M23" s="4" t="str">
+        <v>778,87</v>
+      </c>
+      <c r="N23" s="4" t="str">
+        <v>866,98</v>
+      </c>
+      <c r="O23" s="4" t="str">
+        <v>803,80</v>
+      </c>
+      <c r="P23" s="4" t="str">
+        <v>692,80</v>
+      </c>
+      <c r="Q23" s="4" t="str">
+        <v>850,00</v>
+      </c>
+      <c r="R23" s="4" t="str">
+        <v>804,00</v>
+      </c>
+      <c r="S23" s="4" t="str">
+        <v>550,00</v>
+      </c>
+      <c r="T23" s="4" t="str">
+        <v>1005,00</v>
+      </c>
+      <c r="U23" s="4" t="str">
+        <v>1234,49</v>
+      </c>
+      <c r="V23" s="4" t="str">
+        <v>596,00</v>
+      </c>
+      <c r="W23" s="4" t="str">
+        <v>930,01</v>
+      </c>
+      <c r="X23" s="4" t="str">
+        <v>624,00</v>
+      </c>
+      <c r="Y23" s="4" t="str">
+        <v>829,10</v>
+      </c>
+      <c r="Z23" s="4" t="str">
+        <v>842,00</v>
+      </c>
+      <c r="AA23" s="4" t="str">
+        <v>1100,00</v>
+      </c>
+      <c r="AB23" s="4" t="str">
+        <v>1150,00</v>
+      </c>
+      <c r="AC23" s="4" t="str">
+        <v>1050,00</v>
+      </c>
+      <c r="AD23" s="4" t="str">
+        <v>1600,00</v>
+      </c>
+      <c r="AE23" s="4" t="str">
+        <v>2071,18</v>
+      </c>
+      <c r="AF23" s="4" t="str">
+        <v>995,96</v>
+      </c>
+      <c r="AG23" s="4" t="str">
+        <v>700,00</v>
+      </c>
+      <c r="AH23" s="4" t="str">
+        <v>1500,01</v>
+      </c>
+      <c r="AI23" s="4" t="str">
+        <v>2020,02</v>
+      </c>
+      <c r="AJ23" s="4" t="str">
+        <v>1800,00</v>
+      </c>
+      <c r="AK23" s="4" t="str">
+        <v>1150,00</v>
+      </c>
+      <c r="AL23" s="4" t="str">
+        <v>1119,00</v>
+      </c>
+      <c r="AM23" s="4" t="str">
+        <v>690,00</v>
+      </c>
+      <c r="AN23" s="4" t="str">
+        <v>651,40</v>
+      </c>
+      <c r="AO23" s="4" t="str">
+        <v>749,88</v>
+      </c>
+      <c r="AP23" s="4" t="str">
+        <v>1690,01</v>
+      </c>
+      <c r="AQ23" s="4" t="str">
+        <v>1500,00</v>
+      </c>
+      <c r="AR23" s="4" t="str">
+        <v>1697,00</v>
+      </c>
+      <c r="AS23" s="4" t="str">
+        <v>519,00</v>
+      </c>
+      <c r="AT23" s="4" t="str">
+        <v>450,00</v>
+      </c>
+      <c r="AU23" s="4" t="str">
         <v>558,00</v>
       </c>
-      <c r="D23" s="4" t="str">
-        <v>682,00</v>
-      </c>
-      <c r="E23" s="4" t="str">
-        <v>632,00</v>
-      </c>
-      <c r="F23" s="4" t="str">
-        <v>612,00</v>
-      </c>
-      <c r="G23" s="4" t="str">
-        <v>600,00</v>
-      </c>
-      <c r="H23" s="4" t="str">
-        <v>560,00</v>
+      <c r="AV23" s="4" t="str">
+        <v>659,10</v>
+      </c>
+      <c r="AW23" s="4" t="str">
+        <v>1130,00</v>
+      </c>
+      <c r="AX23" s="4" t="str">
+        <v>933,72</v>
+      </c>
+      <c r="AY23" s="4" t="str">
+        <v>800,00</v>
+      </c>
+      <c r="AZ23" s="4" t="str">
+        <v>780,77</v>
+      </c>
+      <c r="BA23" s="4" t="str">
+        <v>900,00</v>
+      </c>
+      <c r="BB23" s="4" t="str">
+        <v>900,00</v>
+      </c>
+      <c r="BC23" s="4" t="str">
+        <v>1299,00</v>
+      </c>
+      <c r="BD23" s="4" t="str">
+        <v>639,00</v>
+      </c>
+      <c r="BE23" s="4" t="str">
+        <v>850,00</v>
+      </c>
+      <c r="BF23" s="4" t="str">
+        <v>428,44</v>
+      </c>
+      <c r="BG23" s="4" t="str">
+        <v>460,00</v>
+      </c>
+      <c r="BH23" s="4" t="str">
+        <v>520,00</v>
+      </c>
+      <c r="BI23" s="4" t="str">
+        <v>742,84</v>
+      </c>
+      <c r="BJ23" s="4" t="str">
+        <v>742,84</v>
       </c>
     </row>
     <row r="24">
@@ -1009,25 +4789,187 @@
         <v>20-21</v>
       </c>
       <c r="B24" s="4" t="str">
-        <v>420,80</v>
+        <v>738,99</v>
       </c>
       <c r="C24" s="4" t="str">
+        <v>670,00</v>
+      </c>
+      <c r="D24" s="4" t="str">
+        <v>600,00</v>
+      </c>
+      <c r="E24" s="4" t="str">
+        <v>537,44</v>
+      </c>
+      <c r="F24" s="4" t="str">
+        <v>750,00</v>
+      </c>
+      <c r="G24" s="4" t="str">
+        <v>949,00</v>
+      </c>
+      <c r="H24" s="4" t="str">
+        <v>800,00</v>
+      </c>
+      <c r="I24" s="4" t="str">
+        <v>879,00</v>
+      </c>
+      <c r="J24" s="4" t="str">
+        <v>580,00</v>
+      </c>
+      <c r="K24" s="4" t="str">
+        <v>551,90</v>
+      </c>
+      <c r="L24" s="4" t="str">
+        <v>627,79</v>
+      </c>
+      <c r="M24" s="4" t="str">
+        <v>925,00</v>
+      </c>
+      <c r="N24" s="4" t="str">
+        <v>909,00</v>
+      </c>
+      <c r="O24" s="4" t="str">
+        <v>870,51</v>
+      </c>
+      <c r="P24" s="4" t="str">
+        <v>844,27</v>
+      </c>
+      <c r="Q24" s="4" t="str">
+        <v>1000,00</v>
+      </c>
+      <c r="R24" s="4" t="str">
+        <v>950,00</v>
+      </c>
+      <c r="S24" s="4" t="str">
+        <v>600,00</v>
+      </c>
+      <c r="T24" s="4" t="str">
+        <v>1238,66</v>
+      </c>
+      <c r="U24" s="4" t="str">
+        <v>1430,00</v>
+      </c>
+      <c r="V24" s="4" t="str">
+        <v>697,93</v>
+      </c>
+      <c r="W24" s="4" t="str">
+        <v>1120,00</v>
+      </c>
+      <c r="X24" s="4" t="str">
         <v>680,00</v>
       </c>
-      <c r="D24" s="4" t="str">
-        <v>853,40</v>
-      </c>
-      <c r="E24" s="4" t="str">
-        <v>825,00</v>
-      </c>
-      <c r="F24" s="4" t="str">
-        <v>738,99</v>
-      </c>
-      <c r="G24" s="4" t="str">
-        <v>670,00</v>
-      </c>
-      <c r="H24" s="4" t="str">
+      <c r="Y24" s="4" t="str">
+        <v>766,70</v>
+      </c>
+      <c r="Z24" s="4" t="str">
+        <v>1179,77</v>
+      </c>
+      <c r="AA24" s="4" t="str">
+        <v>1300,00</v>
+      </c>
+      <c r="AB24" s="4" t="str">
+        <v>1209,22</v>
+      </c>
+      <c r="AC24" s="4" t="str">
+        <v>1050,00</v>
+      </c>
+      <c r="AD24" s="4" t="str">
+        <v>1511,53</v>
+      </c>
+      <c r="AE24" s="4" t="str">
+        <v>2000,00</v>
+      </c>
+      <c r="AF24" s="4" t="str">
+        <v>867,40</v>
+      </c>
+      <c r="AG24" s="4" t="str">
+        <v>700,00</v>
+      </c>
+      <c r="AH24" s="4" t="str">
+        <v>1312,35</v>
+      </c>
+      <c r="AI24" s="4" t="str">
+        <v>1588,80</v>
+      </c>
+      <c r="AJ24" s="4" t="str">
+        <v>1350,00</v>
+      </c>
+      <c r="AK24" s="4" t="str">
+        <v>860,00</v>
+      </c>
+      <c r="AL24" s="4" t="str">
+        <v>764,89</v>
+      </c>
+      <c r="AM24" s="4" t="str">
+        <v>611,30</v>
+      </c>
+      <c r="AN24" s="4" t="str">
         <v>600,00</v>
+      </c>
+      <c r="AO24" s="4" t="str">
+        <v>668,16</v>
+      </c>
+      <c r="AP24" s="4" t="str">
+        <v>1140,00</v>
+      </c>
+      <c r="AQ24" s="4" t="str">
+        <v>999,00</v>
+      </c>
+      <c r="AR24" s="4" t="str">
+        <v>1226,00</v>
+      </c>
+      <c r="AS24" s="4" t="str">
+        <v>469,00</v>
+      </c>
+      <c r="AT24" s="4" t="str">
+        <v>434,50</v>
+      </c>
+      <c r="AU24" s="4" t="str">
+        <v>550,00</v>
+      </c>
+      <c r="AV24" s="4" t="str">
+        <v>583,82</v>
+      </c>
+      <c r="AW24" s="4" t="str">
+        <v>749,00</v>
+      </c>
+      <c r="AX24" s="4" t="str">
+        <v>640,00</v>
+      </c>
+      <c r="AY24" s="4" t="str">
+        <v>567,80</v>
+      </c>
+      <c r="AZ24" s="4" t="str">
+        <v>570,00</v>
+      </c>
+      <c r="BA24" s="4" t="str">
+        <v>640,00</v>
+      </c>
+      <c r="BB24" s="4" t="str">
+        <v>675,00</v>
+      </c>
+      <c r="BC24" s="4" t="str">
+        <v>695,70</v>
+      </c>
+      <c r="BD24" s="4" t="str">
+        <v>490,30</v>
+      </c>
+      <c r="BE24" s="4" t="str">
+        <v>600,00</v>
+      </c>
+      <c r="BF24" s="4" t="str">
+        <v>389,00</v>
+      </c>
+      <c r="BG24" s="4" t="str">
+        <v>350,00</v>
+      </c>
+      <c r="BH24" s="4" t="str">
+        <v>470,00</v>
+      </c>
+      <c r="BI24" s="4" t="str">
+        <v>560,77</v>
+      </c>
+      <c r="BJ24" s="4" t="str">
+        <v>560,77</v>
       </c>
     </row>
     <row r="25">
@@ -1035,25 +4977,187 @@
         <v>21-22</v>
       </c>
       <c r="B25" s="4" t="str">
-        <v>445,80</v>
+        <v>585,00</v>
       </c>
       <c r="C25" s="4" t="str">
-        <v>625,00</v>
+        <v>553,90</v>
       </c>
       <c r="D25" s="4" t="str">
-        <v>720,00</v>
+        <v>586,61</v>
       </c>
       <c r="E25" s="4" t="str">
-        <v>634,00</v>
+        <v>512,20</v>
       </c>
       <c r="F25" s="4" t="str">
-        <v>585,00</v>
+        <v>638,80</v>
       </c>
       <c r="G25" s="4" t="str">
-        <v>553,90</v>
+        <v>697,00</v>
       </c>
       <c r="H25" s="4" t="str">
-        <v>586,61</v>
+        <v>659,00</v>
+      </c>
+      <c r="I25" s="4" t="str">
+        <v>692,90</v>
+      </c>
+      <c r="J25" s="4" t="str">
+        <v>484,30</v>
+      </c>
+      <c r="K25" s="4" t="str">
+        <v>531,70</v>
+      </c>
+      <c r="L25" s="4" t="str">
+        <v>620,00</v>
+      </c>
+      <c r="M25" s="4" t="str">
+        <v>685,30</v>
+      </c>
+      <c r="N25" s="4" t="str">
+        <v>602,75</v>
+      </c>
+      <c r="O25" s="4" t="str">
+        <v>615,50</v>
+      </c>
+      <c r="P25" s="4" t="str">
+        <v>700,00</v>
+      </c>
+      <c r="Q25" s="4" t="str">
+        <v>729,00</v>
+      </c>
+      <c r="R25" s="4" t="str">
+        <v>722,03</v>
+      </c>
+      <c r="S25" s="4" t="str">
+        <v>552,44</v>
+      </c>
+      <c r="T25" s="4" t="str">
+        <v>804,60</v>
+      </c>
+      <c r="U25" s="4" t="str">
+        <v>829,89</v>
+      </c>
+      <c r="V25" s="4" t="str">
+        <v>580,31</v>
+      </c>
+      <c r="W25" s="4" t="str">
+        <v>730,00</v>
+      </c>
+      <c r="X25" s="4" t="str">
+        <v>509,00</v>
+      </c>
+      <c r="Y25" s="4" t="str">
+        <v>582,60</v>
+      </c>
+      <c r="Z25" s="4" t="str">
+        <v>951,00</v>
+      </c>
+      <c r="AA25" s="4" t="str">
+        <v>741,11</v>
+      </c>
+      <c r="AB25" s="4" t="str">
+        <v>675,00</v>
+      </c>
+      <c r="AC25" s="4" t="str">
+        <v>540,00</v>
+      </c>
+      <c r="AD25" s="4" t="str">
+        <v>749,77</v>
+      </c>
+      <c r="AE25" s="4" t="str">
+        <v>824,89</v>
+      </c>
+      <c r="AF25" s="4" t="str">
+        <v>668,50</v>
+      </c>
+      <c r="AG25" s="4" t="str">
+        <v>542,00</v>
+      </c>
+      <c r="AH25" s="4" t="str">
+        <v>740,00</v>
+      </c>
+      <c r="AI25" s="4" t="str">
+        <v>739,50</v>
+      </c>
+      <c r="AJ25" s="4" t="str">
+        <v>649,00</v>
+      </c>
+      <c r="AK25" s="4" t="str">
+        <v>529,00</v>
+      </c>
+      <c r="AL25" s="4" t="str">
+        <v>509,00</v>
+      </c>
+      <c r="AM25" s="4" t="str">
+        <v>480,78</v>
+      </c>
+      <c r="AN25" s="4" t="str">
+        <v>492,14</v>
+      </c>
+      <c r="AO25" s="4" t="str">
+        <v>503,74</v>
+      </c>
+      <c r="AP25" s="4" t="str">
+        <v>670,90</v>
+      </c>
+      <c r="AQ25" s="4" t="str">
+        <v>622,18</v>
+      </c>
+      <c r="AR25" s="4" t="str">
+        <v>668,20</v>
+      </c>
+      <c r="AS25" s="4" t="str">
+        <v>396,50</v>
+      </c>
+      <c r="AT25" s="4" t="str">
+        <v>367,60</v>
+      </c>
+      <c r="AU25" s="4" t="str">
+        <v>471,14</v>
+      </c>
+      <c r="AV25" s="4" t="str">
+        <v>460,00</v>
+      </c>
+      <c r="AW25" s="4" t="str">
+        <v>496,09</v>
+      </c>
+      <c r="AX25" s="4" t="str">
+        <v>459,00</v>
+      </c>
+      <c r="AY25" s="4" t="str">
+        <v>435,00</v>
+      </c>
+      <c r="AZ25" s="4" t="str">
+        <v>430,00</v>
+      </c>
+      <c r="BA25" s="4" t="str">
+        <v>492,00</v>
+      </c>
+      <c r="BB25" s="4" t="str">
+        <v>530,00</v>
+      </c>
+      <c r="BC25" s="4" t="str">
+        <v>481,42</v>
+      </c>
+      <c r="BD25" s="4" t="str">
+        <v>395,00</v>
+      </c>
+      <c r="BE25" s="4" t="str">
+        <v>450,00</v>
+      </c>
+      <c r="BF25" s="4" t="str">
+        <v>310,00</v>
+      </c>
+      <c r="BG25" s="4" t="str">
+        <v>357,05</v>
+      </c>
+      <c r="BH25" s="4" t="str">
+        <v>412,61</v>
+      </c>
+      <c r="BI25" s="4" t="str">
+        <v>452,80</v>
+      </c>
+      <c r="BJ25" s="4" t="str">
+        <v>452,80</v>
       </c>
     </row>
     <row r="26">
@@ -1061,25 +5165,187 @@
         <v>22-23</v>
       </c>
       <c r="B26" s="4" t="str">
-        <v>390,00</v>
+        <v>537,00</v>
       </c>
       <c r="C26" s="4" t="str">
-        <v>496,00</v>
+        <v>513,70</v>
       </c>
       <c r="D26" s="4" t="str">
-        <v>549,00</v>
+        <v>514,80</v>
       </c>
       <c r="E26" s="4" t="str">
+        <v>473,61</v>
+      </c>
+      <c r="F26" s="4" t="str">
+        <v>545,00</v>
+      </c>
+      <c r="G26" s="4" t="str">
+        <v>569,00</v>
+      </c>
+      <c r="H26" s="4" t="str">
+        <v>532,00</v>
+      </c>
+      <c r="I26" s="4" t="str">
+        <v>569,31</v>
+      </c>
+      <c r="J26" s="4" t="str">
+        <v>445,00</v>
+      </c>
+      <c r="K26" s="4" t="str">
+        <v>493,86</v>
+      </c>
+      <c r="L26" s="4" t="str">
+        <v>521,07</v>
+      </c>
+      <c r="M26" s="4" t="str">
+        <v>588,00</v>
+      </c>
+      <c r="N26" s="4" t="str">
+        <v>540,00</v>
+      </c>
+      <c r="O26" s="4" t="str">
+        <v>520,01</v>
+      </c>
+      <c r="P26" s="4" t="str">
+        <v>600,00</v>
+      </c>
+      <c r="Q26" s="4" t="str">
+        <v>610,00</v>
+      </c>
+      <c r="R26" s="4" t="str">
+        <v>580,00</v>
+      </c>
+      <c r="S26" s="4" t="str">
+        <v>500,00</v>
+      </c>
+      <c r="T26" s="4" t="str">
+        <v>608,00</v>
+      </c>
+      <c r="U26" s="4" t="str">
+        <v>600,00</v>
+      </c>
+      <c r="V26" s="4" t="str">
+        <v>467,00</v>
+      </c>
+      <c r="W26" s="4" t="str">
+        <v>518,00</v>
+      </c>
+      <c r="X26" s="4" t="str">
+        <v>455,00</v>
+      </c>
+      <c r="Y26" s="4" t="str">
+        <v>459,00</v>
+      </c>
+      <c r="Z26" s="4" t="str">
+        <v>775,00</v>
+      </c>
+      <c r="AA26" s="4" t="str">
+        <v>552,38</v>
+      </c>
+      <c r="AB26" s="4" t="str">
+        <v>506,01</v>
+      </c>
+      <c r="AC26" s="4" t="str">
+        <v>461,10</v>
+      </c>
+      <c r="AD26" s="4" t="str">
+        <v>590,00</v>
+      </c>
+      <c r="AE26" s="4" t="str">
+        <v>561,70</v>
+      </c>
+      <c r="AF26" s="4" t="str">
+        <v>531,83</v>
+      </c>
+      <c r="AG26" s="4" t="str">
+        <v>499,98</v>
+      </c>
+      <c r="AH26" s="4" t="str">
+        <v>500,00</v>
+      </c>
+      <c r="AI26" s="4" t="str">
         <v>520,00</v>
       </c>
-      <c r="F26" s="4" t="str">
-        <v>537,00</v>
-      </c>
-      <c r="G26" s="4" t="str">
-        <v>513,70</v>
-      </c>
-      <c r="H26" s="4" t="str">
-        <v>514,80</v>
+      <c r="AJ26" s="4" t="str">
+        <v>490,10</v>
+      </c>
+      <c r="AK26" s="4" t="str">
+        <v>449,00</v>
+      </c>
+      <c r="AL26" s="4" t="str">
+        <v>440,00</v>
+      </c>
+      <c r="AM26" s="4" t="str">
+        <v>407,00</v>
+      </c>
+      <c r="AN26" s="4" t="str">
+        <v>420,00</v>
+      </c>
+      <c r="AO26" s="4" t="str">
+        <v>430,00</v>
+      </c>
+      <c r="AP26" s="4" t="str">
+        <v>499,90</v>
+      </c>
+      <c r="AQ26" s="4" t="str">
+        <v>503,15</v>
+      </c>
+      <c r="AR26" s="4" t="str">
+        <v>517,40</v>
+      </c>
+      <c r="AS26" s="4" t="str">
+        <v>350,00</v>
+      </c>
+      <c r="AT26" s="4" t="str">
+        <v>322,70</v>
+      </c>
+      <c r="AU26" s="4" t="str">
+        <v>438,00</v>
+      </c>
+      <c r="AV26" s="4" t="str">
+        <v>408,36</v>
+      </c>
+      <c r="AW26" s="4" t="str">
+        <v>439,40</v>
+      </c>
+      <c r="AX26" s="4" t="str">
+        <v>413,01</v>
+      </c>
+      <c r="AY26" s="4" t="str">
+        <v>398,00</v>
+      </c>
+      <c r="AZ26" s="4" t="str">
+        <v>429,00</v>
+      </c>
+      <c r="BA26" s="4" t="str">
+        <v>439,00</v>
+      </c>
+      <c r="BB26" s="4" t="str">
+        <v>464,20</v>
+      </c>
+      <c r="BC26" s="4" t="str">
+        <v>424,00</v>
+      </c>
+      <c r="BD26" s="4" t="str">
+        <v>379,00</v>
+      </c>
+      <c r="BE26" s="4" t="str">
+        <v>407,00</v>
+      </c>
+      <c r="BF26" s="4" t="str">
+        <v>287,99</v>
+      </c>
+      <c r="BG26" s="4" t="str">
+        <v>349,00</v>
+      </c>
+      <c r="BH26" s="4" t="str">
+        <v>426,44</v>
+      </c>
+      <c r="BI26" s="4" t="str">
+        <v>401,41</v>
+      </c>
+      <c r="BJ26" s="4" t="str">
+        <v>401,41</v>
       </c>
     </row>
     <row r="27">
@@ -1087,25 +5353,187 @@
         <v>23-24</v>
       </c>
       <c r="B27" s="4" t="str">
-        <v>338,80</v>
+        <v>450,00</v>
       </c>
       <c r="C27" s="4" t="str">
-        <v>428,90</v>
+        <v>449,00</v>
       </c>
       <c r="D27" s="4" t="str">
-        <v>458,00</v>
+        <v>441,87</v>
       </c>
       <c r="E27" s="4" t="str">
-        <v>443,80</v>
+        <v>437,39</v>
       </c>
       <c r="F27" s="4" t="str">
+        <v>463,00</v>
+      </c>
+      <c r="G27" s="4" t="str">
+        <v>486,50</v>
+      </c>
+      <c r="H27" s="4" t="str">
+        <v>447,00</v>
+      </c>
+      <c r="I27" s="4" t="str">
+        <v>455,00</v>
+      </c>
+      <c r="J27" s="4" t="str">
+        <v>408,00</v>
+      </c>
+      <c r="K27" s="4" t="str">
+        <v>427,08</v>
+      </c>
+      <c r="L27" s="4" t="str">
+        <v>462,50</v>
+      </c>
+      <c r="M27" s="4" t="str">
+        <v>480,00</v>
+      </c>
+      <c r="N27" s="4" t="str">
         <v>450,00</v>
       </c>
-      <c r="G27" s="4" t="str">
-        <v>449,00</v>
-      </c>
-      <c r="H27" s="4" t="str">
-        <v>441,87</v>
+      <c r="O27" s="4" t="str">
+        <v>440,00</v>
+      </c>
+      <c r="P27" s="4" t="str">
+        <v>514,00</v>
+      </c>
+      <c r="Q27" s="4" t="str">
+        <v>502,00</v>
+      </c>
+      <c r="R27" s="4" t="str">
+        <v>500,32</v>
+      </c>
+      <c r="S27" s="4" t="str">
+        <v>440,00</v>
+      </c>
+      <c r="T27" s="4" t="str">
+        <v>470,00</v>
+      </c>
+      <c r="U27" s="4" t="str">
+        <v>466,00</v>
+      </c>
+      <c r="V27" s="4" t="str">
+        <v>416,39</v>
+      </c>
+      <c r="W27" s="4" t="str">
+        <v>432,00</v>
+      </c>
+      <c r="X27" s="4" t="str">
+        <v>393,35</v>
+      </c>
+      <c r="Y27" s="4" t="str">
+        <v>353,10</v>
+      </c>
+      <c r="Z27" s="4" t="str">
+        <v>600,00</v>
+      </c>
+      <c r="AA27" s="4" t="str">
+        <v>468,13</v>
+      </c>
+      <c r="AB27" s="4" t="str">
+        <v>422,00</v>
+      </c>
+      <c r="AC27" s="4" t="str">
+        <v>400,00</v>
+      </c>
+      <c r="AD27" s="4" t="str">
+        <v>488,60</v>
+      </c>
+      <c r="AE27" s="4" t="str">
+        <v>480,00</v>
+      </c>
+      <c r="AF27" s="4" t="str">
+        <v>466,55</v>
+      </c>
+      <c r="AG27" s="4" t="str">
+        <v>444,23</v>
+      </c>
+      <c r="AH27" s="4" t="str">
+        <v>430,00</v>
+      </c>
+      <c r="AI27" s="4" t="str">
+        <v>456,89</v>
+      </c>
+      <c r="AJ27" s="4" t="str">
+        <v>420,89</v>
+      </c>
+      <c r="AK27" s="4" t="str">
+        <v>386,00</v>
+      </c>
+      <c r="AL27" s="4" t="str">
+        <v>396,00</v>
+      </c>
+      <c r="AM27" s="4" t="str">
+        <v>371,70</v>
+      </c>
+      <c r="AN27" s="4" t="str">
+        <v>360,11</v>
+      </c>
+      <c r="AO27" s="4" t="str">
+        <v>370,00</v>
+      </c>
+      <c r="AP27" s="4" t="str">
+        <v>400,00</v>
+      </c>
+      <c r="AQ27" s="4" t="str">
+        <v>446,50</v>
+      </c>
+      <c r="AR27" s="4" t="str">
+        <v>440,00</v>
+      </c>
+      <c r="AS27" s="4" t="str">
+        <v>290,00</v>
+      </c>
+      <c r="AT27" s="4" t="str">
+        <v>293,99</v>
+      </c>
+      <c r="AU27" s="4" t="str">
+        <v>397,57</v>
+      </c>
+      <c r="AV27" s="4" t="str">
+        <v>350,00</v>
+      </c>
+      <c r="AW27" s="4" t="str">
+        <v>377,65</v>
+      </c>
+      <c r="AX27" s="4" t="str">
+        <v>356,00</v>
+      </c>
+      <c r="AY27" s="4" t="str">
+        <v>360,00</v>
+      </c>
+      <c r="AZ27" s="4" t="str">
+        <v>386,89</v>
+      </c>
+      <c r="BA27" s="4" t="str">
+        <v>405,90</v>
+      </c>
+      <c r="BB27" s="4" t="str">
+        <v>420,00</v>
+      </c>
+      <c r="BC27" s="4" t="str">
+        <v>375,54</v>
+      </c>
+      <c r="BD27" s="4" t="str">
+        <v>317,99</v>
+      </c>
+      <c r="BE27" s="4" t="str">
+        <v>372,00</v>
+      </c>
+      <c r="BF27" s="4" t="str">
+        <v>201,11</v>
+      </c>
+      <c r="BG27" s="4" t="str">
+        <v>222,90</v>
+      </c>
+      <c r="BH27" s="4" t="str">
+        <v>361,00</v>
+      </c>
+      <c r="BI27" s="4" t="str">
+        <v>343,20</v>
+      </c>
+      <c r="BJ27" s="4" t="str">
+        <v>343,20</v>
       </c>
     </row>
   </sheetData>

--- a/tabela.xlsx
+++ b/tabela.xlsx
@@ -398,468 +398,982 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:B122"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="str">
         <v>Kurs (PLN/MWh)</v>
       </c>
-      <c r="B1" s="4" t="str">
-        <v/>
-      </c>
-      <c r="C1" s="4" t="str">
-        <v/>
-      </c>
-      <c r="D1" s="4" t="str">
-        <v/>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="3" t="str">
         <v>FIXING I</v>
       </c>
-      <c r="B2" s="4" t="str">
-        <v/>
-      </c>
-      <c r="C2" s="4" t="str">
-        <v/>
-      </c>
-      <c r="D2" s="4" t="str">
-        <v/>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="str">
-        <v/>
-      </c>
-      <c r="B3" s="3" t="str">
-        <v>14-10-2024</v>
-      </c>
-      <c r="C3" s="3" t="str">
-        <v>15-10-2024</v>
-      </c>
-      <c r="D3" s="3" t="str">
-        <v>16-10-2024</v>
-      </c>
-      <c r="E3" s="3" t="str">
-        <v>17-10-2024</v>
+        <v>0-1 w dniu 18-08-2024 r.</v>
+      </c>
+      <c r="B3" s="4" t="str">
+        <v>494,00</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="str">
-        <v>0-1</v>
+        <v>1-2 w dniu 18-08-2024 r.</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>53,00</v>
-      </c>
-      <c r="C4" s="4" t="str">
-        <v>435,00</v>
-      </c>
-      <c r="D4" s="4" t="str">
-        <v>413,00</v>
-      </c>
-      <c r="E4" s="4" t="str">
-        <v>47,04</v>
+        <v>450,01</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="str">
-        <v>1-2</v>
+        <v>2-3 w dniu 18-08-2024 r.</v>
       </c>
       <c r="B5" s="4" t="str">
-        <v>120,00</v>
-      </c>
-      <c r="C5" s="4" t="str">
-        <v>423,00</v>
-      </c>
-      <c r="D5" s="4" t="str">
-        <v>390,00</v>
-      </c>
-      <c r="E5" s="4" t="str">
-        <v>35,00</v>
+        <v>423,40</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="str">
-        <v>2-3</v>
+        <v>3-4 w dniu 18-08-2024 r.</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v>135,00</v>
-      </c>
-      <c r="C6" s="4" t="str">
-        <v>396,00</v>
-      </c>
-      <c r="D6" s="4" t="str">
-        <v>380,00</v>
-      </c>
-      <c r="E6" s="4" t="str">
-        <v>24,85</v>
+        <v>411,88</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="str">
-        <v>3-4</v>
+        <v>4-5 w dniu 18-08-2024 r.</v>
       </c>
       <c r="B7" s="4" t="str">
-        <v>148,80</v>
-      </c>
-      <c r="C7" s="4" t="str">
-        <v>391,00</v>
-      </c>
-      <c r="D7" s="4" t="str">
-        <v>375,70</v>
-      </c>
-      <c r="E7" s="4" t="str">
-        <v>20,00</v>
+        <v>417,00</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="str">
-        <v>4-5</v>
+        <v>5-6 w dniu 18-08-2024 r.</v>
       </c>
       <c r="B8" s="4" t="str">
-        <v>160,00</v>
-      </c>
-      <c r="C8" s="4" t="str">
-        <v>396,00</v>
-      </c>
-      <c r="D8" s="4" t="str">
-        <v>376,00</v>
-      </c>
-      <c r="E8" s="4" t="str">
-        <v>35,67</v>
+        <v>406,80</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="str">
-        <v>5-6</v>
+        <v>6-7 w dniu 18-08-2024 r.</v>
       </c>
       <c r="B9" s="4" t="str">
-        <v>266,60</v>
-      </c>
-      <c r="C9" s="4" t="str">
-        <v>420,00</v>
-      </c>
-      <c r="D9" s="4" t="str">
-        <v>405,62</v>
-      </c>
-      <c r="E9" s="4" t="str">
-        <v>142,91</v>
+        <v>408,76</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="str">
-        <v>6-7</v>
+        <v>7-8 w dniu 18-08-2024 r.</v>
       </c>
       <c r="B10" s="4" t="str">
-        <v>494,00</v>
-      </c>
-      <c r="C10" s="4" t="str">
-        <v>620,00</v>
-      </c>
-      <c r="D10" s="4" t="str">
-        <v>574,00</v>
-      </c>
-      <c r="E10" s="4" t="str">
-        <v>410,46</v>
+        <v>404,00</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="str">
-        <v>7-8</v>
+        <v>8-9 w dniu 18-08-2024 r.</v>
       </c>
       <c r="B11" s="4" t="str">
-        <v>649,89</v>
-      </c>
-      <c r="C11" s="4" t="str">
-        <v>899,89</v>
-      </c>
-      <c r="D11" s="4" t="str">
-        <v>690,52</v>
-      </c>
-      <c r="E11" s="4" t="str">
-        <v>400,00</v>
+        <v>389,00</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="str">
-        <v>8-9</v>
+        <v>9-10 w dniu 18-08-2024 r.</v>
       </c>
       <c r="B12" s="4" t="str">
-        <v>650,00</v>
-      </c>
-      <c r="C12" s="4" t="str">
-        <v>809,00</v>
-      </c>
-      <c r="D12" s="4" t="str">
-        <v>482,00</v>
-      </c>
-      <c r="E12" s="4" t="str">
-        <v>370,99</v>
+        <v>320,00</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="str">
-        <v>9-10</v>
+        <v>10-11 w dniu 18-08-2024 r.</v>
       </c>
       <c r="B13" s="4" t="str">
-        <v>494,61</v>
-      </c>
-      <c r="C13" s="4" t="str">
-        <v>500,00</v>
-      </c>
-      <c r="D13" s="4" t="str">
-        <v>358,04</v>
-      </c>
-      <c r="E13" s="4" t="str">
-        <v>250,01</v>
+        <v>239,00</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="str">
-        <v>10-11</v>
+        <v>11-12 w dniu 18-08-2024 r.</v>
       </c>
       <c r="B14" s="4" t="str">
-        <v>444,00</v>
-      </c>
-      <c r="C14" s="4" t="str">
-        <v>380,00</v>
-      </c>
-      <c r="D14" s="4" t="str">
-        <v>100,00</v>
-      </c>
-      <c r="E14" s="4" t="str">
-        <v>19,99</v>
+        <v>200,30</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="str">
-        <v>11-12</v>
+        <v>12-13 w dniu 18-08-2024 r.</v>
       </c>
       <c r="B15" s="4" t="str">
-        <v>391,00</v>
-      </c>
-      <c r="C15" s="4" t="str">
-        <v>345,00</v>
-      </c>
-      <c r="D15" s="4" t="str">
-        <v>33,35</v>
-      </c>
-      <c r="E15" s="4" t="str">
-        <v>0,00</v>
+        <v>200,00</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="str">
-        <v>12-13</v>
+        <v>13-14 w dniu 18-08-2024 r.</v>
       </c>
       <c r="B16" s="4" t="str">
-        <v>356,00</v>
-      </c>
-      <c r="C16" s="4" t="str">
-        <v>327,99</v>
-      </c>
-      <c r="D16" s="4" t="str">
-        <v>0,01</v>
-      </c>
-      <c r="E16" s="4" t="str">
-        <v>-2,52</v>
+        <v>189,00</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="str">
-        <v>13-14</v>
+        <v>14-15 w dniu 18-08-2024 r.</v>
       </c>
       <c r="B17" s="4" t="str">
-        <v>359,92</v>
-      </c>
-      <c r="C17" s="4" t="str">
-        <v>358,15</v>
-      </c>
-      <c r="D17" s="4" t="str">
-        <v>0,01</v>
-      </c>
-      <c r="E17" s="4" t="str">
-        <v>0,00</v>
+        <v>240,00</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="str">
-        <v>14-15</v>
+        <v>15-16 w dniu 18-08-2024 r.</v>
       </c>
       <c r="B18" s="4" t="str">
-        <v>372,00</v>
-      </c>
-      <c r="C18" s="4" t="str">
-        <v>388,91</v>
-      </c>
-      <c r="D18" s="4" t="str">
-        <v>48,00</v>
-      </c>
-      <c r="E18" s="4" t="str">
-        <v>20,26</v>
+        <v>299,99</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="str">
-        <v>15-16</v>
+        <v>16-17 w dniu 18-08-2024 r.</v>
       </c>
       <c r="B19" s="4" t="str">
-        <v>394,16</v>
-      </c>
-      <c r="C19" s="4" t="str">
-        <v>397,17</v>
-      </c>
-      <c r="D19" s="4" t="str">
-        <v>167,00</v>
-      </c>
-      <c r="E19" s="4" t="str">
-        <v>220,00</v>
+        <v>327,00</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="str">
-        <v>16-17</v>
+        <v>17-18 w dniu 18-08-2024 r.</v>
       </c>
       <c r="B20" s="4" t="str">
-        <v>500,00</v>
-      </c>
-      <c r="C20" s="4" t="str">
-        <v>570,00</v>
-      </c>
-      <c r="D20" s="4" t="str">
-        <v>450,00</v>
-      </c>
-      <c r="E20" s="4" t="str">
-        <v>389,00</v>
+        <v>414,00</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="str">
-        <v>17-18</v>
+        <v>18-19 w dniu 18-08-2024 r.</v>
       </c>
       <c r="B21" s="4" t="str">
-        <v>604,60</v>
-      </c>
-      <c r="C21" s="4" t="str">
-        <v>765,00</v>
-      </c>
-      <c r="D21" s="4" t="str">
-        <v>500,00</v>
-      </c>
-      <c r="E21" s="4" t="str">
         <v>480,00</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="str">
-        <v>18-19</v>
+        <v>19-20 w dniu 18-08-2024 r.</v>
       </c>
       <c r="B22" s="4" t="str">
-        <v>850,00</v>
-      </c>
-      <c r="C22" s="4" t="str">
-        <v>990,00</v>
-      </c>
-      <c r="D22" s="4" t="str">
-        <v>519,14</v>
-      </c>
-      <c r="E22" s="4" t="str">
-        <v>580,22</v>
+        <v>550,00</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="str">
-        <v>19-20</v>
+        <v>20-21 w dniu 18-08-2024 r.</v>
       </c>
       <c r="B23" s="4" t="str">
-        <v>940,46</v>
-      </c>
-      <c r="C23" s="4" t="str">
-        <v>1096,90</v>
-      </c>
-      <c r="D23" s="4" t="str">
-        <v>490,00</v>
-      </c>
-      <c r="E23" s="4" t="str">
-        <v>603,40</v>
+        <v>600,00</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="str">
-        <v>20-21</v>
+        <v>21-22 w dniu 18-08-2024 r.</v>
       </c>
       <c r="B24" s="4" t="str">
-        <v>662,95</v>
-      </c>
-      <c r="C24" s="4" t="str">
-        <v>769,00</v>
-      </c>
-      <c r="D24" s="4" t="str">
-        <v>382,92</v>
-      </c>
-      <c r="E24" s="4" t="str">
-        <v>483,53</v>
+        <v>552,44</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="3" t="str">
-        <v>21-22</v>
+        <v>22-23 w dniu 18-08-2024 r.</v>
       </c>
       <c r="B25" s="4" t="str">
         <v>500,00</v>
       </c>
-      <c r="C25" s="4" t="str">
-        <v>575,30</v>
-      </c>
-      <c r="D25" s="4" t="str">
-        <v>309,99</v>
-      </c>
-      <c r="E25" s="4" t="str">
-        <v>422,22</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="3" t="str">
-        <v>22-23</v>
+        <v>23-24 w dniu 18-08-2024 r.</v>
       </c>
       <c r="B26" s="4" t="str">
         <v>440,00</v>
       </c>
-      <c r="C26" s="4" t="str">
-        <v>474,00</v>
-      </c>
-      <c r="D26" s="4" t="str">
-        <v>273,80</v>
-      </c>
-      <c r="E26" s="4" t="str">
-        <v>372,00</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="3" t="str">
-        <v>23-24</v>
+        <v>0-1 w dniu 19-08-2024 r.</v>
       </c>
       <c r="B27" s="4" t="str">
-        <v>390,00</v>
-      </c>
-      <c r="C27" s="4" t="str">
-        <v>402,13</v>
-      </c>
-      <c r="D27" s="4" t="str">
-        <v>155,80</v>
-      </c>
-      <c r="E27" s="4" t="str">
-        <v>325,00</v>
+        <v>479,14</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="str">
+        <v>1-2 w dniu 19-08-2024 r.</v>
+      </c>
+      <c r="B28" s="4" t="str">
+        <v>415,40</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="str">
+        <v>2-3 w dniu 19-08-2024 r.</v>
+      </c>
+      <c r="B29" s="4" t="str">
+        <v>408,20</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="str">
+        <v>3-4 w dniu 19-08-2024 r.</v>
+      </c>
+      <c r="B30" s="4" t="str">
+        <v>398,00</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="str">
+        <v>4-5 w dniu 19-08-2024 r.</v>
+      </c>
+      <c r="B31" s="4" t="str">
+        <v>407,00</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="str">
+        <v>5-6 w dniu 19-08-2024 r.</v>
+      </c>
+      <c r="B32" s="4" t="str">
+        <v>440,00</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="str">
+        <v>6-7 w dniu 19-08-2024 r.</v>
+      </c>
+      <c r="B33" s="4" t="str">
+        <v>625,00</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="str">
+        <v>7-8 w dniu 19-08-2024 r.</v>
+      </c>
+      <c r="B34" s="4" t="str">
+        <v>659,00</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="str">
+        <v>8-9 w dniu 19-08-2024 r.</v>
+      </c>
+      <c r="B35" s="4" t="str">
+        <v>594,09</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="str">
+        <v>9-10 w dniu 19-08-2024 r.</v>
+      </c>
+      <c r="B36" s="4" t="str">
+        <v>521,72</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="str">
+        <v>10-11 w dniu 19-08-2024 r.</v>
+      </c>
+      <c r="B37" s="4" t="str">
+        <v>414,49</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="3" t="str">
+        <v>11-12 w dniu 19-08-2024 r.</v>
+      </c>
+      <c r="B38" s="4" t="str">
+        <v>400,00</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="3" t="str">
+        <v>12-13 w dniu 19-08-2024 r.</v>
+      </c>
+      <c r="B39" s="4" t="str">
+        <v>408,00</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="3" t="str">
+        <v>13-14 w dniu 19-08-2024 r.</v>
+      </c>
+      <c r="B40" s="4" t="str">
+        <v>407,32</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="3" t="str">
+        <v>14-15 w dniu 19-08-2024 r.</v>
+      </c>
+      <c r="B41" s="4" t="str">
+        <v>408,00</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="3" t="str">
+        <v>15-16 w dniu 19-08-2024 r.</v>
+      </c>
+      <c r="B42" s="4" t="str">
+        <v>400,00</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="3" t="str">
+        <v>16-17 w dniu 19-08-2024 r.</v>
+      </c>
+      <c r="B43" s="4" t="str">
+        <v>448,50</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="3" t="str">
+        <v>17-18 w dniu 19-08-2024 r.</v>
+      </c>
+      <c r="B44" s="4" t="str">
+        <v>540,00</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="3" t="str">
+        <v>18-19 w dniu 19-08-2024 r.</v>
+      </c>
+      <c r="B45" s="4" t="str">
+        <v>659,00</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="3" t="str">
+        <v>19-20 w dniu 19-08-2024 r.</v>
+      </c>
+      <c r="B46" s="4" t="str">
+        <v>1005,00</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="3" t="str">
+        <v>20-21 w dniu 19-08-2024 r.</v>
+      </c>
+      <c r="B47" s="4" t="str">
+        <v>1238,66</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="3" t="str">
+        <v>21-22 w dniu 19-08-2024 r.</v>
+      </c>
+      <c r="B48" s="4" t="str">
+        <v>804,60</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="3" t="str">
+        <v>22-23 w dniu 19-08-2024 r.</v>
+      </c>
+      <c r="B49" s="4" t="str">
+        <v>608,00</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="3" t="str">
+        <v>23-24 w dniu 19-08-2024 r.</v>
+      </c>
+      <c r="B50" s="4" t="str">
+        <v>470,00</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="3" t="str">
+        <v>0-1 w dniu 20-08-2024 r.</v>
+      </c>
+      <c r="B51" s="4" t="str">
+        <v>461,71</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="3" t="str">
+        <v>1-2 w dniu 20-08-2024 r.</v>
+      </c>
+      <c r="B52" s="4" t="str">
+        <v>426,00</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="3" t="str">
+        <v>2-3 w dniu 20-08-2024 r.</v>
+      </c>
+      <c r="B53" s="4" t="str">
+        <v>418,00</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="3" t="str">
+        <v>3-4 w dniu 20-08-2024 r.</v>
+      </c>
+      <c r="B54" s="4" t="str">
+        <v>412,00</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="3" t="str">
+        <v>4-5 w dniu 20-08-2024 r.</v>
+      </c>
+      <c r="B55" s="4" t="str">
+        <v>424,00</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="3" t="str">
+        <v>5-6 w dniu 20-08-2024 r.</v>
+      </c>
+      <c r="B56" s="4" t="str">
+        <v>451,59</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="3" t="str">
+        <v>6-7 w dniu 20-08-2024 r.</v>
+      </c>
+      <c r="B57" s="4" t="str">
+        <v>613,00</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="3" t="str">
+        <v>7-8 w dniu 20-08-2024 r.</v>
+      </c>
+      <c r="B58" s="4" t="str">
+        <v>570,69</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="3" t="str">
+        <v>8-9 w dniu 20-08-2024 r.</v>
+      </c>
+      <c r="B59" s="4" t="str">
+        <v>511,70</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="3" t="str">
+        <v>9-10 w dniu 20-08-2024 r.</v>
+      </c>
+      <c r="B60" s="4" t="str">
+        <v>430,11</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="3" t="str">
+        <v>10-11 w dniu 20-08-2024 r.</v>
+      </c>
+      <c r="B61" s="4" t="str">
+        <v>386,49</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="3" t="str">
+        <v>11-12 w dniu 20-08-2024 r.</v>
+      </c>
+      <c r="B62" s="4" t="str">
+        <v>381,50</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="3" t="str">
+        <v>12-13 w dniu 20-08-2024 r.</v>
+      </c>
+      <c r="B63" s="4" t="str">
+        <v>398,00</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="3" t="str">
+        <v>13-14 w dniu 20-08-2024 r.</v>
+      </c>
+      <c r="B64" s="4" t="str">
+        <v>398,00</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="3" t="str">
+        <v>14-15 w dniu 20-08-2024 r.</v>
+      </c>
+      <c r="B65" s="4" t="str">
+        <v>408,00</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="3" t="str">
+        <v>15-16 w dniu 20-08-2024 r.</v>
+      </c>
+      <c r="B66" s="4" t="str">
+        <v>406,32</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="3" t="str">
+        <v>16-17 w dniu 20-08-2024 r.</v>
+      </c>
+      <c r="B67" s="4" t="str">
+        <v>510,00</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="3" t="str">
+        <v>17-18 w dniu 20-08-2024 r.</v>
+      </c>
+      <c r="B68" s="4" t="str">
+        <v>600,11</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="3" t="str">
+        <v>18-19 w dniu 20-08-2024 r.</v>
+      </c>
+      <c r="B69" s="4" t="str">
+        <v>860,00</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="3" t="str">
+        <v>19-20 w dniu 20-08-2024 r.</v>
+      </c>
+      <c r="B70" s="4" t="str">
+        <v>1234,49</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="3" t="str">
+        <v>20-21 w dniu 20-08-2024 r.</v>
+      </c>
+      <c r="B71" s="4" t="str">
+        <v>1430,00</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="3" t="str">
+        <v>21-22 w dniu 20-08-2024 r.</v>
+      </c>
+      <c r="B72" s="4" t="str">
+        <v>829,89</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="3" t="str">
+        <v>22-23 w dniu 20-08-2024 r.</v>
+      </c>
+      <c r="B73" s="4" t="str">
+        <v>600,00</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="3" t="str">
+        <v>23-24 w dniu 20-08-2024 r.</v>
+      </c>
+      <c r="B74" s="4" t="str">
+        <v>466,00</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="3" t="str">
+        <v>0-1 w dniu 21-08-2024 r.</v>
+      </c>
+      <c r="B75" s="4" t="str">
+        <v>470,00</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="3" t="str">
+        <v>1-2 w dniu 21-08-2024 r.</v>
+      </c>
+      <c r="B76" s="4" t="str">
+        <v>424,18</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="3" t="str">
+        <v>2-3 w dniu 21-08-2024 r.</v>
+      </c>
+      <c r="B77" s="4" t="str">
+        <v>414,00</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="3" t="str">
+        <v>3-4 w dniu 21-08-2024 r.</v>
+      </c>
+      <c r="B78" s="4" t="str">
+        <v>418,00</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="3" t="str">
+        <v>4-5 w dniu 21-08-2024 r.</v>
+      </c>
+      <c r="B79" s="4" t="str">
+        <v>422,00</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="3" t="str">
+        <v>5-6 w dniu 21-08-2024 r.</v>
+      </c>
+      <c r="B80" s="4" t="str">
+        <v>450,00</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="3" t="str">
+        <v>6-7 w dniu 21-08-2024 r.</v>
+      </c>
+      <c r="B81" s="4" t="str">
+        <v>571,10</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="3" t="str">
+        <v>7-8 w dniu 21-08-2024 r.</v>
+      </c>
+      <c r="B82" s="4" t="str">
+        <v>599,90</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="3" t="str">
+        <v>8-9 w dniu 21-08-2024 r.</v>
+      </c>
+      <c r="B83" s="4" t="str">
+        <v>530,49</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="3" t="str">
+        <v>9-10 w dniu 21-08-2024 r.</v>
+      </c>
+      <c r="B84" s="4" t="str">
+        <v>449,00</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="3" t="str">
+        <v>10-11 w dniu 21-08-2024 r.</v>
+      </c>
+      <c r="B85" s="4" t="str">
+        <v>389,89</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="3" t="str">
+        <v>11-12 w dniu 21-08-2024 r.</v>
+      </c>
+      <c r="B86" s="4" t="str">
+        <v>370,00</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="3" t="str">
+        <v>12-13 w dniu 21-08-2024 r.</v>
+      </c>
+      <c r="B87" s="4" t="str">
+        <v>365,99</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="3" t="str">
+        <v>13-14 w dniu 21-08-2024 r.</v>
+      </c>
+      <c r="B88" s="4" t="str">
+        <v>399,00</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="3" t="str">
+        <v>14-15 w dniu 21-08-2024 r.</v>
+      </c>
+      <c r="B89" s="4" t="str">
+        <v>366,39</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="3" t="str">
+        <v>15-16 w dniu 21-08-2024 r.</v>
+      </c>
+      <c r="B90" s="4" t="str">
+        <v>365,99</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="3" t="str">
+        <v>16-17 w dniu 21-08-2024 r.</v>
+      </c>
+      <c r="B91" s="4" t="str">
+        <v>380,00</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="3" t="str">
+        <v>17-18 w dniu 21-08-2024 r.</v>
+      </c>
+      <c r="B92" s="4" t="str">
+        <v>394,79</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="3" t="str">
+        <v>18-19 w dniu 21-08-2024 r.</v>
+      </c>
+      <c r="B93" s="4" t="str">
+        <v>491,01</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="3" t="str">
+        <v>19-20 w dniu 21-08-2024 r.</v>
+      </c>
+      <c r="B94" s="4" t="str">
+        <v>596,00</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="3" t="str">
+        <v>20-21 w dniu 21-08-2024 r.</v>
+      </c>
+      <c r="B95" s="4" t="str">
+        <v>697,93</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="3" t="str">
+        <v>21-22 w dniu 21-08-2024 r.</v>
+      </c>
+      <c r="B96" s="4" t="str">
+        <v>580,31</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="3" t="str">
+        <v>22-23 w dniu 21-08-2024 r.</v>
+      </c>
+      <c r="B97" s="4" t="str">
+        <v>467,00</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="3" t="str">
+        <v>23-24 w dniu 21-08-2024 r.</v>
+      </c>
+      <c r="B98" s="4" t="str">
+        <v>416,39</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="3" t="str">
+        <v>0-1 w dniu 22-08-2024 r.</v>
+      </c>
+      <c r="B99" s="4" t="str">
+        <v>420,00</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="3" t="str">
+        <v>1-2 w dniu 22-08-2024 r.</v>
+      </c>
+      <c r="B100" s="4" t="str">
+        <v>406,00</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="3" t="str">
+        <v>2-3 w dniu 22-08-2024 r.</v>
+      </c>
+      <c r="B101" s="4" t="str">
+        <v>398,00</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="3" t="str">
+        <v>3-4 w dniu 22-08-2024 r.</v>
+      </c>
+      <c r="B102" s="4" t="str">
+        <v>404,00</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="3" t="str">
+        <v>4-5 w dniu 22-08-2024 r.</v>
+      </c>
+      <c r="B103" s="4" t="str">
+        <v>410,00</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="3" t="str">
+        <v>5-6 w dniu 22-08-2024 r.</v>
+      </c>
+      <c r="B104" s="4" t="str">
+        <v>446,30</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="3" t="str">
+        <v>6-7 w dniu 22-08-2024 r.</v>
+      </c>
+      <c r="B105" s="4" t="str">
+        <v>532,10</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="3" t="str">
+        <v>7-8 w dniu 22-08-2024 r.</v>
+      </c>
+      <c r="B106" s="4" t="str">
+        <v>520,01</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="3" t="str">
+        <v>8-9 w dniu 22-08-2024 r.</v>
+      </c>
+      <c r="B107" s="4" t="str">
+        <v>461,13</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="3" t="str">
+        <v>9-10 w dniu 22-08-2024 r.</v>
+      </c>
+      <c r="B108" s="4" t="str">
+        <v>360,00</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="3" t="str">
+        <v>10-11 w dniu 22-08-2024 r.</v>
+      </c>
+      <c r="B109" s="4" t="str">
+        <v>301,99</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="3" t="str">
+        <v>11-12 w dniu 22-08-2024 r.</v>
+      </c>
+      <c r="B110" s="4" t="str">
+        <v>270,00</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="3" t="str">
+        <v>12-13 w dniu 22-08-2024 r.</v>
+      </c>
+      <c r="B111" s="4" t="str">
+        <v>259,99</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="3" t="str">
+        <v>13-14 w dniu 22-08-2024 r.</v>
+      </c>
+      <c r="B112" s="4" t="str">
+        <v>290,00</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="3" t="str">
+        <v>14-15 w dniu 22-08-2024 r.</v>
+      </c>
+      <c r="B113" s="4" t="str">
+        <v>349,99</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="3" t="str">
+        <v>15-16 w dniu 22-08-2024 r.</v>
+      </c>
+      <c r="B114" s="4" t="str">
+        <v>400,00</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="3" t="str">
+        <v>16-17 w dniu 22-08-2024 r.</v>
+      </c>
+      <c r="B115" s="4" t="str">
+        <v>521,20</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="3" t="str">
+        <v>17-18 w dniu 22-08-2024 r.</v>
+      </c>
+      <c r="B116" s="4" t="str">
+        <v>548,64</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="3" t="str">
+        <v>18-19 w dniu 22-08-2024 r.</v>
+      </c>
+      <c r="B117" s="4" t="str">
+        <v>708,30</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="3" t="str">
+        <v>19-20 w dniu 22-08-2024 r.</v>
+      </c>
+      <c r="B118" s="4" t="str">
+        <v>930,01</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="3" t="str">
+        <v>20-21 w dniu 22-08-2024 r.</v>
+      </c>
+      <c r="B119" s="4" t="str">
+        <v>1120,00</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="3" t="str">
+        <v>21-22 w dniu 22-08-2024 r.</v>
+      </c>
+      <c r="B120" s="4" t="str">
+        <v>730,00</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="3" t="str">
+        <v>22-23 w dniu 22-08-2024 r.</v>
+      </c>
+      <c r="B121" s="4" t="str">
+        <v>518,00</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="3" t="str">
+        <v>23-24 w dniu 22-08-2024 r.</v>
+      </c>
+      <c r="B122" s="4" t="str">
+        <v>432,00</v>
       </c>
     </row>
   </sheetData>
